--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE6DE1C-2C9E-484F-BE6E-A22F4CF362D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F053259-CA11-44E9-B71D-AE4DDF5CDC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="1063">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -3367,6 +3367,37 @@
   </si>
   <si>
     <t>ankaraya giderken nakit (umut)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trafik cezası </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve">MB-26446083 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve">tebliğ tar: 09-01-24  sungurlu </t>
+    </r>
+  </si>
+  <si>
+    <t>pimapen Orhan conta değişim</t>
+  </si>
+  <si>
+    <t>kaza yaptı</t>
   </si>
 </sst>
 </file>
@@ -3698,7 +3729,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3925,6 +3956,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4272,7 +4321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4642,10 +4691,26 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="27" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="43" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="27" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="%20 - Vurgu6" xfId="4" builtinId="50" customBuiltin="1"/>
@@ -12081,7 +12146,9 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -12141,7 +12208,7 @@
       <c r="B4" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="33">
         <v>-152</v>
       </c>
       <c r="H4" s="13">
@@ -12168,7 +12235,7 @@
       </c>
       <c r="C6" s="124"/>
       <c r="D6" s="124"/>
-      <c r="E6" s="13">
+      <c r="E6" s="33">
         <v>-400</v>
       </c>
       <c r="G6" s="13"/>
@@ -12183,7 +12250,7 @@
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="124"/>
-      <c r="E7" s="13">
+      <c r="E7" s="33">
         <v>-500</v>
       </c>
       <c r="G7" s="13"/>
@@ -12198,7 +12265,7 @@
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="124"/>
-      <c r="E8" s="13">
+      <c r="E8" s="33">
         <v>-250</v>
       </c>
       <c r="G8" s="13"/>
@@ -12211,7 +12278,7 @@
       <c r="B9" s="124"/>
       <c r="C9" s="124"/>
       <c r="D9" s="124"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="33"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
         <f t="shared" si="0"/>
@@ -12226,7 +12293,7 @@
         <v>145</v>
       </c>
       <c r="D10" s="124"/>
-      <c r="E10" s="13">
+      <c r="E10" s="33">
         <v>-150</v>
       </c>
       <c r="F10" s="33"/>
@@ -12244,7 +12311,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="126"/>
-      <c r="E11" s="13">
+      <c r="E11" s="33">
         <v>-300</v>
       </c>
       <c r="F11" s="33"/>
@@ -12262,7 +12329,7 @@
         <v>145</v>
       </c>
       <c r="D12" s="126"/>
-      <c r="E12" s="13">
+      <c r="E12" s="33">
         <v>-100</v>
       </c>
       <c r="F12" s="33"/>
@@ -12276,7 +12343,7 @@
       <c r="B13" s="124"/>
       <c r="C13" s="124"/>
       <c r="D13" s="124"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="33"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13">
         <f t="shared" si="0"/>
@@ -12288,7 +12355,7 @@
         <v>148</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13">
+      <c r="E14" s="33">
         <f>E45*-1</f>
         <v>0</v>
       </c>
@@ -12303,7 +12370,7 @@
       <c r="B15" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="33">
         <f>E50</f>
         <v>-3900.54</v>
       </c>
@@ -12321,7 +12388,7 @@
       <c r="B16" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="33">
         <f>E67</f>
         <v>-8126.1</v>
       </c>
@@ -12340,7 +12407,7 @@
       </c>
       <c r="C17" s="124"/>
       <c r="D17" s="124"/>
-      <c r="E17" s="13">
+      <c r="E17" s="33">
         <v>-5375</v>
       </c>
       <c r="G17" s="13"/>
@@ -12356,7 +12423,7 @@
       </c>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
-      <c r="E18" s="13">
+      <c r="E18" s="33">
         <v>-2125</v>
       </c>
       <c r="G18" s="13"/>
@@ -12371,7 +12438,7 @@
       </c>
       <c r="C19" s="124"/>
       <c r="D19" s="124"/>
-      <c r="E19" s="13">
+      <c r="E19" s="33">
         <v>-1500</v>
       </c>
       <c r="F19" s="33"/>
@@ -12382,18 +12449,21 @@
       </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="E20" s="5"/>
       <c r="H20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
+      <c r="E21" s="5"/>
       <c r="H21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="E22" s="5"/>
       <c r="H22" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12403,7 +12473,7 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="33">
         <v>-5000</v>
       </c>
       <c r="F23" s="13"/>
@@ -12417,7 +12487,7 @@
       <c r="B24" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="33">
         <v>-65000</v>
       </c>
       <c r="F24" s="13"/>
@@ -12431,7 +12501,7 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="33">
         <v>-5000</v>
       </c>
       <c r="F25" s="13"/>
@@ -12445,7 +12515,7 @@
       <c r="B26" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="33">
         <v>-5000</v>
       </c>
       <c r="F26" s="13"/>
@@ -13292,9 +13362,11 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView topLeftCell="A42" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -13326,24 +13398,24 @@
         <v>134</v>
       </c>
       <c r="D2" s="52">
-        <f>SUM(D4:D40)</f>
+        <f>SUM(D4:D41)</f>
         <v>196464.6</v>
       </c>
       <c r="E2" s="52">
-        <f>SUM(E4:E40)</f>
-        <v>-52469.760000000002</v>
+        <f>SUM(E4:E41)</f>
+        <v>-53183.01</v>
       </c>
       <c r="F2" s="52">
-        <f>SUM(F4:F40)</f>
+        <f>SUM(F4:F41)</f>
         <v>182500</v>
       </c>
       <c r="G2" s="52">
-        <f>SUM(G4:G40)</f>
-        <v>-47077.21</v>
+        <f>SUM(G4:G41)</f>
+        <v>-50777.21</v>
       </c>
       <c r="H2" s="52">
         <f>F2+G2</f>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13364,7 +13436,7 @@
         <v>-152</v>
       </c>
       <c r="H4" s="13">
-        <f t="shared" ref="H4:H40" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H44" si="0">H3+F4+G4</f>
         <v>-152</v>
       </c>
     </row>
@@ -13496,7 +13568,7 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <f>E53*-1</f>
+        <f>E54*-1</f>
         <v>-169.14</v>
       </c>
       <c r="F12" s="13"/>
@@ -13515,7 +13587,7 @@
         <v>149</v>
       </c>
       <c r="E13" s="13">
-        <f>E58</f>
+        <f>E59</f>
         <v>-3961.94</v>
       </c>
       <c r="F13" s="13"/>
@@ -13536,7 +13608,7 @@
         <v>150</v>
       </c>
       <c r="E14" s="13">
-        <f>E75</f>
+        <f>E76</f>
         <v>-12474.550000000001</v>
       </c>
       <c r="G14" s="13">
@@ -13618,7 +13690,7 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="33">
         <v>-5000</v>
       </c>
       <c r="F19" s="13"/>
@@ -13632,7 +13704,7 @@
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="33">
         <v>-5000</v>
       </c>
       <c r="F20" s="13"/>
@@ -13717,14 +13789,16 @@
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>45320</v>
+      </c>
       <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="17">
-        <v>10000</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+        <v>1060</v>
+      </c>
+      <c r="E26" s="33">
+        <v>-713.25</v>
+      </c>
+      <c r="F26" s="33"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13">
         <f t="shared" si="0"/>
@@ -13732,12 +13806,11 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="121"/>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="17">
-        <v>2800</v>
+        <v>10000</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -13748,33 +13821,33 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="16">
-        <v>45293</v>
-      </c>
+      <c r="A28" s="121"/>
       <c r="B28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="17"/>
+        <v>156</v>
+      </c>
+      <c r="D28" s="17">
+        <v>2800</v>
+      </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="13">
-        <v>6500</v>
-      </c>
+      <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13">
         <f t="shared" si="0"/>
-        <v>-36577.21</v>
+        <v>-43077.21</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="121"/>
+      <c r="A29" s="16">
+        <v>45293</v>
+      </c>
       <c r="B29" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="17">
+        <v>240</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13">
         <v>6500</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13">
         <f t="shared" si="0"/>
@@ -13782,32 +13855,33 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="16">
-        <v>45294</v>
-      </c>
+      <c r="A30" s="121"/>
       <c r="B30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="17"/>
+        <v>241</v>
+      </c>
+      <c r="D30" s="17">
+        <v>6500</v>
+      </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="13">
-        <v>6000</v>
-      </c>
+      <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13">
         <f t="shared" si="0"/>
-        <v>-30577.21</v>
+        <v>-36577.21</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="121"/>
+      <c r="A31" s="16">
+        <v>45294</v>
+      </c>
       <c r="B31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="17">
-        <v>7000</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D31" s="17"/>
       <c r="E31" s="13"/>
+      <c r="F31" s="13">
+        <v>6000</v>
+      </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13">
         <f t="shared" si="0"/>
@@ -13815,14 +13889,14 @@
       </c>
     </row>
     <row r="32" spans="1:8">
+      <c r="A32" s="121"/>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D32" s="17">
-        <v>170000</v>
+        <v>7000</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13">
         <f t="shared" si="0"/>
@@ -13830,26 +13904,23 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="2">
-        <v>45295</v>
-      </c>
       <c r="B33" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="17"/>
+        <v>244</v>
+      </c>
+      <c r="D33" s="255">
+        <v>170000</v>
+      </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="13">
-        <v>120000</v>
-      </c>
+      <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13">
         <f t="shared" si="0"/>
-        <v>89422.790000000008</v>
+        <v>-30577.21</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="s">
         <v>245</v>
@@ -13857,54 +13928,61 @@
       <c r="D34" s="17"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13">
-        <v>26000</v>
+        <v>120000</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
         <f t="shared" si="0"/>
-        <v>115422.79000000001</v>
+        <v>89422.790000000008</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13">
         <f t="shared" si="0"/>
-        <v>139422.79</v>
+        <v>115422.79000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2">
+        <v>45299</v>
+      </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13">
-        <v>-4000</v>
-      </c>
+      <c r="F36" s="13">
+        <v>24000</v>
+      </c>
+      <c r="G36" s="13"/>
       <c r="H36" s="13">
         <f t="shared" si="0"/>
-        <v>135422.79</v>
+        <v>139422.79</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>247</v>
+      </c>
       <c r="D37" s="17"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="G37" s="13">
+        <v>-4000</v>
+      </c>
       <c r="H37" s="13">
         <f t="shared" si="0"/>
         <v>135422.79</v>
@@ -13912,249 +13990,254 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2"/>
+      <c r="B38" t="s">
+        <v>1061</v>
+      </c>
       <c r="D38" s="17"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="G38" s="13">
+        <v>-3700</v>
+      </c>
       <c r="H38" s="13">
         <f t="shared" si="0"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="D39" s="128"/>
+      <c r="A39" s="2"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13">
         <f t="shared" si="0"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="D40" s="128"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13">
         <f t="shared" si="0"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="16"/>
       <c r="D41" s="128"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="H41" s="13">
+        <f t="shared" si="0"/>
+        <v>131722.79</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="16"/>
       <c r="D42" s="128"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="13">
+        <f t="shared" si="0"/>
+        <v>131722.79</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="E43" s="13"/>
+      <c r="A43" s="16"/>
+      <c r="D43" s="128"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13">
-        <f>H40+F43+G43</f>
-        <v>135422.79</v>
+        <f t="shared" si="0"/>
+        <v>131722.79</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
       <c r="E44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="H44" s="13">
+        <f t="shared" si="0"/>
+        <v>131722.79</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="118"/>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" s="71" customFormat="1">
-      <c r="A46" s="130"/>
-      <c r="C46" s="131"/>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="132">
+    <row r="46" spans="1:8">
+      <c r="A46" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="118"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" s="71" customFormat="1">
+      <c r="A47" s="130"/>
+      <c r="C47" s="131"/>
+      <c r="H47" s="47"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="132">
         <v>44929</v>
       </c>
-      <c r="B47" s="133" t="s">
+      <c r="B48" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="134">
-        <f>SUM(D48:D53)</f>
+      <c r="C48" s="116"/>
+      <c r="D48" s="134">
+        <f>SUM(D49:D54)</f>
         <v>4772.1500000000005</v>
       </c>
-      <c r="E47" s="134">
-        <f>SUM(E48:E53)</f>
+      <c r="E48" s="134">
+        <f>SUM(E49:E54)</f>
         <v>3412.64</v>
       </c>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="130"/>
-      <c r="B48" s="135" t="s">
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="130"/>
+      <c r="B49" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="120">
+      <c r="C49" s="71" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D49" s="120">
         <v>1329.72</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1282.42</v>
-      </c>
-      <c r="E49" s="13">
-        <v>1250</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="E49" s="47"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1">
-        <v>298.67</v>
+        <v>1282.42</v>
       </c>
       <c r="E50" s="13">
-        <v>298.5</v>
+        <v>1250</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="D51" s="1">
-        <v>1204.3800000000001</v>
-      </c>
-      <c r="E51">
-        <v>1205</v>
+        <v>298.67</v>
+      </c>
+      <c r="E51" s="13">
+        <v>298.5</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="D52" s="1">
-        <v>487.82</v>
-      </c>
-      <c r="E52" s="13">
-        <v>490</v>
+        <v>1204.3800000000001</v>
+      </c>
+      <c r="E52">
+        <v>1205</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="126"/>
+        <v>166</v>
+      </c>
       <c r="D53" s="1">
-        <v>169.14</v>
-      </c>
-      <c r="E53" s="126">
-        <v>169.14</v>
+        <v>487.82</v>
+      </c>
+      <c r="E53" s="13">
+        <v>490</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
       <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="33"/>
+      <c r="D54" s="1">
+        <v>169.14</v>
+      </c>
+      <c r="E54" s="126">
+        <v>169.14</v>
+      </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="56" spans="1:8">
-      <c r="B56" s="113"/>
+    <row r="55" spans="1:8">
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="B57" s="17"/>
+      <c r="B57" s="113"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="116"/>
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="116"/>
+      <c r="B59" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="119">
-        <f>SUM(E59:E72)</f>
+      <c r="C59" s="116"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="119">
+        <f>SUM(E60:E73)</f>
         <v>-3961.94</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-    </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="16"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="16">
-        <v>45043</v>
-      </c>
-      <c r="B61" s="126" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="126">
-        <v>10764.57</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="33">
-        <v>-1196.06</v>
-      </c>
+      <c r="A61" s="16"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="121">
-        <v>45187</v>
+      <c r="A62" s="16">
+        <v>45043</v>
       </c>
       <c r="B62" s="126" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C62" s="126">
-        <v>7648.33</v>
-      </c>
-      <c r="D62" s="136" t="s">
-        <v>250</v>
+        <v>10764.57</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="E62" s="33">
-        <v>-849.81</v>
+        <v>-1196.06</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -14164,57 +14247,66 @@
         <v>45187</v>
       </c>
       <c r="B63" s="126" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C63" s="126">
-        <v>11128</v>
+        <v>7648.33</v>
       </c>
       <c r="D63" s="136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E63" s="33">
-        <v>-1854.67</v>
+        <v>-849.81</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="16">
-        <v>44995</v>
-      </c>
-      <c r="B64" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64">
-        <v>613.91</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>253</v>
+      <c r="A64" s="121">
+        <v>45187</v>
+      </c>
+      <c r="B64" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="126">
+        <v>11128</v>
+      </c>
+      <c r="D64" s="136" t="s">
+        <v>251</v>
       </c>
       <c r="E64" s="33">
-        <v>-61.4</v>
+        <v>-1854.67</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" ht="15">
-      <c r="D65" s="138" t="s">
-        <v>254</v>
+    <row r="65" spans="1:8">
+      <c r="A65" s="16">
+        <v>44995</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65">
+        <v>613.91</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="33">
+        <v>-61.4</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="15">
+      <c r="D66" s="138" t="s">
+        <v>254</v>
+      </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="121"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="126"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
@@ -14230,7 +14322,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="121"/>
-      <c r="B69" s="137"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="126"/>
       <c r="D69" s="126"/>
       <c r="E69" s="13"/>
@@ -14251,6 +14343,8 @@
     <row r="71" spans="1:8">
       <c r="A71" s="121"/>
       <c r="B71" s="137"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -14259,8 +14353,6 @@
     <row r="72" spans="1:8">
       <c r="A72" s="121"/>
       <c r="B72" s="137"/>
-      <c r="C72" s="126"/>
-      <c r="D72" s="126"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
@@ -14268,7 +14360,9 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="121"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="126"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
@@ -14276,97 +14370,86 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="121"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="126"/>
-      <c r="D74" s="126"/>
+      <c r="B74" s="5"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="116"/>
-      <c r="B75" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="116"/>
-      <c r="D75" s="116"/>
-      <c r="E75" s="134">
-        <f>SUM(E76:E110)</f>
-        <v>-12474.550000000001</v>
-      </c>
+      <c r="A75" s="121"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="126"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="121"/>
-      <c r="B76" s="126"/>
-      <c r="C76" s="126"/>
-      <c r="E76" s="33"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="134">
+        <f>SUM(E77:E111)</f>
+        <v>-12474.550000000001</v>
+      </c>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="121">
-        <v>45187</v>
-      </c>
-      <c r="B77" s="126" t="s">
-        <v>222</v>
-      </c>
+      <c r="A77" s="121"/>
+      <c r="B77" s="126"/>
       <c r="C77" s="126"/>
-      <c r="D77" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77" s="13">
-        <v>-3974.44</v>
-      </c>
+      <c r="E77" s="33"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="2">
-        <v>45214</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
+      <c r="A78" s="121">
+        <v>45187</v>
+      </c>
+      <c r="B78" s="126" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="126"/>
       <c r="D78" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="E78" s="13">
-        <v>-600</v>
-      </c>
-      <c r="F78" s="13"/>
+        <v>-3974.44</v>
+      </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="121"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="126"/>
-      <c r="D79" s="126"/>
-      <c r="E79" s="13"/>
+      <c r="A79" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="13">
+        <v>-600</v>
+      </c>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="2">
-        <v>45259</v>
-      </c>
-      <c r="B80" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="13">
-        <v>-1204.5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>257</v>
-      </c>
-      <c r="E80" s="13">
-        <v>-401.5</v>
-      </c>
+      <c r="A80" s="121"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
     </row>
@@ -14375,16 +14458,16 @@
         <v>45259</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C81" s="13">
-        <v>-148.6</v>
+        <v>-1204.5</v>
       </c>
       <c r="D81" t="s">
         <v>257</v>
       </c>
       <c r="E81" s="13">
-        <v>-49.53</v>
+        <v>-401.5</v>
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
@@ -14394,16 +14477,16 @@
         <v>45259</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C82" s="13">
-        <v>-244.8</v>
+        <v>-148.6</v>
       </c>
       <c r="D82" t="s">
         <v>257</v>
       </c>
       <c r="E82" s="13">
-        <v>-81.599999999999994</v>
+        <v>-49.53</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -14413,59 +14496,62 @@
         <v>45259</v>
       </c>
       <c r="B83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83" s="13">
-        <v>-532.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D83" t="s">
         <v>257</v>
       </c>
       <c r="E83" s="13">
-        <v>-177.53</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>45285</v>
-      </c>
-      <c r="B84" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84" s="126"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="13"/>
+        <v>45259</v>
+      </c>
+      <c r="B84" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="13">
+        <v>-532.6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="13">
+        <v>-177.53</v>
+      </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="121"/>
-      <c r="B85" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" s="126">
-        <v>109.92</v>
-      </c>
-      <c r="D85" s="126"/>
+      <c r="A85" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B85" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="126"/>
       <c r="E85" s="33"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="121">
-        <v>45283</v>
-      </c>
+      <c r="A86" s="121"/>
       <c r="B86" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C86" s="126"/>
+        <v>261</v>
+      </c>
+      <c r="C86" s="126">
+        <v>109.92</v>
+      </c>
       <c r="D86" s="126"/>
-      <c r="E86" s="13">
-        <v>-90</v>
-      </c>
+      <c r="E86" s="33"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -14475,12 +14561,12 @@
         <v>45283</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C87" s="126"/>
       <c r="D87" s="126"/>
       <c r="E87" s="13">
-        <v>-105.12</v>
+        <v>-90</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -14488,7 +14574,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="121">
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>263</v>
@@ -14496,7 +14582,7 @@
       <c r="C88" s="126"/>
       <c r="D88" s="126"/>
       <c r="E88" s="13">
-        <v>-58.63</v>
+        <v>-105.12</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
@@ -14504,15 +14590,15 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="121">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C89" s="126"/>
       <c r="D89" s="126"/>
       <c r="E89" s="13">
-        <v>-110</v>
+        <v>-58.63</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
@@ -14523,12 +14609,12 @@
         <v>45281</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C90" s="126"/>
       <c r="D90" s="126"/>
       <c r="E90" s="13">
-        <v>-70</v>
+        <v>-110</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
@@ -14544,7 +14630,7 @@
       <c r="C91" s="126"/>
       <c r="D91" s="126"/>
       <c r="E91" s="13">
-        <v>-76.66</v>
+        <v>-70</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
@@ -14552,15 +14638,15 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="121">
-        <v>45279</v>
+        <v>45281</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" s="126"/>
       <c r="D92" s="126"/>
       <c r="E92" s="13">
-        <v>-260</v>
+        <v>-76.66</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
@@ -14568,15 +14654,15 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="121">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C93" s="126"/>
       <c r="D93" s="126"/>
       <c r="E93" s="13">
-        <v>-370</v>
+        <v>-260</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -14584,15 +14670,15 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="121">
-        <v>45276</v>
+        <v>45278</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C94" s="126"/>
       <c r="D94" s="126"/>
       <c r="E94" s="13">
-        <v>-300</v>
+        <v>-370</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
@@ -14603,12 +14689,12 @@
         <v>45276</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C95" s="126"/>
       <c r="D95" s="126"/>
       <c r="E95" s="13">
-        <v>-250</v>
+        <v>-300</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
@@ -14616,15 +14702,15 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="121">
-        <v>45275</v>
+        <v>45276</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C96" s="126"/>
       <c r="D96" s="126"/>
       <c r="E96" s="13">
-        <v>-470</v>
+        <v>-250</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -14635,12 +14721,12 @@
         <v>45275</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C97" s="126"/>
       <c r="D97" s="126"/>
       <c r="E97" s="13">
-        <v>-285</v>
+        <v>-470</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
@@ -14648,15 +14734,15 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="121">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C98" s="126"/>
       <c r="D98" s="126"/>
       <c r="E98" s="13">
-        <v>-150</v>
+        <v>-285</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
@@ -14664,15 +14750,15 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="121">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C99" s="126"/>
       <c r="D99" s="126"/>
       <c r="E99" s="13">
-        <v>-1108.1500000000001</v>
+        <v>-150</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -14680,15 +14766,15 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="121">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C100" s="126"/>
       <c r="D100" s="126"/>
       <c r="E100" s="13">
-        <v>-150</v>
+        <v>-1108.1500000000001</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
@@ -14696,15 +14782,15 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="121">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C101" s="126"/>
       <c r="D101" s="126"/>
       <c r="E101" s="13">
-        <v>-1551.29</v>
+        <v>-150</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
@@ -14715,12 +14801,12 @@
         <v>45270</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C102" s="126"/>
       <c r="D102" s="126"/>
       <c r="E102" s="13">
-        <v>-315.10000000000002</v>
+        <v>-1551.29</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
@@ -14728,15 +14814,15 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="121">
-        <v>45267</v>
+        <v>45270</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C103" s="126"/>
       <c r="D103" s="126"/>
       <c r="E103" s="13">
-        <v>-300</v>
+        <v>-315.10000000000002</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
@@ -14744,15 +14830,15 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="121">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C104" s="126"/>
       <c r="D104" s="126"/>
       <c r="E104" s="13">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
@@ -14760,7 +14846,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="121">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>263</v>
@@ -14776,61 +14862,66 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="121">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="C106" s="126"/>
-      <c r="D106" s="126">
-        <v>11990.16</v>
-      </c>
-      <c r="E106" s="13"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="13">
+        <v>-200</v>
+      </c>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="121">
-        <v>45260</v>
+        <v>45264</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="C107" s="126"/>
-      <c r="D107" s="126"/>
-      <c r="E107" s="13">
-        <v>-200</v>
-      </c>
+      <c r="D107" s="126">
+        <v>11990.16</v>
+      </c>
+      <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="2">
-        <v>45257</v>
+      <c r="A108" s="121">
+        <v>45260</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>263</v>
       </c>
+      <c r="C108" s="126"/>
+      <c r="D108" s="126"/>
       <c r="E108" s="13">
-        <v>-250</v>
-      </c>
+        <v>-200</v>
+      </c>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>45255</v>
+        <v>45257</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E109" s="13">
-        <v>-160</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>45254</v>
+        <v>45255</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>263</v>
@@ -14839,67 +14930,65 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15">
-      <c r="D111" s="138" t="s">
+    <row r="111" spans="1:8">
+      <c r="A111" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E111" s="13">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15">
+      <c r="D112" s="138" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="116"/>
-      <c r="B116" s="117" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" s="116"/>
+      <c r="B117" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="116"/>
-      <c r="D116" s="118"/>
-      <c r="E116" s="119">
-        <f>SUM(E117:E124)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="121"/>
-      <c r="B117" t="s">
-        <v>2</v>
+      <c r="C117" s="116"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="119">
+        <f>SUM(E118:E125)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="121"/>
       <c r="B118" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="121"/>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="121"/>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="121"/>
       <c r="B121" t="s">
-        <v>129</v>
-      </c>
-      <c r="D121">
-        <v>111</v>
-      </c>
-      <c r="E121">
-        <f>D121*C121</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="121"/>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122">
-        <v>850</v>
+        <v>111</v>
       </c>
       <c r="E122">
         <f>D122*C122</f>
@@ -14909,10 +14998,10 @@
     <row r="123" spans="1:5">
       <c r="A123" s="121"/>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="E123">
         <f>D123*C123</f>
@@ -14922,30 +15011,43 @@
     <row r="124" spans="1:5">
       <c r="A124" s="121"/>
       <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124">
+        <v>100</v>
+      </c>
+      <c r="E124">
+        <f>D124*C124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="121"/>
+      <c r="B125" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="B125" t="s">
+    <row r="126" spans="1:5">
+      <c r="B126" t="s">
         <v>171</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E126" s="13">
         <f>H2</f>
-        <v>135422.79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="D127" s="11" t="s">
+        <v>131722.79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="D128" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E127">
-        <f>SUM(E117:E126)</f>
-        <v>135422.79</v>
+      <c r="E128">
+        <f>SUM(E118:E127)</f>
+        <v>131722.79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -15922,7 +16024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -17355,8 +17457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17392,11 +17494,11 @@
         <v>61</v>
       </c>
       <c r="E5" s="23">
-        <v>0.23538400000000001</v>
+        <v>0.2351</v>
       </c>
       <c r="F5" s="23">
         <f>1-E5</f>
-        <v>0.76461599999999996</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="I5" s="13"/>
     </row>
@@ -17452,22 +17554,22 @@
       </c>
       <c r="H8" s="33">
         <f t="shared" ref="H8:H25" si="2">IF(G8=1,D8*$E$5*-1,0)</f>
-        <v>1375.4781732000001</v>
+        <v>1373.8186050000002</v>
       </c>
       <c r="I8" s="253">
         <f t="shared" ref="I8:I25" si="3">I9+H8</f>
-        <v>-119450.07603448002</v>
+        <v>-119305.95484700002</v>
       </c>
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="36">
+      <c r="B9" s="260">
         <v>45290</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="261" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="262">
         <v>135000</v>
       </c>
       <c r="E9" s="33">
@@ -17483,11 +17585,11 @@
       </c>
       <c r="H9" s="33">
         <f t="shared" si="2"/>
-        <v>-31776.84</v>
+        <v>-31738.5</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="3"/>
-        <v>-120825.55420768002</v>
+        <v>-120679.77345200001</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -17515,17 +17617,17 @@
       </c>
       <c r="I10" s="171">
         <f t="shared" si="3"/>
-        <v>-89048.714207680023</v>
+        <v>-88941.273452000009</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="39">
+      <c r="B11" s="263">
         <v>45236</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="264" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="265">
         <v>15887.06</v>
       </c>
       <c r="E11" s="33">
@@ -17541,21 +17643,21 @@
       </c>
       <c r="H11" s="33">
         <f t="shared" si="2"/>
-        <v>-3739.5597310399999</v>
+        <v>-3735.047806</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="3"/>
-        <v>-89048.714207680023</v>
+        <v>-88941.273452000009</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="39">
+      <c r="B12" s="263">
         <v>45195</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="264" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="265">
         <v>84000</v>
       </c>
       <c r="E12" s="33">
@@ -17571,21 +17673,21 @@
       </c>
       <c r="H12" s="33">
         <f t="shared" si="2"/>
-        <v>-19772.256000000001</v>
+        <v>-19748.400000000001</v>
       </c>
       <c r="I12" s="13">
         <f t="shared" si="3"/>
-        <v>-85309.154476640018</v>
+        <v>-85206.225646000006</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="36">
+      <c r="B13" s="260">
         <v>45229</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="261" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="262">
         <v>10000</v>
       </c>
       <c r="E13" s="33">
@@ -17601,21 +17703,21 @@
       </c>
       <c r="H13" s="33">
         <f t="shared" si="2"/>
-        <v>-2353.84</v>
+        <v>-2351</v>
       </c>
       <c r="I13" s="13">
         <f t="shared" si="3"/>
-        <v>-65536.89847664001</v>
+        <v>-65457.825645999998</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="36">
+      <c r="B14" s="260">
         <v>45194</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="261" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="262">
         <v>3000</v>
       </c>
       <c r="E14" s="33">
@@ -17631,21 +17733,21 @@
       </c>
       <c r="H14" s="33">
         <f t="shared" si="2"/>
-        <v>-706.15200000000004</v>
+        <v>-705.3</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" si="3"/>
-        <v>-63183.058476640013</v>
+        <v>-63106.825645999998</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="36">
+      <c r="B15" s="260">
         <v>45192</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="261" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="262">
         <v>83000</v>
       </c>
       <c r="E15" s="33">
@@ -17661,11 +17763,11 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="2"/>
-        <v>-19536.871999999999</v>
+        <v>-19513.3</v>
       </c>
       <c r="I15" s="13">
         <f t="shared" si="3"/>
-        <v>-62476.906476640012</v>
+        <v>-62401.525645999995</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -17684,7 +17786,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="1"/>
-        <v>-1647.6880000000001</v>
+        <v>-1645.7</v>
       </c>
       <c r="G16" s="35">
         <v>0</v>
@@ -17695,17 +17797,17 @@
       </c>
       <c r="I16" s="13">
         <f t="shared" si="3"/>
-        <v>-42940.034476640009</v>
+        <v>-42888.225645999992</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="36">
+      <c r="B17" s="260">
         <v>45290</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="261" t="s">
         <v>337</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="262">
         <v>6000</v>
       </c>
       <c r="E17" s="33">
@@ -17721,21 +17823,21 @@
       </c>
       <c r="H17" s="33">
         <f t="shared" si="2"/>
-        <v>-1412.3040000000001</v>
+        <v>-1410.6</v>
       </c>
       <c r="I17" s="13">
         <f t="shared" si="3"/>
-        <v>-42940.034476640009</v>
+        <v>-42888.225645999992</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="36">
+      <c r="B18" s="260">
         <v>45260</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="261" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="262">
         <v>6000</v>
       </c>
       <c r="E18" s="33">
@@ -17751,21 +17853,21 @@
       </c>
       <c r="H18" s="33">
         <f t="shared" si="2"/>
-        <v>-1412.3040000000001</v>
+        <v>-1410.6</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" si="3"/>
-        <v>-41527.730476640005</v>
+        <v>-41477.625645999993</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="39">
+      <c r="B19" s="263">
         <v>45229</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="264" t="s">
         <v>339</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="265">
         <v>6000</v>
       </c>
       <c r="E19" s="33">
@@ -17781,21 +17883,21 @@
       </c>
       <c r="H19" s="33">
         <f t="shared" si="2"/>
-        <v>-1412.3040000000001</v>
+        <v>-1410.6</v>
       </c>
       <c r="I19" s="13">
         <f t="shared" si="3"/>
-        <v>-40115.426476640001</v>
+        <v>-40067.025645999995</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="39">
+      <c r="B20" s="263">
         <v>45199</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="265">
         <v>6000</v>
       </c>
       <c r="E20" s="33">
@@ -17811,21 +17913,21 @@
       </c>
       <c r="H20" s="33">
         <f t="shared" si="2"/>
-        <v>-1412.3040000000001</v>
+        <v>-1410.6</v>
       </c>
       <c r="I20" s="13">
         <f t="shared" si="3"/>
-        <v>-38703.122476639997</v>
+        <v>-38656.425645999996</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="39">
+      <c r="B21" s="263">
         <v>45171</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="265">
         <v>65000</v>
       </c>
       <c r="E21" s="33">
@@ -17841,21 +17943,21 @@
       </c>
       <c r="H21" s="33">
         <f t="shared" si="2"/>
-        <v>-15299.960000000001</v>
+        <v>-15281.5</v>
       </c>
       <c r="I21" s="13">
         <f t="shared" si="3"/>
-        <v>-37290.818476640001</v>
+        <v>-37245.825645999998</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="39">
+      <c r="B22" s="263">
         <v>45122</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="264" t="s">
         <v>340</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="265">
         <v>50000</v>
       </c>
       <c r="E22" s="33">
@@ -17871,18 +17973,19 @@
       </c>
       <c r="H22" s="33">
         <f t="shared" si="2"/>
-        <v>-11769.2</v>
+        <v>-11755</v>
       </c>
       <c r="I22" s="13">
         <f t="shared" si="3"/>
-        <v>-21990.858476640002</v>
+        <v>-21964.325646000001</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="266"/>
+      <c r="C23" s="264" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="265">
         <v>28080</v>
       </c>
       <c r="E23" s="33">
@@ -17898,18 +18001,19 @@
       </c>
       <c r="H23" s="33">
         <f t="shared" si="2"/>
-        <v>-6609.5827200000003</v>
+        <v>-6601.6080000000002</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="3"/>
-        <v>-10221.658476640001</v>
+        <v>-10209.325646000001</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="266"/>
+      <c r="C24" s="264" t="s">
         <v>342</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="265">
         <v>8425.4599999999991</v>
       </c>
       <c r="E24" s="33">
@@ -17925,21 +18029,21 @@
       </c>
       <c r="H24" s="33">
         <f t="shared" si="2"/>
-        <v>-1983.2184766399998</v>
+        <v>-1980.8256459999998</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" si="3"/>
-        <v>-3612.0757566399998</v>
+        <v>-3607.7176460000001</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="39">
+      <c r="B25" s="263">
         <v>44963</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="264" t="s">
         <v>343</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="265">
         <v>6920</v>
       </c>
       <c r="E25" s="33">
@@ -17955,11 +18059,11 @@
       </c>
       <c r="H25" s="33">
         <f t="shared" si="2"/>
-        <v>-1628.8572800000002</v>
+        <v>-1626.8920000000001</v>
       </c>
       <c r="I25" s="13">
         <f t="shared" si="3"/>
-        <v>-1628.8572800000002</v>
+        <v>-1626.8920000000001</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -17976,11 +18080,11 @@
       </c>
       <c r="F27" s="13">
         <f>SUM(F8:F25)</f>
-        <v>-1647.6880000000001</v>
+        <v>-1645.7</v>
       </c>
       <c r="H27" s="13">
         <f>SUBTOTAL(109,$H$7:$H$26)</f>
-        <v>-119450.07603448002</v>
+        <v>-119305.95484700004</v>
       </c>
       <c r="I27" s="13"/>
     </row>
@@ -18040,10 +18144,10 @@
       </c>
       <c r="E32" s="51">
         <f>1-F32</f>
-        <v>0.76461609620000004</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="F32" s="51">
-        <v>0.23538390379999999</v>
+        <v>0.2351</v>
       </c>
       <c r="I32" s="13"/>
     </row>
@@ -18057,11 +18161,11 @@
       </c>
       <c r="E33" s="53">
         <f>$D$27*E32</f>
-        <v>393371.25545743498</v>
+        <v>393517.31515300006</v>
       </c>
       <c r="F33" s="53">
         <f>$D$27*F32</f>
-        <v>121097.71454256508</v>
+        <v>120951.65484700001</v>
       </c>
       <c r="I33" s="13"/>
     </row>
@@ -18071,15 +18175,15 @@
       </c>
       <c r="D34" s="33">
         <f>E34+F34</f>
-        <v>507469.17739954666</v>
+        <v>507468.9700000002</v>
       </c>
       <c r="E34" s="13">
         <f>F34/F32*E32</f>
-        <v>388019.10136506666</v>
+        <v>388163.01515300019</v>
       </c>
       <c r="F34" s="13">
         <f>$H$27*-1</f>
-        <v>119450.07603448002</v>
+        <v>119305.95484700004</v>
       </c>
       <c r="H34" s="54"/>
       <c r="I34" s="13"/>
@@ -18091,15 +18195,15 @@
       </c>
       <c r="D35" s="33">
         <f>D33-D34</f>
-        <v>6999.7926004533656</v>
+        <v>6999.9999999998254</v>
       </c>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>5352.1540923683206</v>
+        <v>5354.2999999998719</v>
       </c>
       <c r="F35" s="13">
         <f>F33-F34</f>
-        <v>1647.6385080850596</v>
+        <v>1645.699999999968</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -18137,14 +18241,14 @@
       </c>
       <c r="D39" s="13">
         <f>F34</f>
-        <v>119450.07603448002</v>
+        <v>119305.95484700004</v>
       </c>
       <c r="E39" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F39" s="13">
         <f>D39*E39</f>
-        <v>2986.2519008620006</v>
+        <v>2982.6488711750012</v>
       </c>
       <c r="I39" s="13"/>
       <c r="K39" s="13"/>
@@ -18155,14 +18259,14 @@
       </c>
       <c r="D40" s="13">
         <f>E34</f>
-        <v>388019.10136506666</v>
+        <v>388163.01515300019</v>
       </c>
       <c r="E40" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F40" s="13">
         <f>D40*E40</f>
-        <v>9700.4775341266668</v>
+        <v>9704.0753788250058</v>
       </c>
       <c r="I40" s="13"/>
     </row>
@@ -32002,7 +32106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -43876,8 +43980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -43930,13 +44034,17 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="14.25">
-      <c r="E5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="267">
+        <v>119305.95</v>
+      </c>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="268" t="s">
         <v>58</v>
       </c>
       <c r="I5" s="254">
         <f>NZN_23!I8*-1</f>
-        <v>119450.07603448002</v>
+        <v>119305.95484700002</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="14.25">
@@ -43946,14 +44054,14 @@
       </c>
       <c r="I6" s="15">
         <f>I23*-1</f>
-        <v>34366.063999999998</v>
+        <v>39967</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25">
       <c r="E7" s="13"/>
       <c r="I7" s="15">
         <f>I6+I5</f>
-        <v>153816.14003448002</v>
+        <v>159272.95484700002</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -43965,7 +44073,7 @@
       </c>
       <c r="E8" s="18">
         <f>I7-D8</f>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
       <c r="F8" s="19">
         <v>10000</v>
@@ -43976,7 +44084,7 @@
       </c>
       <c r="I8" s="21">
         <f t="shared" ref="I8:I19" si="0">I7-F8</f>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -43988,11 +44096,11 @@
       </c>
       <c r="E9" s="18">
         <f t="shared" ref="E9:E19" si="1">E8-D9</f>
-        <v>133816.14003448002</v>
+        <v>139272.95484700002</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -44004,11 +44112,11 @@
       </c>
       <c r="E10" s="18">
         <f t="shared" si="1"/>
-        <v>123816.14003448002</v>
+        <v>129272.95484700002</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -44020,11 +44128,11 @@
       </c>
       <c r="E11" s="18">
         <f t="shared" si="1"/>
-        <v>113816.14003448002</v>
+        <v>119272.95484700002</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -44036,11 +44144,11 @@
       </c>
       <c r="E12" s="18">
         <f t="shared" si="1"/>
-        <v>103816.14003448002</v>
+        <v>109272.95484700002</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -44052,11 +44160,11 @@
       </c>
       <c r="E13" s="18">
         <f t="shared" si="1"/>
-        <v>93816.14003448002</v>
+        <v>99272.954847000015</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -44068,11 +44176,11 @@
       </c>
       <c r="E14" s="18">
         <f t="shared" si="1"/>
-        <v>83816.14003448002</v>
+        <v>89272.954847000015</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -44084,11 +44192,11 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" si="1"/>
-        <v>73816.14003448002</v>
+        <v>79272.954847000015</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -44100,11 +44208,11 @@
       </c>
       <c r="E16" s="18">
         <f t="shared" si="1"/>
-        <v>63816.14003448002</v>
+        <v>69272.954847000015</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -44116,11 +44224,11 @@
       </c>
       <c r="E17" s="18">
         <f t="shared" si="1"/>
-        <v>53816.14003448002</v>
+        <v>59272.954847000015</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -44132,11 +44240,11 @@
       </c>
       <c r="E18" s="18">
         <f t="shared" si="1"/>
-        <v>43816.14003448002</v>
+        <v>49272.954847000015</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -44148,11 +44256,11 @@
       </c>
       <c r="E19" s="18">
         <f t="shared" si="1"/>
-        <v>33816.14003448002</v>
+        <v>39272.954847000015</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="0"/>
-        <v>143816.14003448002</v>
+        <v>149272.95484700002</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -44165,12 +44273,12 @@
       <c r="C21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="23">
-        <v>0.23538400000000001</v>
-      </c>
-      <c r="F21" s="23">
+      <c r="E21" s="257">
+        <v>0.2351</v>
+      </c>
+      <c r="F21" s="257">
         <f>1-E21</f>
-        <v>0.76461599999999996</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="I21" s="13"/>
     </row>
@@ -44215,16 +44323,16 @@
       </c>
       <c r="F23" s="30">
         <f>SUM(F24:F37)</f>
-        <v>-37896.824000000001</v>
+        <v>-37851.1</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
         <f>SUBTOTAL(109,$H$24:$H$37)</f>
-        <v>-40015.279999999999</v>
+        <v>-39967</v>
       </c>
       <c r="I23" s="30">
         <f>I24</f>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
       <c r="K23" s="31"/>
     </row>
@@ -44251,8 +44359,8 @@
         <v>0</v>
       </c>
       <c r="I24" s="13">
-        <f t="shared" ref="I24:I32" si="5">I25+H24</f>
-        <v>-34366.063999999998</v>
+        <f t="shared" ref="I24:I35" si="5">I25+H24</f>
+        <v>-39967</v>
       </c>
       <c r="K24" s="31"/>
     </row>
@@ -44277,7 +44385,7 @@
       </c>
       <c r="I25" s="13">
         <f t="shared" si="5"/>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -44301,7 +44409,7 @@
       </c>
       <c r="I26" s="13">
         <f t="shared" si="5"/>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -44325,7 +44433,7 @@
       </c>
       <c r="I27" s="13">
         <f t="shared" si="5"/>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -44349,7 +44457,7 @@
       </c>
       <c r="I28" s="13">
         <f t="shared" si="5"/>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -44373,7 +44481,7 @@
       </c>
       <c r="I29" s="13">
         <f t="shared" si="5"/>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -44397,7 +44505,7 @@
       </c>
       <c r="I30" s="13">
         <f t="shared" si="5"/>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -44421,7 +44529,7 @@
       </c>
       <c r="I31" s="13">
         <f t="shared" si="5"/>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -44445,7 +44553,7 @@
       </c>
       <c r="I32" s="13">
         <f t="shared" si="5"/>
-        <v>-34366.063999999998</v>
+        <v>-39967</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -44464,7 +44572,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>-1647.6880000000001</v>
+        <v>-1645.7</v>
       </c>
       <c r="G33" s="35">
         <v>0</v>
@@ -44474,8 +44582,8 @@
         <v>0</v>
       </c>
       <c r="I33" s="13">
-        <f>I35+H33</f>
-        <v>-34366.063999999998</v>
+        <f t="shared" si="5"/>
+        <v>-39967</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -44499,11 +44607,11 @@
       </c>
       <c r="H34" s="33">
         <f t="shared" si="4"/>
-        <v>-5649.2160000000003</v>
+        <v>-5642.4</v>
       </c>
       <c r="I34" s="13">
-        <f>I36+H34</f>
-        <v>-33895.296000000002</v>
+        <f t="shared" si="5"/>
+        <v>-39967</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -44529,11 +44637,11 @@
       </c>
       <c r="H35" s="33">
         <f t="shared" si="4"/>
-        <v>-6119.9840000000004</v>
+        <v>-6112.6</v>
       </c>
       <c r="I35" s="13">
-        <f>I36+H35</f>
-        <v>-34366.063999999998</v>
+        <f t="shared" si="5"/>
+        <v>-34324.6</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -44559,11 +44667,11 @@
       </c>
       <c r="H36" s="33">
         <f t="shared" si="4"/>
-        <v>-28246.080000000002</v>
+        <v>-28212</v>
       </c>
       <c r="I36" s="13">
         <f>I37+H36</f>
-        <v>-28246.080000000002</v>
+        <v>-28212</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -44582,7 +44690,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>-36249.135999999999</v>
+        <v>-36205.4</v>
       </c>
       <c r="G37" s="46">
         <v>0</v>
@@ -44624,12 +44732,13 @@
       <c r="D41" s="50">
         <v>1</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="256">
         <f>1-F41</f>
-        <v>0.76461609620000004</v>
-      </c>
-      <c r="F41" s="51">
-        <v>0.23538390379999999</v>
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="F41" s="256">
+        <f>E21</f>
+        <v>0.2351</v>
       </c>
       <c r="I41" s="13"/>
     </row>
@@ -44643,11 +44752,11 @@
       </c>
       <c r="E42" s="53">
         <f>$D$23*E41</f>
-        <v>253087.92784220001</v>
+        <v>253181.9</v>
       </c>
       <c r="F42" s="53">
         <f>$D$23*F41</f>
-        <v>77912.072157799994</v>
+        <v>77818.100000000006</v>
       </c>
       <c r="I42" s="13"/>
     </row>
@@ -44657,15 +44766,15 @@
       </c>
       <c r="D43" s="33">
         <f>E43+F43</f>
-        <v>146000.05966933072</v>
+        <v>170000</v>
       </c>
       <c r="E43" s="13">
         <f>F43/F41*E41</f>
-        <v>111633.99566933072</v>
+        <v>130033</v>
       </c>
       <c r="F43" s="13">
         <f>$I$23*-1</f>
-        <v>34366.063999999998</v>
+        <v>39967</v>
       </c>
       <c r="H43" s="54"/>
       <c r="I43" s="13"/>
@@ -44677,15 +44786,15 @@
       </c>
       <c r="D44" s="33">
         <f>D42-D43</f>
-        <v>184999.94033066928</v>
+        <v>161000</v>
       </c>
       <c r="E44" s="13">
         <f>E42-E43</f>
-        <v>141453.93217286927</v>
+        <v>123148.9</v>
       </c>
       <c r="F44" s="13">
         <f>F42-F43</f>
-        <v>43546.008157799995</v>
+        <v>37851.100000000006</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -44730,14 +44839,14 @@
       </c>
       <c r="D49" s="13">
         <f>E43</f>
-        <v>111633.99566933072</v>
+        <v>130033</v>
       </c>
       <c r="E49" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F49" s="13">
         <f>D49*E49</f>
-        <v>2790.8498917332681</v>
+        <v>3250.8250000000003</v>
       </c>
       <c r="I49" s="13"/>
     </row>
@@ -44748,8 +44857,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -50104,10 +50214,10 @@
       <c r="K1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="255" t="s">
+      <c r="L1" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="255"/>
+      <c r="M1" s="258"/>
       <c r="N1" t="s">
         <v>90</v>
       </c>
@@ -50164,11 +50274,11 @@
       </c>
       <c r="C3" s="73">
         <f>'01_24'!E2</f>
-        <v>-52469.760000000002</v>
+        <v>-53183.01</v>
       </c>
       <c r="D3" s="74">
         <f>B3+C3</f>
-        <v>143994.84</v>
+        <v>143281.59</v>
       </c>
       <c r="E3" s="72">
         <f>'01_24'!F2</f>
@@ -50176,11 +50286,11 @@
       </c>
       <c r="F3" s="73">
         <f>'01_24'!G2</f>
-        <v>-47077.21</v>
+        <v>-50777.21</v>
       </c>
       <c r="G3" s="75">
         <f>E3+F3</f>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H3" s="76"/>
       <c r="I3" s="77" t="s">
@@ -50196,7 +50306,7 @@
         <v>144</v>
       </c>
       <c r="N3">
-        <f>'01_24'!E120/1000</f>
+        <f>'01_24'!E121/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -50214,7 +50324,7 @@
       </c>
       <c r="D4" s="74">
         <f t="shared" ref="D4:D14" si="0">B4+C4+D3</f>
-        <v>50416.2</v>
+        <v>49702.95</v>
       </c>
       <c r="E4" s="72">
         <f>'02_24'!F2</f>
@@ -50226,7 +50336,7 @@
       </c>
       <c r="G4" s="75">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H4" s="76"/>
       <c r="I4" s="77" t="s">
@@ -50263,7 +50373,7 @@
       </c>
       <c r="D5" s="74">
         <f t="shared" si="0"/>
-        <v>167033.62</v>
+        <v>166320.37</v>
       </c>
       <c r="E5" s="72">
         <f>'03_24'!F2</f>
@@ -50275,7 +50385,7 @@
       </c>
       <c r="G5" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H5" s="76"/>
       <c r="I5" s="77" t="s">
@@ -50309,7 +50419,7 @@
       </c>
       <c r="D6" s="74">
         <f t="shared" si="0"/>
-        <v>150180.15</v>
+        <v>149466.9</v>
       </c>
       <c r="E6" s="72">
         <f>'04_24'!F2</f>
@@ -50321,7 +50431,7 @@
       </c>
       <c r="G6" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H6" s="76"/>
       <c r="I6" s="83" t="s">
@@ -50352,7 +50462,7 @@
       </c>
       <c r="D7" s="74">
         <f t="shared" si="0"/>
-        <v>133926.68</v>
+        <v>133213.43</v>
       </c>
       <c r="E7" s="72">
         <f>'05_24'!F2</f>
@@ -50364,7 +50474,7 @@
       </c>
       <c r="G7" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H7" s="76"/>
       <c r="I7" s="83" t="s">
@@ -50395,7 +50505,7 @@
       </c>
       <c r="D8" s="74">
         <f t="shared" si="0"/>
-        <v>112453.20999999999</v>
+        <v>111739.95999999999</v>
       </c>
       <c r="E8" s="72">
         <f>'06_24'!F2</f>
@@ -50407,7 +50517,7 @@
       </c>
       <c r="G8" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H8" s="76"/>
       <c r="I8" s="77" t="s">
@@ -50441,7 +50551,7 @@
       </c>
       <c r="D9" s="74">
         <f t="shared" si="0"/>
-        <v>96829.549999999988</v>
+        <v>96116.299999999988</v>
       </c>
       <c r="E9" s="72">
         <f>'07_24'!F2</f>
@@ -50453,7 +50563,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H9" s="76"/>
       <c r="I9" s="77" t="s">
@@ -50490,7 +50600,7 @@
       </c>
       <c r="D10" s="74">
         <f t="shared" si="0"/>
-        <v>234257.55</v>
+        <v>233544.3</v>
       </c>
       <c r="E10" s="72">
         <f>'08_24'!F2</f>
@@ -50502,7 +50612,7 @@
       </c>
       <c r="G10" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H10" s="76"/>
       <c r="I10" s="77" t="s">
@@ -50536,7 +50646,7 @@
       </c>
       <c r="D11" s="74">
         <f t="shared" si="0"/>
-        <v>371685.55</v>
+        <v>370972.3</v>
       </c>
       <c r="E11" s="72">
         <f>'09_24'!F2</f>
@@ -50548,7 +50658,7 @@
       </c>
       <c r="G11" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="77" t="s">
@@ -50585,7 +50695,7 @@
       </c>
       <c r="D12" s="74">
         <f t="shared" si="0"/>
-        <v>385113.55</v>
+        <v>384400.3</v>
       </c>
       <c r="E12" s="72">
         <f>'10_24'!F2</f>
@@ -50597,7 +50707,7 @@
       </c>
       <c r="G12" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="77" t="s">
@@ -50634,7 +50744,7 @@
       </c>
       <c r="D13" s="74">
         <f t="shared" si="0"/>
-        <v>628541.55000000005</v>
+        <v>627828.30000000005</v>
       </c>
       <c r="E13" s="72">
         <f>'11_24'!F2</f>
@@ -50646,7 +50756,7 @@
       </c>
       <c r="G13" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="77" t="s">
@@ -50683,7 +50793,7 @@
       </c>
       <c r="D14" s="74">
         <f t="shared" si="0"/>
-        <v>871969.55</v>
+        <v>871256.3</v>
       </c>
       <c r="E14" s="72">
         <f>'12_24'!F2</f>
@@ -50695,7 +50805,7 @@
       </c>
       <c r="G14" s="75">
         <f t="shared" si="1"/>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H14" s="76"/>
       <c r="I14" s="86" t="s">
@@ -50728,11 +50838,11 @@
       </c>
       <c r="C15" s="43">
         <f>SUM(C3:C14)</f>
-        <v>-688595.05</v>
+        <v>-689308.3</v>
       </c>
       <c r="D15" s="89">
         <f>B15+C15</f>
-        <v>871969.55</v>
+        <v>871256.3</v>
       </c>
       <c r="E15" s="88">
         <f>SUM(E3:E14)</f>
@@ -50740,11 +50850,11 @@
       </c>
       <c r="F15" s="43">
         <f>SUM(F3:F14)</f>
-        <v>-47077.21</v>
+        <v>-50777.21</v>
       </c>
       <c r="G15" s="89">
         <f>E15+F15</f>
-        <v>135422.79</v>
+        <v>131722.79</v>
       </c>
       <c r="H15" s="90"/>
       <c r="I15" s="91"/>
@@ -50775,7 +50885,7 @@
       </c>
       <c r="C16" s="98">
         <f>C15/A16</f>
-        <v>-57382.920833333337</v>
+        <v>-57442.358333333337</v>
       </c>
       <c r="D16" s="98"/>
       <c r="E16" s="98">
@@ -50784,11 +50894,11 @@
       </c>
       <c r="F16" s="98">
         <f>F15/A16</f>
-        <v>-3923.1008333333334</v>
+        <v>-4231.4341666666669</v>
       </c>
       <c r="G16" s="98">
         <f>G15/A16</f>
-        <v>11285.2325</v>
+        <v>10976.899166666668</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="100"/>
@@ -50820,18 +50930,18 @@
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
       <c r="K17"/>
-      <c r="L17" s="256">
+      <c r="L17" s="259">
         <f>L15+M15</f>
         <v>1109.7067520000001</v>
       </c>
-      <c r="M17" s="256"/>
+      <c r="M17" s="259"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1">
       <c r="D18" s="106" t="s">
         <v>121</v>
       </c>
       <c r="E18" s="1">
-        <f>'01_24'!F26+'02_24'!F22+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
+        <f>'01_24'!F27+'02_24'!F22+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
         <v>0</v>
       </c>
       <c r="F18" s="1">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0470A2-6623-43C5-BA43-53EAFD36351E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC4B3E-70A6-40B7-AFA9-080A5F19C42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="854" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17895" windowHeight="14835" tabRatio="854" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="1203">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -5259,21 +5259,21 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="183" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="183" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="18" fillId="9" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -12727,8 +12727,8 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -12884,10 +12884,10 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="308">
+      <c r="A10" s="307">
         <v>45331</v>
       </c>
-      <c r="B10" s="307" t="s">
+      <c r="B10" s="306" t="s">
         <v>1192</v>
       </c>
       <c r="C10" s="86"/>
@@ -14269,10 +14269,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -14304,24 +14304,24 @@
         <v>104</v>
       </c>
       <c r="D2" s="297">
-        <f>SUM(D4:D41)</f>
+        <f>SUM(D4:D42)</f>
         <v>340464.6</v>
       </c>
       <c r="E2" s="297">
-        <f>SUM(E4:E41)</f>
+        <f>SUM(E4:E42)</f>
         <v>-52469.760000000002</v>
       </c>
       <c r="F2" s="297">
-        <f>SUM(F4:F41)</f>
+        <f>SUM(F4:F42)</f>
         <v>194911.58000000002</v>
       </c>
       <c r="G2" s="297">
-        <f>SUM(G4:G41)</f>
-        <v>-65377.21</v>
+        <f>SUM(G4:G42)</f>
+        <v>-66377.209999999992</v>
       </c>
       <c r="H2" s="297">
         <f>F2+G2</f>
-        <v>129534.37000000002</v>
+        <v>128534.37000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14341,7 +14341,7 @@
         <v>-152</v>
       </c>
       <c r="H4" s="297">
-        <f t="shared" ref="H4:H44" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H45" si="0">H3+F4+G4</f>
         <v>-152</v>
       </c>
     </row>
@@ -14455,7 +14455,7 @@
         <v>118</v>
       </c>
       <c r="E12" s="297">
-        <f>E54*-1</f>
+        <f>E55*-1</f>
         <v>-169.14</v>
       </c>
       <c r="G12" s="297">
@@ -14473,7 +14473,7 @@
         <v>119</v>
       </c>
       <c r="E13" s="297">
-        <f>E59</f>
+        <f>E60</f>
         <v>-3961.94</v>
       </c>
       <c r="G13" s="297">
@@ -14493,7 +14493,7 @@
         <v>120</v>
       </c>
       <c r="E14" s="297">
-        <f>E76</f>
+        <f>E77</f>
         <v>-12474.550000000001</v>
       </c>
       <c r="G14" s="297">
@@ -14667,10 +14667,10 @@
       <c r="B27" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="297">
+      <c r="D27" s="302">
         <v>10000</v>
       </c>
-      <c r="F27" s="297">
+      <c r="F27" s="302">
         <v>9611.58</v>
       </c>
       <c r="H27" s="297">
@@ -14683,10 +14683,10 @@
       <c r="B28" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="297">
+      <c r="D28" s="302">
         <v>2800</v>
       </c>
-      <c r="F28" s="297">
+      <c r="F28" s="302">
         <v>2800</v>
       </c>
       <c r="H28" s="297">
@@ -14701,7 +14701,7 @@
       <c r="B29" t="s">
         <v>211</v>
       </c>
-      <c r="F29" s="297">
+      <c r="F29" s="302">
         <v>6500</v>
       </c>
       <c r="H29" s="297">
@@ -14717,6 +14717,7 @@
       <c r="D30" s="297">
         <v>6500</v>
       </c>
+      <c r="F30" s="302"/>
       <c r="H30" s="297">
         <f t="shared" si="0"/>
         <v>-38765.629999999997</v>
@@ -14729,7 +14730,7 @@
       <c r="B31" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="297">
+      <c r="F31" s="302">
         <v>6000</v>
       </c>
       <c r="H31" s="297">
@@ -14745,6 +14746,7 @@
       <c r="D32" s="297">
         <v>7000</v>
       </c>
+      <c r="F32" s="302"/>
       <c r="H32" s="297">
         <f t="shared" si="0"/>
         <v>-32765.629999999997</v>
@@ -14754,9 +14756,10 @@
       <c r="B33" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="297">
+      <c r="D33" s="302">
         <v>170000</v>
       </c>
+      <c r="F33" s="302"/>
       <c r="H33" s="297">
         <f t="shared" si="0"/>
         <v>-32765.629999999997</v>
@@ -14769,7 +14772,7 @@
       <c r="B34" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="297">
+      <c r="F34" s="302">
         <v>120000</v>
       </c>
       <c r="H34" s="297">
@@ -14784,7 +14787,7 @@
       <c r="B35" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="297">
+      <c r="F35" s="302">
         <v>26000</v>
       </c>
       <c r="H35" s="297">
@@ -14799,7 +14802,7 @@
       <c r="B36" t="s">
         <v>217</v>
       </c>
-      <c r="F36" s="297">
+      <c r="F36" s="302">
         <v>24000</v>
       </c>
       <c r="H36" s="297">
@@ -14821,230 +14824,228 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4">
+        <v>45321</v>
+      </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G38" s="297">
-        <v>-3700</v>
+        <v>-1000</v>
       </c>
       <c r="H38" s="297">
         <f t="shared" si="0"/>
-        <v>129534.37</v>
+        <v>132234.37</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4"/>
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="297">
+        <v>-3700</v>
+      </c>
       <c r="H39" s="297">
         <f t="shared" si="0"/>
-        <v>129534.37</v>
+        <v>128534.37</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="100">
+      <c r="A40" s="4"/>
+      <c r="H40" s="297">
+        <f t="shared" si="0"/>
+        <v>128534.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="100">
         <v>45315</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>220</v>
       </c>
-      <c r="H40" s="297">
-        <f t="shared" si="0"/>
-        <v>129534.37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
+      <c r="H41" s="297">
+        <f t="shared" si="0"/>
+        <v>128534.37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="297">
+      <c r="C42" s="297">
         <v>0.234011</v>
       </c>
-      <c r="D41" s="297">
+      <c r="D42" s="297">
         <v>144000</v>
       </c>
-      <c r="H41" s="297">
-        <f t="shared" si="0"/>
-        <v>129534.37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="99"/>
       <c r="H42" s="297">
         <f t="shared" si="0"/>
-        <v>129534.37</v>
+        <v>128534.37</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="99"/>
       <c r="H43" s="297">
         <f t="shared" si="0"/>
-        <v>129534.37</v>
+        <v>128534.37</v>
       </c>
     </row>
     <row r="44" spans="1:8">
+      <c r="A44" s="99"/>
       <c r="H44" s="297">
         <f t="shared" si="0"/>
-        <v>129534.37</v>
+        <v>128534.37</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" t="s">
+      <c r="H45" s="297">
+        <f t="shared" si="0"/>
+        <v>128534.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="76" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="76"/>
-    </row>
-    <row r="47" spans="1:8" s="2" customFormat="1">
-      <c r="A47" s="80"/>
-      <c r="C47" s="297"/>
-      <c r="D47" s="297"/>
-      <c r="E47" s="297"/>
-      <c r="F47" s="297"/>
-      <c r="G47" s="297"/>
-      <c r="H47" s="297"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="94">
+      <c r="B47" s="76"/>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1">
+      <c r="A48" s="80"/>
+      <c r="C48" s="297"/>
+      <c r="D48" s="297"/>
+      <c r="E48" s="297"/>
+      <c r="F48" s="297"/>
+      <c r="G48" s="297"/>
+      <c r="H48" s="297"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="94">
         <v>44929</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B49" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="297">
-        <f>SUM(D49:D54)</f>
+      <c r="D49" s="297">
+        <f>SUM(D50:D55)</f>
         <v>4772.1500000000005</v>
       </c>
-      <c r="E48" s="297">
-        <f>SUM(E49:E54)</f>
+      <c r="E49" s="297">
+        <f>SUM(E50:E55)</f>
         <v>4742.6400000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="80"/>
-      <c r="B49" s="88" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="80"/>
+      <c r="B50" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="297" t="s">
+      <c r="C50" s="297" t="s">
         <v>222</v>
       </c>
-      <c r="D49" s="297">
+      <c r="D50" s="297">
         <v>1329.72</v>
       </c>
-      <c r="E49" s="297">
+      <c r="E50" s="297">
         <v>1330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="297">
-        <v>1282.42</v>
-      </c>
-      <c r="E50" s="297">
-        <v>1250</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="297">
-        <v>298.67</v>
+        <v>1282.42</v>
       </c>
       <c r="E51" s="297">
-        <v>298.5</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="D52" s="297">
-        <v>1204.3800000000001</v>
+        <v>298.67</v>
       </c>
       <c r="E52" s="297">
-        <v>1205</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="D53" s="297">
-        <v>487.82</v>
+        <v>1204.3800000000001</v>
       </c>
       <c r="E53" s="297">
-        <v>490</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="297">
+        <v>487.82</v>
+      </c>
+      <c r="E54" s="297">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="297">
+      <c r="D55" s="297">
         <v>169.14</v>
       </c>
-      <c r="E54" s="297">
+      <c r="E55" s="297">
         <v>169.14</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="73"/>
-    </row>
     <row r="58" spans="1:5">
-      <c r="B58" s="84"/>
+      <c r="B58" s="73"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="76"/>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="84"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="76"/>
+      <c r="B60" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="297">
-        <f>SUM(E60:E73)</f>
+      <c r="E60" s="297">
+        <f>SUM(E61:E74)</f>
         <v>-3961.94</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="99"/>
-      <c r="B61" s="88"/>
-    </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="99">
+      <c r="A62" s="99"/>
+      <c r="B62" s="88"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="99">
         <v>45043</v>
       </c>
-      <c r="B62" s="88" t="s">
+      <c r="B63" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="297">
+      <c r="C63" s="297">
         <v>10764.57</v>
       </c>
-      <c r="D62" s="297" t="s">
+      <c r="D63" s="297" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="297">
+      <c r="E63" s="297">
         <v>-1196.06</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="80">
-        <v>45187</v>
-      </c>
-      <c r="B63" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="297">
-        <v>7648.33</v>
-      </c>
-      <c r="D63" s="297" t="s">
-        <v>225</v>
-      </c>
-      <c r="E63" s="297">
-        <v>-849.81</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -15052,43 +15053,56 @@
         <v>45187</v>
       </c>
       <c r="B64" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="297">
+        <v>7648.33</v>
+      </c>
+      <c r="D64" s="297" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" s="297">
+        <v>-849.81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="80">
+        <v>45187</v>
+      </c>
+      <c r="B65" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="297">
+      <c r="C65" s="297">
         <v>11128</v>
       </c>
-      <c r="D64" s="297" t="s">
+      <c r="D65" s="297" t="s">
         <v>226</v>
       </c>
-      <c r="E64" s="297">
+      <c r="E65" s="297">
         <v>-1854.67</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="99">
+    <row r="66" spans="1:5">
+      <c r="A66" s="99">
         <v>44995</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>227</v>
       </c>
-      <c r="C65" s="297">
+      <c r="C66" s="297">
         <v>613.91</v>
       </c>
-      <c r="D65" s="297" t="s">
+      <c r="D66" s="297" t="s">
         <v>228</v>
       </c>
-      <c r="E65" s="297">
+      <c r="E66" s="297">
         <v>-61.4</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="D66" s="297" t="s">
+    <row r="67" spans="1:5">
+      <c r="D67" s="297" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="80"/>
-      <c r="B68" s="88"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="80"/>
@@ -15096,7 +15110,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="80"/>
-      <c r="B70" s="98"/>
+      <c r="B70" s="88"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="80"/>
@@ -15112,90 +15126,77 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="80"/>
-      <c r="B74" s="10"/>
+      <c r="B74" s="98"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="80"/>
-      <c r="B75" s="88"/>
+      <c r="B75" s="10"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="76"/>
-      <c r="B76" s="77" t="s">
+      <c r="A76" s="80"/>
+      <c r="B76" s="88"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="76"/>
+      <c r="B77" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="297">
-        <f>SUM(E77:E111)</f>
+      <c r="E77" s="297">
+        <f>SUM(E78:E112)</f>
         <v>-12474.550000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="80"/>
-      <c r="B77" s="88"/>
-    </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="80">
+      <c r="A78" s="80"/>
+      <c r="B78" s="88"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="80">
         <v>45187</v>
       </c>
-      <c r="B78" s="88" t="s">
+      <c r="B79" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="D78" s="297" t="s">
+      <c r="D79" s="297" t="s">
         <v>230</v>
       </c>
-      <c r="E78" s="297">
+      <c r="E79" s="297">
         <v>-3974.44</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="4">
+    <row r="80" spans="1:5">
+      <c r="A80" s="4">
         <v>45214</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="297" t="s">
+      <c r="D80" s="297" t="s">
         <v>183</v>
       </c>
-      <c r="E79" s="297">
+      <c r="E80" s="297">
         <v>-600</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="80"/>
-      <c r="B80" s="10"/>
-    </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B81" t="s">
-        <v>231</v>
-      </c>
-      <c r="C81" s="297">
-        <v>-1204.5</v>
-      </c>
-      <c r="D81" s="297" t="s">
-        <v>232</v>
-      </c>
-      <c r="E81" s="297">
-        <v>-401.5</v>
-      </c>
+      <c r="A81" s="80"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4">
         <v>45259</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C82" s="297">
-        <v>-148.6</v>
+        <v>-1204.5</v>
       </c>
       <c r="D82" s="297" t="s">
         <v>232</v>
       </c>
       <c r="E82" s="297">
-        <v>-49.53</v>
+        <v>-401.5</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -15203,16 +15204,16 @@
         <v>45259</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C83" s="297">
-        <v>-244.8</v>
+        <v>-148.6</v>
       </c>
       <c r="D83" s="297" t="s">
         <v>232</v>
       </c>
       <c r="E83" s="297">
-        <v>-81.599999999999994</v>
+        <v>-49.53</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -15220,44 +15221,50 @@
         <v>45259</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C84" s="297">
-        <v>-532.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D84" s="297" t="s">
         <v>232</v>
       </c>
       <c r="E84" s="297">
-        <v>-177.53</v>
+        <v>-81.599999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="297">
+        <v>-532.6</v>
+      </c>
+      <c r="D85" s="297" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" s="297">
+        <v>-177.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4">
         <v>45285</v>
       </c>
-      <c r="B85" s="88" t="s">
+      <c r="B86" s="88" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="80"/>
-      <c r="B86" s="10" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="80"/>
+      <c r="B87" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C86" s="297">
+      <c r="C87" s="297">
         <v>109.92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="80">
-        <v>45283</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E87" s="297">
-        <v>-90</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -15265,32 +15272,32 @@
         <v>45283</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E88" s="297">
-        <v>-105.12</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="80">
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>238</v>
       </c>
       <c r="E89" s="297">
-        <v>-58.63</v>
+        <v>-105.12</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="80">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E90" s="297">
-        <v>-110</v>
+        <v>-58.63</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -15298,10 +15305,10 @@
         <v>45281</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E91" s="297">
-        <v>-70</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -15312,40 +15319,40 @@
         <v>238</v>
       </c>
       <c r="E92" s="297">
-        <v>-76.66</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="80">
-        <v>45279</v>
+        <v>45281</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E93" s="297">
-        <v>-260</v>
+        <v>-76.66</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="80">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E94" s="297">
-        <v>-370</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="80">
-        <v>45276</v>
+        <v>45278</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E95" s="297">
-        <v>-300</v>
+        <v>-370</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -15353,21 +15360,21 @@
         <v>45276</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E96" s="297">
-        <v>-250</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="80">
-        <v>45275</v>
+        <v>45276</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E97" s="297">
-        <v>-470</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -15375,54 +15382,54 @@
         <v>45275</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E98" s="297">
-        <v>-285</v>
+        <v>-470</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="80">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E99" s="297">
-        <v>-150</v>
+        <v>-285</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="80">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E100" s="297">
-        <v>-1108.1500000000001</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="80">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E101" s="297">
-        <v>-150</v>
+        <v>-1108.1500000000001</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="80">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E102" s="297">
-        <v>-1551.29</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -15430,37 +15437,37 @@
         <v>45270</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E103" s="297">
-        <v>-315.10000000000002</v>
+        <v>-1551.29</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="80">
-        <v>45267</v>
+        <v>45270</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E104" s="297">
-        <v>-300</v>
+        <v>-315.10000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="80">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E105" s="297">
-        <v>-200</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="80">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>238</v>
@@ -15471,51 +15478,51 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="80">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="297">
-        <v>11990.16</v>
+        <v>238</v>
+      </c>
+      <c r="E107" s="297">
+        <v>-200</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="80">
+        <v>45264</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="297">
+        <v>11990.16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="80">
         <v>45260</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" s="297">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="4">
-        <v>45257</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>238</v>
       </c>
       <c r="E109" s="297">
-        <v>-250</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4">
-        <v>45255</v>
+        <v>45257</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>238</v>
       </c>
       <c r="E110" s="297">
-        <v>-160</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4">
-        <v>45254</v>
+        <v>45255</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>238</v>
@@ -15525,65 +15532,62 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="D112" s="297" t="s">
+      <c r="A112" s="4">
+        <v>45254</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" s="297">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="D113" s="297" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="189" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="189" t="s">
         <v>385</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B118" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="C117" s="76">
+      <c r="C118" s="76">
         <v>2023</v>
       </c>
-      <c r="D117" s="78"/>
-      <c r="E117" s="79">
-        <f>SUM(E118:E134)</f>
+      <c r="D118" s="78"/>
+      <c r="E118" s="79">
+        <f>SUM(E119:E135)</f>
         <v>754796.48499999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="99">
-        <v>45290</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="73">
-        <v>64000</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="99">
-        <f t="shared" ref="A119:A128" si="1">A118</f>
         <v>45290</v>
       </c>
       <c r="B119" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="73">
-        <v>218088</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A120:A129" si="1">A119</f>
         <v>45290</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="73">
-        <v>3609.29</v>
+        <v>218088</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -15592,12 +15596,12 @@
         <v>45290</v>
       </c>
       <c r="B121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="73">
-        <v>122.31</v>
+        <v>3609.29</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -15606,12 +15610,12 @@
         <v>45290</v>
       </c>
       <c r="B122" t="s">
-        <v>387</v>
-      </c>
-      <c r="C122"/>
+        <v>98</v>
+      </c>
+      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="73">
-        <v>6267.13</v>
+        <v>122.31</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -15620,14 +15624,12 @@
         <v>45290</v>
       </c>
       <c r="B123" t="s">
-        <v>388</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>1202</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C123"/>
       <c r="D123" s="1"/>
       <c r="E123" s="73">
-        <v>88320</v>
+        <v>6267.13</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -15636,13 +15638,15 @@
         <v>45290</v>
       </c>
       <c r="B124" t="s">
-        <v>1201</v>
+        <v>388</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>391</v>
+        <v>1202</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="73"/>
+      <c r="E124" s="73">
+        <v>88320</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="99">
@@ -15650,14 +15654,12 @@
         <v>45290</v>
       </c>
       <c r="B125" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C125" s="99">
-        <v>45295</v>
-      </c>
-      <c r="D125" s="190">
-        <v>1094.32</v>
-      </c>
+        <v>1201</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D125" s="1"/>
       <c r="E125" s="73"/>
     </row>
     <row r="126" spans="1:5">
@@ -15666,13 +15668,13 @@
         <v>45290</v>
       </c>
       <c r="B126" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C126" s="99">
         <v>45295</v>
       </c>
       <c r="D126" s="190">
-        <v>172.9</v>
+        <v>1094.32</v>
       </c>
       <c r="E126" s="73"/>
     </row>
@@ -15682,17 +15684,15 @@
         <v>45290</v>
       </c>
       <c r="B127" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C127" s="99">
         <v>45295</v>
       </c>
       <c r="D127" s="190">
-        <v>-22</v>
-      </c>
-      <c r="E127" s="73">
-        <v>295.8</v>
-      </c>
+        <v>172.9</v>
+      </c>
+      <c r="E127" s="73"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="99">
@@ -15700,68 +15700,67 @@
         <v>45290</v>
       </c>
       <c r="B128" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C128" s="99">
         <v>45295</v>
       </c>
       <c r="D128" s="190">
-        <v>562.69000000000005</v>
+        <v>-22</v>
       </c>
       <c r="E128" s="73">
-        <v>4239.3</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="99">
+        <f t="shared" si="1"/>
+        <v>45290</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C129" s="99">
+        <v>45295</v>
+      </c>
+      <c r="D129" s="190">
+        <v>562.69000000000005</v>
+      </c>
+      <c r="E129" s="73">
+        <v>4239.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="99">
+        <f>A123</f>
+        <v>45290</v>
+      </c>
+      <c r="B130" t="s">
+        <v>395</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="99">
         <f>A122</f>
         <v>45290</v>
       </c>
-      <c r="B129" t="s">
-        <v>395</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="99">
-        <f>A121</f>
-        <v>45290</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>396</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C131" s="1">
         <v>1928.59</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D131" s="1">
         <v>161</v>
-      </c>
-      <c r="E130" s="73">
-        <f>D130*C130</f>
-        <v>310502.99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="99">
-        <f>A130</f>
-        <v>45290</v>
-      </c>
-      <c r="B131" t="s">
-        <v>397</v>
-      </c>
-      <c r="C131" s="191">
-        <v>29.2927</v>
-      </c>
-      <c r="D131" s="1">
-        <v>850</v>
       </c>
       <c r="E131" s="73">
         <f>D131*C131</f>
-        <v>24898.794999999998</v>
+        <v>310502.99</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -15770,17 +15769,17 @@
         <v>45290</v>
       </c>
       <c r="B132" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C132" s="191">
-        <v>32.028700000000001</v>
+        <v>29.2927</v>
       </c>
       <c r="D132" s="1">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="E132" s="73">
         <f>D132*C132</f>
-        <v>3202.87</v>
+        <v>24898.794999999998</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -15789,12 +15788,17 @@
         <v>45290</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+        <v>398</v>
+      </c>
+      <c r="C133" s="191">
+        <v>32.028700000000001</v>
+      </c>
+      <c r="D133" s="1">
+        <v>100</v>
+      </c>
       <c r="E133" s="73">
-        <v>30000</v>
+        <f>D133*C133</f>
+        <v>3202.87</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -15803,76 +15807,76 @@
         <v>45290</v>
       </c>
       <c r="B134" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="73">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="99">
+        <f>A134</f>
+        <v>45290</v>
+      </c>
+      <c r="B135" t="s">
+        <v>367</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="73">
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="C135" s="313" t="str">
-        <f>A117</f>
+    <row r="136" spans="1:5">
+      <c r="C136" s="311" t="str">
+        <f>A118</f>
         <v>ARALIK</v>
       </c>
-      <c r="D135" s="314" t="s">
+      <c r="D136" s="312" t="s">
         <v>400</v>
       </c>
-      <c r="E135" s="259">
+      <c r="E136" s="259">
         <f>H2</f>
-        <v>129534.37000000002</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="C136"/>
-      <c r="D136" s="10"/>
-      <c r="E136"/>
+        <v>128534.37000000002</v>
+      </c>
     </row>
     <row r="137" spans="1:5">
       <c r="C137"/>
-      <c r="D137" s="72" t="s">
+      <c r="D137" s="10"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="C138"/>
+      <c r="D138" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="E137" s="192">
-        <f>SUM(E118:E134)</f>
+      <c r="E138" s="192">
+        <f>SUM(E119:E135)</f>
         <v>754796.48499999999</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="B139" t="s">
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="306">
+    <row r="141" spans="1:5">
+      <c r="A141" s="305">
         <v>45317</v>
       </c>
-      <c r="B140" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C140" s="297">
-        <v>12500</v>
-      </c>
-      <c r="D140" s="297" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E140" s="297">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
       <c r="B141" t="s">
         <v>1188</v>
       </c>
       <c r="C141" s="297">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="D141" s="297" t="s">
-        <v>395</v>
+        <v>1193</v>
       </c>
       <c r="E141" s="297">
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -15880,13 +15884,13 @@
         <v>1188</v>
       </c>
       <c r="C142" s="297">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="D142" s="297" t="s">
-        <v>1194</v>
+        <v>395</v>
       </c>
       <c r="E142" s="297">
-        <v>10400</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -15894,52 +15898,66 @@
         <v>1188</v>
       </c>
       <c r="C143" s="297">
+        <v>13700</v>
+      </c>
+      <c r="D143" s="297" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E143" s="297">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C144" s="297">
         <v>5800</v>
       </c>
-      <c r="D143" s="297">
-        <f>SUM(C140:C143)</f>
+      <c r="D144" s="297">
+        <f>SUM(C141:C144)</f>
         <v>45400</v>
       </c>
-      <c r="E143" s="297">
-        <f>SUM(E140:E142)</f>
+      <c r="E144" s="297">
+        <f>SUM(E141:E143)</f>
         <v>45400</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
-      <c r="B145" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C145" s="297">
-        <v>14400</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C146" s="297">
-        <v>2800</v>
-      </c>
-      <c r="D146" s="297">
-        <f>SUM(C145:C146)</f>
-        <v>17200</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C147" s="297">
+        <v>2800</v>
+      </c>
+      <c r="D147" s="297">
+        <f>SUM(C146:C147)</f>
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
         <v>1191</v>
       </c>
-      <c r="C147" s="297">
+      <c r="C148" s="297">
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="2:4">
-      <c r="C148" s="297">
-        <f>SUM(C140:C147)</f>
+    <row r="149" spans="2:4">
+      <c r="C149" s="297">
+        <f>SUM(C141:C148)</f>
         <v>62800</v>
       </c>
-      <c r="D148" s="297">
-        <f>SUM(D140:D147)</f>
+      <c r="D149" s="297">
+        <f>SUM(D141:D148)</f>
         <v>62600</v>
       </c>
     </row>
@@ -46937,7 +46955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -46984,7 +47002,7 @@
       <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="315">
+      <c r="G7" s="313">
         <v>1072</v>
       </c>
     </row>
@@ -53233,10 +53251,10 @@
       <c r="K1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="305" t="s">
+      <c r="L1" s="314" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="305"/>
+      <c r="M1" s="314"/>
       <c r="N1" t="s">
         <v>61</v>
       </c>
@@ -53287,29 +53305,29 @@
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="309">
+      <c r="B3" s="308">
         <f>'01_24'!D2</f>
         <v>340464.6</v>
       </c>
-      <c r="C3" s="309">
+      <c r="C3" s="308">
         <f>'01_24'!E2</f>
         <v>-52469.760000000002</v>
       </c>
-      <c r="D3" s="310">
+      <c r="D3" s="309">
         <f>B3+C3</f>
         <v>287994.83999999997</v>
       </c>
-      <c r="E3" s="309">
+      <c r="E3" s="308">
         <f>'01_24'!F2</f>
         <v>194911.58000000002</v>
       </c>
-      <c r="F3" s="309">
+      <c r="F3" s="308">
         <f>'01_24'!G2</f>
-        <v>-65377.21</v>
-      </c>
-      <c r="G3" s="310">
+        <v>-66377.209999999992</v>
+      </c>
+      <c r="G3" s="309">
         <f>E3+F3</f>
-        <v>129534.37000000002</v>
+        <v>128534.37000000002</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="33" t="s">
@@ -53325,7 +53343,7 @@
         <v>144</v>
       </c>
       <c r="N3">
-        <f>'01_24'!E121/1000</f>
+        <f>'01_24'!E122/1000</f>
         <v>0.12231</v>
       </c>
     </row>
@@ -53333,29 +53351,29 @@
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="309">
+      <c r="B4" s="308">
         <f>'02_24'!D2</f>
         <v>19300</v>
       </c>
-      <c r="C4" s="309">
+      <c r="C4" s="308">
         <f>'02_24'!E2</f>
         <v>-65258.759999999995</v>
       </c>
-      <c r="D4" s="310">
+      <c r="D4" s="309">
         <f t="shared" ref="D4:D14" si="0">B4+C4+D3</f>
         <v>242036.07999999996</v>
       </c>
-      <c r="E4" s="309">
+      <c r="E4" s="308">
         <f>'02_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="309">
+      <c r="F4" s="308">
         <f>'02_24'!G2</f>
         <v>-28860.51</v>
       </c>
-      <c r="G4" s="310">
+      <c r="G4" s="309">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="33" t="s">
@@ -53382,29 +53400,29 @@
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="309">
+      <c r="B5" s="308">
         <f>'03_24'!D2</f>
         <v>19300</v>
       </c>
-      <c r="C5" s="309">
+      <c r="C5" s="308">
         <f>'03_24'!E2</f>
         <v>-113141.88</v>
       </c>
-      <c r="D5" s="310">
+      <c r="D5" s="309">
         <f t="shared" si="0"/>
         <v>148194.19999999995</v>
       </c>
-      <c r="E5" s="309">
+      <c r="E5" s="308">
         <f>'03_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F5" s="309">
+      <c r="F5" s="308">
         <f>'03_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G5" s="310">
+      <c r="G5" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
@@ -53428,29 +53446,29 @@
       <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="309">
+      <c r="B6" s="308">
         <f>'04_24'!D2</f>
         <v>24000</v>
       </c>
-      <c r="C6" s="309">
+      <c r="C6" s="308">
         <f>'04_24'!E2</f>
         <v>-40853.47</v>
       </c>
-      <c r="D6" s="310">
+      <c r="D6" s="309">
         <f t="shared" si="0"/>
         <v>131340.72999999995</v>
       </c>
-      <c r="E6" s="309">
+      <c r="E6" s="308">
         <f>'04_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F6" s="309">
+      <c r="F6" s="308">
         <f>'04_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G6" s="310">
+      <c r="G6" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="39" t="s">
@@ -53471,29 +53489,29 @@
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="309">
+      <c r="B7" s="308">
         <f>'05_24'!D2</f>
         <v>24000</v>
       </c>
-      <c r="C7" s="309">
+      <c r="C7" s="308">
         <f>'05_24'!E2</f>
         <v>-40253.47</v>
       </c>
-      <c r="D7" s="310">
+      <c r="D7" s="309">
         <f t="shared" si="0"/>
         <v>115087.25999999995</v>
       </c>
-      <c r="E7" s="309">
+      <c r="E7" s="308">
         <f>'05_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F7" s="309">
+      <c r="F7" s="308">
         <f>'05_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G7" s="310">
+      <c r="G7" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="39" t="s">
@@ -53514,29 +53532,29 @@
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="309">
+      <c r="B8" s="308">
         <f>'06_24'!D2</f>
         <v>24000</v>
       </c>
-      <c r="C8" s="309">
+      <c r="C8" s="308">
         <f>'06_24'!E2</f>
         <v>-45473.47</v>
       </c>
-      <c r="D8" s="310">
+      <c r="D8" s="309">
         <f t="shared" si="0"/>
         <v>93613.78999999995</v>
       </c>
-      <c r="E8" s="309">
+      <c r="E8" s="308">
         <f>'06_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F8" s="309">
+      <c r="F8" s="308">
         <f>'06_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G8" s="310">
+      <c r="G8" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="33" t="s">
@@ -53560,29 +53578,29 @@
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="309">
+      <c r="B9" s="308">
         <f>'07_24'!D2</f>
         <v>29000</v>
       </c>
-      <c r="C9" s="309">
+      <c r="C9" s="308">
         <f>'07_24'!E2</f>
         <v>-44623.66</v>
       </c>
-      <c r="D9" s="310">
+      <c r="D9" s="309">
         <f t="shared" si="0"/>
         <v>77990.129999999946</v>
       </c>
-      <c r="E9" s="309">
+      <c r="E9" s="308">
         <f>'07_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F9" s="309">
+      <c r="F9" s="308">
         <f>'07_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G9" s="310">
+      <c r="G9" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33" t="s">
@@ -53609,29 +53627,29 @@
       <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="309">
+      <c r="B10" s="308">
         <f>'08_24'!D2</f>
         <v>178500</v>
       </c>
-      <c r="C10" s="309">
+      <c r="C10" s="308">
         <f>'08_24'!E2</f>
         <v>-41072</v>
       </c>
-      <c r="D10" s="310">
+      <c r="D10" s="309">
         <f t="shared" si="0"/>
         <v>215418.12999999995</v>
       </c>
-      <c r="E10" s="309">
+      <c r="E10" s="308">
         <f>'08_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F10" s="309">
+      <c r="F10" s="308">
         <f>'08_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G10" s="310">
+      <c r="G10" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="33" t="s">
@@ -53655,29 +53673,29 @@
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="309">
+      <c r="B11" s="308">
         <f>'09_24'!D2</f>
         <v>178500</v>
       </c>
-      <c r="C11" s="309">
+      <c r="C11" s="308">
         <f>'09_24'!E2</f>
         <v>-41072</v>
       </c>
-      <c r="D11" s="310">
+      <c r="D11" s="309">
         <f t="shared" si="0"/>
         <v>352846.12999999995</v>
       </c>
-      <c r="E11" s="309">
+      <c r="E11" s="308">
         <f>'09_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F11" s="309">
+      <c r="F11" s="308">
         <f>'09_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G11" s="310">
+      <c r="G11" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="33" t="s">
@@ -53704,29 +53722,29 @@
       <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="309">
+      <c r="B12" s="308">
         <f>'10_24'!D2</f>
         <v>154500</v>
       </c>
-      <c r="C12" s="309">
+      <c r="C12" s="308">
         <f>'10_24'!E2</f>
         <v>-141072</v>
       </c>
-      <c r="D12" s="310">
+      <c r="D12" s="309">
         <f t="shared" si="0"/>
         <v>366274.12999999995</v>
       </c>
-      <c r="E12" s="309">
+      <c r="E12" s="308">
         <f>'10_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F12" s="309">
+      <c r="F12" s="308">
         <f>'10_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G12" s="310">
+      <c r="G12" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="33" t="s">
@@ -53753,29 +53771,29 @@
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="309">
+      <c r="B13" s="308">
         <f>'11_24'!D2</f>
         <v>284500</v>
       </c>
-      <c r="C13" s="309">
+      <c r="C13" s="308">
         <f>'11_24'!E2</f>
         <v>-41072</v>
       </c>
-      <c r="D13" s="310">
+      <c r="D13" s="309">
         <f t="shared" si="0"/>
         <v>609702.12999999989</v>
       </c>
-      <c r="E13" s="309">
+      <c r="E13" s="308">
         <f>'11_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F13" s="309">
+      <c r="F13" s="308">
         <f>'11_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G13" s="310">
+      <c r="G13" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="33" t="s">
@@ -53802,29 +53820,29 @@
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="309">
+      <c r="B14" s="308">
         <f>'12_24'!D2</f>
         <v>284500</v>
       </c>
-      <c r="C14" s="309">
+      <c r="C14" s="308">
         <f>'12_24'!E2</f>
         <v>-42102.76</v>
       </c>
-      <c r="D14" s="310">
+      <c r="D14" s="309">
         <f t="shared" si="0"/>
         <v>852099.36999999988</v>
       </c>
-      <c r="E14" s="309">
+      <c r="E14" s="308">
         <f>'12_24'!F2</f>
         <v>0</v>
       </c>
-      <c r="F14" s="309">
+      <c r="F14" s="308">
         <f>'12_24'!G2</f>
         <v>0</v>
       </c>
-      <c r="G14" s="310">
+      <c r="G14" s="309">
         <f t="shared" si="1"/>
-        <v>100673.86000000003</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="42" t="s">
@@ -53851,29 +53869,29 @@
       <c r="A15" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="310">
+      <c r="B15" s="309">
         <f>SUM(B3:B14)</f>
         <v>1560564.6</v>
       </c>
-      <c r="C15" s="310">
+      <c r="C15" s="309">
         <f>SUM(C3:C14)</f>
         <v>-708465.23</v>
       </c>
-      <c r="D15" s="310">
+      <c r="D15" s="309">
         <f>B15+C15</f>
         <v>852099.37000000011</v>
       </c>
-      <c r="E15" s="310">
+      <c r="E15" s="309">
         <f>SUM(E3:E14)</f>
         <v>194911.58000000002</v>
       </c>
-      <c r="F15" s="310">
+      <c r="F15" s="309">
         <f>SUM(F3:F14)</f>
-        <v>-94237.72</v>
-      </c>
-      <c r="G15" s="310">
+        <v>-95237.719999999987</v>
+      </c>
+      <c r="G15" s="309">
         <f>E15+F15</f>
-        <v>100673.86000000002</v>
+        <v>99673.86000000003</v>
       </c>
       <c r="H15" s="48"/>
       <c r="I15" s="49"/>
@@ -53913,11 +53931,11 @@
       </c>
       <c r="F16" s="56">
         <f>F15/A16</f>
-        <v>-7853.1433333333334</v>
+        <v>-7936.4766666666656</v>
       </c>
       <c r="G16" s="56">
         <f>G15/A16</f>
-        <v>8389.4883333333346</v>
+        <v>8306.1550000000025</v>
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="58"/>
@@ -53951,11 +53969,11 @@
       <c r="K17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="312">
+      <c r="L17" s="315">
         <f>L15+M15</f>
         <v>1119.3183320000001</v>
       </c>
-      <c r="M17" s="312"/>
+      <c r="M17" s="315"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="65" t="s">
@@ -53998,7 +54016,7 @@
       <c r="B22" s="1">
         <v>6986.25</v>
       </c>
-      <c r="C22" s="311">
+      <c r="C22" s="310">
         <v>0.37578499999999998</v>
       </c>
     </row>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC4B3E-70A6-40B7-AFA9-080A5F19C42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1D6AEA-9304-405A-9680-F0F9423BABB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17895" windowHeight="14835" tabRatio="854" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="854" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -12725,17 +12725,17 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="295" bestFit="1" customWidth="1"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
@@ -12759,25 +12759,25 @@
       <c r="C2" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="83">
-        <f>SUM(D4:D34)</f>
+      <c r="D2" s="297">
+        <f>SUM(D4:D35)</f>
         <v>19300</v>
       </c>
       <c r="E2" s="297">
-        <f>SUM(E4:E34)</f>
+        <f>SUM(E4:E35)</f>
         <v>-65258.759999999995</v>
       </c>
       <c r="F2" s="297">
-        <f>SUM(F4:F34)</f>
+        <f>SUM(F4:F35)</f>
         <v>0</v>
       </c>
       <c r="G2" s="297">
-        <f>SUM(G4:G34)</f>
-        <v>-28860.51</v>
+        <f>SUM(G4:G35)</f>
+        <v>-41335.89</v>
       </c>
       <c r="H2" s="297">
         <f>F2+G2</f>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -12788,6 +12788,9 @@
       <c r="H3" s="297"/>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" s="305">
+        <v>45323</v>
+      </c>
       <c r="B4" s="39" t="s">
         <v>105</v>
       </c>
@@ -12799,323 +12802,337 @@
         <v>-167</v>
       </c>
       <c r="H4" s="297">
-        <f t="shared" ref="H4:H32" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H33" si="0">H3+F4+G4</f>
         <v>-167</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" t="s">
+      <c r="A5" s="305">
+        <v>45323</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="297">
+        <v>-1500</v>
+      </c>
+      <c r="F5" s="302"/>
+      <c r="G5" s="297">
+        <v>-1512.13</v>
+      </c>
+      <c r="H5" s="297">
+        <f t="shared" si="0"/>
+        <v>-1679.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="305">
+        <v>45323</v>
+      </c>
+      <c r="B6" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="297">
+      <c r="D6" s="84"/>
+      <c r="E6" s="297">
         <v>-10000</v>
       </c>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297">
-        <f t="shared" si="0"/>
-        <v>-167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="297">
-        <v>-400</v>
-      </c>
       <c r="F6" s="297"/>
-      <c r="G6" s="297"/>
+      <c r="G6" s="297">
+        <v>-10000</v>
+      </c>
       <c r="H6" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-11679.130000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="305">
+        <v>45323</v>
+      </c>
       <c r="B7" s="86" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="86"/>
       <c r="E7" s="297">
-        <v>-500</v>
+        <v>-250</v>
       </c>
       <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
+      <c r="G7" s="297">
+        <v>-250</v>
+      </c>
       <c r="H7" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-11929.130000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
+      <c r="A8" s="4">
+        <v>45320</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
       <c r="E8" s="297">
-        <v>-250</v>
+        <v>-713.25</v>
       </c>
       <c r="F8" s="297"/>
-      <c r="G8" s="297"/>
+      <c r="G8" s="297">
+        <v>-713.25</v>
+      </c>
       <c r="H8" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
-        <v>45320</v>
-      </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="297">
-        <v>-713.25</v>
-      </c>
+      <c r="A9" s="307">
+        <v>45331</v>
+      </c>
+      <c r="B9" s="306" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="E9" s="297"/>
       <c r="F9" s="297"/>
       <c r="G9" s="297"/>
       <c r="H9" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="307">
-        <v>45331</v>
-      </c>
-      <c r="B10" s="306" t="s">
-        <v>1192</v>
-      </c>
+      <c r="A10" s="307"/>
+      <c r="B10" s="306"/>
       <c r="C10" s="86"/>
       <c r="E10" s="297"/>
       <c r="F10" s="297"/>
       <c r="G10" s="297"/>
       <c r="H10" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="297">
-        <v>-150</v>
-      </c>
+      <c r="A11" s="307"/>
+      <c r="B11" s="306"/>
+      <c r="C11" s="86"/>
+      <c r="E11" s="297"/>
       <c r="F11" s="297"/>
       <c r="G11" s="297"/>
       <c r="H11" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="88"/>
+      <c r="B12" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="297">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F12" s="297"/>
       <c r="G12" s="297"/>
       <c r="H12" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="88"/>
+      <c r="B13" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="297">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F13" s="297"/>
       <c r="G13" s="297"/>
       <c r="H13" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="297"/>
-      <c r="F14" s="297"/>
-      <c r="G14" s="297"/>
       <c r="H14" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="64"/>
+      <c r="B15" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="86"/>
       <c r="E15" s="297">
-        <f>E45*-1</f>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="F15" s="297"/>
       <c r="G15" s="297"/>
       <c r="H15" s="297">
         <f t="shared" si="0"/>
-        <v>-167</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="89" t="s">
-        <v>119</v>
-      </c>
+      <c r="B16" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="88"/>
       <c r="E16" s="297">
-        <f>E50</f>
-        <v>-3900.5699999999997</v>
+        <v>-300</v>
       </c>
       <c r="F16" s="297"/>
-      <c r="G16" s="297">
-        <f>E16</f>
-        <v>-3900.5699999999997</v>
-      </c>
+      <c r="G16" s="297"/>
       <c r="H16" s="297">
         <f t="shared" si="0"/>
-        <v>-4067.5699999999997</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
-        <v>45173</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>120</v>
-      </c>
+      <c r="B17" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="88"/>
       <c r="E17" s="297">
-        <f>E67</f>
-        <v>-24792.94</v>
+        <v>-100</v>
       </c>
       <c r="F17" s="297"/>
-      <c r="G17" s="297">
-        <f>E17</f>
-        <v>-24792.94</v>
-      </c>
+      <c r="G17" s="297"/>
       <c r="H17" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="80">
-        <v>45173</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" s="86"/>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
-      <c r="E18" s="297">
-        <v>-5375</v>
-      </c>
+      <c r="E18" s="297"/>
       <c r="F18" s="297"/>
       <c r="G18" s="297"/>
       <c r="H18" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="80"/>
-      <c r="B19" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
+      <c r="B19" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="64"/>
       <c r="E19" s="297">
-        <v>-2125</v>
+        <f>E46*-1</f>
+        <v>0</v>
       </c>
       <c r="F19" s="297"/>
       <c r="G19" s="297"/>
       <c r="H19" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-12642.380000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
+      <c r="B20" s="89" t="s">
+        <v>119</v>
+      </c>
       <c r="E20" s="297">
-        <v>-1500</v>
+        <f>E51</f>
+        <v>-3900.5699999999997</v>
       </c>
       <c r="F20" s="297"/>
-      <c r="G20" s="297"/>
+      <c r="G20" s="297">
+        <f>E20</f>
+        <v>-3900.5699999999997</v>
+      </c>
       <c r="H20" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-16542.95</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="E21" s="297"/>
+      <c r="A21" s="4">
+        <v>45173</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="297">
+        <f>E68</f>
+        <v>-24792.94</v>
+      </c>
       <c r="F21" s="297"/>
-      <c r="G21" s="297"/>
+      <c r="G21" s="297">
+        <f>E21</f>
+        <v>-24792.94</v>
+      </c>
       <c r="H21" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="E22" s="297"/>
+      <c r="A22" s="80">
+        <v>45173</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="297">
+        <v>-5375</v>
+      </c>
       <c r="F22" s="297"/>
       <c r="G22" s="297"/>
       <c r="H22" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="E23" s="297"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="297">
+        <v>-2125</v>
+      </c>
       <c r="F23" s="297"/>
       <c r="G23" s="297"/>
       <c r="H23" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="297">
-        <v>-5000</v>
-      </c>
       <c r="F24" s="297"/>
       <c r="G24" s="297"/>
       <c r="H24" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="297">
         <v>-5000</v>
@@ -13124,12 +13141,12 @@
       <c r="G25" s="297"/>
       <c r="H25" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E26" s="297">
         <v>-5000</v>
@@ -13138,159 +13155,165 @@
       <c r="G26" s="297"/>
       <c r="H26" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="E27" s="297"/>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="297">
+        <v>-5000</v>
+      </c>
       <c r="F27" s="297"/>
       <c r="G27" s="297"/>
       <c r="H27" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="84">
-        <v>10000</v>
-      </c>
+      <c r="E28" s="297"/>
       <c r="F28" s="297"/>
       <c r="G28" s="297"/>
       <c r="H28" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="80"/>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="84">
-        <v>2800</v>
+        <v>10000</v>
       </c>
       <c r="F29" s="297"/>
       <c r="G29" s="297"/>
       <c r="H29" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="80"/>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="D30" s="84">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="F30" s="297"/>
       <c r="G30" s="297"/>
       <c r="H30" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="80"/>
-      <c r="D31" s="84"/>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="84">
+        <v>6500</v>
+      </c>
       <c r="F31" s="297"/>
       <c r="G31" s="297"/>
       <c r="H31" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="D32" s="91"/>
+      <c r="A32" s="80"/>
+      <c r="D32" s="84"/>
       <c r="F32" s="297"/>
       <c r="G32" s="297"/>
       <c r="H32" s="297">
         <f t="shared" si="0"/>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="D33" s="64"/>
+      <c r="D33" s="91"/>
       <c r="F33" s="297"/>
       <c r="G33" s="297"/>
-      <c r="H33" s="297"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" s="93"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H33" s="297">
+        <f t="shared" si="0"/>
+        <v>-41335.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="D34" s="64"/>
+      <c r="F34" s="297"/>
+      <c r="G34" s="297"/>
+      <c r="H34" s="297"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75">
+      <c r="B35" s="93"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="64"/>
       <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>129</v>
-      </c>
       <c r="G36" s="64"/>
       <c r="H36" s="64"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="301"/>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
       <c r="G37" s="64"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="80"/>
-      <c r="C38" s="90"/>
-      <c r="E38" s="302"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="301"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="94">
+    <row r="39" spans="1:8" s="2" customFormat="1">
+      <c r="A39" s="80"/>
+      <c r="C39" s="90"/>
+      <c r="E39" s="302"/>
+      <c r="H39" s="64"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="94">
         <v>44929</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B40" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="96">
-        <f>SUM(D40:D45)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="303">
-        <f>SUM(E40:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="64"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="80"/>
-      <c r="B40" s="88" t="s">
+      <c r="C40" s="76"/>
+      <c r="D40" s="96">
+        <f>SUM(D41:D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="303">
+        <f>SUM(E41:E46)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="64"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="80"/>
+      <c r="B41" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="H40" s="64"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="1"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1"/>
       <c r="F42" s="64"/>
@@ -13298,7 +13321,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1"/>
       <c r="F43" s="64"/>
@@ -13306,7 +13329,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1"/>
       <c r="F44" s="64"/>
@@ -13314,87 +13337,76 @@
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="88"/>
+        <v>136</v>
+      </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="304"/>
       <c r="F45" s="64"/>
       <c r="G45" s="64"/>
     </row>
     <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
       <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="297"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="304"/>
       <c r="F46" s="64"/>
       <c r="G46" s="64"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="73"/>
+    <row r="47" spans="1:8">
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="297"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="B49" s="84"/>
+      <c r="B49" s="73"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="76"/>
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="84"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="76"/>
+      <c r="B51" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="303">
-        <f>SUM(E51:E64)</f>
+      <c r="C51" s="76"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="303">
+        <f>SUM(E52:E65)</f>
         <v>-3900.5699999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-    </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="99"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="297"/>
-      <c r="F52" s="64"/>
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="99">
-        <v>45043</v>
-      </c>
-      <c r="B53" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="88">
-        <v>10764.57</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="297">
-        <v>-1196.0899999999999</v>
-      </c>
+      <c r="A53" s="99"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="297"/>
+      <c r="F53" s="64"/>
       <c r="G53" s="64"/>
       <c r="H53" s="64"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="80">
-        <v>45187</v>
+      <c r="A54" s="99">
+        <v>45043</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C54" s="88">
-        <v>7648.33</v>
-      </c>
-      <c r="D54" s="97" t="s">
-        <v>201</v>
+        <v>10764.57</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="E54" s="297">
-        <v>-849.81</v>
+        <v>-1196.0899999999999</v>
       </c>
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
@@ -13404,28 +13416,43 @@
         <v>45187</v>
       </c>
       <c r="B55" s="88" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C55" s="88">
-        <v>11128</v>
+        <v>7648.33</v>
       </c>
       <c r="D55" s="97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E55" s="297">
-        <v>-1854.67</v>
+        <v>-849.81</v>
       </c>
       <c r="G55" s="64"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="1:8" ht="15">
-      <c r="D56" s="101" t="s">
-        <v>229</v>
+    <row r="56" spans="1:8">
+      <c r="A56" s="80">
+        <v>45187</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="88">
+        <v>11128</v>
+      </c>
+      <c r="D56" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="297">
+        <v>-1854.67</v>
       </c>
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="15">
+      <c r="D57" s="101" t="s">
+        <v>229</v>
+      </c>
       <c r="G57" s="64"/>
       <c r="H57" s="64"/>
     </row>
@@ -13434,11 +13461,6 @@
       <c r="H58" s="64"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="80"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="F59" s="64"/>
       <c r="G59" s="64"/>
       <c r="H59" s="64"/>
     </row>
@@ -13453,7 +13475,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="80"/>
-      <c r="B61" s="98"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="88"/>
       <c r="D61" s="88"/>
       <c r="F61" s="64"/>
@@ -13472,6 +13494,8 @@
     <row r="63" spans="1:8">
       <c r="A63" s="80"/>
       <c r="B63" s="98"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="88"/>
       <c r="F63" s="64"/>
       <c r="G63" s="64"/>
       <c r="H63" s="64"/>
@@ -13479,98 +13503,87 @@
     <row r="64" spans="1:8">
       <c r="A64" s="80"/>
       <c r="B64" s="98"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="80"/>
-      <c r="B65" s="10"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
       <c r="H65" s="64"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="80"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
+      <c r="B66" s="10"/>
       <c r="F66" s="64"/>
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="76"/>
-      <c r="B67" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="298">
-        <f>SUM(E68:E105)</f>
-        <v>-24792.94</v>
-      </c>
+      <c r="A67" s="80"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
       <c r="F67" s="64"/>
       <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="80"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="E68" s="297"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="298">
+        <f>SUM(E69:E106)</f>
+        <v>-24792.94</v>
+      </c>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="80">
-        <v>45187</v>
-      </c>
-      <c r="B69" s="88" t="s">
-        <v>192</v>
-      </c>
+      <c r="A69" s="80"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="88"/>
-      <c r="D69" t="s">
-        <v>203</v>
-      </c>
-      <c r="E69" s="297">
-        <v>-3974.44</v>
-      </c>
+      <c r="E69" s="297"/>
+      <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="4">
-        <v>45214</v>
-      </c>
-      <c r="B70" t="s">
-        <v>181</v>
-      </c>
+      <c r="A70" s="80">
+        <v>45187</v>
+      </c>
+      <c r="B70" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="88"/>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E70" s="297">
-        <v>-600</v>
-      </c>
-      <c r="F70" s="64"/>
+        <v>-3974.44</v>
+      </c>
       <c r="G70" s="64"/>
       <c r="H70" s="64"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4">
-        <v>45285</v>
-      </c>
-      <c r="B71" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="88"/>
+        <v>45214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E71" s="297">
-        <v>-3551.66</v>
+        <v>-600</v>
       </c>
       <c r="F71" s="64"/>
       <c r="G71" s="64"/>
@@ -13578,19 +13591,17 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B72" t="s">
-        <v>231</v>
-      </c>
-      <c r="C72" s="295">
-        <v>-1204.5</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B72" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="88"/>
       <c r="D72" t="s">
-        <v>1166</v>
+        <v>205</v>
       </c>
       <c r="E72" s="297">
-        <v>-401.5</v>
+        <v>-3551.66</v>
       </c>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
@@ -13601,16 +13612,16 @@
         <v>45259</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C73" s="295">
-        <v>-148.6</v>
+        <v>-1204.5</v>
       </c>
       <c r="D73" t="s">
         <v>1166</v>
       </c>
       <c r="E73" s="297">
-        <v>-49.53</v>
+        <v>-401.5</v>
       </c>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
@@ -13621,16 +13632,16 @@
         <v>45259</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C74" s="295">
-        <v>-244.8</v>
+        <v>-148.6</v>
       </c>
       <c r="D74" t="s">
         <v>1166</v>
       </c>
       <c r="E74" s="297">
-        <v>-81.599999999999994</v>
+        <v>-49.53</v>
       </c>
       <c r="F74" s="64"/>
       <c r="G74" s="64"/>
@@ -13641,34 +13652,36 @@
         <v>45259</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" s="295">
-        <v>-532.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D75" t="s">
         <v>1166</v>
       </c>
       <c r="E75" s="297">
-        <v>-177.53</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F75" s="64"/>
       <c r="G75" s="64"/>
       <c r="H75" s="64"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="4"/>
-      <c r="B76" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="88">
-        <v>899</v>
+      <c r="A76" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="295">
+        <v>-532.6</v>
       </c>
       <c r="D76" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="E76" s="297">
-        <v>-449.5</v>
+        <v>-177.53</v>
       </c>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
@@ -13677,14 +13690,16 @@
     <row r="77" spans="1:8">
       <c r="A77" s="4"/>
       <c r="B77" s="88" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C77" s="88"/>
+        <v>53</v>
+      </c>
+      <c r="C77" s="88">
+        <v>899</v>
+      </c>
       <c r="D77" t="s">
         <v>1163</v>
       </c>
       <c r="E77" s="297">
-        <v>-299.64</v>
+        <v>-449.5</v>
       </c>
       <c r="F77" s="64"/>
       <c r="G77" s="64"/>
@@ -13693,41 +13708,41 @@
     <row r="78" spans="1:8">
       <c r="A78" s="4"/>
       <c r="B78" s="88" t="s">
-        <v>1164</v>
+        <v>1184</v>
       </c>
       <c r="C78" s="88"/>
       <c r="D78" t="s">
         <v>1163</v>
       </c>
       <c r="E78" s="297">
-        <v>-546.83000000000004</v>
+        <v>-299.64</v>
       </c>
       <c r="F78" s="64"/>
       <c r="G78" s="64"/>
       <c r="H78" s="64"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="80"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="88" t="s">
+        <v>1164</v>
+      </c>
       <c r="C79" s="88"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="297"/>
+      <c r="D79" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E79" s="297">
+        <v>-546.83000000000004</v>
+      </c>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
       <c r="H79" s="64"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="80">
-        <v>45312</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>237</v>
-      </c>
+      <c r="A80" s="80"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="88"/>
       <c r="D80" s="88"/>
-      <c r="E80" s="297">
-        <v>-505</v>
-      </c>
+      <c r="E80" s="297"/>
       <c r="F80" s="64"/>
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
@@ -13737,12 +13752,12 @@
         <v>45312</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>1168</v>
+        <v>237</v>
       </c>
       <c r="C81" s="88"/>
       <c r="D81" s="88"/>
       <c r="E81" s="297">
-        <v>-223.2</v>
+        <v>-505</v>
       </c>
       <c r="F81" s="64"/>
       <c r="G81" s="64"/>
@@ -13750,15 +13765,15 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="80">
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>237</v>
+        <v>1168</v>
       </c>
       <c r="C82" s="88"/>
       <c r="D82" s="88"/>
       <c r="E82" s="297">
-        <v>-655</v>
+        <v>-223.2</v>
       </c>
       <c r="F82" s="64"/>
       <c r="G82" s="64"/>
@@ -13766,15 +13781,15 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="80">
-        <v>45293</v>
+        <v>45310</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>1169</v>
+        <v>237</v>
       </c>
       <c r="C83" s="88"/>
       <c r="D83" s="88"/>
       <c r="E83" s="297">
-        <v>-480</v>
+        <v>-655</v>
       </c>
       <c r="F83" s="64"/>
       <c r="G83" s="64"/>
@@ -13785,12 +13800,12 @@
         <v>45293</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C84" s="88"/>
       <c r="D84" s="88"/>
       <c r="E84" s="297">
-        <v>-1200</v>
+        <v>-480</v>
       </c>
       <c r="F84" s="64"/>
       <c r="G84" s="64"/>
@@ -13806,53 +13821,53 @@
       <c r="C85" s="88"/>
       <c r="D85" s="88"/>
       <c r="E85" s="297">
-        <v>-500</v>
+        <v>-1200</v>
       </c>
       <c r="F85" s="64"/>
       <c r="G85" s="64"/>
       <c r="H85" s="64"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="80"/>
+      <c r="A86" s="80">
+        <v>45293</v>
+      </c>
       <c r="B86" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="88">
-        <v>12474.55</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="C86" s="88"/>
       <c r="D86" s="88"/>
-      <c r="E86" s="297"/>
+      <c r="E86" s="297">
+        <v>-500</v>
+      </c>
       <c r="F86" s="64"/>
       <c r="G86" s="64"/>
       <c r="H86" s="64"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="80">
-        <v>45293</v>
-      </c>
+      <c r="A87" s="80"/>
       <c r="B87" s="10" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C87" s="88"/>
+        <v>49</v>
+      </c>
+      <c r="C87" s="88">
+        <v>12474.55</v>
+      </c>
       <c r="D87" s="88"/>
-      <c r="E87" s="297">
-        <v>-150</v>
-      </c>
+      <c r="E87" s="297"/>
       <c r="F87" s="64"/>
       <c r="G87" s="64"/>
       <c r="H87" s="64"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="80">
-        <v>45291</v>
+        <v>45293</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C88" s="88"/>
       <c r="D88" s="88"/>
       <c r="E88" s="297">
-        <v>-60</v>
+        <v>-150</v>
       </c>
       <c r="F88" s="64"/>
       <c r="G88" s="64"/>
@@ -13860,15 +13875,15 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="80">
-        <v>45290</v>
+        <v>45291</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C89" s="88"/>
       <c r="D89" s="88"/>
       <c r="E89" s="297">
-        <v>-73</v>
+        <v>-60</v>
       </c>
       <c r="F89" s="64"/>
       <c r="G89" s="64"/>
@@ -13884,7 +13899,7 @@
       <c r="C90" s="88"/>
       <c r="D90" s="88"/>
       <c r="E90" s="297">
-        <v>-100</v>
+        <v>-73</v>
       </c>
       <c r="F90" s="64"/>
       <c r="G90" s="64"/>
@@ -13892,15 +13907,15 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="80">
-        <v>45289</v>
+        <v>45290</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="C91" s="88"/>
       <c r="D91" s="88"/>
       <c r="E91" s="297">
-        <v>-944</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="64"/>
       <c r="G91" s="64"/>
@@ -13908,15 +13923,15 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="80">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C92" s="88"/>
       <c r="D92" s="88"/>
       <c r="E92" s="297">
-        <v>-140</v>
+        <v>-944</v>
       </c>
       <c r="F92" s="64"/>
       <c r="G92" s="64"/>
@@ -13927,12 +13942,12 @@
         <v>45288</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C93" s="88"/>
       <c r="D93" s="88"/>
       <c r="E93" s="297">
-        <v>-1570.18</v>
+        <v>-140</v>
       </c>
       <c r="F93" s="64"/>
       <c r="G93" s="64"/>
@@ -13943,12 +13958,12 @@
         <v>45288</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>468</v>
+        <v>1175</v>
       </c>
       <c r="C94" s="88"/>
       <c r="D94" s="88"/>
       <c r="E94" s="297">
-        <v>-169.27</v>
+        <v>-1570.18</v>
       </c>
       <c r="F94" s="64"/>
       <c r="G94" s="64"/>
@@ -13959,12 +13974,12 @@
         <v>45288</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>1176</v>
+        <v>468</v>
       </c>
       <c r="C95" s="88"/>
       <c r="D95" s="88"/>
       <c r="E95" s="297">
-        <v>-800</v>
+        <v>-169.27</v>
       </c>
       <c r="F95" s="64"/>
       <c r="G95" s="64"/>
@@ -13972,15 +13987,15 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="80">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>468</v>
+        <v>1176</v>
       </c>
       <c r="C96" s="88"/>
       <c r="D96" s="88"/>
       <c r="E96" s="297">
-        <v>-438.05</v>
+        <v>-800</v>
       </c>
       <c r="F96" s="64"/>
       <c r="G96" s="64"/>
@@ -13988,17 +14003,15 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="80">
-        <v>45653</v>
+        <v>45287</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C97" s="88"/>
-      <c r="D97" s="88">
-        <v>185</v>
-      </c>
+      <c r="D97" s="88"/>
       <c r="E97" s="297">
-        <v>-185</v>
+        <v>-438.05</v>
       </c>
       <c r="F97" s="64"/>
       <c r="G97" s="64"/>
@@ -14009,14 +14022,14 @@
         <v>45653</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>1177</v>
+        <v>451</v>
       </c>
       <c r="C98" s="88"/>
       <c r="D98" s="88">
-        <v>25.85</v>
+        <v>185</v>
       </c>
       <c r="E98" s="297">
-        <v>-25.85</v>
+        <v>-185</v>
       </c>
       <c r="F98" s="64"/>
       <c r="G98" s="64"/>
@@ -14024,15 +14037,17 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="80">
-        <v>45286</v>
+        <v>45653</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C99" s="88"/>
-      <c r="D99" s="88"/>
+      <c r="D99" s="88">
+        <v>25.85</v>
+      </c>
       <c r="E99" s="297">
-        <v>-160</v>
+        <v>-25.85</v>
       </c>
       <c r="F99" s="64"/>
       <c r="G99" s="64"/>
@@ -14043,12 +14058,12 @@
         <v>45286</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C100" s="88"/>
       <c r="D100" s="88"/>
       <c r="E100" s="297">
-        <v>-300</v>
+        <v>-160</v>
       </c>
       <c r="F100" s="64"/>
       <c r="G100" s="64"/>
@@ -14056,31 +14071,33 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="80">
-        <v>45651</v>
+        <v>45286</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C101" s="88"/>
-      <c r="D101" s="88">
-        <v>112.64</v>
-      </c>
+      <c r="D101" s="88"/>
       <c r="E101" s="297">
-        <v>-112.64</v>
+        <v>-300</v>
       </c>
       <c r="F101" s="64"/>
       <c r="G101" s="64"/>
       <c r="H101" s="64"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="80"/>
+      <c r="A102" s="80">
+        <v>45651</v>
+      </c>
       <c r="B102" s="10" t="s">
-        <v>742</v>
+        <v>1180</v>
       </c>
       <c r="C102" s="88"/>
-      <c r="D102" s="88"/>
+      <c r="D102" s="88">
+        <v>112.64</v>
+      </c>
       <c r="E102" s="297">
-        <v>-193</v>
+        <v>-112.64</v>
       </c>
       <c r="F102" s="64"/>
       <c r="G102" s="64"/>
@@ -14089,12 +14106,12 @@
     <row r="103" spans="1:8">
       <c r="A103" s="80"/>
       <c r="B103" s="10" t="s">
-        <v>1165</v>
+        <v>742</v>
       </c>
       <c r="C103" s="88"/>
       <c r="D103" s="88"/>
       <c r="E103" s="297">
-        <v>-5517.52</v>
+        <v>-193</v>
       </c>
       <c r="F103" s="64"/>
       <c r="G103" s="64"/>
@@ -14103,12 +14120,12 @@
     <row r="104" spans="1:8">
       <c r="A104" s="80"/>
       <c r="B104" s="10" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C104" s="88"/>
       <c r="D104" s="88"/>
       <c r="E104" s="297">
-        <v>-105</v>
+        <v>-5517.52</v>
       </c>
       <c r="F104" s="64"/>
       <c r="G104" s="64"/>
@@ -14122,7 +14139,7 @@
       <c r="C105" s="88"/>
       <c r="D105" s="88"/>
       <c r="E105" s="297">
-        <v>-54</v>
+        <v>-105</v>
       </c>
       <c r="F105" s="64"/>
       <c r="G105" s="64"/>
@@ -14130,87 +14147,88 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="80"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="296" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D106" s="98">
-        <f>SUM(D97:D105)</f>
-        <v>323.49</v>
-      </c>
-      <c r="E106" s="297"/>
+      <c r="B106" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="297">
+        <v>-54</v>
+      </c>
       <c r="F106" s="64"/>
       <c r="G106" s="64"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107" spans="1:8" ht="15">
+    <row r="107" spans="1:8">
       <c r="A107" s="80"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="101" t="s">
-        <v>229</v>
+      <c r="C107" s="296" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D107" s="98">
+        <f>SUM(D98:D106)</f>
+        <v>323.49</v>
       </c>
       <c r="E107" s="297"/>
       <c r="F107" s="64"/>
       <c r="G107" s="64"/>
       <c r="H107" s="64"/>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="76"/>
-      <c r="B109" s="77" t="s">
+    <row r="108" spans="1:8" ht="15">
+      <c r="A108" s="80"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="88"/>
+      <c r="D108" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="E108" s="297"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="76"/>
+      <c r="B110" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C109" s="76"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="303">
-        <f>SUM(E110:E117)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="80"/>
-      <c r="B110" t="s">
-        <v>2</v>
+      <c r="C110" s="76"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="303">
+        <f>SUM(E111:E118)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="80"/>
       <c r="B111" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="80"/>
       <c r="B112" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="80"/>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="80"/>
       <c r="B114" t="s">
-        <v>99</v>
-      </c>
-      <c r="D114">
-        <v>111</v>
-      </c>
-      <c r="E114" s="295">
-        <f>D114*C114</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="80"/>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D115">
-        <v>850</v>
+        <v>111</v>
       </c>
       <c r="E115" s="295">
         <f>D115*C115</f>
@@ -14220,10 +14238,10 @@
     <row r="116" spans="1:5">
       <c r="A116" s="80"/>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D116">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="E116" s="295">
         <f>D116*C116</f>
@@ -14233,25 +14251,38 @@
     <row r="117" spans="1:5">
       <c r="A117" s="80"/>
       <c r="B117" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117">
+        <v>100</v>
+      </c>
+      <c r="E117" s="295">
+        <f>D117*C117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="80"/>
+      <c r="B118" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="B118" t="s">
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
         <v>141</v>
       </c>
-      <c r="E118" s="295">
+      <c r="E119" s="295">
         <f>H2</f>
-        <v>-28860.51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="D120" s="72" t="s">
+        <v>-41335.89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="D121" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="E120" s="295">
-        <f>SUM(E110:E119)</f>
-        <v>-28860.51</v>
+      <c r="E121" s="295">
+        <f>SUM(E111:E120)</f>
+        <v>-41335.89</v>
       </c>
     </row>
   </sheetData>
@@ -14271,7 +14302,7 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -53369,11 +53400,11 @@
       </c>
       <c r="F4" s="308">
         <f>'02_24'!G2</f>
-        <v>-28860.51</v>
+        <v>-41335.89</v>
       </c>
       <c r="G4" s="309">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="33" t="s">
@@ -53392,7 +53423,7 @@
       </c>
       <c r="M4" s="36"/>
       <c r="N4">
-        <f>'02_24'!E113/1000</f>
+        <f>'02_24'!E114/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -53422,7 +53453,7 @@
       </c>
       <c r="G5" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="33" t="s">
@@ -53468,7 +53499,7 @@
       </c>
       <c r="G6" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="39" t="s">
@@ -53476,9 +53507,9 @@
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="40">
+      <c r="M6" s="40" t="e">
         <f>E18/1000</f>
-        <v>9.61158</v>
+        <v>#REF!</v>
       </c>
       <c r="N6">
         <f>'04_24'!E110/1000</f>
@@ -53511,7 +53542,7 @@
       </c>
       <c r="G7" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="39" t="s">
@@ -53554,7 +53585,7 @@
       </c>
       <c r="G8" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="33" t="s">
@@ -53600,7 +53631,7 @@
       </c>
       <c r="G9" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33" t="s">
@@ -53649,7 +53680,7 @@
       </c>
       <c r="G10" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="33" t="s">
@@ -53695,7 +53726,7 @@
       </c>
       <c r="G11" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="33" t="s">
@@ -53744,7 +53775,7 @@
       </c>
       <c r="G12" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="33" t="s">
@@ -53793,7 +53824,7 @@
       </c>
       <c r="G13" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="33" t="s">
@@ -53842,7 +53873,7 @@
       </c>
       <c r="G14" s="309">
         <f t="shared" si="1"/>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="42" t="s">
@@ -53887,11 +53918,11 @@
       </c>
       <c r="F15" s="309">
         <f>SUM(F3:F14)</f>
-        <v>-95237.719999999987</v>
+        <v>-107713.09999999999</v>
       </c>
       <c r="G15" s="309">
         <f>E15+F15</f>
-        <v>99673.86000000003</v>
+        <v>87198.480000000025</v>
       </c>
       <c r="H15" s="48"/>
       <c r="I15" s="49"/>
@@ -53907,9 +53938,9 @@
         <f>SUM(L4:L14)</f>
         <v>743.20675200000005</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="53" t="e">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>376.11158</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -53931,11 +53962,11 @@
       </c>
       <c r="F16" s="56">
         <f>F15/A16</f>
-        <v>-7936.4766666666656</v>
+        <v>-8976.0916666666653</v>
       </c>
       <c r="G16" s="56">
         <f>G15/A16</f>
-        <v>8306.1550000000025</v>
+        <v>7266.5400000000018</v>
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="58"/>
@@ -53951,9 +53982,9 @@
         <f>L15/12</f>
         <v>61.933896000000004</v>
       </c>
-      <c r="M16" s="62">
+      <c r="M16" s="62" t="e">
         <f>M15/12</f>
-        <v>31.342631666666666</v>
+        <v>#REF!</v>
       </c>
       <c r="N16" s="63">
         <f>AVERAGE(N2:N15)</f>
@@ -53969,9 +54000,9 @@
       <c r="K17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="315">
+      <c r="L17" s="315" t="e">
         <f>L15+M15</f>
-        <v>1119.3183320000001</v>
+        <v>#REF!</v>
       </c>
       <c r="M17" s="315"/>
     </row>
@@ -53979,18 +54010,18 @@
       <c r="D18" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F23+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
-        <v>9611.58</v>
+      <c r="E18" s="1" t="e">
+        <f>'01_24'!F27+'02_24'!#REF!+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
+        <v>#REF!</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="L18" s="67"/>
-      <c r="M18" s="68">
+      <c r="M18" s="68" t="e">
         <f>L17/12</f>
-        <v>93.276527666666667</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -54007,9 +54038,9 @@
       <c r="D20" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="73" t="e">
         <f>SUM(E18:E19)</f>
-        <v>9611.58</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9572F889-C1DE-4A96-9302-1A6CD898FD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702780DE-1535-4263-A5BC-EE74F0C5C00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="854" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="854" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="1220">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -3809,31 +3809,10 @@
     <t>nazan</t>
   </si>
   <si>
-    <t>2 aylık</t>
-  </si>
-  <si>
     <t>bankamatikten yatan (salih ant dan gelen 60000)</t>
   </si>
   <si>
     <t>AYLK</t>
-  </si>
-  <si>
-    <t>TABGD  140,50</t>
-  </si>
-  <si>
-    <t>SURGY  46,98</t>
-  </si>
-  <si>
-    <t>AVPGY satıldı</t>
-  </si>
-  <si>
-    <t>MEGMT satıldı</t>
-  </si>
-  <si>
-    <t>iş 808 satıldı</t>
-  </si>
-  <si>
-    <t>160 * 552</t>
   </si>
   <si>
     <r>
@@ -3862,6 +3841,87 @@
   </si>
   <si>
     <t>denizbanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 - 6</t>
+  </si>
+  <si>
+    <t>Hurdacı Elektrik                  32,42 1. aydan ekle</t>
+  </si>
+  <si>
+    <t>OCAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iş 808 </t>
+  </si>
+  <si>
+    <t>SURGY  51,35</t>
+  </si>
+  <si>
+    <t>TABGD  139,7</t>
+  </si>
+  <si>
+    <t>xau iş alış                                  2025,34</t>
+  </si>
+  <si>
+    <t>usd iş satış-alış                 30,97120</t>
+  </si>
+  <si>
+    <t>eur iş alış                           33,3869</t>
+  </si>
+  <si>
+    <t>236 * 559,833857</t>
+  </si>
+  <si>
+    <t>hesaba</t>
+  </si>
+  <si>
+    <t>iş sny umut-ortak 156</t>
+  </si>
+  <si>
+    <t>umut   250 usd * 30,97 = 7742,5</t>
+  </si>
+  <si>
+    <t>usd nakit</t>
+  </si>
+  <si>
+    <t>turrknet 17-01-24 * 17-02-24 ilk fatura</t>
+  </si>
+  <si>
+    <t>turknet 1. ay karttan iade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">turknet 12ay 17-02-24 * 17-02-25 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t>399,99 *12 + 299,99</t>
+    </r>
+  </si>
+  <si>
+    <t>aof 2. dönem harç</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 - 6</t>
   </si>
 </sst>
 </file>
@@ -5922,7 +5982,9 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -5957,7 +6019,7 @@
       </c>
       <c r="E2" s="83">
         <f>SUM(E4:E34)</f>
-        <v>-41072</v>
+        <v>-41671.800000000003</v>
       </c>
       <c r="F2" s="83">
         <f>SUM(F4:F34)</f>
@@ -6159,7 +6221,7 @@
       </c>
       <c r="E16" s="64">
         <f>E65</f>
-        <v>0</v>
+        <v>-599.79999999999995</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64">
@@ -6624,7 +6686,7 @@
       <c r="D65" s="76"/>
       <c r="E65" s="79">
         <f>SUM(E66:E74)</f>
-        <v>0</v>
+        <v>-599.79999999999995</v>
       </c>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
@@ -6640,20 +6702,32 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="80"/>
-      <c r="B67" s="88"/>
+      <c r="B67" s="10" t="s">
+        <v>1213</v>
+      </c>
       <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="64"/>
+      <c r="D67" s="155" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E67" s="283">
+        <v>-649.78</v>
+      </c>
       <c r="F67" s="64"/>
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="80"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>1212</v>
+      </c>
       <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="64"/>
+      <c r="D68" s="155" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E68" s="283">
+        <v>49.98</v>
+      </c>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
@@ -7054,7 +7128,9 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -7089,7 +7165,7 @@
       </c>
       <c r="E2" s="83">
         <f>SUM(E4:E34)</f>
-        <v>-44623.66</v>
+        <v>-45223.46</v>
       </c>
       <c r="F2" s="83">
         <f>SUM(F4:F34)</f>
@@ -7291,7 +7367,7 @@
       </c>
       <c r="E16" s="64">
         <f>E65</f>
-        <v>-3551.66</v>
+        <v>-4151.46</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64">
@@ -7747,7 +7823,7 @@
       <c r="D65" s="76"/>
       <c r="E65" s="79">
         <f>SUM(E66:E74)</f>
-        <v>-3551.66</v>
+        <v>-4151.46</v>
       </c>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
@@ -7781,20 +7857,32 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="80"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>1213</v>
+      </c>
       <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="64"/>
+      <c r="D68" s="155" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E68" s="283">
+        <v>-649.78</v>
+      </c>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="80"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>1212</v>
+      </c>
       <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="85"/>
+      <c r="D69" s="155" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E69" s="283">
+        <v>49.98</v>
+      </c>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
@@ -8185,7 +8273,9 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -8220,7 +8310,7 @@
       </c>
       <c r="E2" s="83">
         <f>SUM(E4:E34)</f>
-        <v>-45473.47</v>
+        <v>-46073.270000000004</v>
       </c>
       <c r="F2" s="83">
         <f>SUM(F4:F34)</f>
@@ -8422,7 +8512,7 @@
       </c>
       <c r="E16" s="64">
         <f>E65</f>
-        <v>-3551.66</v>
+        <v>-4151.46</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64">
@@ -8888,7 +8978,7 @@
       <c r="D65" s="76"/>
       <c r="E65" s="79">
         <f>SUM(E66:E74)</f>
-        <v>-3551.66</v>
+        <v>-4151.46</v>
       </c>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
@@ -8922,20 +9012,32 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="80"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>1213</v>
+      </c>
       <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="64"/>
+      <c r="D68" s="155" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E68" s="283">
+        <v>-649.78</v>
+      </c>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="80"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>1212</v>
+      </c>
       <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="85"/>
+      <c r="D69" s="155" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E69" s="283">
+        <v>49.98</v>
+      </c>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
@@ -9326,7 +9428,9 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -9361,7 +9465,7 @@
       </c>
       <c r="E2" s="83">
         <f>SUM(E4:E34)</f>
-        <v>-40253.47</v>
+        <v>-40853.270000000004</v>
       </c>
       <c r="F2" s="83">
         <f>SUM(F4:F34)</f>
@@ -9563,7 +9667,7 @@
       </c>
       <c r="E16" s="64">
         <f>E65</f>
-        <v>-3551.66</v>
+        <v>-4151.46</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64">
@@ -10026,7 +10130,7 @@
       <c r="D65" s="76"/>
       <c r="E65" s="79">
         <f>SUM(E66:E74)</f>
-        <v>-3551.66</v>
+        <v>-4151.46</v>
       </c>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
@@ -10060,20 +10164,32 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="80"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>1213</v>
+      </c>
       <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="64"/>
+      <c r="D68" s="155" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E68" s="283">
+        <v>-649.78</v>
+      </c>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="80"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>1212</v>
+      </c>
       <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="85"/>
+      <c r="D69" s="155" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E69" s="283">
+        <v>49.98</v>
+      </c>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
@@ -10464,7 +10580,9 @@
   </sheetPr>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -10499,7 +10617,7 @@
       </c>
       <c r="E2" s="83">
         <f>SUM(E4:E34)</f>
-        <v>-40853.47</v>
+        <v>-41453.270000000004</v>
       </c>
       <c r="F2" s="83">
         <f>SUM(F4:F34)</f>
@@ -10704,7 +10822,7 @@
       </c>
       <c r="E16" s="64">
         <f>E64</f>
-        <v>-4151.66</v>
+        <v>-4751.46</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64">
@@ -11163,7 +11281,7 @@
       <c r="D64" s="76"/>
       <c r="E64" s="79">
         <f>SUM(E65:E73)</f>
-        <v>-4151.66</v>
+        <v>-4751.46</v>
       </c>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
@@ -11214,20 +11332,32 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="80"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>1213</v>
+      </c>
       <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="85"/>
+      <c r="D68" s="155" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E68" s="283">
+        <v>-649.78</v>
+      </c>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="80"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>1212</v>
+      </c>
       <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="85"/>
+      <c r="D69" s="155" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E69" s="283">
+        <v>49.98</v>
+      </c>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
@@ -11608,8 +11738,8 @@
   </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -11645,7 +11775,7 @@
       </c>
       <c r="E2" s="283">
         <f>SUM(E4:E34)</f>
-        <v>-113141.88</v>
+        <v>-115783.52</v>
       </c>
       <c r="F2" s="83">
         <f>SUM(F4:F34)</f>
@@ -11838,7 +11968,7 @@
       </c>
       <c r="E16" s="283">
         <f>E66</f>
-        <v>-9585.4000000000015</v>
+        <v>-12227.040000000003</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64">
@@ -12104,7 +12234,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>133</v>
+        <v>1198</v>
       </c>
       <c r="F41" s="64"/>
       <c r="G41" s="64"/>
@@ -12291,8 +12421,8 @@
       </c>
       <c r="C66" s="76"/>
       <c r="E66" s="283">
-        <f>SUM(E67:E76)</f>
-        <v>-9585.4000000000015</v>
+        <f>SUM(E67:E92)</f>
+        <v>-12227.040000000003</v>
       </c>
       <c r="F66" s="64"/>
       <c r="G66" s="64"/>
@@ -12391,7 +12521,7 @@
         <v>1181</v>
       </c>
       <c r="E72" s="283">
-        <v>-49.53</v>
+        <v>-49.54</v>
       </c>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
@@ -12431,7 +12561,7 @@
         <v>1181</v>
       </c>
       <c r="E74" s="283">
-        <v>-177.53</v>
+        <v>-177.54</v>
       </c>
       <c r="F74" s="64"/>
       <c r="G74" s="64"/>
@@ -12445,7 +12575,7 @@
       <c r="C75" s="88">
         <v>899</v>
       </c>
-      <c r="D75" s="84" t="s">
+      <c r="D75" s="155" t="s">
         <v>1182</v>
       </c>
       <c r="E75" s="283">
@@ -12461,7 +12591,7 @@
         <v>1183</v>
       </c>
       <c r="C76" s="88"/>
-      <c r="D76" s="84" t="s">
+      <c r="D76" s="155" t="s">
         <v>1182</v>
       </c>
       <c r="E76" s="283">
@@ -12477,7 +12607,7 @@
         <v>1163</v>
       </c>
       <c r="C77" s="88"/>
-      <c r="D77" s="84" t="s">
+      <c r="D77" s="155" t="s">
         <v>1182</v>
       </c>
       <c r="E77" s="283">
@@ -12489,16 +12619,32 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="80"/>
-      <c r="B78" s="10"/>
+      <c r="B78" s="10" t="s">
+        <v>1213</v>
+      </c>
       <c r="C78" s="88"/>
+      <c r="D78" s="155" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E78" s="283">
+        <v>-649.78</v>
+      </c>
       <c r="F78" s="64"/>
       <c r="G78" s="64"/>
       <c r="H78" s="64"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="80"/>
-      <c r="B79" s="10"/>
+      <c r="B79" s="10" t="s">
+        <v>1212</v>
+      </c>
       <c r="C79" s="88"/>
+      <c r="D79" s="155" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E79" s="283">
+        <v>49.98</v>
+      </c>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
       <c r="H79" s="64"/>
@@ -12520,17 +12666,31 @@
       <c r="H81" s="64"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="80"/>
-      <c r="B82" s="10"/>
+      <c r="A82" s="80">
+        <v>45324</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>1214</v>
+      </c>
       <c r="C82" s="88"/>
+      <c r="E82" s="283">
+        <v>-1195</v>
+      </c>
       <c r="F82" s="64"/>
       <c r="G82" s="64"/>
       <c r="H82" s="64"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="80"/>
-      <c r="B83" s="10"/>
+      <c r="A83" s="80">
+        <v>45327</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>1211</v>
+      </c>
       <c r="C83" s="88"/>
+      <c r="E83" s="283">
+        <v>-299.99</v>
+      </c>
       <c r="F83" s="64"/>
       <c r="G83" s="64"/>
       <c r="H83" s="64"/>
@@ -12755,7 +12915,7 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -12768,10 +12928,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -12803,19 +12963,19 @@
         <v>104</v>
       </c>
       <c r="D2" s="281">
-        <f>SUM(D4:D39)</f>
+        <f>SUM(D4:D40)</f>
         <v>19300</v>
       </c>
       <c r="E2" s="281">
-        <f>SUM(E4:E39)</f>
+        <f>SUM(E4:E40)</f>
         <v>-65325.849999999991</v>
       </c>
       <c r="F2" s="281">
-        <f>SUM(F4:F39)</f>
+        <f>SUM(F4:F40)</f>
         <v>0</v>
       </c>
       <c r="G2" s="281">
-        <f>SUM(G4:G39)</f>
+        <f>SUM(G4:G40)</f>
         <v>-48902.979999999996</v>
       </c>
       <c r="H2" s="281">
@@ -12845,7 +13005,7 @@
         <v>-167</v>
       </c>
       <c r="H4" s="281">
-        <f t="shared" ref="H4:H37" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H5" si="0">H3+F4+G4</f>
         <v>-167</v>
       </c>
     </row>
@@ -12918,12 +13078,12 @@
       <c r="B8" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="281">
-        <f>E55</f>
+      <c r="E8" s="286">
+        <f>E56</f>
         <v>-3900.5699999999997</v>
       </c>
-      <c r="F8" s="281"/>
-      <c r="G8" s="281">
+      <c r="F8" s="286"/>
+      <c r="G8" s="286">
         <f>E8</f>
         <v>-3900.5699999999997</v>
       </c>
@@ -12939,41 +13099,27 @@
       <c r="B9" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="281">
-        <f>E72</f>
+      <c r="E9" s="286">
+        <f>E73</f>
         <v>-24792.94</v>
       </c>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281">
+      <c r="F9" s="286"/>
+      <c r="G9" s="286">
         <f>E9</f>
         <v>-24792.94</v>
       </c>
       <c r="H9" s="281">
-        <f t="shared" ref="H9:H24" si="1">H8+F9+G9</f>
+        <f t="shared" ref="H9:H25" si="1">H8+F9+G9</f>
         <v>-40622.639999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="80">
-        <v>45329</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="281">
-        <v>-5375</v>
-      </c>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281">
-        <f>E10</f>
-        <v>-5375</v>
-      </c>
-      <c r="H10" s="281">
-        <f t="shared" si="1"/>
-        <v>-45997.64</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="89"/>
+      <c r="E10" s="286"/>
+      <c r="F10" s="286"/>
+      <c r="G10" s="286"/>
+      <c r="H10" s="281"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="80">
@@ -12985,95 +13131,105 @@
       <c r="C11" s="86"/>
       <c r="D11" s="86"/>
       <c r="E11" s="281">
-        <v>-2125</v>
+        <v>-5375</v>
       </c>
       <c r="F11" s="281"/>
       <c r="G11" s="281">
         <f>E11</f>
+        <v>-5375</v>
+      </c>
+      <c r="H11" s="281">
+        <f>H9+F11+G11</f>
+        <v>-45997.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="80">
+        <v>45329</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="281">
         <v>-2125</v>
-      </c>
-      <c r="H11" s="281">
-        <f t="shared" si="1"/>
-        <v>-48122.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="291">
-        <v>45331</v>
-      </c>
-      <c r="B12" s="290" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="E12" s="281">
-        <v>-713.25</v>
       </c>
       <c r="F12" s="281"/>
       <c r="G12" s="281">
         <f>E12</f>
-        <v>-713.25</v>
+        <v>-2125</v>
       </c>
       <c r="H12" s="281">
         <f t="shared" si="1"/>
-        <v>-48835.89</v>
+        <v>-48122.64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E13" s="281"/>
+      <c r="A13" s="291">
+        <v>45331</v>
+      </c>
+      <c r="B13" s="290" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="E13" s="281">
+        <v>-713.25</v>
+      </c>
       <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
+      <c r="G13" s="281">
+        <f>E13</f>
+        <v>-713.25</v>
+      </c>
       <c r="H13" s="281">
         <f t="shared" si="1"/>
         <v>-48835.89</v>
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E14" s="281"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="281"/>
       <c r="H14" s="281">
         <f t="shared" si="1"/>
         <v>-48835.89</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="291"/>
-      <c r="B15" s="290"/>
-      <c r="C15" s="86"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="281"/>
-      <c r="G15" s="281"/>
       <c r="H15" s="281">
         <f t="shared" si="1"/>
         <v>-48835.89</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="286">
-        <f>E50*-1</f>
-        <v>-67.09</v>
-      </c>
-      <c r="G16" s="279">
-        <f>E16</f>
-        <v>-67.09</v>
-      </c>
+      <c r="A16" s="291"/>
+      <c r="B16" s="290"/>
+      <c r="C16" s="86"/>
+      <c r="E16" s="281"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="281"/>
       <c r="H16" s="281">
         <f t="shared" si="1"/>
-        <v>-48902.979999999996</v>
+        <v>-48835.89</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="291"/>
-      <c r="B17" s="290"/>
-      <c r="C17" s="86"/>
-      <c r="E17" s="281"/>
-      <c r="F17" s="281"/>
-      <c r="G17" s="281"/>
+      <c r="B17" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="286">
+        <f>E51*-1</f>
+        <v>-67.09</v>
+      </c>
+      <c r="G17" s="279">
+        <f>E17</f>
+        <v>-67.09</v>
+      </c>
       <c r="H17" s="281">
         <f t="shared" si="1"/>
         <v>-48902.979999999996</v>
@@ -13092,14 +13248,10 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="86" t="s">
-        <v>107</v>
-      </c>
+      <c r="A19" s="291"/>
+      <c r="B19" s="290"/>
       <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="281">
-        <v>-400</v>
-      </c>
+      <c r="E19" s="281"/>
       <c r="F19" s="281"/>
       <c r="G19" s="281"/>
       <c r="H19" s="281">
@@ -13109,12 +13261,12 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="86"/>
       <c r="D20" s="86"/>
       <c r="E20" s="281">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="281"/>
       <c r="G20" s="281"/>
@@ -13124,39 +13276,37 @@
       </c>
     </row>
     <row r="21" spans="1:8">
+      <c r="B21" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="281">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
       <c r="H21" s="281">
         <f t="shared" si="1"/>
         <v>-48902.979999999996</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="281">
-        <v>-150</v>
-      </c>
-      <c r="F22" s="281"/>
-      <c r="G22" s="281"/>
       <c r="H22" s="281">
         <f t="shared" si="1"/>
         <v>-48902.979999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="88" t="s">
+      <c r="B23" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="281">
-        <v>-300</v>
+        <v>-150</v>
       </c>
       <c r="F23" s="281"/>
       <c r="G23" s="281"/>
@@ -13167,14 +13317,14 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="88" t="s">
         <v>115</v>
       </c>
       <c r="D24" s="88"/>
       <c r="E24" s="281">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F24" s="281"/>
       <c r="G24" s="281"/>
@@ -13184,46 +13334,50 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="281"/>
+      <c r="B25" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="88"/>
+      <c r="E25" s="281">
+        <v>-100</v>
+      </c>
       <c r="F25" s="281"/>
       <c r="G25" s="281"/>
       <c r="H25" s="281">
-        <f t="shared" ref="H22:H37" si="2">H24+F25+G25</f>
+        <f t="shared" si="1"/>
         <v>-48902.979999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="281"/>
       <c r="F26" s="281"/>
       <c r="G26" s="281"/>
       <c r="H26" s="281">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H26:H38" si="2">H25+F26+G26</f>
         <v>-48902.979999999996</v>
       </c>
     </row>
     <row r="27" spans="1:8">
+      <c r="F27" s="281"/>
+      <c r="G27" s="281"/>
       <c r="H27" s="281">
         <f t="shared" si="2"/>
         <v>-48902.979999999996</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="F28" s="281"/>
-      <c r="G28" s="281"/>
       <c r="H28" s="281">
         <f t="shared" si="2"/>
         <v>-48902.979999999996</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="281">
-        <v>-5000</v>
-      </c>
       <c r="F29" s="281"/>
       <c r="G29" s="281"/>
       <c r="H29" s="281">
@@ -13233,7 +13387,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="281">
         <v>-5000</v>
@@ -13247,7 +13401,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E31" s="281">
         <v>-5000</v>
@@ -13260,7 +13414,12 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="E32" s="281"/>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="281">
+        <v>-5000</v>
+      </c>
       <c r="F32" s="281"/>
       <c r="G32" s="281"/>
       <c r="H32" s="281">
@@ -13269,12 +13428,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="84">
-        <v>10000</v>
-      </c>
+      <c r="E33" s="281"/>
       <c r="F33" s="281"/>
       <c r="G33" s="281"/>
       <c r="H33" s="281">
@@ -13283,12 +13437,11 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="80"/>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="84">
-        <v>2800</v>
+        <v>10000</v>
       </c>
       <c r="F34" s="281"/>
       <c r="G34" s="281"/>
@@ -13300,10 +13453,10 @@
     <row r="35" spans="1:8">
       <c r="A35" s="80"/>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="D35" s="84">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="F35" s="281"/>
       <c r="G35" s="281"/>
@@ -13314,7 +13467,12 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="80"/>
-      <c r="D36" s="84"/>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="84">
+        <v>6500</v>
+      </c>
       <c r="F36" s="281"/>
       <c r="G36" s="281"/>
       <c r="H36" s="281">
@@ -13323,7 +13481,8 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="D37" s="91"/>
+      <c r="A37" s="80"/>
+      <c r="D37" s="84"/>
       <c r="F37" s="281"/>
       <c r="G37" s="281"/>
       <c r="H37" s="281">
@@ -13332,201 +13491,194 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="D38" s="64"/>
+      <c r="D38" s="91"/>
       <c r="F38" s="281"/>
       <c r="G38" s="281"/>
-      <c r="H38" s="281"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="B39" s="93"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H38" s="281">
+        <f t="shared" si="2"/>
+        <v>-48902.979999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="D39" s="64"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="281"/>
+      <c r="H39" s="281"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
+      <c r="B40" s="93"/>
+      <c r="F40" s="64"/>
       <c r="G40" s="64"/>
       <c r="H40" s="64"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>129</v>
-      </c>
       <c r="G41" s="64"/>
       <c r="H41" s="64"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="285"/>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
       <c r="G42" s="64"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1">
-      <c r="A43" s="80"/>
-      <c r="C43" s="90"/>
-      <c r="E43" s="286"/>
+    <row r="43" spans="1:8">
+      <c r="A43" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="285"/>
+      <c r="G43" s="64"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="94">
+    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="A44" s="80"/>
+      <c r="C44" s="90"/>
+      <c r="E44" s="286"/>
+      <c r="H44" s="64"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="94">
         <v>44929</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B45" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="96">
-        <f>SUM(D45:D50)</f>
+      <c r="C45" s="76"/>
+      <c r="D45" s="96">
+        <f>SUM(D46:D51)</f>
         <v>3749.5300000000007</v>
       </c>
-      <c r="E44" s="287">
-        <f>SUM(E45:E50)</f>
-        <v>67.09</v>
-      </c>
-      <c r="H44" s="64"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="80"/>
-      <c r="B45" s="88" t="s">
+      <c r="E45" s="287">
+        <f>SUM(E46:E51)</f>
+        <v>942.09</v>
+      </c>
+      <c r="H45" s="64"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="80"/>
+      <c r="B46" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="1">
+      <c r="C46" s="2"/>
+      <c r="D46" s="1">
         <v>999.4</v>
       </c>
-      <c r="H45" s="64"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="1">
-        <v>876.64</v>
-      </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1">
-        <v>431.36</v>
+        <v>876.64</v>
+      </c>
+      <c r="E47" s="279">
+        <v>875</v>
       </c>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="1">
-        <v>891.32</v>
+        <v>431.36</v>
       </c>
       <c r="F48" s="64"/>
       <c r="G48" s="64"/>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D49" s="1">
-        <v>483.72</v>
+        <v>891.32</v>
       </c>
       <c r="F49" s="64"/>
       <c r="G49" s="64"/>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="88"/>
+        <v>136</v>
+      </c>
       <c r="D50" s="1">
-        <v>67.09</v>
-      </c>
-      <c r="E50" s="288">
-        <v>67.09</v>
+        <v>483.72</v>
       </c>
       <c r="F50" s="64"/>
       <c r="G50" s="64"/>
     </row>
     <row r="51" spans="1:8">
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
       <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="281"/>
+      <c r="D51" s="1">
+        <v>67.09</v>
+      </c>
+      <c r="E51" s="288">
+        <v>67.09</v>
+      </c>
       <c r="F51" s="64"/>
       <c r="G51" s="64"/>
     </row>
-    <row r="53" spans="1:8">
-      <c r="B53" s="73"/>
+    <row r="52" spans="1:8">
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="281"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="B54" s="84"/>
+      <c r="B54" s="73"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="76"/>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="84"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="76"/>
+      <c r="B56" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="76"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="287">
-        <f>SUM(E56:E69)</f>
+      <c r="C56" s="76"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="287">
+        <f>SUM(E57:E70)</f>
         <v>-3900.5699999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-    </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="99"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="281"/>
-      <c r="F57" s="64"/>
       <c r="G57" s="64"/>
       <c r="H57" s="64"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="99">
-        <v>45043</v>
-      </c>
-      <c r="B58" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="88">
-        <v>10764.57</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E58" s="281">
-        <v>-1196.0899999999999</v>
-      </c>
+      <c r="A58" s="99"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="64"/>
       <c r="G58" s="64"/>
       <c r="H58" s="64"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="80">
-        <v>45187</v>
+      <c r="A59" s="99">
+        <v>45043</v>
       </c>
       <c r="B59" s="88" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C59" s="88">
-        <v>7648.33</v>
-      </c>
-      <c r="D59" s="97" t="s">
-        <v>201</v>
+        <v>10764.57</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="E59" s="281">
-        <v>-849.81</v>
+        <v>-1196.0899999999999</v>
       </c>
       <c r="G59" s="64"/>
       <c r="H59" s="64"/>
@@ -13536,28 +13688,43 @@
         <v>45187</v>
       </c>
       <c r="B60" s="88" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C60" s="88">
-        <v>11128</v>
+        <v>7648.33</v>
       </c>
       <c r="D60" s="97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E60" s="281">
-        <v>-1854.67</v>
+        <v>-849.81</v>
       </c>
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="1:8" ht="15">
-      <c r="D61" s="101" t="s">
-        <v>228</v>
+    <row r="61" spans="1:8">
+      <c r="A61" s="80">
+        <v>45187</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="88">
+        <v>11128</v>
+      </c>
+      <c r="D61" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="281">
+        <v>-1854.67</v>
       </c>
       <c r="G61" s="64"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="15">
+      <c r="D62" s="101" t="s">
+        <v>228</v>
+      </c>
       <c r="G62" s="64"/>
       <c r="H62" s="64"/>
     </row>
@@ -13566,11 +13733,6 @@
       <c r="H63" s="64"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="80"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="F64" s="64"/>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
     </row>
@@ -13585,7 +13747,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="80"/>
-      <c r="B66" s="98"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="88"/>
       <c r="D66" s="88"/>
       <c r="F66" s="64"/>
@@ -13604,6 +13766,8 @@
     <row r="68" spans="1:8">
       <c r="A68" s="80"/>
       <c r="B68" s="98"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
@@ -13611,98 +13775,87 @@
     <row r="69" spans="1:8">
       <c r="A69" s="80"/>
       <c r="B69" s="98"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="80"/>
-      <c r="B70" s="10"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
       <c r="F70" s="64"/>
       <c r="G70" s="64"/>
       <c r="H70" s="64"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="80"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
+      <c r="B71" s="10"/>
       <c r="F71" s="64"/>
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="76"/>
-      <c r="B72" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="282">
-        <f>SUM(E73:E110)</f>
-        <v>-24792.94</v>
-      </c>
+      <c r="A72" s="80"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="80"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
-      <c r="E73" s="281"/>
+      <c r="A73" s="76"/>
+      <c r="B73" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="282">
+        <f>SUM(E74:E111)</f>
+        <v>-24792.94</v>
+      </c>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="80">
-        <v>45187</v>
-      </c>
-      <c r="B74" s="88" t="s">
-        <v>192</v>
-      </c>
+      <c r="A74" s="80"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="88"/>
-      <c r="D74" t="s">
-        <v>203</v>
-      </c>
-      <c r="E74" s="281">
-        <v>-3974.44</v>
-      </c>
+      <c r="E74" s="281"/>
+      <c r="F74" s="64"/>
       <c r="G74" s="64"/>
       <c r="H74" s="64"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="4">
-        <v>45214</v>
-      </c>
-      <c r="B75" t="s">
-        <v>181</v>
-      </c>
+      <c r="A75" s="80">
+        <v>45187</v>
+      </c>
+      <c r="B75" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="88"/>
       <c r="D75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E75" s="281">
-        <v>-600</v>
-      </c>
-      <c r="F75" s="64"/>
+        <v>-3974.44</v>
+      </c>
       <c r="G75" s="64"/>
       <c r="H75" s="64"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="4">
-        <v>45285</v>
-      </c>
-      <c r="B76" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="88"/>
+        <v>45214</v>
+      </c>
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E76" s="281">
-        <v>-3551.66</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
@@ -13710,19 +13863,17 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B77" t="s">
-        <v>230</v>
-      </c>
-      <c r="C77" s="279">
-        <v>-1204.5</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B77" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="88"/>
       <c r="D77" t="s">
-        <v>1165</v>
+        <v>205</v>
       </c>
       <c r="E77" s="281">
-        <v>-401.5</v>
+        <v>-3551.66</v>
       </c>
       <c r="F77" s="64"/>
       <c r="G77" s="64"/>
@@ -13733,16 +13884,16 @@
         <v>45259</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C78" s="279">
-        <v>-148.6</v>
+        <v>-1204.5</v>
       </c>
       <c r="D78" t="s">
         <v>1165</v>
       </c>
       <c r="E78" s="281">
-        <v>-49.53</v>
+        <v>-401.5</v>
       </c>
       <c r="F78" s="64"/>
       <c r="G78" s="64"/>
@@ -13753,16 +13904,16 @@
         <v>45259</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="279">
-        <v>-244.8</v>
+        <v>-148.6</v>
       </c>
       <c r="D79" t="s">
         <v>1165</v>
       </c>
       <c r="E79" s="281">
-        <v>-81.599999999999994</v>
+        <v>-49.53</v>
       </c>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -13773,34 +13924,36 @@
         <v>45259</v>
       </c>
       <c r="B80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C80" s="279">
-        <v>-532.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D80" t="s">
         <v>1165</v>
       </c>
       <c r="E80" s="281">
-        <v>-177.53</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F80" s="64"/>
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="4"/>
-      <c r="B81" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="88">
-        <v>899</v>
+      <c r="A81" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B81" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="279">
+        <v>-532.6</v>
       </c>
       <c r="D81" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="E81" s="281">
-        <v>-449.5</v>
+        <v>-177.53</v>
       </c>
       <c r="F81" s="64"/>
       <c r="G81" s="64"/>
@@ -13809,14 +13962,16 @@
     <row r="82" spans="1:8">
       <c r="A82" s="4"/>
       <c r="B82" s="88" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C82" s="88"/>
+        <v>53</v>
+      </c>
+      <c r="C82" s="88">
+        <v>899</v>
+      </c>
       <c r="D82" t="s">
         <v>1162</v>
       </c>
       <c r="E82" s="281">
-        <v>-299.64</v>
+        <v>-449.5</v>
       </c>
       <c r="F82" s="64"/>
       <c r="G82" s="64"/>
@@ -13825,41 +13980,41 @@
     <row r="83" spans="1:8">
       <c r="A83" s="4"/>
       <c r="B83" s="88" t="s">
-        <v>1163</v>
+        <v>1183</v>
       </c>
       <c r="C83" s="88"/>
       <c r="D83" t="s">
         <v>1162</v>
       </c>
       <c r="E83" s="281">
-        <v>-546.83000000000004</v>
+        <v>-299.64</v>
       </c>
       <c r="F83" s="64"/>
       <c r="G83" s="64"/>
       <c r="H83" s="64"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="80"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="88" t="s">
+        <v>1163</v>
+      </c>
       <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="281"/>
+      <c r="D84" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E84" s="281">
+        <v>-546.83000000000004</v>
+      </c>
       <c r="F84" s="64"/>
       <c r="G84" s="64"/>
       <c r="H84" s="64"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="80">
-        <v>45312</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>236</v>
-      </c>
+      <c r="A85" s="80"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="88"/>
       <c r="D85" s="88"/>
-      <c r="E85" s="281">
-        <v>-505</v>
-      </c>
+      <c r="E85" s="281"/>
       <c r="F85" s="64"/>
       <c r="G85" s="64"/>
       <c r="H85" s="64"/>
@@ -13869,12 +14024,12 @@
         <v>45312</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>1167</v>
+        <v>236</v>
       </c>
       <c r="C86" s="88"/>
       <c r="D86" s="88"/>
       <c r="E86" s="281">
-        <v>-223.2</v>
+        <v>-505</v>
       </c>
       <c r="F86" s="64"/>
       <c r="G86" s="64"/>
@@ -13882,15 +14037,15 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="80">
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>236</v>
+        <v>1167</v>
       </c>
       <c r="C87" s="88"/>
       <c r="D87" s="88"/>
       <c r="E87" s="281">
-        <v>-655</v>
+        <v>-223.2</v>
       </c>
       <c r="F87" s="64"/>
       <c r="G87" s="64"/>
@@ -13898,15 +14053,15 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="80">
-        <v>45293</v>
+        <v>45310</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>1168</v>
+        <v>236</v>
       </c>
       <c r="C88" s="88"/>
       <c r="D88" s="88"/>
       <c r="E88" s="281">
-        <v>-480</v>
+        <v>-655</v>
       </c>
       <c r="F88" s="64"/>
       <c r="G88" s="64"/>
@@ -13917,12 +14072,12 @@
         <v>45293</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C89" s="88"/>
       <c r="D89" s="88"/>
       <c r="E89" s="281">
-        <v>-1200</v>
+        <v>-480</v>
       </c>
       <c r="F89" s="64"/>
       <c r="G89" s="64"/>
@@ -13938,53 +14093,53 @@
       <c r="C90" s="88"/>
       <c r="D90" s="88"/>
       <c r="E90" s="281">
-        <v>-500</v>
+        <v>-1200</v>
       </c>
       <c r="F90" s="64"/>
       <c r="G90" s="64"/>
       <c r="H90" s="64"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="80"/>
+      <c r="A91" s="80">
+        <v>45293</v>
+      </c>
       <c r="B91" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="88">
-        <v>12474.55</v>
-      </c>
+        <v>1169</v>
+      </c>
+      <c r="C91" s="88"/>
       <c r="D91" s="88"/>
-      <c r="E91" s="281"/>
+      <c r="E91" s="281">
+        <v>-500</v>
+      </c>
       <c r="F91" s="64"/>
       <c r="G91" s="64"/>
       <c r="H91" s="64"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="80">
-        <v>45293</v>
-      </c>
+      <c r="A92" s="80"/>
       <c r="B92" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C92" s="88"/>
+        <v>49</v>
+      </c>
+      <c r="C92" s="88">
+        <v>12474.55</v>
+      </c>
       <c r="D92" s="88"/>
-      <c r="E92" s="281">
-        <v>-150</v>
-      </c>
+      <c r="E92" s="281"/>
       <c r="F92" s="64"/>
       <c r="G92" s="64"/>
       <c r="H92" s="64"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="80">
-        <v>45291</v>
+        <v>45293</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C93" s="88"/>
       <c r="D93" s="88"/>
       <c r="E93" s="281">
-        <v>-60</v>
+        <v>-150</v>
       </c>
       <c r="F93" s="64"/>
       <c r="G93" s="64"/>
@@ -13992,15 +14147,15 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="80">
-        <v>45290</v>
+        <v>45291</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C94" s="88"/>
       <c r="D94" s="88"/>
       <c r="E94" s="281">
-        <v>-73</v>
+        <v>-60</v>
       </c>
       <c r="F94" s="64"/>
       <c r="G94" s="64"/>
@@ -14016,7 +14171,7 @@
       <c r="C95" s="88"/>
       <c r="D95" s="88"/>
       <c r="E95" s="281">
-        <v>-100</v>
+        <v>-73</v>
       </c>
       <c r="F95" s="64"/>
       <c r="G95" s="64"/>
@@ -14024,15 +14179,15 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="80">
-        <v>45289</v>
+        <v>45290</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="C96" s="88"/>
       <c r="D96" s="88"/>
       <c r="E96" s="281">
-        <v>-944</v>
+        <v>-100</v>
       </c>
       <c r="F96" s="64"/>
       <c r="G96" s="64"/>
@@ -14040,15 +14195,15 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="80">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="C97" s="88"/>
       <c r="D97" s="88"/>
       <c r="E97" s="281">
-        <v>-140</v>
+        <v>-944</v>
       </c>
       <c r="F97" s="64"/>
       <c r="G97" s="64"/>
@@ -14059,12 +14214,12 @@
         <v>45288</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C98" s="88"/>
       <c r="D98" s="88"/>
       <c r="E98" s="281">
-        <v>-1570.18</v>
+        <v>-140</v>
       </c>
       <c r="F98" s="64"/>
       <c r="G98" s="64"/>
@@ -14075,12 +14230,12 @@
         <v>45288</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>467</v>
+        <v>1174</v>
       </c>
       <c r="C99" s="88"/>
       <c r="D99" s="88"/>
       <c r="E99" s="281">
-        <v>-169.27</v>
+        <v>-1570.18</v>
       </c>
       <c r="F99" s="64"/>
       <c r="G99" s="64"/>
@@ -14091,12 +14246,12 @@
         <v>45288</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>1175</v>
+        <v>467</v>
       </c>
       <c r="C100" s="88"/>
       <c r="D100" s="88"/>
       <c r="E100" s="281">
-        <v>-800</v>
+        <v>-169.27</v>
       </c>
       <c r="F100" s="64"/>
       <c r="G100" s="64"/>
@@ -14104,15 +14259,15 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="80">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>467</v>
+        <v>1175</v>
       </c>
       <c r="C101" s="88"/>
       <c r="D101" s="88"/>
       <c r="E101" s="281">
-        <v>-438.05</v>
+        <v>-800</v>
       </c>
       <c r="F101" s="64"/>
       <c r="G101" s="64"/>
@@ -14120,17 +14275,15 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="80">
-        <v>45653</v>
+        <v>45287</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C102" s="88"/>
-      <c r="D102" s="88">
-        <v>185</v>
-      </c>
+      <c r="D102" s="88"/>
       <c r="E102" s="281">
-        <v>-185</v>
+        <v>-438.05</v>
       </c>
       <c r="F102" s="64"/>
       <c r="G102" s="64"/>
@@ -14141,14 +14294,14 @@
         <v>45653</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>1176</v>
+        <v>450</v>
       </c>
       <c r="C103" s="88"/>
       <c r="D103" s="88">
-        <v>25.85</v>
+        <v>185</v>
       </c>
       <c r="E103" s="281">
-        <v>-25.85</v>
+        <v>-185</v>
       </c>
       <c r="F103" s="64"/>
       <c r="G103" s="64"/>
@@ -14156,15 +14309,17 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="80">
-        <v>45286</v>
+        <v>45653</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
+      <c r="D104" s="88">
+        <v>25.85</v>
+      </c>
       <c r="E104" s="281">
-        <v>-160</v>
+        <v>-25.85</v>
       </c>
       <c r="F104" s="64"/>
       <c r="G104" s="64"/>
@@ -14175,12 +14330,12 @@
         <v>45286</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C105" s="88"/>
       <c r="D105" s="88"/>
       <c r="E105" s="281">
-        <v>-300</v>
+        <v>-160</v>
       </c>
       <c r="F105" s="64"/>
       <c r="G105" s="64"/>
@@ -14188,31 +14343,33 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="80">
-        <v>45651</v>
+        <v>45286</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C106" s="88"/>
-      <c r="D106" s="88">
-        <v>112.64</v>
-      </c>
+      <c r="D106" s="88"/>
       <c r="E106" s="281">
-        <v>-112.64</v>
+        <v>-300</v>
       </c>
       <c r="F106" s="64"/>
       <c r="G106" s="64"/>
       <c r="H106" s="64"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="80"/>
+      <c r="A107" s="80">
+        <v>45651</v>
+      </c>
       <c r="B107" s="10" t="s">
-        <v>741</v>
+        <v>1179</v>
       </c>
       <c r="C107" s="88"/>
-      <c r="D107" s="88"/>
+      <c r="D107" s="88">
+        <v>112.64</v>
+      </c>
       <c r="E107" s="281">
-        <v>-193</v>
+        <v>-112.64</v>
       </c>
       <c r="F107" s="64"/>
       <c r="G107" s="64"/>
@@ -14221,12 +14378,12 @@
     <row r="108" spans="1:8">
       <c r="A108" s="80"/>
       <c r="B108" s="10" t="s">
-        <v>1164</v>
+        <v>741</v>
       </c>
       <c r="C108" s="88"/>
       <c r="D108" s="88"/>
       <c r="E108" s="281">
-        <v>-5517.52</v>
+        <v>-193</v>
       </c>
       <c r="F108" s="64"/>
       <c r="G108" s="64"/>
@@ -14235,12 +14392,12 @@
     <row r="109" spans="1:8">
       <c r="A109" s="80"/>
       <c r="B109" s="10" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C109" s="88"/>
       <c r="D109" s="88"/>
       <c r="E109" s="281">
-        <v>-105</v>
+        <v>-5517.52</v>
       </c>
       <c r="F109" s="64"/>
       <c r="G109" s="64"/>
@@ -14254,7 +14411,7 @@
       <c r="C110" s="88"/>
       <c r="D110" s="88"/>
       <c r="E110" s="281">
-        <v>-54</v>
+        <v>-105</v>
       </c>
       <c r="F110" s="64"/>
       <c r="G110" s="64"/>
@@ -14262,127 +14419,141 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="80"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="280" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D111" s="98">
-        <f>SUM(D102:D110)</f>
-        <v>323.49</v>
-      </c>
-      <c r="E111" s="281"/>
+      <c r="B111" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="281">
+        <v>-54</v>
+      </c>
       <c r="F111" s="64"/>
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:8" ht="15">
+    <row r="112" spans="1:8">
       <c r="A112" s="80"/>
       <c r="B112" s="10"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="101" t="s">
-        <v>228</v>
+      <c r="C112" s="280" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D112" s="98">
+        <f>SUM(D103:D111)</f>
+        <v>323.49</v>
       </c>
       <c r="E112" s="281"/>
       <c r="F112" s="64"/>
       <c r="G112" s="64"/>
       <c r="H112" s="64"/>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="76"/>
-      <c r="B114" s="77" t="s">
+    <row r="113" spans="1:8" ht="15">
+      <c r="A113" s="80"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" s="281"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="76"/>
+      <c r="B115" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="76"/>
-      <c r="D114" s="78"/>
-      <c r="E114" s="287">
-        <f>SUM(E115:E122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="80"/>
-      <c r="B115" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="C115" s="76"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="287">
+        <f>SUM(E116:E123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="80"/>
       <c r="B116" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="80"/>
       <c r="B117" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="80"/>
       <c r="B118" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="80"/>
       <c r="B119" t="s">
-        <v>99</v>
-      </c>
-      <c r="D119">
-        <v>111</v>
-      </c>
-      <c r="E119" s="279">
-        <f>D119*C119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="80"/>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D120">
-        <v>850</v>
+        <v>111</v>
       </c>
       <c r="E120" s="279">
         <f>D120*C120</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:8">
       <c r="A121" s="80"/>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D121">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="E121" s="279">
         <f>D121*C121</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:8">
       <c r="A122" s="80"/>
       <c r="B122" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+      <c r="E122" s="279">
+        <f>D122*C122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="80"/>
+      <c r="B123" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="B123" t="s">
+    <row r="124" spans="1:8">
+      <c r="B124" t="s">
         <v>141</v>
       </c>
-      <c r="E123" s="279">
+      <c r="E124" s="279">
         <f>H2</f>
         <v>-48902.979999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="D125" s="72" t="s">
+    <row r="126" spans="1:8">
+      <c r="D126" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="E125" s="279">
-        <f>SUM(E115:E124)</f>
+      <c r="E126" s="279">
+        <f>SUM(E116:E125)</f>
         <v>-48902.979999999996</v>
       </c>
     </row>
@@ -14403,14 +14574,14 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A92" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="281" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="281" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="281" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="281" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.28515625" style="281"/>
@@ -15681,7 +15852,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="173" t="s">
-        <v>384</v>
+        <v>1199</v>
       </c>
       <c r="B118" s="77" t="s">
         <v>385</v>
@@ -15692,12 +15863,12 @@
       <c r="D118" s="78"/>
       <c r="E118" s="79">
         <f>SUM(E119:E135)</f>
-        <v>754796.48499999999</v>
+        <v>813151.51</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="99">
-        <v>45290</v>
+        <v>45322</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -15710,22 +15881,22 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="99">
-        <f t="shared" ref="A120:A129" si="1">A119</f>
-        <v>45290</v>
+        <f t="shared" ref="A120:A128" si="1">A119</f>
+        <v>45322</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>1209</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="73">
-        <v>218088</v>
+        <v>210345.5</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="99">
         <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45322</v>
       </c>
       <c r="B121" t="s">
         <v>97</v>
@@ -15733,13 +15904,13 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="73">
-        <v>3609.29</v>
+        <v>7564.7</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="99">
         <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45322</v>
       </c>
       <c r="B122" t="s">
         <v>98</v>
@@ -15753,190 +15924,187 @@
     <row r="123" spans="1:5">
       <c r="A123" s="99">
         <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45322</v>
       </c>
       <c r="B123" t="s">
-        <v>386</v>
-      </c>
-      <c r="C123"/>
+        <v>1208</v>
+      </c>
+      <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="73">
-        <v>6267.13</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="99">
         <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45322</v>
       </c>
       <c r="B124" t="s">
-        <v>387</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>1201</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C124"/>
       <c r="D124" s="1"/>
       <c r="E124" s="73">
-        <v>88320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="99">
-        <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B125" t="s">
-        <v>1200</v>
+        <v>387</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>390</v>
+        <v>1206</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="73"/>
+      <c r="E125" s="73">
+        <v>132120.79</v>
+      </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="99">
         <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B126" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C126" s="99">
-        <v>45295</v>
-      </c>
-      <c r="D126" s="174">
-        <v>1094.32</v>
-      </c>
-      <c r="E126" s="73"/>
+        <v>1200</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="73">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="99">
-        <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B127" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C127" s="99">
-        <v>45295</v>
+        <v>45327</v>
       </c>
       <c r="D127" s="174">
-        <v>172.9</v>
-      </c>
-      <c r="E127" s="73"/>
+        <v>21.7</v>
+      </c>
+      <c r="E127" s="73">
+        <v>513.5</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="99">
         <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B128" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="C128" s="99">
-        <v>45295</v>
+        <v>45327</v>
       </c>
       <c r="D128" s="174">
-        <v>-22</v>
+        <v>539.29</v>
       </c>
       <c r="E128" s="73">
-        <v>295.8</v>
+        <v>5448.3</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="99">
-        <f t="shared" si="1"/>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B129" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C129" s="99">
-        <v>45295</v>
-      </c>
-      <c r="D129" s="174">
-        <v>562.69000000000005</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
       <c r="E129" s="73">
-        <v>4239.3</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="99">
-        <f>A123</f>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B130" t="s">
-        <v>394</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+        <v>1203</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1959.94</v>
+      </c>
+      <c r="D130" s="1">
+        <v>161</v>
+      </c>
       <c r="E130" s="73">
-        <v>1000</v>
+        <f>D130*C130</f>
+        <v>315550.34000000003</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="99">
-        <f>A122</f>
-        <v>45290</v>
+        <f>A130</f>
+        <v>45327</v>
       </c>
       <c r="B131" t="s">
-        <v>395</v>
-      </c>
-      <c r="C131" s="1">
-        <v>1928.59</v>
+        <v>1204</v>
+      </c>
+      <c r="C131" s="175">
+        <v>30.452000000000002</v>
       </c>
       <c r="D131" s="1">
-        <v>161</v>
+        <v>850</v>
       </c>
       <c r="E131" s="73">
         <f>D131*C131</f>
-        <v>310502.99</v>
+        <v>25884.2</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="99">
         <f>A131</f>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B132" t="s">
-        <v>396</v>
+        <v>1210</v>
       </c>
       <c r="C132" s="175">
-        <v>29.2927</v>
+        <v>30.452000000000002</v>
       </c>
       <c r="D132" s="1">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="E132" s="73">
         <f>D132*C132</f>
-        <v>24898.794999999998</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="99">
-        <f>A132</f>
-        <v>45290</v>
+        <f>A131</f>
+        <v>45327</v>
       </c>
       <c r="B133" t="s">
-        <v>397</v>
+        <v>1205</v>
       </c>
       <c r="C133" s="175">
-        <v>32.028700000000001</v>
+        <v>32.3887</v>
       </c>
       <c r="D133" s="1">
         <v>100</v>
       </c>
       <c r="E133" s="73">
         <f>D133*C133</f>
-        <v>3202.87</v>
+        <v>3238.87</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="99">
         <f>A133</f>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B134" t="s">
         <v>398</v>
@@ -15950,7 +16118,7 @@
     <row r="135" spans="1:5">
       <c r="A135" s="99">
         <f>A134</f>
-        <v>45290</v>
+        <v>45327</v>
       </c>
       <c r="B135" t="s">
         <v>366</v>
@@ -15964,7 +16132,7 @@
     <row r="136" spans="1:5">
       <c r="C136" s="295" t="str">
         <f>A118</f>
-        <v>ARALIK</v>
+        <v>OCAK</v>
       </c>
       <c r="D136" s="296" t="s">
         <v>399</v>
@@ -15986,12 +16154,12 @@
       </c>
       <c r="E138" s="176">
         <f>SUM(E119:E135)</f>
-        <v>754796.48499999999</v>
+        <v>813151.51</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="B140" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -16033,7 +16201,7 @@
         <v>13700</v>
       </c>
       <c r="D143" s="281" t="s">
-        <v>1193</v>
+        <v>1207</v>
       </c>
       <c r="E143" s="281">
         <v>10400</v>
@@ -18603,7 +18771,7 @@
         <v>45295</v>
       </c>
       <c r="C8" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D8" s="281">
         <v>10000</v>
@@ -18629,7 +18797,7 @@
         <v>45324</v>
       </c>
       <c r="C9" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D9" s="281">
         <v>10000</v>
@@ -53503,7 +53671,7 @@
       </c>
       <c r="M4" s="36"/>
       <c r="N4">
-        <f>'02_24'!E118/1000</f>
+        <f>'02_24'!E119/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -53517,11 +53685,11 @@
       </c>
       <c r="C5" s="292">
         <f>'03_24'!E2</f>
-        <v>-113141.88</v>
+        <v>-115783.52</v>
       </c>
       <c r="D5" s="293">
         <f t="shared" si="0"/>
-        <v>148127.10999999999</v>
+        <v>145485.46999999997</v>
       </c>
       <c r="E5" s="292">
         <f>'03_24'!F2</f>
@@ -53563,11 +53731,11 @@
       </c>
       <c r="C6" s="292">
         <f>'04_24'!E2</f>
-        <v>-40853.47</v>
+        <v>-41453.270000000004</v>
       </c>
       <c r="D6" s="293">
         <f t="shared" si="0"/>
-        <v>131273.63999999998</v>
+        <v>128032.19999999997</v>
       </c>
       <c r="E6" s="292">
         <f>'04_24'!F2</f>
@@ -53606,11 +53774,11 @@
       </c>
       <c r="C7" s="292">
         <f>'05_24'!E2</f>
-        <v>-40253.47</v>
+        <v>-40853.270000000004</v>
       </c>
       <c r="D7" s="293">
         <f t="shared" si="0"/>
-        <v>115020.16999999998</v>
+        <v>111178.92999999996</v>
       </c>
       <c r="E7" s="292">
         <f>'05_24'!F2</f>
@@ -53649,11 +53817,11 @@
       </c>
       <c r="C8" s="292">
         <f>'06_24'!E2</f>
-        <v>-45473.47</v>
+        <v>-46073.270000000004</v>
       </c>
       <c r="D8" s="293">
         <f t="shared" si="0"/>
-        <v>93546.699999999983</v>
+        <v>89105.65999999996</v>
       </c>
       <c r="E8" s="292">
         <f>'06_24'!F2</f>
@@ -53695,11 +53863,11 @@
       </c>
       <c r="C9" s="292">
         <f>'07_24'!E2</f>
-        <v>-44623.66</v>
+        <v>-45223.46</v>
       </c>
       <c r="D9" s="293">
         <f t="shared" si="0"/>
-        <v>77923.039999999979</v>
+        <v>72882.199999999953</v>
       </c>
       <c r="E9" s="292">
         <f>'07_24'!F2</f>
@@ -53744,11 +53912,11 @@
       </c>
       <c r="C10" s="292">
         <f>'08_24'!E2</f>
-        <v>-41072</v>
+        <v>-41671.800000000003</v>
       </c>
       <c r="D10" s="293">
         <f t="shared" si="0"/>
-        <v>215351.03999999998</v>
+        <v>209710.39999999997</v>
       </c>
       <c r="E10" s="292">
         <f>'08_24'!F2</f>
@@ -53794,7 +53962,7 @@
       </c>
       <c r="D11" s="293">
         <f t="shared" si="0"/>
-        <v>352779.04</v>
+        <v>347138.39999999997</v>
       </c>
       <c r="E11" s="292">
         <f>'09_24'!F2</f>
@@ -53843,7 +54011,7 @@
       </c>
       <c r="D12" s="293">
         <f t="shared" si="0"/>
-        <v>366207.04</v>
+        <v>360566.39999999997</v>
       </c>
       <c r="E12" s="292">
         <f>'10_24'!F2</f>
@@ -53892,7 +54060,7 @@
       </c>
       <c r="D13" s="293">
         <f t="shared" si="0"/>
-        <v>609635.04</v>
+        <v>603994.39999999991</v>
       </c>
       <c r="E13" s="292">
         <f>'11_24'!F2</f>
@@ -53941,7 +54109,7 @@
       </c>
       <c r="D14" s="293">
         <f t="shared" si="0"/>
-        <v>852032.28</v>
+        <v>846391.6399999999</v>
       </c>
       <c r="E14" s="292">
         <f>'12_24'!F2</f>
@@ -53986,11 +54154,11 @@
       </c>
       <c r="C15" s="293">
         <f>SUM(C3:C14)</f>
-        <v>-708532.32</v>
+        <v>-714172.96000000008</v>
       </c>
       <c r="D15" s="293">
         <f>B15+C15</f>
-        <v>852032.28000000014</v>
+        <v>846391.64</v>
       </c>
       <c r="E15" s="293">
         <f>SUM(E3:E14)</f>
@@ -54033,7 +54201,7 @@
       </c>
       <c r="C16" s="56">
         <f>C15/A16</f>
-        <v>-59044.359999999993</v>
+        <v>-59514.413333333338</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56">
@@ -54096,7 +54264,7 @@
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L18" s="67"/>
       <c r="M18" s="68" t="e">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="1220">
   <si>
     <t xml:space="preserve">ev elektrik</t>
   </si>
@@ -1131,6 +1131,9 @@
     <t xml:space="preserve">Doğuş Kira 7/12-2024-25</t>
   </si>
   <si>
+    <t xml:space="preserve">Doğuş Kira 6/12-2024-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pazarama – i7-13700 + KC3000-512gb</t>
   </si>
   <si>
@@ -1231,9 +1234,6 @@
   </si>
   <si>
     <t xml:space="preserve">Doğuş Kira 5/12-2024-25– 30-12-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doğuş Kira 6/12-2024-25</t>
   </si>
   <si>
     <t xml:space="preserve">Kira snyE senet 4/5 13- 6 = 7000 kalan</t>
@@ -6422,14 +6422,14 @@
   <dimension ref="C5:C30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="F10:F14 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,7 +6577,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D69" activeCellId="1" sqref="F10:F14 D69"/>
+      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6585,7 +6585,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7725,7 +7725,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="1" sqref="F10:F14 D70"/>
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7733,7 +7733,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8872,7 +8872,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="1" sqref="F10:F14 D70"/>
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8880,7 +8880,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,7 +10029,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="1" sqref="F10:F14 D70"/>
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10037,7 +10037,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11183,7 +11183,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="1" sqref="F10:F14 D70"/>
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11191,7 +11191,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12343,7 +12343,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C82" activeCellId="1" sqref="F10:F14 C82"/>
+      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12352,7 +12352,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="119" width="11.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="135" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13536,8 +13536,8 @@
   </sheetPr>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F10:F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13546,7 +13546,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="136" width="12.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="F2" s="138" t="n">
         <f aca="false">SUM(F4:F40)</f>
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G2" s="138" t="n">
         <f aca="false">SUM(G4:G40)</f>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="H2" s="138" t="n">
         <f aca="false">F2+G2</f>
-        <v>-48902.98</v>
+        <v>-42402.98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13773,17 +13773,17 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="141" t="n">
-        <v>45331</v>
+        <v>45329</v>
       </c>
       <c r="B13" s="142" t="s">
         <v>334</v>
       </c>
       <c r="C13" s="120"/>
-      <c r="E13" s="138" t="n">
+      <c r="E13" s="140" t="n">
         <v>-713.25</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138" t="n">
+      <c r="F13" s="140"/>
+      <c r="G13" s="140" t="n">
         <f aca="false">E13</f>
         <v>-713.25</v>
       </c>
@@ -14087,13 +14087,21 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="124"/>
-      <c r="D37" s="119"/>
-      <c r="F37" s="138"/>
+      <c r="A37" s="124" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="F37" s="140" t="n">
+        <v>6500</v>
+      </c>
       <c r="G37" s="138"/>
       <c r="H37" s="138" t="n">
         <f aca="false">H36+F37+G37</f>
-        <v>-48902.98</v>
+        <v>-42402.98</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14102,7 +14110,7 @@
       <c r="G38" s="138"/>
       <c r="H38" s="138" t="n">
         <f aca="false">H37+F38+G38</f>
-        <v>-48902.98</v>
+        <v>-42402.98</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14275,7 +14283,7 @@
         <v>45043</v>
       </c>
       <c r="B59" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C59" s="122" t="n">
         <v>10764.57</v>
@@ -14300,7 +14308,7 @@
         <v>7648.33</v>
       </c>
       <c r="D60" s="132" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E60" s="138" t="n">
         <v>-849.81</v>
@@ -14319,7 +14327,7 @@
         <v>11128</v>
       </c>
       <c r="D61" s="132" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E61" s="138" t="n">
         <v>-1854.67</v>
@@ -14329,7 +14337,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G62" s="93"/>
       <c r="H62" s="93"/>
@@ -14442,7 +14450,7 @@
       </c>
       <c r="C75" s="122"/>
       <c r="D75" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E75" s="138" t="n">
         <v>-3974.44</v>
@@ -14458,7 +14466,7 @@
         <v>303</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E76" s="138" t="n">
         <v>-600</v>
@@ -14476,7 +14484,7 @@
       </c>
       <c r="C77" s="122"/>
       <c r="D77" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E77" s="138" t="n">
         <v>-3551.66</v>
@@ -14496,7 +14504,7 @@
         <v>-1204.5</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E78" s="138" t="n">
         <v>-401.5</v>
@@ -14516,7 +14524,7 @@
         <v>-148.6</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E79" s="138" t="n">
         <v>-49.53</v>
@@ -14536,7 +14544,7 @@
         <v>-244.8</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E80" s="138" t="n">
         <v>-81.6</v>
@@ -14556,7 +14564,7 @@
         <v>-532.6</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E81" s="138" t="n">
         <v>-177.53</v>
@@ -14574,7 +14582,7 @@
         <v>899</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E82" s="138" t="n">
         <v>-449.5</v>
@@ -14590,7 +14598,7 @@
       </c>
       <c r="C83" s="122"/>
       <c r="D83" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E83" s="138" t="n">
         <v>-299.64</v>
@@ -14606,7 +14614,7 @@
       </c>
       <c r="C84" s="122"/>
       <c r="D84" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E84" s="138" t="n">
         <v>-546.83</v>
@@ -14630,7 +14638,7 @@
         <v>45312</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C86" s="122"/>
       <c r="D86" s="122"/>
@@ -14646,7 +14654,7 @@
         <v>45312</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C87" s="122"/>
       <c r="D87" s="122"/>
@@ -14662,7 +14670,7 @@
         <v>45310</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C88" s="122"/>
       <c r="D88" s="122"/>
@@ -14678,7 +14686,7 @@
         <v>45293</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C89" s="122"/>
       <c r="D89" s="122"/>
@@ -14694,7 +14702,7 @@
         <v>45293</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C90" s="122"/>
       <c r="D90" s="122"/>
@@ -14710,7 +14718,7 @@
         <v>45293</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C91" s="122"/>
       <c r="D91" s="122"/>
@@ -14740,7 +14748,7 @@
         <v>45293</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C93" s="122"/>
       <c r="D93" s="122"/>
@@ -14756,7 +14764,7 @@
         <v>45291</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C94" s="122"/>
       <c r="D94" s="122"/>
@@ -14772,7 +14780,7 @@
         <v>45290</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C95" s="122"/>
       <c r="D95" s="122"/>
@@ -14788,7 +14796,7 @@
         <v>45290</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C96" s="122"/>
       <c r="D96" s="122"/>
@@ -14804,7 +14812,7 @@
         <v>45289</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C97" s="122"/>
       <c r="D97" s="122"/>
@@ -14820,7 +14828,7 @@
         <v>45288</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C98" s="122"/>
       <c r="D98" s="122"/>
@@ -14836,7 +14844,7 @@
         <v>45288</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C99" s="122"/>
       <c r="D99" s="122"/>
@@ -14852,7 +14860,7 @@
         <v>45288</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C100" s="122"/>
       <c r="D100" s="122"/>
@@ -14868,7 +14876,7 @@
         <v>45288</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C101" s="122"/>
       <c r="D101" s="122"/>
@@ -14884,7 +14892,7 @@
         <v>45287</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C102" s="122"/>
       <c r="D102" s="122"/>
@@ -14900,7 +14908,7 @@
         <v>45653</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C103" s="122"/>
       <c r="D103" s="122" t="n">
@@ -14918,7 +14926,7 @@
         <v>45653</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C104" s="122"/>
       <c r="D104" s="122" t="n">
@@ -14936,7 +14944,7 @@
         <v>45286</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C105" s="122"/>
       <c r="D105" s="122"/>
@@ -14952,7 +14960,7 @@
         <v>45286</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C106" s="122"/>
       <c r="D106" s="122"/>
@@ -14968,7 +14976,7 @@
         <v>45651</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C107" s="122"/>
       <c r="D107" s="122" t="n">
@@ -14984,7 +14992,7 @@
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="124"/>
       <c r="B108" s="42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C108" s="122"/>
       <c r="D108" s="122"/>
@@ -14998,7 +15006,7 @@
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="124"/>
       <c r="B109" s="42" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C109" s="122"/>
       <c r="D109" s="122"/>
@@ -15012,7 +15020,7 @@
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="124"/>
       <c r="B110" s="42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C110" s="122"/>
       <c r="D110" s="122"/>
@@ -15026,7 +15034,7 @@
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="124"/>
       <c r="B111" s="42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C111" s="122"/>
       <c r="D111" s="122"/>
@@ -15041,7 +15049,7 @@
       <c r="A112" s="124"/>
       <c r="B112" s="42"/>
       <c r="C112" s="148" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D112" s="133" t="n">
         <f aca="false">SUM(D103:D111)</f>
@@ -15057,7 +15065,7 @@
       <c r="B113" s="42"/>
       <c r="C113" s="122"/>
       <c r="D113" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E113" s="138"/>
       <c r="F113" s="93"/>
@@ -15151,7 +15159,7 @@
       </c>
       <c r="E124" s="136" t="n">
         <f aca="false">H2</f>
-        <v>-48902.98</v>
+        <v>-42402.98</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15160,7 +15168,7 @@
       </c>
       <c r="E126" s="136" t="n">
         <f aca="false">SUM(E116:E125)</f>
-        <v>-48902.98</v>
+        <v>-42402.98</v>
       </c>
     </row>
   </sheetData>
@@ -15182,18 +15190,18 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E128" activeCellId="1" sqref="F10:F14 E128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="138" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="138" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="138" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="138" width="13.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="138" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15274,7 +15282,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="120" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E6" s="138" t="n">
         <v>-250</v>
@@ -15420,7 +15428,7 @@
         <v>45295</v>
       </c>
       <c r="B15" s="120" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E15" s="138" t="n">
         <v>-5375</v>
@@ -15437,7 +15445,7 @@
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="124"/>
       <c r="B16" s="120" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E16" s="138" t="n">
         <v>-2125</v>
@@ -15453,7 +15461,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="120" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E17" s="138" t="n">
         <v>-1512.13</v>
@@ -15558,7 +15566,7 @@
         <v>45300</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G25" s="138" t="n">
         <v>-5000</v>
@@ -15610,7 +15618,7 @@
         <v>45293</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F29" s="140" t="n">
         <v>6500</v>
@@ -15621,11 +15629,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="124"/>
+      <c r="A30" s="124" t="n">
+        <v>45328</v>
+      </c>
       <c r="B30" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D30" s="138" t="n">
+        <v>337</v>
+      </c>
+      <c r="D30" s="140" t="n">
         <v>6500</v>
       </c>
       <c r="F30" s="140"/>
@@ -15947,7 +15957,7 @@
         <v>45043</v>
       </c>
       <c r="B63" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C63" s="138" t="n">
         <v>10764.57</v>
@@ -16012,7 +16022,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="138" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16183,7 +16193,7 @@
         <v>45283</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E88" s="138" t="n">
         <v>-90</v>
@@ -16216,7 +16226,7 @@
         <v>45281</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E91" s="138" t="n">
         <v>-110</v>
@@ -16370,7 +16380,7 @@
         <v>45267</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E105" s="138" t="n">
         <v>-300</v>
@@ -16455,7 +16465,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="138" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16884,16 +16894,16 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="F10:F14 E19"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.86"/>
@@ -16901,7 +16911,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17850,7 +17860,7 @@
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="1" sqref="F10:F14 E58"/>
+      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17860,7 +17870,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18738,19 +18748,19 @@
   <dimension ref="A4:H39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="1" sqref="F10:F14 B28"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19300,7 +19310,7 @@
   <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="1" sqref="F10:F14 M14"/>
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19308,13 +19318,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="136" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="136" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="136" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="136" width="12.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="186" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="136" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="136" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="136" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20177,7 +20187,7 @@
   <dimension ref="B2:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="F10:F14 C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20185,13 +20195,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21017,7 +21027,7 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A111" activeCellId="1" sqref="F10:F14 A111"/>
+      <selection pane="topLeft" activeCell="A111" activeCellId="0" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21025,12 +21035,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21537,7 +21547,7 @@
         <v>45293</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D30" s="126" t="n">
         <v>6500</v>
@@ -21829,7 +21839,7 @@
         <v>45043</v>
       </c>
       <c r="B62" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C62" s="122" t="n">
         <v>10764.57</v>
@@ -21906,7 +21916,7 @@
       <c r="B66" s="122"/>
       <c r="C66" s="122"/>
       <c r="D66" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E66" s="115"/>
       <c r="F66" s="93"/>
@@ -22383,7 +22393,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22718,7 +22728,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22726,11 +22736,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23554,7 +23564,7 @@
         <v>45043</v>
       </c>
       <c r="B59" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C59" s="122" t="n">
         <v>10764.57</v>
@@ -23597,7 +23607,7 @@
         <v>542</v>
       </c>
       <c r="D61" s="132" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E61" s="115" t="n">
         <v>-666.67</v>
@@ -23674,7 +23684,7 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="124"/>
       <c r="D66" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E66" s="115"/>
     </row>
@@ -23875,7 +23885,7 @@
         <v>45227</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E85" s="115" t="n">
         <v>-245</v>
@@ -24093,7 +24103,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24347,7 +24357,7 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24359,7 +24369,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25076,7 +25086,7 @@
         <v>3299</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E53" s="115" t="n">
         <v>-549.83</v>
@@ -25090,13 +25100,13 @@
         <v>45043</v>
       </c>
       <c r="B54" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C54" s="122" t="n">
         <v>10764.57</v>
       </c>
       <c r="D54" s="65" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E54" s="115" t="n">
         <v>-1196.06</v>
@@ -25116,7 +25126,7 @@
         <v>3123.29</v>
       </c>
       <c r="D55" s="132" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E55" s="115" t="n">
         <v>-520.55</v>
@@ -25147,7 +25157,7 @@
         <v>45168</v>
       </c>
       <c r="B57" s="122" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D57" s="132"/>
       <c r="E57" s="115" t="n">
@@ -25291,7 +25301,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25537,7 +25547,7 @@
         <v>45172</v>
       </c>
       <c r="B84" s="122" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C84" s="122"/>
       <c r="D84" s="122"/>
@@ -25749,7 +25759,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25959,7 +25969,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25967,12 +25977,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26866,7 +26876,7 @@
         <v>45043</v>
       </c>
       <c r="B67" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C67" s="122" t="n">
         <v>10764.57</v>
@@ -27100,7 +27110,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="122"/>
       <c r="D83" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E83" s="115"/>
     </row>
@@ -27139,7 +27149,7 @@
         <v>1140.99</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>-190.17</v>
@@ -27337,7 +27347,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27557,7 +27567,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27565,11 +27575,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28232,7 +28242,7 @@
         <v>2258.94</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E52" s="115" t="n">
         <v>-376.49</v>
@@ -28266,7 +28276,7 @@
         <v>45043</v>
       </c>
       <c r="B54" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C54" s="122" t="n">
         <v>10764.57</v>
@@ -28421,7 +28431,7 @@
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="124"/>
       <c r="D63" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E63" s="115"/>
     </row>
@@ -28597,7 +28607,7 @@
         <v>45119</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" s="0" t="n">
@@ -28664,7 +28674,7 @@
         <v>45129</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>-20.06</v>
@@ -28727,7 +28737,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28921,7 +28931,7 @@
   <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28930,10 +28940,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29709,7 +29719,7 @@
         <v>45043</v>
       </c>
       <c r="B58" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C58" s="122" t="n">
         <v>10764.57</v>
@@ -29855,7 +29865,7 @@
       <c r="A66" s="124"/>
       <c r="B66" s="122"/>
       <c r="D66" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E66" s="115"/>
       <c r="F66" s="93"/>
@@ -30213,7 +30223,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30410,7 +30420,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30419,10 +30429,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31242,7 +31252,7 @@
         <v>45043</v>
       </c>
       <c r="B57" s="122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C57" s="122" t="n">
         <v>10764.57</v>
@@ -31454,7 +31464,7 @@
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="124"/>
       <c r="E75" s="115" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31664,7 +31674,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31860,7 +31870,7 @@
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31869,10 +31879,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33422,7 +33432,7 @@
   <dimension ref="A3:N65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="F10:F14 C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33435,7 +33445,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="15" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="12" width="61.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="12" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="12" width="14"/>
@@ -35683,7 +35693,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35692,10 +35702,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36397,7 +36407,7 @@
       </c>
       <c r="C55" s="122"/>
       <c r="D55" s="122" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E55" s="115" t="n">
         <v>-1111.11</v>
@@ -37122,7 +37132,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37134,8 +37144,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38788,16 +38798,16 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="115" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39668,7 +39678,7 @@
       </c>
       <c r="C64" s="122"/>
       <c r="D64" s="122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E64" s="115" t="n">
         <v>-208.17</v>
@@ -39686,7 +39696,7 @@
       </c>
       <c r="C65" s="122"/>
       <c r="D65" s="122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E65" s="115" t="n">
         <v>-151.65</v>
@@ -39808,7 +39818,7 @@
         <v>44924</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C72" s="122"/>
       <c r="D72" s="122"/>
@@ -40059,7 +40069,7 @@
         <v>44927</v>
       </c>
       <c r="B93" s="122" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C93" s="122"/>
       <c r="D93" s="122"/>
@@ -40325,7 +40335,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40333,7 +40343,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40429,7 +40439,7 @@
         <v>44933</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C7" s="120"/>
       <c r="D7" s="120"/>
@@ -40449,7 +40459,7 @@
         <v>44568</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C8" s="120"/>
       <c r="D8" s="120"/>
@@ -41178,7 +41188,7 @@
         <v>44900</v>
       </c>
       <c r="B62" s="122" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C62" s="122"/>
       <c r="D62" s="122"/>
@@ -41927,25 +41937,25 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42637,7 +42647,7 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42648,7 +42658,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43807,7 +43817,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43816,7 +43826,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44789,7 +44799,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44798,7 +44808,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46246,7 +46256,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46255,7 +46265,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47003,7 +47013,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47012,7 +47022,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47946,7 +47956,7 @@
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="1" sqref="F10:F14 J6"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47956,7 +47966,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48096,7 +48106,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48105,7 +48115,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48993,7 +49003,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49002,7 +49012,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49785,7 +49795,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49794,7 +49804,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50411,7 +50421,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50420,7 +50430,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51030,7 +51040,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51043,7 +51053,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51657,7 +51667,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51669,7 +51679,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52254,7 +52264,7 @@
   <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52266,7 +52276,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="93" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="93" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53606,25 +53616,25 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54246,7 +54256,7 @@
   <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="1" sqref="F10:F14 N3"/>
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54254,9 +54264,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8"/>
@@ -54264,7 +54274,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54399,7 +54409,7 @@
       </c>
       <c r="E4" s="62" t="n">
         <f aca="false">02_24!F2</f>
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="F4" s="62" t="n">
         <f aca="false">02_24!G2</f>
@@ -54407,7 +54417,7 @@
       </c>
       <c r="G4" s="63" t="n">
         <f aca="false">E4+F4+G3</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="65" t="s">
@@ -54456,7 +54466,7 @@
       </c>
       <c r="G5" s="63" t="n">
         <f aca="false">E5+F5+G4</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="65" t="s">
@@ -54502,7 +54512,7 @@
       </c>
       <c r="G6" s="63" t="n">
         <f aca="false">E6+F6+G5</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="71" t="s">
@@ -54545,7 +54555,7 @@
       </c>
       <c r="G7" s="63" t="n">
         <f aca="false">E7+F7+G6</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H7" s="64"/>
       <c r="I7" s="71" t="s">
@@ -54576,7 +54586,7 @@
       </c>
       <c r="D8" s="63" t="n">
         <f aca="false">B8+C8+D7</f>
-        <v>89105.66</v>
+        <v>89105.6600000001</v>
       </c>
       <c r="E8" s="62" t="n">
         <f aca="false">06_24!F2</f>
@@ -54588,7 +54598,7 @@
       </c>
       <c r="G8" s="63" t="n">
         <f aca="false">E8+F8+G7</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="65" t="s">
@@ -54622,7 +54632,7 @@
       </c>
       <c r="D9" s="63" t="n">
         <f aca="false">B9+C9+D8</f>
-        <v>72882.2</v>
+        <v>72882.2000000001</v>
       </c>
       <c r="E9" s="62" t="n">
         <f aca="false">07_24!F2</f>
@@ -54634,7 +54644,7 @@
       </c>
       <c r="G9" s="63" t="n">
         <f aca="false">E9+F9+G8</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="65" t="s">
@@ -54683,7 +54693,7 @@
       </c>
       <c r="G10" s="63" t="n">
         <f aca="false">E10+F10+G9</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H10" s="64"/>
       <c r="I10" s="65" t="s">
@@ -54729,7 +54739,7 @@
       </c>
       <c r="G11" s="63" t="n">
         <f aca="false">E11+F11+G10</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H11" s="64"/>
       <c r="I11" s="65" t="s">
@@ -54778,7 +54788,7 @@
       </c>
       <c r="G12" s="63" t="n">
         <f aca="false">E12+F12+G11</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H12" s="64"/>
       <c r="I12" s="65" t="s">
@@ -54827,7 +54837,7 @@
       </c>
       <c r="G13" s="63" t="n">
         <f aca="false">E13+F13+G12</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H13" s="64"/>
       <c r="I13" s="65" t="s">
@@ -54876,7 +54886,7 @@
       </c>
       <c r="G14" s="63" t="n">
         <f aca="false">E14+F14+G13</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H14" s="64"/>
       <c r="I14" s="74" t="s">
@@ -54917,7 +54927,7 @@
       </c>
       <c r="E15" s="63" t="n">
         <f aca="false">SUM(E3:E14)</f>
-        <v>194911.58</v>
+        <v>201411.58</v>
       </c>
       <c r="F15" s="63" t="n">
         <f aca="false">SUM(F3:F14)</f>
@@ -54925,7 +54935,7 @@
       </c>
       <c r="G15" s="63" t="n">
         <f aca="false">E15+F15</f>
-        <v>79631.39</v>
+        <v>86131.39</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="78"/>
@@ -54961,7 +54971,7 @@
       <c r="D16" s="85"/>
       <c r="E16" s="85" t="n">
         <f aca="false">E15/A16</f>
-        <v>16242.6316666667</v>
+        <v>16784.2983333333</v>
       </c>
       <c r="F16" s="85" t="n">
         <f aca="false">F15/A16</f>
@@ -54969,7 +54979,7 @@
       </c>
       <c r="G16" s="85" t="n">
         <f aca="false">G15/A16</f>
-        <v>6635.94916666667</v>
+        <v>7177.61583333333</v>
       </c>
       <c r="H16" s="86"/>
       <c r="I16" s="87"/>
@@ -55410,7 +55420,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="F10:F14 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55418,7 +55428,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56586,7 +56596,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56594,7 +56604,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57722,7 +57732,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57730,7 +57740,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58860,7 +58870,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F10:F14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -58868,7 +58878,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60D6F0F-E1B7-4C4D-A9F2-F441A782877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEDCE7D-D501-42D7-9417-D7847AD26E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="645" windowWidth="17895" windowHeight="14835" tabRatio="782" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20460" windowHeight="14835" tabRatio="782" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="1222">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -3927,6 +3927,9 @@
   </si>
   <si>
     <t>maaş ocak ayı EK ödeme</t>
+  </si>
+  <si>
+    <t>Merdal                                         fazla havale</t>
   </si>
 </sst>
 </file>
@@ -12892,8 +12895,8 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -13531,7 +13534,7 @@
       </c>
       <c r="E42" s="142">
         <f>SUM(E43:E48)</f>
-        <v>2855.4900000000002</v>
+        <v>3837.4900000000002</v>
       </c>
       <c r="H42" s="92"/>
     </row>
@@ -13576,11 +13579,21 @@
       <c r="G45" s="92"/>
     </row>
     <row r="46" spans="1:8">
+      <c r="A46" s="324">
+        <v>45334</v>
+      </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>1221</v>
+      </c>
+      <c r="C46" s="134">
+        <f>E46-D46</f>
+        <v>90.67999999999995</v>
       </c>
       <c r="D46" s="1">
         <v>891.32</v>
+      </c>
+      <c r="E46" s="134">
+        <v>982</v>
       </c>
       <c r="F46" s="92"/>
       <c r="G46" s="92"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEDCE7D-D501-42D7-9417-D7847AD26E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1143271B-16F9-417C-AA26-ADCE88DA2EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20460" windowHeight="14835" tabRatio="782" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="870" windowWidth="23340" windowHeight="14835" tabRatio="782" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="1233">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -3930,6 +3930,39 @@
   </si>
   <si>
     <t>Merdal                                         fazla havale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doğuş Kira 6/12-2024-25 </t>
+  </si>
+  <si>
+    <t>Hurdacı Elektrik     32,42 eksik</t>
+  </si>
+  <si>
+    <t>Merdal                                 90,58 2. aydan düş</t>
+  </si>
+  <si>
+    <t>umut iade yasemin okul kk</t>
+  </si>
+  <si>
+    <t>pçamlıbel pide</t>
+  </si>
+  <si>
+    <t>kesik yemek</t>
+  </si>
+  <si>
+    <t>erenler pide için</t>
+  </si>
+  <si>
+    <t>damga vergisi ali demirel</t>
+  </si>
+  <si>
+    <t>aşıkbaba yasemin</t>
+  </si>
+  <si>
+    <t>atasun yakın gözlük</t>
+  </si>
+  <si>
+    <t>ceza dr184 sungurlu</t>
   </si>
 </sst>
 </file>
@@ -4280,7 +4313,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4531,6 +4564,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF069A2E"/>
         <bgColor rgb="FF1E6A39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4877,7 +4916,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5342,6 +5381,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -11703,8 +11743,8 @@
   </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -11740,7 +11780,7 @@
       </c>
       <c r="E2" s="133">
         <f>SUM(E4:E34)</f>
-        <v>-115783.52</v>
+        <v>-179517.19</v>
       </c>
       <c r="F2" s="116">
         <f>SUM(F4:F34)</f>
@@ -11915,7 +11955,7 @@
       </c>
       <c r="E15" s="133">
         <f>E50</f>
-        <v>-2704.48</v>
+        <v>-6241.68</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
@@ -11933,7 +11973,7 @@
       </c>
       <c r="E16" s="133">
         <f>E66</f>
-        <v>-12227.040000000003</v>
+        <v>-72423.510000000009</v>
       </c>
       <c r="G16" s="92"/>
       <c r="H16" s="92">
@@ -12213,7 +12253,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>248</v>
+        <v>1224</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="92"/>
@@ -12250,116 +12290,200 @@
         <v>251</v>
       </c>
       <c r="C50" s="107"/>
-      <c r="E50" s="133">
+      <c r="E50" s="328">
         <f>SUM(E51:E63)</f>
-        <v>-2704.48</v>
+        <v>-6241.68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
+      <c r="A51" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B51" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" s="120">
+        <v>7648.33</v>
+      </c>
+      <c r="D51" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51" s="133">
+        <v>-849.81</v>
+      </c>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="110"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
+      <c r="A52" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B52" s="120" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="120">
+        <v>11128</v>
+      </c>
+      <c r="D52" s="117" t="s">
+        <v>315</v>
+      </c>
+      <c r="E52" s="133">
+        <v>-1854.67</v>
+      </c>
       <c r="F52" s="92"/>
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B53" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="C53" s="120">
-        <v>7648.33</v>
-      </c>
-      <c r="D53" s="117" t="s">
-        <v>313</v>
+      <c r="A53" s="324">
+        <v>45325</v>
+      </c>
+      <c r="B53" t="s">
+        <v>356</v>
       </c>
       <c r="E53" s="133">
-        <v>-849.81</v>
+        <v>-453.4</v>
       </c>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B54" s="120" t="s">
-        <v>314</v>
-      </c>
-      <c r="C54" s="120">
-        <v>11128</v>
-      </c>
-      <c r="D54" s="117" t="s">
-        <v>315</v>
+      <c r="A54" s="324">
+        <v>45326</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1226</v>
       </c>
       <c r="E54" s="133">
-        <v>-1854.67</v>
+        <v>-300</v>
       </c>
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" s="324">
+        <v>45327</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55">
+        <v>3900.57</v>
+      </c>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" s="324">
+        <v>45330</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E56" s="133">
+        <v>-900</v>
+      </c>
       <c r="G56" s="92"/>
       <c r="H56" s="92"/>
     </row>
     <row r="57" spans="1:8">
+      <c r="A57" s="324">
+        <v>45330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E57" s="133">
+        <v>-116.38</v>
+      </c>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="122"/>
-      <c r="B58" s="120"/>
+      <c r="A58" s="122">
+        <v>45331</v>
+      </c>
+      <c r="B58" s="120" t="s">
+        <v>548</v>
+      </c>
       <c r="C58" s="120"/>
+      <c r="E58" s="133">
+        <v>-100</v>
+      </c>
       <c r="F58" s="92"/>
       <c r="G58" s="92"/>
       <c r="H58" s="92"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="122"/>
-      <c r="B59" s="120"/>
+      <c r="A59" s="122">
+        <v>45331</v>
+      </c>
+      <c r="B59" s="120" t="s">
+        <v>1229</v>
+      </c>
       <c r="C59" s="120"/>
+      <c r="E59" s="133">
+        <v>-215.42</v>
+      </c>
       <c r="F59" s="92"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="122"/>
-      <c r="B60" s="131"/>
+      <c r="A60" s="122">
+        <v>45332</v>
+      </c>
+      <c r="B60" s="120" t="s">
+        <v>548</v>
+      </c>
       <c r="C60" s="120"/>
+      <c r="E60" s="133">
+        <v>-100</v>
+      </c>
       <c r="F60" s="92"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="122"/>
-      <c r="B61" s="131"/>
+      <c r="A61" s="122">
+        <v>45332</v>
+      </c>
+      <c r="B61" s="120" t="s">
+        <v>1230</v>
+      </c>
       <c r="C61" s="120"/>
+      <c r="E61" s="133">
+        <v>-900</v>
+      </c>
       <c r="F61" s="92"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="122"/>
-      <c r="B62" s="131"/>
+      <c r="A62" s="122">
+        <v>45337</v>
+      </c>
+      <c r="B62" s="120" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E62" s="133">
+        <v>-352</v>
+      </c>
       <c r="F62" s="92"/>
       <c r="G62" s="92"/>
       <c r="H62" s="92"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="122"/>
-      <c r="B63" s="131"/>
+      <c r="A63" s="122">
+        <v>45338</v>
+      </c>
+      <c r="B63" s="120" t="s">
+        <v>548</v>
+      </c>
       <c r="C63" s="120"/>
+      <c r="E63" s="133">
+        <v>-100</v>
+      </c>
       <c r="F63" s="92"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
@@ -12387,7 +12511,7 @@
       <c r="C66" s="107"/>
       <c r="E66" s="133">
         <f>SUM(E67:E92)</f>
-        <v>-12227.040000000003</v>
+        <v>-72423.510000000009</v>
       </c>
       <c r="F66" s="92"/>
       <c r="G66" s="92"/>
@@ -12412,7 +12536,10 @@
         <v>317</v>
       </c>
       <c r="E68" s="133">
-        <v>-3974.44</v>
+        <v>-3974.42</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
       </c>
       <c r="G68" s="92"/>
       <c r="H68" s="92"/>
@@ -12430,7 +12557,9 @@
       <c r="E69" s="133">
         <v>-600</v>
       </c>
-      <c r="F69" s="92"/>
+      <c r="F69" s="92">
+        <v>0</v>
+      </c>
       <c r="G69" s="92"/>
       <c r="H69" s="92"/>
     </row>
@@ -12448,7 +12577,9 @@
       <c r="E70" s="133">
         <v>-3551.66</v>
       </c>
-      <c r="F70" s="92"/>
+      <c r="F70" s="92">
+        <v>0</v>
+      </c>
       <c r="G70" s="92"/>
       <c r="H70" s="92"/>
     </row>
@@ -12468,7 +12599,9 @@
       <c r="E71" s="133">
         <v>-401.5</v>
       </c>
-      <c r="F71" s="92"/>
+      <c r="F71" s="92">
+        <v>0</v>
+      </c>
       <c r="G71" s="92"/>
       <c r="H71" s="92"/>
     </row>
@@ -12488,7 +12621,9 @@
       <c r="E72" s="133">
         <v>-49.54</v>
       </c>
-      <c r="F72" s="92"/>
+      <c r="F72" s="92">
+        <v>0</v>
+      </c>
       <c r="G72" s="92"/>
       <c r="H72" s="92"/>
     </row>
@@ -12508,7 +12643,9 @@
       <c r="E73" s="133">
         <v>-81.599999999999994</v>
       </c>
-      <c r="F73" s="92"/>
+      <c r="F73" s="92">
+        <v>0</v>
+      </c>
       <c r="G73" s="92"/>
       <c r="H73" s="92"/>
     </row>
@@ -12528,7 +12665,9 @@
       <c r="E74" s="133">
         <v>-177.54</v>
       </c>
-      <c r="F74" s="92"/>
+      <c r="F74" s="92">
+        <v>0</v>
+      </c>
       <c r="G74" s="92"/>
       <c r="H74" s="92"/>
     </row>
@@ -12546,7 +12685,9 @@
       <c r="E75" s="133">
         <v>-449.5</v>
       </c>
-      <c r="F75" s="92"/>
+      <c r="F75" s="92">
+        <v>0</v>
+      </c>
       <c r="G75" s="92"/>
       <c r="H75" s="92"/>
     </row>
@@ -12562,7 +12703,9 @@
       <c r="E76" s="133">
         <v>-299.64</v>
       </c>
-      <c r="F76" s="92"/>
+      <c r="F76" s="92">
+        <v>0</v>
+      </c>
       <c r="G76" s="92"/>
       <c r="H76" s="92"/>
     </row>
@@ -12576,9 +12719,11 @@
         <v>325</v>
       </c>
       <c r="E77" s="133">
-        <v>-546.83000000000004</v>
-      </c>
-      <c r="F77" s="92"/>
+        <v>-546.82000000000005</v>
+      </c>
+      <c r="F77" s="92">
+        <v>0</v>
+      </c>
       <c r="G77" s="92"/>
       <c r="H77" s="92"/>
     </row>
@@ -12594,7 +12739,9 @@
       <c r="E78" s="133">
         <v>-649.78</v>
       </c>
-      <c r="F78" s="92"/>
+      <c r="F78" s="92">
+        <v>0</v>
+      </c>
       <c r="G78" s="92"/>
       <c r="H78" s="92"/>
     </row>
@@ -12610,7 +12757,9 @@
       <c r="E79" s="133">
         <v>49.98</v>
       </c>
-      <c r="F79" s="92"/>
+      <c r="F79" s="92">
+        <v>0</v>
+      </c>
       <c r="G79" s="92"/>
       <c r="H79" s="92"/>
     </row>
@@ -12641,7 +12790,9 @@
       <c r="E82" s="133">
         <v>-1195</v>
       </c>
-      <c r="F82" s="92"/>
+      <c r="F82" s="92">
+        <v>0</v>
+      </c>
       <c r="G82" s="92"/>
       <c r="H82" s="92"/>
     </row>
@@ -12661,18 +12812,36 @@
       <c r="H83" s="92"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="122"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="122">
+        <v>45336</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>263</v>
+      </c>
       <c r="C84" s="120"/>
-      <c r="F84" s="92"/>
+      <c r="E84" s="133">
+        <v>-59483.25</v>
+      </c>
+      <c r="F84" s="92">
+        <v>0</v>
+      </c>
       <c r="G84" s="92"/>
       <c r="H84" s="92"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="122"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="122">
+        <v>45329</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>1232</v>
+      </c>
       <c r="C85" s="120"/>
-      <c r="F85" s="92"/>
+      <c r="E85" s="133">
+        <v>-713.25</v>
+      </c>
+      <c r="F85" s="92">
+        <v>0</v>
+      </c>
       <c r="G85" s="92"/>
       <c r="H85" s="92"/>
     </row>
@@ -12893,10 +13062,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A84" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -12928,19 +13097,19 @@
         <v>217</v>
       </c>
       <c r="D2" s="136">
-        <f>SUM(D4:D37)</f>
+        <f>SUM(D4:D39)</f>
         <v>19455.370000000003</v>
       </c>
       <c r="E2" s="136">
-        <f>SUM(E4:E37)</f>
+        <f>SUM(E4:E39)</f>
         <v>-65325.849999999991</v>
       </c>
       <c r="F2" s="136">
-        <f>SUM(F4:F37)</f>
+        <f>SUM(F4:F39)</f>
         <v>7316.04</v>
       </c>
       <c r="G2" s="136">
-        <f>SUM(G4:G37)</f>
+        <f>SUM(G4:G39)</f>
         <v>-50879.74</v>
       </c>
       <c r="H2" s="136">
@@ -12970,7 +13139,7 @@
         <v>-167</v>
       </c>
       <c r="H4" s="136">
-        <f t="shared" ref="H4:H16" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H38" si="0">H3+F4+G4</f>
         <v>-167</v>
       </c>
     </row>
@@ -13044,7 +13213,7 @@
         <v>232</v>
       </c>
       <c r="E8" s="138">
-        <f>E53</f>
+        <f>E55</f>
         <v>-3900.5699999999997</v>
       </c>
       <c r="F8" s="138"/>
@@ -13065,7 +13234,7 @@
         <v>233</v>
       </c>
       <c r="E9" s="138">
-        <f>E70</f>
+        <f>E72</f>
         <v>-24792.94</v>
       </c>
       <c r="F9" s="138"/>
@@ -13080,24 +13249,20 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="122">
-        <v>45329</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>333</v>
-      </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="138">
-        <v>-5375</v>
-      </c>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138">
-        <f>E10</f>
-        <v>-5375</v>
-      </c>
+        <v>45328</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="F10" s="138">
+        <v>6500</v>
+      </c>
+      <c r="G10" s="138"/>
       <c r="H10" s="136">
         <f t="shared" si="0"/>
-        <v>-45997.64</v>
+        <v>-34122.639999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13110,266 +13275,273 @@
       <c r="C11" s="118"/>
       <c r="D11" s="118"/>
       <c r="E11" s="138">
-        <v>-2125</v>
+        <v>-5375</v>
       </c>
       <c r="F11" s="138"/>
       <c r="G11" s="138">
         <f>E11</f>
+        <v>-5375</v>
+      </c>
+      <c r="H11" s="136">
+        <f t="shared" si="0"/>
+        <v>-39497.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="122">
+        <v>45329</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="138">
         <v>-2125</v>
-      </c>
-      <c r="H11" s="136">
-        <f t="shared" si="0"/>
-        <v>-48122.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="139">
-        <v>45329</v>
-      </c>
-      <c r="B12" s="140" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="118"/>
-      <c r="E12" s="138">
-        <v>-713.25</v>
       </c>
       <c r="F12" s="138"/>
       <c r="G12" s="138">
         <f>E12</f>
+        <v>-2125</v>
+      </c>
+      <c r="H12" s="136">
+        <f t="shared" si="0"/>
+        <v>-41622.639999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="324">
+        <v>45329</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E13" s="136"/>
+      <c r="F13" s="138">
+        <v>816.04</v>
+      </c>
+      <c r="G13" s="138"/>
+      <c r="H13" s="136">
+        <f t="shared" si="0"/>
+        <v>-40806.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="139">
+        <v>45329</v>
+      </c>
+      <c r="B14" s="140" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="E14" s="138">
         <v>-713.25</v>
       </c>
-      <c r="H12" s="136">
-        <f t="shared" si="0"/>
-        <v>-48835.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
+      <c r="F14" s="138"/>
+      <c r="G14" s="138">
+        <f>E14</f>
+        <v>-713.25</v>
+      </c>
+      <c r="H14" s="136">
+        <f t="shared" si="0"/>
+        <v>-41519.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136">
-        <f t="shared" si="0"/>
-        <v>-48835.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="324">
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136">
+        <f t="shared" si="0"/>
+        <v>-41519.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="324">
         <v>45329</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B16" s="120" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C16" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D16" s="120">
         <v>16.62</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E16" s="138">
         <v>-100</v>
       </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="138">
-        <v>0</v>
-      </c>
-      <c r="H14" s="136">
-        <f t="shared" si="0"/>
-        <v>-48835.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="324">
+      <c r="F16" s="136"/>
+      <c r="G16" s="138">
+        <v>0</v>
+      </c>
+      <c r="H16" s="136">
+        <f t="shared" si="0"/>
+        <v>-41519.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="324">
         <v>45334</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B17" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C17" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="136">
+      <c r="D17" s="118"/>
+      <c r="E17" s="138">
         <v>-150</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136">
+      <c r="F17" s="138"/>
+      <c r="G17" s="138">
         <v>-242.76</v>
       </c>
-      <c r="H15" s="136">
-        <f t="shared" si="0"/>
-        <v>-49078.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="324"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136">
-        <f t="shared" si="0"/>
-        <v>-49078.65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="324"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
       <c r="H17" s="136">
-        <f t="shared" ref="H17:H33" si="1">H16+F15+G17</f>
-        <v>-49078.65</v>
+        <f t="shared" si="0"/>
+        <v>-41762.61</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="139"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="118"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
+      <c r="A18" s="324">
+        <v>45334</v>
+      </c>
+      <c r="B18" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="138">
+        <f>E50*-1</f>
+        <v>-67.09</v>
+      </c>
+      <c r="G18" s="134">
+        <f>E18</f>
+        <v>-67.09</v>
+      </c>
       <c r="H18" s="136">
-        <f t="shared" si="1"/>
-        <v>-49078.65</v>
+        <f t="shared" si="0"/>
+        <v>-41829.699999999997</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="138">
-        <f>E48*-1</f>
-        <v>-67.09</v>
-      </c>
-      <c r="G19" s="134">
-        <f>E19</f>
-        <v>-67.09</v>
-      </c>
+      <c r="A19" s="324"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
       <c r="H19" s="136">
-        <f t="shared" si="1"/>
-        <v>-49145.74</v>
+        <f t="shared" si="0"/>
+        <v>-41829.699999999997</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="118" t="s">
-        <v>220</v>
-      </c>
+      <c r="A20" s="139"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="136">
-        <v>-400</v>
-      </c>
+      <c r="E20" s="136"/>
       <c r="F20" s="136"/>
       <c r="G20" s="136"/>
       <c r="H20" s="136">
-        <f t="shared" si="1"/>
-        <v>-49145.74</v>
+        <f t="shared" si="0"/>
+        <v>-41829.699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="118" t="s">
+      <c r="H21" s="136">
+        <f t="shared" si="0"/>
+        <v>-41829.699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="136">
+        <v>-400</v>
+      </c>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136">
+        <f t="shared" si="0"/>
+        <v>-41829.699999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="136">
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="136">
         <v>-500</v>
       </c>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136">
-        <f t="shared" si="1"/>
-        <v>-49145.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="H22" s="136">
-        <f t="shared" si="1"/>
-        <v>-49145.74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
       <c r="F23" s="136"/>
-      <c r="G23" s="136">
-        <v>0</v>
-      </c>
+      <c r="G23" s="136"/>
       <c r="H23" s="136">
-        <f t="shared" si="1"/>
-        <v>-49145.74</v>
+        <f t="shared" si="0"/>
+        <v>-41829.699999999997</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="324">
+      <c r="H24" s="136">
+        <f t="shared" si="0"/>
+        <v>-41829.699999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="F25" s="136"/>
+      <c r="G25" s="136">
+        <v>0</v>
+      </c>
+      <c r="H25" s="136">
+        <f t="shared" si="0"/>
+        <v>-41829.699999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="324">
         <v>45341</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B26" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C26" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="120">
+      <c r="D26" s="120">
         <v>138.75</v>
       </c>
-      <c r="E24" s="136">
+      <c r="E26" s="136">
         <v>-300</v>
       </c>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136">
+      <c r="F26" s="136"/>
+      <c r="G26" s="136">
         <v>-1734</v>
       </c>
-      <c r="H24" s="136">
-        <f>H23+F22+G24</f>
-        <v>-50879.74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="H25" s="136">
-        <f t="shared" si="1"/>
-        <v>-50879.74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="136">
-        <v>-5000</v>
-      </c>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
       <c r="H26" s="136">
-        <f t="shared" si="1"/>
-        <v>-50879.74</v>
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="136">
-        <v>-5000</v>
-      </c>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
       <c r="H27" s="136">
-        <f t="shared" si="1"/>
-        <v>-50879.74</v>
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="E28" s="136">
         <v>-5000</v>
@@ -13377,386 +13549,378 @@
       <c r="F28" s="136"/>
       <c r="G28" s="136"/>
       <c r="H28" s="136">
-        <f t="shared" si="1"/>
-        <v>-50879.74</v>
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="E29" s="136"/>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="136">
+        <v>-5000</v>
+      </c>
       <c r="F29" s="136"/>
       <c r="G29" s="136"/>
       <c r="H29" s="136">
-        <f t="shared" si="1"/>
-        <v>-50879.74</v>
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="324">
-        <v>45329</v>
-      </c>
       <c r="B30" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136">
-        <v>816.04</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E30" s="136">
+        <v>-5000</v>
+      </c>
+      <c r="F30" s="136"/>
       <c r="G30" s="136"/>
       <c r="H30" s="136">
-        <f t="shared" si="1"/>
-        <v>-50879.74</v>
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="117">
-        <v>10000</v>
-      </c>
-      <c r="F31" s="136">
-        <v>0</v>
-      </c>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
       <c r="G31" s="136"/>
       <c r="H31" s="136">
-        <f t="shared" si="1"/>
-        <v>-50879.74</v>
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="122"/>
-      <c r="B32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="117">
-        <v>2800</v>
-      </c>
-      <c r="F32" s="136"/>
       <c r="G32" s="136"/>
       <c r="H32" s="136">
-        <f t="shared" si="1"/>
-        <v>-50063.7</v>
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="122"/>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="D33" s="117">
-        <v>6500</v>
-      </c>
-      <c r="F33" s="136"/>
+        <v>10000</v>
+      </c>
+      <c r="F33" s="136">
+        <v>0</v>
+      </c>
       <c r="G33" s="136"/>
       <c r="H33" s="136">
-        <f t="shared" si="1"/>
-        <v>-50063.7</v>
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="122">
-        <v>45328</v>
-      </c>
+      <c r="A34" s="122"/>
       <c r="B34" t="s">
-        <v>337</v>
-      </c>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="F34" s="138">
-        <v>6500</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D34" s="117">
+        <v>2800</v>
+      </c>
+      <c r="F34" s="136"/>
       <c r="G34" s="136"/>
       <c r="H34" s="136">
-        <f t="shared" ref="H34:H35" si="2">H33+F34+G34</f>
+        <f t="shared" si="0"/>
         <v>-43563.7</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="D35" s="124"/>
+      <c r="A35" s="122"/>
+      <c r="B35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="117">
+        <v>6500</v>
+      </c>
       <c r="F35" s="136"/>
       <c r="G35" s="136"/>
       <c r="H35" s="136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-43563.7</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="D36" s="92"/>
-      <c r="F36" s="136"/>
       <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="B37" s="126"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
+      <c r="H36" s="136">
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="D37" s="124"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136">
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>242</v>
-      </c>
+      <c r="D38" s="92"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136">
+        <f t="shared" si="0"/>
+        <v>-43563.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75">
+      <c r="B39" s="126"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="107" t="s">
-        <v>243</v>
-      </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="141"/>
       <c r="G40" s="92"/>
       <c r="H40" s="92"/>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1">
-      <c r="A41" s="122"/>
-      <c r="C41" s="123"/>
-      <c r="E41" s="138"/>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" s="92"/>
       <c r="H41" s="92"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="127">
+      <c r="A42" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="141"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1">
+      <c r="A43" s="122"/>
+      <c r="C43" s="123"/>
+      <c r="E43" s="138"/>
+      <c r="H43" s="92"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="127">
         <v>44929</v>
       </c>
-      <c r="B42" s="128" t="s">
+      <c r="B44" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="129">
-        <f>SUM(D43:D48)</f>
+      <c r="C44" s="107"/>
+      <c r="D44" s="129">
+        <f>SUM(D45:D50)</f>
         <v>3749.5300000000007</v>
       </c>
-      <c r="E42" s="142">
-        <f>SUM(E43:E48)</f>
+      <c r="E44" s="142">
+        <f>SUM(E45:E50)</f>
         <v>3837.4900000000002</v>
       </c>
-      <c r="H42" s="92"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="122"/>
-      <c r="B43" s="120" t="s">
+      <c r="H44" s="92"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="122"/>
+      <c r="B45" s="120" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1">
+      <c r="C45" s="2"/>
+      <c r="D45" s="1">
         <v>999.4</v>
       </c>
-      <c r="E43" s="134">
+      <c r="E45" s="134">
         <v>999.4</v>
       </c>
-      <c r="H43" s="92"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
+      <c r="H45" s="92"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
         <v>246</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D46" s="1">
         <v>876.64</v>
       </c>
-      <c r="E44" s="134">
+      <c r="E46" s="134">
         <v>875</v>
-      </c>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="1">
-        <v>431.36</v>
-      </c>
-      <c r="E45" s="134">
-        <v>431</v>
-      </c>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="324">
-        <v>45334</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C46" s="134">
-        <f>E46-D46</f>
-        <v>90.67999999999995</v>
-      </c>
-      <c r="D46" s="1">
-        <v>891.32</v>
-      </c>
-      <c r="E46" s="134">
-        <v>982</v>
       </c>
       <c r="F46" s="92"/>
       <c r="G46" s="92"/>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D47" s="1">
-        <v>483.72</v>
+        <v>431.36</v>
       </c>
       <c r="E47" s="134">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="F47" s="92"/>
       <c r="G47" s="92"/>
     </row>
     <row r="48" spans="1:8">
+      <c r="A48" s="324">
+        <v>45334</v>
+      </c>
       <c r="B48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" s="120"/>
+        <v>1221</v>
+      </c>
+      <c r="C48" s="134">
+        <f>E48-D48</f>
+        <v>90.67999999999995</v>
+      </c>
       <c r="D48" s="1">
-        <v>67.09</v>
-      </c>
-      <c r="E48" s="143">
-        <v>67.09</v>
+        <v>891.32</v>
+      </c>
+      <c r="E48" s="134">
+        <v>982</v>
       </c>
       <c r="F48" s="92"/>
       <c r="G48" s="92"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="136"/>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="1">
+        <v>483.72</v>
+      </c>
+      <c r="E49" s="134">
+        <v>483</v>
+      </c>
       <c r="F49" s="92"/>
       <c r="G49" s="92"/>
     </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="120"/>
+      <c r="D50" s="1">
+        <v>67.09</v>
+      </c>
+      <c r="E50" s="143">
+        <v>67.09</v>
+      </c>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+    </row>
     <row r="51" spans="1:8">
-      <c r="B51" s="100"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" s="117"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="107"/>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="100"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="117"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="107"/>
+      <c r="B55" s="106" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="142">
-        <f>SUM(E54:E67)</f>
+      <c r="C55" s="107"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="142">
+        <f>SUM(E56:E69)</f>
         <v>-3900.5699999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="110"/>
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-    </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="110">
-        <v>45043</v>
-      </c>
-      <c r="B56" s="120" t="s">
-        <v>338</v>
-      </c>
-      <c r="C56" s="120">
-        <v>10764.57</v>
-      </c>
-      <c r="D56" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="E56" s="136">
-        <v>-1196.0899999999999</v>
-      </c>
       <c r="G56" s="92"/>
       <c r="H56" s="92"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B57" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="C57" s="120">
-        <v>7648.33</v>
-      </c>
-      <c r="D57" s="130" t="s">
-        <v>339</v>
-      </c>
-      <c r="E57" s="136">
-        <v>-849.81</v>
-      </c>
+      <c r="A57" s="110"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="92"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="122">
-        <v>45187</v>
+      <c r="A58" s="110">
+        <v>45043</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C58" s="120">
-        <v>11128</v>
-      </c>
-      <c r="D58" s="130" t="s">
-        <v>340</v>
+        <v>10764.57</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>286</v>
       </c>
       <c r="E58" s="136">
-        <v>-1854.67</v>
+        <v>-1196.0899999999999</v>
       </c>
       <c r="G58" s="92"/>
       <c r="H58" s="92"/>
     </row>
-    <row r="59" spans="1:8" ht="15">
-      <c r="D59" s="144" t="s">
-        <v>341</v>
+    <row r="59" spans="1:8">
+      <c r="A59" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B59" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="120">
+        <v>7648.33</v>
+      </c>
+      <c r="D59" s="130" t="s">
+        <v>339</v>
+      </c>
+      <c r="E59" s="136">
+        <v>-849.81</v>
       </c>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
     </row>
     <row r="60" spans="1:8">
+      <c r="A60" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B60" s="120" t="s">
+        <v>314</v>
+      </c>
+      <c r="C60" s="120">
+        <v>11128</v>
+      </c>
+      <c r="D60" s="130" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="136">
+        <v>-1854.67</v>
+      </c>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" ht="15">
+      <c r="D61" s="144" t="s">
+        <v>341</v>
+      </c>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="122"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="120"/>
-      <c r="F62" s="92"/>
       <c r="G62" s="92"/>
       <c r="H62" s="92"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="122"/>
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="120"/>
-      <c r="F63" s="92"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="122"/>
-      <c r="B64" s="131"/>
+      <c r="B64" s="120"/>
       <c r="C64" s="120"/>
       <c r="D64" s="120"/>
       <c r="F64" s="92"/>
@@ -13765,7 +13929,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="122"/>
-      <c r="B65" s="131"/>
+      <c r="B65" s="120"/>
       <c r="C65" s="120"/>
       <c r="D65" s="120"/>
       <c r="F65" s="92"/>
@@ -13775,6 +13939,8 @@
     <row r="66" spans="1:8">
       <c r="A66" s="122"/>
       <c r="B66" s="131"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
       <c r="F66" s="92"/>
       <c r="G66" s="92"/>
       <c r="H66" s="92"/>
@@ -13790,14 +13956,14 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="122"/>
-      <c r="B68" s="42"/>
+      <c r="B68" s="131"/>
       <c r="F68" s="92"/>
       <c r="G68" s="92"/>
       <c r="H68" s="92"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="122"/>
-      <c r="B69" s="120"/>
+      <c r="B69" s="131"/>
       <c r="C69" s="120"/>
       <c r="D69" s="120"/>
       <c r="F69" s="92"/>
@@ -13805,95 +13971,73 @@
       <c r="H69" s="92"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="107"/>
-      <c r="B70" s="106" t="s">
-        <v>252</v>
-      </c>
-      <c r="C70" s="107"/>
-      <c r="D70" s="107"/>
-      <c r="E70" s="145">
-        <f>SUM(E71:E108)</f>
-        <v>-24792.94</v>
-      </c>
+      <c r="A70" s="122"/>
+      <c r="B70" s="42"/>
       <c r="F70" s="92"/>
       <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="122"/>
       <c r="B71" s="120"/>
       <c r="C71" s="120"/>
-      <c r="E71" s="136"/>
+      <c r="D71" s="120"/>
       <c r="F71" s="92"/>
       <c r="G71" s="92"/>
       <c r="H71" s="92"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B72" s="120" t="s">
-        <v>316</v>
-      </c>
-      <c r="C72" s="120"/>
-      <c r="D72" t="s">
-        <v>342</v>
-      </c>
-      <c r="E72" s="136">
-        <v>-3974.44</v>
-      </c>
+      <c r="A72" s="107"/>
+      <c r="B72" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="107"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="145">
+        <f>SUM(E73:E110)</f>
+        <v>-24792.94</v>
+      </c>
+      <c r="F72" s="92"/>
       <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="4">
-        <v>45214</v>
-      </c>
-      <c r="B73" t="s">
-        <v>303</v>
-      </c>
-      <c r="D73" t="s">
-        <v>343</v>
-      </c>
-      <c r="E73" s="136">
-        <v>-600</v>
-      </c>
+      <c r="A73" s="122"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
+      <c r="E73" s="136"/>
       <c r="F73" s="92"/>
       <c r="G73" s="92"/>
       <c r="H73" s="92"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="4">
-        <v>45285</v>
+      <c r="A74" s="122">
+        <v>45187</v>
       </c>
       <c r="B74" s="120" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="C74" s="120"/>
       <c r="D74" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E74" s="136">
-        <v>-3551.66</v>
-      </c>
-      <c r="F74" s="92"/>
+        <v>-3974.44</v>
+      </c>
       <c r="G74" s="92"/>
       <c r="H74" s="92"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4">
-        <v>45259</v>
+        <v>45214</v>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
-      </c>
-      <c r="C75" s="134">
-        <v>-1204.5</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E75" s="136">
-        <v>-401.5</v>
+        <v>-600</v>
       </c>
       <c r="F75" s="92"/>
       <c r="G75" s="92"/>
@@ -13901,19 +14045,17 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B76" t="s">
-        <v>322</v>
-      </c>
-      <c r="C76" s="134">
-        <v>-148.6</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B76" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="120"/>
       <c r="D76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E76" s="136">
-        <v>-49.53</v>
+        <v>-3551.66</v>
       </c>
       <c r="F76" s="92"/>
       <c r="G76" s="92"/>
@@ -13924,16 +14066,16 @@
         <v>45259</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C77" s="134">
-        <v>-244.8</v>
+        <v>-1204.5</v>
       </c>
       <c r="D77" t="s">
         <v>345</v>
       </c>
       <c r="E77" s="136">
-        <v>-81.599999999999994</v>
+        <v>-401.5</v>
       </c>
       <c r="F77" s="92"/>
       <c r="G77" s="92"/>
@@ -13944,50 +14086,56 @@
         <v>45259</v>
       </c>
       <c r="B78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C78" s="134">
-        <v>-532.6</v>
+        <v>-148.6</v>
       </c>
       <c r="D78" t="s">
         <v>345</v>
       </c>
       <c r="E78" s="136">
-        <v>-177.53</v>
+        <v>-49.53</v>
       </c>
       <c r="F78" s="92"/>
       <c r="G78" s="92"/>
       <c r="H78" s="92"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="4"/>
-      <c r="B79" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="120">
-        <v>899</v>
+      <c r="A79" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B79" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" s="134">
+        <v>-244.8</v>
       </c>
       <c r="D79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E79" s="136">
-        <v>-449.5</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F79" s="92"/>
       <c r="G79" s="92"/>
       <c r="H79" s="92"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="4"/>
-      <c r="B80" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="C80" s="120"/>
+      <c r="A80" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B80" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="134">
+        <v>-532.6</v>
+      </c>
       <c r="D80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E80" s="136">
-        <v>-299.64</v>
+        <v>-177.53</v>
       </c>
       <c r="F80" s="92"/>
       <c r="G80" s="92"/>
@@ -13996,64 +14144,66 @@
     <row r="81" spans="1:8">
       <c r="A81" s="4"/>
       <c r="B81" s="120" t="s">
-        <v>327</v>
-      </c>
-      <c r="C81" s="120"/>
+        <v>153</v>
+      </c>
+      <c r="C81" s="120">
+        <v>899</v>
+      </c>
       <c r="D81" t="s">
         <v>346</v>
       </c>
       <c r="E81" s="136">
-        <v>-546.83000000000004</v>
+        <v>-449.5</v>
       </c>
       <c r="F81" s="92"/>
       <c r="G81" s="92"/>
       <c r="H81" s="92"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="122"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="120" t="s">
+        <v>326</v>
+      </c>
       <c r="C82" s="120"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="136"/>
+      <c r="D82" t="s">
+        <v>346</v>
+      </c>
+      <c r="E82" s="136">
+        <v>-299.64</v>
+      </c>
       <c r="F82" s="92"/>
       <c r="G82" s="92"/>
       <c r="H82" s="92"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="122">
-        <v>45312</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>347</v>
+      <c r="A83" s="4"/>
+      <c r="B83" s="120" t="s">
+        <v>327</v>
       </c>
       <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
+      <c r="D83" t="s">
+        <v>346</v>
+      </c>
       <c r="E83" s="136">
-        <v>-505</v>
+        <v>-546.83000000000004</v>
       </c>
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
       <c r="H83" s="92"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="122">
-        <v>45312</v>
-      </c>
-      <c r="B84" s="42" t="s">
-        <v>348</v>
-      </c>
+      <c r="A84" s="122"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="120"/>
       <c r="D84" s="120"/>
-      <c r="E84" s="136">
-        <v>-223.2</v>
-      </c>
+      <c r="E84" s="136"/>
       <c r="F84" s="92"/>
       <c r="G84" s="92"/>
       <c r="H84" s="92"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="122">
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="B85" s="42" t="s">
         <v>347</v>
@@ -14061,7 +14211,7 @@
       <c r="C85" s="120"/>
       <c r="D85" s="120"/>
       <c r="E85" s="136">
-        <v>-655</v>
+        <v>-505</v>
       </c>
       <c r="F85" s="92"/>
       <c r="G85" s="92"/>
@@ -14069,15 +14219,15 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="122">
-        <v>45293</v>
+        <v>45312</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C86" s="120"/>
       <c r="D86" s="120"/>
       <c r="E86" s="136">
-        <v>-480</v>
+        <v>-223.2</v>
       </c>
       <c r="F86" s="92"/>
       <c r="G86" s="92"/>
@@ -14085,15 +14235,15 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="122">
-        <v>45293</v>
+        <v>45310</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C87" s="120"/>
       <c r="D87" s="120"/>
       <c r="E87" s="136">
-        <v>-1200</v>
+        <v>-655</v>
       </c>
       <c r="F87" s="92"/>
       <c r="G87" s="92"/>
@@ -14104,27 +14254,29 @@
         <v>45293</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C88" s="120"/>
       <c r="D88" s="120"/>
       <c r="E88" s="136">
-        <v>-500</v>
+        <v>-480</v>
       </c>
       <c r="F88" s="92"/>
       <c r="G88" s="92"/>
       <c r="H88" s="92"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="122"/>
+      <c r="A89" s="122">
+        <v>45293</v>
+      </c>
       <c r="B89" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C89" s="120">
-        <v>12474.55</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C89" s="120"/>
       <c r="D89" s="120"/>
-      <c r="E89" s="136"/>
+      <c r="E89" s="136">
+        <v>-1200</v>
+      </c>
       <c r="F89" s="92"/>
       <c r="G89" s="92"/>
       <c r="H89" s="92"/>
@@ -14134,44 +14286,42 @@
         <v>45293</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C90" s="120"/>
       <c r="D90" s="120"/>
       <c r="E90" s="136">
-        <v>-150</v>
+        <v>-500</v>
       </c>
       <c r="F90" s="92"/>
       <c r="G90" s="92"/>
       <c r="H90" s="92"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="122">
-        <v>45291</v>
-      </c>
+      <c r="A91" s="122"/>
       <c r="B91" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="C91" s="120"/>
+        <v>149</v>
+      </c>
+      <c r="C91" s="120">
+        <v>12474.55</v>
+      </c>
       <c r="D91" s="120"/>
-      <c r="E91" s="136">
-        <v>-60</v>
-      </c>
+      <c r="E91" s="136"/>
       <c r="F91" s="92"/>
       <c r="G91" s="92"/>
       <c r="H91" s="92"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="122">
-        <v>45290</v>
+        <v>45293</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C92" s="120"/>
       <c r="D92" s="120"/>
       <c r="E92" s="136">
-        <v>-73</v>
+        <v>-150</v>
       </c>
       <c r="F92" s="92"/>
       <c r="G92" s="92"/>
@@ -14179,15 +14329,15 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="122">
-        <v>45290</v>
+        <v>45291</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C93" s="120"/>
       <c r="D93" s="120"/>
       <c r="E93" s="136">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="F93" s="92"/>
       <c r="G93" s="92"/>
@@ -14195,15 +14345,15 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="122">
-        <v>45289</v>
+        <v>45290</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C94" s="120"/>
       <c r="D94" s="120"/>
       <c r="E94" s="136">
-        <v>-944</v>
+        <v>-73</v>
       </c>
       <c r="F94" s="92"/>
       <c r="G94" s="92"/>
@@ -14211,15 +14361,15 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="122">
-        <v>45288</v>
+        <v>45290</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C95" s="120"/>
       <c r="D95" s="120"/>
       <c r="E95" s="136">
-        <v>-140</v>
+        <v>-100</v>
       </c>
       <c r="F95" s="92"/>
       <c r="G95" s="92"/>
@@ -14227,15 +14377,15 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="122">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C96" s="120"/>
       <c r="D96" s="120"/>
       <c r="E96" s="136">
-        <v>-1570.18</v>
+        <v>-944</v>
       </c>
       <c r="F96" s="92"/>
       <c r="G96" s="92"/>
@@ -14246,12 +14396,12 @@
         <v>45288</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C97" s="120"/>
       <c r="D97" s="120"/>
       <c r="E97" s="136">
-        <v>-169.27</v>
+        <v>-140</v>
       </c>
       <c r="F97" s="92"/>
       <c r="G97" s="92"/>
@@ -14262,12 +14412,12 @@
         <v>45288</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C98" s="120"/>
       <c r="D98" s="120"/>
       <c r="E98" s="136">
-        <v>-800</v>
+        <v>-1570.18</v>
       </c>
       <c r="F98" s="92"/>
       <c r="G98" s="92"/>
@@ -14275,7 +14425,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="122">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B99" s="42" t="s">
         <v>356</v>
@@ -14283,7 +14433,7 @@
       <c r="C99" s="120"/>
       <c r="D99" s="120"/>
       <c r="E99" s="136">
-        <v>-438.05</v>
+        <v>-169.27</v>
       </c>
       <c r="F99" s="92"/>
       <c r="G99" s="92"/>
@@ -14291,17 +14441,15 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="122">
-        <v>45653</v>
+        <v>45288</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C100" s="120"/>
-      <c r="D100" s="120">
-        <v>185</v>
-      </c>
+      <c r="D100" s="120"/>
       <c r="E100" s="136">
-        <v>-185</v>
+        <v>-800</v>
       </c>
       <c r="F100" s="92"/>
       <c r="G100" s="92"/>
@@ -14309,17 +14457,15 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="122">
-        <v>45653</v>
+        <v>45287</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C101" s="120"/>
-      <c r="D101" s="120">
-        <v>25.85</v>
-      </c>
+      <c r="D101" s="120"/>
       <c r="E101" s="136">
-        <v>-25.85</v>
+        <v>-438.05</v>
       </c>
       <c r="F101" s="92"/>
       <c r="G101" s="92"/>
@@ -14327,15 +14473,17 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="122">
-        <v>45286</v>
+        <v>45653</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C102" s="120"/>
-      <c r="D102" s="120"/>
+      <c r="D102" s="120">
+        <v>185</v>
+      </c>
       <c r="E102" s="136">
-        <v>-160</v>
+        <v>-185</v>
       </c>
       <c r="F102" s="92"/>
       <c r="G102" s="92"/>
@@ -14343,15 +14491,17 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="122">
-        <v>45286</v>
+        <v>45653</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C103" s="120"/>
-      <c r="D103" s="120"/>
+      <c r="D103" s="120">
+        <v>25.85</v>
+      </c>
       <c r="E103" s="136">
-        <v>-300</v>
+        <v>-25.85</v>
       </c>
       <c r="F103" s="92"/>
       <c r="G103" s="92"/>
@@ -14359,45 +14509,49 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="122">
-        <v>45651</v>
+        <v>45286</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C104" s="120"/>
-      <c r="D104" s="120">
-        <v>112.64</v>
-      </c>
+      <c r="D104" s="120"/>
       <c r="E104" s="136">
-        <v>-112.64</v>
+        <v>-160</v>
       </c>
       <c r="F104" s="92"/>
       <c r="G104" s="92"/>
       <c r="H104" s="92"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="122"/>
+      <c r="A105" s="122">
+        <v>45286</v>
+      </c>
       <c r="B105" s="42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C105" s="120"/>
       <c r="D105" s="120"/>
       <c r="E105" s="136">
-        <v>-193</v>
+        <v>-300</v>
       </c>
       <c r="F105" s="92"/>
       <c r="G105" s="92"/>
       <c r="H105" s="92"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="122"/>
+      <c r="A106" s="122">
+        <v>45651</v>
+      </c>
       <c r="B106" s="42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C106" s="120"/>
-      <c r="D106" s="120"/>
+      <c r="D106" s="120">
+        <v>112.64</v>
+      </c>
       <c r="E106" s="136">
-        <v>-5517.52</v>
+        <v>-112.64</v>
       </c>
       <c r="F106" s="92"/>
       <c r="G106" s="92"/>
@@ -14406,12 +14560,12 @@
     <row r="107" spans="1:8">
       <c r="A107" s="122"/>
       <c r="B107" s="42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C107" s="120"/>
       <c r="D107" s="120"/>
       <c r="E107" s="136">
-        <v>-105</v>
+        <v>-193</v>
       </c>
       <c r="F107" s="92"/>
       <c r="G107" s="92"/>
@@ -14420,12 +14574,12 @@
     <row r="108" spans="1:8">
       <c r="A108" s="122"/>
       <c r="B108" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C108" s="120"/>
       <c r="D108" s="120"/>
       <c r="E108" s="136">
-        <v>-54</v>
+        <v>-5517.52</v>
       </c>
       <c r="F108" s="92"/>
       <c r="G108" s="92"/>
@@ -14433,127 +14587,180 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="122"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="146" t="s">
-        <v>366</v>
-      </c>
-      <c r="D109" s="131">
-        <f>SUM(D100:D108)</f>
-        <v>323.49</v>
-      </c>
-      <c r="E109" s="136"/>
+      <c r="B109" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" s="120"/>
+      <c r="D109" s="120"/>
+      <c r="E109" s="136">
+        <v>-105</v>
+      </c>
       <c r="F109" s="92"/>
       <c r="G109" s="92"/>
       <c r="H109" s="92"/>
     </row>
-    <row r="110" spans="1:8" ht="15">
+    <row r="110" spans="1:8">
       <c r="A110" s="122"/>
-      <c r="B110" s="42"/>
+      <c r="B110" s="42" t="s">
+        <v>365</v>
+      </c>
       <c r="C110" s="120"/>
-      <c r="D110" s="144" t="s">
-        <v>341</v>
-      </c>
-      <c r="E110" s="136"/>
+      <c r="D110" s="120"/>
+      <c r="E110" s="136">
+        <v>-54</v>
+      </c>
       <c r="F110" s="92"/>
       <c r="G110" s="92"/>
       <c r="H110" s="92"/>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="107"/>
-      <c r="B112" s="106" t="s">
+    <row r="111" spans="1:8">
+      <c r="A111" s="122"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="146" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" s="131">
+        <f>SUM(D102:D110)</f>
+        <v>323.49</v>
+      </c>
+      <c r="E111" s="136"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="92"/>
+      <c r="H111" s="92"/>
+    </row>
+    <row r="112" spans="1:8" ht="15">
+      <c r="A112" s="122"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="120"/>
+      <c r="D112" s="144" t="s">
+        <v>341</v>
+      </c>
+      <c r="E112" s="136"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="92"/>
+      <c r="H112" s="92"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="107"/>
+      <c r="B114" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="C112" s="107"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="142">
-        <f>SUM(E113:E120)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="122"/>
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="122"/>
-      <c r="B114" t="s">
-        <v>1</v>
+      <c r="C114" s="107"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="142">
+        <f>SUM(E115:E125)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="122"/>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="122"/>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="122"/>
+      <c r="A117" s="122">
+        <v>45337</v>
+      </c>
       <c r="B117" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117">
-        <v>111</v>
-      </c>
-      <c r="E117" s="134">
-        <f>D117*C117</f>
-        <v>0</v>
+        <v>1225</v>
+      </c>
+      <c r="C117">
+        <v>15000</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="122"/>
+      <c r="A118" s="122">
+        <v>45338</v>
+      </c>
       <c r="B118" t="s">
-        <v>255</v>
-      </c>
-      <c r="D118">
-        <v>850</v>
-      </c>
-      <c r="E118" s="134">
-        <f>D118*C118</f>
-        <v>0</v>
+        <v>1225</v>
+      </c>
+      <c r="C118">
+        <v>15000</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="122"/>
-      <c r="B119" t="s">
-        <v>256</v>
-      </c>
-      <c r="D119">
-        <v>100</v>
-      </c>
-      <c r="E119" s="134">
-        <f>D119*C119</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="122"/>
       <c r="B120" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="122"/>
+      <c r="B121" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="122"/>
+      <c r="B122" t="s">
+        <v>254</v>
+      </c>
+      <c r="D122">
+        <v>111</v>
+      </c>
+      <c r="E122" s="134">
+        <f>D122*C122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="122"/>
+      <c r="B123" t="s">
+        <v>255</v>
+      </c>
+      <c r="D123">
+        <v>850</v>
+      </c>
+      <c r="E123" s="134">
+        <f>D123*C123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="122"/>
+      <c r="B124" t="s">
+        <v>256</v>
+      </c>
+      <c r="D124">
+        <v>100</v>
+      </c>
+      <c r="E124" s="134">
+        <f>D124*C124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="122"/>
+      <c r="B125" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="B121" t="s">
+    <row r="126" spans="1:5">
+      <c r="B126" t="s">
         <v>258</v>
       </c>
-      <c r="E121" s="134">
+      <c r="E126" s="134">
         <f>H2</f>
         <v>-43563.7</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="D123" s="99" t="s">
+    <row r="128" spans="1:5">
+      <c r="D128" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="E123" s="134">
-        <f>SUM(E113:E122)</f>
+      <c r="E128" s="134">
+        <f>SUM(E115:E127)</f>
         <v>-43563.7</v>
       </c>
     </row>
@@ -14574,8 +14781,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -15269,7 +15476,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
-        <v>246</v>
+        <v>1223</v>
       </c>
       <c r="D51" s="136">
         <v>1282.42</v>
@@ -53671,7 +53878,7 @@
       </c>
       <c r="M4" s="67"/>
       <c r="N4">
-        <f>'02_24'!E116/1000</f>
+        <f>'02_24'!E121/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -53685,11 +53892,11 @@
       </c>
       <c r="C5" s="61">
         <f>'03_24'!E2</f>
-        <v>-115783.52</v>
+        <v>-179517.19</v>
       </c>
       <c r="D5" s="62">
         <f t="shared" si="0"/>
-        <v>145640.83999999997</v>
+        <v>81907.169999999984</v>
       </c>
       <c r="E5" s="61">
         <f>'03_24'!F2</f>
@@ -53735,7 +53942,7 @@
       </c>
       <c r="D6" s="62">
         <f t="shared" si="0"/>
-        <v>128187.56999999996</v>
+        <v>64453.89999999998</v>
       </c>
       <c r="E6" s="61">
         <f>'04_24'!F2</f>
@@ -53778,7 +53985,7 @@
       </c>
       <c r="D7" s="62">
         <f t="shared" si="0"/>
-        <v>111334.29999999996</v>
+        <v>47600.629999999976</v>
       </c>
       <c r="E7" s="61">
         <f>'05_24'!F2</f>
@@ -53821,7 +54028,7 @@
       </c>
       <c r="D8" s="62">
         <f t="shared" si="0"/>
-        <v>89261.029999999955</v>
+        <v>25527.359999999971</v>
       </c>
       <c r="E8" s="61">
         <f>'06_24'!F2</f>
@@ -53867,7 +54074,7 @@
       </c>
       <c r="D9" s="62">
         <f t="shared" si="0"/>
-        <v>73037.569999999949</v>
+        <v>9303.8999999999724</v>
       </c>
       <c r="E9" s="61">
         <f>'07_24'!F2</f>
@@ -53916,7 +54123,7 @@
       </c>
       <c r="D10" s="62">
         <f t="shared" si="0"/>
-        <v>209865.76999999996</v>
+        <v>146132.09999999998</v>
       </c>
       <c r="E10" s="61">
         <f>'08_24'!F2</f>
@@ -53962,7 +54169,7 @@
       </c>
       <c r="D11" s="62">
         <f t="shared" si="0"/>
-        <v>347293.76999999996</v>
+        <v>283560.09999999998</v>
       </c>
       <c r="E11" s="61">
         <f>'09_24'!F2</f>
@@ -54011,7 +54218,7 @@
       </c>
       <c r="D12" s="62">
         <f t="shared" si="0"/>
-        <v>360721.76999999996</v>
+        <v>296988.09999999998</v>
       </c>
       <c r="E12" s="61">
         <f>'10_24'!F2</f>
@@ -54060,7 +54267,7 @@
       </c>
       <c r="D13" s="62">
         <f t="shared" si="0"/>
-        <v>604149.77</v>
+        <v>540416.1</v>
       </c>
       <c r="E13" s="61">
         <f>'11_24'!F2</f>
@@ -54109,7 +54316,7 @@
       </c>
       <c r="D14" s="62">
         <f t="shared" si="0"/>
-        <v>596547.01</v>
+        <v>532813.34</v>
       </c>
       <c r="E14" s="61">
         <f>'12_24'!F2</f>
@@ -54154,11 +54361,11 @@
       </c>
       <c r="C15" s="62">
         <f>SUM(C3:C14)</f>
-        <v>-714172.96000000008</v>
+        <v>-777906.63000000012</v>
       </c>
       <c r="D15" s="62">
         <f>B15+C15</f>
-        <v>596547.00999999989</v>
+        <v>532813.33999999985</v>
       </c>
       <c r="E15" s="62">
         <f>SUM(E3:E14)</f>
@@ -54201,7 +54408,7 @@
       </c>
       <c r="C16" s="84">
         <f>C15/A16</f>
-        <v>-59514.413333333338</v>
+        <v>-64825.552500000013</v>
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="84">
@@ -54259,7 +54466,7 @@
         <v>191</v>
       </c>
       <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F30+'02_24'!F31+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
+        <f>'01_24'!F27+'02_24'!F13+'02_24'!F33+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
         <v>10427.619999999999</v>
       </c>
       <c r="J18" s="64"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93A7CB1-5A97-4391-A3D6-35FC1AAD077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5B399-E533-4D09-834B-398AB77A709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -4943,7 +4943,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5405,16 +5405,18 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="44" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="2" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="18" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="18" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -11902,7 +11904,7 @@
       <c r="C8" s="118" t="s">
         <v>1230</v>
       </c>
-      <c r="E8" s="329">
+      <c r="E8" s="327">
         <v>-250</v>
       </c>
       <c r="G8" s="92"/>
@@ -13108,10 +13110,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -13143,24 +13145,24 @@
         <v>217</v>
       </c>
       <c r="D2" s="136">
-        <f>SUM(D4:D40)</f>
-        <v>19455.370000000003</v>
+        <f>SUM(D4:D33)</f>
+        <v>19455.37</v>
       </c>
       <c r="E2" s="136">
-        <f>SUM(E4:E40)</f>
+        <f>SUM(E4:E33)</f>
         <v>-65325.849999999991</v>
       </c>
       <c r="F2" s="136">
-        <f>SUM(F4:F40)</f>
-        <v>7316.04</v>
+        <f>SUM(F4:F33)</f>
+        <v>10116.040000000001</v>
       </c>
       <c r="G2" s="136">
-        <f>SUM(G4:G40)</f>
-        <v>-53629.74</v>
+        <f>SUM(G4:G33)</f>
+        <v>-54434.74</v>
       </c>
       <c r="H2" s="136">
         <f>F2+G2</f>
-        <v>-46313.7</v>
+        <v>-44318.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13185,7 +13187,7 @@
         <v>-167</v>
       </c>
       <c r="H4" s="136">
-        <f t="shared" ref="H4:H39" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H29" si="0">H3+F4+G4</f>
         <v>-167</v>
       </c>
     </row>
@@ -13278,7 +13280,7 @@
         <v>229</v>
       </c>
       <c r="E9" s="138">
-        <f>E56</f>
+        <f>E49</f>
         <v>-3900.5699999999997</v>
       </c>
       <c r="F9" s="138"/>
@@ -13299,7 +13301,7 @@
         <v>230</v>
       </c>
       <c r="E10" s="138">
-        <f>E73</f>
+        <f>E66</f>
         <v>-24792.94</v>
       </c>
       <c r="F10" s="138"/>
@@ -13482,7 +13484,7 @@
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="138">
-        <f>E51*-1</f>
+        <f>E44*-1</f>
         <v>-67.09</v>
       </c>
       <c r="G19" s="134">
@@ -13495,491 +13497,498 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="324"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
+      <c r="A20" s="324">
+        <v>45341</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="120">
+        <v>138.75</v>
+      </c>
+      <c r="E20" s="138">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138">
+        <v>-1734</v>
+      </c>
       <c r="H20" s="136">
         <f t="shared" si="0"/>
-        <v>-44579.7</v>
+        <v>-46313.7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="139"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="118"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
+      <c r="A21" s="139">
+        <v>45341</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="333">
+        <v>2800</v>
+      </c>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138">
+        <v>2800</v>
+      </c>
       <c r="G21" s="136"/>
       <c r="H21" s="136">
         <f t="shared" si="0"/>
-        <v>-44579.7</v>
+        <v>-43513.7</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="H22" s="136">
         <f t="shared" si="0"/>
-        <v>-44579.7</v>
+        <v>-43513.7</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="118" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="136">
-        <v>-400</v>
-      </c>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
       <c r="H23" s="136">
         <f t="shared" si="0"/>
-        <v>-44579.7</v>
+        <v>-43513.7</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
       <c r="E24" s="136">
-        <v>-500</v>
+        <v>-5000</v>
       </c>
       <c r="F24" s="136"/>
       <c r="G24" s="136"/>
       <c r="H24" s="136">
         <f t="shared" si="0"/>
-        <v>-44579.7</v>
+        <v>-43513.7</v>
       </c>
     </row>
     <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="136">
+        <v>-5000</v>
+      </c>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
       <c r="H25" s="136">
         <f t="shared" si="0"/>
-        <v>-44579.7</v>
+        <v>-43513.7</v>
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="136">
+        <v>-5000</v>
+      </c>
       <c r="F26" s="136"/>
-      <c r="G26" s="136">
-        <v>0</v>
-      </c>
+      <c r="G26" s="136"/>
       <c r="H26" s="136">
         <f t="shared" si="0"/>
-        <v>-44579.7</v>
+        <v>-43513.7</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="324">
-        <v>45341</v>
-      </c>
-      <c r="B27" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="120">
-        <v>138.75</v>
-      </c>
-      <c r="E27" s="136">
+      <c r="B27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="117">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="136">
+        <v>0</v>
+      </c>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136">
+        <f t="shared" si="0"/>
+        <v>-43513.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="117">
+        <v>6500</v>
+      </c>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136">
+        <f t="shared" si="0"/>
+        <v>-43513.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="122"/>
+      <c r="H29" s="136">
+        <f t="shared" si="0"/>
+        <v>-43513.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="324">
+        <v>45351</v>
+      </c>
+      <c r="B30" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="136">
+        <v>-400</v>
+      </c>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136">
         <v>-300</v>
       </c>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136">
-        <v>-1734</v>
-      </c>
-      <c r="H27" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="H28" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="136">
-        <v>-5000</v>
-      </c>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="136">
-        <v>-5000</v>
-      </c>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
       <c r="H30" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
+        <f t="shared" ref="H30:H31" si="1">H29+F39+G39</f>
+        <v>-43513.7</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>234</v>
-      </c>
+      <c r="A31" s="324">
+        <v>45351</v>
+      </c>
+      <c r="B31" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="136">
-        <v>-5000</v>
+        <v>-500</v>
       </c>
       <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
+      <c r="G31" s="136">
+        <v>-505</v>
+      </c>
       <c r="H31" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
+        <f t="shared" si="1"/>
+        <v>-43513.7</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="E32" s="136"/>
+      <c r="D32" s="92"/>
       <c r="F32" s="136"/>
       <c r="G32" s="136"/>
       <c r="H32" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="G33" s="136"/>
-      <c r="H33" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
+        <f t="shared" ref="H32" si="2">H31+F41+G41</f>
+        <v>-43513.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
+      <c r="B33" s="126"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="117">
-        <v>10000</v>
-      </c>
-      <c r="F34" s="136">
-        <v>0</v>
-      </c>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="122"/>
       <c r="B35" t="s">
-        <v>236</v>
-      </c>
-      <c r="D35" s="117">
-        <v>2800</v>
-      </c>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="122"/>
-      <c r="B36" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" s="117">
-        <v>6500</v>
-      </c>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="G37" s="136"/>
-      <c r="H37" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
+      <c r="A36" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="141"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1">
+      <c r="A37" s="122"/>
+      <c r="C37" s="123"/>
+      <c r="E37" s="138"/>
+      <c r="H37" s="92"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="D38" s="124"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
+      <c r="A38" s="127">
+        <v>44929</v>
+      </c>
+      <c r="B38" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="107"/>
+      <c r="D38" s="129">
+        <f>SUM(D39:D44)</f>
+        <v>3749.5300000000007</v>
+      </c>
+      <c r="E38" s="142">
+        <f>SUM(E39:E44)</f>
+        <v>3837.4900000000002</v>
+      </c>
+      <c r="H38" s="92"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="D39" s="92"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136">
-        <f t="shared" si="0"/>
-        <v>-46313.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="B40" s="126"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1">
+        <v>999.4</v>
+      </c>
+      <c r="E39" s="134">
+        <v>999.4</v>
+      </c>
+      <c r="H39" s="92"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="1">
+        <v>876.64</v>
+      </c>
+      <c r="E40" s="134">
+        <v>875</v>
+      </c>
       <c r="F40" s="92"/>
       <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
     </row>
     <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="1">
+        <v>431.36</v>
+      </c>
+      <c r="E41" s="134">
+        <v>431</v>
+      </c>
+      <c r="F41" s="92"/>
       <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
     </row>
     <row r="42" spans="1:8">
+      <c r="A42" s="324">
+        <v>45334</v>
+      </c>
       <c r="B42" t="s">
-        <v>239</v>
-      </c>
+        <v>1217</v>
+      </c>
+      <c r="C42" s="134">
+        <f>E42-D42</f>
+        <v>90.67999999999995</v>
+      </c>
+      <c r="D42" s="1">
+        <v>891.32</v>
+      </c>
+      <c r="E42" s="134">
+        <v>982</v>
+      </c>
+      <c r="F42" s="92"/>
       <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="141"/>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" s="1">
+        <v>483.72</v>
+      </c>
+      <c r="E43" s="134">
+        <v>483</v>
+      </c>
+      <c r="F43" s="92"/>
       <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
-      <c r="A44" s="122"/>
-      <c r="C44" s="123"/>
-      <c r="E44" s="138"/>
-      <c r="H44" s="92"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="120"/>
+      <c r="D44" s="1">
+        <v>67.09</v>
+      </c>
+      <c r="E44" s="143">
+        <v>67.09</v>
+      </c>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="127">
-        <v>44929</v>
-      </c>
-      <c r="B45" s="128" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="129">
-        <f>SUM(D46:D51)</f>
-        <v>3749.5300000000007</v>
-      </c>
-      <c r="E45" s="142">
-        <f>SUM(E46:E51)</f>
-        <v>3837.4900000000002</v>
-      </c>
-      <c r="H45" s="92"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="122"/>
-      <c r="B46" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="1">
-        <v>999.4</v>
-      </c>
-      <c r="E46" s="134">
-        <v>999.4</v>
-      </c>
-      <c r="H46" s="92"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="1">
-        <v>876.64</v>
-      </c>
-      <c r="E47" s="134">
-        <v>875</v>
-      </c>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
+      <c r="B47" s="100"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D48" s="1">
-        <v>431.36</v>
-      </c>
-      <c r="E48" s="134">
-        <v>431</v>
-      </c>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
+      <c r="B48" s="117"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="324">
-        <v>45334</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C49" s="134">
-        <f>E49-D49</f>
-        <v>90.67999999999995</v>
-      </c>
-      <c r="D49" s="1">
-        <v>891.32</v>
-      </c>
-      <c r="E49" s="134">
-        <v>982</v>
-      </c>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="106" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="107"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="142">
+        <f>SUM(E50:E63)</f>
+        <v>-3900.5699999999997</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="1">
-        <v>483.72</v>
-      </c>
-      <c r="E50" s="134">
-        <v>483</v>
-      </c>
-      <c r="F50" s="92"/>
       <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="B51" t="s">
-        <v>247</v>
-      </c>
+      <c r="A51" s="110"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="120"/>
-      <c r="D51" s="1">
-        <v>67.09</v>
-      </c>
-      <c r="E51" s="143">
-        <v>67.09</v>
-      </c>
+      <c r="D51" s="64"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="92"/>
       <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="92"/>
+      <c r="A52" s="110">
+        <v>45043</v>
+      </c>
+      <c r="B52" s="120" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" s="120">
+        <v>10764.57</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52" s="136">
+        <v>-1196.0899999999999</v>
+      </c>
       <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B53" s="120" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="120">
+        <v>7648.33</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" s="136">
+        <v>-849.81</v>
+      </c>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="B54" s="100"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="117"/>
+      <c r="A54" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B54" s="120" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="120">
+        <v>11128</v>
+      </c>
+      <c r="D54" s="130" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54" s="136">
+        <v>-1854.67</v>
+      </c>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+    </row>
+    <row r="55" spans="1:8" ht="15">
+      <c r="D55" s="144" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="107"/>
-      <c r="B56" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="107"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="142">
-        <f>SUM(E57:E70)</f>
-        <v>-3900.5699999999997</v>
-      </c>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
     </row>
     <row r="57" spans="1:8">
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="110"/>
+      <c r="A58" s="122"/>
       <c r="B58" s="120"/>
       <c r="C58" s="120"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="136"/>
+      <c r="D58" s="120"/>
       <c r="F58" s="92"/>
       <c r="G58" s="92"/>
       <c r="H58" s="92"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="110">
-        <v>45043</v>
-      </c>
-      <c r="B59" s="120" t="s">
-        <v>334</v>
-      </c>
-      <c r="C59" s="120">
-        <v>10764.57</v>
-      </c>
-      <c r="D59" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="E59" s="136">
-        <v>-1196.0899999999999</v>
-      </c>
+      <c r="A59" s="122"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="F59" s="92"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B60" s="120" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" s="120">
-        <v>7648.33</v>
-      </c>
-      <c r="D60" s="130" t="s">
-        <v>335</v>
-      </c>
-      <c r="E60" s="136">
-        <v>-849.81</v>
-      </c>
+      <c r="A60" s="122"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="F60" s="92"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B61" s="120" t="s">
-        <v>310</v>
-      </c>
-      <c r="C61" s="120">
-        <v>11128</v>
-      </c>
-      <c r="D61" s="130" t="s">
-        <v>336</v>
-      </c>
-      <c r="E61" s="136">
-        <v>-1854.67</v>
-      </c>
+      <c r="A61" s="122"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
+      <c r="F61" s="92"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
     </row>
-    <row r="62" spans="1:8" ht="15">
-      <c r="D62" s="144" t="s">
-        <v>337</v>
-      </c>
+    <row r="62" spans="1:8">
+      <c r="A62" s="122"/>
+      <c r="B62" s="131"/>
+      <c r="F62" s="92"/>
       <c r="G62" s="92"/>
       <c r="H62" s="92"/>
     </row>
     <row r="63" spans="1:8">
+      <c r="A63" s="122"/>
+      <c r="B63" s="131"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="120"/>
+      <c r="F63" s="92"/>
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
     </row>
     <row r="64" spans="1:8">
+      <c r="A64" s="122"/>
+      <c r="B64" s="42"/>
+      <c r="F64" s="92"/>
       <c r="G64" s="92"/>
       <c r="H64" s="92"/>
     </row>
@@ -13993,264 +14002,311 @@
       <c r="H65" s="92"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="122"/>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="145">
+        <f>SUM(E67:E104)</f>
+        <v>-24792.94</v>
+      </c>
       <c r="F66" s="92"/>
       <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="122"/>
-      <c r="B67" s="131"/>
+      <c r="B67" s="120"/>
       <c r="C67" s="120"/>
-      <c r="D67" s="120"/>
+      <c r="E67" s="136"/>
       <c r="F67" s="92"/>
       <c r="G67" s="92"/>
       <c r="H67" s="92"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="122"/>
-      <c r="B68" s="131"/>
+      <c r="A68" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B68" s="120" t="s">
+        <v>312</v>
+      </c>
       <c r="C68" s="120"/>
-      <c r="D68" s="120"/>
-      <c r="F68" s="92"/>
+      <c r="D68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" s="136">
+        <v>-3974.44</v>
+      </c>
       <c r="G68" s="92"/>
       <c r="H68" s="92"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="122"/>
-      <c r="B69" s="131"/>
+      <c r="A69" s="4">
+        <v>45214</v>
+      </c>
+      <c r="B69" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" t="s">
+        <v>339</v>
+      </c>
+      <c r="E69" s="136">
+        <v>-600</v>
+      </c>
       <c r="F69" s="92"/>
       <c r="G69" s="92"/>
       <c r="H69" s="92"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="122"/>
-      <c r="B70" s="131"/>
+      <c r="A70" s="4">
+        <v>45285</v>
+      </c>
+      <c r="B70" s="120" t="s">
+        <v>274</v>
+      </c>
       <c r="C70" s="120"/>
-      <c r="D70" s="120"/>
+      <c r="D70" t="s">
+        <v>340</v>
+      </c>
+      <c r="E70" s="136">
+        <v>-3551.66</v>
+      </c>
       <c r="F70" s="92"/>
       <c r="G70" s="92"/>
       <c r="H70" s="92"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="122"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B71" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="134">
+        <v>-1204.5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>341</v>
+      </c>
+      <c r="E71" s="136">
+        <v>-401.5</v>
+      </c>
       <c r="F71" s="92"/>
       <c r="G71" s="92"/>
       <c r="H71" s="92"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="122"/>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
-      <c r="D72" s="120"/>
+      <c r="A72" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B72" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" s="134">
+        <v>-148.6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>341</v>
+      </c>
+      <c r="E72" s="136">
+        <v>-49.53</v>
+      </c>
       <c r="F72" s="92"/>
       <c r="G72" s="92"/>
       <c r="H72" s="92"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="107"/>
-      <c r="B73" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="C73" s="107"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="145">
-        <f>SUM(E74:E111)</f>
-        <v>-24792.94</v>
+      <c r="A73" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="134">
+        <v>-244.8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>341</v>
+      </c>
+      <c r="E73" s="136">
+        <v>-81.599999999999994</v>
       </c>
       <c r="F73" s="92"/>
       <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="122"/>
-      <c r="B74" s="120"/>
-      <c r="C74" s="120"/>
-      <c r="E74" s="136"/>
+      <c r="A74" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B74" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74" s="134">
+        <v>-532.6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>341</v>
+      </c>
+      <c r="E74" s="136">
+        <v>-177.53</v>
+      </c>
       <c r="F74" s="92"/>
       <c r="G74" s="92"/>
       <c r="H74" s="92"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="122">
-        <v>45187</v>
-      </c>
+      <c r="A75" s="4"/>
       <c r="B75" s="120" t="s">
-        <v>312</v>
-      </c>
-      <c r="C75" s="120"/>
+        <v>153</v>
+      </c>
+      <c r="C75" s="120">
+        <v>899</v>
+      </c>
       <c r="D75" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E75" s="136">
-        <v>-3974.44</v>
-      </c>
+        <v>-449.5</v>
+      </c>
+      <c r="F75" s="92"/>
       <c r="G75" s="92"/>
       <c r="H75" s="92"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="4">
-        <v>45214</v>
-      </c>
-      <c r="B76" t="s">
-        <v>299</v>
-      </c>
+      <c r="A76" s="4"/>
+      <c r="B76" s="120" t="s">
+        <v>322</v>
+      </c>
+      <c r="C76" s="120"/>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E76" s="136">
-        <v>-600</v>
+        <v>-299.64</v>
       </c>
       <c r="F76" s="92"/>
       <c r="G76" s="92"/>
       <c r="H76" s="92"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="4">
-        <v>45285</v>
-      </c>
+      <c r="A77" s="4"/>
       <c r="B77" s="120" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="C77" s="120"/>
       <c r="D77" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E77" s="136">
-        <v>-3551.66</v>
+        <v>-546.83000000000004</v>
       </c>
       <c r="F77" s="92"/>
       <c r="G77" s="92"/>
       <c r="H77" s="92"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B78" t="s">
-        <v>316</v>
-      </c>
-      <c r="C78" s="134">
-        <v>-1204.5</v>
-      </c>
-      <c r="D78" t="s">
-        <v>341</v>
-      </c>
-      <c r="E78" s="136">
-        <v>-401.5</v>
-      </c>
+      <c r="A78" s="122"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="136"/>
       <c r="F78" s="92"/>
       <c r="G78" s="92"/>
       <c r="H78" s="92"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B79" t="s">
-        <v>318</v>
-      </c>
-      <c r="C79" s="134">
-        <v>-148.6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>341</v>
-      </c>
+      <c r="A79" s="122">
+        <v>45312</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="C79" s="120"/>
+      <c r="D79" s="120"/>
       <c r="E79" s="136">
-        <v>-49.53</v>
+        <v>-505</v>
       </c>
       <c r="F79" s="92"/>
       <c r="G79" s="92"/>
       <c r="H79" s="92"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B80" t="s">
-        <v>319</v>
-      </c>
-      <c r="C80" s="134">
-        <v>-244.8</v>
-      </c>
-      <c r="D80" t="s">
-        <v>341</v>
-      </c>
+      <c r="A80" s="122">
+        <v>45312</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="C80" s="120"/>
+      <c r="D80" s="120"/>
       <c r="E80" s="136">
-        <v>-81.599999999999994</v>
+        <v>-223.2</v>
       </c>
       <c r="F80" s="92"/>
       <c r="G80" s="92"/>
       <c r="H80" s="92"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B81" t="s">
-        <v>320</v>
-      </c>
-      <c r="C81" s="134">
-        <v>-532.6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>341</v>
-      </c>
+      <c r="A81" s="122">
+        <v>45310</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" s="120"/>
+      <c r="D81" s="120"/>
       <c r="E81" s="136">
-        <v>-177.53</v>
+        <v>-655</v>
       </c>
       <c r="F81" s="92"/>
       <c r="G81" s="92"/>
       <c r="H81" s="92"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="4"/>
-      <c r="B82" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="120">
-        <v>899</v>
-      </c>
-      <c r="D82" t="s">
-        <v>342</v>
-      </c>
+      <c r="A82" s="122">
+        <v>45293</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="C82" s="120"/>
+      <c r="D82" s="120"/>
       <c r="E82" s="136">
-        <v>-449.5</v>
+        <v>-480</v>
       </c>
       <c r="F82" s="92"/>
       <c r="G82" s="92"/>
       <c r="H82" s="92"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="4"/>
-      <c r="B83" s="120" t="s">
-        <v>322</v>
+      <c r="A83" s="122">
+        <v>45293</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>346</v>
       </c>
       <c r="C83" s="120"/>
-      <c r="D83" t="s">
-        <v>342</v>
-      </c>
+      <c r="D83" s="120"/>
       <c r="E83" s="136">
-        <v>-299.64</v>
+        <v>-1200</v>
       </c>
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
       <c r="H83" s="92"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="4"/>
-      <c r="B84" s="120" t="s">
-        <v>323</v>
+      <c r="A84" s="122">
+        <v>45293</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>346</v>
       </c>
       <c r="C84" s="120"/>
-      <c r="D84" t="s">
-        <v>342</v>
-      </c>
+      <c r="D84" s="120"/>
       <c r="E84" s="136">
-        <v>-546.83000000000004</v>
+        <v>-500</v>
       </c>
       <c r="F84" s="92"/>
       <c r="G84" s="92"/>
@@ -14258,8 +14314,12 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="122"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="120"/>
+      <c r="B85" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="120">
+        <v>12474.55</v>
+      </c>
       <c r="D85" s="120"/>
       <c r="E85" s="136"/>
       <c r="F85" s="92"/>
@@ -14268,15 +14328,15 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="122">
-        <v>45312</v>
+        <v>45293</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C86" s="120"/>
       <c r="D86" s="120"/>
       <c r="E86" s="136">
-        <v>-505</v>
+        <v>-150</v>
       </c>
       <c r="F86" s="92"/>
       <c r="G86" s="92"/>
@@ -14284,15 +14344,15 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="122">
-        <v>45312</v>
+        <v>45291</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C87" s="120"/>
       <c r="D87" s="120"/>
       <c r="E87" s="136">
-        <v>-223.2</v>
+        <v>-60</v>
       </c>
       <c r="F87" s="92"/>
       <c r="G87" s="92"/>
@@ -14300,15 +14360,15 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="122">
-        <v>45310</v>
+        <v>45290</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C88" s="120"/>
       <c r="D88" s="120"/>
       <c r="E88" s="136">
-        <v>-655</v>
+        <v>-73</v>
       </c>
       <c r="F88" s="92"/>
       <c r="G88" s="92"/>
@@ -14316,15 +14376,15 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="122">
-        <v>45293</v>
+        <v>45290</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C89" s="120"/>
       <c r="D89" s="120"/>
       <c r="E89" s="136">
-        <v>-480</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="92"/>
       <c r="G89" s="92"/>
@@ -14332,15 +14392,15 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="122">
-        <v>45293</v>
+        <v>45289</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C90" s="120"/>
       <c r="D90" s="120"/>
       <c r="E90" s="136">
-        <v>-1200</v>
+        <v>-944</v>
       </c>
       <c r="F90" s="92"/>
       <c r="G90" s="92"/>
@@ -14348,45 +14408,47 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="122">
-        <v>45293</v>
+        <v>45288</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C91" s="120"/>
       <c r="D91" s="120"/>
       <c r="E91" s="136">
-        <v>-500</v>
+        <v>-140</v>
       </c>
       <c r="F91" s="92"/>
       <c r="G91" s="92"/>
       <c r="H91" s="92"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="122"/>
+      <c r="A92" s="122">
+        <v>45288</v>
+      </c>
       <c r="B92" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" s="120">
-        <v>12474.55</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C92" s="120"/>
       <c r="D92" s="120"/>
-      <c r="E92" s="136"/>
+      <c r="E92" s="136">
+        <v>-1570.18</v>
+      </c>
       <c r="F92" s="92"/>
       <c r="G92" s="92"/>
       <c r="H92" s="92"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="122">
-        <v>45293</v>
+        <v>45288</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C93" s="120"/>
       <c r="D93" s="120"/>
       <c r="E93" s="136">
-        <v>-150</v>
+        <v>-169.27</v>
       </c>
       <c r="F93" s="92"/>
       <c r="G93" s="92"/>
@@ -14394,15 +14456,15 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="122">
-        <v>45291</v>
+        <v>45288</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C94" s="120"/>
       <c r="D94" s="120"/>
       <c r="E94" s="136">
-        <v>-60</v>
+        <v>-800</v>
       </c>
       <c r="F94" s="92"/>
       <c r="G94" s="92"/>
@@ -14410,15 +14472,15 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="122">
-        <v>45290</v>
+        <v>45287</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C95" s="120"/>
       <c r="D95" s="120"/>
       <c r="E95" s="136">
-        <v>-73</v>
+        <v>-438.05</v>
       </c>
       <c r="F95" s="92"/>
       <c r="G95" s="92"/>
@@ -14426,15 +14488,17 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="122">
-        <v>45290</v>
+        <v>45653</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C96" s="120"/>
-      <c r="D96" s="120"/>
+      <c r="D96" s="120">
+        <v>185</v>
+      </c>
       <c r="E96" s="136">
-        <v>-100</v>
+        <v>-185</v>
       </c>
       <c r="F96" s="92"/>
       <c r="G96" s="92"/>
@@ -14442,15 +14506,17 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="122">
-        <v>45289</v>
+        <v>45653</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C97" s="120"/>
-      <c r="D97" s="120"/>
+      <c r="D97" s="120">
+        <v>25.85</v>
+      </c>
       <c r="E97" s="136">
-        <v>-944</v>
+        <v>-25.85</v>
       </c>
       <c r="F97" s="92"/>
       <c r="G97" s="92"/>
@@ -14458,15 +14524,15 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="122">
-        <v>45288</v>
+        <v>45286</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C98" s="120"/>
       <c r="D98" s="120"/>
       <c r="E98" s="136">
-        <v>-140</v>
+        <v>-160</v>
       </c>
       <c r="F98" s="92"/>
       <c r="G98" s="92"/>
@@ -14474,15 +14540,15 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="122">
-        <v>45288</v>
+        <v>45286</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C99" s="120"/>
       <c r="D99" s="120"/>
       <c r="E99" s="136">
-        <v>-1570.18</v>
+        <v>-300</v>
       </c>
       <c r="F99" s="92"/>
       <c r="G99" s="92"/>
@@ -14490,343 +14556,267 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="122">
-        <v>45288</v>
+        <v>45651</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C100" s="120"/>
-      <c r="D100" s="120"/>
+      <c r="D100" s="120">
+        <v>112.64</v>
+      </c>
       <c r="E100" s="136">
-        <v>-169.27</v>
+        <v>-112.64</v>
       </c>
       <c r="F100" s="92"/>
       <c r="G100" s="92"/>
       <c r="H100" s="92"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="122">
-        <v>45288</v>
-      </c>
+      <c r="A101" s="122"/>
       <c r="B101" s="42" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C101" s="120"/>
       <c r="D101" s="120"/>
       <c r="E101" s="136">
-        <v>-800</v>
+        <v>-193</v>
       </c>
       <c r="F101" s="92"/>
       <c r="G101" s="92"/>
       <c r="H101" s="92"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="122">
-        <v>45287</v>
-      </c>
+      <c r="A102" s="122"/>
       <c r="B102" s="42" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="120"/>
       <c r="E102" s="136">
-        <v>-438.05</v>
+        <v>-5517.52</v>
       </c>
       <c r="F102" s="92"/>
       <c r="G102" s="92"/>
       <c r="H102" s="92"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="122">
-        <v>45653</v>
-      </c>
+      <c r="A103" s="122"/>
       <c r="B103" s="42" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C103" s="120"/>
-      <c r="D103" s="120">
-        <v>185</v>
-      </c>
+      <c r="D103" s="120"/>
       <c r="E103" s="136">
-        <v>-185</v>
+        <v>-105</v>
       </c>
       <c r="F103" s="92"/>
       <c r="G103" s="92"/>
       <c r="H103" s="92"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="122">
-        <v>45653</v>
-      </c>
+      <c r="A104" s="122"/>
       <c r="B104" s="42" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C104" s="120"/>
-      <c r="D104" s="120">
-        <v>25.85</v>
-      </c>
+      <c r="D104" s="120"/>
       <c r="E104" s="136">
-        <v>-25.85</v>
+        <v>-54</v>
       </c>
       <c r="F104" s="92"/>
       <c r="G104" s="92"/>
       <c r="H104" s="92"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="122">
-        <v>45286</v>
-      </c>
-      <c r="B105" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="C105" s="120"/>
-      <c r="D105" s="120"/>
-      <c r="E105" s="136">
-        <v>-160</v>
-      </c>
+      <c r="A105" s="122"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="146" t="s">
+        <v>362</v>
+      </c>
+      <c r="D105" s="131">
+        <f>SUM(D96:D104)</f>
+        <v>323.49</v>
+      </c>
+      <c r="E105" s="136"/>
       <c r="F105" s="92"/>
       <c r="G105" s="92"/>
       <c r="H105" s="92"/>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="122">
-        <v>45286</v>
-      </c>
-      <c r="B106" s="42" t="s">
-        <v>357</v>
-      </c>
+    <row r="106" spans="1:8" ht="15">
+      <c r="A106" s="122"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="120"/>
-      <c r="D106" s="120"/>
-      <c r="E106" s="136">
-        <v>-300</v>
-      </c>
+      <c r="D106" s="144" t="s">
+        <v>337</v>
+      </c>
+      <c r="E106" s="136"/>
       <c r="F106" s="92"/>
       <c r="G106" s="92"/>
       <c r="H106" s="92"/>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="122">
-        <v>45651</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>358</v>
-      </c>
+    <row r="107" spans="1:8" ht="15">
+      <c r="A107" s="122"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="120"/>
-      <c r="D107" s="120">
-        <v>112.64</v>
-      </c>
-      <c r="E107" s="136">
-        <v>-112.64</v>
-      </c>
+      <c r="D107" s="336"/>
+      <c r="E107" s="136"/>
       <c r="F107" s="92"/>
       <c r="G107" s="92"/>
       <c r="H107" s="92"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" ht="15">
       <c r="A108" s="122"/>
-      <c r="B108" s="42" t="s">
-        <v>359</v>
-      </c>
+      <c r="B108" s="42"/>
       <c r="C108" s="120"/>
-      <c r="D108" s="120"/>
-      <c r="E108" s="136">
-        <v>-193</v>
-      </c>
+      <c r="D108" s="336"/>
+      <c r="E108" s="136"/>
       <c r="F108" s="92"/>
       <c r="G108" s="92"/>
       <c r="H108" s="92"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="15">
       <c r="A109" s="122"/>
-      <c r="B109" s="42" t="s">
-        <v>360</v>
-      </c>
+      <c r="B109" s="42"/>
       <c r="C109" s="120"/>
-      <c r="D109" s="120"/>
-      <c r="E109" s="136">
-        <v>-5517.52</v>
-      </c>
+      <c r="D109" s="336"/>
+      <c r="E109" s="136"/>
       <c r="F109" s="92"/>
       <c r="G109" s="92"/>
       <c r="H109" s="92"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" ht="15">
       <c r="A110" s="122"/>
-      <c r="B110" s="42" t="s">
-        <v>361</v>
-      </c>
+      <c r="B110" s="42"/>
       <c r="C110" s="120"/>
-      <c r="D110" s="120"/>
-      <c r="E110" s="136">
-        <v>-105</v>
-      </c>
+      <c r="D110" s="336"/>
+      <c r="E110" s="136"/>
       <c r="F110" s="92"/>
       <c r="G110" s="92"/>
       <c r="H110" s="92"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="122"/>
-      <c r="B111" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="C111" s="120"/>
-      <c r="D111" s="120"/>
-      <c r="E111" s="136">
-        <v>-54</v>
-      </c>
-      <c r="F111" s="92"/>
-      <c r="G111" s="92"/>
-      <c r="H111" s="92"/>
+      <c r="A111" s="107"/>
+      <c r="B111" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" s="107"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="142">
+        <f>SUM(E112:E122)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="122"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="146" t="s">
-        <v>362</v>
-      </c>
-      <c r="D112" s="131">
-        <f>SUM(D103:D111)</f>
-        <v>323.49</v>
-      </c>
-      <c r="E112" s="136"/>
-      <c r="F112" s="92"/>
-      <c r="G112" s="92"/>
-      <c r="H112" s="92"/>
-    </row>
-    <row r="113" spans="1:8" ht="15">
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="122"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="120"/>
-      <c r="D113" s="144" t="s">
-        <v>337</v>
-      </c>
-      <c r="E113" s="136"/>
-      <c r="F113" s="92"/>
-      <c r="G113" s="92"/>
-      <c r="H113" s="92"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="107"/>
-      <c r="B115" s="106" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="107"/>
-      <c r="D115" s="108"/>
-      <c r="E115" s="142">
-        <f>SUM(E116:E126)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="122">
+        <v>45337</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C114">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="122">
+        <v>45338</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C115">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="122"/>
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="122"/>
       <c r="B117" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="122">
-        <v>45337</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="122"/>
       <c r="B118" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C118">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="122">
-        <v>45338</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="122"/>
       <c r="B119" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C119">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="D119">
+        <v>111</v>
+      </c>
+      <c r="E119" s="134">
+        <f>D119*C119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="122"/>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="B120" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120">
+        <v>850</v>
+      </c>
+      <c r="E120" s="134">
+        <f>D120*C120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="122"/>
       <c r="B121" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="D121">
+        <v>100</v>
+      </c>
+      <c r="E121" s="134">
+        <f>D121*C121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="122"/>
       <c r="B122" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="122"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="B123" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="E123" s="134">
-        <f>D123*C123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="122"/>
-      <c r="B124" t="s">
-        <v>252</v>
-      </c>
-      <c r="D124">
-        <v>850</v>
-      </c>
-      <c r="E124" s="134">
-        <f>D124*C124</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="122"/>
-      <c r="B125" t="s">
-        <v>253</v>
-      </c>
-      <c r="D125">
-        <v>100</v>
+        <f>H2</f>
+        <v>-44318.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="D125" s="99" t="s">
+        <v>215</v>
       </c>
       <c r="E125" s="134">
-        <f>D125*C125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="122"/>
-      <c r="B126" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" t="s">
-        <v>255</v>
-      </c>
-      <c r="E127" s="134">
-        <f>H2</f>
-        <v>-46313.7</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5">
-      <c r="D129" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="E129" s="134">
-        <f>SUM(E116:E128)</f>
-        <v>-46313.7</v>
+        <f>SUM(E112:E124)</f>
+        <v>-44318.7</v>
       </c>
     </row>
   </sheetData>
@@ -53802,10 +53792,10 @@
       <c r="K1" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="327" t="s">
+      <c r="L1" s="334" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="327"/>
+      <c r="M1" s="334"/>
       <c r="N1" t="s">
         <v>161</v>
       </c>
@@ -53904,7 +53894,7 @@
       </c>
       <c r="B4" s="61">
         <f>'02_24'!D2</f>
-        <v>19455.370000000003</v>
+        <v>19455.37</v>
       </c>
       <c r="C4" s="61">
         <f>'02_24'!E2</f>
@@ -53916,15 +53906,15 @@
       </c>
       <c r="E4" s="61">
         <f>'02_24'!F2</f>
-        <v>7316.04</v>
+        <v>10116.040000000001</v>
       </c>
       <c r="F4" s="61">
         <f>'02_24'!G2</f>
-        <v>-53629.74</v>
+        <v>-54434.74</v>
       </c>
       <c r="G4" s="62">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="64" t="s">
@@ -53943,7 +53933,7 @@
       </c>
       <c r="M4" s="67"/>
       <c r="N4">
-        <f>'02_24'!E122/1000</f>
+        <f>'02_24'!E118/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -53973,7 +53963,7 @@
       </c>
       <c r="G5" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="64" t="s">
@@ -54019,7 +54009,7 @@
       </c>
       <c r="G6" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="70" t="s">
@@ -54062,7 +54052,7 @@
       </c>
       <c r="G7" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H7" s="63"/>
       <c r="I7" s="70" t="s">
@@ -54105,7 +54095,7 @@
       </c>
       <c r="G8" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="64" t="s">
@@ -54151,7 +54141,7 @@
       </c>
       <c r="G9" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="64" t="s">
@@ -54200,7 +54190,7 @@
       </c>
       <c r="G10" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H10" s="63"/>
       <c r="I10" s="64" t="s">
@@ -54246,7 +54236,7 @@
       </c>
       <c r="G11" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="64" t="s">
@@ -54295,7 +54285,7 @@
       </c>
       <c r="G12" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H12" s="63"/>
       <c r="I12" s="64" t="s">
@@ -54344,7 +54334,7 @@
       </c>
       <c r="G13" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H13" s="63"/>
       <c r="I13" s="64" t="s">
@@ -54393,7 +54383,7 @@
       </c>
       <c r="G14" s="62">
         <f t="shared" si="1"/>
-        <v>82220.670000000027</v>
+        <v>84215.670000000027</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="73" t="s">
@@ -54434,15 +54424,15 @@
       </c>
       <c r="E15" s="62">
         <f>SUM(E3:E14)</f>
-        <v>202227.62000000002</v>
+        <v>205027.62000000002</v>
       </c>
       <c r="F15" s="62">
         <f>SUM(F3:F14)</f>
-        <v>-120006.94999999998</v>
+        <v>-120811.94999999998</v>
       </c>
       <c r="G15" s="62">
         <f>E15+F15</f>
-        <v>82220.670000000042</v>
+        <v>84215.670000000042</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="77"/>
@@ -54478,15 +54468,15 @@
       <c r="D16" s="84"/>
       <c r="E16" s="84">
         <f>E15/A16</f>
-        <v>16852.30166666667</v>
+        <v>17085.635000000002</v>
       </c>
       <c r="F16" s="84">
         <f>F15/A16</f>
-        <v>-10000.579166666665</v>
+        <v>-10067.662499999999</v>
       </c>
       <c r="G16" s="84">
         <f>G15/A16</f>
-        <v>6851.7225000000035</v>
+        <v>7017.9725000000035</v>
       </c>
       <c r="H16" s="85"/>
       <c r="I16" s="86"/>
@@ -54520,18 +54510,18 @@
       <c r="K17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L17" s="328">
+      <c r="L17" s="335">
         <f>L15+M15</f>
         <v>1120.134372</v>
       </c>
-      <c r="M17" s="328"/>
+      <c r="M17" s="335"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="93" t="s">
         <v>191</v>
       </c>
       <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F34+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F27+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
         <v>10427.619999999999</v>
       </c>
       <c r="J18" s="64"/>
@@ -54935,7 +54925,7 @@
   </sheetPr>
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -54944,9 +54934,9 @@
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="330" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="330" customWidth="1"/>
-    <col min="13" max="14" width="12.28515625" style="330"/>
+    <col min="11" max="11" width="25.7109375" style="328" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="328" customWidth="1"/>
+    <col min="13" max="14" width="12.28515625" style="328"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -55072,7 +55062,7 @@
       <c r="E9" s="92"/>
       <c r="G9" s="92"/>
       <c r="H9" s="92"/>
-      <c r="K9" s="331"/>
+      <c r="K9" s="329"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="119" t="s">
@@ -55083,7 +55073,7 @@
       <c r="E10" s="92"/>
       <c r="G10" s="92"/>
       <c r="H10" s="92"/>
-      <c r="L10" s="331"/>
+      <c r="L10" s="329"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="118" t="s">
@@ -55094,16 +55084,16 @@
       <c r="E11" s="92"/>
       <c r="G11" s="92"/>
       <c r="H11" s="92"/>
-      <c r="K11" s="331" t="s">
+      <c r="K11" s="329" t="s">
         <v>1239</v>
       </c>
-      <c r="L11" s="330">
+      <c r="L11" s="328">
         <v>8</v>
       </c>
-      <c r="M11" s="332">
+      <c r="M11" s="330">
         <v>250</v>
       </c>
-      <c r="N11" s="330">
+      <c r="N11" s="328">
         <f>M11*L11</f>
         <v>2000</v>
       </c>
@@ -55120,16 +55110,16 @@
       <c r="E12" s="92"/>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
-      <c r="K12" s="331" t="s">
+      <c r="K12" s="329" t="s">
         <v>1240</v>
       </c>
-      <c r="L12" s="332">
+      <c r="L12" s="330">
         <v>2</v>
       </c>
-      <c r="M12" s="332">
+      <c r="M12" s="330">
         <v>250</v>
       </c>
-      <c r="N12" s="330">
+      <c r="N12" s="328">
         <f>M12*L12</f>
         <v>500</v>
       </c>
@@ -55146,16 +55136,16 @@
       <c r="E13" s="92"/>
       <c r="G13" s="92"/>
       <c r="H13" s="92"/>
-      <c r="K13" s="331" t="s">
+      <c r="K13" s="329" t="s">
         <v>1241</v>
       </c>
-      <c r="L13" s="330">
+      <c r="L13" s="328">
         <v>11</v>
       </c>
-      <c r="M13" s="330">
+      <c r="M13" s="328">
         <v>250</v>
       </c>
-      <c r="N13" s="330">
+      <c r="N13" s="328">
         <f>M13*L13</f>
         <v>2750</v>
       </c>
@@ -55173,7 +55163,7 @@
         <f>H8+F14+G14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="331" t="s">
+      <c r="K14" s="329" t="s">
         <v>1237</v>
       </c>
       <c r="L14" s="133">
@@ -55207,7 +55197,7 @@
         <f t="shared" ref="H15:H37" si="0">H14+F15+G15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="331" t="s">
+      <c r="K15" s="329" t="s">
         <v>1237</v>
       </c>
       <c r="L15" s="133">
@@ -55241,12 +55231,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="332"/>
-      <c r="L16" s="332"/>
-      <c r="M16" s="333" t="s">
+      <c r="K16" s="330"/>
+      <c r="L16" s="330"/>
+      <c r="M16" s="331" t="s">
         <v>217</v>
       </c>
-      <c r="N16" s="334">
+      <c r="N16" s="332">
         <f>SUM(N11:N15)</f>
         <v>93450</v>
       </c>
@@ -55268,9 +55258,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="332"/>
-      <c r="L17" s="332"/>
-      <c r="M17" s="332"/>
+      <c r="K17" s="330"/>
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
     </row>
     <row r="18" spans="1:13">
       <c r="B18" s="118"/>
@@ -55282,9 +55272,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="332"/>
-      <c r="L18" s="332"/>
-      <c r="M18" s="332"/>
+      <c r="K18" s="330"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="330"/>
     </row>
     <row r="19" spans="1:13">
       <c r="B19" s="121" t="s">
@@ -55572,10 +55562,10 @@
       <c r="A43" s="122"/>
       <c r="C43" s="123"/>
       <c r="H43" s="92"/>
-      <c r="K43" s="329"/>
-      <c r="L43" s="329"/>
-      <c r="M43" s="329"/>
-      <c r="N43" s="329"/>
+      <c r="K43" s="327"/>
+      <c r="L43" s="327"/>
+      <c r="M43" s="327"/>
+      <c r="N43" s="327"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="127">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5B399-E533-4D09-834B-398AB77A709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA17FCC-2AA5-436C-A964-3B7941093D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1245">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -3991,6 +3991,15 @@
   <si>
     <t>TUSDATA 2024 Toplu ödendi</t>
   </si>
+  <si>
+    <t>Atasun Gözlük</t>
+  </si>
+  <si>
+    <t>kofteci</t>
+  </si>
+  <si>
+    <t>atasun yakın gözlük sigorta</t>
+  </si>
 </sst>
 </file>
 
@@ -4021,7 +4030,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="186" formatCode="%0.0000"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4339,8 +4348,16 @@
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4597,6 +4614,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
   </fills>
@@ -4943,7 +4966,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5412,11 +5435,12 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="170" fontId="18" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="45" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6022,8 +6046,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6059,7 +6083,7 @@
       </c>
       <c r="E2" s="116">
         <f>SUM(E4:E34)</f>
-        <v>-41671.800000000003</v>
+        <v>-41906.129999999997</v>
       </c>
       <c r="F2" s="116">
         <f>SUM(F4:F34)</f>
@@ -6245,7 +6269,7 @@
       </c>
       <c r="E15" s="92">
         <f>E50</f>
-        <v>0</v>
+        <v>-234.33</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
@@ -6606,7 +6630,7 @@
       <c r="D50" s="108"/>
       <c r="E50" s="109">
         <f>SUM(E51:E62)</f>
-        <v>0</v>
+        <v>-234.33</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6614,11 +6638,21 @@
       <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="122"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="113"/>
+      <c r="A52" s="324">
+        <v>45348</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C52">
+        <v>1406</v>
+      </c>
+      <c r="D52" s="130" t="s">
+        <v>336</v>
+      </c>
+      <c r="E52" s="136">
+        <v>-234.33</v>
+      </c>
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
     </row>
@@ -7170,8 +7204,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7207,7 +7241,7 @@
       </c>
       <c r="E2" s="116">
         <f>SUM(E4:E34)</f>
-        <v>-45223.46</v>
+        <v>-45457.79</v>
       </c>
       <c r="F2" s="116">
         <f>SUM(F4:F34)</f>
@@ -7393,7 +7427,7 @@
       </c>
       <c r="E15" s="92">
         <f>E50</f>
-        <v>0</v>
+        <v>-234.33</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
@@ -7745,7 +7779,7 @@
       <c r="D50" s="108"/>
       <c r="E50" s="109">
         <f>SUM(E51:E62)</f>
-        <v>0</v>
+        <v>-234.33</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7753,11 +7787,21 @@
       <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="122"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="113"/>
+      <c r="A52" s="324">
+        <v>45348</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C52">
+        <v>1406</v>
+      </c>
+      <c r="D52" s="130" t="s">
+        <v>381</v>
+      </c>
+      <c r="E52" s="136">
+        <v>-234.33</v>
+      </c>
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
     </row>
@@ -8317,8 +8361,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -8354,7 +8398,7 @@
       </c>
       <c r="E2" s="116">
         <f>SUM(E4:E34)</f>
-        <v>-46073.270000000004</v>
+        <v>-46307.6</v>
       </c>
       <c r="F2" s="116">
         <f>SUM(F4:F34)</f>
@@ -8540,7 +8584,7 @@
       </c>
       <c r="E15" s="92">
         <f>E50</f>
-        <v>-849.81</v>
+        <v>-1084.1399999999999</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
@@ -8892,7 +8936,7 @@
       <c r="D50" s="108"/>
       <c r="E50" s="109">
         <f>SUM(E51:E62)</f>
-        <v>-849.81</v>
+        <v>-1084.1399999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -8928,6 +8972,21 @@
       <c r="H53" s="92"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="324">
+        <v>45348</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C54">
+        <v>1406</v>
+      </c>
+      <c r="D54" s="130" t="s">
+        <v>540</v>
+      </c>
+      <c r="E54" s="136">
+        <v>-234.33</v>
+      </c>
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
     </row>
@@ -9474,8 +9533,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9512,7 +9571,7 @@
       </c>
       <c r="E2" s="116">
         <f>SUM(E4:E34)</f>
-        <v>-40853.270000000004</v>
+        <v>-41087.599999999999</v>
       </c>
       <c r="F2" s="116">
         <f>SUM(F4:F34)</f>
@@ -9698,7 +9757,7 @@
       </c>
       <c r="E15" s="92">
         <f>E50</f>
-        <v>-849.81</v>
+        <v>-1084.1399999999999</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
@@ -10052,7 +10111,7 @@
       <c r="D50" s="108"/>
       <c r="E50" s="109">
         <f>SUM(E51:E62)</f>
-        <v>-849.81</v>
+        <v>-1084.1399999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -10079,6 +10138,21 @@
       <c r="H52" s="92"/>
     </row>
     <row r="53" spans="1:8">
+      <c r="A53" s="324">
+        <v>45348</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C53">
+        <v>1406</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>571</v>
+      </c>
+      <c r="E53" s="136">
+        <v>-234.33</v>
+      </c>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
     </row>
@@ -10629,8 +10703,8 @@
   </sheetPr>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A49" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10666,7 +10740,7 @@
       </c>
       <c r="E2" s="116">
         <f>SUM(E4:E34)</f>
-        <v>-41453.270000000004</v>
+        <v>-42180.6</v>
       </c>
       <c r="F2" s="116">
         <f>SUM(F4:F34)</f>
@@ -10855,7 +10929,7 @@
       </c>
       <c r="E15" s="92">
         <f>E50</f>
-        <v>-849.81</v>
+        <v>-1577.1399999999999</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
@@ -11209,7 +11283,7 @@
       <c r="D50" s="108"/>
       <c r="E50" s="109">
         <f>SUM(E51:E61)</f>
-        <v>-849.81</v>
+        <v>-1577.1399999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -11229,30 +11303,61 @@
       <c r="D52" s="130" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="113">
+      <c r="E52" s="136">
         <v>-849.81</v>
       </c>
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
     </row>
     <row r="53" spans="1:8">
+      <c r="A53" s="324">
+        <v>45348</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C53">
+        <v>1406</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>610</v>
+      </c>
+      <c r="E53" s="136">
+        <v>-234.33</v>
+      </c>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="E54" s="136"/>
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" s="324">
+        <v>45347</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E55" s="136">
+        <v>-343</v>
+      </c>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="122"/>
-      <c r="B56" s="120"/>
+      <c r="A56" s="122">
+        <v>45348</v>
+      </c>
+      <c r="B56" s="120" t="s">
+        <v>1244</v>
+      </c>
       <c r="C56" s="120"/>
       <c r="D56" s="120"/>
-      <c r="E56" s="92"/>
+      <c r="E56" s="136">
+        <v>-150</v>
+      </c>
       <c r="F56" s="92"/>
       <c r="G56" s="92"/>
       <c r="H56" s="92"/>
@@ -11262,7 +11367,7 @@
       <c r="B57" s="120"/>
       <c r="C57" s="120"/>
       <c r="D57" s="120"/>
-      <c r="E57" s="92"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="92"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
@@ -11272,7 +11377,7 @@
       <c r="B58" s="131"/>
       <c r="C58" s="120"/>
       <c r="D58" s="120"/>
-      <c r="E58" s="92"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="92"/>
       <c r="G58" s="92"/>
       <c r="H58" s="92"/>
@@ -11282,7 +11387,7 @@
       <c r="B59" s="131"/>
       <c r="C59" s="120"/>
       <c r="D59" s="120"/>
-      <c r="E59" s="92"/>
+      <c r="E59" s="136"/>
       <c r="F59" s="92"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
@@ -11290,7 +11395,7 @@
     <row r="60" spans="1:8">
       <c r="A60" s="122"/>
       <c r="B60" s="131"/>
-      <c r="E60" s="92"/>
+      <c r="E60" s="136"/>
       <c r="F60" s="92"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
@@ -11300,7 +11405,7 @@
       <c r="B61" s="131"/>
       <c r="C61" s="120"/>
       <c r="D61" s="120"/>
-      <c r="E61" s="92"/>
+      <c r="E61" s="136"/>
       <c r="F61" s="92"/>
       <c r="G61" s="92"/>
       <c r="H61" s="92"/>
@@ -11308,7 +11413,7 @@
     <row r="62" spans="1:8">
       <c r="A62" s="122"/>
       <c r="B62" s="42"/>
-      <c r="E62" s="92"/>
+      <c r="E62" s="136"/>
       <c r="F62" s="92"/>
       <c r="G62" s="92"/>
       <c r="H62" s="92"/>
@@ -11356,7 +11461,7 @@
       <c r="D66" t="s">
         <v>300</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="136">
         <v>-600</v>
       </c>
       <c r="F66" s="92"/>
@@ -11374,7 +11479,7 @@
       <c r="D67" t="s">
         <v>301</v>
       </c>
-      <c r="E67" s="113">
+      <c r="E67" s="136">
         <v>-3551.66</v>
       </c>
       <c r="F67" s="92"/>
@@ -11390,7 +11495,7 @@
       <c r="D68" s="132" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="133">
+      <c r="E68" s="136">
         <v>-649.78</v>
       </c>
       <c r="F68" s="92"/>
@@ -11406,7 +11511,7 @@
       <c r="D69" s="132" t="s">
         <v>302</v>
       </c>
-      <c r="E69" s="133">
+      <c r="E69" s="136">
         <v>49.98</v>
       </c>
       <c r="F69" s="92"/>
@@ -11418,7 +11523,7 @@
       <c r="B70" s="42"/>
       <c r="C70" s="120"/>
       <c r="D70" s="120"/>
-      <c r="E70" s="113"/>
+      <c r="E70" s="136"/>
       <c r="F70" s="92"/>
       <c r="G70" s="92"/>
       <c r="H70" s="92"/>
@@ -11428,7 +11533,7 @@
       <c r="B71" s="42"/>
       <c r="C71" s="120"/>
       <c r="D71" s="120"/>
-      <c r="E71" s="113"/>
+      <c r="E71" s="136"/>
       <c r="F71" s="92"/>
       <c r="G71" s="92"/>
       <c r="H71" s="92"/>
@@ -11438,7 +11543,7 @@
       <c r="B72" s="42"/>
       <c r="C72" s="120"/>
       <c r="D72" s="120"/>
-      <c r="E72" s="113"/>
+      <c r="E72" s="136"/>
       <c r="F72" s="92"/>
       <c r="G72" s="92"/>
       <c r="H72" s="92"/>
@@ -11448,7 +11553,7 @@
       <c r="B73" s="42"/>
       <c r="C73" s="120"/>
       <c r="D73" s="120"/>
-      <c r="E73" s="113"/>
+      <c r="E73" s="136"/>
       <c r="F73" s="92"/>
       <c r="G73" s="92"/>
       <c r="H73" s="92"/>
@@ -11458,7 +11563,7 @@
       <c r="B74" s="42"/>
       <c r="C74" s="120"/>
       <c r="D74" s="120"/>
-      <c r="E74" s="113"/>
+      <c r="E74" s="136"/>
       <c r="F74" s="92"/>
       <c r="G74" s="92"/>
       <c r="H74" s="92"/>
@@ -11468,7 +11573,7 @@
       <c r="B75" s="42"/>
       <c r="C75" s="120"/>
       <c r="D75" s="120"/>
-      <c r="E75" s="113"/>
+      <c r="E75" s="136"/>
       <c r="F75" s="92"/>
       <c r="G75" s="92"/>
       <c r="H75" s="92"/>
@@ -11478,7 +11583,7 @@
       <c r="B76" s="42"/>
       <c r="C76" s="120"/>
       <c r="D76" s="120"/>
-      <c r="E76" s="113"/>
+      <c r="E76" s="136"/>
       <c r="F76" s="92"/>
       <c r="G76" s="92"/>
       <c r="H76" s="92"/>
@@ -11488,7 +11593,7 @@
       <c r="B77" s="42"/>
       <c r="C77" s="120"/>
       <c r="D77" s="120"/>
-      <c r="E77" s="113"/>
+      <c r="E77" s="136"/>
       <c r="F77" s="92"/>
       <c r="G77" s="92"/>
       <c r="H77" s="92"/>
@@ -11498,7 +11603,7 @@
       <c r="B78" s="42"/>
       <c r="C78" s="120"/>
       <c r="D78" s="120"/>
-      <c r="E78" s="113"/>
+      <c r="E78" s="136"/>
       <c r="F78" s="92"/>
       <c r="G78" s="92"/>
       <c r="H78" s="92"/>
@@ -11508,7 +11613,7 @@
       <c r="B79" s="42"/>
       <c r="C79" s="120"/>
       <c r="D79" s="120"/>
-      <c r="E79" s="113"/>
+      <c r="E79" s="136"/>
       <c r="F79" s="92"/>
       <c r="G79" s="92"/>
       <c r="H79" s="92"/>
@@ -11518,7 +11623,7 @@
       <c r="B80" s="42"/>
       <c r="C80" s="120"/>
       <c r="D80" s="120"/>
-      <c r="E80" s="113"/>
+      <c r="E80" s="136"/>
       <c r="F80" s="92"/>
       <c r="G80" s="92"/>
       <c r="H80" s="92"/>
@@ -11528,7 +11633,7 @@
       <c r="B81" s="42"/>
       <c r="C81" s="120"/>
       <c r="D81" s="120"/>
-      <c r="E81" s="113"/>
+      <c r="E81" s="136"/>
       <c r="F81" s="92"/>
       <c r="G81" s="92"/>
       <c r="H81" s="92"/>
@@ -11538,7 +11643,7 @@
       <c r="B82" s="42"/>
       <c r="C82" s="120"/>
       <c r="D82" s="120"/>
-      <c r="E82" s="113"/>
+      <c r="E82" s="136"/>
       <c r="F82" s="92"/>
       <c r="G82" s="92"/>
       <c r="H82" s="92"/>
@@ -11548,7 +11653,7 @@
       <c r="B83" s="42"/>
       <c r="C83" s="120"/>
       <c r="D83" s="120"/>
-      <c r="E83" s="113"/>
+      <c r="E83" s="136"/>
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
       <c r="H83" s="92"/>
@@ -11558,7 +11663,7 @@
       <c r="B84" s="42"/>
       <c r="C84" s="120"/>
       <c r="D84" s="120"/>
-      <c r="E84" s="113"/>
+      <c r="E84" s="136"/>
       <c r="F84" s="92"/>
       <c r="G84" s="92"/>
       <c r="H84" s="92"/>
@@ -11568,7 +11673,7 @@
       <c r="B85" s="42"/>
       <c r="C85" s="120"/>
       <c r="D85" s="120"/>
-      <c r="E85" s="113"/>
+      <c r="E85" s="136"/>
       <c r="F85" s="92"/>
       <c r="G85" s="92"/>
       <c r="H85" s="92"/>
@@ -11578,7 +11683,7 @@
       <c r="B86" s="42"/>
       <c r="C86" s="120"/>
       <c r="D86" s="120"/>
-      <c r="E86" s="113"/>
+      <c r="E86" s="136"/>
       <c r="F86" s="92"/>
       <c r="G86" s="92"/>
       <c r="H86" s="92"/>
@@ -11588,7 +11693,7 @@
       <c r="B87" s="42"/>
       <c r="C87" s="120"/>
       <c r="D87" s="120"/>
-      <c r="E87" s="113"/>
+      <c r="E87" s="136"/>
       <c r="F87" s="92"/>
       <c r="G87" s="92"/>
       <c r="H87" s="92"/>
@@ -11787,10 +11892,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -11821,19 +11926,19 @@
         <v>217</v>
       </c>
       <c r="D2" s="117">
-        <f>SUM(D4:D34)</f>
+        <f>SUM(D5:D34)</f>
         <v>19300</v>
       </c>
       <c r="E2" s="133">
-        <f>SUM(E4:E34)</f>
-        <v>-179517.19</v>
+        <f>SUM(E5:E34)</f>
+        <v>-179117.16</v>
       </c>
       <c r="F2" s="116">
-        <f>SUM(F4:F34)</f>
+        <f>SUM(F11:F34)</f>
         <v>0</v>
       </c>
       <c r="G2" s="116">
-        <f>SUM(G4:G34)</f>
+        <f>SUM(G11:G34)</f>
         <v>0</v>
       </c>
       <c r="H2" s="116">
@@ -11846,136 +11951,96 @@
       <c r="H3" s="92"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E4" s="327">
+        <v>-250</v>
+      </c>
+      <c r="H4" s="92">
+        <f>H3+F4+G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="324">
+        <v>45352</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="133">
+      <c r="E5" s="133">
         <v>-152</v>
       </c>
-      <c r="H4" s="92">
-        <f t="shared" ref="H4:H32" si="0">H3+F4+G4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
+      <c r="H5" s="92">
+        <f t="shared" ref="H5:H33" si="0">H4+F5+G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="99"/>
+      <c r="H6" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="99"/>
+      <c r="H7" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="99"/>
+      <c r="H8" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="99"/>
+      <c r="H9" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="99"/>
+      <c r="H10" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="H11" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E12" s="133">
         <v>-10000</v>
       </c>
-      <c r="H5" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="118" t="s">
+      <c r="H12" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="E6" s="133">
+      <c r="C13" s="118"/>
+      <c r="E13" s="133">
         <v>-400</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="E7" s="133">
-        <v>-500</v>
-      </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="118" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="118" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E8" s="327">
-        <v>-250</v>
-      </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="118" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="133">
-        <v>-150</v>
-      </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="133">
-        <v>-300</v>
-      </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="133">
-        <v>-100</v>
-      </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
       <c r="G13" s="92"/>
       <c r="H13" s="92">
         <f t="shared" si="0"/>
@@ -11983,14 +12048,13 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="121" t="s">
-        <v>228</v>
-      </c>
+      <c r="B14" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="118"/>
       <c r="E14" s="133">
-        <f>E45*-1</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="92"/>
+        <v>-500</v>
+      </c>
       <c r="G14" s="92"/>
       <c r="H14" s="92">
         <f t="shared" si="0"/>
@@ -11998,14 +12062,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="121" t="s">
-        <v>229</v>
+      <c r="B15" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>225</v>
       </c>
       <c r="E15" s="133">
-        <f>E50</f>
-        <v>-6241.68</v>
-      </c>
-      <c r="F15" s="92"/>
+        <v>-150</v>
+      </c>
+      <c r="F15" s="113"/>
       <c r="G15" s="92"/>
       <c r="H15" s="92">
         <f t="shared" si="0"/>
@@ -12013,16 +12079,16 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
-        <v>45173</v>
-      </c>
-      <c r="B16" s="121" t="s">
-        <v>230</v>
+      <c r="B16" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="120" t="s">
+        <v>225</v>
       </c>
       <c r="E16" s="133">
-        <f>E66</f>
-        <v>-72423.510000000009</v>
-      </c>
+        <v>-300</v>
+      </c>
+      <c r="F16" s="113"/>
       <c r="G16" s="92"/>
       <c r="H16" s="92">
         <f t="shared" si="0"/>
@@ -12030,16 +12096,16 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="122">
-        <v>45173</v>
-      </c>
-      <c r="B17" s="118" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="118"/>
+      <c r="B17" s="120" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="120" t="s">
+        <v>225</v>
+      </c>
       <c r="E17" s="133">
-        <v>-5375</v>
-      </c>
+        <v>-100</v>
+      </c>
+      <c r="F17" s="113"/>
       <c r="G17" s="92"/>
       <c r="H17" s="92">
         <f t="shared" si="0"/>
@@ -12047,14 +12113,14 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="122"/>
-      <c r="B18" s="118" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="118"/>
+      <c r="B18" s="121" t="s">
+        <v>228</v>
+      </c>
       <c r="E18" s="133">
-        <v>-2125</v>
-      </c>
+        <f>E45*-1</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="92"/>
       <c r="G18" s="92"/>
       <c r="H18" s="92">
         <f t="shared" si="0"/>
@@ -12062,14 +12128,14 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="118" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="118"/>
+      <c r="B19" s="121" t="s">
+        <v>229</v>
+      </c>
       <c r="E19" s="133">
-        <v>-1500</v>
-      </c>
-      <c r="F19" s="113"/>
+        <f>E50</f>
+        <v>-6341.6600000000008</v>
+      </c>
+      <c r="F19" s="92"/>
       <c r="G19" s="92"/>
       <c r="H19" s="92">
         <f t="shared" si="0"/>
@@ -12077,34 +12143,68 @@
       </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>45356</v>
+      </c>
+      <c r="B20" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="133">
+        <f>E69</f>
+        <v>-72173.5</v>
+      </c>
+      <c r="G20" s="92"/>
       <c r="H20" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
+      <c r="A21" s="122">
+        <v>45358</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="118"/>
+      <c r="E21" s="133">
+        <v>-5375</v>
+      </c>
+      <c r="G21" s="92"/>
       <c r="H21" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>260</v>
-      </c>
+      <c r="A22" s="122">
+        <v>45358</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="118"/>
       <c r="E22" s="133">
-        <v>-65000</v>
-      </c>
+        <v>-2125</v>
+      </c>
+      <c r="G22" s="92"/>
       <c r="H22" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="92"/>
+      <c r="A23" s="324">
+        <v>45352</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="118"/>
+      <c r="E23" s="133">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="113"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92">
         <f t="shared" si="0"/>
@@ -12113,13 +12213,11 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="E24" s="133">
-        <v>-5000</v>
-      </c>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+        <v>-65000</v>
+      </c>
       <c r="H24" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12127,7 +12225,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="133">
         <v>-5000</v>
@@ -12141,7 +12239,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="E26" s="133">
         <v>-5000</v>
@@ -12154,6 +12252,12 @@
       </c>
     </row>
     <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="133">
+        <v>-5000</v>
+      </c>
       <c r="F27" s="92"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92">
@@ -12224,7 +12328,10 @@
     <row r="33" spans="1:8">
       <c r="F33" s="92"/>
       <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
       <c r="B34" s="126"/>
@@ -12339,8 +12446,8 @@
       </c>
       <c r="C50" s="107"/>
       <c r="E50" s="326">
-        <f>SUM(E51:E63)</f>
-        <v>-6241.68</v>
+        <f>SUM(E51:E64)</f>
+        <v>-6341.6600000000008</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -12376,7 +12483,7 @@
         <v>311</v>
       </c>
       <c r="E52" s="133">
-        <v>-1854.67</v>
+        <v>-1854.65</v>
       </c>
       <c r="F52" s="92"/>
       <c r="G52" s="92"/>
@@ -12537,32 +12644,37 @@
       <c r="H63" s="92"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="122"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="122">
+        <v>45339</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="E64" s="133">
+        <v>-100</v>
+      </c>
       <c r="F64" s="92"/>
       <c r="G64" s="92"/>
       <c r="H64" s="92"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="15">
       <c r="A65" s="122"/>
       <c r="B65" s="120"/>
       <c r="C65" s="120"/>
+      <c r="D65" s="144" t="s">
+        <v>337</v>
+      </c>
       <c r="F65" s="92"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="107"/>
-      <c r="B66" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" s="107"/>
-      <c r="E66" s="133">
-        <f>SUM(E67:E92)</f>
-        <v>-72423.510000000009</v>
-      </c>
+      <c r="A66" s="122"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
       <c r="F66" s="92"/>
       <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="122"/>
@@ -12573,81 +12685,49 @@
       <c r="H67" s="92"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B68" s="120" t="s">
-        <v>312</v>
-      </c>
+      <c r="A68" s="122"/>
+      <c r="B68" s="120"/>
       <c r="C68" s="120"/>
-      <c r="D68" s="117" t="s">
-        <v>313</v>
-      </c>
-      <c r="E68" s="133">
-        <v>-3974.42</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
+      <c r="F68" s="92"/>
       <c r="G68" s="92"/>
       <c r="H68" s="92"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="4">
-        <v>45214</v>
-      </c>
-      <c r="B69" t="s">
-        <v>299</v>
-      </c>
-      <c r="D69" s="117" t="s">
-        <v>314</v>
-      </c>
-      <c r="E69" s="133">
-        <v>-600</v>
-      </c>
-      <c r="F69" s="92">
-        <v>0</v>
-      </c>
+      <c r="A69" s="107"/>
+      <c r="B69" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" s="107"/>
+      <c r="E69" s="337">
+        <f>SUM(E70:E89)</f>
+        <v>-72173.5</v>
+      </c>
+      <c r="F69" s="92"/>
       <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="4">
-        <v>45285</v>
-      </c>
-      <c r="B70" s="120" t="s">
-        <v>274</v>
-      </c>
+      <c r="A70" s="122"/>
+      <c r="B70" s="120"/>
       <c r="C70" s="120"/>
-      <c r="D70" s="117" t="s">
-        <v>315</v>
-      </c>
-      <c r="E70" s="133">
-        <v>-3551.66</v>
-      </c>
-      <c r="F70" s="92">
-        <v>0</v>
-      </c>
+      <c r="F70" s="92"/>
       <c r="G70" s="92"/>
       <c r="H70" s="92"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B71" t="s">
-        <v>316</v>
-      </c>
-      <c r="C71" s="134">
-        <v>-1204.5</v>
-      </c>
+      <c r="A71" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B71" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" s="120"/>
       <c r="D71" s="117" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E71" s="133">
-        <v>-401.5</v>
-      </c>
-      <c r="F71" s="92">
+        <v>-3974.42</v>
+      </c>
+      <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="92"/>
@@ -12655,45 +12735,36 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4">
-        <v>45259</v>
+        <v>45214</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
-      </c>
-      <c r="C72" s="134">
-        <v>-148.6</v>
+        <v>299</v>
       </c>
       <c r="D72" s="117" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E72" s="133">
-        <v>-49.54</v>
-      </c>
-      <c r="F72" s="92">
-        <v>0</v>
-      </c>
+        <v>-600</v>
+      </c>
+      <c r="F72" s="92"/>
       <c r="G72" s="92"/>
       <c r="H72" s="92"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B73" t="s">
-        <v>319</v>
-      </c>
-      <c r="C73" s="134">
-        <v>-244.8</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B73" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="120"/>
       <c r="D73" s="117" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E73" s="133">
-        <v>-81.599999999999994</v>
-      </c>
-      <c r="F73" s="92">
-        <v>0</v>
-      </c>
+        <v>-3551.66</v>
+      </c>
+      <c r="F73" s="92"/>
       <c r="G73" s="92"/>
       <c r="H73" s="92"/>
     </row>
@@ -12702,225 +12773,247 @@
         <v>45259</v>
       </c>
       <c r="B74" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C74" s="134">
-        <v>-532.6</v>
+        <v>-1204.5</v>
       </c>
       <c r="D74" s="117" t="s">
         <v>317</v>
       </c>
       <c r="E74" s="133">
-        <v>-177.54</v>
-      </c>
-      <c r="F74" s="92">
-        <v>0</v>
-      </c>
+        <v>-401.5</v>
+      </c>
+      <c r="F74" s="92"/>
       <c r="G74" s="92"/>
       <c r="H74" s="92"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="4"/>
-      <c r="B75" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="120">
-        <v>899</v>
-      </c>
-      <c r="D75" s="132" t="s">
-        <v>321</v>
+      <c r="A75" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B75" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="134">
+        <v>-148.6</v>
+      </c>
+      <c r="D75" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="E75" s="133">
-        <v>-449.5</v>
-      </c>
-      <c r="F75" s="92">
-        <v>0</v>
-      </c>
+        <v>-49.54</v>
+      </c>
+      <c r="F75" s="92"/>
       <c r="G75" s="92"/>
       <c r="H75" s="92"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="4"/>
-      <c r="B76" s="120" t="s">
-        <v>322</v>
-      </c>
-      <c r="C76" s="120"/>
-      <c r="D76" s="132" t="s">
-        <v>321</v>
+      <c r="A76" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" s="134">
+        <v>-244.8</v>
+      </c>
+      <c r="D76" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="E76" s="133">
-        <v>-299.64</v>
-      </c>
-      <c r="F76" s="92">
-        <v>0</v>
-      </c>
+        <v>-81.599999999999994</v>
+      </c>
+      <c r="F76" s="92"/>
       <c r="G76" s="92"/>
       <c r="H76" s="92"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="4"/>
-      <c r="B77" s="120" t="s">
-        <v>323</v>
-      </c>
-      <c r="C77" s="120"/>
-      <c r="D77" s="132" t="s">
-        <v>321</v>
+      <c r="A77" s="4">
+        <v>45259</v>
+      </c>
+      <c r="B77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" s="134">
+        <v>-532.6</v>
+      </c>
+      <c r="D77" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="E77" s="133">
-        <v>-546.82000000000005</v>
-      </c>
-      <c r="F77" s="92">
-        <v>0</v>
-      </c>
+        <v>-177.54</v>
+      </c>
+      <c r="F77" s="92"/>
       <c r="G77" s="92"/>
       <c r="H77" s="92"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="122"/>
-      <c r="B78" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C78" s="120"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="120">
+        <v>899</v>
+      </c>
       <c r="D78" s="132" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E78" s="133">
-        <v>-649.78</v>
-      </c>
-      <c r="F78" s="92">
-        <v>0</v>
-      </c>
+        <v>-449.5</v>
+      </c>
+      <c r="F78" s="92"/>
       <c r="G78" s="92"/>
       <c r="H78" s="92"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="122"/>
-      <c r="B79" s="42" t="s">
-        <v>271</v>
+      <c r="A79" s="4"/>
+      <c r="B79" s="120" t="s">
+        <v>322</v>
       </c>
       <c r="C79" s="120"/>
       <c r="D79" s="132" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E79" s="133">
-        <v>49.98</v>
-      </c>
-      <c r="F79" s="92">
-        <v>0</v>
-      </c>
+        <v>-299.64</v>
+      </c>
+      <c r="F79" s="92"/>
       <c r="G79" s="92"/>
       <c r="H79" s="92"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="122"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="120" t="s">
+        <v>323</v>
+      </c>
       <c r="C80" s="120"/>
+      <c r="D80" s="132" t="s">
+        <v>321</v>
+      </c>
+      <c r="E80" s="133">
+        <v>-546.82000000000005</v>
+      </c>
       <c r="F80" s="92"/>
       <c r="G80" s="92"/>
       <c r="H80" s="92"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="122"/>
-      <c r="B81" s="42"/>
+      <c r="B81" s="42" t="s">
+        <v>269</v>
+      </c>
       <c r="C81" s="120"/>
+      <c r="D81" s="132" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" s="133">
+        <v>-649.78</v>
+      </c>
       <c r="F81" s="92"/>
       <c r="G81" s="92"/>
       <c r="H81" s="92"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="122">
-        <v>45324</v>
-      </c>
+      <c r="A82" s="122"/>
       <c r="B82" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C82" s="120"/>
-      <c r="E82" s="133">
-        <v>-1195</v>
-      </c>
-      <c r="F82" s="92">
-        <v>0</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C82" s="120">
+        <v>49.98</v>
+      </c>
+      <c r="D82" s="132" t="s">
+        <v>324</v>
+      </c>
+      <c r="F82" s="92"/>
       <c r="G82" s="92"/>
       <c r="H82" s="92"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="122">
-        <v>45327</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>326</v>
-      </c>
+      <c r="A83" s="122"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="120"/>
-      <c r="E83" s="133">
-        <v>-299.99</v>
-      </c>
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
       <c r="H83" s="92"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="122">
-        <v>45336</v>
-      </c>
-      <c r="B84" s="42" t="s">
-        <v>260</v>
-      </c>
+      <c r="A84" s="122"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="120"/>
-      <c r="E84" s="133">
-        <v>-59483.25</v>
-      </c>
-      <c r="F84" s="92">
-        <v>0</v>
-      </c>
+      <c r="F84" s="92"/>
       <c r="G84" s="92"/>
       <c r="H84" s="92"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="122">
-        <v>45329</v>
+        <v>45324</v>
       </c>
       <c r="B85" s="42" t="s">
-        <v>1228</v>
+        <v>325</v>
       </c>
       <c r="C85" s="120"/>
       <c r="E85" s="133">
-        <v>-713.25</v>
-      </c>
-      <c r="F85" s="92">
-        <v>0</v>
-      </c>
+        <v>-1195</v>
+      </c>
+      <c r="F85" s="92"/>
       <c r="G85" s="92"/>
       <c r="H85" s="92"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="122"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="120"/>
+      <c r="A86" s="122">
+        <v>45327</v>
+      </c>
+      <c r="B86" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" s="133">
+        <v>-299.99</v>
+      </c>
       <c r="F86" s="92"/>
       <c r="G86" s="92"/>
       <c r="H86" s="92"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="122"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="122">
+        <v>45336</v>
+      </c>
+      <c r="B87" s="42" t="s">
+        <v>260</v>
+      </c>
       <c r="C87" s="120"/>
+      <c r="E87" s="133">
+        <v>-59483.25</v>
+      </c>
       <c r="F87" s="92"/>
       <c r="G87" s="92"/>
       <c r="H87" s="92"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="122"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="122">
+        <v>45329</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>1228</v>
+      </c>
       <c r="C88" s="120"/>
+      <c r="E88" s="133">
+        <v>-713.25</v>
+      </c>
       <c r="F88" s="92"/>
       <c r="G88" s="92"/>
       <c r="H88" s="92"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="122"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="120"/>
+      <c r="A89" s="122">
+        <v>45327</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="120">
+        <v>24742.959999999999</v>
+      </c>
       <c r="F89" s="92"/>
       <c r="G89" s="92"/>
       <c r="H89" s="92"/>
@@ -12933,10 +13026,13 @@
       <c r="G90" s="92"/>
       <c r="H90" s="92"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="15">
       <c r="A91" s="122"/>
       <c r="B91" s="42"/>
       <c r="C91" s="120"/>
+      <c r="D91" s="144" t="s">
+        <v>337</v>
+      </c>
       <c r="F91" s="92"/>
       <c r="G91" s="92"/>
       <c r="H91" s="92"/>
@@ -12997,101 +13093,125 @@
       <c r="G98" s="92"/>
       <c r="H98" s="92"/>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="107"/>
-      <c r="B107" s="106" t="s">
+    <row r="99" spans="1:8">
+      <c r="A99" s="122"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="120"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="122"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="120"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="122"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="120"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="107"/>
+      <c r="B110" s="106" t="s">
         <v>250</v>
       </c>
-      <c r="C107" s="107"/>
-      <c r="E107" s="133">
-        <f>SUM(E108:E115)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="122"/>
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="122"/>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="122"/>
-      <c r="B110" t="s">
-        <v>199</v>
+      <c r="C110" s="107"/>
+      <c r="E110" s="133">
+        <f>SUM(E111:E118)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="122"/>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="122"/>
       <c r="B112" t="s">
-        <v>251</v>
-      </c>
-      <c r="D112" s="117">
-        <v>111</v>
-      </c>
-      <c r="E112" s="133">
-        <f>D112*C112</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="122"/>
       <c r="B113" t="s">
-        <v>252</v>
-      </c>
-      <c r="D113" s="117">
-        <v>850</v>
-      </c>
-      <c r="E113" s="133">
-        <f>D113*C113</f>
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="122"/>
       <c r="B114" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" s="117">
-        <v>100</v>
-      </c>
-      <c r="E114" s="133">
-        <f>D114*C114</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="122"/>
       <c r="B115" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" s="117">
+        <v>111</v>
+      </c>
+      <c r="E115" s="133">
+        <f>D115*C115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="122"/>
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116" s="117">
+        <v>850</v>
+      </c>
+      <c r="E116" s="133">
+        <f>D116*C116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="122"/>
+      <c r="B117" t="s">
+        <v>253</v>
+      </c>
+      <c r="D117" s="117">
+        <v>100</v>
+      </c>
+      <c r="E117" s="133">
+        <f>D117*C117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="122"/>
+      <c r="B118" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="B116" t="s">
+    <row r="119" spans="1:5">
+      <c r="B119" t="s">
         <v>255</v>
       </c>
-      <c r="E116" s="133">
+      <c r="E119" s="133">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="D118" s="117" t="s">
+    <row r="121" spans="1:5">
+      <c r="D121" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="E118" s="133">
-        <f>SUM(E108:E117)</f>
+      <c r="E121" s="133">
+        <f>SUM(E111:E120)</f>
         <v>0</v>
       </c>
     </row>
@@ -13110,10 +13230,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A81" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -13145,24 +13265,24 @@
         <v>217</v>
       </c>
       <c r="D2" s="136">
-        <f>SUM(D4:D33)</f>
+        <f>SUM(D4:D31)</f>
         <v>19455.37</v>
       </c>
       <c r="E2" s="136">
-        <f>SUM(E4:E33)</f>
+        <f>SUM(E4:E31)</f>
         <v>-65325.849999999991</v>
       </c>
       <c r="F2" s="136">
-        <f>SUM(F4:F33)</f>
-        <v>10116.040000000001</v>
+        <f>SUM(F4:F31)</f>
+        <v>20543.64</v>
       </c>
       <c r="G2" s="136">
-        <f>SUM(G4:G33)</f>
-        <v>-54434.74</v>
+        <f>SUM(G4:G31)</f>
+        <v>-69834.739999999991</v>
       </c>
       <c r="H2" s="136">
         <f>F2+G2</f>
-        <v>-44318.7</v>
+        <v>-49291.099999999991</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13187,7 +13307,7 @@
         <v>-167</v>
       </c>
       <c r="H4" s="136">
-        <f t="shared" ref="H4:H29" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H33" si="0">H3+F4+G4</f>
         <v>-167</v>
       </c>
     </row>
@@ -13280,7 +13400,7 @@
         <v>229</v>
       </c>
       <c r="E9" s="138">
-        <f>E49</f>
+        <f>E47</f>
         <v>-3900.5699999999997</v>
       </c>
       <c r="F9" s="138"/>
@@ -13301,7 +13421,7 @@
         <v>230</v>
       </c>
       <c r="E10" s="138">
-        <f>E66</f>
+        <f>E64</f>
         <v>-24792.94</v>
       </c>
       <c r="F10" s="138"/>
@@ -13484,7 +13604,7 @@
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="138">
-        <f>E44*-1</f>
+        <f>E42*-1</f>
         <v>-67.09</v>
       </c>
       <c r="G19" s="134">
@@ -13542,400 +13662,425 @@
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="A22" s="324">
+        <v>45349</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="138">
+        <v>-5000</v>
+      </c>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138">
+        <v>-5200</v>
+      </c>
       <c r="H22" s="136">
         <f t="shared" si="0"/>
-        <v>-43513.7</v>
+        <v>-48713.7</v>
       </c>
     </row>
     <row r="23" spans="1:8">
+      <c r="A23" s="324">
+        <v>45349</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="138">
+        <v>-5000</v>
+      </c>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138">
+        <v>-5200</v>
+      </c>
       <c r="H23" s="136">
         <f t="shared" si="0"/>
-        <v>-43513.7</v>
+        <v>-53913.7</v>
       </c>
     </row>
     <row r="24" spans="1:8">
+      <c r="A24" s="324">
+        <v>45349</v>
+      </c>
       <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="136">
+        <v>234</v>
+      </c>
+      <c r="E24" s="138">
         <v>-5000</v>
       </c>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138">
+        <v>-5000</v>
+      </c>
       <c r="H24" s="136">
         <f t="shared" si="0"/>
-        <v>-43513.7</v>
+        <v>-58913.7</v>
       </c>
     </row>
     <row r="25" spans="1:8">
+      <c r="A25" s="324">
+        <v>45349</v>
+      </c>
       <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="136">
-        <v>-5000</v>
-      </c>
-      <c r="F25" s="136"/>
+        <v>235</v>
+      </c>
+      <c r="D25" s="333">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138">
+        <v>10427.6</v>
+      </c>
       <c r="G25" s="136"/>
       <c r="H25" s="136">
         <f t="shared" si="0"/>
-        <v>-43513.7</v>
+        <v>-48486.1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="136">
-        <v>-5000</v>
+        <v>332</v>
+      </c>
+      <c r="D26" s="117">
+        <v>6500</v>
       </c>
       <c r="F26" s="136"/>
       <c r="G26" s="136"/>
       <c r="H26" s="136">
         <f t="shared" si="0"/>
-        <v>-43513.7</v>
+        <v>-48486.1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="117">
-        <v>10000</v>
-      </c>
-      <c r="F27" s="136">
-        <v>0</v>
-      </c>
-      <c r="G27" s="136"/>
+      <c r="A27" s="122"/>
       <c r="H27" s="136">
         <f t="shared" si="0"/>
-        <v>-43513.7</v>
+        <v>-48486.1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D28" s="117">
-        <v>6500</v>
+      <c r="A28" s="324">
+        <v>45351</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="136">
+        <v>-400</v>
       </c>
       <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
+      <c r="G28" s="136">
+        <v>-300</v>
+      </c>
       <c r="H28" s="136">
         <f t="shared" si="0"/>
-        <v>-43513.7</v>
+        <v>-48786.1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="122"/>
+      <c r="A29" s="324">
+        <v>45351</v>
+      </c>
+      <c r="B29" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="136">
+        <v>-500</v>
+      </c>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136">
+        <v>-505</v>
+      </c>
       <c r="H29" s="136">
         <f t="shared" si="0"/>
-        <v>-43513.7</v>
+        <v>-49291.1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="324">
-        <v>45351</v>
-      </c>
-      <c r="B30" s="118" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="136">
-        <v>-400</v>
-      </c>
+      <c r="D30" s="92"/>
       <c r="F30" s="136"/>
-      <c r="G30" s="136">
-        <v>-300</v>
-      </c>
+      <c r="G30" s="136"/>
       <c r="H30" s="136">
-        <f t="shared" ref="H30:H31" si="1">H29+F39+G39</f>
-        <v>-43513.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="324">
-        <v>45351</v>
-      </c>
-      <c r="B31" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="136">
-        <v>-500</v>
-      </c>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136">
-        <v>-505</v>
-      </c>
-      <c r="H31" s="136">
-        <f t="shared" si="1"/>
-        <v>-43513.7</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-49291.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
+      <c r="B31" s="126"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="136"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="D32" s="92"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136">
-        <f t="shared" ref="H32" si="2">H31+F41+G41</f>
-        <v>-43513.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="B33" s="126"/>
-      <c r="F33" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="136"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
       <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="136"/>
     </row>
     <row r="34" spans="1:8">
+      <c r="A34" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="141"/>
       <c r="G34" s="92"/>
       <c r="H34" s="92"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="92"/>
+    <row r="35" spans="1:8" s="2" customFormat="1">
+      <c r="A35" s="122"/>
+      <c r="C35" s="123"/>
+      <c r="E35" s="138"/>
       <c r="H35" s="92"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="107"/>
+      <c r="A36" s="127">
+        <v>44929</v>
+      </c>
+      <c r="B36" s="128" t="s">
+        <v>241</v>
+      </c>
       <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="141"/>
-      <c r="G36" s="92"/>
+      <c r="D36" s="129">
+        <f>SUM(D37:D42)</f>
+        <v>3749.5300000000007</v>
+      </c>
+      <c r="E36" s="142">
+        <f>SUM(E37:E42)</f>
+        <v>3837.4900000000002</v>
+      </c>
       <c r="H36" s="92"/>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="122"/>
-      <c r="C37" s="123"/>
-      <c r="E37" s="138"/>
+      <c r="B37" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1">
+        <v>999.4</v>
+      </c>
+      <c r="E37" s="134">
+        <v>999.4</v>
+      </c>
       <c r="H37" s="92"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="127">
-        <v>44929</v>
-      </c>
-      <c r="B38" s="128" t="s">
-        <v>241</v>
-      </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="129">
-        <f>SUM(D39:D44)</f>
-        <v>3749.5300000000007</v>
-      </c>
-      <c r="E38" s="142">
-        <f>SUM(E39:E44)</f>
-        <v>3837.4900000000002</v>
-      </c>
-      <c r="H38" s="92"/>
+      <c r="B38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="1">
+        <v>876.64</v>
+      </c>
+      <c r="E38" s="134">
+        <v>875</v>
+      </c>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="122"/>
-      <c r="B39" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" s="2"/>
+      <c r="B39" t="s">
+        <v>244</v>
+      </c>
       <c r="D39" s="1">
-        <v>999.4</v>
+        <v>431.36</v>
       </c>
       <c r="E39" s="134">
-        <v>999.4</v>
-      </c>
-      <c r="H39" s="92"/>
+        <v>431</v>
+      </c>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
     </row>
     <row r="40" spans="1:8">
+      <c r="A40" s="324">
+        <v>45334</v>
+      </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>1217</v>
+      </c>
+      <c r="C40" s="134">
+        <f>E40-D40</f>
+        <v>90.67999999999995</v>
       </c>
       <c r="D40" s="1">
-        <v>876.64</v>
+        <v>891.32</v>
       </c>
       <c r="E40" s="134">
-        <v>875</v>
+        <v>982</v>
       </c>
       <c r="F40" s="92"/>
       <c r="G40" s="92"/>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D41" s="1">
-        <v>431.36</v>
+        <v>483.72</v>
       </c>
       <c r="E41" s="134">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="F41" s="92"/>
       <c r="G41" s="92"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="324">
-        <v>45334</v>
-      </c>
       <c r="B42" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C42" s="134">
-        <f>E42-D42</f>
-        <v>90.67999999999995</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C42" s="120"/>
       <c r="D42" s="1">
-        <v>891.32</v>
-      </c>
-      <c r="E42" s="134">
-        <v>982</v>
+        <v>67.09</v>
+      </c>
+      <c r="E42" s="143">
+        <v>67.09</v>
       </c>
       <c r="F42" s="92"/>
       <c r="G42" s="92"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>246</v>
-      </c>
-      <c r="D43" s="1">
-        <v>483.72</v>
-      </c>
-      <c r="E43" s="134">
-        <v>483</v>
-      </c>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="92"/>
       <c r="G43" s="92"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="120"/>
-      <c r="D44" s="1">
-        <v>67.09</v>
-      </c>
-      <c r="E44" s="143">
-        <v>67.09</v>
-      </c>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-    </row>
     <row r="45" spans="1:8">
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
+      <c r="B45" s="100"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="117"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="100"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="106" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="142">
+        <f>SUM(E48:E61)</f>
+        <v>-3900.5699999999997</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="117"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="107"/>
-      <c r="B49" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="142">
-        <f>SUM(E50:E63)</f>
-        <v>-3900.5699999999997</v>
-      </c>
+      <c r="A49" s="110"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
     </row>
     <row r="50" spans="1:8">
+      <c r="A50" s="110">
+        <v>45043</v>
+      </c>
+      <c r="B50" s="120" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" s="120">
+        <v>10764.57</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="E50" s="136">
+        <v>-1196.0899999999999</v>
+      </c>
       <c r="G50" s="92"/>
       <c r="H50" s="92"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="110"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="120"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="92"/>
+      <c r="A51" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B51" s="120" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="120">
+        <v>7648.33</v>
+      </c>
+      <c r="D51" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="E51" s="136">
+        <v>-849.81</v>
+      </c>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="110">
-        <v>45043</v>
+      <c r="A52" s="122">
+        <v>45187</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C52" s="120">
-        <v>10764.57</v>
-      </c>
-      <c r="D52" s="64" t="s">
-        <v>283</v>
+        <v>11128</v>
+      </c>
+      <c r="D52" s="130" t="s">
+        <v>336</v>
       </c>
       <c r="E52" s="136">
-        <v>-1196.0899999999999</v>
+        <v>-1854.67</v>
       </c>
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B53" s="120" t="s">
-        <v>282</v>
-      </c>
-      <c r="C53" s="120">
-        <v>7648.33</v>
-      </c>
-      <c r="D53" s="130" t="s">
-        <v>335</v>
-      </c>
-      <c r="E53" s="136">
-        <v>-849.81</v>
+    <row r="53" spans="1:8" ht="15">
+      <c r="D53" s="144" t="s">
+        <v>337</v>
       </c>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B54" s="120" t="s">
-        <v>310</v>
-      </c>
-      <c r="C54" s="120">
-        <v>11128</v>
-      </c>
-      <c r="D54" s="130" t="s">
-        <v>336</v>
-      </c>
-      <c r="E54" s="136">
-        <v>-1854.67</v>
-      </c>
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
     </row>
-    <row r="55" spans="1:8" ht="15">
-      <c r="D55" s="144" t="s">
-        <v>337</v>
-      </c>
+    <row r="55" spans="1:8">
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" s="122"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
+      <c r="F56" s="92"/>
       <c r="G56" s="92"/>
       <c r="H56" s="92"/>
     </row>
     <row r="57" spans="1:8">
+      <c r="A57" s="122"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="F57" s="92"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="122"/>
-      <c r="B58" s="120"/>
+      <c r="B58" s="131"/>
       <c r="C58" s="120"/>
       <c r="D58" s="120"/>
       <c r="F58" s="92"/>
@@ -13944,7 +14089,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="122"/>
-      <c r="B59" s="120"/>
+      <c r="B59" s="131"/>
       <c r="C59" s="120"/>
       <c r="D59" s="120"/>
       <c r="F59" s="92"/>
@@ -13954,8 +14099,6 @@
     <row r="60" spans="1:8">
       <c r="A60" s="122"/>
       <c r="B60" s="131"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
       <c r="F60" s="92"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
@@ -13971,14 +14114,14 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="122"/>
-      <c r="B62" s="131"/>
+      <c r="B62" s="42"/>
       <c r="F62" s="92"/>
       <c r="G62" s="92"/>
       <c r="H62" s="92"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="122"/>
-      <c r="B63" s="131"/>
+      <c r="B63" s="120"/>
       <c r="C63" s="120"/>
       <c r="D63" s="120"/>
       <c r="F63" s="92"/>
@@ -13986,73 +14129,95 @@
       <c r="H63" s="92"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="122"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="107"/>
+      <c r="B64" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="145">
+        <f>SUM(E65:E102)</f>
+        <v>-24792.94</v>
+      </c>
       <c r="F64" s="92"/>
       <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="122"/>
       <c r="B65" s="120"/>
       <c r="C65" s="120"/>
-      <c r="D65" s="120"/>
+      <c r="E65" s="136"/>
       <c r="F65" s="92"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="107"/>
-      <c r="B66" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="145">
-        <f>SUM(E67:E104)</f>
-        <v>-24792.94</v>
-      </c>
-      <c r="F66" s="92"/>
+      <c r="A66" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="120"/>
+      <c r="D66" t="s">
+        <v>338</v>
+      </c>
+      <c r="E66" s="136">
+        <v>-3974.44</v>
+      </c>
       <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="122"/>
-      <c r="B67" s="120"/>
-      <c r="C67" s="120"/>
-      <c r="E67" s="136"/>
+      <c r="A67" s="4">
+        <v>45214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" t="s">
+        <v>339</v>
+      </c>
+      <c r="E67" s="136">
+        <v>-600</v>
+      </c>
       <c r="F67" s="92"/>
       <c r="G67" s="92"/>
       <c r="H67" s="92"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="122">
-        <v>45187</v>
+      <c r="A68" s="4">
+        <v>45285</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="C68" s="120"/>
       <c r="D68" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E68" s="136">
-        <v>-3974.44</v>
-      </c>
+        <v>-3551.66</v>
+      </c>
+      <c r="F68" s="92"/>
       <c r="G68" s="92"/>
       <c r="H68" s="92"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4">
-        <v>45214</v>
+        <v>45259</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>316</v>
+      </c>
+      <c r="C69" s="134">
+        <v>-1204.5</v>
       </c>
       <c r="D69" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E69" s="136">
-        <v>-600</v>
+        <v>-401.5</v>
       </c>
       <c r="F69" s="92"/>
       <c r="G69" s="92"/>
@@ -14060,17 +14225,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4">
-        <v>45285</v>
-      </c>
-      <c r="B70" s="120" t="s">
-        <v>274</v>
-      </c>
-      <c r="C70" s="120"/>
+        <v>45259</v>
+      </c>
+      <c r="B70" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="134">
+        <v>-148.6</v>
+      </c>
       <c r="D70" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E70" s="136">
-        <v>-3551.66</v>
+        <v>-49.53</v>
       </c>
       <c r="F70" s="92"/>
       <c r="G70" s="92"/>
@@ -14081,16 +14248,16 @@
         <v>45259</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C71" s="134">
-        <v>-1204.5</v>
+        <v>-244.8</v>
       </c>
       <c r="D71" t="s">
         <v>341</v>
       </c>
       <c r="E71" s="136">
-        <v>-401.5</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F71" s="92"/>
       <c r="G71" s="92"/>
@@ -14101,56 +14268,50 @@
         <v>45259</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C72" s="134">
-        <v>-148.6</v>
+        <v>-532.6</v>
       </c>
       <c r="D72" t="s">
         <v>341</v>
       </c>
       <c r="E72" s="136">
-        <v>-49.53</v>
+        <v>-177.53</v>
       </c>
       <c r="F72" s="92"/>
       <c r="G72" s="92"/>
       <c r="H72" s="92"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B73" t="s">
-        <v>319</v>
-      </c>
-      <c r="C73" s="134">
-        <v>-244.8</v>
+      <c r="A73" s="4"/>
+      <c r="B73" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="120">
+        <v>899</v>
       </c>
       <c r="D73" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E73" s="136">
-        <v>-81.599999999999994</v>
+        <v>-449.5</v>
       </c>
       <c r="F73" s="92"/>
       <c r="G73" s="92"/>
       <c r="H73" s="92"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B74" t="s">
-        <v>320</v>
-      </c>
-      <c r="C74" s="134">
-        <v>-532.6</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="120" t="s">
+        <v>322</v>
+      </c>
+      <c r="C74" s="120"/>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E74" s="136">
-        <v>-177.53</v>
+        <v>-299.64</v>
       </c>
       <c r="F74" s="92"/>
       <c r="G74" s="92"/>
@@ -14159,66 +14320,64 @@
     <row r="75" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="120">
-        <v>899</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C75" s="120"/>
       <c r="D75" t="s">
         <v>342</v>
       </c>
       <c r="E75" s="136">
-        <v>-449.5</v>
+        <v>-546.83000000000004</v>
       </c>
       <c r="F75" s="92"/>
       <c r="G75" s="92"/>
       <c r="H75" s="92"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="4"/>
-      <c r="B76" s="120" t="s">
-        <v>322</v>
-      </c>
+      <c r="A76" s="122"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="120"/>
-      <c r="D76" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="136">
-        <v>-299.64</v>
-      </c>
+      <c r="D76" s="120"/>
+      <c r="E76" s="136"/>
       <c r="F76" s="92"/>
       <c r="G76" s="92"/>
       <c r="H76" s="92"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="4"/>
-      <c r="B77" s="120" t="s">
-        <v>323</v>
+      <c r="A77" s="122">
+        <v>45312</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>343</v>
       </c>
       <c r="C77" s="120"/>
-      <c r="D77" t="s">
-        <v>342</v>
-      </c>
+      <c r="D77" s="120"/>
       <c r="E77" s="136">
-        <v>-546.83000000000004</v>
+        <v>-505</v>
       </c>
       <c r="F77" s="92"/>
       <c r="G77" s="92"/>
       <c r="H77" s="92"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="122"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="122">
+        <v>45312</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>344</v>
+      </c>
       <c r="C78" s="120"/>
       <c r="D78" s="120"/>
-      <c r="E78" s="136"/>
+      <c r="E78" s="136">
+        <v>-223.2</v>
+      </c>
       <c r="F78" s="92"/>
       <c r="G78" s="92"/>
       <c r="H78" s="92"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="122">
-        <v>45312</v>
+        <v>45310</v>
       </c>
       <c r="B79" s="42" t="s">
         <v>343</v>
@@ -14226,7 +14385,7 @@
       <c r="C79" s="120"/>
       <c r="D79" s="120"/>
       <c r="E79" s="136">
-        <v>-505</v>
+        <v>-655</v>
       </c>
       <c r="F79" s="92"/>
       <c r="G79" s="92"/>
@@ -14234,15 +14393,15 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="122">
-        <v>45312</v>
+        <v>45293</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C80" s="120"/>
       <c r="D80" s="120"/>
       <c r="E80" s="136">
-        <v>-223.2</v>
+        <v>-480</v>
       </c>
       <c r="F80" s="92"/>
       <c r="G80" s="92"/>
@@ -14250,15 +14409,15 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="122">
-        <v>45310</v>
+        <v>45293</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C81" s="120"/>
       <c r="D81" s="120"/>
       <c r="E81" s="136">
-        <v>-655</v>
+        <v>-1200</v>
       </c>
       <c r="F81" s="92"/>
       <c r="G81" s="92"/>
@@ -14269,29 +14428,27 @@
         <v>45293</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C82" s="120"/>
       <c r="D82" s="120"/>
       <c r="E82" s="136">
-        <v>-480</v>
+        <v>-500</v>
       </c>
       <c r="F82" s="92"/>
       <c r="G82" s="92"/>
       <c r="H82" s="92"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="122">
-        <v>45293</v>
-      </c>
+      <c r="A83" s="122"/>
       <c r="B83" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="C83" s="120"/>
+        <v>149</v>
+      </c>
+      <c r="C83" s="120">
+        <v>12474.55</v>
+      </c>
       <c r="D83" s="120"/>
-      <c r="E83" s="136">
-        <v>-1200</v>
-      </c>
+      <c r="E83" s="136"/>
       <c r="F83" s="92"/>
       <c r="G83" s="92"/>
       <c r="H83" s="92"/>
@@ -14301,42 +14458,44 @@
         <v>45293</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C84" s="120"/>
       <c r="D84" s="120"/>
       <c r="E84" s="136">
-        <v>-500</v>
+        <v>-150</v>
       </c>
       <c r="F84" s="92"/>
       <c r="G84" s="92"/>
       <c r="H84" s="92"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="122"/>
+      <c r="A85" s="122">
+        <v>45291</v>
+      </c>
       <c r="B85" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="120">
-        <v>12474.55</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C85" s="120"/>
       <c r="D85" s="120"/>
-      <c r="E85" s="136"/>
+      <c r="E85" s="136">
+        <v>-60</v>
+      </c>
       <c r="F85" s="92"/>
       <c r="G85" s="92"/>
       <c r="H85" s="92"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="122">
-        <v>45293</v>
+        <v>45290</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C86" s="120"/>
       <c r="D86" s="120"/>
       <c r="E86" s="136">
-        <v>-150</v>
+        <v>-73</v>
       </c>
       <c r="F86" s="92"/>
       <c r="G86" s="92"/>
@@ -14344,15 +14503,15 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="122">
-        <v>45291</v>
+        <v>45290</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C87" s="120"/>
       <c r="D87" s="120"/>
       <c r="E87" s="136">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="F87" s="92"/>
       <c r="G87" s="92"/>
@@ -14360,15 +14519,15 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="122">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C88" s="120"/>
       <c r="D88" s="120"/>
       <c r="E88" s="136">
-        <v>-73</v>
+        <v>-944</v>
       </c>
       <c r="F88" s="92"/>
       <c r="G88" s="92"/>
@@ -14376,15 +14535,15 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="122">
-        <v>45290</v>
+        <v>45288</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C89" s="120"/>
       <c r="D89" s="120"/>
       <c r="E89" s="136">
-        <v>-100</v>
+        <v>-140</v>
       </c>
       <c r="F89" s="92"/>
       <c r="G89" s="92"/>
@@ -14392,15 +14551,15 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="122">
-        <v>45289</v>
+        <v>45288</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C90" s="120"/>
       <c r="D90" s="120"/>
       <c r="E90" s="136">
-        <v>-944</v>
+        <v>-1570.18</v>
       </c>
       <c r="F90" s="92"/>
       <c r="G90" s="92"/>
@@ -14411,12 +14570,12 @@
         <v>45288</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C91" s="120"/>
       <c r="D91" s="120"/>
       <c r="E91" s="136">
-        <v>-140</v>
+        <v>-169.27</v>
       </c>
       <c r="F91" s="92"/>
       <c r="G91" s="92"/>
@@ -14427,12 +14586,12 @@
         <v>45288</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C92" s="120"/>
       <c r="D92" s="120"/>
       <c r="E92" s="136">
-        <v>-1570.18</v>
+        <v>-800</v>
       </c>
       <c r="F92" s="92"/>
       <c r="G92" s="92"/>
@@ -14440,7 +14599,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="122">
-        <v>45288</v>
+        <v>45287</v>
       </c>
       <c r="B93" s="42" t="s">
         <v>352</v>
@@ -14448,7 +14607,7 @@
       <c r="C93" s="120"/>
       <c r="D93" s="120"/>
       <c r="E93" s="136">
-        <v>-169.27</v>
+        <v>-438.05</v>
       </c>
       <c r="F93" s="92"/>
       <c r="G93" s="92"/>
@@ -14456,15 +14615,17 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="122">
-        <v>45288</v>
+        <v>45653</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
+      <c r="D94" s="120">
+        <v>185</v>
+      </c>
       <c r="E94" s="136">
-        <v>-800</v>
+        <v>-185</v>
       </c>
       <c r="F94" s="92"/>
       <c r="G94" s="92"/>
@@ -14472,15 +14633,17 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="122">
-        <v>45287</v>
+        <v>45653</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C95" s="120"/>
-      <c r="D95" s="120"/>
+      <c r="D95" s="120">
+        <v>25.85</v>
+      </c>
       <c r="E95" s="136">
-        <v>-438.05</v>
+        <v>-25.85</v>
       </c>
       <c r="F95" s="92"/>
       <c r="G95" s="92"/>
@@ -14488,17 +14651,15 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="122">
-        <v>45653</v>
+        <v>45286</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C96" s="120"/>
-      <c r="D96" s="120">
-        <v>185</v>
-      </c>
+      <c r="D96" s="120"/>
       <c r="E96" s="136">
-        <v>-185</v>
+        <v>-160</v>
       </c>
       <c r="F96" s="92"/>
       <c r="G96" s="92"/>
@@ -14506,17 +14667,15 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="122">
-        <v>45653</v>
+        <v>45286</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C97" s="120"/>
-      <c r="D97" s="120">
-        <v>25.85</v>
-      </c>
+      <c r="D97" s="120"/>
       <c r="E97" s="136">
-        <v>-25.85</v>
+        <v>-300</v>
       </c>
       <c r="F97" s="92"/>
       <c r="G97" s="92"/>
@@ -14524,49 +14683,45 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="122">
-        <v>45286</v>
+        <v>45651</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C98" s="120"/>
-      <c r="D98" s="120"/>
+      <c r="D98" s="120">
+        <v>112.64</v>
+      </c>
       <c r="E98" s="136">
-        <v>-160</v>
+        <v>-112.64</v>
       </c>
       <c r="F98" s="92"/>
       <c r="G98" s="92"/>
       <c r="H98" s="92"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="122">
-        <v>45286</v>
-      </c>
+      <c r="A99" s="122"/>
       <c r="B99" s="42" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C99" s="120"/>
       <c r="D99" s="120"/>
       <c r="E99" s="136">
-        <v>-300</v>
+        <v>-193</v>
       </c>
       <c r="F99" s="92"/>
       <c r="G99" s="92"/>
       <c r="H99" s="92"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="122">
-        <v>45651</v>
-      </c>
+      <c r="A100" s="122"/>
       <c r="B100" s="42" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C100" s="120"/>
-      <c r="D100" s="120">
-        <v>112.64</v>
-      </c>
+      <c r="D100" s="120"/>
       <c r="E100" s="136">
-        <v>-112.64</v>
+        <v>-5517.52</v>
       </c>
       <c r="F100" s="92"/>
       <c r="G100" s="92"/>
@@ -14575,12 +14730,12 @@
     <row r="101" spans="1:8">
       <c r="A101" s="122"/>
       <c r="B101" s="42" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C101" s="120"/>
       <c r="D101" s="120"/>
       <c r="E101" s="136">
-        <v>-193</v>
+        <v>-105</v>
       </c>
       <c r="F101" s="92"/>
       <c r="G101" s="92"/>
@@ -14589,12 +14744,12 @@
     <row r="102" spans="1:8">
       <c r="A102" s="122"/>
       <c r="B102" s="42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="120"/>
       <c r="E102" s="136">
-        <v>-5517.52</v>
+        <v>-54</v>
       </c>
       <c r="F102" s="92"/>
       <c r="G102" s="92"/>
@@ -14602,42 +14757,36 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="122"/>
-      <c r="B103" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="C103" s="120"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="136">
-        <v>-105</v>
-      </c>
+      <c r="B103" s="42"/>
+      <c r="C103" s="146" t="s">
+        <v>362</v>
+      </c>
+      <c r="D103" s="131">
+        <f>SUM(D94:D102)</f>
+        <v>323.49</v>
+      </c>
+      <c r="E103" s="136"/>
       <c r="F103" s="92"/>
       <c r="G103" s="92"/>
       <c r="H103" s="92"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" ht="15">
       <c r="A104" s="122"/>
-      <c r="B104" s="42" t="s">
-        <v>361</v>
-      </c>
+      <c r="B104" s="42"/>
       <c r="C104" s="120"/>
-      <c r="D104" s="120"/>
-      <c r="E104" s="136">
-        <v>-54</v>
-      </c>
+      <c r="D104" s="144" t="s">
+        <v>337</v>
+      </c>
+      <c r="E104" s="136"/>
       <c r="F104" s="92"/>
       <c r="G104" s="92"/>
       <c r="H104" s="92"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" ht="15">
       <c r="A105" s="122"/>
       <c r="B105" s="42"/>
-      <c r="C105" s="146" t="s">
-        <v>362</v>
-      </c>
-      <c r="D105" s="131">
-        <f>SUM(D96:D104)</f>
-        <v>323.49</v>
-      </c>
+      <c r="C105" s="120"/>
+      <c r="D105" s="334"/>
       <c r="E105" s="136"/>
       <c r="F105" s="92"/>
       <c r="G105" s="92"/>
@@ -14647,9 +14796,7 @@
       <c r="A106" s="122"/>
       <c r="B106" s="42"/>
       <c r="C106" s="120"/>
-      <c r="D106" s="144" t="s">
-        <v>337</v>
-      </c>
+      <c r="D106" s="334"/>
       <c r="E106" s="136"/>
       <c r="F106" s="92"/>
       <c r="G106" s="92"/>
@@ -14659,7 +14806,7 @@
       <c r="A107" s="122"/>
       <c r="B107" s="42"/>
       <c r="C107" s="120"/>
-      <c r="D107" s="336"/>
+      <c r="D107" s="334"/>
       <c r="E107" s="136"/>
       <c r="F107" s="92"/>
       <c r="G107" s="92"/>
@@ -14669,100 +14816,106 @@
       <c r="A108" s="122"/>
       <c r="B108" s="42"/>
       <c r="C108" s="120"/>
-      <c r="D108" s="336"/>
+      <c r="D108" s="334"/>
       <c r="E108" s="136"/>
       <c r="F108" s="92"/>
       <c r="G108" s="92"/>
       <c r="H108" s="92"/>
     </row>
-    <row r="109" spans="1:8" ht="15">
-      <c r="A109" s="122"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="120"/>
-      <c r="D109" s="336"/>
-      <c r="E109" s="136"/>
-      <c r="F109" s="92"/>
-      <c r="G109" s="92"/>
-      <c r="H109" s="92"/>
-    </row>
-    <row r="110" spans="1:8" ht="15">
+    <row r="109" spans="1:8">
+      <c r="A109" s="107"/>
+      <c r="B109" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="107"/>
+      <c r="D109" s="108"/>
+      <c r="E109" s="142">
+        <f>SUM(E110:E120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="122"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="120"/>
-      <c r="D110" s="336"/>
-      <c r="E110" s="136"/>
-      <c r="F110" s="92"/>
-      <c r="G110" s="92"/>
-      <c r="H110" s="92"/>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="107"/>
-      <c r="B111" s="106" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" s="107"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="142">
-        <f>SUM(E112:E122)</f>
-        <v>0</v>
+      <c r="A111" s="122"/>
+      <c r="B111" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="122"/>
+      <c r="A112" s="122">
+        <v>45337</v>
+      </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1221</v>
+      </c>
+      <c r="C112">
+        <v>15000</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="122"/>
+      <c r="A113" s="122">
+        <v>45338</v>
+      </c>
       <c r="B113" t="s">
-        <v>1</v>
+        <v>1221</v>
+      </c>
+      <c r="C113">
+        <v>15000</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="122">
-        <v>45337</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C114">
-        <v>15000</v>
-      </c>
+      <c r="A114" s="122"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="122">
-        <v>45338</v>
-      </c>
+      <c r="A115" s="122"/>
       <c r="B115" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C115">
-        <v>15000</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="122"/>
+      <c r="B116" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="122"/>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>251</v>
+      </c>
+      <c r="D117">
+        <v>111</v>
+      </c>
+      <c r="E117" s="134">
+        <f>D117*C117</f>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="122"/>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>252</v>
+      </c>
+      <c r="D118">
+        <v>850</v>
+      </c>
+      <c r="E118" s="134">
+        <f>D118*C118</f>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="122"/>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D119">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E119" s="134">
         <f>D119*C119</f>
@@ -14772,51 +14925,25 @@
     <row r="120" spans="1:5">
       <c r="A120" s="122"/>
       <c r="B120" t="s">
-        <v>252</v>
-      </c>
-      <c r="D120">
-        <v>850</v>
-      </c>
-      <c r="E120" s="134">
-        <f>D120*C120</f>
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="122"/>
       <c r="B121" t="s">
-        <v>253</v>
-      </c>
-      <c r="D121">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="E121" s="134">
-        <f>D121*C121</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="122"/>
-      <c r="B122" t="s">
-        <v>254</v>
+        <f>H2</f>
+        <v>-49291.099999999991</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="B123" t="s">
-        <v>255</v>
+      <c r="D123" s="99" t="s">
+        <v>215</v>
       </c>
       <c r="E123" s="134">
-        <f>H2</f>
-        <v>-44318.7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="D125" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="E125" s="134">
-        <f>SUM(E112:E124)</f>
-        <v>-44318.7</v>
+        <f>SUM(E110:E122)</f>
+        <v>-49291.099999999991</v>
       </c>
     </row>
   </sheetData>
@@ -14836,7 +14963,7 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
@@ -53792,10 +53919,10 @@
       <c r="K1" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="334" t="s">
+      <c r="L1" s="335" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="334"/>
+      <c r="M1" s="335"/>
       <c r="N1" t="s">
         <v>161</v>
       </c>
@@ -53906,15 +54033,15 @@
       </c>
       <c r="E4" s="61">
         <f>'02_24'!F2</f>
-        <v>10116.040000000001</v>
+        <v>20543.64</v>
       </c>
       <c r="F4" s="61">
         <f>'02_24'!G2</f>
-        <v>-54434.74</v>
+        <v>-69834.739999999991</v>
       </c>
       <c r="G4" s="62">
         <f t="shared" ref="G4:G14" si="1">E4+F4+G3</f>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="64" t="s">
@@ -53933,7 +54060,7 @@
       </c>
       <c r="M4" s="67"/>
       <c r="N4">
-        <f>'02_24'!E118/1000</f>
+        <f>'02_24'!E116/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -53947,11 +54074,11 @@
       </c>
       <c r="C5" s="61">
         <f>'03_24'!E2</f>
-        <v>-179517.19</v>
+        <v>-179117.16</v>
       </c>
       <c r="D5" s="62">
         <f t="shared" si="0"/>
-        <v>81907.169999999984</v>
+        <v>82307.199999999983</v>
       </c>
       <c r="E5" s="61">
         <f>'03_24'!F2</f>
@@ -53963,7 +54090,7 @@
       </c>
       <c r="G5" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="64" t="s">
@@ -53979,7 +54106,7 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E112/1000</f>
+        <f>'03_24'!E115/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -53993,11 +54120,11 @@
       </c>
       <c r="C6" s="61">
         <f>'04_24'!E2</f>
-        <v>-41453.270000000004</v>
+        <v>-42180.6</v>
       </c>
       <c r="D6" s="62">
         <f t="shared" si="0"/>
-        <v>64453.89999999998</v>
+        <v>64126.599999999984</v>
       </c>
       <c r="E6" s="61">
         <f>'04_24'!F2</f>
@@ -54009,7 +54136,7 @@
       </c>
       <c r="G6" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="70" t="s">
@@ -54017,9 +54144,9 @@
       </c>
       <c r="K6" s="68"/>
       <c r="L6" s="66"/>
-      <c r="M6" s="71">
+      <c r="M6" s="71" t="e">
         <f>E18/1000</f>
-        <v>10.427619999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="N6">
         <f>'04_24'!E110/1000</f>
@@ -54036,11 +54163,11 @@
       </c>
       <c r="C7" s="61">
         <f>'05_24'!E2</f>
-        <v>-40853.270000000004</v>
+        <v>-41087.599999999999</v>
       </c>
       <c r="D7" s="62">
         <f t="shared" si="0"/>
-        <v>47600.629999999976</v>
+        <v>47038.999999999985</v>
       </c>
       <c r="E7" s="61">
         <f>'05_24'!F2</f>
@@ -54052,7 +54179,7 @@
       </c>
       <c r="G7" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H7" s="63"/>
       <c r="I7" s="70" t="s">
@@ -54079,11 +54206,11 @@
       </c>
       <c r="C8" s="61">
         <f>'06_24'!E2</f>
-        <v>-46073.270000000004</v>
+        <v>-46307.6</v>
       </c>
       <c r="D8" s="62">
         <f t="shared" si="0"/>
-        <v>25527.359999999971</v>
+        <v>24731.399999999987</v>
       </c>
       <c r="E8" s="61">
         <f>'06_24'!F2</f>
@@ -54095,7 +54222,7 @@
       </c>
       <c r="G8" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="64" t="s">
@@ -54125,11 +54252,11 @@
       </c>
       <c r="C9" s="61">
         <f>'07_24'!E2</f>
-        <v>-45223.46</v>
+        <v>-45457.79</v>
       </c>
       <c r="D9" s="62">
         <f t="shared" si="0"/>
-        <v>9303.8999999999724</v>
+        <v>8273.609999999986</v>
       </c>
       <c r="E9" s="61">
         <f>'07_24'!F2</f>
@@ -54141,7 +54268,7 @@
       </c>
       <c r="G9" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="64" t="s">
@@ -54174,11 +54301,11 @@
       </c>
       <c r="C10" s="61">
         <f>'08_24'!E2</f>
-        <v>-41671.800000000003</v>
+        <v>-41906.129999999997</v>
       </c>
       <c r="D10" s="62">
         <f t="shared" si="0"/>
-        <v>146132.09999999998</v>
+        <v>144867.47999999998</v>
       </c>
       <c r="E10" s="61">
         <f>'08_24'!F2</f>
@@ -54190,7 +54317,7 @@
       </c>
       <c r="G10" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H10" s="63"/>
       <c r="I10" s="64" t="s">
@@ -54220,11 +54347,11 @@
       </c>
       <c r="C11" s="61">
         <f>'09_24'!E2</f>
-        <v>-41072</v>
+        <v>-41306.33</v>
       </c>
       <c r="D11" s="62">
         <f t="shared" si="0"/>
-        <v>283560.09999999998</v>
+        <v>282061.14999999997</v>
       </c>
       <c r="E11" s="61">
         <f>'09_24'!F2</f>
@@ -54236,7 +54363,7 @@
       </c>
       <c r="G11" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="64" t="s">
@@ -54273,7 +54400,7 @@
       </c>
       <c r="D12" s="62">
         <f t="shared" si="0"/>
-        <v>296988.09999999998</v>
+        <v>295489.14999999997</v>
       </c>
       <c r="E12" s="61">
         <f>'10_24'!F2</f>
@@ -54285,7 +54412,7 @@
       </c>
       <c r="G12" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H12" s="63"/>
       <c r="I12" s="64" t="s">
@@ -54322,7 +54449,7 @@
       </c>
       <c r="D13" s="62">
         <f t="shared" si="0"/>
-        <v>540416.1</v>
+        <v>538917.14999999991</v>
       </c>
       <c r="E13" s="61">
         <f>'11_24'!F2</f>
@@ -54334,7 +54461,7 @@
       </c>
       <c r="G13" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H13" s="63"/>
       <c r="I13" s="64" t="s">
@@ -54371,7 +54498,7 @@
       </c>
       <c r="D14" s="62">
         <f t="shared" si="0"/>
-        <v>532813.34</v>
+        <v>531314.3899999999</v>
       </c>
       <c r="E14" s="61">
         <f>'12_24'!F2</f>
@@ -54383,7 +54510,7 @@
       </c>
       <c r="G14" s="62">
         <f t="shared" si="1"/>
-        <v>84215.670000000027</v>
+        <v>79243.270000000033</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="73" t="s">
@@ -54416,23 +54543,23 @@
       </c>
       <c r="C15" s="62">
         <f>SUM(C3:C14)</f>
-        <v>-777906.63000000012</v>
+        <v>-779405.58</v>
       </c>
       <c r="D15" s="62">
         <f>B15+C15</f>
-        <v>532813.33999999985</v>
+        <v>531314.39</v>
       </c>
       <c r="E15" s="62">
         <f>SUM(E3:E14)</f>
-        <v>205027.62000000002</v>
+        <v>215455.22000000003</v>
       </c>
       <c r="F15" s="62">
         <f>SUM(F3:F14)</f>
-        <v>-120811.94999999998</v>
+        <v>-136211.94999999998</v>
       </c>
       <c r="G15" s="62">
         <f>E15+F15</f>
-        <v>84215.670000000042</v>
+        <v>79243.270000000048</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="77"/>
@@ -54448,9 +54575,9 @@
         <f>SUM(L4:L14)</f>
         <v>743.20675200000005</v>
       </c>
-      <c r="M15" s="81">
+      <c r="M15" s="81" t="e">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>376.92761999999999</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -54463,20 +54590,20 @@
       </c>
       <c r="C16" s="84">
         <f>C15/A16</f>
-        <v>-64825.552500000013</v>
+        <v>-64950.464999999997</v>
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="84">
         <f>E15/A16</f>
-        <v>17085.635000000002</v>
+        <v>17954.601666666669</v>
       </c>
       <c r="F16" s="84">
         <f>F15/A16</f>
-        <v>-10067.662499999999</v>
+        <v>-11350.995833333332</v>
       </c>
       <c r="G16" s="84">
         <f>G15/A16</f>
-        <v>7017.9725000000035</v>
+        <v>6603.6058333333376</v>
       </c>
       <c r="H16" s="85"/>
       <c r="I16" s="86"/>
@@ -54492,9 +54619,9 @@
         <f>L15/12</f>
         <v>61.933896000000004</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="90" t="e">
         <f>M15/12</f>
-        <v>31.410634999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="N16" s="91">
         <f>AVERAGE(N2:N15)</f>
@@ -54510,28 +54637,28 @@
       <c r="K17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L17" s="335">
+      <c r="L17" s="336" t="e">
         <f>L15+M15</f>
-        <v>1120.134372</v>
-      </c>
-      <c r="M17" s="335"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="336"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F27+'03_24'!F21+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
-        <v>10427.619999999999</v>
+      <c r="E18" s="1" t="e">
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!#REF!+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
+        <v>#REF!</v>
       </c>
       <c r="J18" s="64"/>
       <c r="K18" s="1" t="s">
         <v>192</v>
       </c>
       <c r="L18" s="94"/>
-      <c r="M18" s="95">
+      <c r="M18" s="95" t="e">
         <f>L17/12</f>
-        <v>93.344531000000003</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -54548,9 +54675,9 @@
       <c r="D20" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="100" t="e">
         <f>SUM(E18:E19)</f>
-        <v>10427.619999999999</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15">
@@ -57349,7 +57476,7 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -58487,8 +58614,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -58524,7 +58651,7 @@
       </c>
       <c r="E2" s="116">
         <f>SUM(E4:E34)</f>
-        <v>-41072</v>
+        <v>-41306.33</v>
       </c>
       <c r="F2" s="116">
         <f>SUM(F4:F34)</f>
@@ -58710,7 +58837,7 @@
       </c>
       <c r="E15" s="92">
         <f>E50</f>
-        <v>0</v>
+        <v>-234.33</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
@@ -59071,7 +59198,7 @@
       <c r="D50" s="108"/>
       <c r="E50" s="109">
         <f>SUM(E51:E62)</f>
-        <v>0</v>
+        <v>-234.33</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -59079,11 +59206,21 @@
       <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="122"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="113"/>
+      <c r="A52" s="324">
+        <v>45348</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C52">
+        <v>1406</v>
+      </c>
+      <c r="D52" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52" s="136">
+        <v>-234.33</v>
+      </c>
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
     </row>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA17FCC-2AA5-436C-A964-3B7941093D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9003E2-3970-4093-9EDC-D1FD5409A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <sheet name="22_1" sheetId="46" r:id="rId46"/>
     <sheet name="PROCESS" sheetId="47" r:id="rId47"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1246">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -3999,6 +3999,9 @@
   </si>
   <si>
     <t>atasun yakın gözlük sigorta</t>
+  </si>
+  <si>
+    <t>yasemin okul -65000 deniz kk ile</t>
   </si>
 </sst>
 </file>
@@ -5436,11 +5439,11 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="45" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="18" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="45" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -11894,16 +11897,18 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="117" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="133"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11919,19 +11924,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
+      <c r="B2" s="42" t="s">
         <v>303</v>
       </c>
       <c r="C2" s="115" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="117">
-        <f>SUM(D5:D34)</f>
+        <f>SUM(D7:D34)</f>
         <v>19300</v>
       </c>
       <c r="E2" s="133">
-        <f>SUM(E5:E34)</f>
-        <v>-179117.16</v>
+        <f>SUM(E7:E34)</f>
+        <v>-112467.16</v>
       </c>
       <c r="F2" s="116">
         <f>SUM(F11:F34)</f>
@@ -11969,68 +11974,106 @@
       <c r="A5" s="324">
         <v>45352</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="E5" s="133">
+        <v>-1500</v>
+      </c>
+      <c r="G5" s="133">
+        <f>E5</f>
+        <v>-1500</v>
+      </c>
+      <c r="H5" s="92">
+        <f t="shared" ref="H5:H9" si="0">H4+F5+G5</f>
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="324">
+        <v>45352</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="133">
+        <v>-150</v>
+      </c>
+      <c r="G6" s="133">
+        <f t="shared" ref="G6:G8" si="1">E6</f>
+        <v>-150</v>
+      </c>
+      <c r="H6" s="92">
+        <f t="shared" si="0"/>
+        <v>-1650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="324">
+        <v>45355</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E7" s="133">
         <v>-152</v>
       </c>
-      <c r="H5" s="92">
-        <f t="shared" ref="H5:H33" si="0">H4+F5+G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="99"/>
-      <c r="H6" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="99"/>
+      <c r="G7" s="133">
+        <f t="shared" si="1"/>
+        <v>-152</v>
+      </c>
       <c r="H7" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1802</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="99"/>
+      <c r="A8" s="324">
+        <v>45355</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="133">
+        <v>-10000</v>
+      </c>
+      <c r="G8" s="133">
+        <f t="shared" si="1"/>
+        <v>-10000</v>
+      </c>
       <c r="H8" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-11802</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="99"/>
       <c r="H9" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-11802</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="99"/>
       <c r="H10" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H10:H33" si="2">H9+F10+G10</f>
+        <v>-11802</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="H11" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="133">
-        <v>-10000</v>
-      </c>
       <c r="H12" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -12043,8 +12086,8 @@
       </c>
       <c r="G13" s="92"/>
       <c r="H13" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -12057,25 +12100,16 @@
       </c>
       <c r="G14" s="92"/>
       <c r="H14" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="118" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="133">
-        <v>-150</v>
-      </c>
       <c r="F15" s="113"/>
       <c r="G15" s="92"/>
       <c r="H15" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -12091,8 +12125,8 @@
       <c r="F16" s="113"/>
       <c r="G16" s="92"/>
       <c r="H16" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -12108,8 +12142,8 @@
       <c r="F17" s="113"/>
       <c r="G17" s="92"/>
       <c r="H17" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -12123,8 +12157,8 @@
       <c r="F18" s="92"/>
       <c r="G18" s="92"/>
       <c r="H18" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -12138,8 +12172,8 @@
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>
       <c r="H19" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -12155,8 +12189,8 @@
       </c>
       <c r="G20" s="92"/>
       <c r="H20" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -12172,8 +12206,8 @@
       </c>
       <c r="G21" s="92"/>
       <c r="H21" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -12189,38 +12223,25 @@
       </c>
       <c r="G22" s="92"/>
       <c r="H22" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="324">
-        <v>45352</v>
-      </c>
-      <c r="B23" s="118" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="118"/>
-      <c r="E23" s="133">
-        <v>-1500</v>
-      </c>
       <c r="F23" s="113"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="133">
-        <v>-65000</v>
+        <v>1245</v>
       </c>
       <c r="H24" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -12233,8 +12254,8 @@
       <c r="F25" s="92"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -12247,8 +12268,8 @@
       <c r="F26" s="92"/>
       <c r="G26" s="92"/>
       <c r="H26" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -12261,8 +12282,8 @@
       <c r="F27" s="92"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -12275,8 +12296,8 @@
       <c r="F28" s="92"/>
       <c r="G28" s="92"/>
       <c r="H28" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -12290,8 +12311,8 @@
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -12305,32 +12326,32 @@
       <c r="F30" s="92"/>
       <c r="G30" s="92"/>
       <c r="H30" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="122"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="F32" s="92"/>
       <c r="G32" s="92"/>
       <c r="H32" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="F33" s="92"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-11802</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
@@ -12351,10 +12372,10 @@
       <c r="H36" s="92"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
@@ -12698,7 +12719,7 @@
         <v>249</v>
       </c>
       <c r="C69" s="107"/>
-      <c r="E69" s="337">
+      <c r="E69" s="335">
         <f>SUM(E70:E89)</f>
         <v>-72173.5</v>
       </c>
@@ -13232,8 +13253,8 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -13307,7 +13328,7 @@
         <v>-167</v>
       </c>
       <c r="H4" s="136">
-        <f t="shared" ref="H4:H33" si="0">H3+F4+G4</f>
+        <f t="shared" ref="H4:H30" si="0">H3+F4+G4</f>
         <v>-167</v>
       </c>
     </row>
@@ -53919,10 +53940,10 @@
       <c r="K1" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="335" t="s">
+      <c r="L1" s="336" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="335"/>
+      <c r="M1" s="336"/>
       <c r="N1" t="s">
         <v>161</v>
       </c>
@@ -54074,11 +54095,11 @@
       </c>
       <c r="C5" s="61">
         <f>'03_24'!E2</f>
-        <v>-179117.16</v>
+        <v>-112467.16</v>
       </c>
       <c r="D5" s="62">
         <f t="shared" si="0"/>
-        <v>82307.199999999983</v>
+        <v>148957.19999999998</v>
       </c>
       <c r="E5" s="61">
         <f>'03_24'!F2</f>
@@ -54124,7 +54145,7 @@
       </c>
       <c r="D6" s="62">
         <f t="shared" si="0"/>
-        <v>64126.599999999984</v>
+        <v>130776.59999999998</v>
       </c>
       <c r="E6" s="61">
         <f>'04_24'!F2</f>
@@ -54167,7 +54188,7 @@
       </c>
       <c r="D7" s="62">
         <f t="shared" si="0"/>
-        <v>47038.999999999985</v>
+        <v>113688.99999999997</v>
       </c>
       <c r="E7" s="61">
         <f>'05_24'!F2</f>
@@ -54210,7 +54231,7 @@
       </c>
       <c r="D8" s="62">
         <f t="shared" si="0"/>
-        <v>24731.399999999987</v>
+        <v>91381.399999999965</v>
       </c>
       <c r="E8" s="61">
         <f>'06_24'!F2</f>
@@ -54256,7 +54277,7 @@
       </c>
       <c r="D9" s="62">
         <f t="shared" si="0"/>
-        <v>8273.609999999986</v>
+        <v>74923.609999999957</v>
       </c>
       <c r="E9" s="61">
         <f>'07_24'!F2</f>
@@ -54305,7 +54326,7 @@
       </c>
       <c r="D10" s="62">
         <f t="shared" si="0"/>
-        <v>144867.47999999998</v>
+        <v>211517.47999999995</v>
       </c>
       <c r="E10" s="61">
         <f>'08_24'!F2</f>
@@ -54351,7 +54372,7 @@
       </c>
       <c r="D11" s="62">
         <f t="shared" si="0"/>
-        <v>282061.14999999997</v>
+        <v>348711.14999999991</v>
       </c>
       <c r="E11" s="61">
         <f>'09_24'!F2</f>
@@ -54400,7 +54421,7 @@
       </c>
       <c r="D12" s="62">
         <f t="shared" si="0"/>
-        <v>295489.14999999997</v>
+        <v>362139.14999999991</v>
       </c>
       <c r="E12" s="61">
         <f>'10_24'!F2</f>
@@ -54449,7 +54470,7 @@
       </c>
       <c r="D13" s="62">
         <f t="shared" si="0"/>
-        <v>538917.14999999991</v>
+        <v>605567.14999999991</v>
       </c>
       <c r="E13" s="61">
         <f>'11_24'!F2</f>
@@ -54498,7 +54519,7 @@
       </c>
       <c r="D14" s="62">
         <f t="shared" si="0"/>
-        <v>531314.3899999999</v>
+        <v>597964.3899999999</v>
       </c>
       <c r="E14" s="61">
         <f>'12_24'!F2</f>
@@ -54543,11 +54564,11 @@
       </c>
       <c r="C15" s="62">
         <f>SUM(C3:C14)</f>
-        <v>-779405.58</v>
+        <v>-712755.58</v>
       </c>
       <c r="D15" s="62">
         <f>B15+C15</f>
-        <v>531314.39</v>
+        <v>597964.39</v>
       </c>
       <c r="E15" s="62">
         <f>SUM(E3:E14)</f>
@@ -54590,7 +54611,7 @@
       </c>
       <c r="C16" s="84">
         <f>C15/A16</f>
-        <v>-64950.464999999997</v>
+        <v>-59396.298333333332</v>
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="84">
@@ -54637,11 +54658,11 @@
       <c r="K17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L17" s="336" t="e">
+      <c r="L17" s="337" t="e">
         <f>L15+M15</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="336"/>
+      <c r="M17" s="337"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="93" t="s">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9003E2-3970-4093-9EDC-D1FD5409A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF1326A-B396-479E-A944-741095FAEF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1260">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -3929,9 +3929,6 @@
     <t>Merdal                                 90,58 2. aydan düş</t>
   </si>
   <si>
-    <t>umut iade yasemin okul kk</t>
-  </si>
-  <si>
     <t>pçamlıbel pide</t>
   </si>
   <si>
@@ -4002,6 +3999,51 @@
   </si>
   <si>
     <t>yasemin okul -65000 deniz kk ile</t>
+  </si>
+  <si>
+    <t>ŞUBAT</t>
+  </si>
+  <si>
+    <t>umut   15+15=30000 yasemin okul iadesi</t>
+  </si>
+  <si>
+    <t>ALVES</t>
+  </si>
+  <si>
+    <t>12*19,45</t>
+  </si>
+  <si>
+    <t>LMKDC</t>
+  </si>
+  <si>
+    <t>36*28,66</t>
+  </si>
+  <si>
+    <t>OBAMS</t>
+  </si>
+  <si>
+    <t>15*39,24</t>
+  </si>
+  <si>
+    <t>MOGAN</t>
+  </si>
+  <si>
+    <t>57 * 576,588071</t>
+  </si>
+  <si>
+    <t>iş TTE</t>
+  </si>
+  <si>
+    <t>125000*1,034036</t>
+  </si>
+  <si>
+    <t>usd iş satış-alış                 31,6936</t>
+  </si>
+  <si>
+    <t>eur iş alış                           34,2704</t>
+  </si>
+  <si>
+    <t>xau iş alış                           2087,56</t>
   </si>
 </sst>
 </file>
@@ -6162,7 +6204,7 @@
         <v>266</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -6645,7 +6687,7 @@
         <v>45348</v>
       </c>
       <c r="B52" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C52">
         <v>1406</v>
@@ -7320,7 +7362,7 @@
         <v>272</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -7794,7 +7836,7 @@
         <v>45348</v>
       </c>
       <c r="B52" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C52">
         <v>1406</v>
@@ -8477,7 +8519,7 @@
         <v>278</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -8979,7 +9021,7 @@
         <v>45348</v>
       </c>
       <c r="B54" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C54">
         <v>1406</v>
@@ -9650,7 +9692,7 @@
         <v>287</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -10145,7 +10187,7 @@
         <v>45348</v>
       </c>
       <c r="B53" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C53">
         <v>1406</v>
@@ -10819,10 +10861,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="118" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -11317,7 +11359,7 @@
         <v>45348</v>
       </c>
       <c r="B53" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C53">
         <v>1406</v>
@@ -11341,7 +11383,7 @@
         <v>45347</v>
       </c>
       <c r="B55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E55" s="136">
         <v>-343</v>
@@ -11354,7 +11396,7 @@
         <v>45348</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C56" s="120"/>
       <c r="D56" s="120"/>
@@ -11895,10 +11937,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -11931,19 +11973,19 @@
         <v>217</v>
       </c>
       <c r="D2" s="117">
-        <f>SUM(D7:D34)</f>
+        <f>SUM(D7:D33)</f>
         <v>19300</v>
       </c>
       <c r="E2" s="133">
-        <f>SUM(E7:E34)</f>
+        <f>SUM(E7:E33)</f>
         <v>-112467.16</v>
       </c>
       <c r="F2" s="116">
-        <f>SUM(F11:F34)</f>
+        <f>SUM(F11:F33)</f>
         <v>0</v>
       </c>
       <c r="G2" s="116">
-        <f>SUM(G11:G34)</f>
+        <f>SUM(G11:G33)</f>
         <v>0</v>
       </c>
       <c r="H2" s="116">
@@ -11960,7 +12002,7 @@
         <v>304</v>
       </c>
       <c r="C4" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E4" s="327">
         <v>-250</v>
@@ -11978,16 +12020,16 @@
         <v>306</v>
       </c>
       <c r="C5" s="118"/>
-      <c r="E5" s="133">
+      <c r="E5" s="327">
         <v>-1500</v>
       </c>
-      <c r="G5" s="133">
-        <f>E5</f>
-        <v>-1500</v>
+      <c r="F5" s="2"/>
+      <c r="G5" s="327">
+        <v>-1512.13</v>
       </c>
       <c r="H5" s="92">
         <f t="shared" ref="H5:H9" si="0">H4+F5+G5</f>
-        <v>-1500</v>
+        <v>-1512.13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -12004,12 +12046,12 @@
         <v>-150</v>
       </c>
       <c r="G6" s="133">
-        <f t="shared" ref="G6:G8" si="1">E6</f>
+        <f t="shared" ref="G6:G7" si="1">E6</f>
         <v>-150</v>
       </c>
       <c r="H6" s="92">
         <f t="shared" si="0"/>
-        <v>-1650</v>
+        <v>-1662.13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -12019,234 +12061,238 @@
       <c r="B7" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="327">
         <v>-152</v>
       </c>
-      <c r="G7" s="133">
-        <f t="shared" si="1"/>
-        <v>-152</v>
+      <c r="F7" s="2"/>
+      <c r="G7" s="327">
+        <v>-166.9</v>
       </c>
       <c r="H7" s="92">
         <f t="shared" si="0"/>
-        <v>-1802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="324">
-        <v>45355</v>
-      </c>
-      <c r="B8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="133">
-        <v>-10000</v>
-      </c>
-      <c r="G8" s="133">
-        <f t="shared" si="1"/>
-        <v>-10000</v>
-      </c>
+      <c r="G8" s="133"/>
       <c r="H8" s="92">
         <f t="shared" si="0"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="99"/>
       <c r="H9" s="92">
         <f t="shared" si="0"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="99"/>
+      <c r="A10" s="4">
+        <v>45356</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10">
+        <v>72000</v>
+      </c>
+      <c r="E10" s="133">
+        <f>E68</f>
+        <v>-72173.5</v>
+      </c>
       <c r="H10" s="92">
-        <f t="shared" ref="H10:H33" si="2">H9+F10+G10</f>
-        <v>-11802</v>
+        <f t="shared" ref="H10:H32" si="2">H9+F10+G10</f>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" s="324">
+        <v>45357</v>
+      </c>
+      <c r="B11" s="121" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="133">
+        <f>E49</f>
+        <v>-6341.6600000000008</v>
+      </c>
       <c r="H11" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="H12" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" s="122">
+        <v>45358</v>
+      </c>
       <c r="B13" s="118" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="C13" s="118"/>
       <c r="E13" s="133">
-        <v>-400</v>
-      </c>
-      <c r="G13" s="92"/>
+        <v>-5375</v>
+      </c>
       <c r="H13" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" s="122">
+        <v>45358</v>
+      </c>
       <c r="B14" s="118" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="C14" s="118"/>
       <c r="E14" s="133">
-        <v>-500</v>
-      </c>
-      <c r="G14" s="92"/>
+        <v>-2125</v>
+      </c>
       <c r="H14" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="B15" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="133">
+        <v>-300</v>
+      </c>
       <c r="F15" s="113"/>
       <c r="G15" s="92"/>
       <c r="H15" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="120" t="s">
         <v>225</v>
       </c>
       <c r="E16" s="133">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="113"/>
       <c r="G16" s="92"/>
       <c r="H16" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="120" t="s">
-        <v>225</v>
+      <c r="B17" s="121" t="s">
+        <v>228</v>
       </c>
       <c r="E17" s="133">
-        <v>-100</v>
-      </c>
-      <c r="F17" s="113"/>
+        <f>E44*-1</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="92"/>
       <c r="G17" s="92"/>
       <c r="H17" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="121" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="133">
-        <f>E45*-1</f>
-        <v>0</v>
-      </c>
       <c r="F18" s="92"/>
       <c r="G18" s="92"/>
       <c r="H18" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="121" t="s">
-        <v>229</v>
-      </c>
+      <c r="B19" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="118"/>
       <c r="E19" s="133">
-        <f>E50</f>
-        <v>-6341.6600000000008</v>
-      </c>
-      <c r="F19" s="92"/>
+        <v>-400</v>
+      </c>
       <c r="G19" s="92"/>
       <c r="H19" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
-        <v>45356</v>
-      </c>
-      <c r="B20" s="121" t="s">
-        <v>230</v>
-      </c>
+      <c r="B20" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="118"/>
       <c r="E20" s="133">
-        <f>E69</f>
-        <v>-72173.5</v>
+        <v>-500</v>
       </c>
       <c r="G20" s="92"/>
       <c r="H20" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="122">
-        <v>45358</v>
-      </c>
-      <c r="B21" s="118" t="s">
-        <v>305</v>
-      </c>
-      <c r="C21" s="118"/>
+      <c r="A21" s="324"/>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
       <c r="E21" s="133">
-        <v>-5375</v>
+        <v>-10000</v>
       </c>
       <c r="G21" s="92"/>
       <c r="H21" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="122">
-        <v>45358</v>
-      </c>
-      <c r="B22" s="118" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" s="118"/>
-      <c r="E22" s="133">
-        <v>-2125</v>
-      </c>
+      <c r="F22" s="113"/>
       <c r="G22" s="92"/>
       <c r="H22" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="F23" s="113"/>
-      <c r="G23" s="92"/>
+      <c r="B23" t="s">
+        <v>1244</v>
+      </c>
       <c r="H23" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>1245</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E24" s="133">
+        <v>-5000</v>
+      </c>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="133">
         <v>-5000</v>
@@ -12255,12 +12301,12 @@
       <c r="G25" s="92"/>
       <c r="H25" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="E26" s="133">
         <v>-5000</v>
@@ -12269,73 +12315,67 @@
       <c r="G26" s="92"/>
       <c r="H26" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="133">
-        <v>-5000</v>
+        <v>235</v>
+      </c>
+      <c r="D27" s="117">
+        <v>10000</v>
       </c>
       <c r="F27" s="92"/>
       <c r="G27" s="92"/>
       <c r="H27" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="28" spans="1:8">
+      <c r="A28" s="122"/>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D28" s="117">
-        <v>10000</v>
+        <v>2800</v>
       </c>
       <c r="F28" s="92"/>
       <c r="G28" s="92"/>
       <c r="H28" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="122"/>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D29" s="117">
-        <v>2800</v>
+        <v>6500</v>
       </c>
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="122"/>
-      <c r="B30" t="s">
-        <v>307</v>
-      </c>
-      <c r="D30" s="117">
-        <v>6500</v>
-      </c>
-      <c r="F30" s="92"/>
       <c r="G30" s="92"/>
       <c r="H30" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="122"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
+        <v>-1829.0300000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -12343,208 +12383,213 @@
       <c r="G32" s="92"/>
       <c r="H32" s="92">
         <f t="shared" si="2"/>
-        <v>-11802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-1829.0300000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
+      <c r="B33" s="126"/>
       <c r="F33" s="92"/>
       <c r="G33" s="92"/>
-      <c r="H33" s="92">
-        <f t="shared" si="2"/>
-        <v>-11802</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" s="126"/>
-      <c r="F34" s="92"/>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="G34" s="92"/>
       <c r="H34" s="92"/>
     </row>
     <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>239</v>
+      </c>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>239</v>
-      </c>
+      <c r="A36" s="107"/>
+      <c r="B36" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="107"/>
       <c r="G36" s="92"/>
       <c r="H36" s="92"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="107"/>
-      <c r="B37" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="107"/>
-      <c r="G37" s="92"/>
+    <row r="37" spans="1:8" s="2" customFormat="1">
+      <c r="A37" s="122"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="133"/>
       <c r="H37" s="92"/>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="122"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="133"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="127">
+        <v>44929</v>
+      </c>
+      <c r="B38" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="107"/>
+      <c r="D38" s="117">
+        <f>SUM(D39:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="133">
+        <f>SUM(E39:E44)</f>
+        <v>0</v>
+      </c>
       <c r="H38" s="92"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="127">
-        <v>44929</v>
-      </c>
-      <c r="B39" s="128" t="s">
-        <v>241</v>
-      </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="117">
-        <f>SUM(D40:D45)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="133">
-        <f>SUM(E40:E45)</f>
-        <v>0</v>
-      </c>
+      <c r="A39" s="122"/>
+      <c r="B39" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="H39" s="92"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="122"/>
-      <c r="B40" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="H40" s="92"/>
+      <c r="B40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="F41" s="92"/>
       <c r="G41" s="92"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>244</v>
+        <v>1220</v>
       </c>
       <c r="F42" s="92"/>
       <c r="G42" s="92"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>1220</v>
+        <v>246</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="92"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>246</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C44" s="120"/>
       <c r="F44" s="92"/>
       <c r="G44" s="92"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>247</v>
-      </c>
       <c r="C45" s="120"/>
       <c r="F45" s="92"/>
       <c r="G45" s="92"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="C46" s="120"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
+    <row r="47" spans="1:8">
+      <c r="B47" s="100"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="100"/>
+      <c r="B48" s="117"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="B49" s="117"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="106" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="107"/>
+      <c r="E49" s="326">
+        <f>SUM(E50:E63)</f>
+        <v>-6341.6600000000008</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="107"/>
-      <c r="B50" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" s="107"/>
-      <c r="E50" s="326">
-        <f>SUM(E51:E64)</f>
-        <v>-6341.6600000000008</v>
-      </c>
+      <c r="A50" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B50" s="120" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="120">
+        <v>7648.33</v>
+      </c>
+      <c r="D50" s="117" t="s">
+        <v>309</v>
+      </c>
+      <c r="E50" s="133">
+        <v>-849.81</v>
+      </c>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="122">
         <v>45187</v>
       </c>
       <c r="B51" s="120" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C51" s="120">
-        <v>7648.33</v>
+        <v>11128</v>
       </c>
       <c r="D51" s="117" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E51" s="133">
-        <v>-849.81</v>
-      </c>
+        <v>-1854.65</v>
+      </c>
+      <c r="F51" s="92"/>
       <c r="G51" s="92"/>
       <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B52" s="120" t="s">
-        <v>310</v>
-      </c>
-      <c r="C52" s="120">
-        <v>11128</v>
-      </c>
-      <c r="D52" s="117" t="s">
-        <v>311</v>
+      <c r="A52" s="324">
+        <v>45325</v>
+      </c>
+      <c r="B52" t="s">
+        <v>352</v>
       </c>
       <c r="E52" s="133">
-        <v>-1854.65</v>
-      </c>
-      <c r="F52" s="92"/>
+        <v>-453.4</v>
+      </c>
       <c r="G52" s="92"/>
       <c r="H52" s="92"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="324">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>1221</v>
       </c>
       <c r="E53" s="133">
-        <v>-453.4</v>
+        <v>-300</v>
       </c>
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="324">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B54" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E54" s="133">
-        <v>-300</v>
+        <v>149</v>
+      </c>
+      <c r="C54">
+        <v>3900.57</v>
       </c>
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="324">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55">
-        <v>3900.57</v>
+        <v>1222</v>
+      </c>
+      <c r="E55" s="133">
+        <v>-900</v>
       </c>
       <c r="G55" s="92"/>
       <c r="H55" s="92"/>
@@ -12557,21 +12602,23 @@
         <v>1223</v>
       </c>
       <c r="E56" s="133">
-        <v>-900</v>
+        <v>-116.38</v>
       </c>
       <c r="G56" s="92"/>
       <c r="H56" s="92"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="324">
-        <v>45330</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1224</v>
-      </c>
+      <c r="A57" s="122">
+        <v>45331</v>
+      </c>
+      <c r="B57" s="120" t="s">
+        <v>544</v>
+      </c>
+      <c r="C57" s="120"/>
       <c r="E57" s="133">
-        <v>-116.38</v>
-      </c>
+        <v>-100</v>
+      </c>
+      <c r="F57" s="92"/>
       <c r="G57" s="92"/>
       <c r="H57" s="92"/>
     </row>
@@ -12580,11 +12627,11 @@
         <v>45331</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>544</v>
+        <v>1224</v>
       </c>
       <c r="C58" s="120"/>
       <c r="E58" s="133">
-        <v>-100</v>
+        <v>-215.42</v>
       </c>
       <c r="F58" s="92"/>
       <c r="G58" s="92"/>
@@ -12592,14 +12639,14 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="122">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>1225</v>
+        <v>544</v>
       </c>
       <c r="C59" s="120"/>
       <c r="E59" s="133">
-        <v>-215.42</v>
+        <v>-100</v>
       </c>
       <c r="F59" s="92"/>
       <c r="G59" s="92"/>
@@ -12610,11 +12657,11 @@
         <v>45332</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>544</v>
+        <v>1225</v>
       </c>
       <c r="C60" s="120"/>
       <c r="E60" s="133">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="F60" s="92"/>
       <c r="G60" s="92"/>
@@ -12622,14 +12669,13 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="122">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B61" s="120" t="s">
         <v>1226</v>
       </c>
-      <c r="C61" s="120"/>
       <c r="E61" s="133">
-        <v>-900</v>
+        <v>-352</v>
       </c>
       <c r="F61" s="92"/>
       <c r="G61" s="92"/>
@@ -12637,13 +12683,14 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="122">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>1227</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="C62" s="120"/>
       <c r="E62" s="133">
-        <v>-352</v>
+        <v>-100</v>
       </c>
       <c r="F62" s="92"/>
       <c r="G62" s="92"/>
@@ -12651,12 +12698,11 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="122">
-        <v>45338</v>
-      </c>
-      <c r="B63" s="120" t="s">
+        <v>45339</v>
+      </c>
+      <c r="B63" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="C63" s="120"/>
       <c r="E63" s="133">
         <v>-100</v>
       </c>
@@ -12664,27 +12710,21 @@
       <c r="G63" s="92"/>
       <c r="H63" s="92"/>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="122">
-        <v>45339</v>
-      </c>
-      <c r="B64" s="42" t="s">
-        <v>544</v>
-      </c>
-      <c r="E64" s="133">
-        <v>-100</v>
+    <row r="64" spans="1:8" ht="15">
+      <c r="A64" s="122"/>
+      <c r="B64" s="120"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="144" t="s">
+        <v>337</v>
       </c>
       <c r="F64" s="92"/>
       <c r="G64" s="92"/>
       <c r="H64" s="92"/>
     </row>
-    <row r="65" spans="1:8" ht="15">
+    <row r="65" spans="1:8">
       <c r="A65" s="122"/>
       <c r="B65" s="120"/>
       <c r="C65" s="120"/>
-      <c r="D65" s="144" t="s">
-        <v>337</v>
-      </c>
       <c r="F65" s="92"/>
       <c r="G65" s="92"/>
       <c r="H65" s="92"/>
@@ -12706,66 +12746,76 @@
       <c r="H67" s="92"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="122"/>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
+      <c r="A68" s="107"/>
+      <c r="B68" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="107"/>
+      <c r="E68" s="335">
+        <f>SUM(E69:E88)</f>
+        <v>-72173.5</v>
+      </c>
       <c r="F68" s="92"/>
       <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="107"/>
-      <c r="B69" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="C69" s="107"/>
-      <c r="E69" s="335">
-        <f>SUM(E70:E89)</f>
-        <v>-72173.5</v>
-      </c>
+      <c r="A69" s="122"/>
+      <c r="B69" s="120"/>
+      <c r="C69" s="120"/>
       <c r="F69" s="92"/>
       <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="122"/>
-      <c r="B70" s="120"/>
+      <c r="A70" s="122">
+        <v>45187</v>
+      </c>
+      <c r="B70" s="120" t="s">
+        <v>312</v>
+      </c>
       <c r="C70" s="120"/>
-      <c r="F70" s="92"/>
+      <c r="D70" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" s="133">
+        <v>-3974.42</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="G70" s="92"/>
       <c r="H70" s="92"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="122">
-        <v>45187</v>
-      </c>
-      <c r="B71" s="120" t="s">
-        <v>312</v>
-      </c>
-      <c r="C71" s="120"/>
+      <c r="A71" s="4">
+        <v>45214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>299</v>
+      </c>
       <c r="D71" s="117" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E71" s="133">
-        <v>-3974.42</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
+        <v>-600</v>
+      </c>
+      <c r="F71" s="92"/>
       <c r="G71" s="92"/>
       <c r="H71" s="92"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4">
-        <v>45214</v>
-      </c>
-      <c r="B72" t="s">
-        <v>299</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B72" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="120"/>
       <c r="D72" s="117" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E72" s="133">
-        <v>-600</v>
+        <v>-3551.66</v>
       </c>
       <c r="F72" s="92"/>
       <c r="G72" s="92"/>
@@ -12773,17 +12823,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4">
-        <v>45285</v>
-      </c>
-      <c r="B73" s="120" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="120"/>
+        <v>45259</v>
+      </c>
+      <c r="B73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C73" s="134">
+        <v>-1204.5</v>
+      </c>
       <c r="D73" s="117" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E73" s="133">
-        <v>-3551.66</v>
+        <v>-401.5</v>
       </c>
       <c r="F73" s="92"/>
       <c r="G73" s="92"/>
@@ -12794,16 +12846,16 @@
         <v>45259</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C74" s="134">
-        <v>-1204.5</v>
+        <v>-148.6</v>
       </c>
       <c r="D74" s="117" t="s">
         <v>317</v>
       </c>
       <c r="E74" s="133">
-        <v>-401.5</v>
+        <v>-49.54</v>
       </c>
       <c r="F74" s="92"/>
       <c r="G74" s="92"/>
@@ -12814,16 +12866,16 @@
         <v>45259</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C75" s="134">
-        <v>-148.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D75" s="117" t="s">
         <v>317</v>
       </c>
       <c r="E75" s="133">
-        <v>-49.54</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F75" s="92"/>
       <c r="G75" s="92"/>
@@ -12834,36 +12886,34 @@
         <v>45259</v>
       </c>
       <c r="B76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C76" s="134">
-        <v>-244.8</v>
+        <v>-532.6</v>
       </c>
       <c r="D76" s="117" t="s">
         <v>317</v>
       </c>
       <c r="E76" s="133">
-        <v>-81.599999999999994</v>
+        <v>-177.54</v>
       </c>
       <c r="F76" s="92"/>
       <c r="G76" s="92"/>
       <c r="H76" s="92"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="4">
-        <v>45259</v>
-      </c>
-      <c r="B77" t="s">
-        <v>320</v>
-      </c>
-      <c r="C77" s="134">
-        <v>-532.6</v>
-      </c>
-      <c r="D77" s="117" t="s">
-        <v>317</v>
+      <c r="A77" s="4"/>
+      <c r="B77" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="120">
+        <v>899</v>
+      </c>
+      <c r="D77" s="132" t="s">
+        <v>321</v>
       </c>
       <c r="E77" s="133">
-        <v>-177.54</v>
+        <v>-449.5</v>
       </c>
       <c r="F77" s="92"/>
       <c r="G77" s="92"/>
@@ -12872,16 +12922,14 @@
     <row r="78" spans="1:8">
       <c r="A78" s="4"/>
       <c r="B78" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="120">
-        <v>899</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C78" s="120"/>
       <c r="D78" s="132" t="s">
         <v>321</v>
       </c>
       <c r="E78" s="133">
-        <v>-449.5</v>
+        <v>-299.64</v>
       </c>
       <c r="F78" s="92"/>
       <c r="G78" s="92"/>
@@ -12890,30 +12938,30 @@
     <row r="79" spans="1:8">
       <c r="A79" s="4"/>
       <c r="B79" s="120" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C79" s="120"/>
       <c r="D79" s="132" t="s">
         <v>321</v>
       </c>
       <c r="E79" s="133">
-        <v>-299.64</v>
+        <v>-546.82000000000005</v>
       </c>
       <c r="F79" s="92"/>
       <c r="G79" s="92"/>
       <c r="H79" s="92"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="4"/>
-      <c r="B80" s="120" t="s">
-        <v>323</v>
+      <c r="A80" s="122"/>
+      <c r="B80" s="42" t="s">
+        <v>269</v>
       </c>
       <c r="C80" s="120"/>
       <c r="D80" s="132" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E80" s="133">
-        <v>-546.82000000000005</v>
+        <v>-649.78</v>
       </c>
       <c r="F80" s="92"/>
       <c r="G80" s="92"/>
@@ -12922,14 +12970,13 @@
     <row r="81" spans="1:8">
       <c r="A81" s="122"/>
       <c r="B81" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C81" s="120"/>
+        <v>271</v>
+      </c>
+      <c r="C81" s="120">
+        <v>49.98</v>
+      </c>
       <c r="D81" s="132" t="s">
         <v>324</v>
-      </c>
-      <c r="E81" s="133">
-        <v>-649.78</v>
       </c>
       <c r="F81" s="92"/>
       <c r="G81" s="92"/>
@@ -12937,15 +12984,8 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="122"/>
-      <c r="B82" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="120">
-        <v>49.98</v>
-      </c>
-      <c r="D82" s="132" t="s">
-        <v>324</v>
-      </c>
+      <c r="B82" s="42"/>
+      <c r="C82" s="120"/>
       <c r="F82" s="92"/>
       <c r="G82" s="92"/>
       <c r="H82" s="92"/>
@@ -12959,23 +12999,29 @@
       <c r="H83" s="92"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="122"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="122">
+        <v>45324</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>325</v>
+      </c>
       <c r="C84" s="120"/>
+      <c r="E84" s="133">
+        <v>-1195</v>
+      </c>
       <c r="F84" s="92"/>
       <c r="G84" s="92"/>
       <c r="H84" s="92"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="122">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B85" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C85" s="120"/>
-      <c r="E85" s="133">
-        <v>-1195</v>
+        <v>326</v>
+      </c>
+      <c r="C85" s="133">
+        <v>-299.99</v>
       </c>
       <c r="F85" s="92"/>
       <c r="G85" s="92"/>
@@ -12983,13 +13029,14 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="122">
-        <v>45327</v>
+        <v>45336</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="C86" s="133">
-        <v>-299.99</v>
+        <v>260</v>
+      </c>
+      <c r="C86" s="120"/>
+      <c r="E86" s="133">
+        <v>-59483.25</v>
       </c>
       <c r="F86" s="92"/>
       <c r="G86" s="92"/>
@@ -12997,14 +13044,14 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="122">
-        <v>45336</v>
+        <v>45329</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>260</v>
+        <v>1227</v>
       </c>
       <c r="C87" s="120"/>
       <c r="E87" s="133">
-        <v>-59483.25</v>
+        <v>-713.25</v>
       </c>
       <c r="F87" s="92"/>
       <c r="G87" s="92"/>
@@ -13012,48 +13059,41 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="122">
-        <v>45329</v>
+        <v>45327</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C88" s="120"/>
-      <c r="E88" s="133">
-        <v>-713.25</v>
+        <v>149</v>
+      </c>
+      <c r="C88" s="120">
+        <v>24742.959999999999</v>
       </c>
       <c r="F88" s="92"/>
       <c r="G88" s="92"/>
       <c r="H88" s="92"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="122">
-        <v>45327</v>
-      </c>
-      <c r="B89" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C89" s="120">
-        <v>24742.959999999999</v>
-      </c>
+      <c r="A89" s="122"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="120"/>
       <c r="F89" s="92"/>
       <c r="G89" s="92"/>
       <c r="H89" s="92"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="15">
       <c r="A90" s="122"/>
       <c r="B90" s="42"/>
       <c r="C90" s="120"/>
+      <c r="D90" s="144" t="s">
+        <v>337</v>
+      </c>
       <c r="F90" s="92"/>
       <c r="G90" s="92"/>
       <c r="H90" s="92"/>
     </row>
-    <row r="91" spans="1:8" ht="15">
+    <row r="91" spans="1:8">
       <c r="A91" s="122"/>
       <c r="B91" s="42"/>
       <c r="C91" s="120"/>
-      <c r="D91" s="144" t="s">
-        <v>337</v>
-      </c>
       <c r="F91" s="92"/>
       <c r="G91" s="92"/>
       <c r="H91" s="92"/>
@@ -13130,56 +13170,61 @@
       <c r="G100" s="92"/>
       <c r="H100" s="92"/>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="122"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="120"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
+    <row r="109" spans="1:8">
+      <c r="A109" s="107"/>
+      <c r="B109" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="107"/>
+      <c r="E109" s="133">
+        <f>SUM(E110:E117)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="107"/>
-      <c r="B110" s="106" t="s">
-        <v>250</v>
-      </c>
-      <c r="C110" s="107"/>
-      <c r="E110" s="133">
-        <f>SUM(E111:E118)</f>
-        <v>0</v>
+      <c r="A110" s="122"/>
+      <c r="B110" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="122"/>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="122"/>
       <c r="B112" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="122"/>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="122"/>
       <c r="B114" t="s">
-        <v>200</v>
+        <v>251</v>
+      </c>
+      <c r="D114" s="117">
+        <v>111</v>
+      </c>
+      <c r="E114" s="133">
+        <f>D114*C114</f>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="122"/>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D115" s="117">
-        <v>111</v>
+        <v>850</v>
       </c>
       <c r="E115" s="133">
         <f>D115*C115</f>
@@ -13189,10 +13234,10 @@
     <row r="116" spans="1:5">
       <c r="A116" s="122"/>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D116" s="117">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="E116" s="133">
         <f>D116*C116</f>
@@ -13202,37 +13247,24 @@
     <row r="117" spans="1:5">
       <c r="A117" s="122"/>
       <c r="B117" t="s">
-        <v>253</v>
-      </c>
-      <c r="D117" s="117">
-        <v>100</v>
-      </c>
-      <c r="E117" s="133">
-        <f>D117*C117</f>
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="122"/>
       <c r="B118" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="B119" t="s">
         <v>255</v>
       </c>
-      <c r="E119" s="133">
+      <c r="E118" s="133">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="D121" s="117" t="s">
+    <row r="120" spans="1:5">
+      <c r="D120" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="E121" s="133">
-        <f>SUM(E111:E120)</f>
+      <c r="E120" s="133">
+        <f>SUM(E110:E119)</f>
         <v>0</v>
       </c>
     </row>
@@ -13251,10 +13283,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -13399,7 +13431,7 @@
         <v>45339</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C8" s="118"/>
       <c r="D8" s="118"/>
@@ -14844,126 +14876,380 @@
       <c r="H108" s="92"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="107"/>
-      <c r="B109" s="106" t="s">
+      <c r="D109" s="99"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="105" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B111" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="107">
+        <v>2024</v>
+      </c>
+      <c r="D111" s="108"/>
+      <c r="E111" s="109">
+        <f>SUM(E112:E130)</f>
+        <v>809249.830357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="110">
+        <v>45352</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="100">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="110">
+        <f>A112</f>
+        <v>45352</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="100">
+        <v>180345.5</v>
+      </c>
+      <c r="F113">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="110">
+        <f t="shared" ref="A114:A130" si="1">A113</f>
+        <v>45352</v>
+      </c>
+      <c r="B114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="100">
+        <v>5039.78</v>
+      </c>
+      <c r="F114" s="1">
+        <f>E114</f>
+        <v>5039.78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B115" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B116" t="s">
+        <v>397</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B117" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="136"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B118" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="100">
+        <v>32865.519999999997</v>
+      </c>
+      <c r="F118" s="1">
+        <f>E118</f>
+        <v>32865.519999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="100">
+        <v>129254.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="100">
+        <v>256.56</v>
+      </c>
+      <c r="F120" s="1">
+        <f>E120</f>
+        <v>256.56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C121" s="110" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D121" s="111"/>
+      <c r="E121" s="100">
+        <v>1031.76</v>
+      </c>
+      <c r="F121" s="1">
+        <f>E121</f>
+        <v>1031.76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C122" s="110" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D122" s="111"/>
+      <c r="E122" s="100">
+        <v>588.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C123" s="110"/>
+      <c r="D123" s="111"/>
+      <c r="E123" s="100"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B124" t="s">
+        <v>208</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="100">
+        <v>450</v>
+      </c>
+      <c r="F124" s="1">
+        <f>E124</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2017.98</v>
+      </c>
+      <c r="D125" s="1">
+        <v>161</v>
+      </c>
+      <c r="E125" s="100">
+        <f>D125*C125</f>
+        <v>324894.78000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C126" s="112">
+        <v>30.726199999999999</v>
+      </c>
+      <c r="D126" s="1">
+        <v>850</v>
+      </c>
+      <c r="E126" s="100">
+        <f>D126*C126</f>
+        <v>26117.27</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B127" t="s">
+        <v>404</v>
+      </c>
+      <c r="C127" s="112">
+        <v>30.725999999999999</v>
+      </c>
+      <c r="D127" s="1">
         <v>250</v>
       </c>
-      <c r="C109" s="107"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="142">
-        <f>SUM(E110:E120)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="122"/>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="122"/>
-      <c r="B111" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="122">
-        <v>45337</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C112">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="122">
-        <v>45338</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C113">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="122"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="122"/>
-      <c r="B115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="122"/>
-      <c r="B116" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="122"/>
-      <c r="B117" t="s">
-        <v>251</v>
-      </c>
-      <c r="D117">
-        <v>111</v>
-      </c>
-      <c r="E117" s="134">
-        <f>D117*C117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="122"/>
-      <c r="B118" t="s">
-        <v>252</v>
-      </c>
-      <c r="D118">
-        <v>850</v>
-      </c>
-      <c r="E118" s="134">
-        <f>D118*C118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="122"/>
-      <c r="B119" t="s">
-        <v>253</v>
-      </c>
-      <c r="D119">
-        <v>100</v>
-      </c>
-      <c r="E119" s="134">
-        <f>D119*C119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="122"/>
-      <c r="B120" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="B121" t="s">
-        <v>255</v>
-      </c>
-      <c r="E121" s="134">
+      <c r="E127" s="100">
+        <f>D127*C127</f>
+        <v>7681.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C128" s="112">
+        <v>33.224299999999999</v>
+      </c>
+      <c r="D128" s="1">
+        <v>81.99</v>
+      </c>
+      <c r="E128" s="100">
+        <f>D128*C128</f>
+        <v>2724.0603569999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B129" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="100">
+        <v>30000</v>
+      </c>
+      <c r="F129" s="1">
+        <f>E129</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="110">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B130" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="100">
+        <v>4000</v>
+      </c>
+      <c r="F130" s="1">
+        <f>E130</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="F131">
+        <f>SUM(F113:F130)</f>
+        <v>103643.61999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="C132" s="136"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="136"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="C133" s="136"/>
+      <c r="D133" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="E133" s="47">
+        <f>SUM(E112:E130)</f>
+        <v>809249.830357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="C134" s="147" t="str">
+        <f>A111</f>
+        <v>ŞUBAT</v>
+      </c>
+      <c r="D134" s="148" t="s">
+        <v>214</v>
+      </c>
+      <c r="E134" s="7">
         <f>H2</f>
-        <v>-49291.099999999991</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="D123" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="E123" s="134">
-        <f>SUM(E110:E122)</f>
         <v>-49291.099999999991</v>
       </c>
     </row>
@@ -14984,8 +15270,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView topLeftCell="A117" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54080,9 +54366,9 @@
         <v>110.104704</v>
       </c>
       <c r="M4" s="67"/>
-      <c r="N4">
-        <f>'02_24'!E116/1000</f>
-        <v>0</v>
+      <c r="N4" t="e">
+        <f>'02_24'!#REF!/1000</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -54127,7 +54413,7 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E115/1000</f>
+        <f>'03_24'!E114/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -54644,9 +54930,9 @@
         <f>M15/12</f>
         <v>#REF!</v>
       </c>
-      <c r="N16" s="91">
+      <c r="N16" s="91" t="e">
         <f>AVERAGE(N2:N15)</f>
-        <v>53.718662692307689</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -55189,7 +55475,7 @@
         <v>222</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -55203,7 +55489,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="119" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C9" s="118"/>
       <c r="D9" s="118"/>
@@ -55214,7 +55500,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="119" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C10" s="118"/>
       <c r="D10" s="118"/>
@@ -55225,7 +55511,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="118" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="118"/>
@@ -55233,7 +55519,7 @@
       <c r="G11" s="92"/>
       <c r="H11" s="92"/>
       <c r="K11" s="329" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L11" s="328">
         <v>8</v>
@@ -55246,12 +55532,12 @@
         <v>2000</v>
       </c>
       <c r="O11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="118" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C12" s="118"/>
       <c r="D12" s="118"/>
@@ -55259,7 +55545,7 @@
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
       <c r="K12" s="329" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="L12" s="330">
         <v>2</v>
@@ -55272,7 +55558,7 @@
         <v>500</v>
       </c>
       <c r="O12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -55285,7 +55571,7 @@
       <c r="G13" s="92"/>
       <c r="H13" s="92"/>
       <c r="K13" s="329" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="L13" s="328">
         <v>11</v>
@@ -55298,7 +55584,7 @@
         <v>2750</v>
       </c>
       <c r="O13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -55312,7 +55598,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="329" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="L14" s="133">
         <v>1</v>
@@ -55325,7 +55611,7 @@
         <v>8595</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -55346,7 +55632,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="329" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="L15" s="133">
         <v>9</v>
@@ -55359,7 +55645,7 @@
         <v>79605</v>
       </c>
       <c r="O15" s="42" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -56474,7 +56760,7 @@
         <v>256</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -57610,7 +57896,7 @@
         <v>259</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -58748,7 +59034,7 @@
         <v>263</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D8" s="118"/>
       <c r="E8" s="92">
@@ -59231,7 +59517,7 @@
         <v>45348</v>
       </c>
       <c r="B52" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C52">
         <v>1406</v>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF1326A-B396-479E-A944-741095FAEF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A6380E-503B-4ED2-91A7-FE50CA7FBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14505" yWindow="2970" windowWidth="12150" windowHeight="11040" tabRatio="782" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -11939,8 +11939,8 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -12046,7 +12046,7 @@
         <v>-150</v>
       </c>
       <c r="G6" s="133">
-        <f t="shared" ref="G6:G7" si="1">E6</f>
+        <f t="shared" ref="G6" si="1">E6</f>
         <v>-150</v>
       </c>
       <c r="H6" s="92">
@@ -12429,7 +12429,7 @@
       <c r="C38" s="107"/>
       <c r="D38" s="117">
         <f>SUM(D39:D44)</f>
-        <v>0</v>
+        <v>225.66</v>
       </c>
       <c r="E38" s="133">
         <f>SUM(E39:E44)</f>
@@ -12442,13 +12442,18 @@
       <c r="B39" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <v>967.68</v>
+      </c>
       <c r="H39" s="92"/>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
         <v>308</v>
       </c>
+      <c r="C40">
+        <v>1224.42</v>
+      </c>
       <c r="F40" s="92"/>
       <c r="G40" s="92"/>
     </row>
@@ -12456,6 +12461,9 @@
       <c r="B41" t="s">
         <v>244</v>
       </c>
+      <c r="C41">
+        <v>237.14</v>
+      </c>
       <c r="F41" s="92"/>
       <c r="G41" s="92"/>
     </row>
@@ -12463,6 +12471,9 @@
       <c r="B42" t="s">
         <v>1220</v>
       </c>
+      <c r="C42">
+        <v>2248.8000000000002</v>
+      </c>
       <c r="F42" s="92"/>
       <c r="G42" s="92"/>
     </row>
@@ -12470,6 +12481,9 @@
       <c r="B43" t="s">
         <v>246</v>
       </c>
+      <c r="C43">
+        <v>439.85</v>
+      </c>
       <c r="F43" s="92"/>
       <c r="G43" s="92"/>
     </row>
@@ -12477,7 +12491,12 @@
       <c r="B44" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="120"/>
+      <c r="C44" s="120">
+        <v>225.66</v>
+      </c>
+      <c r="D44" s="117">
+        <v>225.66</v>
+      </c>
       <c r="F44" s="92"/>
       <c r="G44" s="92"/>
     </row>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4D3A4-67A0-4DC8-80FE-CD677CC187B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110DFBF9-EA49-4609-A8ED-B210BA78D9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="1125">
   <si>
     <t>umut</t>
   </si>
@@ -3623,10 +3623,19 @@
     <t>xau iş alış                           2087,56</t>
   </si>
   <si>
-    <t>kasa 30000</t>
-  </si>
-  <si>
     <t xml:space="preserve">kayseri otobüs bileti </t>
+  </si>
+  <si>
+    <t>MART</t>
+  </si>
+  <si>
+    <t>umut   29,500 yasemin okul iadesi</t>
+  </si>
+  <si>
+    <t>devlet 16,62</t>
+  </si>
+  <si>
+    <t>devlet 138,75</t>
   </si>
 </sst>
 </file>
@@ -3655,7 +3664,7 @@
     <numFmt numFmtId="182" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="183" formatCode="%0.0000"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3971,6 +3980,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="162"/>
     </font>
   </fonts>
@@ -4553,7 +4571,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4994,6 +5012,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5562,7 +5584,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="C13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E13" s="1">
         <v>1200</v>
@@ -6759,7 +6781,7 @@
   </sheetPr>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -7644,10 +7666,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A113" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7661,7 +7683,7 @@
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="F1" s="79" t="s">
         <v>22</v>
       </c>
@@ -7672,7 +7694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:8">
       <c r="B2" s="7" t="s">
         <v>163</v>
       </c>
@@ -7684,27 +7706,27 @@
         <v>19300</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E7:E33)</f>
-        <v>-112467.16</v>
+        <f>SUM(E3:E33)</f>
+        <v>-114367.16</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F11:F33)</f>
+        <f>SUM(F3:F33)</f>
         <v>0</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G11:G33)</f>
-        <v>0</v>
+        <f>SUM(G3:G33)</f>
+        <v>-84002.53</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>-84002.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="64"/>
       <c r="H3" s="98"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:8">
       <c r="B4" s="83" t="s">
         <v>164</v>
       </c>
@@ -7719,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:8">
       <c r="A5" s="289">
         <v>45352</v>
       </c>
@@ -7734,24 +7756,25 @@
       <c r="G5" s="292">
         <v>-1512.13</v>
       </c>
-      <c r="H5" s="98">
-        <f t="shared" ref="H5:H9" si="0">H4+F5+G5</f>
+      <c r="H5" s="292">
+        <f t="shared" ref="H5:H17" si="0">H4+F5+G5</f>
         <v>-1512.13</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="289">
+    <row r="6" spans="1:8">
+      <c r="A6" s="304">
         <v>45352</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="98">
         <v>-150</v>
       </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="98">
         <f t="shared" ref="G6" si="1">E6</f>
         <v>-150</v>
@@ -7761,7 +7784,7 @@
         <v>-1662.13</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:8">
       <c r="A7" s="289">
         <v>45355</v>
       </c>
@@ -7775,51 +7798,67 @@
       <c r="G7" s="292">
         <v>-166.9</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="292">
         <f t="shared" si="0"/>
         <v>-1829.0300000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="G8" s="98"/>
-      <c r="H8" s="98">
-        <f t="shared" si="0"/>
-        <v>-1829.0300000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="64"/>
-      <c r="H9" s="98">
-        <f t="shared" si="0"/>
-        <v>-1829.0300000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
+    <row r="8" spans="1:8">
+      <c r="A8" s="289">
         <v>45356</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="292">
+        <v>-10000</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="292">
+        <f>E8</f>
+        <v>-10000</v>
+      </c>
+      <c r="H8" s="292">
+        <f t="shared" si="0"/>
+        <v>-11829.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>45356</v>
+      </c>
+      <c r="B9" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="C10">
+      <c r="C9">
         <v>72000</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E9" s="292">
         <f>E68</f>
         <v>-72173.5</v>
       </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="292">
+        <f>E9</f>
+        <v>-72173.5</v>
+      </c>
+      <c r="H9" s="292">
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="86"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="292"/>
       <c r="H10" s="98">
-        <f t="shared" ref="H10:H32" si="2">H9+F10+G10</f>
-        <v>-1829.0300000000002</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="289">
         <v>45357</v>
       </c>
@@ -7831,264 +7870,277 @@
         <v>-6341.6600000000008</v>
       </c>
       <c r="H11" s="98">
-        <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
-      </c>
-      <c r="J11">
-        <v>801</v>
-      </c>
-      <c r="K11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="H12" s="98">
-        <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="87">
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="150">
         <v>45358</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="84"/>
       <c r="E13" s="98">
         <v>-5375</v>
       </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="98">
-        <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="87">
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="150">
         <v>45358</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="84"/>
       <c r="E14" s="98">
         <v>-2125</v>
       </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="98">
-        <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
-      </c>
-      <c r="K14">
-        <f>SUM(K10:K13)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="85" t="s">
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7"/>
+      <c r="B15" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="96" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="98">
         <v>-300</v>
       </c>
       <c r="F15" s="78"/>
-      <c r="G15" s="57"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="98">
-        <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="85" t="s">
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7"/>
+      <c r="B16" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="96" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="98">
         <v>-100</v>
       </c>
       <c r="F16" s="78"/>
-      <c r="G16" s="57"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="98">
-        <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
+      <c r="A17" s="7"/>
       <c r="B17" s="86" t="s">
         <v>88</v>
       </c>
+      <c r="C17" s="7"/>
       <c r="E17" s="98">
         <f>E44*-1</f>
         <v>0</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="98">
-        <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <f t="shared" si="0"/>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="98">
-        <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <f t="shared" ref="H18:H32" si="2">H17+F18+G18</f>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="83" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="E19" s="98">
         <v>-400</v>
       </c>
-      <c r="G19" s="57"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="84"/>
       <c r="E20" s="98">
         <v>-500</v>
       </c>
-      <c r="G20" s="57"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="289"/>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="98">
-        <v>-10000</v>
-      </c>
-      <c r="G21" s="57"/>
+      <c r="A21" s="304"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="F22" s="78"/>
-      <c r="G22" s="57"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>1104</v>
       </c>
+      <c r="C23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C24" s="7"/>
       <c r="E24" s="98">
         <v>-5000</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="E25" s="98">
         <v>-5000</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="C26" s="7"/>
       <c r="E26" s="98">
         <v>-5000</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="82">
         <v>10000</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="87"/>
-      <c r="B28" t="s">
+      <c r="A28" s="150"/>
+      <c r="B28" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="82">
         <v>2800</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
       <c r="H28" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="87"/>
-      <c r="B29" t="s">
+      <c r="A29" s="150"/>
+      <c r="B29" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="82">
         <v>6500</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8096,7 +8148,7 @@
       <c r="G30" s="57"/>
       <c r="H30" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8104,7 +8156,7 @@
       <c r="G31" s="57"/>
       <c r="H31" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -8112,7 +8164,7 @@
       <c r="G32" s="57"/>
       <c r="H32" s="98">
         <f t="shared" si="2"/>
-        <v>-1829.0300000000002</v>
+        <v>-84002.53</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
@@ -8919,101 +8971,350 @@
       <c r="H100" s="57"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="72"/>
-      <c r="B109" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="72"/>
-      <c r="E109" s="98">
-        <f>SUM(E110:E117)</f>
-        <v>0</v>
-      </c>
+      <c r="A109" s="87"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="87"/>
-      <c r="B110" t="s">
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="70" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="72">
+        <v>2024</v>
+      </c>
+      <c r="D111" s="73"/>
+      <c r="E111" s="74">
+        <f>SUM(E112:E130)</f>
+        <v>779749.330357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="306">
+        <v>45352</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="87"/>
-      <c r="B111" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="87"/>
-      <c r="B112" t="s">
+      <c r="C112" s="307"/>
+      <c r="D112" s="307"/>
+      <c r="E112" s="307">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="306">
+        <f>A112</f>
+        <v>45352</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C113" s="307"/>
+      <c r="D113" s="307"/>
+      <c r="E113" s="307">
+        <v>150845</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="75">
+        <f t="shared" ref="A114:A130" si="3">A113</f>
+        <v>45352</v>
+      </c>
+      <c r="B114" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="87"/>
-      <c r="B113" t="s">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="65">
+        <v>5039.78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B115" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="87"/>
-      <c r="B114" t="s">
-        <v>111</v>
-      </c>
-      <c r="D114" s="82">
-        <v>111</v>
-      </c>
-      <c r="E114" s="98">
-        <f>D114*C114</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="87"/>
-      <c r="B115" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" s="82">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B116" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="101"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B118" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="65">
+        <v>32865.519999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="65">
+        <v>129254.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="65">
+        <v>256.56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C121" s="75" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D121" s="76"/>
+      <c r="E121" s="65">
+        <v>1031.76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C122" s="75" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D122" s="76"/>
+      <c r="E122" s="65">
+        <v>588.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C123" s="75"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="65"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B124" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="65">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2017.98</v>
+      </c>
+      <c r="D125" s="1">
+        <v>161</v>
+      </c>
+      <c r="E125" s="65">
+        <f>D125*C125</f>
+        <v>324894.78000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C126" s="77">
+        <v>30.726199999999999</v>
+      </c>
+      <c r="D126" s="1">
         <v>850</v>
       </c>
-      <c r="E115" s="98">
-        <f>D115*C115</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="87"/>
-      <c r="B116" t="s">
-        <v>113</v>
-      </c>
-      <c r="D116" s="82">
-        <v>100</v>
-      </c>
-      <c r="E116" s="98">
-        <f>D116*C116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="87"/>
-      <c r="B117" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="B118" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" s="98">
+      <c r="E126" s="65">
+        <f>D126*C126</f>
+        <v>26117.27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="77">
+        <v>30.725999999999999</v>
+      </c>
+      <c r="D127" s="1">
+        <v>250</v>
+      </c>
+      <c r="E127" s="65">
+        <f>D127*C127</f>
+        <v>7681.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C128" s="77">
+        <v>33.224299999999999</v>
+      </c>
+      <c r="D128" s="1">
+        <v>81.99</v>
+      </c>
+      <c r="E128" s="65">
+        <f>D128*C128</f>
+        <v>2724.0603569999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B129" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="65">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B130" t="s">
+        <v>73</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="65">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="D131"/>
+      <c r="E131" s="99"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="C132" s="101"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="101"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="C133" s="101"/>
+      <c r="D133" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="12">
+        <f>SUM(E112:E130)</f>
+        <v>779749.330357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="C134" s="112" t="str">
+        <f>A111</f>
+        <v>MART</v>
+      </c>
+      <c r="D134" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="E134" s="4">
         <f>H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="D120" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="E120" s="98">
-        <f>SUM(E110:E119)</f>
-        <v>0</v>
+        <v>-84002.53</v>
       </c>
     </row>
   </sheetData>
@@ -9034,7 +9335,7 @@
   <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9067,7 +9368,7 @@
       </c>
       <c r="D2" s="101">
         <f>SUM(D4:D31)</f>
-        <v>19455.37</v>
+        <v>19300</v>
       </c>
       <c r="E2" s="101">
         <f>SUM(E4:E31)</f>
@@ -9356,11 +9657,9 @@
         <v>87</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="85">
-        <v>16.62</v>
-      </c>
+        <v>1123</v>
+      </c>
+      <c r="D17" s="85"/>
       <c r="E17" s="103">
         <v>-100</v>
       </c>
@@ -9425,11 +9724,9 @@
         <v>86</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="85">
-        <v>138.75</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="D20" s="85"/>
       <c r="E20" s="103">
         <v>-300</v>
       </c>
@@ -17971,8 +18268,8 @@
   </sheetPr>
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -18113,7 +18410,7 @@
       </c>
       <c r="B4" s="26">
         <f>'02_24'!D2</f>
-        <v>19455.37</v>
+        <v>19300</v>
       </c>
       <c r="C4" s="26">
         <f>'02_24'!E2</f>
@@ -18121,7 +18418,7 @@
       </c>
       <c r="D4" s="27">
         <f t="shared" ref="D4:D14" si="0">B4+C4+D3</f>
-        <v>242124.36</v>
+        <v>241968.99</v>
       </c>
       <c r="E4" s="26">
         <f>'02_24'!F2</f>
@@ -18166,11 +18463,11 @@
       </c>
       <c r="C5" s="26">
         <f>'03_24'!E2</f>
-        <v>-112467.16</v>
+        <v>-114367.16</v>
       </c>
       <c r="D5" s="27">
         <f t="shared" si="0"/>
-        <v>148957.19999999998</v>
+        <v>146901.82999999999</v>
       </c>
       <c r="E5" s="26">
         <f>'03_24'!F2</f>
@@ -18178,11 +18475,11 @@
       </c>
       <c r="F5" s="26">
         <f>'03_24'!G2</f>
-        <v>0</v>
+        <v>-84002.53</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
@@ -18198,8 +18495,8 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E114/1000</f>
-        <v>0</v>
+        <f>'03_24'!E113/1000</f>
+        <v>150.845</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -18216,7 +18513,7 @@
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>130776.59999999998</v>
+        <v>128721.22999999998</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -18228,7 +18525,7 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -18259,7 +18556,7 @@
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>113688.99999999997</v>
+        <v>111633.62999999998</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -18271,7 +18568,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -18302,7 +18599,7 @@
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>91381.399999999965</v>
+        <v>89326.02999999997</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -18314,7 +18611,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -18348,7 +18645,7 @@
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>74923.609999999957</v>
+        <v>72868.239999999962</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -18360,7 +18657,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -18397,7 +18694,7 @@
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>211517.47999999995</v>
+        <v>209462.10999999996</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -18409,7 +18706,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -18443,7 +18740,7 @@
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>348711.14999999991</v>
+        <v>346655.77999999991</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -18455,7 +18752,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -18492,7 +18789,7 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>362139.14999999991</v>
+        <v>360083.77999999991</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -18504,7 +18801,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -18541,7 +18838,7 @@
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>605567.14999999991</v>
+        <v>603511.77999999991</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -18553,7 +18850,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -18590,7 +18887,7 @@
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>597964.3899999999</v>
+        <v>595909.0199999999</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -18602,7 +18899,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>79243.270000000033</v>
+        <v>-4759.2599999999657</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -18631,15 +18928,15 @@
       </c>
       <c r="B15" s="27">
         <f>SUM(B3:B14)</f>
-        <v>1310719.97</v>
+        <v>1310564.6000000001</v>
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
-        <v>-712755.58</v>
+        <v>-714655.58</v>
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>597964.39</v>
+        <v>595909.02000000014</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
@@ -18647,11 +18944,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-136211.94999999998</v>
+        <v>-220214.47999999998</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>79243.270000000048</v>
+        <v>-4759.2599999999511</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -18678,11 +18975,11 @@
       </c>
       <c r="B16" s="48">
         <f>B15/A16</f>
-        <v>109226.66416666667</v>
+        <v>109213.71666666667</v>
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
-        <v>-59396.298333333332</v>
+        <v>-59554.631666666661</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
@@ -18691,11 +18988,11 @@
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-11350.995833333332</v>
+        <v>-18351.206666666665</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>6603.6058333333376</v>
+        <v>-396.60499999999593</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110DFBF9-EA49-4609-A8ED-B210BA78D9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E5002-48D6-48A7-BD07-39BE7BA61A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="1126">
   <si>
     <t>umut</t>
   </si>
@@ -3636,6 +3636,9 @@
   </si>
   <si>
     <t>devlet 138,75</t>
+  </si>
+  <si>
+    <t>alumba gss prim borcu</t>
   </si>
 </sst>
 </file>
@@ -5008,14 +5011,14 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="178" fontId="44" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7666,10 +7669,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7702,24 +7705,24 @@
         <v>77</v>
       </c>
       <c r="D2" s="82">
-        <f>SUM(D7:D33)</f>
+        <f>SUM(D7:D34)</f>
         <v>19300</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E3:E33)</f>
-        <v>-114367.16</v>
+        <f>SUM(E3:E34)</f>
+        <v>-114592.82</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F3:F33)</f>
+        <f>SUM(F3:F34)</f>
         <v>0</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G3:G33)</f>
-        <v>-84002.53</v>
+        <f>SUM(G3:G34)</f>
+        <v>-91421.25</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7757,12 +7760,12 @@
         <v>-1512.13</v>
       </c>
       <c r="H5" s="292">
-        <f t="shared" ref="H5:H17" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H18" si="0">H4+F5+G5</f>
         <v>-1512.13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="304">
+      <c r="A6" s="302">
         <v>45352</v>
       </c>
       <c r="B6" s="84" t="s">
@@ -7827,14 +7830,14 @@
       <c r="A9" s="3">
         <v>45356</v>
       </c>
-      <c r="B9" s="305" t="s">
+      <c r="B9" s="303" t="s">
         <v>90</v>
       </c>
       <c r="C9">
         <v>72000</v>
       </c>
       <c r="E9" s="292">
-        <f>E68</f>
+        <f>E69</f>
         <v>-72173.5</v>
       </c>
       <c r="F9" s="2"/>
@@ -7848,14 +7851,23 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="86"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="98">
-        <f t="shared" si="0"/>
-        <v>-84002.53</v>
+      <c r="A10" s="289">
+        <v>45357</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="292">
+        <f>E50</f>
+        <v>-6341.6600000000008</v>
+      </c>
+      <c r="G10" s="293">
+        <f>E10</f>
+        <v>-6341.6600000000008</v>
+      </c>
+      <c r="H10" s="292">
+        <f t="shared" si="0"/>
+        <v>-90344.19</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7863,39 +7875,43 @@
         <v>45357</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="98">
-        <f>E49</f>
-        <v>-6341.6600000000008</v>
-      </c>
-      <c r="H11" s="98">
-        <f t="shared" si="0"/>
-        <v>-84002.53</v>
+        <v>1125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="292"/>
+      <c r="G11" s="293">
+        <v>-220.03</v>
+      </c>
+      <c r="H11" s="292">
+        <f t="shared" si="0"/>
+        <v>-90564.22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="H12" s="98">
-        <f t="shared" si="0"/>
-        <v>-84002.53</v>
+      <c r="A12" s="289">
+        <v>45357</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="292"/>
+      <c r="G12" s="293">
+        <v>-631.37</v>
+      </c>
+      <c r="H12" s="292">
+        <f t="shared" si="0"/>
+        <v>-91195.59</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="150">
-        <v>45358</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="E13" s="98">
-        <v>-5375</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
       <c r="H13" s="98">
         <f t="shared" si="0"/>
-        <v>-84002.53</v>
+        <v>-91195.59</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7907,166 +7923,171 @@
       </c>
       <c r="C14" s="84"/>
       <c r="E14" s="98">
-        <v>-2125</v>
+        <v>-5375</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="98">
         <f t="shared" si="0"/>
-        <v>-84002.53</v>
+        <v>-91195.59</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7"/>
-      <c r="B15" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>85</v>
-      </c>
+      <c r="A15" s="150">
+        <v>45358</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="84"/>
       <c r="E15" s="98">
-        <v>-300</v>
-      </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
+        <v>-2125</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="98">
         <f t="shared" si="0"/>
-        <v>-84002.53</v>
+        <v>-91195.59</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7"/>
       <c r="B16" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="96" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="98">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="98">
         <f t="shared" si="0"/>
-        <v>-84002.53</v>
+        <v>-91195.59</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7"/>
-      <c r="B17" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="7"/>
+      <c r="B17" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>85</v>
+      </c>
       <c r="E17" s="98">
-        <f>E44*-1</f>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
       <c r="H17" s="98">
         <f t="shared" si="0"/>
-        <v>-84002.53</v>
+        <v>-91195.59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="86" t="s">
+        <v>88</v>
+      </c>
       <c r="C18" s="7"/>
+      <c r="E18" s="98">
+        <f>E45*-1</f>
+        <v>-225.66</v>
+      </c>
       <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
+      <c r="G18" s="78">
+        <f>-225.66</f>
+        <v>-225.66</v>
+      </c>
       <c r="H18" s="98">
-        <f t="shared" ref="H18:H32" si="2">H17+F18+G18</f>
-        <v>-84002.53</v>
+        <f t="shared" si="0"/>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7"/>
-      <c r="B19" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="84"/>
-      <c r="E19" s="98">
-        <v>-400</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="78"/>
       <c r="H19" s="98">
-        <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <f t="shared" ref="H19:H33" si="2">H18+F19+G19</f>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7"/>
       <c r="B20" s="84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="84"/>
       <c r="E20" s="98">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="78"/>
       <c r="H20" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="304"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="E21" s="98">
+        <v>-500</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="78"/>
       <c r="H21" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7"/>
+      <c r="A22" s="302"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="F22" s="78"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="78"/>
       <c r="H22" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>1104</v>
-      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>1</v>
+        <v>1104</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="E24" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7"/>
       <c r="E25" s="98">
@@ -8076,13 +8097,13 @@
       <c r="G25" s="78"/>
       <c r="H25" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7"/>
       <c r="E26" s="98">
@@ -8092,71 +8113,79 @@
       <c r="G26" s="78"/>
       <c r="H26" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="82">
-        <v>10000</v>
+      <c r="E27" s="98">
+        <v>-5000</v>
       </c>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
       <c r="H27" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="150"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="82">
-        <v>2800</v>
+        <v>10000</v>
       </c>
       <c r="F28" s="78"/>
       <c r="G28" s="78"/>
       <c r="H28" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="150"/>
       <c r="B29" s="7" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="82">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="F29" s="78"/>
       <c r="G29" s="78"/>
       <c r="H29" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="87"/>
-      <c r="G30" s="57"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="82">
+        <v>6500</v>
+      </c>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="F31" s="57"/>
+      <c r="A31" s="87"/>
       <c r="G31" s="57"/>
       <c r="H31" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -8164,232 +8193,229 @@
       <c r="G32" s="57"/>
       <c r="H32" s="98">
         <f t="shared" si="2"/>
-        <v>-84002.53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="B33" s="91"/>
+        <v>-91421.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="98">
+        <f t="shared" si="2"/>
+        <v>-91421.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75">
+      <c r="B34" s="91"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="57"/>
       <c r="H34" s="57"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="72"/>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1">
-      <c r="A37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="98"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="57"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="92">
+    <row r="38" spans="1:8" s="2" customFormat="1">
+      <c r="A38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="98"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="92">
         <v>44929</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B39" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="82">
-        <f>SUM(D39:D44)</f>
+      <c r="C39" s="72"/>
+      <c r="D39" s="82">
+        <f>SUM(D40:D45)</f>
+        <v>5343.55</v>
+      </c>
+      <c r="E39" s="98">
+        <f>SUM(E40:E45)</f>
         <v>225.66</v>
       </c>
-      <c r="E38" s="98">
-        <f>SUM(E39:E44)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="57"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="87"/>
-      <c r="B39" s="85" t="s">
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="87"/>
+      <c r="B40" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>967.68</v>
       </c>
-      <c r="H39" s="57"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40">
-        <v>1224.42</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41">
-        <v>237.14</v>
+        <v>168</v>
+      </c>
+      <c r="D41">
+        <v>1224.42</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C42">
-        <v>2248.8000000000002</v>
+        <v>104</v>
+      </c>
+      <c r="D42">
+        <v>237.14</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43">
-        <v>439.85</v>
+        <v>1080</v>
+      </c>
+      <c r="D43">
+        <v>2248.8000000000002</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="85">
-        <v>225.66</v>
-      </c>
-      <c r="D44" s="82">
-        <v>225.66</v>
+        <v>106</v>
+      </c>
+      <c r="D44">
+        <v>439.85</v>
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
       <c r="C45" s="85"/>
+      <c r="D45" s="85">
+        <v>225.66</v>
+      </c>
+      <c r="E45" s="98">
+        <v>225.66</v>
+      </c>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="65"/>
+    <row r="46" spans="1:8">
+      <c r="C46" s="85"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="82"/>
+      <c r="B48" s="65"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="82"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="72"/>
+      <c r="B50" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="E49" s="291">
-        <f>SUM(E50:E63)</f>
+      <c r="C50" s="72"/>
+      <c r="E50" s="291">
+        <f>SUM(E51:E64)</f>
         <v>-6341.6600000000008</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B50" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="85">
-        <v>7648.33</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="98">
-        <v>-849.81</v>
-      </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="87">
         <v>45187</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C51" s="85">
-        <v>11128</v>
+        <v>7648.33</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E51" s="98">
-        <v>-1854.65</v>
-      </c>
-      <c r="F51" s="57"/>
+        <v>-849.81</v>
+      </c>
       <c r="G51" s="57"/>
       <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="289">
-        <v>45325</v>
-      </c>
-      <c r="B52" t="s">
-        <v>212</v>
+      <c r="A52" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B52" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="85">
+        <v>11128</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>171</v>
       </c>
       <c r="E52" s="98">
-        <v>-453.4</v>
-      </c>
+        <v>-1854.65</v>
+      </c>
+      <c r="F52" s="57"/>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="289">
-        <v>45326</v>
+        <v>45325</v>
       </c>
       <c r="B53" t="s">
-        <v>1081</v>
+        <v>212</v>
       </c>
       <c r="E53" s="98">
-        <v>-300</v>
+        <v>-453.4</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="289">
-        <v>45327</v>
+        <v>45326</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>3900.57</v>
+        <v>1081</v>
+      </c>
+      <c r="E54" s="98">
+        <v>-300</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="289">
-        <v>45330</v>
+        <v>45327</v>
       </c>
       <c r="B55" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E55" s="98">
-        <v>-900</v>
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>3900.57</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
@@ -8399,26 +8425,24 @@
         <v>45330</v>
       </c>
       <c r="B56" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E56" s="98">
-        <v>-116.38</v>
+        <v>-900</v>
       </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="87">
-        <v>45331</v>
-      </c>
-      <c r="B57" s="85" t="s">
-        <v>404</v>
-      </c>
-      <c r="C57" s="85"/>
+      <c r="A57" s="289">
+        <v>45330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1083</v>
+      </c>
       <c r="E57" s="98">
-        <v>-100</v>
-      </c>
-      <c r="F57" s="57"/>
+        <v>-116.38</v>
+      </c>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
@@ -8427,11 +8451,11 @@
         <v>45331</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>1084</v>
+        <v>404</v>
       </c>
       <c r="C58" s="85"/>
       <c r="E58" s="98">
-        <v>-215.42</v>
+        <v>-100</v>
       </c>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
@@ -8439,14 +8463,14 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="87">
-        <v>45332</v>
+        <v>45331</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>404</v>
+        <v>1084</v>
       </c>
       <c r="C59" s="85"/>
       <c r="E59" s="98">
-        <v>-100</v>
+        <v>-215.42</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
@@ -8457,11 +8481,11 @@
         <v>45332</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>1085</v>
+        <v>404</v>
       </c>
       <c r="C60" s="85"/>
       <c r="E60" s="98">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
@@ -8469,13 +8493,14 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="87">
-        <v>45337</v>
+        <v>45332</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>1086</v>
-      </c>
+        <v>1085</v>
+      </c>
+      <c r="C61" s="85"/>
       <c r="E61" s="98">
-        <v>-352</v>
+        <v>-900</v>
       </c>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
@@ -8483,14 +8508,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="87">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>404</v>
-      </c>
-      <c r="C62" s="85"/>
+        <v>1086</v>
+      </c>
       <c r="E62" s="98">
-        <v>-100</v>
+        <v>-352</v>
       </c>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
@@ -8498,11 +8522,12 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="87">
-        <v>45339</v>
-      </c>
-      <c r="B63" s="7" t="s">
+        <v>45338</v>
+      </c>
+      <c r="B63" s="85" t="s">
         <v>404</v>
       </c>
+      <c r="C63" s="85"/>
       <c r="E63" s="98">
         <v>-100</v>
       </c>
@@ -8510,21 +8535,27 @@
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
     </row>
-    <row r="64" spans="1:8" ht="15">
-      <c r="A64" s="87"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="109" t="s">
-        <v>197</v>
+    <row r="64" spans="1:8">
+      <c r="A64" s="87">
+        <v>45339</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E64" s="98">
+        <v>-100</v>
       </c>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="15">
       <c r="A65" s="87"/>
       <c r="B65" s="85"/>
       <c r="C65" s="85"/>
+      <c r="D65" s="109" t="s">
+        <v>197</v>
+      </c>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
@@ -8546,76 +8577,66 @@
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="72"/>
-      <c r="B68" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="E68" s="300">
-        <f>SUM(E69:E88)</f>
-        <v>-72173.5</v>
-      </c>
+      <c r="A68" s="87"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="87"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="72"/>
+      <c r="E69" s="300">
+        <f>SUM(E70:E89)</f>
+        <v>-72173.5</v>
+      </c>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B70" s="85" t="s">
-        <v>172</v>
-      </c>
+      <c r="A70" s="87"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="85"/>
-      <c r="D70" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="98">
-        <v>-3974.42</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
+      <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B71" t="s">
-        <v>159</v>
-      </c>
+      <c r="A71" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B71" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="85"/>
       <c r="D71" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71" s="98">
-        <v>-600</v>
-      </c>
-      <c r="F71" s="57"/>
+        <v>-3974.42</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B72" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="85"/>
+        <v>45214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
       <c r="D72" s="82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E72" s="98">
-        <v>-3551.66</v>
+        <v>-600</v>
       </c>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
@@ -8623,19 +8644,17 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3">
-        <v>45259</v>
-      </c>
-      <c r="B73" t="s">
-        <v>176</v>
-      </c>
-      <c r="C73" s="99">
-        <v>-1204.5</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B73" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="85"/>
       <c r="D73" s="82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E73" s="98">
-        <v>-401.5</v>
+        <v>-3551.66</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
@@ -8646,16 +8665,16 @@
         <v>45259</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C74" s="99">
-        <v>-148.6</v>
+        <v>-1204.5</v>
       </c>
       <c r="D74" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E74" s="98">
-        <v>-49.54</v>
+        <v>-401.5</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -8666,16 +8685,16 @@
         <v>45259</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75" s="99">
-        <v>-244.8</v>
+        <v>-148.6</v>
       </c>
       <c r="D75" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E75" s="98">
-        <v>-81.599999999999994</v>
+        <v>-49.54</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -8686,34 +8705,36 @@
         <v>45259</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C76" s="99">
-        <v>-532.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E76" s="98">
-        <v>-177.54</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="3"/>
-      <c r="B77" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="85">
-        <v>899</v>
-      </c>
-      <c r="D77" s="97" t="s">
-        <v>181</v>
+      <c r="A77" s="3">
+        <v>45259</v>
+      </c>
+      <c r="B77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="99">
+        <v>-532.6</v>
+      </c>
+      <c r="D77" s="82" t="s">
+        <v>177</v>
       </c>
       <c r="E77" s="98">
-        <v>-449.5</v>
+        <v>-177.54</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
@@ -8722,14 +8743,16 @@
     <row r="78" spans="1:8">
       <c r="A78" s="3"/>
       <c r="B78" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="85"/>
+        <v>13</v>
+      </c>
+      <c r="C78" s="85">
+        <v>899</v>
+      </c>
       <c r="D78" s="97" t="s">
         <v>181</v>
       </c>
       <c r="E78" s="98">
-        <v>-299.64</v>
+        <v>-449.5</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
@@ -8738,30 +8761,30 @@
     <row r="79" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C79" s="85"/>
       <c r="D79" s="97" t="s">
         <v>181</v>
       </c>
       <c r="E79" s="98">
-        <v>-546.82000000000005</v>
+        <v>-299.64</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="87"/>
-      <c r="B80" s="7" t="s">
-        <v>129</v>
+      <c r="A80" s="3"/>
+      <c r="B80" s="85" t="s">
+        <v>183</v>
       </c>
       <c r="C80" s="85"/>
       <c r="D80" s="97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E80" s="98">
-        <v>-649.78</v>
+        <v>-546.82000000000005</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
@@ -8770,13 +8793,14 @@
     <row r="81" spans="1:8">
       <c r="A81" s="87"/>
       <c r="B81" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="85">
-        <v>49.98</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C81" s="85"/>
       <c r="D81" s="97" t="s">
         <v>184</v>
+      </c>
+      <c r="E81" s="98">
+        <v>-649.78</v>
       </c>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
@@ -8784,8 +8808,15 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="87"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="85"/>
+      <c r="B82" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="85">
+        <v>49.98</v>
+      </c>
+      <c r="D82" s="97" t="s">
+        <v>184</v>
+      </c>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
@@ -8799,29 +8830,23 @@
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="87">
-        <v>45324</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="A84" s="87"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="85"/>
-      <c r="E84" s="98">
-        <v>-1195</v>
-      </c>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="87">
-        <v>45327</v>
+        <v>45324</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="98">
-        <v>-299.99</v>
+        <v>185</v>
+      </c>
+      <c r="C85" s="85"/>
+      <c r="E85" s="98">
+        <v>-1195</v>
       </c>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
@@ -8829,14 +8854,13 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="87">
-        <v>45336</v>
+        <v>45327</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="85"/>
-      <c r="E86" s="98">
-        <v>-59483.25</v>
+        <v>186</v>
+      </c>
+      <c r="C86" s="98">
+        <v>-299.99</v>
       </c>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
@@ -8844,14 +8868,14 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="87">
-        <v>45329</v>
+        <v>45336</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1087</v>
+        <v>120</v>
       </c>
       <c r="C87" s="85"/>
       <c r="E87" s="98">
-        <v>-713.25</v>
+        <v>-59483.25</v>
       </c>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
@@ -8859,41 +8883,48 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="87">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="85">
-        <v>24742.959999999999</v>
+        <v>1087</v>
+      </c>
+      <c r="C88" s="85"/>
+      <c r="E88" s="98">
+        <v>-713.25</v>
       </c>
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
       <c r="H88" s="57"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="87"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="85"/>
+      <c r="A89" s="87">
+        <v>45327</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="85">
+        <v>24742.959999999999</v>
+      </c>
       <c r="F89" s="57"/>
       <c r="G89" s="57"/>
       <c r="H89" s="57"/>
     </row>
-    <row r="90" spans="1:8" ht="15">
+    <row r="90" spans="1:8">
       <c r="A90" s="87"/>
       <c r="B90" s="7"/>
       <c r="C90" s="85"/>
-      <c r="D90" s="109" t="s">
-        <v>197</v>
-      </c>
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="15">
       <c r="A91" s="87"/>
       <c r="B91" s="7"/>
       <c r="C91" s="85"/>
+      <c r="D91" s="109" t="s">
+        <v>197</v>
+      </c>
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
       <c r="H91" s="57"/>
@@ -8970,81 +9001,75 @@
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="87"/>
+    <row r="101" spans="1:8">
+      <c r="A101" s="87"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="85"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="87"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="70" t="s">
+      <c r="A111" s="87"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="70" t="s">
         <v>1121</v>
       </c>
-      <c r="B111" s="71" t="s">
+      <c r="B112" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C111" s="72">
+      <c r="C112" s="72">
         <v>2024</v>
       </c>
-      <c r="D111" s="73"/>
-      <c r="E111" s="74">
-        <f>SUM(E112:E130)</f>
+      <c r="D112" s="73"/>
+      <c r="E112" s="74">
+        <f>SUM(E113:E131)</f>
         <v>779749.330357</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="306">
+    <row r="113" spans="1:5">
+      <c r="A113" s="304">
         <v>45352</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="307"/>
-      <c r="D112" s="307"/>
-      <c r="E112" s="307">
+      <c r="C113" s="305"/>
+      <c r="D113" s="305"/>
+      <c r="E113" s="305">
         <v>64000</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="306">
-        <f>A112</f>
+    <row r="114" spans="1:5">
+      <c r="A114" s="304">
+        <f>A113</f>
         <v>45352</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="C113" s="307"/>
-      <c r="D113" s="307"/>
-      <c r="E113" s="307">
+      <c r="C114" s="305"/>
+      <c r="D114" s="305"/>
+      <c r="E114" s="305">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="75">
-        <f t="shared" ref="A114:A130" si="3">A113</f>
-        <v>45352</v>
-      </c>
-      <c r="B114" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="65">
-        <v>5039.78</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A115:A131" si="3">A114</f>
         <v>45352</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="65">
-        <v>0</v>
+        <v>5039.78</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -9053,7 +9078,7 @@
         <v>45352</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -9067,9 +9092,9 @@
         <v>45352</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" s="101"/>
+        <v>257</v>
+      </c>
+      <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="65">
         <v>0</v>
@@ -9081,14 +9106,12 @@
         <v>45352</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>1114</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C118" s="101"/>
       <c r="D118" s="1"/>
       <c r="E118" s="65">
-        <v>32865.519999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -9097,14 +9120,14 @@
         <v>45352</v>
       </c>
       <c r="B119" t="s">
-        <v>1115</v>
+        <v>62</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="65">
-        <v>129254.5</v>
+        <v>32865.519999999997</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -9113,14 +9136,14 @@
         <v>45352</v>
       </c>
       <c r="B120" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="65">
-        <v>256.56</v>
+        <v>129254.5</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -9129,14 +9152,14 @@
         <v>45352</v>
       </c>
       <c r="B121" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C121" s="75" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D121" s="76"/>
+        <v>1107</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D121" s="1"/>
       <c r="E121" s="65">
-        <v>1031.76</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -9145,14 +9168,14 @@
         <v>45352</v>
       </c>
       <c r="B122" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C122" s="75" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D122" s="76"/>
       <c r="E122" s="65">
-        <v>588.6</v>
+        <v>1031.76</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -9161,11 +9184,15 @@
         <v>45352</v>
       </c>
       <c r="B123" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C123" s="75"/>
+        <v>1111</v>
+      </c>
+      <c r="C123" s="75" t="s">
+        <v>1112</v>
+      </c>
       <c r="D123" s="76"/>
-      <c r="E123" s="65"/>
+      <c r="E123" s="65">
+        <v>588.6</v>
+      </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="75">
@@ -9173,13 +9200,11 @@
         <v>45352</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="65">
-        <v>450</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="C124" s="75"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="65"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="75">
@@ -9187,17 +9212,12 @@
         <v>45352</v>
       </c>
       <c r="B125" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2017.98</v>
-      </c>
-      <c r="D125" s="1">
-        <v>161</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
       <c r="E125" s="65">
-        <f>D125*C125</f>
-        <v>324894.78000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -9206,17 +9226,17 @@
         <v>45352</v>
       </c>
       <c r="B126" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C126" s="77">
-        <v>30.726199999999999</v>
+        <v>1119</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2017.98</v>
       </c>
       <c r="D126" s="1">
-        <v>850</v>
+        <v>161</v>
       </c>
       <c r="E126" s="65">
         <f>D126*C126</f>
-        <v>26117.27</v>
+        <v>324894.78000000003</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -9225,17 +9245,17 @@
         <v>45352</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>1117</v>
       </c>
       <c r="C127" s="77">
-        <v>30.725999999999999</v>
+        <v>30.726199999999999</v>
       </c>
       <c r="D127" s="1">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="E127" s="65">
         <f>D127*C127</f>
-        <v>7681.5</v>
+        <v>26117.27</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -9244,17 +9264,17 @@
         <v>45352</v>
       </c>
       <c r="B128" t="s">
-        <v>1118</v>
+        <v>264</v>
       </c>
       <c r="C128" s="77">
-        <v>33.224299999999999</v>
+        <v>30.725999999999999</v>
       </c>
       <c r="D128" s="1">
-        <v>81.99</v>
+        <v>250</v>
       </c>
       <c r="E128" s="65">
         <f>D128*C128</f>
-        <v>2724.0603569999998</v>
+        <v>7681.5</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -9263,12 +9283,17 @@
         <v>45352</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+        <v>1118</v>
+      </c>
+      <c r="C129" s="77">
+        <v>33.224299999999999</v>
+      </c>
+      <c r="D129" s="1">
+        <v>81.99</v>
+      </c>
       <c r="E129" s="65">
-        <v>30000</v>
+        <f>D129*C129</f>
+        <v>2724.0603569999998</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -9277,44 +9302,58 @@
         <v>45352</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="65">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="65">
         <v>4000</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="D131"/>
-      <c r="E131" s="99"/>
-    </row>
     <row r="132" spans="1:5">
-      <c r="C132" s="101"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="101"/>
+      <c r="D132"/>
+      <c r="E132" s="99"/>
     </row>
     <row r="133" spans="1:5">
       <c r="C133" s="101"/>
-      <c r="D133" s="64" t="s">
+      <c r="D133" s="7"/>
+      <c r="E133" s="101"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="C134" s="101"/>
+      <c r="D134" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="12">
-        <f>SUM(E112:E130)</f>
+      <c r="E134" s="12">
+        <f>SUM(E113:E131)</f>
         <v>779749.330357</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="C134" s="112" t="str">
-        <f>A111</f>
+    <row r="135" spans="1:5">
+      <c r="C135" s="112" t="str">
+        <f>A112</f>
         <v>MART</v>
       </c>
-      <c r="D134" s="113" t="s">
+      <c r="D135" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E135" s="4">
         <f>H2</f>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
     </row>
   </sheetData>
@@ -18268,7 +18307,7 @@
   </sheetPr>
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -18308,10 +18347,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="302" t="s">
+      <c r="L1" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="302"/>
+      <c r="M1" s="306"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -18463,11 +18502,11 @@
       </c>
       <c r="C5" s="26">
         <f>'03_24'!E2</f>
-        <v>-114367.16</v>
+        <v>-114592.82</v>
       </c>
       <c r="D5" s="27">
         <f t="shared" si="0"/>
-        <v>146901.82999999999</v>
+        <v>146676.16999999998</v>
       </c>
       <c r="E5" s="26">
         <f>'03_24'!F2</f>
@@ -18475,11 +18514,11 @@
       </c>
       <c r="F5" s="26">
         <f>'03_24'!G2</f>
-        <v>-84002.53</v>
+        <v>-91421.25</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
@@ -18495,7 +18534,7 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E113/1000</f>
+        <f>'03_24'!E114/1000</f>
         <v>150.845</v>
       </c>
     </row>
@@ -18513,7 +18552,7 @@
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>128721.22999999998</v>
+        <v>128495.56999999998</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -18525,7 +18564,7 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -18556,7 +18595,7 @@
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>111633.62999999998</v>
+        <v>111407.96999999997</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -18568,7 +18607,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -18599,7 +18638,7 @@
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>89326.02999999997</v>
+        <v>89100.369999999966</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -18611,7 +18650,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -18645,7 +18684,7 @@
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>72868.239999999962</v>
+        <v>72642.579999999958</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -18657,7 +18696,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -18694,7 +18733,7 @@
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>209462.10999999996</v>
+        <v>209236.44999999995</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -18706,7 +18745,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -18740,7 +18779,7 @@
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>346655.77999999991</v>
+        <v>346430.11999999994</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -18752,7 +18791,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -18789,7 +18828,7 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>360083.77999999991</v>
+        <v>359858.11999999994</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -18801,7 +18840,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -18838,7 +18877,7 @@
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>603511.77999999991</v>
+        <v>603286.11999999988</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -18850,7 +18889,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -18887,7 +18926,7 @@
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>595909.0199999999</v>
+        <v>595683.35999999987</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -18899,7 +18938,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-4759.2599999999657</v>
+        <v>-12177.979999999967</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -18932,11 +18971,11 @@
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
-        <v>-714655.58</v>
+        <v>-714881.24</v>
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>595909.02000000014</v>
+        <v>595683.3600000001</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
@@ -18944,11 +18983,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-220214.47999999998</v>
+        <v>-227633.19999999998</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-4759.2599999999511</v>
+        <v>-12177.979999999952</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -18979,7 +19018,7 @@
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
-        <v>-59554.631666666661</v>
+        <v>-59573.436666666668</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
@@ -18988,11 +19027,11 @@
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-18351.206666666665</v>
+        <v>-18969.433333333331</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-396.60499999999593</v>
+        <v>-1014.8316666666627</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
@@ -19026,11 +19065,11 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="303" t="e">
+      <c r="L17" s="307" t="e">
         <f>L15+M15</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="303"/>
+      <c r="M17" s="307"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E5002-48D6-48A7-BD07-39BE7BA61A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB758F4B-6D26-4EFE-ABB8-8727B0A97059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="24735" windowHeight="11115" tabRatio="782" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="1130">
   <si>
     <t>umut</t>
   </si>
@@ -3639,6 +3639,30 @@
   </si>
   <si>
     <t>alumba gss prim borcu</t>
+  </si>
+  <si>
+    <t>36*38</t>
+  </si>
+  <si>
+    <t>THY ist uçak bileti</t>
+  </si>
+  <si>
+    <r>
+      <t>turknet 12ay 17-02-24 * 17-02-25 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t>99,99 *12 + 299,99</t>
+    </r>
+  </si>
+  <si>
+    <t>Doğuş Kira 7/12-2024-25 15000-6500</t>
   </si>
 </sst>
 </file>
@@ -4574,7 +4598,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5015,6 +5039,9 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5614,8 +5641,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -5648,7 +5675,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>24000</v>
+        <v>32500</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -6030,7 +6057,7 @@
         <v>150</v>
       </c>
       <c r="D30" s="82">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -6782,10 +6809,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6818,7 +6845,7 @@
       </c>
       <c r="D2" s="98">
         <f>SUM(D4:D34)</f>
-        <v>24000</v>
+        <v>32500</v>
       </c>
       <c r="E2" s="98">
         <f>SUM(E4:E34)</f>
@@ -7000,7 +7027,7 @@
         <v>90</v>
       </c>
       <c r="E16" s="98">
-        <f>E64</f>
+        <f>E65</f>
         <v>-4751.46</v>
       </c>
       <c r="H16" s="98">
@@ -7151,7 +7178,7 @@
         <v>157</v>
       </c>
       <c r="D30" s="98">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="H30" s="98">
         <f t="shared" si="0"/>
@@ -7261,7 +7288,7 @@
       </c>
       <c r="C50" s="72"/>
       <c r="E50" s="98">
-        <f>SUM(E51:E61)</f>
+        <f>SUM(E51:E62)</f>
         <v>-1577.1399999999999</v>
       </c>
     </row>
@@ -7299,37 +7326,46 @@
         <v>-234.33</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="289">
+    <row r="54" spans="1:5">
+      <c r="A54" s="289">
+        <v>45358</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C54">
+        <v>2273</v>
+      </c>
+      <c r="D54" s="98" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="289">
         <v>45347</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>1102</v>
       </c>
-      <c r="E55" s="98">
+      <c r="E56" s="98">
         <v>-343</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="87">
+    <row r="57" spans="1:5">
+      <c r="A57" s="87">
         <v>45348</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B57" s="85" t="s">
         <v>1103</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="E56" s="98">
+      <c r="C57" s="85"/>
+      <c r="E57" s="98">
         <v>-150</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="87"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="87"/>
-      <c r="B58" s="96"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="85"/>
     </row>
     <row r="59" spans="1:5">
@@ -7340,96 +7376,96 @@
     <row r="60" spans="1:5">
       <c r="A60" s="87"/>
       <c r="B60" s="96"/>
+      <c r="C60" s="85"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="87"/>
       <c r="B61" s="96"/>
-      <c r="C61" s="85"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="87"/>
-      <c r="B62" s="7"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="85"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="87"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="72"/>
-      <c r="B64" s="71" t="s">
+      <c r="A64" s="87"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="72"/>
+      <c r="B65" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="E64" s="98">
-        <f>SUM(E65:E73)</f>
+      <c r="C65" s="72"/>
+      <c r="E65" s="98">
+        <f>SUM(E66:E74)</f>
         <v>-4751.46</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="87"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-    </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B66" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="98">
-        <v>-600</v>
-      </c>
+      <c r="A66" s="87"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
+        <v>45214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="98">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
         <v>45285</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B68" s="85" t="s">
         <v>134</v>
-      </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="E67" s="98">
-        <v>-3551.66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="87"/>
-      <c r="B68" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="C68" s="85"/>
       <c r="D68" s="98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" s="98">
-        <v>-649.78</v>
+        <v>-3551.66</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="87"/>
       <c r="B69" s="7" t="s">
-        <v>131</v>
+        <v>1128</v>
       </c>
       <c r="C69" s="85"/>
       <c r="D69" s="98" t="s">
         <v>162</v>
       </c>
       <c r="E69" s="98">
-        <v>49.98</v>
+        <v>-649.78</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="87"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="C70" s="85"/>
+      <c r="D70" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="98">
+        <v>49.98</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="87"/>
@@ -7556,61 +7592,53 @@
       <c r="B95" s="7"/>
       <c r="C95" s="85"/>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="72"/>
-      <c r="B104" s="71" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="87"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="85"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="72"/>
+      <c r="B105" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="72"/>
-      <c r="E104" s="98">
-        <f>SUM(E105:E112)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="87"/>
-      <c r="B105" t="s">
-        <v>1</v>
+      <c r="C105" s="72"/>
+      <c r="E105" s="98">
+        <f>SUM(E106:E113)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="87"/>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="87"/>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="87"/>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="87"/>
       <c r="B109" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="98">
-        <v>111</v>
-      </c>
-      <c r="E109" s="98">
-        <f>D109*C109</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="87"/>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D110" s="98">
-        <v>850</v>
+        <v>111</v>
       </c>
       <c r="E110" s="98">
         <f>D110*C110</f>
@@ -7620,10 +7648,10 @@
     <row r="111" spans="1:5">
       <c r="A111" s="87"/>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D111" s="98">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="E111" s="98">
         <f>D111*C111</f>
@@ -7633,24 +7661,37 @@
     <row r="112" spans="1:5">
       <c r="A112" s="87"/>
       <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="98">
+        <v>100</v>
+      </c>
+      <c r="E112" s="98">
+        <f>D112*C112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="87"/>
+      <c r="B113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="2:5">
-      <c r="B113" t="s">
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
         <v>115</v>
       </c>
-      <c r="E113" s="98">
+      <c r="E114" s="98">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:5">
-      <c r="D115" s="98" t="s">
+    <row r="116" spans="1:5">
+      <c r="D116" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E115" s="98">
-        <f>SUM(E105:E114)</f>
+      <c r="E116" s="98">
+        <f>SUM(E106:E115)</f>
         <v>0</v>
       </c>
     </row>
@@ -7669,10 +7710,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7705,24 +7746,24 @@
         <v>77</v>
       </c>
       <c r="D2" s="82">
-        <f>SUM(D7:D34)</f>
-        <v>19300</v>
+        <f>SUM(D7:D35)</f>
+        <v>36300</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E3:E34)</f>
+        <f>SUM(E3:E35)</f>
         <v>-114592.82</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F3:F34)</f>
-        <v>0</v>
+        <f>SUM(F3:F35)</f>
+        <v>6500</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G3:G34)</f>
-        <v>-91421.25</v>
+        <f>SUM(G3:G35)</f>
+        <v>-98921.25</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7760,7 +7801,7 @@
         <v>-1512.13</v>
       </c>
       <c r="H5" s="292">
-        <f t="shared" ref="H5:H18" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H20" si="0">H4+F5+G5</f>
         <v>-1512.13</v>
       </c>
     </row>
@@ -7827,17 +7868,18 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="306">
         <v>45356</v>
       </c>
       <c r="B9" s="303" t="s">
         <v>90</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>72000</v>
       </c>
+      <c r="D9" s="298"/>
       <c r="E9" s="292">
-        <f>E69</f>
+        <f>E70</f>
         <v>-72173.5</v>
       </c>
       <c r="F9" s="2"/>
@@ -7851,17 +7893,20 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="289">
+      <c r="A10" s="307">
         <v>45357</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="303" t="s">
         <v>89</v>
       </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="298"/>
       <c r="E10" s="292">
-        <f>E50</f>
+        <f>E51</f>
         <v>-6341.6600000000008</v>
       </c>
-      <c r="G10" s="293">
+      <c r="F10" s="2"/>
+      <c r="G10" s="292">
         <f>E10</f>
         <v>-6341.6600000000008</v>
       </c>
@@ -7871,17 +7916,19 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="289">
+      <c r="A11" s="307">
         <v>45357</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="303" t="s">
         <v>1125</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="D11" s="298"/>
       <c r="E11" s="292"/>
-      <c r="G11" s="293">
+      <c r="F11" s="2"/>
+      <c r="G11" s="292">
         <v>-220.03</v>
       </c>
       <c r="H11" s="292">
@@ -7890,17 +7937,19 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="289">
+      <c r="A12" s="307">
         <v>45357</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="303" t="s">
         <v>1125</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="D12" s="298"/>
       <c r="E12" s="292"/>
-      <c r="G12" s="293">
+      <c r="F12" s="2"/>
+      <c r="G12" s="292">
         <v>-631.37</v>
       </c>
       <c r="H12" s="292">
@@ -7909,201 +7958,219 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="H13" s="98">
-        <f t="shared" si="0"/>
-        <v>-91195.59</v>
+      <c r="A13" s="308">
+        <v>45358</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="292">
+        <v>-5375</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="292">
+        <f>E13</f>
+        <v>-5375</v>
+      </c>
+      <c r="H13" s="292">
+        <f t="shared" si="0"/>
+        <v>-96570.59</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="150">
+      <c r="A14" s="308">
         <v>45358</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="E14" s="98">
-        <v>-5375</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="98">
-        <f t="shared" si="0"/>
-        <v>-91195.59</v>
+      <c r="C14" s="83"/>
+      <c r="D14" s="298"/>
+      <c r="E14" s="292">
+        <v>-2125</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="292">
+        <f>E14</f>
+        <v>-2125</v>
+      </c>
+      <c r="H14" s="292">
+        <f t="shared" si="0"/>
+        <v>-98695.59</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="150">
+      <c r="A15" s="308">
         <v>45358</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="84"/>
-      <c r="E15" s="98">
-        <v>-2125</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="98">
-        <f t="shared" si="0"/>
-        <v>-91195.59</v>
+      <c r="B15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="292"/>
+      <c r="F15" s="2">
+        <v>6500</v>
+      </c>
+      <c r="G15" s="292"/>
+      <c r="H15" s="292">
+        <f t="shared" si="0"/>
+        <v>-92195.59</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7"/>
-      <c r="B16" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="98">
-        <v>-300</v>
-      </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="98">
-        <f t="shared" si="0"/>
-        <v>-91195.59</v>
+      <c r="A16" s="150"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="292">
+        <f t="shared" si="0"/>
+        <v>-92195.59</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7"/>
-      <c r="B17" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="98">
-        <v>-100</v>
-      </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="98">
-        <f t="shared" si="0"/>
-        <v>-91195.59</v>
+      <c r="A17" s="150"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="292">
+        <f t="shared" si="0"/>
+        <v>-92195.59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7"/>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="98">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="292">
+        <f t="shared" si="0"/>
+        <v>-92195.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7"/>
+      <c r="B19" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="98">
+        <v>-100</v>
+      </c>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="292">
+        <f t="shared" si="0"/>
+        <v>-92195.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7"/>
+      <c r="B20" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="E18" s="98">
-        <f>E45*-1</f>
+      <c r="C20" s="7"/>
+      <c r="E20" s="98">
+        <f>E46*-1</f>
         <v>-225.66</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78">
+      <c r="F20" s="78"/>
+      <c r="G20" s="78">
         <f>-225.66</f>
         <v>-225.66</v>
       </c>
-      <c r="H18" s="98">
-        <f t="shared" si="0"/>
-        <v>-91421.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="98">
-        <f t="shared" ref="H19:H33" si="2">H18+F19+G19</f>
-        <v>-91421.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7"/>
-      <c r="B20" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="84"/>
-      <c r="E20" s="98">
-        <v>-400</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="98">
-        <f t="shared" si="2"/>
-        <v>-91421.25</v>
+      <c r="H20" s="292">
+        <f t="shared" si="0"/>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7"/>
-      <c r="B21" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="E21" s="98">
-        <v>-500</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="F21" s="78"/>
       <c r="G21" s="78"/>
       <c r="H21" s="98">
-        <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <f t="shared" ref="H21:H34" si="2">H20+F21+G21</f>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="302"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="E22" s="98">
+        <v>-400</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="78"/>
       <c r="H22" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="F23" s="78"/>
+      <c r="B23" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="E23" s="98">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="78"/>
       <c r="H23" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>1104</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>1</v>
+        <v>1104</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="E25" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7"/>
       <c r="E26" s="98">
@@ -8113,13 +8180,13 @@
       <c r="G26" s="78"/>
       <c r="H26" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C27" s="7"/>
       <c r="E27" s="98">
@@ -8129,306 +8196,318 @@
       <c r="G27" s="78"/>
       <c r="H27" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="82">
-        <v>10000</v>
+      <c r="E28" s="98">
+        <v>-5000</v>
       </c>
       <c r="F28" s="78"/>
       <c r="G28" s="78"/>
       <c r="H28" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="150"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="82">
-        <v>2800</v>
-      </c>
-      <c r="F29" s="78"/>
+        <v>10000</v>
+      </c>
+      <c r="F29" s="78">
+        <v>0</v>
+      </c>
       <c r="G29" s="78"/>
       <c r="H29" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="150"/>
       <c r="B30" s="7" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="82">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="F30" s="78"/>
       <c r="G30" s="78"/>
       <c r="H30" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="87"/>
-      <c r="G31" s="57"/>
+      <c r="A31" s="150"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="57"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="82">
+        <v>8500</v>
+      </c>
       <c r="G32" s="57"/>
       <c r="H32" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
     <row r="33" spans="1:8">
+      <c r="B33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="82">
+        <v>15000</v>
+      </c>
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
       <c r="H33" s="98">
         <f t="shared" si="2"/>
-        <v>-91421.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" s="91"/>
+        <v>-92421.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="98">
+        <f t="shared" si="2"/>
+        <v>-92421.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75">
+      <c r="B35" s="91"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="72"/>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="98"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="57"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="92">
+    <row r="39" spans="1:8" s="2" customFormat="1">
+      <c r="A39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="98"/>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="92">
         <v>44929</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B40" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="82">
-        <f>SUM(D40:D45)</f>
+      <c r="C40" s="72"/>
+      <c r="D40" s="82">
+        <f>SUM(D41:D46)</f>
         <v>5343.55</v>
       </c>
-      <c r="E39" s="98">
-        <f>SUM(E40:E45)</f>
+      <c r="E40" s="98">
+        <f>SUM(E41:E46)</f>
         <v>225.66</v>
       </c>
-      <c r="H39" s="57"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="87"/>
-      <c r="B40" s="85" t="s">
+      <c r="H40" s="57"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="87"/>
+      <c r="B41" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
         <v>967.68</v>
       </c>
-      <c r="H40" s="57"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41">
-        <v>1224.42</v>
-      </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D42">
-        <v>237.14</v>
+        <v>1224.42</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>1080</v>
+        <v>104</v>
       </c>
       <c r="D43">
-        <v>2248.8000000000002</v>
+        <v>237.14</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>106</v>
+        <v>1080</v>
       </c>
       <c r="D44">
-        <v>439.85</v>
+        <v>2248.8000000000002</v>
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85">
-        <v>225.66</v>
-      </c>
-      <c r="E45" s="98">
-        <v>225.66</v>
+        <v>106</v>
+      </c>
+      <c r="D45">
+        <v>439.85</v>
       </c>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
     </row>
     <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
       <c r="C46" s="85"/>
+      <c r="D46" s="85">
+        <v>225.66</v>
+      </c>
+      <c r="E46" s="98">
+        <v>225.66</v>
+      </c>
       <c r="F46" s="57"/>
       <c r="G46" s="57"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="65"/>
+    <row r="47" spans="1:8">
+      <c r="C47" s="85"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="B49" s="82"/>
+      <c r="B49" s="65"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="72"/>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="82"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="72"/>
+      <c r="B51" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="E50" s="291">
-        <f>SUM(E51:E64)</f>
+      <c r="C51" s="72"/>
+      <c r="E51" s="291">
+        <f>SUM(E52:E65)</f>
         <v>-6341.6600000000008</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B51" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="85">
-        <v>7648.33</v>
-      </c>
-      <c r="D51" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="98">
-        <v>-849.81</v>
-      </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="87">
         <v>45187</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C52" s="85">
-        <v>11128</v>
+        <v>7648.33</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E52" s="98">
-        <v>-1854.65</v>
-      </c>
-      <c r="F52" s="57"/>
+        <v>-849.81</v>
+      </c>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="289">
-        <v>45325</v>
-      </c>
-      <c r="B53" t="s">
-        <v>212</v>
+      <c r="A53" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B53" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="85">
+        <v>11128</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>171</v>
       </c>
       <c r="E53" s="98">
-        <v>-453.4</v>
-      </c>
+        <v>-1854.65</v>
+      </c>
+      <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="289">
-        <v>45326</v>
+        <v>45325</v>
       </c>
       <c r="B54" t="s">
-        <v>1081</v>
+        <v>212</v>
       </c>
       <c r="E54" s="98">
-        <v>-300</v>
+        <v>-453.4</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="289">
-        <v>45327</v>
+        <v>45326</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>3900.57</v>
+        <v>1081</v>
+      </c>
+      <c r="E55" s="98">
+        <v>-300</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="289">
-        <v>45330</v>
+        <v>45327</v>
       </c>
       <c r="B56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E56" s="98">
-        <v>-900</v>
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>3900.57</v>
       </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
@@ -8438,26 +8517,24 @@
         <v>45330</v>
       </c>
       <c r="B57" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E57" s="98">
-        <v>-116.38</v>
+        <v>-900</v>
       </c>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="87">
-        <v>45331</v>
-      </c>
-      <c r="B58" s="85" t="s">
-        <v>404</v>
-      </c>
-      <c r="C58" s="85"/>
+      <c r="A58" s="289">
+        <v>45330</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1083</v>
+      </c>
       <c r="E58" s="98">
-        <v>-100</v>
-      </c>
-      <c r="F58" s="57"/>
+        <v>-116.38</v>
+      </c>
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
     </row>
@@ -8466,11 +8543,11 @@
         <v>45331</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>1084</v>
+        <v>404</v>
       </c>
       <c r="C59" s="85"/>
       <c r="E59" s="98">
-        <v>-215.42</v>
+        <v>-100</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
@@ -8478,14 +8555,14 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="87">
-        <v>45332</v>
+        <v>45331</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>404</v>
+        <v>1084</v>
       </c>
       <c r="C60" s="85"/>
       <c r="E60" s="98">
-        <v>-100</v>
+        <v>-215.42</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
@@ -8496,11 +8573,11 @@
         <v>45332</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>1085</v>
+        <v>404</v>
       </c>
       <c r="C61" s="85"/>
       <c r="E61" s="98">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
@@ -8508,13 +8585,14 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="87">
-        <v>45337</v>
+        <v>45332</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>1086</v>
-      </c>
+        <v>1085</v>
+      </c>
+      <c r="C62" s="85"/>
       <c r="E62" s="98">
-        <v>-352</v>
+        <v>-900</v>
       </c>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
@@ -8522,14 +8600,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="87">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="B63" s="85" t="s">
-        <v>404</v>
-      </c>
-      <c r="C63" s="85"/>
+        <v>1086</v>
+      </c>
       <c r="E63" s="98">
-        <v>-100</v>
+        <v>-352</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
@@ -8537,11 +8614,12 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="87">
-        <v>45339</v>
-      </c>
-      <c r="B64" s="7" t="s">
+        <v>45338</v>
+      </c>
+      <c r="B64" s="85" t="s">
         <v>404</v>
       </c>
+      <c r="C64" s="85"/>
       <c r="E64" s="98">
         <v>-100</v>
       </c>
@@ -8549,21 +8627,27 @@
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
     </row>
-    <row r="65" spans="1:8" ht="15">
-      <c r="A65" s="87"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="109" t="s">
-        <v>197</v>
+    <row r="65" spans="1:8">
+      <c r="A65" s="87">
+        <v>45339</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E65" s="98">
+        <v>-100</v>
       </c>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="15">
       <c r="A66" s="87"/>
       <c r="B66" s="85"/>
       <c r="C66" s="85"/>
+      <c r="D66" s="109" t="s">
+        <v>197</v>
+      </c>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
@@ -8585,76 +8669,66 @@
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="72"/>
-      <c r="B69" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="72"/>
-      <c r="E69" s="300">
-        <f>SUM(E70:E89)</f>
-        <v>-72173.5</v>
-      </c>
+      <c r="A69" s="87"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="87"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="72"/>
+      <c r="E70" s="300">
+        <f>SUM(E71:E90)</f>
+        <v>-72173.5</v>
+      </c>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B71" s="85" t="s">
-        <v>172</v>
-      </c>
+      <c r="A71" s="87"/>
+      <c r="B71" s="85"/>
       <c r="C71" s="85"/>
-      <c r="D71" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="E71" s="98">
-        <v>-3974.42</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
+      <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B72" t="s">
-        <v>159</v>
-      </c>
+      <c r="A72" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B72" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="85"/>
       <c r="D72" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72" s="98">
-        <v>-600</v>
-      </c>
-      <c r="F72" s="57"/>
+        <v>-3974.42</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B73" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="85"/>
+        <v>45214</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
       <c r="D73" s="82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E73" s="98">
-        <v>-3551.66</v>
+        <v>-600</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
@@ -8662,19 +8736,17 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3">
-        <v>45259</v>
-      </c>
-      <c r="B74" t="s">
-        <v>176</v>
-      </c>
-      <c r="C74" s="99">
-        <v>-1204.5</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B74" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="85"/>
       <c r="D74" s="82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E74" s="98">
-        <v>-401.5</v>
+        <v>-3551.66</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -8685,16 +8757,16 @@
         <v>45259</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C75" s="99">
-        <v>-148.6</v>
+        <v>-1204.5</v>
       </c>
       <c r="D75" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E75" s="98">
-        <v>-49.54</v>
+        <v>-401.5</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -8705,16 +8777,16 @@
         <v>45259</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C76" s="99">
-        <v>-244.8</v>
+        <v>-148.6</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E76" s="98">
-        <v>-81.599999999999994</v>
+        <v>-49.54</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
@@ -8725,34 +8797,36 @@
         <v>45259</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C77" s="99">
-        <v>-532.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D77" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E77" s="98">
-        <v>-177.54</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="3"/>
-      <c r="B78" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="85">
-        <v>899</v>
-      </c>
-      <c r="D78" s="97" t="s">
-        <v>181</v>
+      <c r="A78" s="3">
+        <v>45259</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="99">
+        <v>-532.6</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>177</v>
       </c>
       <c r="E78" s="98">
-        <v>-449.5</v>
+        <v>-177.54</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
@@ -8761,14 +8835,16 @@
     <row r="79" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" s="85"/>
+        <v>13</v>
+      </c>
+      <c r="C79" s="85">
+        <v>899</v>
+      </c>
       <c r="D79" s="97" t="s">
         <v>181</v>
       </c>
       <c r="E79" s="98">
-        <v>-299.64</v>
+        <v>-449.5</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
@@ -8777,30 +8853,30 @@
     <row r="80" spans="1:8">
       <c r="A80" s="3"/>
       <c r="B80" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" s="85"/>
       <c r="D80" s="97" t="s">
         <v>181</v>
       </c>
       <c r="E80" s="98">
-        <v>-546.82000000000005</v>
+        <v>-299.64</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="87"/>
-      <c r="B81" s="7" t="s">
-        <v>129</v>
+      <c r="A81" s="3"/>
+      <c r="B81" s="85" t="s">
+        <v>183</v>
       </c>
       <c r="C81" s="85"/>
       <c r="D81" s="97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E81" s="98">
-        <v>-649.78</v>
+        <v>-546.82000000000005</v>
       </c>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
@@ -8809,13 +8885,14 @@
     <row r="82" spans="1:8">
       <c r="A82" s="87"/>
       <c r="B82" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82" s="85">
-        <v>49.98</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C82" s="85"/>
       <c r="D82" s="97" t="s">
         <v>184</v>
+      </c>
+      <c r="E82" s="98">
+        <v>-649.78</v>
       </c>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
@@ -8823,8 +8900,15 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="87"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="85"/>
+      <c r="B83" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="85">
+        <v>49.98</v>
+      </c>
+      <c r="D83" s="97" t="s">
+        <v>184</v>
+      </c>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
@@ -8838,29 +8922,23 @@
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="87">
-        <v>45324</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="A85" s="87"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="85"/>
-      <c r="E85" s="98">
-        <v>-1195</v>
-      </c>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="87">
-        <v>45327</v>
+        <v>45324</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" s="98">
-        <v>-299.99</v>
+        <v>185</v>
+      </c>
+      <c r="C86" s="85"/>
+      <c r="E86" s="98">
+        <v>-1195</v>
       </c>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
@@ -8868,14 +8946,13 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="87">
-        <v>45336</v>
+        <v>45327</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" s="85"/>
-      <c r="E87" s="98">
-        <v>-59483.25</v>
+        <v>186</v>
+      </c>
+      <c r="C87" s="98">
+        <v>-299.99</v>
       </c>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
@@ -8883,14 +8960,14 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="87">
-        <v>45329</v>
+        <v>45336</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1087</v>
+        <v>120</v>
       </c>
       <c r="C88" s="85"/>
       <c r="E88" s="98">
-        <v>-713.25</v>
+        <v>-59483.25</v>
       </c>
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
@@ -8898,41 +8975,48 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="87">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="85">
-        <v>24742.959999999999</v>
+        <v>1087</v>
+      </c>
+      <c r="C89" s="85"/>
+      <c r="E89" s="98">
+        <v>-713.25</v>
       </c>
       <c r="F89" s="57"/>
       <c r="G89" s="57"/>
       <c r="H89" s="57"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="87"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="85"/>
+      <c r="A90" s="87">
+        <v>45327</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="85">
+        <v>24742.959999999999</v>
+      </c>
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
     </row>
-    <row r="91" spans="1:8" ht="15">
+    <row r="91" spans="1:8">
       <c r="A91" s="87"/>
       <c r="B91" s="7"/>
       <c r="C91" s="85"/>
-      <c r="D91" s="109" t="s">
-        <v>197</v>
-      </c>
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
       <c r="H91" s="57"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" ht="15">
       <c r="A92" s="87"/>
       <c r="B92" s="7"/>
       <c r="C92" s="85"/>
+      <c r="D92" s="109" t="s">
+        <v>197</v>
+      </c>
       <c r="F92" s="57"/>
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
@@ -9009,81 +9093,75 @@
       <c r="G101" s="57"/>
       <c r="H101" s="57"/>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="87"/>
+    <row r="102" spans="1:8">
+      <c r="A102" s="87"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="85"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="87"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="70" t="s">
+      <c r="A112" s="87"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="70" t="s">
         <v>1121</v>
       </c>
-      <c r="B112" s="71" t="s">
+      <c r="B113" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C112" s="72">
+      <c r="C113" s="72">
         <v>2024</v>
       </c>
-      <c r="D112" s="73"/>
-      <c r="E112" s="74">
-        <f>SUM(E113:E131)</f>
-        <v>779749.330357</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="304">
-        <v>45352</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="305"/>
-      <c r="D113" s="305"/>
-      <c r="E113" s="305">
-        <v>64000</v>
+      <c r="D113" s="73"/>
+      <c r="E113" s="74">
+        <f>SUM(E114:E132)</f>
+        <v>745852.05035699997</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="304">
-        <f>A113</f>
         <v>45352</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1122</v>
+        <v>1</v>
       </c>
       <c r="C114" s="305"/>
       <c r="D114" s="305"/>
       <c r="E114" s="305">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="304">
+        <f>A114</f>
+        <v>45352</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C115" s="305"/>
+      <c r="D115" s="305"/>
+      <c r="E115" s="305">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="75">
-        <f t="shared" ref="A115:A131" si="3">A114</f>
-        <v>45352</v>
-      </c>
-      <c r="B115" t="s">
-        <v>59</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="65">
-        <v>5039.78</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A116:A132" si="3">A115</f>
         <v>45352</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="65">
-        <v>0</v>
+        <v>5039.78</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -9092,7 +9170,7 @@
         <v>45352</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -9106,9 +9184,9 @@
         <v>45352</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
-      </c>
-      <c r="C118" s="101"/>
+        <v>257</v>
+      </c>
+      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="65">
         <v>0</v>
@@ -9120,14 +9198,12 @@
         <v>45352</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1114</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C119" s="101"/>
       <c r="D119" s="1"/>
       <c r="E119" s="65">
-        <v>32865.519999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -9136,14 +9212,12 @@
         <v>45352</v>
       </c>
       <c r="B120" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1116</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="65">
-        <v>129254.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -9152,14 +9226,14 @@
         <v>45352</v>
       </c>
       <c r="B121" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="65">
-        <v>256.56</v>
+        <v>129254.5</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -9168,14 +9242,14 @@
         <v>45352</v>
       </c>
       <c r="B122" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C122" s="75" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D122" s="76"/>
+        <v>1107</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D122" s="1"/>
       <c r="E122" s="65">
-        <v>1031.76</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -9184,14 +9258,14 @@
         <v>45352</v>
       </c>
       <c r="B123" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C123" s="75" t="s">
-        <v>1112</v>
+        <v>1126</v>
       </c>
       <c r="D123" s="76"/>
       <c r="E123" s="65">
-        <v>588.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -9200,11 +9274,15 @@
         <v>45352</v>
       </c>
       <c r="B124" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C124" s="75"/>
+        <v>1111</v>
+      </c>
+      <c r="C124" s="75" t="s">
+        <v>1112</v>
+      </c>
       <c r="D124" s="76"/>
-      <c r="E124" s="65"/>
+      <c r="E124" s="65">
+        <v>588.6</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="75">
@@ -9212,13 +9290,11 @@
         <v>45352</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="65">
-        <v>450</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="C125" s="75"/>
+      <c r="D125" s="76"/>
+      <c r="E125" s="65"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="75">
@@ -9226,17 +9302,12 @@
         <v>45352</v>
       </c>
       <c r="B126" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C126" s="1">
-        <v>2017.98</v>
-      </c>
-      <c r="D126" s="1">
-        <v>161</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
       <c r="E126" s="65">
-        <f>D126*C126</f>
-        <v>324894.78000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -9245,17 +9316,17 @@
         <v>45352</v>
       </c>
       <c r="B127" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C127" s="77">
-        <v>30.726199999999999</v>
+        <v>1119</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2017.98</v>
       </c>
       <c r="D127" s="1">
-        <v>850</v>
+        <v>161</v>
       </c>
       <c r="E127" s="65">
         <f>D127*C127</f>
-        <v>26117.27</v>
+        <v>324894.78000000003</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -9264,17 +9335,17 @@
         <v>45352</v>
       </c>
       <c r="B128" t="s">
-        <v>264</v>
+        <v>1117</v>
       </c>
       <c r="C128" s="77">
-        <v>30.725999999999999</v>
+        <v>30.726199999999999</v>
       </c>
       <c r="D128" s="1">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="E128" s="65">
         <f>D128*C128</f>
-        <v>7681.5</v>
+        <v>26117.27</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -9283,17 +9354,17 @@
         <v>45352</v>
       </c>
       <c r="B129" t="s">
-        <v>1118</v>
+        <v>264</v>
       </c>
       <c r="C129" s="77">
-        <v>33.224299999999999</v>
+        <v>30.725999999999999</v>
       </c>
       <c r="D129" s="1">
-        <v>81.99</v>
+        <v>250</v>
       </c>
       <c r="E129" s="65">
         <f>D129*C129</f>
-        <v>2724.0603569999998</v>
+        <v>7681.5</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -9302,12 +9373,17 @@
         <v>45352</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+        <v>1118</v>
+      </c>
+      <c r="C130" s="77">
+        <v>33.224299999999999</v>
+      </c>
+      <c r="D130" s="1">
+        <v>81.99</v>
+      </c>
       <c r="E130" s="65">
-        <v>30000</v>
+        <f>D130*C130</f>
+        <v>2724.0603569999998</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -9316,44 +9392,58 @@
         <v>45352</v>
       </c>
       <c r="B131" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="65">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="75">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
+      <c r="B132" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="65">
         <v>4000</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="D132"/>
-      <c r="E132" s="99"/>
-    </row>
     <row r="133" spans="1:5">
-      <c r="C133" s="101"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="101"/>
+      <c r="D133"/>
+      <c r="E133" s="99"/>
     </row>
     <row r="134" spans="1:5">
       <c r="C134" s="101"/>
-      <c r="D134" s="64" t="s">
+      <c r="D134" s="7"/>
+      <c r="E134" s="101"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="C135" s="101"/>
+      <c r="D135" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E134" s="12">
-        <f>SUM(E113:E131)</f>
-        <v>779749.330357</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="C135" s="112" t="str">
-        <f>A112</f>
+      <c r="E135" s="12">
+        <f>SUM(E114:E132)</f>
+        <v>745852.05035699997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="C136" s="112" t="str">
+        <f>A113</f>
         <v>MART</v>
       </c>
-      <c r="D135" s="113" t="s">
+      <c r="D136" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E136" s="4">
         <f>H2</f>
-        <v>-91421.25</v>
+        <v>-92421.25</v>
       </c>
     </row>
   </sheetData>
@@ -9373,8 +9463,8 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9876,6 +9966,9 @@
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="A26" s="289">
+        <v>45358</v>
+      </c>
       <c r="B26" t="s">
         <v>192</v>
       </c>
@@ -11354,8 +11447,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -18307,8 +18400,8 @@
   </sheetPr>
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -18325,7 +18418,7 @@
     <col min="11" max="11" width="7" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18347,10 +18440,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="306" t="s">
+      <c r="L1" s="309" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="306"/>
+      <c r="M1" s="309"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -18430,17 +18523,17 @@
         <v>27</v>
       </c>
       <c r="J3" s="2">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="31"/>
       <c r="M3" s="32">
         <f>J3</f>
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="N3">
-        <f>'01_24'!E122/1000</f>
-        <v>0.12231</v>
+        <f>'01_24'!E118/1000</f>
+        <v>813.15151000000003</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -18476,20 +18569,20 @@
         <v>29</v>
       </c>
       <c r="J4" s="2">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="K4" s="33">
         <f>J4*$K$2</f>
-        <v>33.895296000000002</v>
+        <v>40.015280000000004</v>
       </c>
       <c r="L4" s="34">
         <f>J4-K4</f>
-        <v>110.104704</v>
+        <v>129.98471999999998</v>
       </c>
       <c r="M4" s="32"/>
-      <c r="N4" t="e">
-        <f>'02_24'!#REF!/1000</f>
-        <v>#REF!</v>
+      <c r="N4">
+        <f>'02_24'!E111/1000</f>
+        <v>809.24983035699995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -18498,7 +18591,7 @@
       </c>
       <c r="B5" s="26">
         <f>'03_24'!D2</f>
-        <v>19300</v>
+        <v>36300</v>
       </c>
       <c r="C5" s="26">
         <f>'03_24'!E2</f>
@@ -18506,19 +18599,19 @@
       </c>
       <c r="D5" s="27">
         <f t="shared" si="0"/>
-        <v>146676.16999999998</v>
+        <v>163676.16999999998</v>
       </c>
       <c r="E5" s="26">
         <f>'03_24'!F2</f>
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="F5" s="26">
         <f>'03_24'!G2</f>
-        <v>-91421.25</v>
+        <v>-98921.25</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
@@ -18534,7 +18627,7 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E114/1000</f>
+        <f>'03_24'!E115/1000</f>
         <v>150.845</v>
       </c>
     </row>
@@ -18544,7 +18637,7 @@
       </c>
       <c r="B6" s="26">
         <f>'04_24'!D2</f>
-        <v>24000</v>
+        <v>32500</v>
       </c>
       <c r="C6" s="26">
         <f>'04_24'!E2</f>
@@ -18552,7 +18645,7 @@
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>128495.56999999998</v>
+        <v>153995.56999999998</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -18564,7 +18657,7 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -18572,12 +18665,12 @@
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="36" t="e">
+      <c r="M6" s="36">
         <f>E18/1000</f>
-        <v>#REF!</v>
+        <v>20.855220000000003</v>
       </c>
       <c r="N6">
-        <f>'04_24'!E110/1000</f>
+        <f>'04_24'!E111/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -18587,7 +18680,7 @@
       </c>
       <c r="B7" s="26">
         <f>'05_24'!D2</f>
-        <v>24000</v>
+        <v>32500</v>
       </c>
       <c r="C7" s="26">
         <f>'05_24'!E2</f>
@@ -18595,7 +18688,7 @@
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>111407.96999999997</v>
+        <v>145407.96999999997</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -18607,7 +18700,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -18630,7 +18723,7 @@
       </c>
       <c r="B8" s="26">
         <f>'06_24'!D2</f>
-        <v>24000</v>
+        <v>32500</v>
       </c>
       <c r="C8" s="26">
         <f>'06_24'!E2</f>
@@ -18638,7 +18731,7 @@
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>89100.369999999966</v>
+        <v>131600.36999999997</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -18650,7 +18743,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -18676,7 +18769,7 @@
       </c>
       <c r="B9" s="26">
         <f>'07_24'!D2</f>
-        <v>29000</v>
+        <v>37500</v>
       </c>
       <c r="C9" s="26">
         <f>'07_24'!E2</f>
@@ -18684,7 +18777,7 @@
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>72642.579999999958</v>
+        <v>123642.57999999996</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -18696,22 +18789,22 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="2">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="K9" s="33">
         <f>J9*$K$2</f>
-        <v>33.895296000000002</v>
+        <v>40.015280000000004</v>
       </c>
       <c r="L9" s="34">
         <f>J9-K9</f>
-        <v>110.104704</v>
+        <v>129.98471999999998</v>
       </c>
       <c r="M9" s="37"/>
       <c r="N9">
@@ -18725,7 +18818,7 @@
       </c>
       <c r="B10" s="26">
         <f>'08_24'!D2</f>
-        <v>178500</v>
+        <v>181500</v>
       </c>
       <c r="C10" s="26">
         <f>'08_24'!E2</f>
@@ -18733,7 +18826,7 @@
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>209236.44999999995</v>
+        <v>263236.44999999995</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -18745,20 +18838,20 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="2">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="34"/>
       <c r="M10" s="32">
         <f>J10*0.13</f>
-        <v>32.5</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <f>'08_24'!E111/1000</f>
@@ -18771,7 +18864,7 @@
       </c>
       <c r="B11" s="26">
         <f>'09_24'!D2</f>
-        <v>178500</v>
+        <v>181500</v>
       </c>
       <c r="C11" s="26">
         <f>'09_24'!E2</f>
@@ -18779,7 +18872,7 @@
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>346430.11999999994</v>
+        <v>403430.11999999994</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -18791,22 +18884,22 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="2">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="K11" s="33">
         <f>J11*$K$2</f>
-        <v>33.895296000000002</v>
+        <v>40.015280000000004</v>
       </c>
       <c r="L11" s="34">
         <f>J11-K11</f>
-        <v>110.104704</v>
+        <v>129.98471999999998</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11">
@@ -18820,7 +18913,7 @@
       </c>
       <c r="B12" s="26">
         <f>'10_24'!D2</f>
-        <v>154500</v>
+        <v>157500</v>
       </c>
       <c r="C12" s="26">
         <f>'10_24'!E2</f>
@@ -18828,7 +18921,7 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>359858.11999999994</v>
+        <v>419858.11999999994</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -18840,22 +18933,22 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
         <v>45</v>
       </c>
       <c r="J12" s="2">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="K12" s="33">
         <f>J12*$K$2</f>
-        <v>28.246080000000003</v>
+        <v>32.012224000000003</v>
       </c>
       <c r="L12" s="34">
         <f>J12-K12</f>
-        <v>91.753919999999994</v>
+        <v>103.987776</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12">
@@ -18869,7 +18962,7 @@
       </c>
       <c r="B13" s="26">
         <f>'11_24'!D2</f>
-        <v>284500</v>
+        <v>287500</v>
       </c>
       <c r="C13" s="26">
         <f>'11_24'!E2</f>
@@ -18877,7 +18970,7 @@
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>603286.11999999988</v>
+        <v>666286.11999999988</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -18889,7 +18982,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -18918,7 +19011,7 @@
       </c>
       <c r="B14" s="26">
         <f>'12_24'!D2</f>
-        <v>34500</v>
+        <v>37500</v>
       </c>
       <c r="C14" s="26">
         <f>'12_24'!E2</f>
@@ -18926,7 +19019,7 @@
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>595683.35999999987</v>
+        <v>661683.35999999987</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -18938,22 +19031,22 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-12177.979999999967</v>
+        <v>-13177.979999999967</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="39">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K14" s="33">
         <f>J14*$K$2</f>
-        <v>40.015280000000004</v>
+        <v>80.030560000000008</v>
       </c>
       <c r="L14" s="34">
         <f>J14-K14</f>
-        <v>129.98471999999998</v>
+        <v>259.96943999999996</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14">
@@ -18967,7 +19060,7 @@
       </c>
       <c r="B15" s="27">
         <f>SUM(B3:B14)</f>
-        <v>1310564.6000000001</v>
+        <v>1376564.6</v>
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
@@ -18975,37 +19068,37 @@
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>595683.3600000001</v>
+        <v>661683.3600000001</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
-        <v>215455.22000000003</v>
+        <v>221955.22000000003</v>
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-227633.19999999998</v>
+        <v>-235133.19999999998</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-12177.979999999952</v>
+        <v>-13177.979999999952</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="43">
         <f>SUM(J3:J14)</f>
-        <v>1856</v>
+        <v>2306</v>
       </c>
       <c r="K15" s="44">
         <f>SUM(K4:K14)</f>
-        <v>228.79324800000001</v>
+        <v>290.93462399999999</v>
       </c>
       <c r="L15" s="45">
         <f>SUM(L4:L14)</f>
-        <v>743.20675200000005</v>
-      </c>
-      <c r="M15" s="46" t="e">
+        <v>945.0653759999999</v>
+      </c>
+      <c r="M15" s="46">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>#REF!</v>
+        <v>442.85522000000003</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -19014,7 +19107,7 @@
       </c>
       <c r="B16" s="48">
         <f>B15/A16</f>
-        <v>109213.71666666667</v>
+        <v>114713.71666666667</v>
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
@@ -19023,37 +19116,37 @@
       <c r="D16" s="49"/>
       <c r="E16" s="49">
         <f>E15/A16</f>
-        <v>17954.601666666669</v>
+        <v>18496.268333333337</v>
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-18969.433333333331</v>
+        <v>-19594.433333333331</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-1014.8316666666627</v>
+        <v>-1098.1649999999961</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
       <c r="J16" s="52">
         <f>J15/12</f>
-        <v>154.66666666666666</v>
+        <v>192.16666666666666</v>
       </c>
       <c r="K16" s="53">
         <f>K15/12</f>
-        <v>19.066103999999999</v>
+        <v>24.244551999999999</v>
       </c>
       <c r="L16" s="54">
         <f>L15/12</f>
-        <v>61.933896000000004</v>
-      </c>
-      <c r="M16" s="55" t="e">
+        <v>78.755447999999987</v>
+      </c>
+      <c r="M16" s="55">
         <f>M15/12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N16" s="56" t="e">
+        <v>36.904601666666672</v>
+      </c>
+      <c r="N16" s="56">
         <f>AVERAGE(N2:N15)</f>
-        <v>#REF!</v>
+        <v>190.11281887361537</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -19065,28 +19158,28 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="307" t="e">
+      <c r="L17" s="310">
         <f>L15+M15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="307"/>
+        <v>1387.9205959999999</v>
+      </c>
+      <c r="M17" s="310"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="e">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!#REF!+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
-        <v>#REF!</v>
+      <c r="E18" s="1">
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F29+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
+        <v>20855.22</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="59"/>
-      <c r="M18" s="60" t="e">
+      <c r="M18" s="60">
         <f>L17/12</f>
-        <v>#REF!</v>
+        <v>115.66004966666667</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -19103,9 +19196,9 @@
       <c r="D20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="65" t="e">
+      <c r="E20" s="65">
         <f>SUM(E18:E19)</f>
-        <v>#REF!</v>
+        <v>20855.22</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15">
@@ -34787,8 +34880,8 @@
   </sheetPr>
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -34823,7 +34916,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D39)</f>
-        <v>34500</v>
+        <v>37500</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E39)</f>
@@ -35350,7 +35443,7 @@
         <v>97</v>
       </c>
       <c r="D35" s="82">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F35" s="57"/>
       <c r="G35" s="57"/>
@@ -45962,7 +46055,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -45994,7 +46087,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>284500</v>
+        <v>287500</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -46374,7 +46467,7 @@
         <v>117</v>
       </c>
       <c r="D30" s="82">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -50907,7 +51000,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -50939,7 +51032,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>154500</v>
+        <v>157500</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -51321,7 +51414,7 @@
         <v>121</v>
       </c>
       <c r="D30" s="82">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -52044,8 +52137,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -52077,7 +52170,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>178500</v>
+        <v>181500</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -52457,7 +52550,7 @@
         <v>124</v>
       </c>
       <c r="D30" s="82">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -53190,8 +53283,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -53223,7 +53316,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>178500</v>
+        <v>181500</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -53603,7 +53696,7 @@
         <v>127</v>
       </c>
       <c r="D30" s="82">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -54348,15 +54441,15 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A11" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -54381,7 +54474,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>29000</v>
+        <v>37500</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -54761,7 +54854,7 @@
         <v>133</v>
       </c>
       <c r="D30" s="82">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -55505,8 +55598,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55538,7 +55631,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>24000</v>
+        <v>32500</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -55918,7 +56011,7 @@
         <v>141</v>
       </c>
       <c r="D30" s="82">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB758F4B-6D26-4EFE-ABB8-8727B0A97059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA2B5835-EBD6-41FD-9C99-390F1164863C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4365" windowWidth="24735" windowHeight="11115" tabRatio="782" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -59,6 +59,7 @@
     <sheet name="PROCESS" sheetId="47" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,15 +70,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="1130">
   <si>
     <t>umut</t>
   </si>
@@ -4598,7 +4596,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5035,7 +5033,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="178" fontId="44" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -7710,10 +7707,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7746,24 +7743,24 @@
         <v>77</v>
       </c>
       <c r="D2" s="82">
-        <f>SUM(D7:D35)</f>
+        <f>SUM(D6:D34)</f>
         <v>36300</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E3:E35)</f>
+        <f>SUM(E3:E34)</f>
         <v>-114592.82</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F3:F35)</f>
+        <f>SUM(F3:F34)</f>
         <v>6500</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G3:G35)</f>
-        <v>-98921.25</v>
+        <f>SUM(G3:G34)</f>
+        <v>-98940.160000000003</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-92421.25</v>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7801,125 +7798,123 @@
         <v>-1512.13</v>
       </c>
       <c r="H5" s="292">
-        <f t="shared" ref="H5:H20" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H19" si="0">H4+F5+G5</f>
         <v>-1512.13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="302">
-        <v>45352</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="98">
-        <v>-150</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="98">
-        <f t="shared" ref="G6" si="1">E6</f>
-        <v>-150</v>
-      </c>
-      <c r="H6" s="98">
-        <f t="shared" si="0"/>
-        <v>-1662.13</v>
+      <c r="A6" s="289">
+        <v>45355</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="292">
+        <v>-152</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="292">
+        <v>-166.9</v>
+      </c>
+      <c r="H6" s="292">
+        <f t="shared" si="0"/>
+        <v>-1679.0300000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="289">
-        <v>45355</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>78</v>
+        <v>45356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="292">
-        <v>-152</v>
+        <v>-10000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="292">
-        <v>-166.9</v>
+        <f>E7</f>
+        <v>-10000</v>
       </c>
       <c r="H7" s="292">
         <f t="shared" si="0"/>
-        <v>-1829.0300000000002</v>
+        <v>-11679.03</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="289">
+      <c r="A8" s="305">
         <v>45356</v>
       </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
+      <c r="B8" s="302" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2">
+        <v>72000</v>
+      </c>
+      <c r="D8" s="298"/>
       <c r="E8" s="292">
-        <v>-10000</v>
+        <f>E69</f>
+        <v>-72173.5</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="292">
         <f>E8</f>
-        <v>-10000</v>
+        <v>-72173.5</v>
       </c>
       <c r="H8" s="292">
         <f t="shared" si="0"/>
-        <v>-11829.03</v>
+        <v>-83852.53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="306">
-        <v>45356</v>
-      </c>
-      <c r="B9" s="303" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="2">
-        <v>72000</v>
-      </c>
+        <v>45357</v>
+      </c>
+      <c r="B9" s="302" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="298"/>
       <c r="E9" s="292">
-        <f>E70</f>
-        <v>-72173.5</v>
+        <f>E50</f>
+        <v>-6341.6600000000008</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="292">
         <f>E9</f>
-        <v>-72173.5</v>
+        <v>-6341.6600000000008</v>
       </c>
       <c r="H9" s="292">
         <f t="shared" si="0"/>
-        <v>-84002.53</v>
+        <v>-90194.19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="307">
+      <c r="A10" s="306">
         <v>45357</v>
       </c>
-      <c r="B10" s="303" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="B10" s="302" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D10" s="298"/>
-      <c r="E10" s="292">
-        <f>E51</f>
-        <v>-6341.6600000000008</v>
-      </c>
+      <c r="E10" s="292"/>
       <c r="F10" s="2"/>
       <c r="G10" s="292">
-        <f>E10</f>
-        <v>-6341.6600000000008</v>
+        <v>-220.03</v>
       </c>
       <c r="H10" s="292">
         <f t="shared" si="0"/>
-        <v>-90344.19</v>
+        <v>-90414.22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="307">
+      <c r="A11" s="306">
         <v>45357</v>
       </c>
-      <c r="B11" s="303" t="s">
+      <c r="B11" s="302" t="s">
         <v>1125</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -7929,36 +7924,37 @@
       <c r="E11" s="292"/>
       <c r="F11" s="2"/>
       <c r="G11" s="292">
-        <v>-220.03</v>
+        <v>-631.37</v>
       </c>
       <c r="H11" s="292">
         <f t="shared" si="0"/>
-        <v>-90564.22</v>
+        <v>-91045.59</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="307">
-        <v>45357</v>
-      </c>
-      <c r="B12" s="303" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>293</v>
-      </c>
+        <v>45358</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="83"/>
       <c r="D12" s="298"/>
-      <c r="E12" s="292"/>
+      <c r="E12" s="292">
+        <v>-5375</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="292">
-        <v>-631.37</v>
+        <f>E12</f>
+        <v>-5375</v>
       </c>
       <c r="H12" s="292">
         <f t="shared" si="0"/>
-        <v>-91195.59</v>
+        <v>-96420.59</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="308">
+      <c r="A13" s="307">
         <v>45358</v>
       </c>
       <c r="B13" s="83" t="s">
@@ -7967,57 +7963,56 @@
       <c r="C13" s="83"/>
       <c r="D13" s="298"/>
       <c r="E13" s="292">
-        <v>-5375</v>
+        <v>-2125</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="292">
         <f>E13</f>
-        <v>-5375</v>
+        <v>-2125</v>
       </c>
       <c r="H13" s="292">
         <f t="shared" si="0"/>
-        <v>-96570.59</v>
+        <v>-98545.59</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="308">
+      <c r="A14" s="307">
         <v>45358</v>
       </c>
-      <c r="B14" s="83" t="s">
-        <v>165</v>
+      <c r="B14" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C14" s="83"/>
       <c r="D14" s="298"/>
-      <c r="E14" s="292">
-        <v>-2125</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="292">
-        <f>E14</f>
-        <v>-2125</v>
-      </c>
+      <c r="E14" s="292"/>
+      <c r="F14" s="2">
+        <v>6500</v>
+      </c>
+      <c r="G14" s="292"/>
       <c r="H14" s="292">
         <f t="shared" si="0"/>
-        <v>-98695.59</v>
+        <v>-92045.59</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="308">
-        <v>45358</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>192</v>
+      <c r="A15" s="306">
+        <v>45359</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>84</v>
       </c>
       <c r="C15" s="83"/>
       <c r="D15" s="298"/>
-      <c r="E15" s="292"/>
-      <c r="F15" s="2">
-        <v>6500</v>
-      </c>
-      <c r="G15" s="292"/>
+      <c r="E15" s="292">
+        <v>-150</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="292">
+        <v>-168.91</v>
+      </c>
       <c r="H15" s="292">
         <f t="shared" si="0"/>
-        <v>-92195.59</v>
+        <v>-92214.5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -8029,148 +8024,152 @@
       <c r="G16" s="292"/>
       <c r="H16" s="292">
         <f t="shared" si="0"/>
-        <v>-92195.59</v>
+        <v>-92214.5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="150"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="292"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="98">
+        <v>-300</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="292">
         <f t="shared" si="0"/>
-        <v>-92195.59</v>
+        <v>-92214.5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7"/>
       <c r="B18" s="96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="96" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="98">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
       <c r="H18" s="292">
         <f t="shared" si="0"/>
-        <v>-92195.59</v>
+        <v>-92214.5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7"/>
-      <c r="B19" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>85</v>
-      </c>
+      <c r="B19" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="E19" s="98">
-        <v>-100</v>
+        <f>E45*-1</f>
+        <v>-225.66</v>
       </c>
       <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
+      <c r="G19" s="78">
+        <f>-225.66</f>
+        <v>-225.66</v>
+      </c>
       <c r="H19" s="292">
         <f t="shared" si="0"/>
-        <v>-92195.59</v>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7"/>
-      <c r="B20" s="86" t="s">
-        <v>88</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="E20" s="98">
-        <f>E46*-1</f>
-        <v>-225.66</v>
-      </c>
       <c r="F20" s="78"/>
-      <c r="G20" s="78">
-        <f>-225.66</f>
-        <v>-225.66</v>
-      </c>
-      <c r="H20" s="292">
-        <f t="shared" si="0"/>
-        <v>-92421.25</v>
+      <c r="G20" s="78"/>
+      <c r="H20" s="98">
+        <f t="shared" ref="H20:H33" si="1">H19+F20+G20</f>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="F21" s="78"/>
+      <c r="B21" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="E21" s="98">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="78"/>
       <c r="H21" s="98">
-        <f t="shared" ref="H21:H34" si="2">H20+F21+G21</f>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7"/>
       <c r="B22" s="84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="84"/>
       <c r="E22" s="98">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="78"/>
       <c r="H22" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7"/>
-      <c r="B23" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="84"/>
-      <c r="E23" s="98">
-        <v>-500</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="78"/>
       <c r="H23" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>1104</v>
+      </c>
       <c r="C24" s="7"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>1104</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="E25" s="98">
+        <v>-5000</v>
+      </c>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7"/>
       <c r="E26" s="98">
@@ -8179,14 +8178,14 @@
       <c r="F26" s="78"/>
       <c r="G26" s="78"/>
       <c r="H26" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C27" s="7"/>
       <c r="E27" s="98">
@@ -8195,319 +8194,322 @@
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
       <c r="H27" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="E28" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="F28" s="78"/>
+      <c r="D28" s="82">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="78">
+        <v>0</v>
+      </c>
       <c r="G28" s="78"/>
       <c r="H28" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7"/>
+      <c r="A29" s="150"/>
       <c r="B29" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="82">
-        <v>10000</v>
-      </c>
-      <c r="F29" s="78">
-        <v>0</v>
-      </c>
+        <v>2800</v>
+      </c>
+      <c r="F29" s="78"/>
       <c r="G29" s="78"/>
       <c r="H29" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="150"/>
-      <c r="B30" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="82">
-        <v>2800</v>
-      </c>
       <c r="F30" s="78"/>
       <c r="G30" s="78"/>
       <c r="H30" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="150"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="82">
+        <v>8500</v>
+      </c>
+      <c r="G31" s="57"/>
       <c r="H31" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="87"/>
       <c r="B32" s="7" t="s">
-        <v>1129</v>
+        <v>167</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="82">
-        <v>8500</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="F32" s="57"/>
       <c r="G32" s="57"/>
       <c r="H32" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="82">
-        <v>15000</v>
-      </c>
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
       <c r="H33" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>-92440.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75">
+      <c r="B34" s="91"/>
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
-      <c r="H34" s="98">
-        <f t="shared" si="2"/>
-        <v>-92421.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="B35" s="91"/>
-      <c r="F35" s="57"/>
+      <c r="H34" s="57"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="72"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="72"/>
-      <c r="G38" s="57"/>
+    <row r="38" spans="1:8" s="2" customFormat="1">
+      <c r="A38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="98"/>
       <c r="H38" s="57"/>
     </row>
-    <row r="39" spans="1:8" s="2" customFormat="1">
-      <c r="A39" s="87"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="98"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="92">
+        <v>44929</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="82">
+        <f>SUM(D40:D45)</f>
+        <v>5343.55</v>
+      </c>
+      <c r="E39" s="98">
+        <f>SUM(E40:E45)</f>
+        <v>902.8</v>
+      </c>
       <c r="H39" s="57"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="92">
-        <v>44929</v>
-      </c>
-      <c r="B40" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="82">
-        <f>SUM(D41:D46)</f>
-        <v>5343.55</v>
-      </c>
-      <c r="E40" s="98">
-        <f>SUM(E41:E46)</f>
-        <v>225.66</v>
+      <c r="A40" s="87"/>
+      <c r="B40" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>967.68</v>
       </c>
       <c r="H40" s="57"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="87"/>
-      <c r="B41" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>967.68</v>
-      </c>
-      <c r="H41" s="57"/>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41">
+        <v>1224.42</v>
+      </c>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="D42">
-        <v>1224.42</v>
+        <v>237.14</v>
+      </c>
+      <c r="E42" s="98">
+        <v>237.14</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>104</v>
+        <v>1080</v>
       </c>
       <c r="D43">
-        <v>237.14</v>
+        <v>2248.8000000000002</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>1080</v>
+        <v>106</v>
       </c>
       <c r="D44">
-        <v>2248.8000000000002</v>
+        <v>439.85</v>
+      </c>
+      <c r="E44" s="98">
+        <v>440</v>
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45">
-        <v>439.85</v>
+        <v>107</v>
+      </c>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85">
+        <v>225.66</v>
+      </c>
+      <c r="E45" s="98">
+        <v>225.66</v>
       </c>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>107</v>
-      </c>
       <c r="C46" s="85"/>
-      <c r="D46" s="85">
-        <v>225.66</v>
-      </c>
-      <c r="E46" s="98">
-        <v>225.66</v>
-      </c>
       <c r="F46" s="57"/>
       <c r="G46" s="57"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="C47" s="85"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+    <row r="48" spans="1:8">
+      <c r="B48" s="65"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="B49" s="65"/>
+      <c r="B49" s="82"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="B50" s="82"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="E50" s="291">
+        <f>SUM(E51:E64)</f>
+        <v>-6341.6600000000008</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="72"/>
-      <c r="B51" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="E51" s="291">
-        <f>SUM(E52:E65)</f>
-        <v>-6341.6600000000008</v>
-      </c>
+      <c r="A51" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B51" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="85">
+        <v>7648.33</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="98">
+        <v>-849.81</v>
+      </c>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="87">
         <v>45187</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C52" s="85">
-        <v>7648.33</v>
+        <v>11128</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E52" s="98">
-        <v>-849.81</v>
-      </c>
+        <v>-1854.65</v>
+      </c>
+      <c r="F52" s="57"/>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B53" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="85">
-        <v>11128</v>
-      </c>
-      <c r="D53" s="82" t="s">
-        <v>171</v>
+      <c r="A53" s="289">
+        <v>45325</v>
+      </c>
+      <c r="B53" t="s">
+        <v>212</v>
       </c>
       <c r="E53" s="98">
-        <v>-1854.65</v>
-      </c>
-      <c r="F53" s="57"/>
+        <v>-453.4</v>
+      </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="289">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>1081</v>
       </c>
       <c r="E54" s="98">
-        <v>-453.4</v>
+        <v>-300</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="289">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B55" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E55" s="98">
-        <v>-300</v>
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>3900.57</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="289">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56">
-        <v>3900.57</v>
+        <v>1082</v>
+      </c>
+      <c r="E56" s="98">
+        <v>-900</v>
       </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
@@ -8517,24 +8519,26 @@
         <v>45330</v>
       </c>
       <c r="B57" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E57" s="98">
-        <v>-900</v>
+        <v>-116.38</v>
       </c>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="289">
-        <v>45330</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1083</v>
-      </c>
+      <c r="A58" s="87">
+        <v>45331</v>
+      </c>
+      <c r="B58" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="85"/>
       <c r="E58" s="98">
-        <v>-116.38</v>
-      </c>
+        <v>-100</v>
+      </c>
+      <c r="F58" s="57"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
     </row>
@@ -8543,11 +8547,11 @@
         <v>45331</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>404</v>
+        <v>1084</v>
       </c>
       <c r="C59" s="85"/>
       <c r="E59" s="98">
-        <v>-100</v>
+        <v>-215.42</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
@@ -8555,14 +8559,14 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="87">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>1084</v>
+        <v>404</v>
       </c>
       <c r="C60" s="85"/>
       <c r="E60" s="98">
-        <v>-215.42</v>
+        <v>-100</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
@@ -8573,11 +8577,11 @@
         <v>45332</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>404</v>
+        <v>1085</v>
       </c>
       <c r="C61" s="85"/>
       <c r="E61" s="98">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
@@ -8585,14 +8589,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="87">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C62" s="85"/>
+        <v>1086</v>
+      </c>
       <c r="E62" s="98">
-        <v>-900</v>
+        <v>-352</v>
       </c>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
@@ -8600,13 +8603,14 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="87">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B63" s="85" t="s">
-        <v>1086</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C63" s="85"/>
       <c r="E63" s="98">
-        <v>-352</v>
+        <v>-100</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
@@ -8614,12 +8618,11 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="87">
-        <v>45338</v>
-      </c>
-      <c r="B64" s="85" t="s">
+        <v>45339</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C64" s="85"/>
       <c r="E64" s="98">
         <v>-100</v>
       </c>
@@ -8627,27 +8630,21 @@
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="87">
-        <v>45339</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E65" s="98">
-        <v>-100</v>
+    <row r="65" spans="1:8" ht="15">
+      <c r="A65" s="87"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="109" t="s">
+        <v>197</v>
       </c>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
     </row>
-    <row r="66" spans="1:8" ht="15">
+    <row r="66" spans="1:8">
       <c r="A66" s="87"/>
       <c r="B66" s="85"/>
       <c r="C66" s="85"/>
-      <c r="D66" s="109" t="s">
-        <v>197</v>
-      </c>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
@@ -8669,66 +8666,76 @@
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="87"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="72"/>
+      <c r="E69" s="300">
+        <f>SUM(E70:E89)</f>
+        <v>-72173.5</v>
+      </c>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="72"/>
-      <c r="B70" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="72"/>
-      <c r="E70" s="300">
-        <f>SUM(E71:E90)</f>
-        <v>-72173.5</v>
-      </c>
+      <c r="A70" s="87"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="87"/>
-      <c r="B71" s="85"/>
+      <c r="A71" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B71" s="85" t="s">
+        <v>172</v>
+      </c>
       <c r="C71" s="85"/>
-      <c r="F71" s="57"/>
+      <c r="D71" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="98">
+        <v>-3974.42</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B72" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="85"/>
+      <c r="A72" s="3">
+        <v>45214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
       <c r="D72" s="82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E72" s="98">
-        <v>-3974.42</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
+        <v>-600</v>
+      </c>
+      <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B73" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="85"/>
       <c r="D73" s="82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E73" s="98">
-        <v>-600</v>
+        <v>-3551.66</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
@@ -8736,17 +8743,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B74" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="85"/>
+        <v>45259</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="99">
+        <v>-1204.5</v>
+      </c>
       <c r="D74" s="82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E74" s="98">
-        <v>-3551.66</v>
+        <v>-401.5</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -8757,16 +8766,16 @@
         <v>45259</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C75" s="99">
-        <v>-1204.5</v>
+        <v>-148.6</v>
       </c>
       <c r="D75" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E75" s="98">
-        <v>-401.5</v>
+        <v>-49.54</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -8777,16 +8786,16 @@
         <v>45259</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" s="99">
-        <v>-148.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E76" s="98">
-        <v>-49.54</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
@@ -8797,36 +8806,34 @@
         <v>45259</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" s="99">
-        <v>-244.8</v>
+        <v>-532.6</v>
       </c>
       <c r="D77" s="82" t="s">
         <v>177</v>
       </c>
       <c r="E77" s="98">
-        <v>-81.599999999999994</v>
+        <v>-177.54</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="3">
-        <v>45259</v>
-      </c>
-      <c r="B78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="99">
-        <v>-532.6</v>
-      </c>
-      <c r="D78" s="82" t="s">
-        <v>177</v>
+      <c r="A78" s="3"/>
+      <c r="B78" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="85">
+        <v>899</v>
+      </c>
+      <c r="D78" s="97" t="s">
+        <v>181</v>
       </c>
       <c r="E78" s="98">
-        <v>-177.54</v>
+        <v>-449.5</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
@@ -8835,16 +8842,14 @@
     <row r="79" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="85">
-        <v>899</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C79" s="85"/>
       <c r="D79" s="97" t="s">
         <v>181</v>
       </c>
       <c r="E79" s="98">
-        <v>-449.5</v>
+        <v>-299.64</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
@@ -8853,30 +8858,30 @@
     <row r="80" spans="1:8">
       <c r="A80" s="3"/>
       <c r="B80" s="85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C80" s="85"/>
       <c r="D80" s="97" t="s">
         <v>181</v>
       </c>
       <c r="E80" s="98">
-        <v>-299.64</v>
+        <v>-546.82000000000005</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="3"/>
-      <c r="B81" s="85" t="s">
-        <v>183</v>
+      <c r="A81" s="87"/>
+      <c r="B81" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C81" s="85"/>
       <c r="D81" s="97" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E81" s="98">
-        <v>-546.82000000000005</v>
+        <v>-649.78</v>
       </c>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
@@ -8885,14 +8890,13 @@
     <row r="82" spans="1:8">
       <c r="A82" s="87"/>
       <c r="B82" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="85"/>
+        <v>131</v>
+      </c>
+      <c r="C82" s="85">
+        <v>49.98</v>
+      </c>
       <c r="D82" s="97" t="s">
         <v>184</v>
-      </c>
-      <c r="E82" s="98">
-        <v>-649.78</v>
       </c>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
@@ -8900,15 +8904,8 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="87"/>
-      <c r="B83" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="85">
-        <v>49.98</v>
-      </c>
-      <c r="D83" s="97" t="s">
-        <v>184</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="85"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
@@ -8922,23 +8919,29 @@
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="87"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="87">
+        <v>45324</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="C85" s="85"/>
+      <c r="E85" s="98">
+        <v>-1195</v>
+      </c>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="87">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" s="85"/>
-      <c r="E86" s="98">
-        <v>-1195</v>
+        <v>186</v>
+      </c>
+      <c r="C86" s="98">
+        <v>-299.99</v>
       </c>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
@@ -8946,13 +8949,14 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="87">
-        <v>45327</v>
+        <v>45336</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" s="98">
-        <v>-299.99</v>
+        <v>120</v>
+      </c>
+      <c r="C87" s="85"/>
+      <c r="E87" s="98">
+        <v>-59483.25</v>
       </c>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
@@ -8960,14 +8964,14 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="87">
-        <v>45336</v>
+        <v>45329</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>120</v>
+        <v>1087</v>
       </c>
       <c r="C88" s="85"/>
       <c r="E88" s="98">
-        <v>-59483.25</v>
+        <v>-713.25</v>
       </c>
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
@@ -8975,48 +8979,41 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="87">
-        <v>45329</v>
+        <v>45327</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C89" s="85"/>
-      <c r="E89" s="98">
-        <v>-713.25</v>
+        <v>9</v>
+      </c>
+      <c r="C89" s="85">
+        <v>24742.959999999999</v>
       </c>
       <c r="F89" s="57"/>
       <c r="G89" s="57"/>
       <c r="H89" s="57"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="87">
-        <v>45327</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="85">
-        <v>24742.959999999999</v>
-      </c>
+      <c r="A90" s="87"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="85"/>
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="15">
       <c r="A91" s="87"/>
       <c r="B91" s="7"/>
       <c r="C91" s="85"/>
+      <c r="D91" s="109" t="s">
+        <v>197</v>
+      </c>
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
       <c r="H91" s="57"/>
     </row>
-    <row r="92" spans="1:8" ht="15">
+    <row r="92" spans="1:8">
       <c r="A92" s="87"/>
       <c r="B92" s="7"/>
       <c r="C92" s="85"/>
-      <c r="D92" s="109" t="s">
-        <v>197</v>
-      </c>
       <c r="F92" s="57"/>
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
@@ -9093,84 +9090,90 @@
       <c r="G101" s="57"/>
       <c r="H101" s="57"/>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="87"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="85"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
+    <row r="110" spans="1:8">
+      <c r="A110" s="87"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="87"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="87"/>
+      <c r="A112" s="70" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B112" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="72">
+        <v>2024</v>
+      </c>
+      <c r="D112" s="73"/>
+      <c r="E112" s="74">
+        <f>SUM(E113:E131)</f>
+        <v>745852.05035699997</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="70" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B113" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C113" s="72">
-        <v>2024</v>
-      </c>
-      <c r="D113" s="73"/>
-      <c r="E113" s="74">
-        <f>SUM(E114:E132)</f>
-        <v>745852.05035699997</v>
+      <c r="A113" s="303">
+        <v>45352</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="304"/>
+      <c r="D113" s="304"/>
+      <c r="E113" s="304">
+        <v>64000</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="304">
+      <c r="A114" s="303">
+        <f>A113</f>
         <v>45352</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="305"/>
-      <c r="D114" s="305"/>
-      <c r="E114" s="305">
-        <v>64000</v>
+        <v>1122</v>
+      </c>
+      <c r="C114" s="304"/>
+      <c r="D114" s="304"/>
+      <c r="E114" s="304">
+        <v>150845</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="304">
-        <f>A114</f>
+      <c r="A115" s="75">
+        <f t="shared" ref="A115:A131" si="2">A114</f>
         <v>45352</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C115" s="305"/>
-      <c r="D115" s="305"/>
-      <c r="E115" s="305">
-        <v>150845</v>
+      <c r="B115" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="65">
+        <v>5039.78</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="75">
-        <f t="shared" ref="A116:A132" si="3">A115</f>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="65">
-        <v>5039.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -9180,13 +9183,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
-      </c>
-      <c r="C118" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C118" s="101"/>
       <c r="D118" s="1"/>
       <c r="E118" s="65">
         <v>0</v>
@@ -9194,13 +9197,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
-      </c>
-      <c r="C119" s="101"/>
+        <v>62</v>
+      </c>
+      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="65">
         <v>0</v>
@@ -9208,242 +9211,228 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
-      </c>
-      <c r="C120" s="1"/>
+        <v>1115</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1116</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="65">
-        <v>0</v>
+        <v>129254.5</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B121" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="65">
-        <v>129254.5</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B122" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D122" s="1"/>
+        <v>1109</v>
+      </c>
+      <c r="C122" s="75" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D122" s="76"/>
       <c r="E122" s="65">
-        <v>256.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B123" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C123" s="75" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="D123" s="76"/>
       <c r="E123" s="65">
-        <v>0</v>
+        <v>588.6</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B124" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C124" s="75" t="s">
-        <v>1112</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="C124" s="75"/>
       <c r="D124" s="76"/>
-      <c r="E124" s="65">
-        <v>588.6</v>
-      </c>
+      <c r="E124" s="65"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B125" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C125" s="75"/>
-      <c r="D125" s="76"/>
-      <c r="E125" s="65"/>
+        <v>68</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="65">
+        <v>450</v>
+      </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+        <v>1119</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2017.98</v>
+      </c>
+      <c r="D126" s="1">
+        <v>161</v>
+      </c>
       <c r="E126" s="65">
-        <v>450</v>
+        <f>D126*C126</f>
+        <v>324894.78000000003</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B127" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2017.98</v>
+        <v>1117</v>
+      </c>
+      <c r="C127" s="77">
+        <v>30.726199999999999</v>
       </c>
       <c r="D127" s="1">
-        <v>161</v>
+        <v>850</v>
       </c>
       <c r="E127" s="65">
         <f>D127*C127</f>
-        <v>324894.78000000003</v>
+        <v>26117.27</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B128" t="s">
-        <v>1117</v>
+        <v>264</v>
       </c>
       <c r="C128" s="77">
-        <v>30.726199999999999</v>
+        <v>30.725999999999999</v>
       </c>
       <c r="D128" s="1">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="E128" s="65">
         <f>D128*C128</f>
-        <v>26117.27</v>
+        <v>7681.5</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>1118</v>
       </c>
       <c r="C129" s="77">
-        <v>30.725999999999999</v>
+        <v>33.224299999999999</v>
       </c>
       <c r="D129" s="1">
-        <v>250</v>
+        <v>81.99</v>
       </c>
       <c r="E129" s="65">
         <f>D129*C129</f>
-        <v>7681.5</v>
+        <v>2724.0603569999998</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B130" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C130" s="77">
-        <v>33.224299999999999</v>
-      </c>
-      <c r="D130" s="1">
-        <v>81.99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
       <c r="E130" s="65">
-        <f>D130*C130</f>
-        <v>2724.0603569999998</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45352</v>
       </c>
       <c r="B131" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="65">
-        <v>30000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="75">
-        <f t="shared" si="3"/>
-        <v>45352</v>
-      </c>
-      <c r="B132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="65">
-        <v>4000</v>
-      </c>
+      <c r="D132"/>
+      <c r="E132" s="99"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="D133"/>
-      <c r="E133" s="99"/>
+      <c r="C133" s="101"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="101"/>
     </row>
     <row r="134" spans="1:5">
       <c r="C134" s="101"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="101"/>
+      <c r="D134" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E134" s="12">
+        <f>SUM(E113:E131)</f>
+        <v>745852.05035699997</v>
+      </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="C135" s="101"/>
-      <c r="D135" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E135" s="12">
-        <f>SUM(E114:E132)</f>
-        <v>745852.05035699997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="C136" s="112" t="str">
-        <f>A113</f>
+      <c r="C135" s="112" t="str">
+        <f>A112</f>
         <v>MART</v>
       </c>
-      <c r="D136" s="113" t="s">
+      <c r="D135" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E135" s="4">
         <f>H2</f>
-        <v>-92421.25</v>
+        <v>-92440.16</v>
       </c>
     </row>
   </sheetData>
@@ -9463,7 +9452,7 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -11447,7 +11436,7 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
@@ -18440,10 +18429,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="309" t="s">
+      <c r="L1" s="308" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="309"/>
+      <c r="M1" s="308"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -18607,11 +18596,11 @@
       </c>
       <c r="F5" s="26">
         <f>'03_24'!G2</f>
-        <v>-98921.25</v>
+        <v>-98940.160000000003</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
@@ -18627,7 +18616,7 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E115/1000</f>
+        <f>'03_24'!E114/1000</f>
         <v>150.845</v>
       </c>
     </row>
@@ -18657,7 +18646,7 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -18700,7 +18689,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -18743,7 +18732,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -18789,7 +18778,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -18838,7 +18827,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -18884,7 +18873,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -18933,7 +18922,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -18982,7 +18971,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -19031,7 +19020,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-13177.979999999967</v>
+        <v>-13196.88999999997</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -19076,11 +19065,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-235133.19999999998</v>
+        <v>-235152.11</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-13177.979999999952</v>
+        <v>-13196.889999999956</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -19120,11 +19109,11 @@
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-19594.433333333331</v>
+        <v>-19596.009166666667</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-1098.1649999999961</v>
+        <v>-1099.7408333333296</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
@@ -19158,18 +19147,18 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="310">
+      <c r="L17" s="309">
         <f>L15+M15</f>
         <v>1387.9205959999999</v>
       </c>
-      <c r="M17" s="310"/>
+      <c r="M17" s="309"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F29+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F28+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
         <v>20855.22</v>
       </c>
       <c r="J18" s="29"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3567A489-31EB-4F17-BC6F-EB59F1DC105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A6549-8924-4DDA-BFD8-CB68B3B4ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1136">
   <si>
     <t>umut</t>
   </si>
@@ -3666,6 +3666,18 @@
   </si>
   <si>
     <t>BANKADAN</t>
+  </si>
+  <si>
+    <t>1 adet çeyrek</t>
+  </si>
+  <si>
+    <t>işbanktan periye havale kred iiçin</t>
+  </si>
+  <si>
+    <t>işbanktan hacıya havale</t>
+  </si>
+  <si>
+    <t>ziraat kredi ödemesi</t>
   </si>
 </sst>
 </file>
@@ -5044,11 +5056,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5487,10 +5499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:G13"/>
+  <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -5551,7 +5563,7 @@
         <v>3450</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G13" si="0">G7+E8-F8</f>
+        <f t="shared" ref="G8:G17" si="0">G7+E8-F8</f>
         <v>-2378</v>
       </c>
     </row>
@@ -5625,6 +5637,66 @@
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>1814.65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="6">
+        <v>45366</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4100</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>5914.65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="6">
+        <v>45366</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6300</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>-385.35000000000036</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="6">
+        <v>45366</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3450</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>3064.6499999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6">
+        <v>45366</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3461</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>-396.35000000000036</v>
       </c>
     </row>
   </sheetData>
@@ -7715,7 +7787,7 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -8034,8 +8106,8 @@
         <f>E44*-1</f>
         <v>-225.66</v>
       </c>
-      <c r="F16" s="310"/>
-      <c r="G16" s="310">
+      <c r="F16" s="308"/>
+      <c r="G16" s="308">
         <f>-225.66</f>
         <v>-225.66</v>
       </c>
@@ -8050,8 +8122,8 @@
       <c r="C17" s="2"/>
       <c r="D17" s="298"/>
       <c r="E17" s="292"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="310"/>
+      <c r="F17" s="308"/>
+      <c r="G17" s="308"/>
       <c r="H17" s="292">
         <f t="shared" si="0"/>
         <v>-92440.16</v>
@@ -8145,7 +8217,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="98">
-        <f t="shared" ref="H21:H32" si="1">H22+F23+G23</f>
+        <f t="shared" ref="H23:H32" si="1">H22+F23+G23</f>
         <v>-92440.16</v>
       </c>
     </row>
@@ -18445,10 +18517,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="308" t="s">
+      <c r="L1" s="309" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="308"/>
+      <c r="M1" s="309"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -19163,11 +19235,11 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="309">
+      <c r="L17" s="310">
         <f>L15+M15</f>
         <v>1387.9205959999999</v>
       </c>
-      <c r="M17" s="309"/>
+      <c r="M17" s="310"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A6549-8924-4DDA-BFD8-CB68B3B4ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0A286E-22F2-46E6-8C4B-70742A804380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="1137">
   <si>
     <t>umut</t>
   </si>
@@ -3678,6 +3678,9 @@
   </si>
   <si>
     <t>ziraat kredi ödemesi</t>
+  </si>
+  <si>
+    <t>AUB usulsüzlük cezası Ali Demirel Damga vergisi için</t>
   </si>
 </sst>
 </file>
@@ -4613,7 +4616,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5061,6 +5064,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5501,7 +5505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -7787,8 +7791,8 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7834,11 +7838,11 @@
       </c>
       <c r="G2" s="98">
         <f>SUM(G3:G33)</f>
-        <v>-101213.23000000001</v>
+        <v>-102399.73000000001</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-94713.23000000001</v>
+        <v>-95899.73000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8130,7 +8134,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7"/>
+      <c r="A18" s="311">
+        <v>45372</v>
+      </c>
       <c r="B18" s="96" t="s">
         <v>86</v>
       </c>
@@ -8141,14 +8147,18 @@
         <v>-300</v>
       </c>
       <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
+      <c r="G18" s="78">
+        <v>-1083</v>
+      </c>
       <c r="H18" s="292">
         <f t="shared" si="0"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7"/>
+      <c r="A19" s="311">
+        <v>45372</v>
+      </c>
       <c r="B19" s="96" t="s">
         <v>87</v>
       </c>
@@ -8159,10 +8169,12 @@
         <v>-100</v>
       </c>
       <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
+      <c r="G19" s="78">
+        <v>0</v>
+      </c>
       <c r="H19" s="292">
         <f t="shared" si="0"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -8178,7 +8190,7 @@
       <c r="G20" s="78"/>
       <c r="H20" s="292">
         <f t="shared" si="0"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -8194,7 +8206,7 @@
       <c r="G21" s="78"/>
       <c r="H21" s="292">
         <f t="shared" si="0"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -8205,7 +8217,7 @@
       <c r="G22" s="78"/>
       <c r="H22" s="292">
         <f t="shared" si="0"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8217,8 +8229,8 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="98">
-        <f t="shared" ref="H23:H32" si="1">H22+F23+G23</f>
-        <v>-92440.16</v>
+        <f t="shared" ref="H23:H33" si="1">H22+F23+G23</f>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -8234,7 +8246,7 @@
       <c r="G24" s="78"/>
       <c r="H24" s="98">
         <f t="shared" si="1"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -8250,7 +8262,7 @@
       <c r="G25" s="78"/>
       <c r="H25" s="98">
         <f t="shared" si="1"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8266,7 +8278,7 @@
       <c r="G26" s="78"/>
       <c r="H26" s="98">
         <f t="shared" si="1"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -8284,7 +8296,7 @@
       <c r="G27" s="78"/>
       <c r="H27" s="98">
         <f t="shared" si="1"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -8300,7 +8312,7 @@
       <c r="G28" s="78"/>
       <c r="H28" s="98">
         <f t="shared" si="1"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -8309,7 +8321,7 @@
       <c r="G29" s="78"/>
       <c r="H29" s="98">
         <f t="shared" si="1"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8324,7 +8336,7 @@
       <c r="G30" s="57"/>
       <c r="H30" s="98">
         <f t="shared" si="1"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8339,7 +8351,7 @@
       <c r="G31" s="57"/>
       <c r="H31" s="98">
         <f t="shared" si="1"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -8355,14 +8367,24 @@
       </c>
       <c r="H32" s="98">
         <f t="shared" si="1"/>
-        <v>-94713.23000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="B33" s="91"/>
+        <v>-95796.23000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="289">
+        <v>45382</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1136</v>
+      </c>
       <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="G33" s="57">
+        <v>-103.5</v>
+      </c>
+      <c r="H33" s="98">
+        <f t="shared" si="1"/>
+        <v>-95899.73000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="G34" s="57"/>
@@ -9520,7 +9542,7 @@
       </c>
       <c r="E134" s="4">
         <f>H2</f>
-        <v>-94713.23000000001</v>
+        <v>-95899.73000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18684,11 +18706,11 @@
       </c>
       <c r="F5" s="26">
         <f>'03_24'!G2</f>
-        <v>-101213.23000000001</v>
+        <v>-102399.73000000001</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>-15469.959999999977</v>
+        <v>-16656.459999999977</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
@@ -18734,7 +18756,7 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-15469.959999999977</v>
+        <v>-16656.459999999977</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -18777,7 +18799,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-15469.959999999977</v>
+        <v>-16656.459999999977</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -18820,7 +18842,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-15469.959999999977</v>
+        <v>-16656.459999999977</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -18866,7 +18888,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-17275.819999999978</v>
+        <v>-18462.319999999978</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -18915,7 +18937,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-17275.819999999978</v>
+        <v>-18462.319999999978</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -18961,7 +18983,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-17275.819999999978</v>
+        <v>-18462.319999999978</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -19010,7 +19032,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-17275.819999999978</v>
+        <v>-18462.319999999978</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -19059,7 +19081,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-17275.819999999978</v>
+        <v>-18462.319999999978</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -19108,7 +19130,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-17275.819999999978</v>
+        <v>-18462.319999999978</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -19153,11 +19175,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-239231.03999999998</v>
+        <v>-240417.53999999998</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-17275.819999999949</v>
+        <v>-18462.319999999949</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -19197,11 +19219,11 @@
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-19935.919999999998</v>
+        <v>-20034.794999999998</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-1439.6516666666623</v>
+        <v>-1538.5266666666623</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0A286E-22F2-46E6-8C4B-70742A804380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338821B0-7BB7-4A50-BAAC-F38F859E48EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1139">
   <si>
     <t>umut</t>
   </si>
@@ -3681,6 +3681,12 @@
   </si>
   <si>
     <t>AUB usulsüzlük cezası Ali Demirel Damga vergisi için</t>
+  </si>
+  <si>
+    <t>peri bilet kayseri</t>
+  </si>
+  <si>
+    <t>led-fiş aksoy</t>
   </si>
 </sst>
 </file>
@@ -5060,11 +5066,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6888,10 +6894,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6928,7 +6934,7 @@
       </c>
       <c r="E2" s="98">
         <f>SUM(E4:E34)</f>
-        <v>-42180.6</v>
+        <v>-45230.539999999994</v>
       </c>
       <c r="F2" s="98">
         <f>SUM(F4:F34)</f>
@@ -7091,7 +7097,7 @@
       </c>
       <c r="E15" s="98">
         <f>E50</f>
-        <v>-1577.1399999999999</v>
+        <v>-4577.1000000000004</v>
       </c>
       <c r="H15" s="98">
         <f t="shared" si="0"/>
@@ -7106,8 +7112,8 @@
         <v>90</v>
       </c>
       <c r="E16" s="98">
-        <f>E65</f>
-        <v>-4751.46</v>
+        <f>E71</f>
+        <v>-4801.4399999999996</v>
       </c>
       <c r="H16" s="98">
         <f t="shared" si="0"/>
@@ -7367,8 +7373,8 @@
       </c>
       <c r="C50" s="72"/>
       <c r="E50" s="98">
-        <f>SUM(E51:E62)</f>
-        <v>-1577.1399999999999</v>
+        <f>SUM(E51:E68)</f>
+        <v>-4577.1000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7418,6 +7424,9 @@
       <c r="D54" s="98" t="s">
         <v>469</v>
       </c>
+      <c r="E54" s="98">
+        <v>-378.87</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="289">
@@ -7443,138 +7452,213 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="87"/>
-      <c r="B58" s="85"/>
+      <c r="A58" s="87">
+        <v>45351</v>
+      </c>
+      <c r="B58" s="85" t="s">
+        <v>246</v>
+      </c>
       <c r="C58" s="85"/>
+      <c r="E58" s="98">
+        <v>-86.95</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="87"/>
-      <c r="B59" s="96"/>
+      <c r="A59" s="87">
+        <v>45353</v>
+      </c>
+      <c r="B59" s="96" t="s">
+        <v>406</v>
+      </c>
       <c r="C59" s="85"/>
+      <c r="E59" s="98">
+        <v>-500</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="87"/>
-      <c r="B60" s="96"/>
+      <c r="A60" s="87">
+        <v>45353</v>
+      </c>
+      <c r="B60" s="96" t="s">
+        <v>1137</v>
+      </c>
       <c r="C60" s="85"/>
+      <c r="E60" s="98">
+        <v>-600</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="87"/>
-      <c r="B61" s="96"/>
+      <c r="A61" s="87">
+        <v>45354</v>
+      </c>
+      <c r="B61" s="96" t="s">
+        <v>674</v>
+      </c>
+      <c r="C61" s="85"/>
+      <c r="E61" s="98">
+        <v>-330</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="87"/>
-      <c r="B62" s="96"/>
+      <c r="A62" s="87">
+        <v>45355</v>
+      </c>
+      <c r="B62" s="96" t="s">
+        <v>403</v>
+      </c>
       <c r="C62" s="85"/>
+      <c r="E62" s="98">
+        <v>-200</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="87"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="87">
+        <v>45355</v>
+      </c>
+      <c r="B63" s="96" t="s">
+        <v>712</v>
+      </c>
+      <c r="C63" s="85"/>
+      <c r="E63" s="98">
+        <v>-50</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="87"/>
-      <c r="B64" s="85"/>
+      <c r="A64" s="87">
+        <v>45356</v>
+      </c>
+      <c r="B64" s="96" t="s">
+        <v>403</v>
+      </c>
       <c r="C64" s="85"/>
+      <c r="E64" s="98">
+        <v>-200</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="72"/>
-      <c r="B65" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="72"/>
+      <c r="A65" s="87">
+        <v>45357</v>
+      </c>
+      <c r="B65" s="96" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C65" s="85"/>
       <c r="E65" s="98">
-        <f>SUM(E66:E74)</f>
-        <v>-4751.46</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="87"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
+      <c r="A66" s="87">
+        <v>45357</v>
+      </c>
+      <c r="B66" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="85">
+        <v>6341.66</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="98" t="s">
-        <v>160</v>
+      <c r="A67" s="87">
+        <v>45361</v>
+      </c>
+      <c r="B67" s="96" t="s">
+        <v>211</v>
       </c>
       <c r="E67" s="98">
-        <v>-600</v>
+        <v>-294.14</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B68" s="85" t="s">
-        <v>134</v>
+      <c r="A68" s="87">
+        <v>45358</v>
+      </c>
+      <c r="B68" s="96" t="s">
+        <v>403</v>
       </c>
       <c r="C68" s="85"/>
-      <c r="D68" s="98" t="s">
-        <v>161</v>
-      </c>
       <c r="E68" s="98">
-        <v>-3551.66</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="87"/>
-      <c r="B69" s="7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="98">
-        <v>-649.78</v>
-      </c>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="87"/>
-      <c r="B70" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="B70" s="85"/>
       <c r="C70" s="85"/>
-      <c r="D70" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="98">
-        <v>49.98</v>
-      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="87"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="85"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="72"/>
+      <c r="E71" s="98">
+        <f>SUM(E72:E80)</f>
+        <v>-4801.4399999999996</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="87"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="85"/>
       <c r="C72" s="85"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="87"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="85"/>
+      <c r="A73" s="3">
+        <v>45214</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="98">
+        <v>-600</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="87"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="3">
+        <v>45285</v>
+      </c>
+      <c r="B74" s="85" t="s">
+        <v>134</v>
+      </c>
       <c r="C74" s="85"/>
+      <c r="D74" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="98">
+        <v>-3551.66</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="87"/>
-      <c r="B75" s="7"/>
+      <c r="B75" s="7" t="s">
+        <v>1127</v>
+      </c>
       <c r="C75" s="85"/>
+      <c r="D75" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="98">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="87"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="85"/>
+      <c r="B76" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="85">
+        <v>49.98</v>
+      </c>
+      <c r="D76" s="98" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="87"/>
@@ -7676,101 +7760,131 @@
       <c r="B96" s="7"/>
       <c r="C96" s="85"/>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="72"/>
-      <c r="B105" s="71" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="87"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="85"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="87"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="85"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="87"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="85"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="87"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="85"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="87"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="85"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="87"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="85"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="72"/>
+      <c r="B111" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="72"/>
-      <c r="E105" s="98">
-        <f>SUM(E106:E113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="87"/>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="87"/>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="87"/>
-      <c r="B108" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="87"/>
-      <c r="B109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="87"/>
-      <c r="B110" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="98">
-        <v>111</v>
-      </c>
-      <c r="E110" s="98">
-        <f>D110*C110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="87"/>
-      <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="98">
-        <v>850</v>
-      </c>
+      <c r="C111" s="72"/>
       <c r="E111" s="98">
-        <f>D111*C111</f>
+        <f>SUM(E112:E119)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="87"/>
       <c r="B112" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" s="98">
-        <v>100</v>
-      </c>
-      <c r="E112" s="98">
-        <f>D112*C112</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="87"/>
       <c r="B113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="87"/>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="87"/>
+      <c r="B115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="87"/>
+      <c r="B116" t="s">
+        <v>111</v>
+      </c>
+      <c r="D116" s="98">
+        <v>111</v>
+      </c>
+      <c r="E116" s="98">
+        <f>D116*C116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="87"/>
+      <c r="B117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" s="98">
+        <v>850</v>
+      </c>
+      <c r="E117" s="98">
+        <f>D117*C117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="87"/>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="98">
+        <v>100</v>
+      </c>
+      <c r="E118" s="98">
+        <f>D118*C118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="87"/>
+      <c r="B119" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="B114" t="s">
+    <row r="120" spans="1:5">
+      <c r="B120" t="s">
         <v>115</v>
       </c>
-      <c r="E114" s="98">
+      <c r="E120" s="98">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="D116" s="98" t="s">
+    <row r="122" spans="1:5">
+      <c r="D122" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E116" s="98">
-        <f>SUM(E106:E115)</f>
+      <c r="E122" s="98">
+        <f>SUM(E112:E121)</f>
         <v>0</v>
       </c>
     </row>
@@ -7791,8 +7905,8 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A65" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -8134,7 +8248,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="311">
+      <c r="A18" s="309">
         <v>45372</v>
       </c>
       <c r="B18" s="96" t="s">
@@ -8156,7 +8270,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="311">
+      <c r="A19" s="309">
         <v>45372</v>
       </c>
       <c r="B19" s="96" t="s">
@@ -18539,10 +18653,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="309" t="s">
+      <c r="L1" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="309"/>
+      <c r="M1" s="310"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -18740,11 +18854,11 @@
       </c>
       <c r="C6" s="26">
         <f>'04_24'!E2</f>
-        <v>-42180.6</v>
+        <v>-45230.539999999994</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>153995.56999999998</v>
+        <v>150945.63</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -18769,7 +18883,7 @@
         <v>20.855220000000003</v>
       </c>
       <c r="N6">
-        <f>'04_24'!E111/1000</f>
+        <f>'04_24'!E117/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -18787,7 +18901,7 @@
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>145407.96999999997</v>
+        <v>142358.03</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -18830,7 +18944,7 @@
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>131600.36999999997</v>
+        <v>128550.43</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -18876,7 +18990,7 @@
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>123642.57999999996</v>
+        <v>120592.63999999998</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -18925,7 +19039,7 @@
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>263236.44999999995</v>
+        <v>260186.50999999998</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -18971,7 +19085,7 @@
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>403430.11999999994</v>
+        <v>400380.17999999993</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -19020,7 +19134,7 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>419858.11999999994</v>
+        <v>416808.17999999993</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -19069,7 +19183,7 @@
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>666286.11999999988</v>
+        <v>663236.17999999993</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -19118,7 +19232,7 @@
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>661683.35999999987</v>
+        <v>658633.41999999993</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -19163,11 +19277,11 @@
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
-        <v>-714881.24</v>
+        <v>-717931.17999999993</v>
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>661683.3600000001</v>
+        <v>658633.42000000016</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
@@ -19210,7 +19324,7 @@
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
-        <v>-59573.436666666668</v>
+        <v>-59827.598333333328</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
@@ -19257,11 +19371,11 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="310">
+      <c r="L17" s="311">
         <f>L15+M15</f>
         <v>1387.9205959999999</v>
       </c>
-      <c r="M17" s="310"/>
+      <c r="M17" s="311"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338821B0-7BB7-4A50-BAAC-F38F859E48EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCD484-DA7F-4C17-8BFE-A84073F07A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -4622,7 +4622,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5066,7 +5066,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6896,7 +6895,7 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -7903,10 +7902,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7939,19 +7938,19 @@
         <v>77</v>
       </c>
       <c r="D2" s="82">
-        <f>SUM(D6:D33)</f>
+        <f>SUM(D6:D34)</f>
         <v>36300</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E3:E33)</f>
+        <f>SUM(E3:E34)</f>
         <v>-114592.82</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F3:F33)</f>
+        <f>SUM(F3:F34)</f>
         <v>6500</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G3:G33)</f>
+        <f>SUM(G3:G34)</f>
         <v>-102399.73000000001</v>
       </c>
       <c r="H2" s="98">
@@ -7994,7 +7993,7 @@
         <v>-1512.13</v>
       </c>
       <c r="H5" s="292">
-        <f t="shared" ref="H5:H22" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H23" si="0">H4+F5+G5</f>
         <v>-1512.13</v>
       </c>
     </row>
@@ -8049,7 +8048,7 @@
       </c>
       <c r="D8" s="298"/>
       <c r="E8" s="292">
-        <f>E68</f>
+        <f>E69</f>
         <v>-72173.5</v>
       </c>
       <c r="F8" s="2"/>
@@ -8072,7 +8071,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="298"/>
       <c r="E9" s="292">
-        <f>E49</f>
+        <f>E50</f>
         <v>-6341.6600000000008</v>
       </c>
       <c r="F9" s="2"/>
@@ -8221,7 +8220,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="298"/>
       <c r="E16" s="292">
-        <f>E44*-1</f>
+        <f>E45*-1</f>
         <v>-225.66</v>
       </c>
       <c r="F16" s="308"/>
@@ -8235,34 +8234,45 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="150"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="306">
+        <v>45372</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>85</v>
+      </c>
       <c r="D17" s="298"/>
-      <c r="E17" s="292"/>
+      <c r="E17" s="292">
+        <v>-300</v>
+      </c>
       <c r="F17" s="308"/>
-      <c r="G17" s="308"/>
+      <c r="G17" s="308">
+        <v>-1083</v>
+      </c>
       <c r="H17" s="292">
         <f t="shared" si="0"/>
-        <v>-92440.16</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="309">
+      <c r="A18" s="306">
         <v>45372</v>
       </c>
-      <c r="B18" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="98">
-        <v>-300</v>
-      </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78">
-        <v>-1083</v>
+      <c r="D18" s="298"/>
+      <c r="E18" s="292">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="308"/>
+      <c r="G18" s="308">
+        <v>0</v>
       </c>
       <c r="H18" s="292">
         <f t="shared" si="0"/>
@@ -8270,38 +8280,26 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="309">
-        <v>45372</v>
-      </c>
-      <c r="B19" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="98">
-        <v>-100</v>
-      </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78">
-        <v>0</v>
-      </c>
+      <c r="A19" s="306"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="292"/>
+      <c r="F19" s="308"/>
+      <c r="G19" s="308"/>
       <c r="H19" s="292">
         <f t="shared" si="0"/>
         <v>-93523.16</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7"/>
-      <c r="B20" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="84"/>
-      <c r="E20" s="98">
-        <v>-400</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="78"/>
+      <c r="A20" s="306"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="298"/>
+      <c r="E20" s="292"/>
+      <c r="F20" s="308"/>
+      <c r="G20" s="308"/>
       <c r="H20" s="292">
         <f t="shared" si="0"/>
         <v>-93523.16</v>
@@ -8310,11 +8308,11 @@
     <row r="21" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="84"/>
       <c r="E21" s="98">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="78"/>
@@ -8325,9 +8323,14 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="F22" s="78"/>
+      <c r="B22" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="E22" s="98">
+        <v>-500</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="78"/>
       <c r="H22" s="292">
         <f t="shared" si="0"/>
@@ -8336,37 +8339,32 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>1103</v>
-      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="98">
-        <f t="shared" ref="H23:H33" si="1">H22+F23+G23</f>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="292">
+        <f t="shared" si="0"/>
         <v>-93523.16</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="E24" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H24:H34" si="1">H23+F24+G24</f>
         <v>-93523.16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7"/>
       <c r="E25" s="98">
@@ -8382,7 +8380,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7"/>
       <c r="E26" s="98">
@@ -8398,15 +8396,13 @@
     <row r="27" spans="1:8">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="82">
-        <v>10000</v>
-      </c>
-      <c r="F27" s="78">
-        <v>0</v>
-      </c>
+      <c r="E27" s="98">
+        <v>-5000</v>
+      </c>
+      <c r="F27" s="78"/>
       <c r="G27" s="78"/>
       <c r="H27" s="98">
         <f t="shared" si="1"/>
@@ -8414,15 +8410,17 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="150"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="82">
-        <v>2800</v>
-      </c>
-      <c r="F28" s="78"/>
+        <v>10000</v>
+      </c>
+      <c r="F28" s="78">
+        <v>0</v>
+      </c>
       <c r="G28" s="78"/>
       <c r="H28" s="98">
         <f t="shared" si="1"/>
@@ -8431,6 +8429,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="150"/>
+      <c r="B29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="82">
+        <v>2800</v>
+      </c>
       <c r="F29" s="78"/>
       <c r="G29" s="78"/>
       <c r="H29" s="98">
@@ -8439,29 +8444,23 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="87"/>
-      <c r="B30" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="82">
-        <v>8500</v>
-      </c>
-      <c r="G30" s="57"/>
+      <c r="A30" s="150"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
       </c>
     </row>
     <row r="31" spans="1:8">
+      <c r="A31" s="87"/>
       <c r="B31" s="7" t="s">
-        <v>167</v>
+        <v>1128</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="82">
-        <v>15000</v>
-      </c>
-      <c r="F31" s="57"/>
+        <v>8500</v>
+      </c>
       <c r="G31" s="57"/>
       <c r="H31" s="98">
         <f t="shared" si="1"/>
@@ -8469,19 +8468,18 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="289">
-        <v>45382</v>
-      </c>
       <c r="B32" s="7" t="s">
-        <v>1129</v>
+        <v>167</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="82">
+        <v>15000</v>
       </c>
       <c r="F32" s="57"/>
-      <c r="G32" s="78">
-        <v>-2273.0700000000002</v>
-      </c>
+      <c r="G32" s="57"/>
       <c r="H32" s="98">
         <f t="shared" si="1"/>
-        <v>-95796.23000000001</v>
+        <v>-93523.16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -8489,251 +8487,257 @@
         <v>45382</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="F33" s="57"/>
-      <c r="G33" s="57">
-        <v>-103.5</v>
+      <c r="G33" s="78">
+        <v>-2273.0700000000002</v>
       </c>
       <c r="H33" s="98">
         <f t="shared" si="1"/>
+        <v>-95796.23000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="289">
+        <v>45382</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57">
+        <v>-103.5</v>
+      </c>
+      <c r="H34" s="98">
+        <f t="shared" si="1"/>
         <v>-95899.73000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-    </row>
     <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="72"/>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1">
-      <c r="A37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="98"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="57"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="92">
+    <row r="38" spans="1:8" s="2" customFormat="1">
+      <c r="A38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="98"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="92">
         <v>44929</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B39" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="82">
-        <f>SUM(D39:D44)</f>
+      <c r="C39" s="72"/>
+      <c r="D39" s="82">
+        <f>SUM(D40:D45)</f>
         <v>5343.55</v>
       </c>
-      <c r="E38" s="98">
-        <f>SUM(E39:E44)</f>
-        <v>2997.7999999999997</v>
-      </c>
-      <c r="H38" s="57"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="87"/>
-      <c r="B39" s="85" t="s">
+      <c r="E39" s="98">
+        <f>SUM(E40:E45)</f>
+        <v>5345.7999999999993</v>
+      </c>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="87"/>
+      <c r="B40" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>967.68</v>
       </c>
-      <c r="E39" s="98">
+      <c r="E40" s="98">
         <v>970</v>
       </c>
-      <c r="H39" s="57"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D40">
-        <v>1224.42</v>
-      </c>
-      <c r="E40" s="98">
-        <v>1125</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>104</v>
+        <v>1130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1131</v>
       </c>
       <c r="D41">
-        <v>237.14</v>
+        <v>1224.42</v>
       </c>
       <c r="E41" s="98">
-        <v>237.14</v>
+        <v>1225</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>1079</v>
+        <v>104</v>
       </c>
       <c r="D42">
-        <v>2248.8000000000002</v>
+        <v>237.14</v>
+      </c>
+      <c r="E42" s="98">
+        <v>237.14</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>106</v>
+        <v>1079</v>
       </c>
       <c r="D43">
-        <v>439.85</v>
+        <v>2248.8000000000002</v>
       </c>
       <c r="E43" s="98">
-        <v>440</v>
+        <v>2248</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85">
-        <v>225.66</v>
+        <v>106</v>
+      </c>
+      <c r="D44">
+        <v>439.85</v>
       </c>
       <c r="E44" s="98">
-        <v>225.66</v>
+        <v>440</v>
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
       <c r="C45" s="85"/>
+      <c r="D45" s="85">
+        <v>225.66</v>
+      </c>
+      <c r="E45" s="98">
+        <v>225.66</v>
+      </c>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="65"/>
+    <row r="46" spans="1:8">
+      <c r="C46" s="85"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="82"/>
+      <c r="B48" s="65"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="82"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="72"/>
+      <c r="B50" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="E49" s="291">
-        <f>SUM(E50:E63)</f>
+      <c r="C50" s="72"/>
+      <c r="E50" s="291">
+        <f>SUM(E51:E64)</f>
         <v>-6341.6600000000008</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B50" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="85">
-        <v>7648.33</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="98">
-        <v>-849.81</v>
-      </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="87">
         <v>45187</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C51" s="85">
-        <v>11128</v>
+        <v>7648.33</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E51" s="98">
-        <v>-1854.65</v>
-      </c>
-      <c r="F51" s="57"/>
+        <v>-849.81</v>
+      </c>
       <c r="G51" s="57"/>
       <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="289">
-        <v>45325</v>
-      </c>
-      <c r="B52" t="s">
-        <v>211</v>
+      <c r="A52" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B52" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="85">
+        <v>11128</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>170</v>
       </c>
       <c r="E52" s="98">
-        <v>-453.4</v>
-      </c>
+        <v>-1854.65</v>
+      </c>
+      <c r="F52" s="57"/>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="289">
-        <v>45326</v>
+        <v>45325</v>
       </c>
       <c r="B53" t="s">
-        <v>1080</v>
+        <v>211</v>
       </c>
       <c r="E53" s="98">
-        <v>-300</v>
+        <v>-453.4</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="289">
-        <v>45327</v>
+        <v>45326</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>3900.57</v>
+        <v>1080</v>
+      </c>
+      <c r="E54" s="98">
+        <v>-300</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="289">
-        <v>45330</v>
+        <v>45327</v>
       </c>
       <c r="B55" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E55" s="98">
-        <v>-900</v>
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>3900.57</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
@@ -8743,26 +8747,24 @@
         <v>45330</v>
       </c>
       <c r="B56" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E56" s="98">
-        <v>-116.38</v>
+        <v>-900</v>
       </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="87">
-        <v>45331</v>
-      </c>
-      <c r="B57" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="C57" s="85"/>
+      <c r="A57" s="289">
+        <v>45330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1082</v>
+      </c>
       <c r="E57" s="98">
-        <v>-100</v>
-      </c>
-      <c r="F57" s="57"/>
+        <v>-116.38</v>
+      </c>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
@@ -8771,11 +8773,11 @@
         <v>45331</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>1083</v>
+        <v>403</v>
       </c>
       <c r="C58" s="85"/>
       <c r="E58" s="98">
-        <v>-215.42</v>
+        <v>-100</v>
       </c>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
@@ -8783,14 +8785,14 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="87">
-        <v>45332</v>
+        <v>45331</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>403</v>
+        <v>1083</v>
       </c>
       <c r="C59" s="85"/>
       <c r="E59" s="98">
-        <v>-100</v>
+        <v>-215.42</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
@@ -8801,11 +8803,11 @@
         <v>45332</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>1084</v>
+        <v>403</v>
       </c>
       <c r="C60" s="85"/>
       <c r="E60" s="98">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
@@ -8813,13 +8815,14 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="87">
-        <v>45337</v>
+        <v>45332</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>1085</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="C61" s="85"/>
       <c r="E61" s="98">
-        <v>-352</v>
+        <v>-900</v>
       </c>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
@@ -8827,14 +8830,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="87">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="C62" s="85"/>
+        <v>1085</v>
+      </c>
       <c r="E62" s="98">
-        <v>-100</v>
+        <v>-352</v>
       </c>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
@@ -8842,11 +8844,12 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="87">
-        <v>45339</v>
-      </c>
-      <c r="B63" s="7" t="s">
+        <v>45338</v>
+      </c>
+      <c r="B63" s="85" t="s">
         <v>403</v>
       </c>
+      <c r="C63" s="85"/>
       <c r="E63" s="98">
         <v>-100</v>
       </c>
@@ -8854,21 +8857,27 @@
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
     </row>
-    <row r="64" spans="1:8" ht="15">
-      <c r="A64" s="87"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="109" t="s">
-        <v>196</v>
+    <row r="64" spans="1:8">
+      <c r="A64" s="87">
+        <v>45339</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E64" s="98">
+        <v>-100</v>
       </c>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="15">
       <c r="A65" s="87"/>
       <c r="B65" s="85"/>
       <c r="C65" s="85"/>
+      <c r="D65" s="109" t="s">
+        <v>196</v>
+      </c>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
@@ -8890,76 +8899,66 @@
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="72"/>
-      <c r="B68" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="E68" s="300">
-        <f>SUM(E69:E88)</f>
-        <v>-72173.5</v>
-      </c>
+      <c r="A68" s="87"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="87"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="72"/>
+      <c r="E69" s="300">
+        <f>SUM(E70:E89)</f>
+        <v>-72173.5</v>
+      </c>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B70" s="85" t="s">
-        <v>171</v>
-      </c>
+      <c r="A70" s="87"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="85"/>
-      <c r="D70" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" s="98">
-        <v>-3974.42</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
+      <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B71" t="s">
-        <v>159</v>
-      </c>
+      <c r="A71" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B71" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="85"/>
       <c r="D71" s="82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" s="98">
-        <v>-600</v>
-      </c>
-      <c r="F71" s="57"/>
+        <v>-3974.42</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B72" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="85"/>
+        <v>45214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
       <c r="D72" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72" s="98">
-        <v>-3551.66</v>
+        <v>-600</v>
       </c>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
@@ -8967,19 +8966,17 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3">
-        <v>45259</v>
-      </c>
-      <c r="B73" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" s="99">
-        <v>-1204.5</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B73" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="85"/>
       <c r="D73" s="82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E73" s="98">
-        <v>-401.5</v>
+        <v>-3551.66</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
@@ -8990,16 +8987,16 @@
         <v>45259</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C74" s="99">
-        <v>-148.6</v>
+        <v>-1204.5</v>
       </c>
       <c r="D74" s="82" t="s">
         <v>176</v>
       </c>
       <c r="E74" s="98">
-        <v>-49.54</v>
+        <v>-401.5</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -9010,16 +9007,16 @@
         <v>45259</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C75" s="99">
-        <v>-244.8</v>
+        <v>-148.6</v>
       </c>
       <c r="D75" s="82" t="s">
         <v>176</v>
       </c>
       <c r="E75" s="98">
-        <v>-81.599999999999994</v>
+        <v>-49.54</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -9030,34 +9027,36 @@
         <v>45259</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C76" s="99">
-        <v>-532.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>176</v>
       </c>
       <c r="E76" s="98">
-        <v>-177.54</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="3"/>
-      <c r="B77" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="85">
-        <v>899</v>
-      </c>
-      <c r="D77" s="97" t="s">
-        <v>180</v>
+      <c r="A77" s="3">
+        <v>45259</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="99">
+        <v>-532.6</v>
+      </c>
+      <c r="D77" s="82" t="s">
+        <v>176</v>
       </c>
       <c r="E77" s="98">
-        <v>-449.5</v>
+        <v>-177.54</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
@@ -9066,14 +9065,16 @@
     <row r="78" spans="1:8">
       <c r="A78" s="3"/>
       <c r="B78" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" s="85"/>
+        <v>13</v>
+      </c>
+      <c r="C78" s="85">
+        <v>899</v>
+      </c>
       <c r="D78" s="97" t="s">
         <v>180</v>
       </c>
       <c r="E78" s="98">
-        <v>-299.64</v>
+        <v>-449.5</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
@@ -9082,30 +9083,30 @@
     <row r="79" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C79" s="85"/>
       <c r="D79" s="97" t="s">
         <v>180</v>
       </c>
       <c r="E79" s="98">
-        <v>-546.82000000000005</v>
+        <v>-299.64</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="87"/>
-      <c r="B80" s="7" t="s">
-        <v>129</v>
+      <c r="A80" s="3"/>
+      <c r="B80" s="85" t="s">
+        <v>182</v>
       </c>
       <c r="C80" s="85"/>
       <c r="D80" s="97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E80" s="98">
-        <v>-649.78</v>
+        <v>-546.82000000000005</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
@@ -9114,13 +9115,14 @@
     <row r="81" spans="1:8">
       <c r="A81" s="87"/>
       <c r="B81" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="85">
-        <v>49.98</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C81" s="85"/>
       <c r="D81" s="97" t="s">
         <v>183</v>
+      </c>
+      <c r="E81" s="98">
+        <v>-649.78</v>
       </c>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
@@ -9128,8 +9130,15 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="87"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="85"/>
+      <c r="B82" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="85">
+        <v>49.98</v>
+      </c>
+      <c r="D82" s="97" t="s">
+        <v>183</v>
+      </c>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
@@ -9143,29 +9152,23 @@
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="87">
-        <v>45324</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>184</v>
-      </c>
+      <c r="A84" s="87"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="85"/>
-      <c r="E84" s="98">
-        <v>-1195</v>
-      </c>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="87">
-        <v>45327</v>
+        <v>45324</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" s="98">
-        <v>-299.99</v>
+        <v>184</v>
+      </c>
+      <c r="C85" s="85"/>
+      <c r="E85" s="98">
+        <v>-1195</v>
       </c>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
@@ -9173,14 +9176,13 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="87">
-        <v>45336</v>
+        <v>45327</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="85"/>
-      <c r="E86" s="98">
-        <v>-59483.25</v>
+        <v>185</v>
+      </c>
+      <c r="C86" s="98">
+        <v>-299.99</v>
       </c>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
@@ -9188,14 +9190,14 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="87">
-        <v>45329</v>
+        <v>45336</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1086</v>
+        <v>120</v>
       </c>
       <c r="C87" s="85"/>
       <c r="E87" s="98">
-        <v>-713.25</v>
+        <v>-59483.25</v>
       </c>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
@@ -9203,41 +9205,48 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="87">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="85">
-        <v>24742.959999999999</v>
+        <v>1086</v>
+      </c>
+      <c r="C88" s="85"/>
+      <c r="E88" s="98">
+        <v>-713.25</v>
       </c>
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
       <c r="H88" s="57"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="87"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="85"/>
+      <c r="A89" s="87">
+        <v>45327</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="85">
+        <v>24742.959999999999</v>
+      </c>
       <c r="F89" s="57"/>
       <c r="G89" s="57"/>
       <c r="H89" s="57"/>
     </row>
-    <row r="90" spans="1:8" ht="15">
+    <row r="90" spans="1:8">
       <c r="A90" s="87"/>
       <c r="B90" s="7"/>
       <c r="C90" s="85"/>
-      <c r="D90" s="109" t="s">
-        <v>196</v>
-      </c>
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="15">
       <c r="A91" s="87"/>
       <c r="B91" s="7"/>
       <c r="C91" s="85"/>
+      <c r="D91" s="109" t="s">
+        <v>196</v>
+      </c>
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
       <c r="H91" s="57"/>
@@ -9314,81 +9323,75 @@
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="87"/>
+    <row r="101" spans="1:8">
+      <c r="A101" s="87"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="85"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="87"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="70" t="s">
+      <c r="A111" s="87"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="70" t="s">
         <v>1120</v>
       </c>
-      <c r="B111" s="71" t="s">
+      <c r="B112" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C111" s="72">
+      <c r="C112" s="72">
         <v>2024</v>
       </c>
-      <c r="D111" s="73"/>
-      <c r="E111" s="74">
-        <f>SUM(E112:E130)</f>
+      <c r="D112" s="73"/>
+      <c r="E112" s="74">
+        <f>SUM(E113:E131)</f>
         <v>745852.05035699997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="303">
-        <v>45352</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="304"/>
-      <c r="D112" s="304"/>
-      <c r="E112" s="304">
-        <v>64000</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="303">
-        <f>A112</f>
         <v>45352</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1121</v>
+        <v>1</v>
       </c>
       <c r="C113" s="304"/>
       <c r="D113" s="304"/>
       <c r="E113" s="304">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="303">
+        <f>A113</f>
+        <v>45352</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C114" s="304"/>
+      <c r="D114" s="304"/>
+      <c r="E114" s="304">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="75">
-        <f t="shared" ref="A114:A130" si="2">A113</f>
-        <v>45352</v>
-      </c>
-      <c r="B114" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="65">
-        <v>5039.78</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A115:A131" si="2">A114</f>
         <v>45352</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="65">
-        <v>0</v>
+        <v>5039.78</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -9397,7 +9400,7 @@
         <v>45352</v>
       </c>
       <c r="B116" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -9411,9 +9414,9 @@
         <v>45352</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" s="101"/>
+        <v>256</v>
+      </c>
+      <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="65">
         <v>0</v>
@@ -9425,9 +9428,9 @@
         <v>45352</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C118" s="101"/>
       <c r="D118" s="1"/>
       <c r="E118" s="65">
         <v>0</v>
@@ -9439,14 +9442,12 @@
         <v>45352</v>
       </c>
       <c r="B119" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1115</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="65">
-        <v>129254.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -9455,14 +9456,14 @@
         <v>45352</v>
       </c>
       <c r="B120" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="65">
-        <v>256.56</v>
+        <v>129254.5</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -9471,14 +9472,14 @@
         <v>45352</v>
       </c>
       <c r="B121" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C121" s="75" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D121" s="76"/>
+        <v>1106</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D121" s="1"/>
       <c r="E121" s="65">
-        <v>0</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -9487,14 +9488,14 @@
         <v>45352</v>
       </c>
       <c r="B122" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C122" s="75" t="s">
-        <v>1111</v>
+        <v>1125</v>
       </c>
       <c r="D122" s="76"/>
       <c r="E122" s="65">
-        <v>588.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -9503,11 +9504,15 @@
         <v>45352</v>
       </c>
       <c r="B123" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C123" s="75"/>
+        <v>1110</v>
+      </c>
+      <c r="C123" s="75" t="s">
+        <v>1111</v>
+      </c>
       <c r="D123" s="76"/>
-      <c r="E123" s="65"/>
+      <c r="E123" s="65">
+        <v>588.6</v>
+      </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="75">
@@ -9515,13 +9520,11 @@
         <v>45352</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="65">
-        <v>450</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="C124" s="75"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="65"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="75">
@@ -9529,17 +9532,12 @@
         <v>45352</v>
       </c>
       <c r="B125" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2017.98</v>
-      </c>
-      <c r="D125" s="1">
-        <v>161</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
       <c r="E125" s="65">
-        <f>D125*C125</f>
-        <v>324894.78000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -9548,17 +9546,17 @@
         <v>45352</v>
       </c>
       <c r="B126" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C126" s="77">
-        <v>30.726199999999999</v>
+        <v>1118</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2017.98</v>
       </c>
       <c r="D126" s="1">
-        <v>850</v>
+        <v>161</v>
       </c>
       <c r="E126" s="65">
         <f>D126*C126</f>
-        <v>26117.27</v>
+        <v>324894.78000000003</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -9567,17 +9565,17 @@
         <v>45352</v>
       </c>
       <c r="B127" t="s">
-        <v>263</v>
+        <v>1116</v>
       </c>
       <c r="C127" s="77">
-        <v>30.725999999999999</v>
+        <v>30.726199999999999</v>
       </c>
       <c r="D127" s="1">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="E127" s="65">
         <f>D127*C127</f>
-        <v>7681.5</v>
+        <v>26117.27</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -9586,17 +9584,17 @@
         <v>45352</v>
       </c>
       <c r="B128" t="s">
-        <v>1117</v>
+        <v>263</v>
       </c>
       <c r="C128" s="77">
-        <v>33.224299999999999</v>
+        <v>30.725999999999999</v>
       </c>
       <c r="D128" s="1">
-        <v>81.99</v>
+        <v>250</v>
       </c>
       <c r="E128" s="65">
         <f>D128*C128</f>
-        <v>2724.0603569999998</v>
+        <v>7681.5</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -9605,12 +9603,17 @@
         <v>45352</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+        <v>1117</v>
+      </c>
+      <c r="C129" s="77">
+        <v>33.224299999999999</v>
+      </c>
+      <c r="D129" s="1">
+        <v>81.99</v>
+      </c>
       <c r="E129" s="65">
-        <v>30000</v>
+        <f>D129*C129</f>
+        <v>2724.0603569999998</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -9619,42 +9622,56 @@
         <v>45352</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="65">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="75">
+        <f t="shared" si="2"/>
+        <v>45352</v>
+      </c>
+      <c r="B131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="65">
         <v>4000</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="D131"/>
-      <c r="E131" s="99"/>
-    </row>
     <row r="132" spans="1:5">
-      <c r="C132" s="101"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="101"/>
+      <c r="D132"/>
+      <c r="E132" s="99"/>
     </row>
     <row r="133" spans="1:5">
       <c r="C133" s="101"/>
-      <c r="D133" s="64" t="s">
+      <c r="D133" s="7"/>
+      <c r="E133" s="101"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="C134" s="101"/>
+      <c r="D134" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="12">
-        <f>SUM(E112:E130)</f>
+      <c r="E134" s="12">
+        <f>SUM(E113:E131)</f>
         <v>745852.05035699997</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="C134" s="112" t="str">
-        <f>A111</f>
+    <row r="135" spans="1:5">
+      <c r="C135" s="112" t="str">
+        <f>A112</f>
         <v>MART</v>
       </c>
-      <c r="D134" s="113" t="s">
+      <c r="D135" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E135" s="4">
         <f>H2</f>
         <v>-95899.73000000001</v>
       </c>
@@ -9676,7 +9693,7 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -18653,10 +18670,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="310" t="s">
+      <c r="L1" s="309" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="310"/>
+      <c r="M1" s="309"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -18840,7 +18857,7 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E113/1000</f>
+        <f>'03_24'!E114/1000</f>
         <v>150.845</v>
       </c>
     </row>
@@ -19371,18 +19388,18 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="311">
+      <c r="L17" s="310">
         <f>L15+M15</f>
         <v>1387.9205959999999</v>
       </c>
-      <c r="M17" s="311"/>
+      <c r="M17" s="310"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F27+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F28+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
         <v>20855.22</v>
       </c>
       <c r="J18" s="29"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCD484-DA7F-4C17-8BFE-A84073F07A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459EF7CB-333D-4A4B-84E1-F282E17FB9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="1149">
   <si>
     <t>umut</t>
   </si>
@@ -3687,6 +3687,36 @@
   </si>
   <si>
     <t>led-fiş aksoy</t>
+  </si>
+  <si>
+    <t>pazarama 64gb ram umut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1– 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2– 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4– 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5– 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6– 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8– 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9– 9</t>
+  </si>
+  <si>
+    <t>amazon kc200 2tb nvme umut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3– 9</t>
   </si>
 </sst>
 </file>
@@ -5725,8 +5755,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -5763,7 +5793,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-41087.599999999999</v>
+        <v>-42884.86</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -5949,7 +5979,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-1084.1399999999999</v>
+        <v>-2881.3999999999996</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -6303,7 +6333,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-1084.1399999999999</v>
+        <v>-2881.3999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6349,10 +6379,40 @@
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C54">
+        <v>10176.39</v>
+      </c>
+      <c r="D54" s="98" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E54" s="98">
+        <v>-1130.71</v>
+      </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C55">
+        <v>5999</v>
+      </c>
+      <c r="D55" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="E55" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
@@ -6893,10 +6953,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6933,7 +6993,7 @@
       </c>
       <c r="E2" s="98">
         <f>SUM(E4:E34)</f>
-        <v>-45230.539999999994</v>
+        <v>-47027.8</v>
       </c>
       <c r="F2" s="98">
         <f>SUM(F4:F34)</f>
@@ -7096,7 +7156,7 @@
       </c>
       <c r="E15" s="98">
         <f>E50</f>
-        <v>-4577.1000000000004</v>
+        <v>-6374.36</v>
       </c>
       <c r="H15" s="98">
         <f t="shared" si="0"/>
@@ -7111,7 +7171,7 @@
         <v>90</v>
       </c>
       <c r="E16" s="98">
-        <f>E71</f>
+        <f>E74</f>
         <v>-4801.4399999999996</v>
       </c>
       <c r="H16" s="98">
@@ -7372,8 +7432,8 @@
       </c>
       <c r="C50" s="72"/>
       <c r="E50" s="98">
-        <f>SUM(E51:E68)</f>
-        <v>-4577.1000000000004</v>
+        <f>SUM(E51:E71)</f>
+        <v>-6374.36</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7427,252 +7487,274 @@
         <v>-378.87</v>
       </c>
     </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="289"/>
+    </row>
     <row r="56" spans="1:5">
       <c r="A56" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C56">
+        <v>10176.39</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E56" s="98">
+        <v>-1130.71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C57">
+        <v>5999</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E57" s="98">
+        <v>-666.55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="289">
         <v>45347</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>1101</v>
       </c>
-      <c r="E56" s="98">
+      <c r="E59" s="98">
         <v>-343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="87">
-        <v>45348</v>
-      </c>
-      <c r="B57" s="85" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C57" s="85"/>
-      <c r="E57" s="98">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="87">
-        <v>45351</v>
-      </c>
-      <c r="B58" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" s="85"/>
-      <c r="E58" s="98">
-        <v>-86.95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="87">
-        <v>45353</v>
-      </c>
-      <c r="B59" s="96" t="s">
-        <v>406</v>
-      </c>
-      <c r="C59" s="85"/>
-      <c r="E59" s="98">
-        <v>-500</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="87">
-        <v>45353</v>
-      </c>
-      <c r="B60" s="96" t="s">
-        <v>1137</v>
+        <v>45348</v>
+      </c>
+      <c r="B60" s="85" t="s">
+        <v>1102</v>
       </c>
       <c r="C60" s="85"/>
       <c r="E60" s="98">
-        <v>-600</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="87">
-        <v>45354</v>
-      </c>
-      <c r="B61" s="96" t="s">
-        <v>674</v>
+        <v>45351</v>
+      </c>
+      <c r="B61" s="85" t="s">
+        <v>246</v>
       </c>
       <c r="C61" s="85"/>
       <c r="E61" s="98">
-        <v>-330</v>
+        <v>-86.95</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="87">
-        <v>45355</v>
+        <v>45353</v>
       </c>
       <c r="B62" s="96" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C62" s="85"/>
       <c r="E62" s="98">
-        <v>-200</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="87">
-        <v>45355</v>
+        <v>45353</v>
       </c>
       <c r="B63" s="96" t="s">
-        <v>712</v>
+        <v>1137</v>
       </c>
       <c r="C63" s="85"/>
       <c r="E63" s="98">
-        <v>-50</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="87">
-        <v>45356</v>
+        <v>45354</v>
       </c>
       <c r="B64" s="96" t="s">
-        <v>403</v>
+        <v>674</v>
       </c>
       <c r="C64" s="85"/>
       <c r="E64" s="98">
-        <v>-200</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="87">
-        <v>45357</v>
+        <v>45355</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>1138</v>
+        <v>403</v>
       </c>
       <c r="C65" s="85"/>
       <c r="E65" s="98">
-        <v>-160</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="87">
-        <v>45357</v>
+        <v>45355</v>
       </c>
       <c r="B66" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="85">
-        <v>6341.66</v>
+        <v>712</v>
+      </c>
+      <c r="C66" s="85"/>
+      <c r="E66" s="98">
+        <v>-50</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="87">
-        <v>45361</v>
+        <v>45356</v>
       </c>
       <c r="B67" s="96" t="s">
-        <v>211</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C67" s="85"/>
       <c r="E67" s="98">
-        <v>-294.14</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="87">
-        <v>45358</v>
+        <v>45357</v>
       </c>
       <c r="B68" s="96" t="s">
-        <v>403</v>
+        <v>1138</v>
       </c>
       <c r="C68" s="85"/>
       <c r="E68" s="98">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="87">
+        <v>45357</v>
+      </c>
+      <c r="B69" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="85">
+        <v>6341.66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="87">
+        <v>45361</v>
+      </c>
+      <c r="B70" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" s="98">
+        <v>-294.14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="87">
+        <v>45358</v>
+      </c>
+      <c r="B71" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C71" s="85"/>
+      <c r="E71" s="98">
         <v>-200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="87"/>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="87"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="72"/>
-      <c r="B71" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="72"/>
-      <c r="E71" s="98">
-        <f>SUM(E72:E80)</f>
-        <v>-4801.4399999999996</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="87"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="98">
-        <v>-600</v>
-      </c>
+      <c r="A73" s="87"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B74" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="98" t="s">
-        <v>161</v>
-      </c>
+      <c r="A74" s="72"/>
+      <c r="B74" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="72"/>
       <c r="E74" s="98">
-        <v>-3551.66</v>
+        <f>SUM(E75:E83)</f>
+        <v>-4801.4399999999996</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="87"/>
-      <c r="B75" s="7" t="s">
-        <v>1127</v>
-      </c>
+      <c r="B75" s="85"/>
       <c r="C75" s="85"/>
-      <c r="D75" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="E75" s="98">
-        <v>-649.78</v>
-      </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="87"/>
-      <c r="B76" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="85">
-        <v>49.98</v>
+      <c r="A76" s="3">
+        <v>45214</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
       </c>
       <c r="D76" s="98" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="E76" s="98">
+        <v>-600</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="87"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="3">
+        <v>45285</v>
+      </c>
+      <c r="B77" s="85" t="s">
+        <v>134</v>
+      </c>
       <c r="C77" s="85"/>
+      <c r="D77" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="98">
+        <v>-3551.66</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="87"/>
-      <c r="B78" s="7"/>
+      <c r="B78" s="7" t="s">
+        <v>1127</v>
+      </c>
       <c r="C78" s="85"/>
+      <c r="D78" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="98">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="87"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="85"/>
+      <c r="B79" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="85">
+        <v>49.98</v>
+      </c>
+      <c r="D79" s="98" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="87"/>
@@ -7759,131 +7841,146 @@
       <c r="B96" s="7"/>
       <c r="C96" s="85"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:3">
       <c r="A97" s="87"/>
       <c r="B97" s="7"/>
       <c r="C97" s="85"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:3">
       <c r="A98" s="87"/>
       <c r="B98" s="7"/>
       <c r="C98" s="85"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:3">
       <c r="A99" s="87"/>
       <c r="B99" s="7"/>
       <c r="C99" s="85"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:3">
       <c r="A100" s="87"/>
       <c r="B100" s="7"/>
       <c r="C100" s="85"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:3">
       <c r="A101" s="87"/>
       <c r="B101" s="7"/>
       <c r="C101" s="85"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:3">
       <c r="A102" s="87"/>
       <c r="B102" s="7"/>
       <c r="C102" s="85"/>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="72"/>
-      <c r="B111" s="71" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="87"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="85"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="87"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="85"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="87"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="85"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="72"/>
+      <c r="B114" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="72"/>
-      <c r="E111" s="98">
-        <f>SUM(E112:E119)</f>
+      <c r="C114" s="72"/>
+      <c r="E114" s="98">
+        <f>SUM(E115:E122)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="87"/>
-      <c r="B112" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="87"/>
-      <c r="B113" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="87"/>
-      <c r="B114" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="87"/>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="87"/>
       <c r="B116" t="s">
-        <v>111</v>
-      </c>
-      <c r="D116" s="98">
-        <v>111</v>
-      </c>
-      <c r="E116" s="98">
-        <f>D116*C116</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="87"/>
       <c r="B117" t="s">
-        <v>112</v>
-      </c>
-      <c r="D117" s="98">
-        <v>850</v>
-      </c>
-      <c r="E117" s="98">
-        <f>D117*C117</f>
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="87"/>
       <c r="B118" t="s">
-        <v>113</v>
-      </c>
-      <c r="D118" s="98">
-        <v>100</v>
-      </c>
-      <c r="E118" s="98">
-        <f>D118*C118</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="87"/>
       <c r="B119" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" s="98">
+        <v>111</v>
+      </c>
+      <c r="E119" s="98">
+        <f>D119*C119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="87"/>
+      <c r="B120" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="98">
+        <v>850</v>
+      </c>
+      <c r="E120" s="98">
+        <f>D120*C120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="87"/>
+      <c r="B121" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" s="98">
+        <v>100</v>
+      </c>
+      <c r="E121" s="98">
+        <f>D121*C121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="87"/>
+      <c r="B122" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="B120" t="s">
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
         <v>115</v>
       </c>
-      <c r="E120" s="98">
+      <c r="E123" s="98">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="D122" s="98" t="s">
+    <row r="125" spans="1:5">
+      <c r="D125" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E122" s="98">
-        <f>SUM(E112:E121)</f>
+      <c r="E125" s="98">
+        <f>SUM(E115:E124)</f>
         <v>0</v>
       </c>
     </row>
@@ -7904,8 +8001,8 @@
   </sheetPr>
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A107" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9693,7 +9790,7 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -18871,11 +18968,11 @@
       </c>
       <c r="C6" s="26">
         <f>'04_24'!E2</f>
-        <v>-45230.539999999994</v>
+        <v>-47027.8</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>150945.63</v>
+        <v>149148.37</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -18900,7 +18997,7 @@
         <v>20.855220000000003</v>
       </c>
       <c r="N6">
-        <f>'04_24'!E117/1000</f>
+        <f>'04_24'!E120/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -18914,11 +19011,11 @@
       </c>
       <c r="C7" s="26">
         <f>'05_24'!E2</f>
-        <v>-41087.599999999999</v>
+        <v>-42884.86</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>142358.03</v>
+        <v>138763.51</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -18957,11 +19054,11 @@
       </c>
       <c r="C8" s="26">
         <f>'06_24'!E2</f>
-        <v>-46307.6</v>
+        <v>-48104.86</v>
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>128550.43</v>
+        <v>123158.65000000001</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -19003,11 +19100,11 @@
       </c>
       <c r="C9" s="26">
         <f>'07_24'!E2</f>
-        <v>-45457.79</v>
+        <v>-47255.05</v>
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>120592.63999999998</v>
+        <v>113403.6</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -19052,11 +19149,11 @@
       </c>
       <c r="C10" s="26">
         <f>'08_24'!E2</f>
-        <v>-41906.129999999997</v>
+        <v>-43703.39</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>260186.50999999998</v>
+        <v>251200.21</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -19098,11 +19195,11 @@
       </c>
       <c r="C11" s="26">
         <f>'09_24'!E2</f>
-        <v>-41306.33</v>
+        <v>-43103.59</v>
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>400380.17999999993</v>
+        <v>389596.62</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -19147,11 +19244,11 @@
       </c>
       <c r="C12" s="26">
         <f>'10_24'!E2</f>
-        <v>-141072</v>
+        <v>-142869.26</v>
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>416808.17999999993</v>
+        <v>404227.36</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -19196,11 +19293,11 @@
       </c>
       <c r="C13" s="26">
         <f>'11_24'!E2</f>
-        <v>-41072</v>
+        <v>-42869.26</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>663236.17999999993</v>
+        <v>648858.1</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -19245,11 +19342,11 @@
       </c>
       <c r="C14" s="26">
         <f>'12_24'!E2</f>
-        <v>-42102.76</v>
+        <v>-43900.020000000004</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>658633.41999999993</v>
+        <v>642458.07999999996</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -19294,11 +19391,11 @@
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
-        <v>-717931.17999999993</v>
+        <v>-734106.52</v>
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>658633.42000000016</v>
+        <v>642458.08000000007</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
@@ -19341,7 +19438,7 @@
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
-        <v>-59827.598333333328</v>
+        <v>-61175.543333333335</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
@@ -35110,8 +35207,8 @@
   </sheetPr>
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -35150,7 +35247,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E39)</f>
-        <v>-42102.76</v>
+        <v>-43900.020000000004</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F39)</f>
@@ -35483,7 +35580,7 @@
       </c>
       <c r="E20" s="57">
         <f>E55</f>
-        <v>0</v>
+        <v>-1797.26</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
@@ -35846,7 +35943,7 @@
       <c r="D55" s="73"/>
       <c r="E55" s="74">
         <f>SUM(E56:E67)</f>
-        <v>0</v>
+        <v>-1797.26</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -35854,20 +35951,40 @@
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="87"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="78"/>
+      <c r="A57" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C57">
+        <v>10176.39</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E57" s="98">
+        <v>-1130.71</v>
+      </c>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="87"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="78"/>
+      <c r="A58" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C58">
+        <v>5999</v>
+      </c>
+      <c r="D58" s="98" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E58" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
     </row>
@@ -46284,8 +46401,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E54" sqref="A54:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -46321,7 +46438,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-41072</v>
+        <v>-42869.26</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -46507,7 +46624,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>0</v>
+        <v>-1797.26</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -46868,7 +46985,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>0</v>
+        <v>-1797.26</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -46876,24 +46993,47 @@
       <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="87"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="78"/>
+      <c r="A52" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C52">
+        <v>10176.39</v>
+      </c>
+      <c r="D52" s="98" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E52" s="98">
+        <v>-1130.71</v>
+      </c>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="87"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="78"/>
+      <c r="A53" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C53">
+        <v>5999</v>
+      </c>
+      <c r="D53" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="289"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
@@ -51229,8 +51369,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -51266,7 +51406,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-141072</v>
+        <v>-142869.26</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -51452,7 +51592,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>0</v>
+        <v>-1797.26</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -51815,7 +51955,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>0</v>
+        <v>-1797.26</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -51823,20 +51963,40 @@
       <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="87"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="78"/>
+      <c r="A52" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C52">
+        <v>10176.39</v>
+      </c>
+      <c r="D52" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="98">
+        <v>-1130.71</v>
+      </c>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="87"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="78"/>
+      <c r="A53" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C53">
+        <v>5999</v>
+      </c>
+      <c r="D53" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
@@ -52367,8 +52527,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -52404,7 +52564,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-41306.33</v>
+        <v>-43103.59</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -52590,7 +52750,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-234.33</v>
+        <v>-2031.59</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -52951,7 +53111,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-234.33</v>
+        <v>-2031.59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -52978,15 +53138,40 @@
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="87"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="78"/>
+      <c r="A53" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C53">
+        <v>10176.39</v>
+      </c>
+      <c r="D53" s="98" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E53" s="98">
+        <v>-1130.71</v>
+      </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C54">
+        <v>5999</v>
+      </c>
+      <c r="D54" s="98" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E54" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
@@ -53513,8 +53698,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -53550,7 +53735,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-41906.129999999997</v>
+        <v>-43703.39</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -53736,7 +53921,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-234.33</v>
+        <v>-2031.59</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -54097,7 +54282,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-234.33</v>
+        <v>-2031.59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -54124,15 +54309,40 @@
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="87"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="78"/>
+      <c r="A53" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C53">
+        <v>10176.39</v>
+      </c>
+      <c r="D53" s="98" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E53" s="98">
+        <v>-1130.71</v>
+      </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C54">
+        <v>5999</v>
+      </c>
+      <c r="D54" s="98" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E54" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
@@ -54671,8 +54881,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A48" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54708,7 +54918,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-45457.79</v>
+        <v>-47255.05</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -54894,7 +55104,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-234.33</v>
+        <v>-2031.59</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -55255,7 +55465,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-234.33</v>
+        <v>-2031.59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -55282,15 +55492,40 @@
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="87"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="78"/>
+      <c r="A53" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C53">
+        <v>10176.39</v>
+      </c>
+      <c r="D53" s="98" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E53" s="98">
+        <v>-1130.71</v>
+      </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C54">
+        <v>5999</v>
+      </c>
+      <c r="D54" s="98" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E54" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
@@ -55837,8 +56072,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55874,7 +56109,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-46307.6</v>
+        <v>-48104.86</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -56060,7 +56295,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-1084.1399999999999</v>
+        <v>-2881.3999999999996</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -56412,7 +56647,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-1084.1399999999999</v>
+        <v>-2881.3999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -56467,10 +56702,40 @@
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C55">
+        <v>10176.39</v>
+      </c>
+      <c r="D55" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="E55" s="98">
+        <v>-1130.71</v>
+      </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C56">
+        <v>5999</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E56" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459EF7CB-333D-4A4B-84E1-F282E17FB9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF2169-7123-4400-B01D-FC9263C13A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="1162">
   <si>
     <t>umut</t>
   </si>
@@ -3717,6 +3717,45 @@
   </si>
   <si>
     <t xml:space="preserve">  3– 9</t>
+  </si>
+  <si>
+    <t>kk ücret</t>
+  </si>
+  <si>
+    <t>pazarama online indirim</t>
+  </si>
+  <si>
+    <t>THY ist uçak bileti iptal vergi iade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 – 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 – 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 – 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 – 6</t>
+  </si>
+  <si>
+    <t>örükçüoğlu audi porya</t>
+  </si>
+  <si>
+    <t>dnz kk</t>
+  </si>
+  <si>
+    <t>selanik pide</t>
+  </si>
+  <si>
+    <t>pazarama bosch gsb 12v30 2295,18 - 740 maxipuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 – 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7– 9</t>
   </si>
 </sst>
 </file>
@@ -4073,7 +4112,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4306,6 +4345,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4652,7 +4697,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5096,10 +5141,21 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5753,10 +5809,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -5788,19 +5844,19 @@
         <v>77</v>
       </c>
       <c r="D2" s="81">
-        <f>SUM(D4:D34)</f>
+        <f>SUM(D5:D35)</f>
         <v>32500</v>
       </c>
       <c r="E2" s="81">
-        <f>SUM(E4:E34)</f>
-        <v>-42884.86</v>
+        <f>SUM(E5:E35)</f>
+        <v>-43084.86</v>
       </c>
       <c r="F2" s="81">
-        <f>SUM(F4:F34)</f>
+        <f>SUM(F5:F35)</f>
         <v>0</v>
       </c>
       <c r="G2" s="81">
-        <f>SUM(G4:G34)</f>
+        <f>SUM(G5:G35)</f>
         <v>0</v>
       </c>
       <c r="H2" s="81">
@@ -5813,67 +5869,70 @@
       <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="35" t="s">
-        <v>78</v>
-      </c>
+      <c r="B4" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D4" s="83"/>
       <c r="E4" s="57">
-        <v>-152</v>
-      </c>
+        <v>-250</v>
+      </c>
+      <c r="G4" s="57"/>
       <c r="H4" s="57">
         <f>H3+F4+G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" t="s">
+      <c r="B5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="57">
+        <v>-152</v>
+      </c>
+      <c r="H5" s="57">
+        <f t="shared" ref="H5:H17" si="0">H4+F5+G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="78">
+      <c r="D6" s="82"/>
+      <c r="E6" s="78">
         <v>-10000</v>
       </c>
-      <c r="H5" s="57"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="57">
-        <v>-400</v>
-      </c>
-      <c r="G6" s="57"/>
       <c r="H6" s="57">
-        <f>H4+F6+G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
       <c r="E7" s="57">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G7" s="57"/>
       <c r="H7" s="57">
-        <f t="shared" ref="H7:H32" si="0">H6+F7+G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>1088</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C8" s="83"/>
       <c r="D8" s="83"/>
       <c r="E8" s="57">
-        <v>-250</v>
+        <v>-500</v>
       </c>
       <c r="G8" s="57"/>
       <c r="H8" s="57">
@@ -5882,28 +5941,16 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="57"/>
-      <c r="G9" s="57"/>
       <c r="H9" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>85</v>
-      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="83"/>
-      <c r="E10" s="57">
-        <v>-150</v>
-      </c>
-      <c r="F10" s="78"/>
+      <c r="E10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57">
         <f t="shared" si="0"/>
@@ -5911,15 +5958,15 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="57">
-        <v>-300</v>
+        <v>-150</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="57"/>
@@ -5930,14 +5977,14 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="85" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="85"/>
       <c r="E12" s="57">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F12" s="78"/>
       <c r="G12" s="57"/>
@@ -5947,10 +5994,17 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="57">
+        <v>-100</v>
+      </c>
+      <c r="F13" s="78"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57">
         <f t="shared" si="0"/>
@@ -5958,15 +6012,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57">
-        <f>E45*-1</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="57"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57">
         <f t="shared" si="0"/>
@@ -5975,11 +6024,12 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="86" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D15" s="57"/>
       <c r="E15" s="57">
-        <f>E50</f>
-        <v>-2881.3999999999996</v>
+        <f>E46*-1</f>
+        <v>0</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -5989,16 +6039,14 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
-        <v>45173</v>
-      </c>
       <c r="B16" s="86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="57">
-        <f>E65</f>
-        <v>-4151.46</v>
-      </c>
+        <f>E51</f>
+        <v>-3331.3999999999996</v>
+      </c>
+      <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57">
         <f t="shared" si="0"/>
@@ -6006,16 +6054,15 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="87">
+      <c r="A17" s="3">
         <v>45173</v>
       </c>
-      <c r="B17" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+      <c r="B17" s="86" t="s">
+        <v>90</v>
+      </c>
       <c r="E17" s="57">
-        <v>-5375</v>
+        <f>E66</f>
+        <v>-4151.46</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="57">
@@ -6024,64 +6071,70 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="87"/>
+      <c r="A18" s="87">
+        <v>45173</v>
+      </c>
       <c r="B18" s="83" t="s">
         <v>148</v>
       </c>
       <c r="C18" s="83"/>
       <c r="D18" s="83"/>
       <c r="E18" s="57">
-        <v>-2125</v>
+        <v>-5375</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H18:H33" si="1">H17+F18+G18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
+      <c r="A19" s="87"/>
       <c r="B19" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="83"/>
       <c r="E19" s="57">
-        <v>-1500</v>
-      </c>
-      <c r="F19" s="78"/>
+        <v>-2125</v>
+      </c>
       <c r="G19" s="57"/>
       <c r="H19" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="B20" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="57">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="H22" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
       <c r="H23" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6089,19 +6142,17 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="57">
-        <v>-5000</v>
-      </c>
+      <c r="E24" s="57"/>
       <c r="F24" s="57"/>
       <c r="G24" s="57"/>
       <c r="H24" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="57">
         <v>-5000</v>
@@ -6109,13 +6160,13 @@
       <c r="F25" s="57"/>
       <c r="G25" s="57"/>
       <c r="H25" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E26" s="57">
         <v>-5000</v>
@@ -6123,162 +6174,167 @@
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
       <c r="H26" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="E27" s="78"/>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="57">
+        <v>-5000</v>
+      </c>
       <c r="F27" s="57"/>
       <c r="G27" s="57"/>
       <c r="H27" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="82">
-        <v>10000</v>
-      </c>
+      <c r="E28" s="78"/>
       <c r="F28" s="57"/>
       <c r="G28" s="57"/>
       <c r="H28" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="87"/>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="82">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
       <c r="H29" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="87"/>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="D30" s="82">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
       <c r="H30" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="87"/>
-      <c r="D31" s="82"/>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="82">
+        <v>15000</v>
+      </c>
+      <c r="F31" s="57"/>
       <c r="G31" s="57"/>
       <c r="H31" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="D32" s="89"/>
-      <c r="F32" s="57"/>
+      <c r="A32" s="87"/>
+      <c r="D32" s="82"/>
       <c r="G32" s="57"/>
       <c r="H32" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="D33" s="57"/>
+      <c r="D33" s="89"/>
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" s="91"/>
+      <c r="H33" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="D34" s="57"/>
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
       <c r="H34" s="57"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="E35" s="57"/>
+    <row r="35" spans="1:8" ht="15.75">
+      <c r="B35" s="91"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
       <c r="E36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="87"/>
-      <c r="C38" s="88"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="57"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="92">
+    <row r="39" spans="1:8" s="2" customFormat="1">
+      <c r="A39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="92">
         <v>44929</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B40" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="94">
-        <f>SUM(D40:D45)</f>
+      <c r="C40" s="72"/>
+      <c r="D40" s="94">
+        <f>SUM(D41:D46)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="94">
-        <f>SUM(E40:E45)</f>
+      <c r="E40" s="94">
+        <f>SUM(E41:E46)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="57"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="87"/>
-      <c r="B40" s="85" t="s">
+      <c r="H40" s="57"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="87"/>
+      <c r="B41" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="57"/>
-      <c r="H40" s="57"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="57"/>
@@ -6287,15 +6343,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="57"/>
       <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1"/>
       <c r="F44" s="57"/>
@@ -6303,149 +6360,177 @@
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="85"/>
+        <v>106</v>
+      </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="85"/>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
     </row>
     <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
       <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="78"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="85"/>
       <c r="F46" s="57"/>
       <c r="G46" s="57"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="65"/>
+    <row r="47" spans="1:8">
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="B49" s="82"/>
+      <c r="B49" s="65"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="72"/>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="82"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="72"/>
+      <c r="B51" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="74">
-        <f>SUM(E51:E62)</f>
-        <v>-2881.3999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="74">
+        <f>SUM(E52:E63)</f>
+        <v>-3331.3999999999996</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B52" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="85">
-        <v>7648.33</v>
-      </c>
-      <c r="D52" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="78">
-        <v>-849.81</v>
-      </c>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="289">
-        <v>45348</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C53">
-        <v>1406</v>
+      <c r="A53" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B53" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="85">
+        <v>7648.33</v>
       </c>
       <c r="D53" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="E53" s="101">
-        <v>-234.33</v>
+        <v>151</v>
+      </c>
+      <c r="E53" s="78">
+        <v>-849.81</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="289">
-        <v>45373</v>
+        <v>45348</v>
       </c>
       <c r="B54" t="s">
-        <v>1139</v>
+        <v>1100</v>
       </c>
       <c r="C54">
-        <v>10176.39</v>
-      </c>
-      <c r="D54" s="98" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E54" s="98">
-        <v>-1130.71</v>
+        <v>1406</v>
+      </c>
+      <c r="D54" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="E54" s="101">
+        <v>-234.33</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="289">
-        <v>45375</v>
+        <v>45373</v>
       </c>
       <c r="B55" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="C55">
-        <v>5999</v>
+        <v>10176.39</v>
       </c>
       <c r="D55" s="98" t="s">
-        <v>429</v>
+        <v>1141</v>
       </c>
       <c r="E55" s="98">
-        <v>-666.55</v>
+        <v>-1130.71</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C56">
+        <v>5999</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="E56" s="98">
+        <v>-666.55</v>
+      </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="87"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
+      <c r="A57" s="289">
+        <v>45358</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C57">
+        <v>2273</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>430</v>
+      </c>
+      <c r="E57" s="98">
+        <v>-378.87</v>
+      </c>
+      <c r="F57" s="98"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="87"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
+      <c r="A58" s="289">
+        <v>45371</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D58" s="98" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E58" s="98">
+        <v>101.77</v>
+      </c>
+      <c r="F58" s="98"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="87"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="57"/>
+      <c r="A59" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D59" s="98" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E59" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
       <c r="H59" s="57"/>
@@ -6463,6 +6548,8 @@
     <row r="61" spans="1:8">
       <c r="A61" s="87"/>
       <c r="B61" s="96"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
       <c r="E61" s="57"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
@@ -6471,8 +6558,6 @@
     <row r="62" spans="1:8">
       <c r="A62" s="87"/>
       <c r="B62" s="96"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
       <c r="E62" s="57"/>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
@@ -6480,7 +6565,9 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="87"/>
-      <c r="B63" s="7"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
       <c r="E63" s="57"/>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
@@ -6488,66 +6575,58 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="87"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
+      <c r="B64" s="7"/>
       <c r="E64" s="57"/>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="72"/>
-      <c r="B65" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="74">
-        <f>SUM(E66:E74)</f>
-        <v>-4151.46</v>
-      </c>
+      <c r="A65" s="87"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="87"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="E66" s="78"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="74">
+        <f>SUM(E67:E75)</f>
+        <v>-4151.46</v>
+      </c>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B67" s="85" t="s">
-        <v>134</v>
-      </c>
+      <c r="A67" s="87"/>
+      <c r="B67" s="85"/>
       <c r="C67" s="85"/>
-      <c r="D67" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="78">
-        <v>-3551.66</v>
-      </c>
+      <c r="E67" s="78"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="87"/>
-      <c r="B68" s="7" t="s">
-        <v>129</v>
+      <c r="A68" s="3">
+        <v>45285</v>
+      </c>
+      <c r="B68" s="85" t="s">
+        <v>134</v>
       </c>
       <c r="C68" s="85"/>
-      <c r="D68" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" s="98">
-        <v>-649.78</v>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="78">
+        <v>-3551.66</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
@@ -6556,14 +6635,14 @@
     <row r="69" spans="1:8">
       <c r="A69" s="87"/>
       <c r="B69" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C69" s="85"/>
       <c r="D69" s="97" t="s">
         <v>153</v>
       </c>
       <c r="E69" s="98">
-        <v>49.98</v>
+        <v>-649.78</v>
       </c>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
@@ -6571,10 +6650,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="87"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="78"/>
+      <c r="D70" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="98">
+        <v>49.98</v>
+      </c>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
@@ -6839,75 +6924,72 @@
       <c r="G96" s="57"/>
       <c r="H96" s="57"/>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="72"/>
-      <c r="B105" s="71" t="s">
+    <row r="97" spans="1:8">
+      <c r="A97" s="87"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="72"/>
+      <c r="B106" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="72"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="74">
-        <f>SUM(E106:E113)</f>
+      <c r="C106" s="72"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="74">
+        <f>SUM(E107:E114)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="87"/>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:8">
       <c r="A107" s="87"/>
       <c r="B107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="87"/>
       <c r="B108" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="87"/>
       <c r="B109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="87"/>
       <c r="B110" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110">
-        <v>111</v>
-      </c>
-      <c r="E110">
-        <f>D110*C110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="87"/>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D111">
-        <v>850</v>
+        <v>111</v>
       </c>
       <c r="E111">
         <f>D111*C111</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:8">
       <c r="A112" s="87"/>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D112">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="E112">
         <f>D112*C112</f>
@@ -6917,24 +6999,37 @@
     <row r="113" spans="1:5">
       <c r="A113" s="87"/>
       <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+      <c r="E113">
+        <f>D113*C113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="87"/>
+      <c r="B114" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="B114" t="s">
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="E114" s="57">
+      <c r="E115" s="57">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="D116" s="64" t="s">
+    <row r="117" spans="1:5">
+      <c r="D117" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E116">
-        <f>SUM(E106:E115)</f>
+      <c r="E117">
+        <f>SUM(E107:E116)</f>
         <v>0</v>
       </c>
     </row>
@@ -6953,10 +7048,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6988,256 +7083,264 @@
         <v>77</v>
       </c>
       <c r="D2" s="98">
-        <f>SUM(D4:D34)</f>
+        <f>SUM(D5:D33)</f>
         <v>32500</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E4:E34)</f>
-        <v>-47027.8</v>
+        <f>SUM(E5:E33)</f>
+        <v>-49096.99</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F4:F34)</f>
+        <f>SUM(F5:F33)</f>
         <v>0</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G4:G34)</f>
-        <v>0</v>
+        <f>SUM(G5:G33)</f>
+        <v>-169.28</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>0</v>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="64"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="35" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="289">
+        <v>45339</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E5" s="98">
+        <v>-250</v>
+      </c>
+      <c r="H5" s="98">
+        <f>H4+F5+G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="98">
+      <c r="C6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E6" s="98">
         <v>-152</v>
       </c>
-      <c r="H4" s="98">
-        <f t="shared" ref="H4:H32" si="0">H3+F4+G4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="98">
-        <v>-10000</v>
-      </c>
-      <c r="H5" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="E6" s="98">
-        <v>-400</v>
+      <c r="G6" s="98">
+        <v>-169.28</v>
       </c>
       <c r="H6" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H5+F6+G6</f>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="289"/>
       <c r="B7" s="83" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="C7" s="83"/>
       <c r="E7" s="98">
+        <v>-1500</v>
+      </c>
+      <c r="H7" s="98">
+        <f t="shared" ref="H7:H13" si="0">H6+F7+G7</f>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="98">
+        <f>E81</f>
+        <v>-6551.44</v>
+      </c>
+      <c r="H8" s="98">
+        <f t="shared" si="0"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="289">
+        <v>45386</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="98">
+        <f>E49</f>
+        <v>-6693.55</v>
+      </c>
+      <c r="H9" s="98">
+        <f t="shared" si="0"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="289"/>
+      <c r="B10" s="35"/>
+      <c r="H10" s="98">
+        <f t="shared" si="0"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="98">
+        <v>-10000</v>
+      </c>
+      <c r="H11" s="98">
+        <f t="shared" si="0"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="E12" s="98">
+        <v>-400</v>
+      </c>
+      <c r="H12" s="98">
+        <f t="shared" si="0"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="E13" s="98">
         <v>-500</v>
       </c>
-      <c r="H7" s="98">
-        <f t="shared" si="0"/>
+      <c r="H13" s="98">
+        <f t="shared" si="0"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="98">
+        <v>-150</v>
+      </c>
+      <c r="H14" s="98">
+        <f>H13+F14+G14</f>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="98">
+        <v>-300</v>
+      </c>
+      <c r="H15" s="98">
+        <f t="shared" ref="H15:H25" si="1">H14+F15+G15</f>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="98">
+        <v>-100</v>
+      </c>
+      <c r="H16" s="98">
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="98">
+        <f>E44*-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="83" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E8" s="98">
-        <v>-250</v>
-      </c>
-      <c r="H8" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="H9" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="98">
-        <v>-150</v>
-      </c>
-      <c r="H10" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="98">
-        <v>-300</v>
-      </c>
-      <c r="H11" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="98">
-        <v>-100</v>
-      </c>
-      <c r="H12" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="H13" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="98">
-        <f>E45*-1</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="98">
-        <f>E50</f>
-        <v>-6374.36</v>
-      </c>
-      <c r="H15" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="H17" s="98">
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="98">
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" s="98">
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="87">
         <v>45173</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="98">
-        <f>E74</f>
-        <v>-4801.4399999999996</v>
-      </c>
-      <c r="H16" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="87">
-        <v>45173</v>
-      </c>
-      <c r="B17" s="83" t="s">
+      <c r="B20" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="E17" s="98">
+      <c r="C20" s="83"/>
+      <c r="E20" s="98">
         <v>-5375</v>
       </c>
-      <c r="H17" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="87"/>
-      <c r="B18" s="83" t="s">
+      <c r="H20" s="98">
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="87"/>
+      <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="E18" s="98">
+      <c r="C21" s="83"/>
+      <c r="E21" s="98">
         <v>-2125</v>
       </c>
-      <c r="H18" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="83"/>
-      <c r="E19" s="98">
-        <v>-1500</v>
-      </c>
-      <c r="H19" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="H20" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
       <c r="H21" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="H22" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7245,8 +7348,8 @@
         <v>1</v>
       </c>
       <c r="H23" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7257,8 +7360,8 @@
         <v>-5000</v>
       </c>
       <c r="H24" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7269,8 +7372,8 @@
         <v>-5000</v>
       </c>
       <c r="H25" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7281,282 +7384,305 @@
         <v>-5000</v>
       </c>
       <c r="H26" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H26:H31" si="2">H25+F26+G26</f>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="98">
+        <v>10000</v>
+      </c>
       <c r="H27" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="28" spans="1:8">
+      <c r="A28" s="87"/>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="98">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="H28" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="87"/>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D29" s="98">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="H29" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="87"/>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="98">
-        <v>15000</v>
-      </c>
       <c r="H30" s="98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" s="98">
+        <f t="shared" si="2"/>
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
+      <c r="B33" s="91"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1">
+      <c r="A37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="92">
+        <v>44929</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="98">
+        <f>SUM(D39:D44)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="87"/>
-      <c r="H31" s="98">
-        <f t="shared" si="0"/>
+      <c r="E38" s="98">
+        <f>SUM(E39:E44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="H32" s="98">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" s="91"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="92">
-        <v>44929</v>
-      </c>
-      <c r="B39" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="98">
-        <f>SUM(D40:D45)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="98">
-        <f>SUM(E40:E45)</f>
-        <v>0</v>
-      </c>
+      <c r="A39" s="87"/>
+      <c r="B39" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="87"/>
-      <c r="B40" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C44" s="85"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
       <c r="C45" s="85"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="C46" s="85"/>
+    <row r="47" spans="1:8">
+      <c r="B47" s="65"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="65"/>
+      <c r="B48" s="82"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="B49" s="82"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="72"/>
-      <c r="B50" s="71" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="E50" s="98">
-        <f>SUM(E51:E71)</f>
-        <v>-6374.36</v>
+      <c r="C49" s="72"/>
+      <c r="E49" s="98">
+        <f>SUM(E50:E75)</f>
+        <v>-6693.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B51" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="85">
+        <v>7648.33</v>
+      </c>
+      <c r="D51" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="98">
+        <v>-849.81</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B52" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="85">
-        <v>7648.33</v>
+      <c r="A52" s="289">
+        <v>45348</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C52">
+        <v>1406</v>
       </c>
       <c r="D52" s="98" t="s">
-        <v>158</v>
+        <v>469</v>
       </c>
       <c r="E52" s="98">
-        <v>-849.81</v>
+        <v>-234.33</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="289">
-        <v>45348</v>
+        <v>45358</v>
       </c>
       <c r="B53" t="s">
-        <v>1100</v>
+        <v>1126</v>
       </c>
       <c r="C53">
-        <v>1406</v>
+        <v>2273</v>
       </c>
       <c r="D53" s="98" t="s">
         <v>469</v>
       </c>
       <c r="E53" s="98">
-        <v>-234.33</v>
+        <v>-378.87</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="289">
-        <v>45358</v>
+        <v>45371</v>
       </c>
       <c r="B54" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C54">
-        <v>2273</v>
+        <v>1151</v>
       </c>
       <c r="D54" s="98" t="s">
-        <v>469</v>
+        <v>1155</v>
       </c>
       <c r="E54" s="98">
-        <v>-378.87</v>
+        <v>101.77</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="289"/>
+      <c r="A55" s="289">
+        <v>45373</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C55">
+        <v>10176.39</v>
+      </c>
+      <c r="D55" s="98" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E55" s="98">
+        <v>-1130.71</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="289">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B56" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="C56">
-        <v>10176.39</v>
+        <v>5999</v>
       </c>
       <c r="D56" s="98" t="s">
         <v>1140</v>
       </c>
       <c r="E56" s="98">
-        <v>-1130.71</v>
+        <v>-666.56</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="289">
-        <v>45375</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C57">
-        <v>5999</v>
-      </c>
-      <c r="D57" s="98" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E57" s="98">
-        <v>-666.55</v>
+      <c r="A57" s="289"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="289">
+        <v>45347</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E58" s="98">
+        <v>-343</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="289">
-        <v>45347</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1101</v>
-      </c>
+      <c r="A59" s="87">
+        <v>45348</v>
+      </c>
+      <c r="B59" s="85" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C59" s="85"/>
       <c r="E59" s="98">
-        <v>-343</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="87">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C60" s="85"/>
+        <v>246</v>
+      </c>
+      <c r="C60" s="295">
+        <f>E60</f>
+        <v>-86.95</v>
+      </c>
       <c r="E60" s="98">
-        <v>-150</v>
+        <v>-86.95</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="87">
-        <v>45351</v>
-      </c>
-      <c r="B61" s="85" t="s">
-        <v>246</v>
+        <v>45353</v>
+      </c>
+      <c r="B61" s="96" t="s">
+        <v>406</v>
       </c>
       <c r="C61" s="85"/>
       <c r="E61" s="98">
-        <v>-86.95</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -7564,279 +7690,339 @@
         <v>45353</v>
       </c>
       <c r="B62" s="96" t="s">
-        <v>406</v>
+        <v>1137</v>
       </c>
       <c r="C62" s="85"/>
       <c r="E62" s="98">
-        <v>-500</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="87">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B63" s="96" t="s">
-        <v>1137</v>
+        <v>674</v>
       </c>
       <c r="C63" s="85"/>
       <c r="E63" s="98">
-        <v>-600</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="87">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B64" s="96" t="s">
-        <v>674</v>
-      </c>
-      <c r="C64" s="85"/>
+        <v>403</v>
+      </c>
+      <c r="C64" s="295">
+        <f>E64</f>
+        <v>-200</v>
+      </c>
       <c r="E64" s="98">
-        <v>-330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="87">
         <v>45355</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>403</v>
+        <v>712</v>
       </c>
       <c r="C65" s="85"/>
       <c r="E65" s="98">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="87">
+        <v>45356</v>
+      </c>
+      <c r="B66" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C66" s="295">
+        <f>E66</f>
         <v>-200</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="87">
-        <v>45355</v>
-      </c>
-      <c r="B66" s="96" t="s">
-        <v>712</v>
-      </c>
-      <c r="C66" s="85"/>
       <c r="E66" s="98">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="87">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B67" s="96" t="s">
-        <v>403</v>
+        <v>1138</v>
       </c>
       <c r="C67" s="85"/>
       <c r="E67" s="98">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="87">
         <v>45357</v>
       </c>
       <c r="B68" s="96" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C68" s="85"/>
-      <c r="E68" s="98">
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="C68" s="85">
+        <v>6341.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="87">
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="B69" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="85">
-        <v>6341.66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="E69" s="98">
+        <v>-294.14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="87">
-        <v>45361</v>
+        <v>45358</v>
       </c>
       <c r="B70" s="96" t="s">
-        <v>211</v>
+        <v>403</v>
+      </c>
+      <c r="C70" s="295">
+        <f>E70</f>
+        <v>-200</v>
       </c>
       <c r="E70" s="98">
-        <v>-294.14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="87">
-        <v>45358</v>
-      </c>
-      <c r="B71" s="96" t="s">
-        <v>403</v>
-      </c>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="87"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="85"/>
       <c r="E71" s="98">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="87"/>
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-3.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="87">
+        <v>45376</v>
+      </c>
+      <c r="B72" s="96" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C72" s="85"/>
+      <c r="E72" s="98">
+        <v>-874.19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="87"/>
-      <c r="B73" s="85"/>
+      <c r="B73" s="96"/>
       <c r="C73" s="85"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="72"/>
-      <c r="B74" s="71" t="s">
+      <c r="E73" s="98">
+        <v>-43.71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="87">
+        <v>45374</v>
+      </c>
+      <c r="B74" s="96" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C74" s="85"/>
+      <c r="E74" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15">
+      <c r="A75" s="87">
+        <v>45374</v>
+      </c>
+      <c r="B75" s="96" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D75" s="109" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A76" s="309"/>
+      <c r="B76" s="313" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C76" s="311">
+        <v>686.95</v>
+      </c>
+      <c r="D76" s="299"/>
+      <c r="E76" s="312"/>
+      <c r="F76" s="312"/>
+      <c r="G76" s="312"/>
+      <c r="H76" s="312"/>
+    </row>
+    <row r="77" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A77" s="309"/>
+      <c r="B77" s="310"/>
+      <c r="D77" s="299"/>
+      <c r="E77" s="312"/>
+      <c r="F77" s="312"/>
+      <c r="G77" s="312"/>
+      <c r="H77" s="312"/>
+    </row>
+    <row r="78" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A78" s="309"/>
+      <c r="B78" s="310"/>
+      <c r="D78" s="299"/>
+      <c r="E78" s="312"/>
+      <c r="F78" s="312"/>
+      <c r="G78" s="312"/>
+      <c r="H78" s="312"/>
+    </row>
+    <row r="79" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A79" s="309"/>
+      <c r="B79" s="310"/>
+      <c r="D79" s="299"/>
+      <c r="E79" s="312"/>
+      <c r="F79" s="312"/>
+      <c r="G79" s="312"/>
+      <c r="H79" s="312"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="87"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="72"/>
+      <c r="B81" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="E74" s="98">
-        <f>SUM(E75:E83)</f>
-        <v>-4801.4399999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="87"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="3">
+      <c r="C81" s="72"/>
+      <c r="E81" s="98">
+        <f>SUM(E82:E89)</f>
+        <v>-6551.44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="87"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3">
         <v>45214</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B83" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="98" t="s">
+      <c r="D83" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="E76" s="98">
+      <c r="E83" s="98">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="3">
+    <row r="84" spans="1:5">
+      <c r="A84" s="3">
         <v>45285</v>
       </c>
-      <c r="B77" s="85" t="s">
+      <c r="B84" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="85"/>
-      <c r="D77" s="98" t="s">
+      <c r="C84" s="85"/>
+      <c r="D84" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="E77" s="98">
+      <c r="E84" s="98">
         <v>-3551.66</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="87"/>
-      <c r="B78" s="7" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="87"/>
+      <c r="B85" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="98" t="s">
+      <c r="C85" s="85"/>
+      <c r="D85" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="E78" s="98">
+      <c r="E85" s="98">
         <v>-649.78</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="87"/>
-      <c r="B79" s="7" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="87"/>
+      <c r="B86" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="85">
+      <c r="C86" s="85">
         <v>49.98</v>
       </c>
-      <c r="D79" s="98" t="s">
+      <c r="D86" s="98" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="87"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="85"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="87"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="85"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="87"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="85"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="87"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="85"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="87"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="85"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="87"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="85"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="87"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="85"/>
-    </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:5">
       <c r="A87" s="87"/>
       <c r="B87" s="7"/>
       <c r="C87" s="85"/>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="87"/>
-      <c r="B88" s="7"/>
+    <row r="88" spans="1:5">
+      <c r="A88" s="87">
+        <v>45374</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>1156</v>
+      </c>
       <c r="C88" s="85"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="E88" s="98">
+        <v>-1750</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
       <c r="A89" s="87"/>
       <c r="B89" s="7"/>
       <c r="C89" s="85"/>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="109" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="87"/>
       <c r="B90" s="7"/>
       <c r="C90" s="85"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:5">
       <c r="A91" s="87"/>
       <c r="B91" s="7"/>
       <c r="C91" s="85"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:5">
       <c r="A92" s="87"/>
       <c r="B92" s="7"/>
       <c r="C92" s="85"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:5">
       <c r="A93" s="87"/>
       <c r="B93" s="7"/>
       <c r="C93" s="85"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:5">
       <c r="A94" s="87"/>
       <c r="B94" s="7"/>
       <c r="C94" s="85"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:5">
       <c r="A95" s="87"/>
       <c r="B95" s="7"/>
       <c r="C95" s="85"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:5">
       <c r="A96" s="87"/>
       <c r="B96" s="7"/>
       <c r="C96" s="85"/>
@@ -7886,102 +8072,132 @@
       <c r="B105" s="7"/>
       <c r="C105" s="85"/>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="72"/>
-      <c r="B114" s="71" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="87"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="85"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="87"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="85"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="87"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="85"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="87"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="85"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="87"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="85"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="87"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="85"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="72"/>
+      <c r="B120" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="72"/>
-      <c r="E114" s="98">
-        <f>SUM(E115:E122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="87"/>
-      <c r="B115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="87"/>
-      <c r="B116" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="87"/>
-      <c r="B117" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="87"/>
-      <c r="B118" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="87"/>
-      <c r="B119" t="s">
-        <v>111</v>
-      </c>
-      <c r="D119" s="98">
-        <v>111</v>
-      </c>
-      <c r="E119" s="98">
-        <f>D119*C119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="87"/>
-      <c r="B120" t="s">
-        <v>112</v>
-      </c>
-      <c r="D120" s="98">
-        <v>850</v>
-      </c>
+      <c r="C120" s="72"/>
       <c r="E120" s="98">
-        <f>D120*C120</f>
+        <f>SUM(E121:E128)</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="87"/>
       <c r="B121" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" s="98">
-        <v>100</v>
-      </c>
-      <c r="E121" s="98">
-        <f>D121*C121</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="87"/>
       <c r="B122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="87"/>
+      <c r="B123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="87"/>
+      <c r="B124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="87"/>
+      <c r="B125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125" s="98">
+        <v>111</v>
+      </c>
+      <c r="E125" s="98">
+        <f>D125*C125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="87"/>
+      <c r="B126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="98">
+        <v>850</v>
+      </c>
+      <c r="E126" s="98">
+        <f>D126*C126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="87"/>
+      <c r="B127" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127" s="98">
+        <v>100</v>
+      </c>
+      <c r="E127" s="98">
+        <f>D127*C127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="87"/>
+      <c r="B128" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="B123" t="s">
+    <row r="129" spans="2:5">
+      <c r="B129" t="s">
         <v>115</v>
       </c>
-      <c r="E123" s="98">
+      <c r="E129" s="98">
         <f>H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="D125" s="98" t="s">
+        <v>-169.28</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="D131" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E125" s="98">
-        <f>SUM(E115:E124)</f>
-        <v>0</v>
+      <c r="E131" s="98">
+        <f>SUM(E121:E130)</f>
+        <v>-169.28</v>
       </c>
     </row>
   </sheetData>
@@ -8001,8 +8217,8 @@
   </sheetPr>
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -8321,7 +8537,7 @@
         <v>-225.66</v>
       </c>
       <c r="F16" s="308"/>
-      <c r="G16" s="308">
+      <c r="G16" s="292">
         <f>-225.66</f>
         <v>-225.66</v>
       </c>
@@ -8345,7 +8561,7 @@
         <v>-300</v>
       </c>
       <c r="F17" s="308"/>
-      <c r="G17" s="308">
+      <c r="G17" s="292">
         <v>-1083</v>
       </c>
       <c r="H17" s="292">
@@ -8368,7 +8584,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="308"/>
-      <c r="G18" s="308">
+      <c r="G18" s="292">
         <v>0</v>
       </c>
       <c r="H18" s="292">
@@ -8383,7 +8599,7 @@
       <c r="D19" s="298"/>
       <c r="E19" s="292"/>
       <c r="F19" s="308"/>
-      <c r="G19" s="308"/>
+      <c r="G19" s="292"/>
       <c r="H19" s="292">
         <f t="shared" si="0"/>
         <v>-93523.16</v>
@@ -8396,7 +8612,7 @@
       <c r="D20" s="298"/>
       <c r="E20" s="292"/>
       <c r="F20" s="308"/>
-      <c r="G20" s="308"/>
+      <c r="G20" s="292"/>
       <c r="H20" s="292">
         <f t="shared" si="0"/>
         <v>-93523.16</v>
@@ -8412,7 +8628,7 @@
         <v>-400</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="78"/>
+      <c r="G21" s="292"/>
       <c r="H21" s="292">
         <f t="shared" si="0"/>
         <v>-93523.16</v>
@@ -8428,7 +8644,7 @@
         <v>-500</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="78"/>
+      <c r="G22" s="292"/>
       <c r="H22" s="292">
         <f t="shared" si="0"/>
         <v>-93523.16</v>
@@ -8439,7 +8655,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
+      <c r="G23" s="292"/>
       <c r="H23" s="292">
         <f t="shared" si="0"/>
         <v>-93523.16</v>
@@ -8452,7 +8668,7 @@
       </c>
       <c r="C24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="292"/>
       <c r="H24" s="98">
         <f t="shared" ref="H24:H34" si="1">H23+F24+G24</f>
         <v>-93523.16</v>
@@ -8468,7 +8684,7 @@
         <v>-5000</v>
       </c>
       <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
+      <c r="G25" s="292"/>
       <c r="H25" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
@@ -8484,7 +8700,7 @@
         <v>-5000</v>
       </c>
       <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
+      <c r="G26" s="292"/>
       <c r="H26" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
@@ -8500,7 +8716,7 @@
         <v>-5000</v>
       </c>
       <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
+      <c r="G27" s="292"/>
       <c r="H27" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
@@ -8518,7 +8734,7 @@
       <c r="F28" s="78">
         <v>0</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="292"/>
       <c r="H28" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
@@ -8534,7 +8750,7 @@
         <v>2800</v>
       </c>
       <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
+      <c r="G29" s="292"/>
       <c r="H29" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
@@ -8543,7 +8759,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="150"/>
       <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
+      <c r="G30" s="292"/>
       <c r="H30" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
@@ -8558,7 +8774,7 @@
       <c r="D31" s="82">
         <v>8500</v>
       </c>
-      <c r="G31" s="57"/>
+      <c r="G31" s="292"/>
       <c r="H31" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
@@ -8573,7 +8789,7 @@
         <v>15000</v>
       </c>
       <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
+      <c r="G32" s="292"/>
       <c r="H32" s="98">
         <f t="shared" si="1"/>
         <v>-93523.16</v>
@@ -8587,7 +8803,7 @@
         <v>1129</v>
       </c>
       <c r="F33" s="57"/>
-      <c r="G33" s="78">
+      <c r="G33" s="292">
         <v>-2273.0700000000002</v>
       </c>
       <c r="H33" s="98">
@@ -8603,7 +8819,7 @@
         <v>1136</v>
       </c>
       <c r="F34" s="57"/>
-      <c r="G34" s="57">
+      <c r="G34" s="292">
         <v>-103.5</v>
       </c>
       <c r="H34" s="98">
@@ -9786,11 +10002,11 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF9BC2E6"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -11770,12 +11986,12 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF9BC2E6"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -12250,14 +12466,16 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="87"/>
-      <c r="B32" t="s">
+      <c r="A32" s="316"/>
+      <c r="B32" s="317" t="s">
         <v>228</v>
       </c>
-      <c r="D32" s="101">
+      <c r="C32" s="318"/>
+      <c r="D32" s="318">
         <v>7000</v>
       </c>
-      <c r="F32" s="103"/>
+      <c r="E32" s="318"/>
+      <c r="F32" s="319"/>
       <c r="H32" s="101">
         <f t="shared" si="0"/>
         <v>-32765.629999999997</v>
@@ -12796,6 +13014,10 @@
       <c r="B89" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C89" s="101">
+        <f>E89</f>
+        <v>-105.12</v>
+      </c>
       <c r="E89" s="101">
         <v>-105.12</v>
       </c>
@@ -12807,6 +13029,10 @@
       <c r="B90" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C90" s="101">
+        <f>E90</f>
+        <v>-58.63</v>
+      </c>
       <c r="E90" s="101">
         <v>-58.63</v>
       </c>
@@ -12829,6 +13055,10 @@
       <c r="B92" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C92" s="101">
+        <f>E92</f>
+        <v>-70</v>
+      </c>
       <c r="E92" s="101">
         <v>-70</v>
       </c>
@@ -12840,6 +13070,10 @@
       <c r="B93" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C93" s="101">
+        <f>E93</f>
+        <v>-76.66</v>
+      </c>
       <c r="E93" s="101">
         <v>-76.66</v>
       </c>
@@ -12862,6 +13096,10 @@
       <c r="B95" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C95" s="101">
+        <f>E95</f>
+        <v>-370</v>
+      </c>
       <c r="E95" s="101">
         <v>-370</v>
       </c>
@@ -12884,6 +13122,10 @@
       <c r="B97" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C97" s="101">
+        <f>E97</f>
+        <v>-250</v>
+      </c>
       <c r="E97" s="101">
         <v>-250</v>
       </c>
@@ -12917,6 +13159,10 @@
       <c r="B100" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C100" s="101">
+        <f>E100</f>
+        <v>-150</v>
+      </c>
       <c r="E100" s="101">
         <v>-150</v>
       </c>
@@ -12939,6 +13185,10 @@
       <c r="B102" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C102" s="101">
+        <f>E102</f>
+        <v>-150</v>
+      </c>
       <c r="E102" s="101">
         <v>-150</v>
       </c>
@@ -12983,6 +13233,10 @@
       <c r="B106" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C106" s="101">
+        <f>E106</f>
+        <v>-200</v>
+      </c>
       <c r="E106" s="101">
         <v>-200</v>
       </c>
@@ -12994,6 +13248,10 @@
       <c r="B107" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C107" s="101">
+        <f>E107</f>
+        <v>-200</v>
+      </c>
       <c r="E107" s="101">
         <v>-200</v>
       </c>
@@ -13016,6 +13274,10 @@
       <c r="B109" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C109" s="101">
+        <f>E109</f>
+        <v>-200</v>
+      </c>
       <c r="E109" s="101">
         <v>-200</v>
       </c>
@@ -13027,6 +13289,10 @@
       <c r="B110" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C110" s="101">
+        <f>E110</f>
+        <v>-250</v>
+      </c>
       <c r="E110" s="101">
         <v>-250</v>
       </c>
@@ -13038,6 +13304,10 @@
       <c r="B111" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C111" s="101">
+        <f>E111</f>
+        <v>-160</v>
+      </c>
       <c r="E111" s="101">
         <v>-160</v>
       </c>
@@ -13049,6 +13319,10 @@
       <c r="B112" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="C112" s="101">
+        <f>E112</f>
+        <v>-160</v>
+      </c>
       <c r="E112" s="101">
         <v>-160</v>
       </c>
@@ -13056,6 +13330,15 @@
     <row r="113" spans="1:5">
       <c r="D113" s="101" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" s="64" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C114" s="101">
+        <f>SUM(C89:C113)</f>
+        <v>-2400.41</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -18767,10 +19050,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="309" t="s">
+      <c r="L1" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="309"/>
+      <c r="M1" s="314"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -18968,11 +19251,11 @@
       </c>
       <c r="C6" s="26">
         <f>'04_24'!E2</f>
-        <v>-47027.8</v>
+        <v>-49096.99</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>149148.37</v>
+        <v>147079.18</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -18980,11 +19263,11 @@
       </c>
       <c r="F6" s="26">
         <f>'04_24'!G2</f>
-        <v>0</v>
+        <v>-169.28</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-16656.459999999977</v>
+        <v>-16825.739999999976</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -18992,12 +19275,12 @@
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="36">
+      <c r="M6" s="36" t="e">
         <f>E18/1000</f>
-        <v>20.855220000000003</v>
+        <v>#REF!</v>
       </c>
       <c r="N6">
-        <f>'04_24'!E120/1000</f>
+        <f>'04_24'!E126/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -19011,11 +19294,11 @@
       </c>
       <c r="C7" s="26">
         <f>'05_24'!E2</f>
-        <v>-42884.86</v>
+        <v>-43084.86</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>138763.51</v>
+        <v>136494.32</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -19027,7 +19310,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-16656.459999999977</v>
+        <v>-16825.739999999976</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -19040,7 +19323,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>'05_24'!E111/1000</f>
+        <f>'05_24'!E112/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -19054,11 +19337,11 @@
       </c>
       <c r="C8" s="26">
         <f>'06_24'!E2</f>
-        <v>-48104.86</v>
+        <v>-48554.86</v>
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>123158.65000000001</v>
+        <v>120439.46</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -19070,7 +19353,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-16656.459999999977</v>
+        <v>-16825.739999999976</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -19100,11 +19383,11 @@
       </c>
       <c r="C9" s="26">
         <f>'07_24'!E2</f>
-        <v>-47255.05</v>
+        <v>-47705.05</v>
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>113403.6</v>
+        <v>110234.41</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -19116,7 +19399,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-18462.319999999978</v>
+        <v>-18631.599999999977</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -19149,11 +19432,11 @@
       </c>
       <c r="C10" s="26">
         <f>'08_24'!E2</f>
-        <v>-43703.39</v>
+        <v>-44153.39</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>251200.21</v>
+        <v>247581.02</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -19165,7 +19448,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-18462.319999999978</v>
+        <v>-18631.599999999977</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -19195,11 +19478,11 @@
       </c>
       <c r="C11" s="26">
         <f>'09_24'!E2</f>
-        <v>-43103.59</v>
+        <v>-43553.59</v>
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>389596.62</v>
+        <v>385527.43</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -19211,7 +19494,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-18462.319999999978</v>
+        <v>-18631.599999999977</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -19244,11 +19527,11 @@
       </c>
       <c r="C12" s="26">
         <f>'10_24'!E2</f>
-        <v>-142869.26</v>
+        <v>-143042.16</v>
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>404227.36</v>
+        <v>399985.27</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -19260,7 +19543,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-18462.319999999978</v>
+        <v>-18631.599999999977</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -19293,11 +19576,11 @@
       </c>
       <c r="C13" s="26">
         <f>'11_24'!E2</f>
-        <v>-42869.26</v>
+        <v>-43042.16</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>648858.1</v>
+        <v>644443.11</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -19309,7 +19592,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-18462.319999999978</v>
+        <v>-18631.599999999977</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -19342,11 +19625,11 @@
       </c>
       <c r="C14" s="26">
         <f>'12_24'!E2</f>
-        <v>-43900.020000000004</v>
+        <v>-44245.82</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>642458.07999999996</v>
+        <v>637697.29</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -19358,7 +19641,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-18462.319999999978</v>
+        <v>-18631.599999999977</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -19391,11 +19674,11 @@
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
-        <v>-734106.52</v>
+        <v>-738867.30999999994</v>
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>642458.08000000007</v>
+        <v>637697.29000000015</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
@@ -19403,11 +19686,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-240417.53999999998</v>
+        <v>-240586.81999999998</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-18462.319999999949</v>
+        <v>-18631.599999999948</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -19423,9 +19706,9 @@
         <f>SUM(L4:L14)</f>
         <v>945.0653759999999</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="46" t="e">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>442.85522000000003</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -19438,7 +19721,7 @@
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
-        <v>-61175.543333333335</v>
+        <v>-61572.275833333326</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
@@ -19447,11 +19730,11 @@
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-20034.794999999998</v>
+        <v>-20048.901666666665</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-1538.5266666666623</v>
+        <v>-1552.6333333333289</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
@@ -19467,9 +19750,9 @@
         <f>L15/12</f>
         <v>78.755447999999987</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="55" t="e">
         <f>M15/12</f>
-        <v>36.904601666666672</v>
+        <v>#REF!</v>
       </c>
       <c r="N16" s="56">
         <f>AVERAGE(N2:N15)</f>
@@ -19485,28 +19768,28 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="310">
+      <c r="L17" s="315" t="e">
         <f>L15+M15</f>
-        <v>1387.9205959999999</v>
-      </c>
-      <c r="M17" s="310"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="315"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F28+'04_24'!F21+'05_24'!F20+'06_24'!F22</f>
-        <v>20855.22</v>
+      <c r="E18" s="1" t="e">
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F28+'04_24'!#REF!+'05_24'!F21+'06_24'!F22</f>
+        <v>#REF!</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="59"/>
-      <c r="M18" s="60">
+      <c r="M18" s="60" t="e">
         <f>L17/12</f>
-        <v>115.66004966666667</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -19523,9 +19806,9 @@
       <c r="D20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="65" t="e">
         <f>SUM(E18:E19)</f>
-        <v>20855.22</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15">
@@ -35207,8 +35490,8 @@
   </sheetPr>
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -35247,7 +35530,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E39)</f>
-        <v>-43900.020000000004</v>
+        <v>-44245.82</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F39)</f>
@@ -35580,7 +35863,7 @@
       </c>
       <c r="E20" s="57">
         <f>E55</f>
-        <v>-1797.26</v>
+        <v>-2143.06</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
@@ -35943,7 +36226,7 @@
       <c r="D55" s="73"/>
       <c r="E55" s="74">
         <f>SUM(E56:E67)</f>
-        <v>-1797.26</v>
+        <v>-2143.06</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -35989,10 +36272,34 @@
       <c r="H58" s="57"/>
     </row>
     <row r="59" spans="1:8">
+      <c r="A59" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D59" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="G59" s="57"/>
       <c r="H59" s="57"/>
     </row>
     <row r="60" spans="1:8">
+      <c r="A60" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D60" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="G60" s="57"/>
       <c r="H60" s="57"/>
     </row>
@@ -46401,8 +46708,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E54" sqref="A54:E56"/>
+    <sheetView topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -46438,7 +46745,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-42869.26</v>
+        <v>-43042.16</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -46624,7 +46931,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-1797.26</v>
+        <v>-1970.16</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -46985,7 +47292,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-1797.26</v>
+        <v>-1970.16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -47031,9 +47338,18 @@
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="289"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
+      <c r="A54" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D54" s="98" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E54" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
@@ -51370,7 +51686,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -51406,7 +51722,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-142869.26</v>
+        <v>-143042.16</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -51592,7 +51908,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-1797.26</v>
+        <v>-1970.16</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -51955,7 +52271,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-1797.26</v>
+        <v>-1970.16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -52001,6 +52317,18 @@
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D54" s="98" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E54" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
@@ -52528,7 +52856,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -52564,7 +52892,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-43103.59</v>
+        <v>-43553.59</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -52750,7 +53078,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-2031.59</v>
+        <v>-2481.59</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -53111,7 +53439,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-2031.59</v>
+        <v>-2481.59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -53176,19 +53504,53 @@
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" s="289">
+        <v>45358</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C55">
+        <v>2273</v>
+      </c>
+      <c r="D55" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="98">
+        <v>-378.87</v>
+      </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" s="289">
+        <v>45371</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="98">
+        <v>101.77</v>
+      </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="87"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="57"/>
+      <c r="A57" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
@@ -53698,8 +54060,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -53735,7 +54097,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-43703.39</v>
+        <v>-44153.39</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -53921,7 +54283,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-2031.59</v>
+        <v>-2481.59</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -54282,7 +54644,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-2031.59</v>
+        <v>-2481.59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -54347,19 +54709,53 @@
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" s="289">
+        <v>45358</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C55">
+        <v>2273</v>
+      </c>
+      <c r="D55" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55" s="98">
+        <v>-378.87</v>
+      </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" s="289">
+        <v>45371</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="98">
+        <v>101.77</v>
+      </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="87"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="57"/>
+      <c r="A57" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
@@ -54882,7 +55278,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54918,7 +55314,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-47255.05</v>
+        <v>-47705.05</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -55104,7 +55500,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-2031.59</v>
+        <v>-2481.59</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -55465,7 +55861,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-2031.59</v>
+        <v>-2481.59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -55530,19 +55926,53 @@
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" s="289">
+        <v>45358</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C55">
+        <v>2273</v>
+      </c>
+      <c r="D55" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="98">
+        <v>-378.87</v>
+      </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" s="289">
+        <v>45371</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E56" s="98">
+        <v>101.77</v>
+      </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="87"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="57"/>
+      <c r="A57" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="E57" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
@@ -56072,8 +56502,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56109,7 +56539,7 @@
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
-        <v>-48104.86</v>
+        <v>-48554.86</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F4:F34)</f>
@@ -56295,7 +56725,7 @@
       </c>
       <c r="E15" s="57">
         <f>E50</f>
-        <v>-2881.3999999999996</v>
+        <v>-3331.3999999999996</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -56647,7 +57077,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="74">
         <f>SUM(E51:E62)</f>
-        <v>-2881.3999999999996</v>
+        <v>-3331.3999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -56740,31 +57170,55 @@
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="87"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="57"/>
+      <c r="A57" s="289">
+        <v>45358</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C57">
+        <v>2273</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="E57" s="98">
+        <v>-378.87</v>
+      </c>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="87"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="57"/>
+      <c r="A58" s="289">
+        <v>45371</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D58" s="98" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E58" s="98">
+        <v>101.77</v>
+      </c>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="87"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="57"/>
+      <c r="A59" s="289">
+        <v>45377</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D59" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="E59" s="98">
+        <v>-172.9</v>
+      </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
       <c r="H59" s="57"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF2169-7123-4400-B01D-FC9263C13A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCCE1D-94DE-4A48-A92B-29768849457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="1163">
   <si>
     <t>umut</t>
   </si>
@@ -3756,6 +3756,9 @@
   </si>
   <si>
     <t xml:space="preserve">  7– 9</t>
+  </si>
+  <si>
+    <t>NİSANa</t>
   </si>
 </sst>
 </file>
@@ -4697,7 +4700,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5148,14 +5151,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="175" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="23" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="2" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="2" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7048,10 +7059,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7059,7 +7070,7 @@
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="98" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.28515625" style="98"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
@@ -7116,10 +7127,12 @@
       <c r="C5" s="83" t="s">
         <v>1088</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="292">
         <v>-250</v>
       </c>
-      <c r="H5" s="98">
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292">
         <f>H4+F5+G5</f>
         <v>0</v>
       </c>
@@ -7134,13 +7147,14 @@
       <c r="C6" t="s">
         <v>1157</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="292">
         <v>-152</v>
       </c>
-      <c r="G6" s="98">
+      <c r="F6" s="292"/>
+      <c r="G6" s="292">
         <v>-169.28</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="292">
         <f>H5+F6+G6</f>
         <v>-169.28</v>
       </c>
@@ -8027,182 +8041,418 @@
       <c r="B96" s="7"/>
       <c r="C96" s="85"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:5">
       <c r="A97" s="87"/>
       <c r="B97" s="7"/>
       <c r="C97" s="85"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:5">
       <c r="A98" s="87"/>
       <c r="B98" s="7"/>
       <c r="C98" s="85"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:5">
       <c r="A99" s="87"/>
       <c r="B99" s="7"/>
       <c r="C99" s="85"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:5">
       <c r="A100" s="87"/>
       <c r="B100" s="7"/>
       <c r="C100" s="85"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:5">
       <c r="A101" s="87"/>
       <c r="B101" s="7"/>
       <c r="C101" s="85"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:5">
       <c r="A102" s="87"/>
       <c r="B102" s="7"/>
       <c r="C102" s="85"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:5">
       <c r="A103" s="87"/>
       <c r="B103" s="7"/>
       <c r="C103" s="85"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:5">
       <c r="A104" s="87"/>
       <c r="B104" s="7"/>
       <c r="C104" s="85"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:5">
       <c r="A105" s="87"/>
       <c r="B105" s="7"/>
       <c r="C105" s="85"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:5">
       <c r="A106" s="87"/>
       <c r="B106" s="7"/>
       <c r="C106" s="85"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:5">
       <c r="A107" s="87"/>
       <c r="B107" s="7"/>
       <c r="C107" s="85"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:5">
       <c r="A108" s="87"/>
       <c r="B108" s="7"/>
       <c r="C108" s="85"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:5">
       <c r="A109" s="87"/>
       <c r="B109" s="7"/>
       <c r="C109" s="85"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:5">
       <c r="A110" s="87"/>
       <c r="B110" s="7"/>
       <c r="C110" s="85"/>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="87"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="85"/>
+    <row r="111" spans="1:5">
+      <c r="A111" s="70" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="72">
+        <v>2024</v>
+      </c>
+      <c r="D111" s="73"/>
+      <c r="E111" s="74">
+        <f>SUM(E112:E130)</f>
+        <v>745852.05035699997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="303">
+        <v>45383</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="304"/>
+      <c r="D112" s="304"/>
+      <c r="E112" s="304">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="303">
+        <f>A112</f>
+        <v>45383</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C113" s="304"/>
+      <c r="D113" s="304"/>
+      <c r="E113" s="304">
+        <v>150845</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="75">
+        <f t="shared" ref="A114:A130" si="3">A113</f>
+        <v>45383</v>
+      </c>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="65">
+        <v>5039.78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B115" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="101"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B118" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="65">
+        <v>129254.5</v>
+      </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="72"/>
-      <c r="B120" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120" s="72"/>
-      <c r="E120" s="98">
-        <f>SUM(E121:E128)</f>
+      <c r="A120" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="65">
+        <v>256.56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C121" s="75" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D121" s="76"/>
+      <c r="E121" s="65">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="87"/>
-      <c r="B121" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="87"/>
+      <c r="A122" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B122" t="s">
-        <v>0</v>
+        <v>1110</v>
+      </c>
+      <c r="C122" s="75" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D122" s="76"/>
+      <c r="E122" s="65">
+        <v>588.6</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="87"/>
+      <c r="A123" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B123" t="s">
-        <v>59</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="C123" s="75"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="65"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="87"/>
+      <c r="A124" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="65">
+        <v>450</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="87"/>
+      <c r="A125" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B125" t="s">
-        <v>111</v>
-      </c>
-      <c r="D125" s="98">
-        <v>111</v>
-      </c>
-      <c r="E125" s="98">
+        <v>1118</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2017.98</v>
+      </c>
+      <c r="D125" s="1">
+        <v>161</v>
+      </c>
+      <c r="E125" s="65">
         <f>D125*C125</f>
-        <v>0</v>
+        <v>324894.78000000003</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="87"/>
+      <c r="A126" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B126" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126" s="98">
+        <v>1116</v>
+      </c>
+      <c r="C126" s="77">
+        <v>30.726199999999999</v>
+      </c>
+      <c r="D126" s="1">
         <v>850</v>
       </c>
-      <c r="E126" s="98">
+      <c r="E126" s="65">
         <f>D126*C126</f>
-        <v>0</v>
+        <v>26117.27</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="87"/>
+      <c r="A127" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B127" t="s">
-        <v>113</v>
-      </c>
-      <c r="D127" s="98">
-        <v>100</v>
-      </c>
-      <c r="E127" s="98">
+        <v>263</v>
+      </c>
+      <c r="C127" s="77">
+        <v>30.725999999999999</v>
+      </c>
+      <c r="D127" s="1">
+        <v>250</v>
+      </c>
+      <c r="E127" s="65">
         <f>D127*C127</f>
-        <v>0</v>
+        <v>7681.5</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="87"/>
+      <c r="A128" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B128" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
+        <v>1117</v>
+      </c>
+      <c r="C128" s="77">
+        <v>33.224299999999999</v>
+      </c>
+      <c r="D128" s="1">
+        <v>81.99</v>
+      </c>
+      <c r="E128" s="65">
+        <f>D128*C128</f>
+        <v>2724.0603569999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B129" t="s">
-        <v>115</v>
-      </c>
-      <c r="E129" s="98">
+        <v>72</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="65">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B130" t="s">
+        <v>73</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="65">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="D131"/>
+      <c r="E131" s="99"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="C132" s="101"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="101"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="C133" s="101"/>
+      <c r="D133" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="12">
+        <f>SUM(E112:E130)</f>
+        <v>745852.05035699997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="C134" s="112" t="str">
+        <f>A111</f>
+        <v>NİSANa</v>
+      </c>
+      <c r="D134" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="E134" s="4">
         <f>H2</f>
         <v>-169.28</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
-      <c r="D131" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="E131" s="98">
-        <f>SUM(E121:E130)</f>
-        <v>-169.28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8215,10 +8465,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -8251,24 +8501,24 @@
         <v>77</v>
       </c>
       <c r="D2" s="82">
-        <f>SUM(D6:D34)</f>
+        <f>SUM(D6:D31)</f>
         <v>36300</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E3:E34)</f>
+        <f>SUM(E3:E31)</f>
         <v>-114592.82</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F3:F34)</f>
-        <v>6500</v>
+        <f>SUM(F3:F31)</f>
+        <v>16867.489999999998</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G3:G34)</f>
+        <f>SUM(G3:G31)</f>
         <v>-102399.73000000001</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-95899.73000000001</v>
+        <v>-85532.24000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8306,7 +8556,7 @@
         <v>-1512.13</v>
       </c>
       <c r="H5" s="292">
-        <f t="shared" ref="H5:H23" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H32" si="0">H4+F5+G5</f>
         <v>-1512.13</v>
       </c>
     </row>
@@ -8361,7 +8611,7 @@
       </c>
       <c r="D8" s="298"/>
       <c r="E8" s="292">
-        <f>E69</f>
+        <f>E68</f>
         <v>-72173.5</v>
       </c>
       <c r="F8" s="2"/>
@@ -8384,7 +8634,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="298"/>
       <c r="E9" s="292">
-        <f>E50</f>
+        <f>E49</f>
         <v>-6341.6600000000008</v>
       </c>
       <c r="F9" s="2"/>
@@ -8533,7 +8783,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="298"/>
       <c r="E16" s="292">
-        <f>E45*-1</f>
+        <f>E44*-1</f>
         <v>-225.66</v>
       </c>
       <c r="F16" s="308"/>
@@ -8593,464 +8843,490 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="306"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="298"/>
+      <c r="A19" s="320">
+        <v>45378</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="298">
+        <v>10000</v>
+      </c>
       <c r="E19" s="292"/>
-      <c r="F19" s="308"/>
+      <c r="F19" s="308">
+        <v>10367.49</v>
+      </c>
       <c r="G19" s="292"/>
       <c r="H19" s="292">
         <f t="shared" si="0"/>
-        <v>-93523.16</v>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="306"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="A20" s="320">
+        <v>45378</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="298"/>
-      <c r="E20" s="292"/>
+      <c r="E20" s="292">
+        <v>-5000</v>
+      </c>
       <c r="F20" s="308"/>
       <c r="G20" s="292"/>
       <c r="H20" s="292">
         <f t="shared" si="0"/>
-        <v>-93523.16</v>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7"/>
-      <c r="B21" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="E21" s="98">
-        <v>-400</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="A21" s="320"/>
+      <c r="B21" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="298"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="308"/>
       <c r="G21" s="292"/>
       <c r="H21" s="292">
         <f t="shared" si="0"/>
-        <v>-93523.16</v>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7"/>
-      <c r="B22" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="E22" s="98">
-        <v>-500</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="A22" s="320">
+        <v>45378</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="298"/>
+      <c r="E22" s="292">
+        <v>-5000</v>
+      </c>
+      <c r="F22" s="308"/>
       <c r="G22" s="292"/>
       <c r="H22" s="292">
         <f t="shared" si="0"/>
-        <v>-93523.16</v>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="320">
+        <v>45378</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="C23" s="7"/>
-      <c r="F23" s="78"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="292">
+        <v>-5000</v>
+      </c>
+      <c r="F23" s="308"/>
       <c r="G23" s="292"/>
       <c r="H23" s="292">
         <f t="shared" si="0"/>
-        <v>-93523.16</v>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="306"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="292"/>
+      <c r="F24" s="308"/>
       <c r="G24" s="292"/>
-      <c r="H24" s="98">
-        <f t="shared" ref="H24:H34" si="1">H23+F24+G24</f>
-        <v>-93523.16</v>
+      <c r="H24" s="292">
+        <f t="shared" si="0"/>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7"/>
+      <c r="A25" s="321"/>
+      <c r="B25" s="322" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="322"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="F25" s="78"/>
+        <v>-400</v>
+      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="292"/>
-      <c r="H25" s="98">
-        <f t="shared" si="1"/>
-        <v>-93523.16</v>
+      <c r="H25" s="292">
+        <f t="shared" si="0"/>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7"/>
+      <c r="A26" s="321"/>
+      <c r="B26" s="322" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="322"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="F26" s="78"/>
+        <v>-500</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="292"/>
-      <c r="H26" s="98">
-        <f t="shared" si="1"/>
-        <v>-93523.16</v>
+      <c r="H26" s="292">
+        <f t="shared" si="0"/>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="E27" s="98">
-        <v>-5000</v>
+      <c r="A27" s="324"/>
+      <c r="B27" s="321" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="321"/>
+      <c r="D27" s="323">
+        <v>2800</v>
       </c>
       <c r="F27" s="78"/>
       <c r="G27" s="292"/>
-      <c r="H27" s="98">
-        <f t="shared" si="1"/>
-        <v>-93523.16</v>
+      <c r="H27" s="292">
+        <f t="shared" si="0"/>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="82">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="78">
-        <v>0</v>
+      <c r="A28" s="325"/>
+      <c r="B28" s="321" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C28" s="321"/>
+      <c r="D28" s="323">
+        <v>8500</v>
       </c>
       <c r="G28" s="292"/>
-      <c r="H28" s="98">
-        <f t="shared" si="1"/>
-        <v>-93523.16</v>
+      <c r="H28" s="292">
+        <f t="shared" si="0"/>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="150"/>
-      <c r="B29" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="82">
-        <v>2800</v>
-      </c>
-      <c r="F29" s="78"/>
+      <c r="A29" s="326"/>
+      <c r="B29" s="321" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="321"/>
+      <c r="D29" s="323">
+        <v>15000</v>
+      </c>
+      <c r="F29" s="57"/>
       <c r="G29" s="292"/>
-      <c r="H29" s="98">
-        <f t="shared" si="1"/>
-        <v>-93523.16</v>
+      <c r="H29" s="292">
+        <f t="shared" si="0"/>
+        <v>-83155.67</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="150"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="292"/>
-      <c r="H30" s="98">
-        <f t="shared" si="1"/>
-        <v>-93523.16</v>
+      <c r="A30" s="327">
+        <v>45382</v>
+      </c>
+      <c r="B30" s="321" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C30" s="326"/>
+      <c r="D30" s="323"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="98">
+        <v>-2273.0700000000002</v>
+      </c>
+      <c r="H30" s="292">
+        <f t="shared" si="0"/>
+        <v>-85428.74</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="87"/>
-      <c r="B31" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="82">
-        <v>8500</v>
-      </c>
-      <c r="G31" s="292"/>
-      <c r="H31" s="98">
-        <f t="shared" si="1"/>
-        <v>-93523.16</v>
+      <c r="A31" s="327">
+        <v>45382</v>
+      </c>
+      <c r="B31" s="321" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C31" s="326"/>
+      <c r="D31" s="323"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="98">
+        <v>-103.5</v>
+      </c>
+      <c r="H31" s="292">
+        <f t="shared" si="0"/>
+        <v>-85532.24</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="82">
-        <v>15000</v>
-      </c>
+      <c r="A32" s="314"/>
+      <c r="B32" s="315" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="316">
+        <v>7000</v>
+      </c>
+      <c r="D32" s="316"/>
       <c r="F32" s="57"/>
-      <c r="G32" s="292"/>
-      <c r="H32" s="98">
-        <f t="shared" si="1"/>
-        <v>-93523.16</v>
+      <c r="G32" s="98"/>
+      <c r="H32" s="292">
+        <f t="shared" si="0"/>
+        <v>-85532.24</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="289">
-        <v>45382</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>1129</v>
-      </c>
+      <c r="A33" s="327"/>
+      <c r="B33" s="321"/>
+      <c r="C33" s="326"/>
+      <c r="D33" s="323"/>
       <c r="F33" s="57"/>
-      <c r="G33" s="292">
-        <v>-2273.0700000000002</v>
-      </c>
-      <c r="H33" s="98">
-        <f t="shared" si="1"/>
-        <v>-95796.23000000001</v>
-      </c>
+      <c r="G33" s="98"/>
+      <c r="H33" s="292"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="289">
-        <v>45382</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="292">
-        <v>-103.5</v>
-      </c>
-      <c r="H34" s="98">
-        <f t="shared" si="1"/>
-        <v>-95899.73000000001</v>
-      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
     </row>
     <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="72"/>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="72"/>
-      <c r="G37" s="57"/>
+    <row r="37" spans="1:8" s="2" customFormat="1">
+      <c r="A37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="98"/>
       <c r="H37" s="57"/>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="98"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="92">
+        <v>44929</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="82">
+        <f>SUM(D39:D44)</f>
+        <v>5343.55</v>
+      </c>
+      <c r="E38" s="98">
+        <f>SUM(E39:E44)</f>
+        <v>5345.7999999999993</v>
+      </c>
       <c r="H38" s="57"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="92">
-        <v>44929</v>
-      </c>
-      <c r="B39" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="82">
-        <f>SUM(D40:D45)</f>
-        <v>5343.55</v>
+      <c r="A39" s="87"/>
+      <c r="B39" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>967.68</v>
       </c>
       <c r="E39" s="98">
-        <f>SUM(E40:E45)</f>
-        <v>5345.7999999999993</v>
+        <v>970</v>
       </c>
       <c r="H39" s="57"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="87"/>
-      <c r="B40" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>967.68</v>
+      <c r="B40" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D40">
+        <v>1224.42</v>
       </c>
       <c r="E40" s="98">
-        <v>970</v>
-      </c>
-      <c r="H40" s="57"/>
+        <v>1225</v>
+      </c>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1131</v>
+        <v>104</v>
       </c>
       <c r="D41">
-        <v>1224.42</v>
+        <v>237.14</v>
       </c>
       <c r="E41" s="98">
-        <v>1225</v>
+        <v>237.14</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>104</v>
+        <v>1079</v>
       </c>
       <c r="D42">
-        <v>237.14</v>
+        <v>2248.8000000000002</v>
       </c>
       <c r="E42" s="98">
-        <v>237.14</v>
+        <v>2248</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>1079</v>
+        <v>106</v>
       </c>
       <c r="D43">
-        <v>2248.8000000000002</v>
+        <v>439.85</v>
       </c>
       <c r="E43" s="98">
-        <v>2248</v>
+        <v>440</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44">
-        <v>439.85</v>
+        <v>107</v>
+      </c>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85">
+        <v>225.66</v>
       </c>
       <c r="E44" s="98">
-        <v>440</v>
+        <v>225.66</v>
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
       <c r="C45" s="85"/>
-      <c r="D45" s="85">
-        <v>225.66</v>
-      </c>
-      <c r="E45" s="98">
-        <v>225.66</v>
-      </c>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="C46" s="85"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
+    <row r="47" spans="1:8">
+      <c r="B47" s="65"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="65"/>
+      <c r="B48" s="82"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="B49" s="82"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="72"/>
+      <c r="E49" s="291">
+        <f>SUM(E50:E63)</f>
+        <v>-6341.6600000000008</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="72"/>
-      <c r="B50" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="E50" s="291">
-        <f>SUM(E51:E64)</f>
-        <v>-6341.6600000000008</v>
-      </c>
+      <c r="A50" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B50" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="85">
+        <v>7648.33</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="98">
+        <v>-849.81</v>
+      </c>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="87">
         <v>45187</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C51" s="85">
-        <v>7648.33</v>
+        <v>11128</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E51" s="98">
-        <v>-849.81</v>
-      </c>
+        <v>-1854.65</v>
+      </c>
+      <c r="F51" s="57"/>
       <c r="G51" s="57"/>
       <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B52" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="85">
-        <v>11128</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>170</v>
+      <c r="A52" s="289">
+        <v>45325</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
       </c>
       <c r="E52" s="98">
-        <v>-1854.65</v>
-      </c>
-      <c r="F52" s="57"/>
+        <v>-453.4</v>
+      </c>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="289">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>1080</v>
       </c>
       <c r="E53" s="98">
-        <v>-453.4</v>
+        <v>-300</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="289">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B54" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E54" s="98">
-        <v>-300</v>
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>3900.57</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="289">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>3900.57</v>
+        <v>1081</v>
+      </c>
+      <c r="E55" s="98">
+        <v>-900</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
@@ -9060,24 +9336,26 @@
         <v>45330</v>
       </c>
       <c r="B56" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E56" s="98">
-        <v>-900</v>
+        <v>-116.38</v>
       </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="289">
-        <v>45330</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1082</v>
-      </c>
+      <c r="A57" s="87">
+        <v>45331</v>
+      </c>
+      <c r="B57" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C57" s="85"/>
       <c r="E57" s="98">
-        <v>-116.38</v>
-      </c>
+        <v>-100</v>
+      </c>
+      <c r="F57" s="57"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
     </row>
@@ -9086,11 +9364,11 @@
         <v>45331</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>403</v>
+        <v>1083</v>
       </c>
       <c r="C58" s="85"/>
       <c r="E58" s="98">
-        <v>-100</v>
+        <v>-215.42</v>
       </c>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
@@ -9098,14 +9376,14 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="87">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>1083</v>
+        <v>403</v>
       </c>
       <c r="C59" s="85"/>
       <c r="E59" s="98">
-        <v>-215.42</v>
+        <v>-100</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
@@ -9116,11 +9394,11 @@
         <v>45332</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>403</v>
+        <v>1084</v>
       </c>
       <c r="C60" s="85"/>
       <c r="E60" s="98">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
@@ -9128,14 +9406,13 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="87">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C61" s="85"/>
+        <v>1085</v>
+      </c>
       <c r="E61" s="98">
-        <v>-900</v>
+        <v>-352</v>
       </c>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
@@ -9143,13 +9420,14 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="87">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>1085</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C62" s="85"/>
       <c r="E62" s="98">
-        <v>-352</v>
+        <v>-100</v>
       </c>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
@@ -9157,12 +9435,11 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="87">
-        <v>45338</v>
-      </c>
-      <c r="B63" s="85" t="s">
+        <v>45339</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C63" s="85"/>
       <c r="E63" s="98">
         <v>-100</v>
       </c>
@@ -9170,27 +9447,21 @@
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="87">
-        <v>45339</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E64" s="98">
-        <v>-100</v>
+    <row r="64" spans="1:8" ht="15">
+      <c r="A64" s="87"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="109" t="s">
+        <v>196</v>
       </c>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
     </row>
-    <row r="65" spans="1:8" ht="15">
+    <row r="65" spans="1:8">
       <c r="A65" s="87"/>
       <c r="B65" s="85"/>
       <c r="C65" s="85"/>
-      <c r="D65" s="109" t="s">
-        <v>196</v>
-      </c>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
@@ -9212,66 +9483,76 @@
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="87"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="72"/>
+      <c r="E68" s="300">
+        <f>SUM(E69:E88)</f>
+        <v>-72173.5</v>
+      </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="72"/>
-      <c r="B69" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="72"/>
-      <c r="E69" s="300">
-        <f>SUM(E70:E89)</f>
-        <v>-72173.5</v>
-      </c>
+      <c r="A69" s="87"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="87"/>
-      <c r="B70" s="85"/>
+      <c r="A70" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B70" s="85" t="s">
+        <v>171</v>
+      </c>
       <c r="C70" s="85"/>
-      <c r="F70" s="57"/>
+      <c r="D70" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="98">
+        <v>-3974.42</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B71" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C71" s="85"/>
+      <c r="A71" s="3">
+        <v>45214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>159</v>
+      </c>
       <c r="D71" s="82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E71" s="98">
-        <v>-3974.42</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
+        <v>-600</v>
+      </c>
+      <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B72" t="s">
-        <v>159</v>
-      </c>
+        <v>45285</v>
+      </c>
+      <c r="B72" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="85"/>
       <c r="D72" s="82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E72" s="98">
-        <v>-600</v>
+        <v>-3551.66</v>
       </c>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
@@ -9279,17 +9560,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B73" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="85"/>
+        <v>45259</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="99">
+        <v>-1204.5</v>
+      </c>
       <c r="D73" s="82" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E73" s="98">
-        <v>-3551.66</v>
+        <v>-401.5</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
@@ -9300,16 +9583,16 @@
         <v>45259</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C74" s="99">
-        <v>-1204.5</v>
+        <v>-148.6</v>
       </c>
       <c r="D74" s="82" t="s">
         <v>176</v>
       </c>
       <c r="E74" s="98">
-        <v>-401.5</v>
+        <v>-49.54</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -9320,16 +9603,16 @@
         <v>45259</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C75" s="99">
-        <v>-148.6</v>
+        <v>-244.8</v>
       </c>
       <c r="D75" s="82" t="s">
         <v>176</v>
       </c>
       <c r="E75" s="98">
-        <v>-49.54</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -9340,36 +9623,34 @@
         <v>45259</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" s="99">
-        <v>-244.8</v>
+        <v>-532.6</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>176</v>
       </c>
       <c r="E76" s="98">
-        <v>-81.599999999999994</v>
+        <v>-177.54</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="3">
-        <v>45259</v>
-      </c>
-      <c r="B77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="99">
-        <v>-532.6</v>
-      </c>
-      <c r="D77" s="82" t="s">
-        <v>176</v>
+      <c r="A77" s="3"/>
+      <c r="B77" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="85">
+        <v>899</v>
+      </c>
+      <c r="D77" s="97" t="s">
+        <v>180</v>
       </c>
       <c r="E77" s="98">
-        <v>-177.54</v>
+        <v>-449.5</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
@@ -9378,16 +9659,14 @@
     <row r="78" spans="1:8">
       <c r="A78" s="3"/>
       <c r="B78" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="85">
-        <v>899</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C78" s="85"/>
       <c r="D78" s="97" t="s">
         <v>180</v>
       </c>
       <c r="E78" s="98">
-        <v>-449.5</v>
+        <v>-299.64</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
@@ -9396,30 +9675,30 @@
     <row r="79" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C79" s="85"/>
       <c r="D79" s="97" t="s">
         <v>180</v>
       </c>
       <c r="E79" s="98">
-        <v>-299.64</v>
+        <v>-546.82000000000005</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="3"/>
-      <c r="B80" s="85" t="s">
-        <v>182</v>
+      <c r="A80" s="87"/>
+      <c r="B80" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C80" s="85"/>
       <c r="D80" s="97" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E80" s="98">
-        <v>-546.82000000000005</v>
+        <v>-649.78</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
@@ -9428,14 +9707,13 @@
     <row r="81" spans="1:8">
       <c r="A81" s="87"/>
       <c r="B81" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" s="85"/>
+        <v>131</v>
+      </c>
+      <c r="C81" s="85">
+        <v>49.98</v>
+      </c>
       <c r="D81" s="97" t="s">
         <v>183</v>
-      </c>
-      <c r="E81" s="98">
-        <v>-649.78</v>
       </c>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
@@ -9443,15 +9721,8 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="87"/>
-      <c r="B82" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82" s="85">
-        <v>49.98</v>
-      </c>
-      <c r="D82" s="97" t="s">
-        <v>183</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="85"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
@@ -9465,23 +9736,29 @@
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="87"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="87">
+        <v>45324</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="C84" s="85"/>
+      <c r="E84" s="98">
+        <v>-1195</v>
+      </c>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="87">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C85" s="85"/>
-      <c r="E85" s="98">
-        <v>-1195</v>
+        <v>185</v>
+      </c>
+      <c r="C85" s="98">
+        <v>-299.99</v>
       </c>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
@@ -9489,13 +9766,14 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="87">
-        <v>45327</v>
+        <v>45336</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" s="98">
-        <v>-299.99</v>
+        <v>120</v>
+      </c>
+      <c r="C86" s="85"/>
+      <c r="E86" s="98">
+        <v>-59483.25</v>
       </c>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
@@ -9503,14 +9781,14 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="87">
-        <v>45336</v>
+        <v>45329</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>120</v>
+        <v>1086</v>
       </c>
       <c r="C87" s="85"/>
       <c r="E87" s="98">
-        <v>-59483.25</v>
+        <v>-713.25</v>
       </c>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
@@ -9518,48 +9796,41 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="87">
-        <v>45329</v>
+        <v>45327</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C88" s="85"/>
-      <c r="E88" s="98">
-        <v>-713.25</v>
+        <v>9</v>
+      </c>
+      <c r="C88" s="85">
+        <v>24742.959999999999</v>
       </c>
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
       <c r="H88" s="57"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="87">
-        <v>45327</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="85">
-        <v>24742.959999999999</v>
-      </c>
+      <c r="A89" s="87"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="85"/>
       <c r="F89" s="57"/>
       <c r="G89" s="57"/>
       <c r="H89" s="57"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="15">
       <c r="A90" s="87"/>
       <c r="B90" s="7"/>
       <c r="C90" s="85"/>
+      <c r="D90" s="109" t="s">
+        <v>196</v>
+      </c>
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
     </row>
-    <row r="91" spans="1:8" ht="15">
+    <row r="91" spans="1:8">
       <c r="A91" s="87"/>
       <c r="B91" s="7"/>
       <c r="C91" s="85"/>
-      <c r="D91" s="109" t="s">
-        <v>196</v>
-      </c>
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
       <c r="H91" s="57"/>
@@ -9636,84 +9907,90 @@
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="87"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="85"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
+    <row r="109" spans="1:8">
+      <c r="A109" s="87"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="87"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="87"/>
+      <c r="A111" s="70" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="72">
+        <v>2024</v>
+      </c>
+      <c r="D111" s="73"/>
+      <c r="E111" s="74">
+        <f>SUM(E112:E130)</f>
+        <v>745852.05035699997</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="70" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B112" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="72">
-        <v>2024</v>
-      </c>
-      <c r="D112" s="73"/>
-      <c r="E112" s="74">
-        <f>SUM(E113:E131)</f>
-        <v>745852.05035699997</v>
+      <c r="A112" s="303">
+        <v>45352</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="304"/>
+      <c r="D112" s="304"/>
+      <c r="E112" s="304">
+        <v>64000</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="303">
+        <f>A112</f>
         <v>45352</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1</v>
+        <v>1121</v>
       </c>
       <c r="C113" s="304"/>
       <c r="D113" s="304"/>
       <c r="E113" s="304">
-        <v>64000</v>
+        <v>150845</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="303">
-        <f>A113</f>
+      <c r="A114" s="75">
+        <f t="shared" ref="A114:A130" si="1">A113</f>
         <v>45352</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C114" s="304"/>
-      <c r="D114" s="304"/>
-      <c r="E114" s="304">
-        <v>150845</v>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="65">
+        <v>5039.78</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="75">
-        <f t="shared" ref="A115:A131" si="2">A114</f>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="65">
-        <v>5039.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -9723,13 +10000,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
-      </c>
-      <c r="C117" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C117" s="101"/>
       <c r="D117" s="1"/>
       <c r="E117" s="65">
         <v>0</v>
@@ -9737,13 +10014,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
-      </c>
-      <c r="C118" s="101"/>
+        <v>62</v>
+      </c>
+      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="65">
         <v>0</v>
@@ -9751,242 +10028,228 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
-      </c>
-      <c r="C119" s="1"/>
+        <v>1114</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1115</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="65">
-        <v>0</v>
+        <v>129254.5</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B120" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="65">
-        <v>129254.5</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B121" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>1108</v>
+      </c>
+      <c r="C121" s="75" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D121" s="76"/>
       <c r="E121" s="65">
-        <v>256.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B122" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C122" s="75" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="D122" s="76"/>
       <c r="E122" s="65">
-        <v>0</v>
+        <v>588.6</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B123" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C123" s="75" t="s">
-        <v>1111</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="C123" s="75"/>
       <c r="D123" s="76"/>
-      <c r="E123" s="65">
-        <v>588.6</v>
-      </c>
+      <c r="E123" s="65"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B124" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C124" s="75"/>
-      <c r="D124" s="76"/>
-      <c r="E124" s="65"/>
+        <v>68</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="65">
+        <v>450</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+        <v>1118</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2017.98</v>
+      </c>
+      <c r="D125" s="1">
+        <v>161</v>
+      </c>
       <c r="E125" s="65">
-        <v>450</v>
+        <f>D125*C125</f>
+        <v>324894.78000000003</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B126" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C126" s="1">
-        <v>2017.98</v>
+        <v>1116</v>
+      </c>
+      <c r="C126" s="77">
+        <v>30.726199999999999</v>
       </c>
       <c r="D126" s="1">
-        <v>161</v>
+        <v>850</v>
       </c>
       <c r="E126" s="65">
         <f>D126*C126</f>
-        <v>324894.78000000003</v>
+        <v>26117.27</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B127" t="s">
-        <v>1116</v>
+        <v>263</v>
       </c>
       <c r="C127" s="77">
-        <v>30.726199999999999</v>
+        <v>30.725999999999999</v>
       </c>
       <c r="D127" s="1">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="E127" s="65">
         <f>D127*C127</f>
-        <v>26117.27</v>
+        <v>7681.5</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>1117</v>
       </c>
       <c r="C128" s="77">
-        <v>30.725999999999999</v>
+        <v>33.224299999999999</v>
       </c>
       <c r="D128" s="1">
-        <v>250</v>
+        <v>81.99</v>
       </c>
       <c r="E128" s="65">
         <f>D128*C128</f>
-        <v>7681.5</v>
+        <v>2724.0603569999998</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B129" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C129" s="77">
-        <v>33.224299999999999</v>
-      </c>
-      <c r="D129" s="1">
-        <v>81.99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
       <c r="E129" s="65">
-        <f>D129*C129</f>
-        <v>2724.0603569999998</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="65">
-        <v>30000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="75">
-        <f t="shared" si="2"/>
-        <v>45352</v>
-      </c>
-      <c r="B131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="65">
-        <v>4000</v>
-      </c>
+      <c r="D131"/>
+      <c r="E131" s="99"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="D132"/>
-      <c r="E132" s="99"/>
+      <c r="C132" s="101"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="101"/>
     </row>
     <row r="133" spans="1:5">
       <c r="C133" s="101"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="101"/>
+      <c r="D133" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="12">
+        <f>SUM(E112:E130)</f>
+        <v>745852.05035699997</v>
+      </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="C134" s="101"/>
-      <c r="D134" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E134" s="12">
-        <f>SUM(E113:E131)</f>
-        <v>745852.05035699997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="C135" s="112" t="str">
-        <f>A112</f>
+      <c r="C134" s="112" t="str">
+        <f>A111</f>
         <v>MART</v>
       </c>
-      <c r="D135" s="113" t="s">
+      <c r="D134" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E134" s="4">
         <f>H2</f>
-        <v>-95899.73000000001</v>
+        <v>-85532.24000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10006,8 +10269,8 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A111" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10575,7 +10838,14 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="D30" s="57"/>
+      <c r="A30" s="314"/>
+      <c r="B30" s="315" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="316">
+        <v>7000</v>
+      </c>
+      <c r="D30" s="316"/>
       <c r="F30" s="101"/>
       <c r="G30" s="101"/>
       <c r="H30" s="101">
@@ -11990,8 +12260,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -12466,16 +12736,16 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="316"/>
-      <c r="B32" s="317" t="s">
+      <c r="A32" s="314"/>
+      <c r="B32" s="315" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="318"/>
-      <c r="D32" s="318">
+      <c r="C32" s="316"/>
+      <c r="D32" s="316">
         <v>7000</v>
       </c>
-      <c r="E32" s="318"/>
-      <c r="F32" s="319"/>
+      <c r="E32" s="316"/>
+      <c r="F32" s="317"/>
       <c r="H32" s="101">
         <f t="shared" si="0"/>
         <v>-32765.629999999997</v>
@@ -19010,8 +19280,8 @@
   </sheetPr>
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -19050,10 +19320,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="314" t="s">
+      <c r="L1" s="318" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="314"/>
+      <c r="M1" s="318"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -19213,7 +19483,7 @@
       </c>
       <c r="E5" s="26">
         <f>'03_24'!F2</f>
-        <v>6500</v>
+        <v>16867.489999999998</v>
       </c>
       <c r="F5" s="26">
         <f>'03_24'!G2</f>
@@ -19221,7 +19491,7 @@
       </c>
       <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>-16656.459999999977</v>
+        <v>-6288.9699999999866</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
@@ -19237,8 +19507,8 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E114/1000</f>
-        <v>150.845</v>
+        <f>'03_24'!E111/1000</f>
+        <v>745.85205035699994</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -19267,7 +19537,7 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-16825.739999999976</v>
+        <v>-6458.2499999999864</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -19275,13 +19545,13 @@
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="36" t="e">
+      <c r="M6" s="36">
         <f>E18/1000</f>
-        <v>#REF!</v>
+        <v>31.222709999999999</v>
       </c>
       <c r="N6">
-        <f>'04_24'!E126/1000</f>
-        <v>0</v>
+        <f>'04_24'!E111/1000</f>
+        <v>745.85205035699994</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -19310,7 +19580,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-16825.739999999976</v>
+        <v>-6458.2499999999864</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -19353,7 +19623,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-16825.739999999976</v>
+        <v>-6458.2499999999864</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -19399,7 +19669,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-18631.599999999977</v>
+        <v>-8264.109999999986</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -19448,7 +19718,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-18631.599999999977</v>
+        <v>-8264.109999999986</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -19494,7 +19764,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-18631.599999999977</v>
+        <v>-8264.109999999986</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -19543,7 +19813,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-18631.599999999977</v>
+        <v>-8264.109999999986</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -19592,7 +19862,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-18631.599999999977</v>
+        <v>-8264.109999999986</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -19641,7 +19911,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-18631.599999999977</v>
+        <v>-8264.109999999986</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -19682,7 +19952,7 @@
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
-        <v>221955.22000000003</v>
+        <v>232322.71000000002</v>
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
@@ -19690,7 +19960,7 @@
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-18631.599999999948</v>
+        <v>-8264.1099999999569</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -19706,9 +19976,9 @@
         <f>SUM(L4:L14)</f>
         <v>945.0653759999999</v>
       </c>
-      <c r="M15" s="46" t="e">
+      <c r="M15" s="46">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>#REF!</v>
+        <v>453.22271000000001</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -19726,7 +19996,7 @@
       <c r="D16" s="49"/>
       <c r="E16" s="49">
         <f>E15/A16</f>
-        <v>18496.268333333337</v>
+        <v>19360.225833333334</v>
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
@@ -19734,7 +20004,7 @@
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-1552.6333333333289</v>
+        <v>-688.67583333332971</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
@@ -19750,13 +20020,13 @@
         <f>L15/12</f>
         <v>78.755447999999987</v>
       </c>
-      <c r="M16" s="55" t="e">
+      <c r="M16" s="55">
         <f>M15/12</f>
-        <v>#REF!</v>
+        <v>37.76855916666667</v>
       </c>
       <c r="N16" s="56">
         <f>AVERAGE(N2:N15)</f>
-        <v>190.11281887361537</v>
+        <v>293.25582662084611</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -19768,28 +20038,28 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="315" t="e">
+      <c r="L17" s="319">
         <f>L15+M15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="315"/>
+        <v>1398.288086</v>
+      </c>
+      <c r="M17" s="319"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="e">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F28+'04_24'!#REF!+'05_24'!F21+'06_24'!F22</f>
-        <v>#REF!</v>
+      <c r="E18" s="1">
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F27+'05_24'!F21+'06_24'!F22</f>
+        <v>31222.71</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="59"/>
-      <c r="M18" s="60" t="e">
+      <c r="M18" s="60">
         <f>L17/12</f>
-        <v>#REF!</v>
+        <v>116.52400716666666</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -19806,9 +20076,9 @@
       <c r="D20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="65" t="e">
+      <c r="E20" s="65">
         <f>SUM(E18:E19)</f>
-        <v>#REF!</v>
+        <v>31222.71</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15">
@@ -56502,7 +56772,7 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCCE1D-94DE-4A48-A92B-29768849457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D4AE4-A6AD-4C1B-B108-5727A17F1477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1168">
   <si>
     <t>umut</t>
   </si>
@@ -3656,9 +3656,6 @@
     </r>
   </si>
   <si>
-    <t>Doğuş Kira 7/12-2024-25 15000-6500</t>
-  </si>
-  <si>
     <t>AUB YGV 1.taksit</t>
   </si>
   <si>
@@ -3759,6 +3756,24 @@
   </si>
   <si>
     <t>NİSANa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umut   </t>
+  </si>
+  <si>
+    <t>125000*0,880976</t>
+  </si>
+  <si>
+    <t>xau iş alış                           2461,08</t>
+  </si>
+  <si>
+    <t>usd iş satış-alış                 33,5088</t>
+  </si>
+  <si>
+    <t>eur iş alış                           35,1526</t>
+  </si>
+  <si>
+    <t>Doğuş Kira 7/12-2024-25 15000 - 6500 (07/03)</t>
   </si>
 </sst>
 </file>
@@ -4700,7 +4715,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5155,18 +5170,23 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="23" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="2" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="2" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5750,7 +5770,7 @@
         <v>45366</v>
       </c>
       <c r="C14" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E14" s="1">
         <v>4100</v>
@@ -5765,7 +5785,7 @@
         <v>45366</v>
       </c>
       <c r="C15" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F15" s="1">
         <v>6300</v>
@@ -5780,7 +5800,7 @@
         <v>45366</v>
       </c>
       <c r="C16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E16" s="1">
         <v>3450</v>
@@ -5795,7 +5815,7 @@
         <v>45366</v>
       </c>
       <c r="C17" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F17" s="1">
         <v>3461</v>
@@ -5823,7 +5843,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -5856,11 +5876,11 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D5:D35)</f>
-        <v>32500</v>
+        <v>25000</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E5:E35)</f>
-        <v>-43084.86</v>
+        <v>-43188.36</v>
       </c>
       <c r="F2" s="81">
         <f>SUM(F5:F35)</f>
@@ -5952,6 +5972,16 @@
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="330">
+        <v>45414</v>
+      </c>
+      <c r="B9" s="322" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C9" s="311"/>
+      <c r="E9" s="98">
+        <v>-103.5</v>
+      </c>
       <c r="H9" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6231,9 +6261,7 @@
       <c r="B30" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="82">
-        <v>7500</v>
-      </c>
+      <c r="D30" s="82"/>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
       <c r="H30" s="57">
@@ -6459,13 +6487,13 @@
         <v>45373</v>
       </c>
       <c r="B55" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C55">
         <v>10176.39</v>
       </c>
       <c r="D55" s="98" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E55" s="98">
         <v>-1130.71</v>
@@ -6478,7 +6506,7 @@
         <v>45375</v>
       </c>
       <c r="B56" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C56">
         <v>5999</v>
@@ -6517,10 +6545,10 @@
         <v>45371</v>
       </c>
       <c r="B58" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D58" s="98" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E58" s="98">
         <v>101.77</v>
@@ -6534,10 +6562,10 @@
         <v>45377</v>
       </c>
       <c r="B59" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D59" s="98" t="s">
         <v>1159</v>
-      </c>
-      <c r="D59" s="98" t="s">
-        <v>1160</v>
       </c>
       <c r="E59" s="98">
         <v>-172.9</v>
@@ -7059,10 +7087,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7094,24 +7122,24 @@
         <v>77</v>
       </c>
       <c r="D2" s="98">
-        <f>SUM(D5:D33)</f>
-        <v>32500</v>
+        <f>SUM(D5:D45)</f>
+        <v>48500</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E5:E33)</f>
-        <v>-49096.99</v>
+        <f>SUM(E5:E45)</f>
+        <v>-51370.06</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F5:F33)</f>
+        <f>SUM(F5:F45)</f>
         <v>0</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G5:G33)</f>
-        <v>-169.28</v>
+        <f>SUM(G5:G45)</f>
+        <v>-1681.41</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-169.28</v>
+        <v>-1681.41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7145,7 +7173,7 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E6" s="292">
         <v>-152</v>
@@ -7160,896 +7188,948 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="289"/>
+      <c r="A7" s="289">
+        <v>45383</v>
+      </c>
       <c r="B7" s="83" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="83"/>
-      <c r="E7" s="98">
+      <c r="E7" s="292">
         <v>-1500</v>
       </c>
-      <c r="H7" s="98">
-        <f t="shared" ref="H7:H13" si="0">H6+F7+G7</f>
-        <v>-169.28</v>
+      <c r="G7" s="292">
+        <v>-1512.13</v>
+      </c>
+      <c r="H7" s="292">
+        <f>H6+F7+G7</f>
+        <v>-1681.41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
-        <v>45385</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="98">
-        <f>E81</f>
-        <v>-6551.44</v>
-      </c>
-      <c r="H8" s="98">
-        <f t="shared" si="0"/>
-        <v>-169.28</v>
+      <c r="A8" s="289"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="E8" s="292"/>
+      <c r="H8" s="292">
+        <f>H7+F8+G8</f>
+        <v>-1681.41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="289">
-        <v>45386</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="98">
-        <f>E49</f>
-        <v>-6693.55</v>
-      </c>
-      <c r="H9" s="98">
-        <f t="shared" si="0"/>
-        <v>-169.28</v>
+      <c r="A9" s="289"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="E9" s="292"/>
+      <c r="H9" s="292">
+        <f>H8+F9+G9</f>
+        <v>-1681.41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="289"/>
-      <c r="B10" s="35"/>
-      <c r="H10" s="98">
-        <f t="shared" si="0"/>
-        <v>-169.28</v>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="E10" s="292"/>
+      <c r="H10" s="292">
+        <f>H9+F10+G10</f>
+        <v>-1681.41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" t="s">
+      <c r="A11" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="98">
+        <f>E93</f>
+        <v>-6551.44</v>
+      </c>
+      <c r="H11" s="292">
+        <f t="shared" ref="H11:H23" si="0">H10+F11+G11</f>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="289">
+        <v>45386</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="98">
+        <f>E61</f>
+        <v>-6693.55</v>
+      </c>
+      <c r="H12" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="330">
+        <v>45387</v>
+      </c>
+      <c r="B13" s="322" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C13" s="311"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="98">
+        <v>-2273.0700000000002</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="H13" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="330"/>
+      <c r="B14" s="322"/>
+      <c r="C14" s="311"/>
+      <c r="D14" s="323"/>
+      <c r="F14" s="57"/>
+      <c r="H14" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="330"/>
+      <c r="B15" s="322"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="323"/>
+      <c r="F15" s="57"/>
+      <c r="H15" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="289">
+        <v>45382</v>
+      </c>
+      <c r="B16" s="331" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="331"/>
+      <c r="D16" s="332">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="H16" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="289">
+        <v>45351</v>
+      </c>
+      <c r="B17" s="331" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C17" s="331"/>
+      <c r="D17" s="332">
+        <v>8500</v>
+      </c>
+      <c r="H17" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="289">
+        <v>45322</v>
+      </c>
+      <c r="B18" s="315" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="316">
+        <v>7000</v>
+      </c>
+      <c r="D18" s="316"/>
+      <c r="H18" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="289"/>
+      <c r="B19" s="35"/>
+      <c r="H19" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E20" s="98">
         <v>-10000</v>
       </c>
-      <c r="H11" s="98">
-        <f t="shared" si="0"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="83"/>
-      <c r="E12" s="98">
-        <v>-400</v>
-      </c>
-      <c r="H12" s="98">
-        <f t="shared" si="0"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="E13" s="98">
-        <v>-500</v>
-      </c>
-      <c r="H13" s="98">
-        <f t="shared" si="0"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="83" t="s">
+      <c r="H20" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="H22" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C23" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E23" s="98">
         <v>-150</v>
       </c>
-      <c r="H14" s="98">
-        <f>H13+F14+G14</f>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="85" t="s">
+      <c r="H23" s="292">
+        <f t="shared" si="0"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C24" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E24" s="98">
         <v>-300</v>
       </c>
-      <c r="H15" s="98">
-        <f t="shared" ref="H15:H25" si="1">H14+F15+G15</f>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="85" t="s">
+      <c r="H24" s="292">
+        <f t="shared" ref="H12:H25" si="1">H23+F24+G24</f>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C25" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E25" s="98">
         <v>-100</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H25" s="292">
         <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="86" t="s">
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="98">
-        <f>E44*-1</f>
+      <c r="E26" s="98">
+        <f>E56*-1</f>
         <v>0</v>
       </c>
-      <c r="H17" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="H18" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="H19" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="87">
+      <c r="H26" s="98">
+        <f>H25+F26+G26</f>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="98">
+        <f>H26+F27+G27</f>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="H28" s="98">
+        <f>H27+F28+G28</f>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="87">
         <v>45173</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B29" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="E20" s="98">
+      <c r="C29" s="83"/>
+      <c r="E29" s="98">
         <v>-5375</v>
       </c>
-      <c r="H20" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="87"/>
-      <c r="B21" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="E21" s="98">
-        <v>-2125</v>
-      </c>
-      <c r="H21" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="H22" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="H24" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="H25" s="98">
-        <f t="shared" si="1"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="98">
-        <v>-5000</v>
-      </c>
-      <c r="H26" s="98">
-        <f t="shared" ref="H26:H31" si="2">H25+F26+G26</f>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="98">
-        <v>10000</v>
-      </c>
-      <c r="H27" s="98">
-        <f t="shared" si="2"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="87"/>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="98">
-        <v>7500</v>
-      </c>
-      <c r="H28" s="98">
-        <f t="shared" si="2"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="87"/>
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="98">
-        <v>15000</v>
-      </c>
       <c r="H29" s="98">
-        <f t="shared" si="2"/>
-        <v>-169.28</v>
+        <f>H28+F29+G29</f>
+        <v>-1681.41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="87"/>
+      <c r="B30" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="83"/>
+      <c r="E30" s="98">
+        <v>-2125</v>
+      </c>
       <c r="H30" s="98">
-        <f t="shared" si="2"/>
-        <v>-169.28</v>
+        <f>H29+F30+G30</f>
+        <v>-1681.41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="H31" s="98">
+        <f t="shared" ref="H31:H34" si="2">H30+F31+G31</f>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="98">
         <f t="shared" si="2"/>
-        <v>-169.28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="B33" s="91"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="98">
+        <v>-5000</v>
+      </c>
+      <c r="H33" s="98">
+        <f t="shared" si="2"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="98">
+        <v>-5000</v>
+      </c>
+      <c r="H34" s="98">
+        <f t="shared" si="2"/>
+        <v>-1681.41</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="98">
+        <v>-5000</v>
+      </c>
+      <c r="H35" s="98">
+        <f t="shared" ref="H35:H43" si="3">H34+F35+G35</f>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="98">
+        <v>10000</v>
+      </c>
+      <c r="H36" s="98">
+        <f t="shared" si="3"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="83"/>
+      <c r="E38" s="98">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="E39" s="98">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="87"/>
+      <c r="H40" s="98">
+        <f>H36+F40+G40</f>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="87"/>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="98">
+        <v>15000</v>
+      </c>
+      <c r="H41" s="98">
+        <f t="shared" si="3"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="87"/>
+      <c r="H42" s="98">
+        <f t="shared" si="3"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="H43" s="98">
+        <f t="shared" si="3"/>
+        <v>-1681.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75">
+      <c r="B45" s="91"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="72" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-    </row>
-    <row r="37" spans="1:8" s="2" customFormat="1">
-      <c r="A37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="92">
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1">
+      <c r="A49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="92">
         <v>44929</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B50" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="98">
-        <f>SUM(D39:D44)</f>
+      <c r="C50" s="72"/>
+      <c r="D50" s="98">
+        <f>SUM(D51:D56)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="98">
-        <f>SUM(E39:E44)</f>
+      <c r="E50" s="98">
+        <f>SUM(E51:E56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="87"/>
-      <c r="B39" s="85" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="87"/>
+      <c r="B51" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
+    <row r="53" spans="1:8">
+      <c r="B53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
+    <row r="56" spans="1:8">
+      <c r="B56" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="85"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="C45" s="85"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="65"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="82"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="C56" s="85"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="C57" s="85"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="65"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" s="82"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="72"/>
+      <c r="B61" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="E49" s="98">
-        <f>SUM(E50:E75)</f>
+      <c r="C61" s="72"/>
+      <c r="E61" s="98">
+        <f>SUM(E62:E87)</f>
         <v>-6693.55</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="87">
+    <row r="63" spans="1:8">
+      <c r="A63" s="87">
         <v>45187</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B63" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="85">
+      <c r="C63" s="85">
         <v>7648.33</v>
       </c>
-      <c r="D51" s="98" t="s">
+      <c r="D63" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E63" s="98">
         <v>-849.81</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="289">
+    <row r="64" spans="1:8">
+      <c r="A64" s="289">
         <v>45348</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B64" t="s">
         <v>1100</v>
       </c>
-      <c r="C52">
+      <c r="C64">
         <v>1406</v>
       </c>
-      <c r="D52" s="98" t="s">
+      <c r="D64" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="E52" s="98">
+      <c r="E64" s="98">
         <v>-234.33</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="289">
+    <row r="65" spans="1:5">
+      <c r="A65" s="289">
         <v>45358</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B65" t="s">
         <v>1126</v>
       </c>
-      <c r="C53">
+      <c r="C65">
         <v>2273</v>
       </c>
-      <c r="D53" s="98" t="s">
+      <c r="D65" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="E53" s="98">
+      <c r="E65" s="98">
         <v>-378.87</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="289">
+    <row r="66" spans="1:5">
+      <c r="A66" s="289">
         <v>45371</v>
       </c>
-      <c r="B54" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D54" s="98" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E54" s="98">
+      <c r="B66" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D66" s="98" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E66" s="98">
         <v>101.77</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="289">
+    <row r="67" spans="1:5">
+      <c r="A67" s="289">
         <v>45373</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B67" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C67">
+        <v>10176.39</v>
+      </c>
+      <c r="D67" s="98" t="s">
         <v>1139</v>
       </c>
-      <c r="C55">
-        <v>10176.39</v>
-      </c>
-      <c r="D55" s="98" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E55" s="98">
+      <c r="E67" s="98">
         <v>-1130.71</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="289">
+    <row r="68" spans="1:5">
+      <c r="A68" s="289">
         <v>45375</v>
       </c>
-      <c r="B56" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C56">
+      <c r="B68" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C68">
         <v>5999</v>
       </c>
-      <c r="D56" s="98" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E56" s="98">
+      <c r="D68" s="98" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E68" s="98">
         <v>-666.56</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="289"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="289">
+    <row r="69" spans="1:5">
+      <c r="A69" s="289"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="289">
         <v>45347</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B70" t="s">
         <v>1101</v>
       </c>
-      <c r="E58" s="98">
+      <c r="E70" s="98">
         <v>-343</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="87">
+    <row r="71" spans="1:5">
+      <c r="A71" s="87">
         <v>45348</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B71" s="85" t="s">
         <v>1102</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="E59" s="98">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="87">
-        <v>45351</v>
-      </c>
-      <c r="B60" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="295">
-        <f>E60</f>
-        <v>-86.95</v>
-      </c>
-      <c r="E60" s="98">
-        <v>-86.95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="87">
-        <v>45353</v>
-      </c>
-      <c r="B61" s="96" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" s="85"/>
-      <c r="E61" s="98">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="87">
-        <v>45353</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C62" s="85"/>
-      <c r="E62" s="98">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="87">
-        <v>45354</v>
-      </c>
-      <c r="B63" s="96" t="s">
-        <v>674</v>
-      </c>
-      <c r="C63" s="85"/>
-      <c r="E63" s="98">
-        <v>-330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="87">
-        <v>45355</v>
-      </c>
-      <c r="B64" s="96" t="s">
-        <v>403</v>
-      </c>
-      <c r="C64" s="295">
-        <f>E64</f>
-        <v>-200</v>
-      </c>
-      <c r="E64" s="98">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="87">
-        <v>45355</v>
-      </c>
-      <c r="B65" s="96" t="s">
-        <v>712</v>
-      </c>
-      <c r="C65" s="85"/>
-      <c r="E65" s="98">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="87">
-        <v>45356</v>
-      </c>
-      <c r="B66" s="96" t="s">
-        <v>403</v>
-      </c>
-      <c r="C66" s="295">
-        <f>E66</f>
-        <v>-200</v>
-      </c>
-      <c r="E66" s="98">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="87">
-        <v>45357</v>
-      </c>
-      <c r="B67" s="96" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C67" s="85"/>
-      <c r="E67" s="98">
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="87">
-        <v>45357</v>
-      </c>
-      <c r="B68" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="85">
-        <v>6341.66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="87">
-        <v>45361</v>
-      </c>
-      <c r="B69" s="96" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="98">
-        <v>-294.14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="87">
-        <v>45358</v>
-      </c>
-      <c r="B70" s="96" t="s">
-        <v>403</v>
-      </c>
-      <c r="C70" s="295">
-        <f>E70</f>
-        <v>-200</v>
-      </c>
-      <c r="E70" s="98">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="87"/>
-      <c r="B71" s="96"/>
       <c r="C71" s="85"/>
       <c r="E71" s="98">
-        <v>-3.05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="87">
-        <v>45376</v>
-      </c>
-      <c r="B72" s="96" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C72" s="85"/>
+        <v>45351</v>
+      </c>
+      <c r="B72" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" s="295">
+        <f>E72</f>
+        <v>-86.95</v>
+      </c>
       <c r="E72" s="98">
-        <v>-874.19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="87"/>
-      <c r="B73" s="96"/>
+        <v>-86.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="87">
+        <v>45353</v>
+      </c>
+      <c r="B73" s="96" t="s">
+        <v>406</v>
+      </c>
       <c r="C73" s="85"/>
       <c r="E73" s="98">
-        <v>-43.71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="87">
-        <v>45374</v>
+        <v>45353</v>
       </c>
       <c r="B74" s="96" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="C74" s="85"/>
       <c r="E74" s="98">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="87">
+        <v>45354</v>
+      </c>
+      <c r="B75" s="96" t="s">
+        <v>674</v>
+      </c>
+      <c r="C75" s="85"/>
+      <c r="E75" s="98">
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="87">
+        <v>45355</v>
+      </c>
+      <c r="B76" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C76" s="295">
+        <f>E76</f>
+        <v>-200</v>
+      </c>
+      <c r="E76" s="98">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="87">
+        <v>45355</v>
+      </c>
+      <c r="B77" s="96" t="s">
+        <v>712</v>
+      </c>
+      <c r="C77" s="85"/>
+      <c r="E77" s="98">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="87">
+        <v>45356</v>
+      </c>
+      <c r="B78" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C78" s="295">
+        <f>E78</f>
+        <v>-200</v>
+      </c>
+      <c r="E78" s="98">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="87">
+        <v>45357</v>
+      </c>
+      <c r="B79" s="96" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C79" s="85"/>
+      <c r="E79" s="98">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="87">
+        <v>45357</v>
+      </c>
+      <c r="B80" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="85">
+        <v>6341.66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="87">
+        <v>45361</v>
+      </c>
+      <c r="B81" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="E81" s="98">
+        <v>-294.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="87">
+        <v>45358</v>
+      </c>
+      <c r="B82" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C82" s="295">
+        <f>E82</f>
+        <v>-200</v>
+      </c>
+      <c r="E82" s="98">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="87"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="85"/>
+      <c r="E83" s="98">
+        <v>-3.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="87">
+        <v>45376</v>
+      </c>
+      <c r="B84" s="96" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C84" s="85"/>
+      <c r="E84" s="98">
+        <v>-874.19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="87"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="85"/>
+      <c r="E85" s="98">
+        <v>-43.71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="87">
+        <v>45374</v>
+      </c>
+      <c r="B86" s="96" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C86" s="85"/>
+      <c r="E86" s="98">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15">
-      <c r="A75" s="87">
+    <row r="87" spans="1:8" ht="15">
+      <c r="A87" s="87">
         <v>45374</v>
       </c>
-      <c r="B75" s="96" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D75" s="109" t="s">
+      <c r="B87" s="96" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D87" s="109" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="311" customFormat="1" ht="15">
-      <c r="A76" s="309"/>
-      <c r="B76" s="313" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C76" s="311">
+    <row r="88" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A88" s="309"/>
+      <c r="B88" s="313" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C88" s="311">
         <v>686.95</v>
       </c>
-      <c r="D76" s="299"/>
-      <c r="E76" s="312"/>
-      <c r="F76" s="312"/>
-      <c r="G76" s="312"/>
-      <c r="H76" s="312"/>
-    </row>
-    <row r="77" spans="1:8" s="311" customFormat="1" ht="15">
-      <c r="A77" s="309"/>
-      <c r="B77" s="310"/>
-      <c r="D77" s="299"/>
-      <c r="E77" s="312"/>
-      <c r="F77" s="312"/>
-      <c r="G77" s="312"/>
-      <c r="H77" s="312"/>
-    </row>
-    <row r="78" spans="1:8" s="311" customFormat="1" ht="15">
-      <c r="A78" s="309"/>
-      <c r="B78" s="310"/>
-      <c r="D78" s="299"/>
-      <c r="E78" s="312"/>
-      <c r="F78" s="312"/>
-      <c r="G78" s="312"/>
-      <c r="H78" s="312"/>
-    </row>
-    <row r="79" spans="1:8" s="311" customFormat="1" ht="15">
-      <c r="A79" s="309"/>
-      <c r="B79" s="310"/>
-      <c r="D79" s="299"/>
-      <c r="E79" s="312"/>
-      <c r="F79" s="312"/>
-      <c r="G79" s="312"/>
-      <c r="H79" s="312"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="87"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="72"/>
-      <c r="B81" s="71" t="s">
+      <c r="D88" s="299"/>
+      <c r="E88" s="312"/>
+      <c r="F88" s="312"/>
+      <c r="G88" s="312"/>
+      <c r="H88" s="312"/>
+    </row>
+    <row r="89" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A89" s="309"/>
+      <c r="B89" s="310"/>
+      <c r="D89" s="299"/>
+      <c r="E89" s="312"/>
+      <c r="F89" s="312"/>
+      <c r="G89" s="312"/>
+      <c r="H89" s="312"/>
+    </row>
+    <row r="90" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A90" s="309"/>
+      <c r="B90" s="310"/>
+      <c r="D90" s="299"/>
+      <c r="E90" s="312"/>
+      <c r="F90" s="312"/>
+      <c r="G90" s="312"/>
+      <c r="H90" s="312"/>
+    </row>
+    <row r="91" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A91" s="309"/>
+      <c r="B91" s="310"/>
+      <c r="D91" s="299"/>
+      <c r="E91" s="312"/>
+      <c r="F91" s="312"/>
+      <c r="G91" s="312"/>
+      <c r="H91" s="312"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="87"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="72"/>
+      <c r="B93" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="E81" s="98">
-        <f>SUM(E82:E89)</f>
+      <c r="C93" s="72"/>
+      <c r="E93" s="98">
+        <f>SUM(E94:E101)</f>
         <v>-6551.44</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="87"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="3">
+    <row r="94" spans="1:8">
+      <c r="A94" s="87"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="3">
         <v>45214</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B95" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="98" t="s">
+      <c r="D95" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="E83" s="98">
+      <c r="E95" s="98">
         <v>-600</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="3">
+    <row r="96" spans="1:8">
+      <c r="A96" s="3">
         <v>45285</v>
       </c>
-      <c r="B84" s="85" t="s">
+      <c r="B96" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C84" s="85"/>
-      <c r="D84" s="98" t="s">
+      <c r="C96" s="85"/>
+      <c r="D96" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="E84" s="98">
+      <c r="E96" s="98">
         <v>-3551.66</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="87"/>
-      <c r="B85" s="7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C85" s="85"/>
-      <c r="D85" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="E85" s="98">
-        <v>-649.78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="87"/>
-      <c r="B86" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="85">
-        <v>49.98</v>
-      </c>
-      <c r="D86" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="87"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="85"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="87">
-        <v>45374</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C88" s="85"/>
-      <c r="E88" s="98">
-        <v>-1750</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="87"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="109" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="87"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="85"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="87"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="85"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="87"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="85"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="87"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="85"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="87"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="85"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="87"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="85"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="87"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="85"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="87"/>
-      <c r="B97" s="7"/>
+      <c r="B97" s="7" t="s">
+        <v>1127</v>
+      </c>
       <c r="C97" s="85"/>
+      <c r="D97" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="98">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="87"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="85"/>
+      <c r="B98" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="85">
+        <v>49.98</v>
+      </c>
+      <c r="D98" s="98" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="87"/>
@@ -8057,14 +8137,24 @@
       <c r="C99" s="85"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="87"/>
-      <c r="B100" s="7"/>
+      <c r="A100" s="87">
+        <v>45374</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1155</v>
+      </c>
       <c r="C100" s="85"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" s="98">
+        <v>-1750</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
       <c r="A101" s="87"/>
       <c r="B101" s="7"/>
       <c r="C101" s="85"/>
+      <c r="D101" s="109" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="87"/>
@@ -8112,342 +8202,343 @@
       <c r="C110" s="85"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="70" t="s">
+      <c r="A111" s="87"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="85"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="87"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="85"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="87"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="85"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="87"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="85"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="87"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="85"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="87"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="85"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="87"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="85"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="87"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="85"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="87"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="85"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="87"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="85"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="87"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="85"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="87"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="85"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="70" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B123" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" s="72">
+        <v>2024</v>
+      </c>
+      <c r="D123" s="73"/>
+      <c r="E123" s="74">
+        <f>SUM(E124:E138)</f>
+        <v>774287.73659999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="303">
+        <v>45383</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="304"/>
+      <c r="D124" s="304"/>
+      <c r="E124" s="304">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="303">
+        <f>A124</f>
+        <v>45383</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="B111" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111" s="72">
-        <v>2024</v>
-      </c>
-      <c r="D111" s="73"/>
-      <c r="E111" s="74">
-        <f>SUM(E112:E130)</f>
-        <v>745852.05035699997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="303">
-        <v>45383</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="304"/>
-      <c r="D112" s="304"/>
-      <c r="E112" s="304">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="303">
-        <f>A112</f>
-        <v>45383</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C113" s="304"/>
-      <c r="D113" s="304"/>
-      <c r="E113" s="304">
+      <c r="C125" s="304"/>
+      <c r="D125" s="304"/>
+      <c r="E125" s="304">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="75">
-        <f t="shared" ref="A114:A130" si="3">A113</f>
-        <v>45383</v>
-      </c>
-      <c r="B114" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="65">
-        <v>5039.78</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B115" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B116" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" s="101"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B118" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="65">
-        <v>129254.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="65">
-        <v>256.56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C121" s="75" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D121" s="76"/>
-      <c r="E121" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C122" s="75" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D122" s="76"/>
-      <c r="E122" s="65">
-        <v>588.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C123" s="75"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="65"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="65">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="75">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2017.98</v>
-      </c>
-      <c r="D125" s="1">
-        <v>161</v>
-      </c>
-      <c r="E125" s="65">
-        <f>D125*C125</f>
-        <v>324894.78000000003</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A126:A138" si="4">A125</f>
         <v>45383</v>
       </c>
       <c r="B126" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C126" s="77">
-        <v>30.726199999999999</v>
-      </c>
-      <c r="D126" s="1">
-        <v>850</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
       <c r="E126" s="65">
-        <f>D126*C126</f>
-        <v>26117.27</v>
+        <v>6036.94</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45383</v>
       </c>
       <c r="B127" t="s">
-        <v>263</v>
-      </c>
-      <c r="C127" s="77">
-        <v>30.725999999999999</v>
-      </c>
-      <c r="D127" s="1">
-        <v>250</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
       <c r="E127" s="65">
-        <f>D127*C127</f>
-        <v>7681.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45383</v>
       </c>
       <c r="B128" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C128" s="77">
-        <v>33.224299999999999</v>
-      </c>
-      <c r="D128" s="1">
-        <v>81.99</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
       <c r="E128" s="65">
-        <f>D128*C128</f>
-        <v>2724.0603569999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45383</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C129" s="101"/>
       <c r="D129" s="1"/>
       <c r="E129" s="65">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45383</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="75">
+        <f t="shared" si="4"/>
+        <v>45383</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="65">
+        <v>110122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="75">
+        <f>A131</f>
+        <v>45383</v>
+      </c>
+      <c r="B132" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="65">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="75">
+        <f t="shared" si="4"/>
+        <v>45383</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2308.9699999999998</v>
+      </c>
+      <c r="D133" s="1">
+        <v>161</v>
+      </c>
+      <c r="E133" s="65">
+        <f>D133*C133</f>
+        <v>371744.17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="75">
+        <f t="shared" si="4"/>
+        <v>45383</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C134" s="77">
+        <v>31.879300000000001</v>
+      </c>
+      <c r="D134" s="1">
+        <v>850</v>
+      </c>
+      <c r="E134" s="65">
+        <f>D134*C134</f>
+        <v>27097.404999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="75">
+        <f t="shared" si="4"/>
+        <v>45383</v>
+      </c>
+      <c r="B135" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="77">
+        <f>C134</f>
+        <v>31.879300000000001</v>
+      </c>
+      <c r="D135" s="1">
+        <v>250</v>
+      </c>
+      <c r="E135" s="65">
+        <f>D135*C135</f>
+        <v>7969.8249999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="75">
+        <f t="shared" si="4"/>
+        <v>45383</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C136" s="77">
+        <v>34.394500000000001</v>
+      </c>
+      <c r="D136" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="E136" s="65">
+        <f>D136*C136</f>
+        <v>2022.3966</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="75">
+        <f t="shared" si="4"/>
+        <v>45383</v>
+      </c>
+      <c r="B137" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="65">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="75">
+        <f t="shared" si="4"/>
+        <v>45383</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="65">
         <v>4000</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="D131"/>
-      <c r="E131" s="99"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="C132" s="101"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="101"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="C133" s="101"/>
-      <c r="D133" s="64" t="s">
+    <row r="139" spans="1:5">
+      <c r="D139"/>
+      <c r="E139" s="99"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="C140" s="101"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="101"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="C141" s="101"/>
+      <c r="D141" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="12">
-        <f>SUM(E112:E130)</f>
-        <v>745852.05035699997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="C134" s="112" t="str">
-        <f>A111</f>
+      <c r="E141" s="12">
+        <f>SUM(E124:E138)</f>
+        <v>774287.73659999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="C142" s="112" t="str">
+        <f>A123</f>
         <v>NİSANa</v>
       </c>
-      <c r="D134" s="113" t="s">
+      <c r="D142" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E142" s="4">
         <f>H2</f>
-        <v>-169.28</v>
+        <v>-1681.41</v>
       </c>
     </row>
   </sheetData>
@@ -8463,12 +8554,12 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF9BC2E6"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -8501,24 +8592,24 @@
         <v>77</v>
       </c>
       <c r="D2" s="82">
-        <f>SUM(D6:D31)</f>
-        <v>36300</v>
+        <f>SUM(D6:D27)</f>
+        <v>12800</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E3:E31)</f>
+        <f>SUM(E3:E29)</f>
         <v>-114592.82</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F3:F31)</f>
-        <v>16867.489999999998</v>
+        <f>SUM(F3:F29)</f>
+        <v>19667.489999999998</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G3:G31)</f>
-        <v>-102399.73000000001</v>
+        <f>SUM(G3:G29)</f>
+        <v>-116144.16</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-85532.24000000002</v>
+        <v>-96476.670000000013</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8556,7 +8647,7 @@
         <v>-1512.13</v>
       </c>
       <c r="H5" s="292">
-        <f t="shared" ref="H5:H32" si="0">H4+F5+G5</f>
+        <f>H4+F5+G5</f>
         <v>-1512.13</v>
       </c>
     </row>
@@ -8575,7 +8666,7 @@
         <v>-166.9</v>
       </c>
       <c r="H6" s="292">
-        <f t="shared" si="0"/>
+        <f>H5+F6+G6</f>
         <v>-1679.0300000000002</v>
       </c>
     </row>
@@ -8595,7 +8686,7 @@
         <v>-10000</v>
       </c>
       <c r="H7" s="292">
-        <f t="shared" si="0"/>
+        <f>H6+F7+G7</f>
         <v>-11679.03</v>
       </c>
     </row>
@@ -8611,7 +8702,7 @@
       </c>
       <c r="D8" s="298"/>
       <c r="E8" s="292">
-        <f>E68</f>
+        <f>E65</f>
         <v>-72173.5</v>
       </c>
       <c r="F8" s="2"/>
@@ -8620,7 +8711,7 @@
         <v>-72173.5</v>
       </c>
       <c r="H8" s="292">
-        <f t="shared" si="0"/>
+        <f>H7+F8+G8</f>
         <v>-83852.53</v>
       </c>
     </row>
@@ -8634,7 +8725,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="298"/>
       <c r="E9" s="292">
-        <f>E49</f>
+        <f>E46</f>
         <v>-6341.6600000000008</v>
       </c>
       <c r="F9" s="2"/>
@@ -8643,7 +8734,7 @@
         <v>-6341.6600000000008</v>
       </c>
       <c r="H9" s="292">
-        <f t="shared" si="0"/>
+        <f>H8+F9+G9</f>
         <v>-90194.19</v>
       </c>
     </row>
@@ -8664,7 +8755,7 @@
         <v>-220.03</v>
       </c>
       <c r="H10" s="292">
-        <f t="shared" si="0"/>
+        <f>H9+F10+G10</f>
         <v>-90414.22</v>
       </c>
     </row>
@@ -8685,7 +8776,7 @@
         <v>-631.37</v>
       </c>
       <c r="H11" s="292">
-        <f t="shared" si="0"/>
+        <f>H10+F11+G11</f>
         <v>-91045.59</v>
       </c>
     </row>
@@ -8707,7 +8798,7 @@
         <v>-5375</v>
       </c>
       <c r="H12" s="292">
-        <f t="shared" si="0"/>
+        <f>H11+F12+G12</f>
         <v>-96420.59</v>
       </c>
     </row>
@@ -8729,7 +8820,7 @@
         <v>-2125</v>
       </c>
       <c r="H13" s="292">
-        <f t="shared" si="0"/>
+        <f>H12+F13+G13</f>
         <v>-98545.59</v>
       </c>
     </row>
@@ -8748,7 +8839,7 @@
       </c>
       <c r="G14" s="292"/>
       <c r="H14" s="292">
-        <f t="shared" si="0"/>
+        <f>H13+F14+G14</f>
         <v>-92045.59</v>
       </c>
     </row>
@@ -8769,7 +8860,7 @@
         <v>-168.91</v>
       </c>
       <c r="H15" s="292">
-        <f t="shared" si="0"/>
+        <f>H14+F15+G15</f>
         <v>-92214.5</v>
       </c>
     </row>
@@ -8783,7 +8874,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="298"/>
       <c r="E16" s="292">
-        <f>E44*-1</f>
+        <f>E41*-1</f>
         <v>-225.66</v>
       </c>
       <c r="F16" s="308"/>
@@ -8792,11 +8883,11 @@
         <v>-225.66</v>
       </c>
       <c r="H16" s="292">
-        <f t="shared" si="0"/>
+        <f>H15+F16+G16</f>
         <v>-92440.16</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="306">
         <v>45372</v>
       </c>
@@ -8815,11 +8906,11 @@
         <v>-1083</v>
       </c>
       <c r="H17" s="292">
-        <f t="shared" si="0"/>
+        <f>H16+F17+G17</f>
         <v>-93523.16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="306">
         <v>45372</v>
       </c>
@@ -8838,18 +8929,18 @@
         <v>0</v>
       </c>
       <c r="H18" s="292">
-        <f t="shared" si="0"/>
+        <f>H17+F18+G18</f>
         <v>-93523.16</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="320">
+    <row r="19" spans="1:9">
+      <c r="A19" s="306">
         <v>45378</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="298">
         <v>10000</v>
       </c>
@@ -8859,501 +8950,502 @@
       </c>
       <c r="G19" s="292"/>
       <c r="H19" s="292">
-        <f t="shared" si="0"/>
+        <f>H18+F19+G19</f>
         <v>-83155.67</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="320">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="306">
         <v>45378</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="298"/>
       <c r="E20" s="292">
         <v>-5000</v>
       </c>
       <c r="F20" s="308"/>
-      <c r="G20" s="292"/>
+      <c r="G20" s="292">
+        <v>-5203</v>
+      </c>
       <c r="H20" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="320"/>
-      <c r="B21" s="7" t="s">
+        <f>H19+F20+G20</f>
+        <v>-88358.67</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="306"/>
+      <c r="B21" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="298"/>
       <c r="E21" s="292"/>
       <c r="F21" s="308"/>
       <c r="G21" s="292"/>
       <c r="H21" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="320">
+        <f>H20+F21+G21</f>
+        <v>-88358.67</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="306">
         <v>45378</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="298"/>
       <c r="E22" s="292">
         <v>-5000</v>
       </c>
       <c r="F22" s="308"/>
-      <c r="G22" s="292"/>
+      <c r="G22" s="292">
+        <v>-5203</v>
+      </c>
       <c r="H22" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="320">
+        <f>H21+F22+G22</f>
+        <v>-93561.67</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="306">
         <v>45378</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="298"/>
       <c r="E23" s="292">
         <v>-5000</v>
       </c>
       <c r="F23" s="308"/>
-      <c r="G23" s="292"/>
+      <c r="G23" s="292">
+        <v>-5000</v>
+      </c>
       <c r="H23" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="306"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="298"/>
-      <c r="E24" s="292"/>
-      <c r="F24" s="308"/>
+        <f>H22+F23+G23</f>
+        <v>-98561.67</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="326">
+        <v>45380</v>
+      </c>
+      <c r="B24" s="327" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="327"/>
+      <c r="D24" s="324">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="325"/>
+      <c r="F24" s="308">
+        <v>2800</v>
+      </c>
       <c r="G24" s="292"/>
       <c r="H24" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="321"/>
-      <c r="B25" s="322" t="s">
+        <f>H23+F24+G24</f>
+        <v>-95761.67</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="328">
+        <v>45380</v>
+      </c>
+      <c r="B25" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="322"/>
-      <c r="D25" s="323"/>
-      <c r="E25" s="98">
+      <c r="C25" s="329"/>
+      <c r="D25" s="324"/>
+      <c r="E25" s="292">
         <v>-400</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="292"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="292">
+        <v>-255</v>
+      </c>
       <c r="H25" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="321"/>
-      <c r="B26" s="322" t="s">
+        <f>H24+F25+G25</f>
+        <v>-96016.67</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="328">
+        <v>45380</v>
+      </c>
+      <c r="B26" s="329" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="322"/>
-      <c r="D26" s="323"/>
-      <c r="E26" s="98">
+      <c r="C26" s="329"/>
+      <c r="D26" s="324"/>
+      <c r="E26" s="292">
         <v>-500</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="292"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="292">
+        <v>-460</v>
+      </c>
       <c r="H26" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="324"/>
-      <c r="B27" s="321" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="321"/>
-      <c r="D27" s="323">
-        <v>2800</v>
-      </c>
+        <f>H25+F26+G26</f>
+        <v>-96476.67</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="F27" s="78"/>
       <c r="G27" s="292"/>
       <c r="H27" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="325"/>
-      <c r="B28" s="321" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C28" s="321"/>
-      <c r="D28" s="323">
-        <v>8500</v>
-      </c>
+        <f>H26+F27+G27</f>
+        <v>-96476.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="318"/>
       <c r="G28" s="292"/>
       <c r="H28" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="326"/>
-      <c r="B29" s="321" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="321"/>
-      <c r="D29" s="323">
-        <v>15000</v>
-      </c>
+        <f>H27+F28+G28</f>
+        <v>-96476.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="319"/>
       <c r="F29" s="57"/>
       <c r="G29" s="292"/>
       <c r="H29" s="292">
-        <f t="shared" si="0"/>
-        <v>-83155.67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="327">
-        <v>45382</v>
-      </c>
-      <c r="B30" s="321" t="s">
+        <f>H28+F29+G29</f>
+        <v>-96476.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="314"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="292"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1">
+      <c r="A34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="98"/>
+      <c r="H34" s="57"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="92">
+        <v>44929</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="82">
+        <f>SUM(D36:D41)</f>
+        <v>5343.55</v>
+      </c>
+      <c r="E35" s="98">
+        <f>SUM(E36:E41)</f>
+        <v>5345.7999999999993</v>
+      </c>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="87"/>
+      <c r="B36" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>967.68</v>
+      </c>
+      <c r="E36" s="292">
+        <v>970</v>
+      </c>
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="C30" s="326"/>
-      <c r="D30" s="323"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="98">
-        <v>-2273.0700000000002</v>
-      </c>
-      <c r="H30" s="292">
-        <f t="shared" si="0"/>
-        <v>-85428.74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="327">
-        <v>45382</v>
-      </c>
-      <c r="B31" s="321" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C31" s="326"/>
-      <c r="D31" s="323"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="98">
-        <v>-103.5</v>
-      </c>
-      <c r="H31" s="292">
-        <f t="shared" si="0"/>
-        <v>-85532.24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="314"/>
-      <c r="B32" s="315" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="316">
-        <v>7000</v>
-      </c>
-      <c r="D32" s="316"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="292">
-        <f t="shared" si="0"/>
-        <v>-85532.24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="327"/>
-      <c r="B33" s="321"/>
-      <c r="C33" s="326"/>
-      <c r="D33" s="323"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="292"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="72"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-    </row>
-    <row r="37" spans="1:8" s="2" customFormat="1">
-      <c r="A37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="98"/>
-      <c r="H37" s="57"/>
+      <c r="C37" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1224.42</v>
+      </c>
+      <c r="E37" s="292">
+        <v>1225</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="92">
-        <v>44929</v>
-      </c>
-      <c r="B38" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="82">
-        <f>SUM(D39:D44)</f>
-        <v>5343.55</v>
-      </c>
-      <c r="E38" s="98">
-        <f>SUM(E39:E44)</f>
-        <v>5345.7999999999993</v>
-      </c>
-      <c r="H38" s="57"/>
+      <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>237.14</v>
+      </c>
+      <c r="E38" s="292">
+        <v>237.14</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="87"/>
-      <c r="B39" s="85" t="s">
-        <v>102</v>
+      <c r="B39" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <v>967.68</v>
-      </c>
-      <c r="E39" s="98">
-        <v>970</v>
-      </c>
-      <c r="H39" s="57"/>
+        <v>2248.8000000000002</v>
+      </c>
+      <c r="E39" s="292">
+        <v>2248</v>
+      </c>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D40">
-        <v>1224.42</v>
-      </c>
-      <c r="E40" s="98">
-        <v>1225</v>
+      <c r="B40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>439.85</v>
+      </c>
+      <c r="E40" s="292">
+        <v>440</v>
       </c>
       <c r="F40" s="57"/>
       <c r="G40" s="57"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41">
-        <v>237.14</v>
-      </c>
-      <c r="E41" s="98">
-        <v>237.14</v>
+      <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85">
+        <v>225.66</v>
+      </c>
+      <c r="E41" s="292">
+        <v>225.66</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D42">
-        <v>2248.8000000000002</v>
-      </c>
-      <c r="E42" s="98">
-        <v>2248</v>
-      </c>
+      <c r="C42" s="85"/>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43">
-        <v>439.85</v>
-      </c>
-      <c r="E43" s="98">
-        <v>440</v>
-      </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-    </row>
     <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85">
-        <v>225.66</v>
-      </c>
-      <c r="E44" s="98">
-        <v>225.66</v>
-      </c>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
+      <c r="B44" s="65"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="C45" s="85"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
+      <c r="B45" s="82"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="72"/>
+      <c r="B46" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="72"/>
+      <c r="E46" s="291">
+        <f>SUM(E47:E60)</f>
+        <v>-6341.6600000000008</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="65"/>
+      <c r="A47" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B47" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="85">
+        <v>7648.33</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="98">
+        <v>-849.81</v>
+      </c>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="82"/>
+      <c r="A48" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B48" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="85">
+        <v>11128</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="98">
+        <v>-1854.65</v>
+      </c>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="72"/>
-      <c r="E49" s="291">
-        <f>SUM(E50:E63)</f>
-        <v>-6341.6600000000008</v>
-      </c>
+      <c r="A49" s="289">
+        <v>45325</v>
+      </c>
+      <c r="B49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="98">
+        <v>-453.4</v>
+      </c>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B50" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="85">
-        <v>7648.33</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>168</v>
+      <c r="A50" s="289">
+        <v>45326</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1080</v>
       </c>
       <c r="E50" s="98">
-        <v>-849.81</v>
+        <v>-300</v>
       </c>
       <c r="G50" s="57"/>
       <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B51" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="85">
-        <v>11128</v>
-      </c>
-      <c r="D51" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" s="98">
-        <v>-1854.65</v>
-      </c>
-      <c r="F51" s="57"/>
+      <c r="A51" s="289">
+        <v>45327</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>3900.57</v>
+      </c>
       <c r="G51" s="57"/>
       <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="289">
-        <v>45325</v>
+        <v>45330</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>1081</v>
       </c>
       <c r="E52" s="98">
-        <v>-453.4</v>
+        <v>-900</v>
       </c>
       <c r="G52" s="57"/>
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="289">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B53" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E53" s="98">
-        <v>-300</v>
+        <v>-116.38</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="289">
-        <v>45327</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>3900.57</v>
-      </c>
+      <c r="A54" s="87">
+        <v>45331</v>
+      </c>
+      <c r="B54" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C54" s="85"/>
+      <c r="E54" s="98">
+        <v>-100</v>
+      </c>
+      <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="289">
-        <v>45330</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1081</v>
-      </c>
+      <c r="A55" s="87">
+        <v>45331</v>
+      </c>
+      <c r="B55" s="85" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C55" s="85"/>
       <c r="E55" s="98">
-        <v>-900</v>
-      </c>
+        <v>-215.42</v>
+      </c>
+      <c r="F55" s="57"/>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="289">
-        <v>45330</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1082</v>
-      </c>
+      <c r="A56" s="87">
+        <v>45332</v>
+      </c>
+      <c r="B56" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" s="85"/>
       <c r="E56" s="98">
-        <v>-116.38</v>
-      </c>
+        <v>-100</v>
+      </c>
+      <c r="F56" s="57"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="87">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>403</v>
+        <v>1084</v>
       </c>
       <c r="C57" s="85"/>
       <c r="E57" s="98">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
@@ -9361,14 +9453,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="87">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C58" s="85"/>
+        <v>1085</v>
+      </c>
       <c r="E58" s="98">
-        <v>-215.42</v>
+        <v>-352</v>
       </c>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
@@ -9376,7 +9467,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="87">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B59" s="85" t="s">
         <v>403</v>
@@ -9391,80 +9482,65 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="87">
-        <v>45332</v>
-      </c>
-      <c r="B60" s="85" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C60" s="85"/>
+        <v>45339</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="E60" s="98">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
       <c r="H60" s="57"/>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="87">
-        <v>45337</v>
-      </c>
-      <c r="B61" s="85" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E61" s="98">
-        <v>-352</v>
+    <row r="61" spans="1:8" ht="15">
+      <c r="A61" s="87"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="109" t="s">
+        <v>196</v>
       </c>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="87">
-        <v>45338</v>
-      </c>
-      <c r="B62" s="85" t="s">
-        <v>403</v>
-      </c>
+      <c r="A62" s="87"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="85"/>
-      <c r="E62" s="98">
-        <v>-100</v>
-      </c>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
       <c r="H62" s="57"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="87">
-        <v>45339</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E63" s="98">
-        <v>-100</v>
-      </c>
+      <c r="A63" s="87"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
     </row>
-    <row r="64" spans="1:8" ht="15">
+    <row r="64" spans="1:8">
       <c r="A64" s="87"/>
       <c r="B64" s="85"/>
       <c r="C64" s="85"/>
-      <c r="D64" s="109" t="s">
-        <v>196</v>
-      </c>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="87"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="72"/>
+      <c r="E65" s="300">
+        <f>SUM(E66:E85)</f>
+        <v>-72173.5</v>
+      </c>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="87"/>
@@ -9475,66 +9551,95 @@
       <c r="H66" s="57"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="87"/>
-      <c r="B67" s="85"/>
+      <c r="A67" s="87">
+        <v>45187</v>
+      </c>
+      <c r="B67" s="85" t="s">
+        <v>171</v>
+      </c>
       <c r="C67" s="85"/>
-      <c r="F67" s="57"/>
+      <c r="D67" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" s="98">
+        <v>-3974.42</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="72"/>
-      <c r="B68" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="E68" s="300">
-        <f>SUM(E69:E88)</f>
-        <v>-72173.5</v>
+      <c r="A68" s="3">
+        <v>45214</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="98">
+        <v>-600</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="87"/>
-      <c r="B69" s="85"/>
+      <c r="A69" s="3">
+        <v>45285</v>
+      </c>
+      <c r="B69" s="85" t="s">
+        <v>134</v>
+      </c>
       <c r="C69" s="85"/>
+      <c r="D69" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="98">
+        <v>-3551.66</v>
+      </c>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="87">
-        <v>45187</v>
-      </c>
-      <c r="B70" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="85"/>
+      <c r="A70" s="3">
+        <v>45259</v>
+      </c>
+      <c r="B70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="99">
+        <v>-1204.5</v>
+      </c>
       <c r="D70" s="82" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E70" s="98">
-        <v>-3974.42</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
+        <v>-401.5</v>
+      </c>
+      <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3">
-        <v>45214</v>
+        <v>45259</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>177</v>
+      </c>
+      <c r="C71" s="99">
+        <v>-148.6</v>
       </c>
       <c r="D71" s="82" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E71" s="98">
-        <v>-600</v>
+        <v>-49.54</v>
       </c>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
@@ -9542,17 +9647,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3">
-        <v>45285</v>
-      </c>
-      <c r="B72" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="85"/>
+        <v>45259</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="99">
+        <v>-244.8</v>
+      </c>
       <c r="D72" s="82" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E72" s="98">
-        <v>-3551.66</v>
+        <v>-81.599999999999994</v>
       </c>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
@@ -9563,188 +9670,172 @@
         <v>45259</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C73" s="99">
-        <v>-1204.5</v>
+        <v>-532.6</v>
       </c>
       <c r="D73" s="82" t="s">
         <v>176</v>
       </c>
       <c r="E73" s="98">
-        <v>-401.5</v>
+        <v>-177.54</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="3">
-        <v>45259</v>
-      </c>
-      <c r="B74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="99">
-        <v>-148.6</v>
-      </c>
-      <c r="D74" s="82" t="s">
-        <v>176</v>
+      <c r="A74" s="3"/>
+      <c r="B74" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="85">
+        <v>899</v>
+      </c>
+      <c r="D74" s="97" t="s">
+        <v>180</v>
       </c>
       <c r="E74" s="98">
-        <v>-49.54</v>
+        <v>-449.5</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="3">
-        <v>45259</v>
-      </c>
-      <c r="B75" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="99">
-        <v>-244.8</v>
-      </c>
-      <c r="D75" s="82" t="s">
-        <v>176</v>
+      <c r="A75" s="3"/>
+      <c r="B75" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="85"/>
+      <c r="D75" s="97" t="s">
+        <v>180</v>
       </c>
       <c r="E75" s="98">
-        <v>-81.599999999999994</v>
+        <v>-299.64</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="3">
-        <v>45259</v>
-      </c>
-      <c r="B76" t="s">
-        <v>179</v>
-      </c>
-      <c r="C76" s="99">
-        <v>-532.6</v>
-      </c>
-      <c r="D76" s="82" t="s">
-        <v>176</v>
+      <c r="A76" s="3"/>
+      <c r="B76" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="85"/>
+      <c r="D76" s="97" t="s">
+        <v>180</v>
       </c>
       <c r="E76" s="98">
-        <v>-177.54</v>
+        <v>-546.82000000000005</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="3"/>
-      <c r="B77" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="85">
-        <v>899</v>
-      </c>
+      <c r="A77" s="87"/>
+      <c r="B77" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="85"/>
       <c r="D77" s="97" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E77" s="98">
-        <v>-449.5</v>
+        <v>-649.78</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="3"/>
-      <c r="B78" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" s="85"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="85">
+        <v>49.98</v>
+      </c>
       <c r="D78" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="E78" s="98">
-        <v>-299.64</v>
+        <v>183</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="3"/>
-      <c r="B79" s="85" t="s">
-        <v>182</v>
-      </c>
+      <c r="A79" s="87"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="85"/>
-      <c r="D79" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="E79" s="98">
-        <v>-546.82000000000005</v>
-      </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="87"/>
-      <c r="B80" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="B80" s="7"/>
       <c r="C80" s="85"/>
-      <c r="D80" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="E80" s="98">
-        <v>-649.78</v>
-      </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="87"/>
+      <c r="A81" s="87">
+        <v>45324</v>
+      </c>
       <c r="B81" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="85">
-        <v>49.98</v>
-      </c>
-      <c r="D81" s="97" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="C81" s="85"/>
+      <c r="E81" s="98">
+        <v>-1195</v>
       </c>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="87"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="85"/>
+      <c r="A82" s="87">
+        <v>45327</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="98">
+        <v>-299.99</v>
+      </c>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="87"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="87">
+        <v>45336</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="C83" s="85"/>
+      <c r="E83" s="98">
+        <v>-59483.25</v>
+      </c>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="87">
-        <v>45324</v>
+        <v>45329</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>184</v>
+        <v>1086</v>
       </c>
       <c r="C84" s="85"/>
       <c r="E84" s="98">
-        <v>-1195</v>
+        <v>-713.25</v>
       </c>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
@@ -9755,55 +9846,38 @@
         <v>45327</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" s="98">
-        <v>-299.99</v>
+        <v>9</v>
+      </c>
+      <c r="C85" s="85">
+        <v>24742.959999999999</v>
       </c>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="87">
-        <v>45336</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="A86" s="87"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="85"/>
-      <c r="E86" s="98">
-        <v>-59483.25</v>
-      </c>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="87">
-        <v>45329</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>1086</v>
-      </c>
+    <row r="87" spans="1:8" ht="15">
+      <c r="A87" s="87"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="85"/>
-      <c r="E87" s="98">
-        <v>-713.25</v>
+      <c r="D87" s="109" t="s">
+        <v>196</v>
       </c>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
       <c r="H87" s="57"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="87">
-        <v>45327</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="85">
-        <v>24742.959999999999</v>
-      </c>
+      <c r="A88" s="87"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="85"/>
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
       <c r="H88" s="57"/>
@@ -9816,13 +9890,10 @@
       <c r="G89" s="57"/>
       <c r="H89" s="57"/>
     </row>
-    <row r="90" spans="1:8" ht="15">
+    <row r="90" spans="1:8">
       <c r="A90" s="87"/>
       <c r="B90" s="7"/>
       <c r="C90" s="85"/>
-      <c r="D90" s="109" t="s">
-        <v>196</v>
-      </c>
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
@@ -9883,100 +9954,118 @@
       <c r="G97" s="57"/>
       <c r="H97" s="57"/>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="87"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="85"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="57"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="87"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="85"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="57"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="87"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="85"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
+    <row r="106" spans="1:8">
+      <c r="A106" s="87"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="87"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="70" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B108" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="72">
+        <v>2024</v>
+      </c>
+      <c r="D108" s="73"/>
+      <c r="E108" s="74">
+        <f>SUM(E109:E127)</f>
+        <v>745852.05035699997</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="87"/>
+      <c r="A109" s="303">
+        <v>45352</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="304"/>
+      <c r="D109" s="304"/>
+      <c r="E109" s="304">
+        <v>64000</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="87"/>
+      <c r="A110" s="303">
+        <f>A109</f>
+        <v>45352</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C110" s="304"/>
+      <c r="D110" s="304"/>
+      <c r="E110" s="304">
+        <v>150845</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="70" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B111" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111" s="72">
-        <v>2024</v>
-      </c>
-      <c r="D111" s="73"/>
-      <c r="E111" s="74">
-        <f>SUM(E112:E130)</f>
-        <v>745852.05035699997</v>
+      <c r="A111" s="75">
+        <f t="shared" ref="A111:A127" si="0">A110</f>
+        <v>45352</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="65">
+        <v>5039.78</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="303">
+      <c r="A112" s="75">
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="304"/>
-      <c r="D112" s="304"/>
-      <c r="E112" s="304">
-        <v>64000</v>
+      <c r="B112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="65">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="303">
-        <f>A112</f>
+      <c r="A113" s="75">
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C113" s="304"/>
-      <c r="D113" s="304"/>
-      <c r="E113" s="304">
-        <v>150845</v>
+      <c r="B113" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="65">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="75">
-        <f t="shared" ref="A114:A130" si="1">A113</f>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C114" s="101"/>
       <c r="D114" s="1"/>
       <c r="E114" s="65">
-        <v>5039.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -9986,270 +10075,228 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B116" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="1"/>
+        <v>1114</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1115</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="65">
-        <v>0</v>
+        <v>129254.5</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" s="101"/>
+        <v>1106</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1107</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="65">
-        <v>0</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+        <v>1108</v>
+      </c>
+      <c r="C118" s="75" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D118" s="76"/>
       <c r="E118" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B119" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D119" s="1"/>
+        <v>1110</v>
+      </c>
+      <c r="C119" s="75" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D119" s="76"/>
       <c r="E119" s="65">
-        <v>129254.5</v>
+        <v>588.6</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B120" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="65">
-        <v>256.56</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="C120" s="75"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="65"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B121" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C121" s="75" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D121" s="76"/>
+        <v>68</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
       <c r="E121" s="65">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B122" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C122" s="75" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D122" s="76"/>
+        <v>1118</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2017.98</v>
+      </c>
+      <c r="D122" s="1">
+        <v>161</v>
+      </c>
       <c r="E122" s="65">
-        <v>588.6</v>
+        <f>D122*C122</f>
+        <v>324894.78000000003</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B123" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C123" s="75"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="65"/>
+        <v>1116</v>
+      </c>
+      <c r="C123" s="77">
+        <v>30.726199999999999</v>
+      </c>
+      <c r="D123" s="1">
+        <v>850</v>
+      </c>
+      <c r="E123" s="65">
+        <f>D123*C123</f>
+        <v>26117.27</v>
+      </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="C124" s="77">
+        <v>30.725999999999999</v>
+      </c>
+      <c r="D124" s="1">
+        <v>250</v>
+      </c>
       <c r="E124" s="65">
-        <v>450</v>
+        <f>D124*C124</f>
+        <v>7681.5</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B125" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2017.98</v>
+        <v>1117</v>
+      </c>
+      <c r="C125" s="77">
+        <v>33.224299999999999</v>
       </c>
       <c r="D125" s="1">
-        <v>161</v>
+        <v>81.99</v>
       </c>
       <c r="E125" s="65">
         <f>D125*C125</f>
-        <v>324894.78000000003</v>
+        <v>2724.0603569999998</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B126" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C126" s="77">
-        <v>30.726199999999999</v>
-      </c>
-      <c r="D126" s="1">
-        <v>850</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
       <c r="E126" s="65">
-        <f>D126*C126</f>
-        <v>26117.27</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="B127" t="s">
-        <v>263</v>
-      </c>
-      <c r="C127" s="77">
-        <v>30.725999999999999</v>
-      </c>
-      <c r="D127" s="1">
-        <v>250</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
       <c r="E127" s="65">
-        <f>D127*C127</f>
-        <v>7681.5</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="75">
-        <f t="shared" si="1"/>
-        <v>45352</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C128" s="77">
-        <v>33.224299999999999</v>
-      </c>
-      <c r="D128" s="1">
-        <v>81.99</v>
-      </c>
-      <c r="E128" s="65">
-        <f>D128*C128</f>
-        <v>2724.0603569999998</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="75">
-        <f t="shared" si="1"/>
-        <v>45352</v>
-      </c>
-      <c r="B129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="65">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="75">
-        <f t="shared" si="1"/>
-        <v>45352</v>
-      </c>
-      <c r="B130" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="65">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="D131"/>
-      <c r="E131" s="99"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="C132" s="101"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="101"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="C133" s="101"/>
-      <c r="D133" s="64" t="s">
+      <c r="D128"/>
+      <c r="E128" s="99"/>
+    </row>
+    <row r="129" spans="3:5">
+      <c r="C129" s="101"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="101"/>
+    </row>
+    <row r="130" spans="3:5">
+      <c r="C130" s="101"/>
+      <c r="D130" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="12">
-        <f>SUM(E112:E130)</f>
+      <c r="E130" s="12">
+        <f>SUM(E109:E127)</f>
         <v>745852.05035699997</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="C134" s="112" t="str">
-        <f>A111</f>
+    <row r="131" spans="3:5">
+      <c r="C131" s="112" t="str">
+        <f>A108</f>
         <v>MART</v>
       </c>
-      <c r="D134" s="113" t="s">
+      <c r="D131" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E131" s="4">
         <f>H2</f>
-        <v>-85532.24000000002</v>
+        <v>-96476.670000000013</v>
       </c>
     </row>
   </sheetData>
@@ -10269,7 +10316,7 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -12260,7 +12307,7 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
@@ -13604,7 +13651,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="B114" s="64" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C114" s="101">
         <f>SUM(C89:C113)</f>
@@ -19280,7 +19327,7 @@
   </sheetPr>
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -19320,10 +19367,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="318" t="s">
+      <c r="L1" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="318"/>
+      <c r="M1" s="320"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -19471,7 +19518,7 @@
       </c>
       <c r="B5" s="26">
         <f>'03_24'!D2</f>
-        <v>36300</v>
+        <v>12800</v>
       </c>
       <c r="C5" s="26">
         <f>'03_24'!E2</f>
@@ -19479,19 +19526,19 @@
       </c>
       <c r="D5" s="27">
         <f t="shared" si="0"/>
-        <v>163676.16999999998</v>
+        <v>140176.16999999998</v>
       </c>
       <c r="E5" s="26">
         <f>'03_24'!F2</f>
-        <v>16867.489999999998</v>
+        <v>19667.489999999998</v>
       </c>
       <c r="F5" s="26">
         <f>'03_24'!G2</f>
-        <v>-102399.73000000001</v>
+        <v>-116144.16</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>-6288.9699999999866</v>
+        <v>-17233.39999999998</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
@@ -19507,7 +19554,7 @@
         <v>90</v>
       </c>
       <c r="N5">
-        <f>'03_24'!E111/1000</f>
+        <f>'03_24'!E108/1000</f>
         <v>745.85205035699994</v>
       </c>
     </row>
@@ -19517,15 +19564,15 @@
       </c>
       <c r="B6" s="26">
         <f>'04_24'!D2</f>
-        <v>32500</v>
+        <v>48500</v>
       </c>
       <c r="C6" s="26">
         <f>'04_24'!E2</f>
-        <v>-49096.99</v>
+        <v>-51370.06</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>147079.18</v>
+        <v>137306.10999999999</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -19533,11 +19580,11 @@
       </c>
       <c r="F6" s="26">
         <f>'04_24'!G2</f>
-        <v>-169.28</v>
+        <v>-1681.41</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-6458.2499999999864</v>
+        <v>-18914.809999999979</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -19550,8 +19597,8 @@
         <v>31.222709999999999</v>
       </c>
       <c r="N6">
-        <f>'04_24'!E111/1000</f>
-        <v>745.85205035699994</v>
+        <f>'04_24'!E123/1000</f>
+        <v>774.2877365999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -19560,15 +19607,15 @@
       </c>
       <c r="B7" s="26">
         <f>'05_24'!D2</f>
-        <v>32500</v>
+        <v>25000</v>
       </c>
       <c r="C7" s="26">
         <f>'05_24'!E2</f>
-        <v>-43084.86</v>
+        <v>-43188.36</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>136494.32</v>
+        <v>119117.74999999999</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -19580,7 +19627,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-6458.2499999999864</v>
+        <v>-18914.809999999979</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -19603,7 +19650,7 @@
       </c>
       <c r="B8" s="26">
         <f>'06_24'!D2</f>
-        <v>32500</v>
+        <v>25000</v>
       </c>
       <c r="C8" s="26">
         <f>'06_24'!E2</f>
@@ -19611,7 +19658,7 @@
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>120439.46</v>
+        <v>95562.889999999985</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -19623,7 +19670,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-6458.2499999999864</v>
+        <v>-18914.809999999979</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -19649,7 +19696,7 @@
       </c>
       <c r="B9" s="26">
         <f>'07_24'!D2</f>
-        <v>37500</v>
+        <v>30000</v>
       </c>
       <c r="C9" s="26">
         <f>'07_24'!E2</f>
@@ -19657,7 +19704,7 @@
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>110234.41</v>
+        <v>77857.839999999982</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -19669,7 +19716,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-8264.109999999986</v>
+        <v>-20720.66999999998</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -19698,7 +19745,7 @@
       </c>
       <c r="B10" s="26">
         <f>'08_24'!D2</f>
-        <v>181500</v>
+        <v>174000</v>
       </c>
       <c r="C10" s="26">
         <f>'08_24'!E2</f>
@@ -19706,7 +19753,7 @@
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>247581.02</v>
+        <v>207704.44999999998</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -19718,7 +19765,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-8264.109999999986</v>
+        <v>-20720.66999999998</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -19744,7 +19791,7 @@
       </c>
       <c r="B11" s="26">
         <f>'09_24'!D2</f>
-        <v>181500</v>
+        <v>174000</v>
       </c>
       <c r="C11" s="26">
         <f>'09_24'!E2</f>
@@ -19752,7 +19799,7 @@
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>385527.43</v>
+        <v>338150.86</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -19764,7 +19811,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-8264.109999999986</v>
+        <v>-20720.66999999998</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -19793,7 +19840,7 @@
       </c>
       <c r="B12" s="26">
         <f>'10_24'!D2</f>
-        <v>157500</v>
+        <v>150000</v>
       </c>
       <c r="C12" s="26">
         <f>'10_24'!E2</f>
@@ -19801,7 +19848,7 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>399985.27</v>
+        <v>345108.69999999995</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -19813,7 +19860,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-8264.109999999986</v>
+        <v>-20720.66999999998</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -19842,7 +19889,7 @@
       </c>
       <c r="B13" s="26">
         <f>'11_24'!D2</f>
-        <v>287500</v>
+        <v>280000</v>
       </c>
       <c r="C13" s="26">
         <f>'11_24'!E2</f>
@@ -19850,7 +19897,7 @@
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>644443.11</v>
+        <v>582066.53999999992</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -19862,7 +19909,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-8264.109999999986</v>
+        <v>-20720.66999999998</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -19891,7 +19938,7 @@
       </c>
       <c r="B14" s="26">
         <f>'12_24'!D2</f>
-        <v>37500</v>
+        <v>30000</v>
       </c>
       <c r="C14" s="26">
         <f>'12_24'!E2</f>
@@ -19899,7 +19946,7 @@
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>637697.29</v>
+        <v>567820.72</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -19911,7 +19958,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-8264.109999999986</v>
+        <v>-20720.66999999998</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -19940,27 +19987,27 @@
       </c>
       <c r="B15" s="27">
         <f>SUM(B3:B14)</f>
-        <v>1376564.6</v>
+        <v>1309064.6000000001</v>
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
-        <v>-738867.30999999994</v>
+        <v>-741243.88</v>
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>637697.29000000015</v>
+        <v>567820.72000000009</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
-        <v>232322.71000000002</v>
+        <v>235122.71000000002</v>
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-240586.81999999998</v>
+        <v>-255843.37999999998</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-8264.1099999999569</v>
+        <v>-20720.669999999955</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -19987,24 +20034,24 @@
       </c>
       <c r="B16" s="48">
         <f>B15/A16</f>
-        <v>114713.71666666667</v>
+        <v>109088.71666666667</v>
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
-        <v>-61572.275833333326</v>
+        <v>-61770.323333333334</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
         <f>E15/A16</f>
-        <v>19360.225833333334</v>
+        <v>19593.55916666667</v>
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-20048.901666666665</v>
+        <v>-21320.281666666666</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-688.67583333332971</v>
+        <v>-1726.7224999999962</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
@@ -20026,7 +20073,7 @@
       </c>
       <c r="N16" s="56">
         <f>AVERAGE(N2:N15)</f>
-        <v>293.25582662084611</v>
+        <v>295.44318710107689</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -20038,18 +20085,18 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="319">
+      <c r="L17" s="321">
         <f>L15+M15</f>
         <v>1398.288086</v>
       </c>
-      <c r="M17" s="319"/>
+      <c r="M17" s="321"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F27+'05_24'!F21+'06_24'!F22</f>
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F36+'05_24'!F21+'06_24'!F22</f>
         <v>31222.71</v>
       </c>
       <c r="J18" s="29"/>
@@ -35760,8 +35807,8 @@
   </sheetPr>
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -35796,7 +35843,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D39)</f>
-        <v>37500</v>
+        <v>30000</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E39)</f>
@@ -36307,9 +36354,7 @@
       <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="82">
-        <v>7500</v>
-      </c>
+      <c r="D34" s="82"/>
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
       <c r="H34" s="57">
@@ -36508,13 +36553,13 @@
         <v>45373</v>
       </c>
       <c r="B57" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C57">
         <v>10176.39</v>
       </c>
       <c r="D57" s="98" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E57" s="98">
         <v>-1130.71</v>
@@ -36527,13 +36572,13 @@
         <v>45375</v>
       </c>
       <c r="B58" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C58">
         <v>5999</v>
       </c>
       <c r="D58" s="98" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E58" s="98">
         <v>-666.55</v>
@@ -36546,7 +36591,7 @@
         <v>45377</v>
       </c>
       <c r="B59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D59" s="98" t="s">
         <v>151</v>
@@ -36562,7 +36607,7 @@
         <v>45377</v>
       </c>
       <c r="B60" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D60" s="98" t="s">
         <v>143</v>
@@ -46978,8 +47023,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -47011,7 +47056,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>287500</v>
+        <v>280000</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -47375,9 +47420,7 @@
       <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="82">
-        <v>7500</v>
-      </c>
+      <c r="D29" s="82"/>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
       <c r="H29" s="57">
@@ -47574,13 +47617,13 @@
         <v>45373</v>
       </c>
       <c r="B52" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C52">
         <v>10176.39</v>
       </c>
       <c r="D52" s="98" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E52" s="98">
         <v>-1130.71</v>
@@ -47593,7 +47636,7 @@
         <v>45375</v>
       </c>
       <c r="B53" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C53">
         <v>5999</v>
@@ -47612,10 +47655,10 @@
         <v>45377</v>
       </c>
       <c r="B54" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D54" s="98" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E54" s="98">
         <v>-172.9</v>
@@ -51955,8 +51998,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -51988,7 +52031,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>157500</v>
+        <v>150000</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -52354,9 +52397,7 @@
       <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="82">
-        <v>7500</v>
-      </c>
+      <c r="D29" s="82"/>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
       <c r="H29" s="57">
@@ -52553,7 +52594,7 @@
         <v>45373</v>
       </c>
       <c r="B52" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C52">
         <v>10176.39</v>
@@ -52572,7 +52613,7 @@
         <v>45375</v>
       </c>
       <c r="B53" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C53">
         <v>5999</v>
@@ -52591,10 +52632,10 @@
         <v>45377</v>
       </c>
       <c r="B54" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D54" s="98" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E54" s="98">
         <v>-172.9</v>
@@ -53125,8 +53166,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -53158,7 +53199,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>181500</v>
+        <v>174000</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -53522,9 +53563,7 @@
       <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="82">
-        <v>7500</v>
-      </c>
+      <c r="D29" s="82"/>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
       <c r="H29" s="57">
@@ -53740,13 +53779,13 @@
         <v>45373</v>
       </c>
       <c r="B53" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C53">
         <v>10176.39</v>
       </c>
       <c r="D53" s="98" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E53" s="98">
         <v>-1130.71</v>
@@ -53759,13 +53798,13 @@
         <v>45375</v>
       </c>
       <c r="B54" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C54">
         <v>5999</v>
       </c>
       <c r="D54" s="98" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E54" s="98">
         <v>-666.55</v>
@@ -53797,7 +53836,7 @@
         <v>45371</v>
       </c>
       <c r="B56" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D56" s="98" t="s">
         <v>170</v>
@@ -53813,7 +53852,7 @@
         <v>45377</v>
       </c>
       <c r="B57" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D57" s="98" t="s">
         <v>194</v>
@@ -54330,8 +54369,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54363,7 +54402,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>181500</v>
+        <v>174000</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -54727,9 +54766,7 @@
       <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="82">
-        <v>7500</v>
-      </c>
+      <c r="D29" s="82"/>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
       <c r="H29" s="57">
@@ -54945,13 +54982,13 @@
         <v>45373</v>
       </c>
       <c r="B53" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C53">
         <v>10176.39</v>
       </c>
       <c r="D53" s="98" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E53" s="98">
         <v>-1130.71</v>
@@ -54964,13 +55001,13 @@
         <v>45375</v>
       </c>
       <c r="B54" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C54">
         <v>5999</v>
       </c>
       <c r="D54" s="98" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E54" s="98">
         <v>-666.55</v>
@@ -55002,7 +55039,7 @@
         <v>45371</v>
       </c>
       <c r="B56" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D56" s="98" t="s">
         <v>195</v>
@@ -55018,7 +55055,7 @@
         <v>45377</v>
       </c>
       <c r="B57" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D57" s="98" t="s">
         <v>239</v>
@@ -55547,8 +55584,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55580,7 +55617,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>37500</v>
+        <v>30000</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -55944,9 +55981,7 @@
       <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="82">
-        <v>7500</v>
-      </c>
+      <c r="D29" s="82"/>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
       <c r="H29" s="57">
@@ -55974,7 +56009,7 @@
         <v>45504</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="98"/>
@@ -56162,13 +56197,13 @@
         <v>45373</v>
       </c>
       <c r="B53" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C53">
         <v>10176.39</v>
       </c>
       <c r="D53" s="98" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E53" s="98">
         <v>-1130.71</v>
@@ -56181,13 +56216,13 @@
         <v>45375</v>
       </c>
       <c r="B54" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C54">
         <v>5999</v>
       </c>
       <c r="D54" s="98" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E54" s="98">
         <v>-666.55</v>
@@ -56219,10 +56254,10 @@
         <v>45371</v>
       </c>
       <c r="B56" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D56" s="98" t="s">
         <v>1151</v>
-      </c>
-      <c r="D56" s="98" t="s">
-        <v>1152</v>
       </c>
       <c r="E56" s="98">
         <v>101.77</v>
@@ -56235,7 +56270,7 @@
         <v>45377</v>
       </c>
       <c r="B57" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D57" s="98" t="s">
         <v>398</v>
@@ -56772,8 +56807,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56805,7 +56840,7 @@
       </c>
       <c r="D2" s="81">
         <f>SUM(D4:D34)</f>
-        <v>32500</v>
+        <v>25000</v>
       </c>
       <c r="E2" s="81">
         <f>SUM(E4:E34)</f>
@@ -57169,9 +57204,7 @@
       <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="82">
-        <v>7500</v>
-      </c>
+      <c r="D29" s="82"/>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
       <c r="H29" s="57">
@@ -57406,7 +57439,7 @@
         <v>45373</v>
       </c>
       <c r="B55" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C55">
         <v>10176.39</v>
@@ -57425,13 +57458,13 @@
         <v>45375</v>
       </c>
       <c r="B56" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C56">
         <v>5999</v>
       </c>
       <c r="D56" s="98" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E56" s="98">
         <v>-666.55</v>
@@ -57464,10 +57497,10 @@
         <v>45371</v>
       </c>
       <c r="B58" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D58" s="98" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E58" s="98">
         <v>101.77</v>
@@ -57481,7 +57514,7 @@
         <v>45377</v>
       </c>
       <c r="B59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D59" s="98" t="s">
         <v>429</v>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D4AE4-A6AD-4C1B-B108-5727A17F1477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A35544-3867-470C-953E-163C8C8FB48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1171">
   <si>
     <t>umut</t>
   </si>
@@ -3774,6 +3774,15 @@
   </si>
   <si>
     <t>Doğuş Kira 7/12-2024-25 15000 - 6500 (07/03)</t>
+  </si>
+  <si>
+    <t>Ablama bayram öncesi (iş 5gr)</t>
+  </si>
+  <si>
+    <t>2-4 te ödendi</t>
+  </si>
+  <si>
+    <t>2-5 vadeli idi</t>
   </si>
 </sst>
 </file>
@@ -5172,12 +5181,7 @@
     <xf numFmtId="168" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="175" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -5187,6 +5191,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="174" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="17" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5843,7 +5852,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -5972,13 +5981,16 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="330">
+      <c r="A9" s="327">
         <v>45414</v>
       </c>
-      <c r="B9" s="322" t="s">
+      <c r="B9" s="320" t="s">
         <v>1135</v>
       </c>
       <c r="C9" s="311"/>
+      <c r="D9" t="s">
+        <v>1169</v>
+      </c>
       <c r="E9" s="98">
         <v>-103.5</v>
       </c>
@@ -7087,10 +7099,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7122,24 +7134,24 @@
         <v>77</v>
       </c>
       <c r="D2" s="98">
-        <f>SUM(D5:D45)</f>
+        <f>SUM(D5:D46)</f>
         <v>48500</v>
       </c>
       <c r="E2" s="98">
-        <f>SUM(E5:E45)</f>
-        <v>-51370.06</v>
+        <f>SUM(E5:E46)</f>
+        <v>-51473.56</v>
       </c>
       <c r="F2" s="98">
-        <f>SUM(F5:F45)</f>
+        <f>SUM(F5:F46)</f>
         <v>0</v>
       </c>
       <c r="G2" s="98">
-        <f>SUM(G5:G45)</f>
-        <v>-1681.41</v>
+        <f>SUM(G5:G46)</f>
+        <v>-20770.759999999998</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7161,7 +7173,7 @@
       <c r="F5" s="292"/>
       <c r="G5" s="292"/>
       <c r="H5" s="292">
-        <f>H4+F5+G5</f>
+        <f t="shared" ref="H5:H31" si="0">H4+F5+G5</f>
         <v>0</v>
       </c>
     </row>
@@ -7183,7 +7195,7 @@
         <v>-169.28</v>
       </c>
       <c r="H6" s="292">
-        <f>H5+F6+G6</f>
+        <f t="shared" si="0"/>
         <v>-169.28</v>
       </c>
     </row>
@@ -7202,651 +7214,672 @@
         <v>-1512.13</v>
       </c>
       <c r="H7" s="292">
-        <f>H6+F7+G7</f>
+        <f t="shared" si="0"/>
         <v>-1681.41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="289"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="289">
+        <v>45384</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>1168</v>
+      </c>
       <c r="C8" s="83"/>
       <c r="E8" s="292"/>
+      <c r="G8" s="292">
+        <v>-10000</v>
+      </c>
       <c r="H8" s="292">
-        <f>H7+F8+G8</f>
-        <v>-1681.41</v>
+        <f t="shared" si="0"/>
+        <v>-11681.41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="289"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="E9" s="292"/>
+      <c r="A9" s="327">
+        <v>45384</v>
+      </c>
+      <c r="B9" s="324" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C9" s="324"/>
+      <c r="D9" s="321"/>
+      <c r="E9" s="292">
+        <v>-2273.0700000000002</v>
+      </c>
+      <c r="F9" s="308"/>
+      <c r="G9" s="292">
+        <v>-2237.0700000000002</v>
+      </c>
       <c r="H9" s="292">
-        <f>H8+F9+G9</f>
-        <v>-1681.41</v>
+        <f t="shared" si="0"/>
+        <v>-13918.48</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="289"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="E10" s="292"/>
+      <c r="A10" s="327">
+        <v>45384</v>
+      </c>
+      <c r="B10" s="324" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C10" s="324"/>
+      <c r="D10" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E10" s="292">
+        <v>-103.5</v>
+      </c>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292">
+        <v>-103.5</v>
+      </c>
       <c r="H10" s="292">
-        <f>H9+F10+G10</f>
-        <v>-1681.41</v>
+        <f t="shared" si="0"/>
+        <v>-14021.98</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="A11" s="332">
         <v>45385</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="98">
+        <v>-150</v>
+      </c>
+      <c r="G11" s="98">
+        <v>-197.34</v>
+      </c>
+      <c r="H11" s="292">
+        <f t="shared" si="0"/>
+        <v>-14219.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B12" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="98">
-        <f>E93</f>
+      <c r="E12" s="98">
+        <f>E94</f>
         <v>-6551.44</v>
       </c>
-      <c r="H11" s="292">
-        <f t="shared" ref="H11:H23" si="0">H10+F11+G11</f>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="289">
-        <v>45386</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="98">
-        <f>E61</f>
-        <v>-6693.55</v>
+      <c r="G12" s="98">
+        <f>E12</f>
+        <v>-6551.44</v>
       </c>
       <c r="H12" s="292">
         <f t="shared" si="0"/>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="330">
-        <v>45387</v>
-      </c>
-      <c r="B13" s="322" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C13" s="311"/>
-      <c r="D13" s="323"/>
-      <c r="E13" s="98">
-        <v>-2273.0700000000002</v>
-      </c>
-      <c r="F13" s="57"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="86"/>
       <c r="H13" s="292">
         <f t="shared" si="0"/>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="330"/>
-      <c r="B14" s="322"/>
-      <c r="C14" s="311"/>
-      <c r="D14" s="323"/>
-      <c r="F14" s="57"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="86"/>
       <c r="H14" s="292">
         <f t="shared" si="0"/>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="330"/>
-      <c r="B15" s="322"/>
-      <c r="C15" s="311"/>
-      <c r="D15" s="323"/>
-      <c r="F15" s="57"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="86"/>
       <c r="H15" s="292">
         <f t="shared" si="0"/>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="289">
-        <v>45382</v>
-      </c>
-      <c r="B16" s="331" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="331"/>
-      <c r="D16" s="332">
-        <v>15000</v>
-      </c>
-      <c r="F16" s="57"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="86"/>
       <c r="H16" s="292">
         <f t="shared" si="0"/>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="289">
+        <v>45386</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="98">
+        <f>E62</f>
+        <v>-6693.55</v>
+      </c>
+      <c r="H17" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="289">
+        <v>45382</v>
+      </c>
+      <c r="B19" s="328" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="328"/>
+      <c r="D19" s="329">
+        <v>15000</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="H19" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="289">
         <v>45351</v>
       </c>
-      <c r="B17" s="331" t="s">
+      <c r="B20" s="328" t="s">
         <v>1167</v>
       </c>
-      <c r="C17" s="331"/>
-      <c r="D17" s="332">
+      <c r="C20" s="328"/>
+      <c r="D20" s="329">
         <v>8500</v>
       </c>
-      <c r="H17" s="292">
-        <f t="shared" si="0"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="289">
+      <c r="H20" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="289">
         <v>45322</v>
       </c>
-      <c r="B18" s="315" t="s">
+      <c r="B21" s="315" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="316">
+      <c r="C21" s="316">
         <v>7000</v>
       </c>
-      <c r="D18" s="316"/>
-      <c r="H18" s="292">
-        <f t="shared" si="0"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="289"/>
-      <c r="B19" s="35"/>
-      <c r="H19" s="292">
-        <f t="shared" si="0"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" t="s">
+      <c r="D21" s="316"/>
+      <c r="H21" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="289"/>
+      <c r="B22" s="35"/>
+      <c r="H22" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E23" s="98">
         <v>-10000</v>
       </c>
-      <c r="H20" s="292">
-        <f t="shared" si="0"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="H21" s="292">
-        <f t="shared" si="0"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="H22" s="292">
-        <f t="shared" si="0"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="98">
-        <v>-150</v>
-      </c>
       <c r="H23" s="292">
         <f t="shared" si="0"/>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="98">
-        <v>-300</v>
-      </c>
       <c r="H24" s="292">
-        <f t="shared" ref="H12:H25" si="1">H23+F24+G24</f>
-        <v>-1681.41</v>
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="85" t="s">
         <v>85</v>
       </c>
       <c r="E25" s="98">
+        <v>-300</v>
+      </c>
+      <c r="H25" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="98">
         <v>-100</v>
       </c>
-      <c r="H25" s="292">
-        <f t="shared" si="1"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="86" t="s">
+      <c r="H26" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="98">
-        <f>E56*-1</f>
+      <c r="E27" s="98">
+        <f>E57*-1</f>
         <v>0</v>
       </c>
-      <c r="H26" s="98">
-        <f>H25+F26+G26</f>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="H27" s="98">
-        <f>H26+F27+G27</f>
-        <v>-1681.41</v>
+      <c r="H27" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="H28" s="98">
-        <f>H27+F28+G28</f>
-        <v>-1681.41</v>
+      <c r="H28" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="87">
+      <c r="H29" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="87">
         <v>45173</v>
       </c>
-      <c r="B29" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="83"/>
-      <c r="E29" s="98">
-        <v>-5375</v>
-      </c>
-      <c r="H29" s="98">
-        <f>H28+F29+G29</f>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="87"/>
       <c r="B30" s="83" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="83"/>
       <c r="E30" s="98">
+        <v>-5375</v>
+      </c>
+      <c r="H30" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="87"/>
+      <c r="B31" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="E31" s="98">
         <v>-2125</v>
       </c>
-      <c r="H30" s="98">
-        <f>H29+F30+G30</f>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="H31" s="98">
-        <f t="shared" ref="H31:H34" si="2">H30+F31+G31</f>
-        <v>-1681.41</v>
+      <c r="H31" s="292">
+        <f t="shared" si="0"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
       <c r="H32" s="98">
-        <f t="shared" si="2"/>
-        <v>-1681.41</v>
+        <f t="shared" ref="H32:H35" si="1">H31+F32+G32</f>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="98">
-        <v>-5000</v>
-      </c>
       <c r="H33" s="98">
-        <f t="shared" si="2"/>
-        <v>-1681.41</v>
+        <f t="shared" si="1"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="98">
         <v>-5000</v>
       </c>
       <c r="H34" s="98">
-        <f t="shared" si="2"/>
-        <v>-1681.41</v>
+        <f t="shared" si="1"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E35" s="98">
         <v>-5000</v>
       </c>
       <c r="H35" s="98">
-        <f t="shared" ref="H35:H43" si="3">H34+F35+G35</f>
-        <v>-1681.41</v>
+        <f t="shared" si="1"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="98">
+        <v>-5000</v>
+      </c>
+      <c r="H36" s="98">
+        <f t="shared" ref="H36:H44" si="2">H35+F36+G36</f>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="98">
+      <c r="D37" s="98">
         <v>10000</v>
       </c>
-      <c r="H36" s="98">
-        <f t="shared" si="3"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="83"/>
-      <c r="E38" s="98">
-        <v>-400</v>
+      <c r="H37" s="98">
+        <f t="shared" si="2"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="83"/>
       <c r="E39" s="98">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="83"/>
+      <c r="E40" s="98">
         <v>-500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="87"/>
-      <c r="H40" s="98">
-        <f>H36+F40+G40</f>
-        <v>-1681.41</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="87"/>
-      <c r="B41" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" s="98">
-        <v>15000</v>
-      </c>
       <c r="H41" s="98">
-        <f t="shared" si="3"/>
-        <v>-1681.41</v>
+        <f>H37+F41+G41</f>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="87"/>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="98">
+        <v>15000</v>
+      </c>
       <c r="H42" s="98">
-        <f t="shared" si="3"/>
-        <v>-1681.41</v>
+        <f t="shared" si="2"/>
+        <v>-20770.759999999998</v>
       </c>
     </row>
     <row r="43" spans="1:8">
+      <c r="A43" s="87"/>
       <c r="H43" s="98">
-        <f t="shared" si="3"/>
-        <v>-1681.41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75">
-      <c r="B45" s="91"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" t="s">
+        <f t="shared" si="2"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="H44" s="98">
+        <f t="shared" si="2"/>
+        <v>-20770.759999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75">
+      <c r="B46" s="91"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="72" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-    </row>
-    <row r="49" spans="1:8" s="2" customFormat="1">
-      <c r="A49" s="87"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="92">
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1">
+      <c r="A50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="92">
         <v>44929</v>
       </c>
-      <c r="B50" s="93" t="s">
+      <c r="B51" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="98">
-        <f>SUM(D51:D56)</f>
+      <c r="C51" s="72"/>
+      <c r="D51" s="98">
+        <f>SUM(D52:D57)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="98">
-        <f>SUM(E51:E56)</f>
+      <c r="E51" s="98">
+        <f>SUM(E52:E57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="87"/>
-      <c r="B51" s="85" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="87"/>
+      <c r="B52" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="85"/>
-    </row>
-    <row r="57" spans="1:8">
       <c r="C57" s="85"/>
     </row>
-    <row r="59" spans="1:8">
-      <c r="B59" s="65"/>
+    <row r="58" spans="1:8">
+      <c r="C58" s="85"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="B60" s="82"/>
+      <c r="B60" s="65"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="72"/>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="82"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="72"/>
+      <c r="B62" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="E61" s="98">
-        <f>SUM(E62:E87)</f>
+      <c r="C62" s="72"/>
+      <c r="E62" s="98">
+        <f>SUM(E63:E88)</f>
         <v>-6693.55</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="87">
+    <row r="64" spans="1:8">
+      <c r="A64" s="87">
         <v>45187</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B64" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="85">
+      <c r="C64" s="85">
         <v>7648.33</v>
       </c>
-      <c r="D63" s="98" t="s">
+      <c r="D64" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="98">
+      <c r="E64" s="98">
         <v>-849.81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="289">
-        <v>45348</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C64">
-        <v>1406</v>
-      </c>
-      <c r="D64" s="98" t="s">
-        <v>469</v>
-      </c>
-      <c r="E64" s="98">
-        <v>-234.33</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="289">
-        <v>45358</v>
+        <v>45348</v>
       </c>
       <c r="B65" t="s">
-        <v>1126</v>
+        <v>1100</v>
       </c>
       <c r="C65">
-        <v>2273</v>
+        <v>1406</v>
       </c>
       <c r="D65" s="98" t="s">
         <v>469</v>
       </c>
       <c r="E65" s="98">
-        <v>-378.87</v>
+        <v>-234.33</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="289">
-        <v>45371</v>
+        <v>45358</v>
       </c>
       <c r="B66" t="s">
-        <v>1150</v>
+        <v>1126</v>
+      </c>
+      <c r="C66">
+        <v>2273</v>
       </c>
       <c r="D66" s="98" t="s">
-        <v>1154</v>
+        <v>469</v>
       </c>
       <c r="E66" s="98">
-        <v>101.77</v>
+        <v>-378.87</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="289">
-        <v>45373</v>
+        <v>45371</v>
       </c>
       <c r="B67" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C67">
-        <v>10176.39</v>
+        <v>1150</v>
       </c>
       <c r="D67" s="98" t="s">
-        <v>1139</v>
+        <v>1154</v>
       </c>
       <c r="E67" s="98">
-        <v>-1130.71</v>
+        <v>101.77</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="289">
-        <v>45375</v>
+        <v>45373</v>
       </c>
       <c r="B68" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="C68">
-        <v>5999</v>
+        <v>10176.39</v>
       </c>
       <c r="D68" s="98" t="s">
         <v>1139</v>
       </c>
       <c r="E68" s="98">
+        <v>-1130.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="289">
+        <v>45375</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C69">
+        <v>5999</v>
+      </c>
+      <c r="D69" s="98" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E69" s="98">
         <v>-666.56</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="289"/>
-    </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="289">
+      <c r="A70" s="289"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="289">
         <v>45347</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>1101</v>
       </c>
-      <c r="E70" s="98">
+      <c r="E71" s="98">
         <v>-343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="87">
-        <v>45348</v>
-      </c>
-      <c r="B71" s="85" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C71" s="85"/>
-      <c r="E71" s="98">
-        <v>-150</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="87">
-        <v>45351</v>
+        <v>45348</v>
       </c>
       <c r="B72" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" s="295">
-        <f>E72</f>
-        <v>-86.95</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="C72" s="85"/>
       <c r="E72" s="98">
-        <v>-86.95</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="87">
-        <v>45353</v>
-      </c>
-      <c r="B73" s="96" t="s">
-        <v>406</v>
-      </c>
-      <c r="C73" s="85"/>
+        <v>45351</v>
+      </c>
+      <c r="B73" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="295">
+        <f>E73</f>
+        <v>-86.95</v>
+      </c>
       <c r="E73" s="98">
-        <v>-500</v>
+        <v>-86.95</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -7854,38 +7887,35 @@
         <v>45353</v>
       </c>
       <c r="B74" s="96" t="s">
-        <v>1136</v>
+        <v>406</v>
       </c>
       <c r="C74" s="85"/>
       <c r="E74" s="98">
-        <v>-600</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="87">
-        <v>45354</v>
+        <v>45353</v>
       </c>
       <c r="B75" s="96" t="s">
-        <v>674</v>
+        <v>1136</v>
       </c>
       <c r="C75" s="85"/>
       <c r="E75" s="98">
-        <v>-330</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="87">
-        <v>45355</v>
+        <v>45354</v>
       </c>
       <c r="B76" s="96" t="s">
-        <v>403</v>
-      </c>
-      <c r="C76" s="295">
-        <f>E76</f>
-        <v>-200</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="C76" s="85"/>
       <c r="E76" s="98">
-        <v>-200</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -7893,38 +7923,41 @@
         <v>45355</v>
       </c>
       <c r="B77" s="96" t="s">
-        <v>712</v>
-      </c>
-      <c r="C77" s="85"/>
+        <v>403</v>
+      </c>
+      <c r="C77" s="295">
+        <f>E77</f>
+        <v>-200</v>
+      </c>
       <c r="E77" s="98">
-        <v>-50</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="87">
-        <v>45356</v>
+        <v>45355</v>
       </c>
       <c r="B78" s="96" t="s">
-        <v>403</v>
-      </c>
-      <c r="C78" s="295">
-        <f>E78</f>
-        <v>-200</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C78" s="85"/>
       <c r="E78" s="98">
-        <v>-200</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="87">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="B79" s="96" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C79" s="85"/>
+        <v>403</v>
+      </c>
+      <c r="C79" s="295">
+        <f>E79</f>
+        <v>-200</v>
+      </c>
       <c r="E79" s="98">
-        <v>-160</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7932,106 +7965,109 @@
         <v>45357</v>
       </c>
       <c r="B80" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="85">
-        <v>6341.66</v>
+        <v>1137</v>
+      </c>
+      <c r="C80" s="85"/>
+      <c r="E80" s="98">
+        <v>-160</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="87">
-        <v>45361</v>
+        <v>45357</v>
       </c>
       <c r="B81" s="96" t="s">
-        <v>211</v>
-      </c>
-      <c r="E81" s="98">
-        <v>-294.14</v>
+        <v>9</v>
+      </c>
+      <c r="C81" s="85">
+        <v>6341.66</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="87">
+        <v>45361</v>
+      </c>
+      <c r="B82" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" s="98">
+        <v>-294.14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="87">
         <v>45358</v>
       </c>
-      <c r="B82" s="96" t="s">
+      <c r="B83" s="96" t="s">
         <v>403</v>
       </c>
-      <c r="C82" s="295">
-        <f>E82</f>
+      <c r="C83" s="295">
+        <f>E83</f>
         <v>-200</v>
       </c>
-      <c r="E82" s="98">
+      <c r="E83" s="98">
         <v>-200</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="87"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="85"/>
-      <c r="E83" s="98">
-        <v>-3.05</v>
-      </c>
-    </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="87">
-        <v>45376</v>
-      </c>
-      <c r="B84" s="96" t="s">
-        <v>1148</v>
-      </c>
+      <c r="A84" s="87"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="85"/>
       <c r="E84" s="98">
-        <v>-874.19</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="87"/>
-      <c r="B85" s="96"/>
+      <c r="A85" s="87">
+        <v>45376</v>
+      </c>
+      <c r="B85" s="96" t="s">
+        <v>1148</v>
+      </c>
       <c r="C85" s="85"/>
       <c r="E85" s="98">
-        <v>-43.71</v>
+        <v>-874.19</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="87">
-        <v>45374</v>
-      </c>
-      <c r="B86" s="96" t="s">
-        <v>1149</v>
-      </c>
+      <c r="A86" s="87"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="85"/>
       <c r="E86" s="98">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15">
+        <v>-43.71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="87">
         <v>45374</v>
       </c>
       <c r="B87" s="96" t="s">
         <v>1149</v>
       </c>
-      <c r="D87" s="109" t="s">
+      <c r="C87" s="85"/>
+      <c r="E87" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15">
+      <c r="A88" s="87">
+        <v>45374</v>
+      </c>
+      <c r="B88" s="96" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D88" s="109" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" s="311" customFormat="1" ht="15">
-      <c r="A88" s="309"/>
-      <c r="B88" s="313" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C88" s="311">
-        <v>686.95</v>
-      </c>
-      <c r="D88" s="299"/>
-      <c r="E88" s="312"/>
-      <c r="F88" s="312"/>
-      <c r="G88" s="312"/>
-      <c r="H88" s="312"/>
     </row>
     <row r="89" spans="1:8" s="311" customFormat="1" ht="15">
       <c r="A89" s="309"/>
-      <c r="B89" s="310"/>
+      <c r="B89" s="313" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C89" s="311">
+        <v>686.95</v>
+      </c>
       <c r="D89" s="299"/>
       <c r="E89" s="312"/>
       <c r="F89" s="312"/>
@@ -8056,110 +8092,114 @@
       <c r="G91" s="312"/>
       <c r="H91" s="312"/>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="87"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
+    <row r="92" spans="1:8" s="311" customFormat="1" ht="15">
+      <c r="A92" s="309"/>
+      <c r="B92" s="310"/>
+      <c r="D92" s="299"/>
+      <c r="E92" s="312"/>
+      <c r="F92" s="312"/>
+      <c r="G92" s="312"/>
+      <c r="H92" s="312"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="72"/>
-      <c r="B93" s="71" t="s">
+      <c r="A93" s="87"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="72"/>
+      <c r="B94" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="72"/>
-      <c r="E93" s="98">
-        <f>SUM(E94:E101)</f>
+      <c r="C94" s="72"/>
+      <c r="E94" s="98">
+        <f>SUM(E95:E102)</f>
         <v>-6551.44</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="87"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-    </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="3">
-        <v>45214</v>
-      </c>
-      <c r="B95" t="s">
-        <v>159</v>
-      </c>
-      <c r="D95" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="E95" s="98">
-        <v>-600</v>
-      </c>
+      <c r="A95" s="87"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="85"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="3">
+        <v>45214</v>
+      </c>
+      <c r="B96" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="E96" s="98">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3">
         <v>45285</v>
       </c>
-      <c r="B96" s="85" t="s">
+      <c r="B97" s="85" t="s">
         <v>134</v>
-      </c>
-      <c r="C96" s="85"/>
-      <c r="D96" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="E96" s="98">
-        <v>-3551.66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="87"/>
-      <c r="B97" s="7" t="s">
-        <v>1127</v>
       </c>
       <c r="C97" s="85"/>
       <c r="D97" s="98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E97" s="98">
-        <v>-649.78</v>
+        <v>-3551.66</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="87"/>
       <c r="B98" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="85">
-        <v>49.98</v>
-      </c>
+        <v>1127</v>
+      </c>
+      <c r="C98" s="85"/>
       <c r="D98" s="98" t="s">
         <v>162</v>
       </c>
+      <c r="E98" s="98">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="87"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="85"/>
+      <c r="B99" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="85">
+        <v>49.98</v>
+      </c>
+      <c r="D99" s="98" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="87">
+      <c r="A100" s="87"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="85"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="87">
         <v>45374</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B101" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="C100" s="85"/>
-      <c r="E100" s="98">
+      <c r="C101" s="85"/>
+      <c r="E101" s="98">
         <v>-1750</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="87"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="109" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="15">
       <c r="A102" s="87"/>
       <c r="B102" s="7"/>
       <c r="C102" s="85"/>
+      <c r="D102" s="109" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="87"/>
@@ -8262,83 +8302,74 @@
       <c r="C122" s="85"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="87"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="85"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="70" t="s">
         <v>1161</v>
       </c>
-      <c r="B123" s="71" t="s">
+      <c r="B124" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C123" s="72">
+      <c r="C124" s="72">
         <v>2024</v>
       </c>
-      <c r="D123" s="73"/>
-      <c r="E123" s="74">
-        <f>SUM(E124:E138)</f>
+      <c r="D124" s="73"/>
+      <c r="E124" s="74">
+        <f>SUM(E125:E139)</f>
         <v>774287.73659999995</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="303">
-        <v>45383</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="304"/>
-      <c r="D124" s="304"/>
-      <c r="E124" s="304">
-        <v>64000</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="303">
-        <f>A124</f>
         <v>45383</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1162</v>
+        <v>1</v>
       </c>
       <c r="C125" s="304"/>
       <c r="D125" s="304"/>
       <c r="E125" s="304">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="303">
+        <f>A125</f>
+        <v>45383</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C126" s="304"/>
+      <c r="D126" s="304"/>
+      <c r="E126" s="304">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="75">
-        <f t="shared" ref="A126:A138" si="4">A125</f>
-        <v>45383</v>
-      </c>
-      <c r="B126" t="s">
-        <v>59</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="65">
-        <v>6036.94</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A127:A139" si="3">A126</f>
         <v>45383</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="65">
-        <v>0</v>
+        <v>6036.94</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -8348,13 +8379,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
-      </c>
-      <c r="C129" s="101"/>
+        <v>256</v>
+      </c>
+      <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="65">
         <v>0</v>
@@ -8362,13 +8393,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C130" s="101"/>
       <c r="D130" s="1"/>
       <c r="E130" s="65">
         <v>0</v>
@@ -8376,169 +8407,183 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B131" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>1163</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="65">
-        <v>110122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="75">
-        <f>A131</f>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C132" s="1"/>
+        <v>1114</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1163</v>
+      </c>
       <c r="D132" s="1"/>
       <c r="E132" s="65">
-        <v>450</v>
+        <v>110122</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="75">
-        <f t="shared" si="4"/>
+        <f>A132</f>
         <v>45383</v>
       </c>
       <c r="B133" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C133" s="1">
-        <v>2308.9699999999998</v>
-      </c>
-      <c r="D133" s="1">
-        <v>161</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
       <c r="E133" s="65">
-        <f>D133*C133</f>
-        <v>371744.17</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B134" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C134" s="77">
-        <v>31.879300000000001</v>
+        <v>1164</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2308.9699999999998</v>
       </c>
       <c r="D134" s="1">
-        <v>850</v>
+        <v>161</v>
       </c>
       <c r="E134" s="65">
         <f>D134*C134</f>
-        <v>27097.404999999999</v>
+        <v>371744.17</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B135" t="s">
-        <v>263</v>
+        <v>1165</v>
       </c>
       <c r="C135" s="77">
-        <f>C134</f>
         <v>31.879300000000001</v>
       </c>
       <c r="D135" s="1">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="E135" s="65">
         <f>D135*C135</f>
-        <v>7969.8249999999998</v>
+        <v>27097.404999999999</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B136" t="s">
-        <v>1166</v>
+        <v>263</v>
       </c>
       <c r="C136" s="77">
-        <v>34.394500000000001</v>
+        <f>C135</f>
+        <v>31.879300000000001</v>
       </c>
       <c r="D136" s="1">
-        <v>58.8</v>
+        <v>250</v>
       </c>
       <c r="E136" s="65">
         <f>D136*C136</f>
-        <v>2022.3966</v>
+        <v>7969.8249999999998</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B137" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+        <v>1166</v>
+      </c>
+      <c r="C137" s="77">
+        <v>34.394500000000001</v>
+      </c>
+      <c r="D137" s="1">
+        <v>58.8</v>
+      </c>
       <c r="E137" s="65">
-        <v>30000</v>
+        <f>D137*C137</f>
+        <v>2022.3966</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="B138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="65">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="75">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="65">
         <v>4000</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="D139"/>
-      <c r="E139" s="99"/>
-    </row>
     <row r="140" spans="1:5">
-      <c r="C140" s="101"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="101"/>
+      <c r="D140"/>
+      <c r="E140" s="99"/>
     </row>
     <row r="141" spans="1:5">
       <c r="C141" s="101"/>
-      <c r="D141" s="64" t="s">
+      <c r="D141" s="7"/>
+      <c r="E141" s="101"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="C142" s="101"/>
+      <c r="D142" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E141" s="12">
-        <f>SUM(E124:E138)</f>
+      <c r="E142" s="12">
+        <f>SUM(E125:E139)</f>
         <v>774287.73659999995</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="C142" s="112" t="str">
-        <f>A123</f>
+    <row r="143" spans="1:5">
+      <c r="C143" s="112" t="str">
+        <f>A124</f>
         <v>NİSANa</v>
       </c>
-      <c r="D142" s="113" t="s">
+      <c r="D143" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E143" s="4">
         <f>H2</f>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8627,7 +8672,7 @@
         <v>-250</v>
       </c>
       <c r="H4" s="98">
-        <f>H3+F4+G4</f>
+        <f t="shared" ref="H4:H29" si="0">H3+F4+G4</f>
         <v>0</v>
       </c>
     </row>
@@ -8647,7 +8692,7 @@
         <v>-1512.13</v>
       </c>
       <c r="H5" s="292">
-        <f>H4+F5+G5</f>
+        <f t="shared" si="0"/>
         <v>-1512.13</v>
       </c>
     </row>
@@ -8666,7 +8711,7 @@
         <v>-166.9</v>
       </c>
       <c r="H6" s="292">
-        <f>H5+F6+G6</f>
+        <f t="shared" si="0"/>
         <v>-1679.0300000000002</v>
       </c>
     </row>
@@ -8686,7 +8731,7 @@
         <v>-10000</v>
       </c>
       <c r="H7" s="292">
-        <f>H6+F7+G7</f>
+        <f t="shared" si="0"/>
         <v>-11679.03</v>
       </c>
     </row>
@@ -8711,7 +8756,7 @@
         <v>-72173.5</v>
       </c>
       <c r="H8" s="292">
-        <f>H7+F8+G8</f>
+        <f t="shared" si="0"/>
         <v>-83852.53</v>
       </c>
     </row>
@@ -8734,7 +8779,7 @@
         <v>-6341.6600000000008</v>
       </c>
       <c r="H9" s="292">
-        <f>H8+F9+G9</f>
+        <f t="shared" si="0"/>
         <v>-90194.19</v>
       </c>
     </row>
@@ -8755,7 +8800,7 @@
         <v>-220.03</v>
       </c>
       <c r="H10" s="292">
-        <f>H9+F10+G10</f>
+        <f t="shared" si="0"/>
         <v>-90414.22</v>
       </c>
     </row>
@@ -8776,7 +8821,7 @@
         <v>-631.37</v>
       </c>
       <c r="H11" s="292">
-        <f>H10+F11+G11</f>
+        <f t="shared" si="0"/>
         <v>-91045.59</v>
       </c>
     </row>
@@ -8798,7 +8843,7 @@
         <v>-5375</v>
       </c>
       <c r="H12" s="292">
-        <f>H11+F12+G12</f>
+        <f t="shared" si="0"/>
         <v>-96420.59</v>
       </c>
     </row>
@@ -8820,7 +8865,7 @@
         <v>-2125</v>
       </c>
       <c r="H13" s="292">
-        <f>H12+F13+G13</f>
+        <f t="shared" si="0"/>
         <v>-98545.59</v>
       </c>
     </row>
@@ -8839,7 +8884,7 @@
       </c>
       <c r="G14" s="292"/>
       <c r="H14" s="292">
-        <f>H13+F14+G14</f>
+        <f t="shared" si="0"/>
         <v>-92045.59</v>
       </c>
     </row>
@@ -8860,7 +8905,7 @@
         <v>-168.91</v>
       </c>
       <c r="H15" s="292">
-        <f>H14+F15+G15</f>
+        <f t="shared" si="0"/>
         <v>-92214.5</v>
       </c>
     </row>
@@ -8883,7 +8928,7 @@
         <v>-225.66</v>
       </c>
       <c r="H16" s="292">
-        <f>H15+F16+G16</f>
+        <f t="shared" si="0"/>
         <v>-92440.16</v>
       </c>
     </row>
@@ -8906,7 +8951,7 @@
         <v>-1083</v>
       </c>
       <c r="H17" s="292">
-        <f>H16+F17+G17</f>
+        <f t="shared" si="0"/>
         <v>-93523.16</v>
       </c>
     </row>
@@ -8929,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="292">
-        <f>H17+F18+G18</f>
+        <f t="shared" si="0"/>
         <v>-93523.16</v>
       </c>
     </row>
@@ -8950,7 +8995,7 @@
       </c>
       <c r="G19" s="292"/>
       <c r="H19" s="292">
-        <f>H18+F19+G19</f>
+        <f t="shared" si="0"/>
         <v>-83155.67</v>
       </c>
       <c r="I19" s="2"/>
@@ -8972,7 +9017,7 @@
         <v>-5203</v>
       </c>
       <c r="H20" s="292">
-        <f>H19+F20+G20</f>
+        <f t="shared" si="0"/>
         <v>-88358.67</v>
       </c>
       <c r="I20" s="2"/>
@@ -8988,7 +9033,7 @@
       <c r="F21" s="308"/>
       <c r="G21" s="292"/>
       <c r="H21" s="292">
-        <f>H20+F21+G21</f>
+        <f t="shared" si="0"/>
         <v>-88358.67</v>
       </c>
       <c r="I21" s="2"/>
@@ -9010,7 +9055,7 @@
         <v>-5203</v>
       </c>
       <c r="H22" s="292">
-        <f>H21+F22+G22</f>
+        <f t="shared" si="0"/>
         <v>-93561.67</v>
       </c>
       <c r="I22" s="2"/>
@@ -9032,42 +9077,42 @@
         <v>-5000</v>
       </c>
       <c r="H23" s="292">
-        <f>H22+F23+G23</f>
+        <f t="shared" si="0"/>
         <v>-98561.67</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="326">
+      <c r="A24" s="323">
         <v>45380</v>
       </c>
-      <c r="B24" s="327" t="s">
+      <c r="B24" s="324" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="327"/>
-      <c r="D24" s="324">
+      <c r="C24" s="324"/>
+      <c r="D24" s="321">
         <v>2800</v>
       </c>
-      <c r="E24" s="325"/>
+      <c r="E24" s="322"/>
       <c r="F24" s="308">
         <v>2800</v>
       </c>
       <c r="G24" s="292"/>
       <c r="H24" s="292">
-        <f>H23+F24+G24</f>
+        <f t="shared" si="0"/>
         <v>-95761.67</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="328">
+      <c r="A25" s="325">
         <v>45380</v>
       </c>
-      <c r="B25" s="329" t="s">
+      <c r="B25" s="326" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="329"/>
-      <c r="D25" s="324"/>
+      <c r="C25" s="326"/>
+      <c r="D25" s="321"/>
       <c r="E25" s="292">
         <v>-400</v>
       </c>
@@ -9076,20 +9121,20 @@
         <v>-255</v>
       </c>
       <c r="H25" s="292">
-        <f>H24+F25+G25</f>
+        <f t="shared" si="0"/>
         <v>-96016.67</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="328">
+      <c r="A26" s="325">
         <v>45380</v>
       </c>
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="326" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="329"/>
-      <c r="D26" s="324"/>
+      <c r="C26" s="326"/>
+      <c r="D26" s="321"/>
       <c r="E26" s="292">
         <v>-500</v>
       </c>
@@ -9098,7 +9143,7 @@
         <v>-460</v>
       </c>
       <c r="H26" s="292">
-        <f>H25+F26+G26</f>
+        <f t="shared" si="0"/>
         <v>-96476.67</v>
       </c>
       <c r="I26" s="2"/>
@@ -9107,7 +9152,7 @@
       <c r="F27" s="78"/>
       <c r="G27" s="292"/>
       <c r="H27" s="292">
-        <f>H26+F27+G27</f>
+        <f t="shared" si="0"/>
         <v>-96476.67</v>
       </c>
     </row>
@@ -9115,7 +9160,7 @@
       <c r="A28" s="318"/>
       <c r="G28" s="292"/>
       <c r="H28" s="292">
-        <f>H27+F28+G28</f>
+        <f t="shared" si="0"/>
         <v>-96476.67</v>
       </c>
     </row>
@@ -9124,7 +9169,7 @@
       <c r="F29" s="57"/>
       <c r="G29" s="292"/>
       <c r="H29" s="292">
-        <f>H28+F29+G29</f>
+        <f t="shared" si="0"/>
         <v>-96476.67</v>
       </c>
     </row>
@@ -10005,7 +10050,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="75">
-        <f t="shared" ref="A111:A127" si="0">A110</f>
+        <f t="shared" ref="A111:A127" si="1">A110</f>
         <v>45352</v>
       </c>
       <c r="B111" t="s">
@@ -10019,7 +10064,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B112" t="s">
@@ -10033,7 +10078,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B113" t="s">
@@ -10047,7 +10092,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B114" t="s">
@@ -10061,7 +10106,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B115" t="s">
@@ -10075,7 +10120,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B116" t="s">
@@ -10091,7 +10136,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B117" t="s">
@@ -10107,7 +10152,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B118" t="s">
@@ -10123,7 +10168,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B119" t="s">
@@ -10139,7 +10184,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B120" t="s">
@@ -10151,7 +10196,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B121" t="s">
@@ -10165,7 +10210,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B122" t="s">
@@ -10184,7 +10229,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B123" t="s">
@@ -10203,7 +10248,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B124" t="s">
@@ -10222,7 +10267,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B125" t="s">
@@ -10241,7 +10286,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B126" t="s">
@@ -10255,7 +10300,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="B127" t="s">
@@ -19367,10 +19412,10 @@
       <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="320" t="s">
+      <c r="L1" s="330" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="320"/>
+      <c r="M1" s="330"/>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -19568,11 +19613,11 @@
       </c>
       <c r="C6" s="26">
         <f>'04_24'!E2</f>
-        <v>-51370.06</v>
+        <v>-51473.56</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>137306.10999999999</v>
+        <v>137202.60999999999</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -19580,11 +19625,11 @@
       </c>
       <c r="F6" s="26">
         <f>'04_24'!G2</f>
-        <v>-1681.41</v>
+        <v>-20770.759999999998</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-18914.809999999979</v>
+        <v>-38004.159999999974</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -19597,7 +19642,7 @@
         <v>31.222709999999999</v>
       </c>
       <c r="N6">
-        <f>'04_24'!E123/1000</f>
+        <f>'04_24'!E124/1000</f>
         <v>774.2877365999999</v>
       </c>
     </row>
@@ -19615,7 +19660,7 @@
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>119117.74999999999</v>
+        <v>119014.24999999999</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -19627,7 +19672,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-18914.809999999979</v>
+        <v>-38004.159999999974</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -19658,7 +19703,7 @@
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>95562.889999999985</v>
+        <v>95459.389999999985</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -19670,7 +19715,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-18914.809999999979</v>
+        <v>-38004.159999999974</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -19704,7 +19749,7 @@
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>77857.839999999982</v>
+        <v>77754.339999999982</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -19716,7 +19761,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-20720.66999999998</v>
+        <v>-39810.019999999975</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -19753,7 +19798,7 @@
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>207704.44999999998</v>
+        <v>207600.94999999998</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -19765,7 +19810,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-20720.66999999998</v>
+        <v>-39810.019999999975</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -19799,7 +19844,7 @@
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>338150.86</v>
+        <v>338047.36</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -19811,7 +19856,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-20720.66999999998</v>
+        <v>-39810.019999999975</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -19848,7 +19893,7 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>345108.69999999995</v>
+        <v>345005.19999999995</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -19860,7 +19905,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-20720.66999999998</v>
+        <v>-39810.019999999975</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -19897,7 +19942,7 @@
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>582066.53999999992</v>
+        <v>581963.03999999992</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -19909,7 +19954,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-20720.66999999998</v>
+        <v>-39810.019999999975</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -19946,7 +19991,7 @@
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>567820.72</v>
+        <v>567717.22</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -19958,7 +20003,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-20720.66999999998</v>
+        <v>-39810.019999999975</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -19991,11 +20036,11 @@
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
-        <v>-741243.88</v>
+        <v>-741347.38</v>
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>567820.72000000009</v>
+        <v>567717.22000000009</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
@@ -20003,11 +20048,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-255843.37999999998</v>
+        <v>-274932.73</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-20720.669999999955</v>
+        <v>-39810.01999999996</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -20038,7 +20083,7 @@
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
-        <v>-61770.323333333334</v>
+        <v>-61778.948333333334</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
@@ -20047,11 +20092,11 @@
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-21320.281666666666</v>
+        <v>-22911.060833333333</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-1726.7224999999962</v>
+        <v>-3317.5016666666634</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
@@ -20085,18 +20130,18 @@
       <c r="K17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="321">
+      <c r="L17" s="331">
         <f>L15+M15</f>
         <v>1398.288086</v>
       </c>
-      <c r="M17" s="321"/>
+      <c r="M17" s="331"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="58" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="1">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F36+'05_24'!F21+'06_24'!F22</f>
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F37+'05_24'!F21+'06_24'!F22</f>
         <v>31222.71</v>
       </c>
       <c r="J18" s="29"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A35544-3867-470C-953E-163C8C8FB48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA26B9-3874-4466-AF2C-62CAA834A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1172">
   <si>
     <t>umut</t>
   </si>
@@ -3783,6 +3783,9 @@
   </si>
   <si>
     <t>2-5 vadeli idi</t>
+  </si>
+  <si>
+    <t>audi teker</t>
   </si>
 </sst>
 </file>
@@ -4724,7 +4727,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5195,7 +5198,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5634,10 +5636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:G17"/>
+  <dimension ref="B3:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -5832,6 +5834,17 @@
       <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>-396.35000000000036</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6">
+        <v>45371</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D18">
+        <v>3050</v>
       </c>
     </row>
   </sheetData>
@@ -5852,27 +5865,27 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.28515625" style="98"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="98" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5883,30 +5896,29 @@
       <c r="C2" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="98">
         <f>SUM(D5:D35)</f>
         <v>25000</v>
       </c>
-      <c r="E2" s="81">
+      <c r="E2" s="98">
         <f>SUM(E5:E35)</f>
         <v>-43188.36</v>
       </c>
-      <c r="F2" s="81">
+      <c r="F2" s="98">
         <f>SUM(F5:F35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="98">
         <f>SUM(G5:G35)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="81">
+      <c r="H2" s="98">
         <f>F2+G2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="64"/>
-      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="83" t="s">
@@ -5915,12 +5927,10 @@
       <c r="C4" s="83" t="s">
         <v>1088</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="57">
+      <c r="E4" s="98">
         <v>-250</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57">
+      <c r="H4" s="98">
         <f>H3+F4+G4</f>
         <v>0</v>
       </c>
@@ -5929,10 +5939,10 @@
       <c r="B5" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="98">
         <v>-152</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="98">
         <f t="shared" ref="H5:H17" si="0">H4+F5+G5</f>
         <v>0</v>
       </c>
@@ -5941,11 +5951,10 @@
       <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="78">
+      <c r="E6" s="98">
         <v>-10000</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5955,12 +5964,10 @@
         <v>80</v>
       </c>
       <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="57">
+      <c r="E7" s="98">
         <v>-400</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+      <c r="H7" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5970,12 +5977,10 @@
         <v>81</v>
       </c>
       <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="57">
+      <c r="E8" s="98">
         <v>-500</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57">
+      <c r="H8" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5988,13 +5993,13 @@
         <v>1135</v>
       </c>
       <c r="C9" s="311"/>
-      <c r="D9" t="s">
+      <c r="D9" s="98" t="s">
         <v>1169</v>
       </c>
       <c r="E9" s="98">
         <v>-103.5</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6002,10 +6007,7 @@
     <row r="10" spans="1:8">
       <c r="B10" s="83"/>
       <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57">
+      <c r="H10" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6017,13 +6019,10 @@
       <c r="C11" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="57">
+      <c r="E11" s="98">
         <v>-150</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57">
+      <c r="H11" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6035,13 +6034,10 @@
       <c r="C12" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="57">
+      <c r="E12" s="98">
         <v>-300</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57">
+      <c r="H12" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6053,13 +6049,10 @@
       <c r="C13" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="57">
+      <c r="E13" s="98">
         <v>-100</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57">
+      <c r="H13" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6067,10 +6060,7 @@
     <row r="14" spans="1:8">
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57">
+      <c r="H14" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6079,14 +6069,11 @@
       <c r="B15" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57">
+      <c r="E15" s="98">
         <f>E46*-1</f>
         <v>0</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57">
+      <c r="H15" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6095,13 +6082,11 @@
       <c r="B16" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="98">
         <f>E51</f>
         <v>-3331.3999999999996</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57">
+      <c r="H16" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6113,12 +6098,11 @@
       <c r="B17" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="98">
         <f>E66</f>
         <v>-4151.46</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57">
+      <c r="H17" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6131,12 +6115,10 @@
         <v>148</v>
       </c>
       <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="57">
+      <c r="E18" s="98">
         <v>-5375</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57">
+      <c r="H18" s="98">
         <f t="shared" ref="H18:H33" si="1">H17+F18+G18</f>
         <v>0</v>
       </c>
@@ -6147,12 +6129,10 @@
         <v>148</v>
       </c>
       <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="57">
+      <c r="E19" s="98">
         <v>-2125</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57">
+      <c r="H19" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6162,31 +6142,28 @@
         <v>149</v>
       </c>
       <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="57">
+      <c r="E20" s="98">
         <v>-1500</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57">
+      <c r="H20" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="H21" s="57">
+      <c r="H21" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="H22" s="57">
+      <c r="H22" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="H23" s="57">
+      <c r="H23" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6195,10 +6172,7 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57">
+      <c r="H24" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6207,12 +6181,10 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="98">
         <v>-5000</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57">
+      <c r="H25" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6221,12 +6193,10 @@
       <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="98">
         <v>-5000</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57">
+      <c r="H26" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6235,21 +6205,16 @@
       <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="98">
         <v>-5000</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57">
+      <c r="H27" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="E28" s="78"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57">
+      <c r="H28" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6258,12 +6223,10 @@
       <c r="B29" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="98">
         <v>10000</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57">
+      <c r="H29" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6273,10 +6236,7 @@
       <c r="B30" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57">
+      <c r="H30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6286,58 +6246,34 @@
       <c r="B31" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="98">
         <v>15000</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57">
+      <c r="H31" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="87"/>
-      <c r="D32" s="82"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57">
+      <c r="H32" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="D33" s="89"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57">
+      <c r="H33" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="D34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-    </row>
     <row r="35" spans="1:8" ht="15.75">
       <c r="B35" s="91"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="E36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="72" t="s">
@@ -6345,15 +6281,15 @@
       </c>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1">
       <c r="A39" s="87"/>
       <c r="C39" s="88"/>
-      <c r="H39" s="57"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="92">
@@ -6363,15 +6299,14 @@
         <v>101</v>
       </c>
       <c r="C40" s="72"/>
-      <c r="D40" s="94">
+      <c r="D40" s="98">
         <f>SUM(D41:D46)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="94">
+      <c r="E40" s="98">
         <f>SUM(E41:E46)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="87"/>
@@ -6379,84 +6314,54 @@
         <v>102</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="57"/>
-      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="85"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
     </row>
     <row r="47" spans="1:8">
       <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:5">
       <c r="B49" s="65"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:5">
       <c r="B50" s="82"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:5">
       <c r="A51" s="72"/>
       <c r="B51" s="71" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="74">
+      <c r="E51" s="98">
         <f>SUM(E52:E63)</f>
         <v>-3331.3999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-    </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:5">
       <c r="A53" s="87">
         <v>45187</v>
       </c>
@@ -6466,16 +6371,14 @@
       <c r="C53" s="85">
         <v>7648.33</v>
       </c>
-      <c r="D53" s="95" t="s">
+      <c r="D53" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="78">
+      <c r="E53" s="98">
         <v>-849.81</v>
       </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="289">
         <v>45348</v>
       </c>
@@ -6485,16 +6388,14 @@
       <c r="C54">
         <v>1406</v>
       </c>
-      <c r="D54" s="95" t="s">
+      <c r="D54" s="98" t="s">
         <v>430</v>
       </c>
-      <c r="E54" s="101">
+      <c r="E54" s="98">
         <v>-234.33</v>
       </c>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="289">
         <v>45373</v>
       </c>
@@ -6510,10 +6411,8 @@
       <c r="E55" s="98">
         <v>-1130.71</v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-    </row>
-    <row r="56" spans="1:8">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="289">
         <v>45375</v>
       </c>
@@ -6529,10 +6428,8 @@
       <c r="E56" s="98">
         <v>-666.55</v>
       </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="289">
         <v>45358</v>
       </c>
@@ -6548,11 +6445,8 @@
       <c r="E57" s="98">
         <v>-378.87</v>
       </c>
-      <c r="F57" s="98"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="289">
         <v>45371</v>
       </c>
@@ -6565,11 +6459,8 @@
       <c r="E58" s="98">
         <v>101.77</v>
       </c>
-      <c r="F58" s="98"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="289">
         <v>45377</v>
       </c>
@@ -6582,90 +6473,52 @@
       <c r="E59" s="98">
         <v>-172.9</v>
       </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-    </row>
-    <row r="60" spans="1:8">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="87"/>
       <c r="B60" s="96"/>
       <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="87"/>
       <c r="B61" s="96"/>
       <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="87"/>
       <c r="B62" s="96"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-    </row>
-    <row r="63" spans="1:8">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="87"/>
       <c r="B63" s="96"/>
       <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="87"/>
       <c r="B64" s="7"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="87"/>
       <c r="B65" s="85"/>
       <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="72"/>
       <c r="B66" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="74">
+      <c r="E66" s="98">
         <f>SUM(E67:E75)</f>
         <v>-4151.46</v>
       </c>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-    </row>
-    <row r="67" spans="1:8">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="87"/>
       <c r="B67" s="85"/>
       <c r="C67" s="85"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="3">
         <v>45285</v>
       </c>
@@ -6673,376 +6526,231 @@
         <v>134</v>
       </c>
       <c r="C68" s="85"/>
-      <c r="D68" t="s">
+      <c r="D68" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="78">
+      <c r="E68" s="98">
         <v>-3551.66</v>
       </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-    </row>
-    <row r="69" spans="1:8">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="87"/>
       <c r="B69" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C69" s="85"/>
-      <c r="D69" s="97" t="s">
+      <c r="D69" s="98" t="s">
         <v>153</v>
       </c>
       <c r="E69" s="98">
         <v>-649.78</v>
       </c>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="87"/>
       <c r="B70" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C70" s="85"/>
-      <c r="D70" s="97" t="s">
+      <c r="D70" s="98" t="s">
         <v>153</v>
       </c>
       <c r="E70" s="98">
         <v>49.98</v>
       </c>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="87"/>
       <c r="B71" s="7"/>
       <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="87"/>
       <c r="B72" s="7"/>
       <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-    </row>
-    <row r="73" spans="1:8">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="87"/>
       <c r="B73" s="7"/>
       <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-    </row>
-    <row r="74" spans="1:8">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="87"/>
       <c r="B74" s="7"/>
       <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-    </row>
-    <row r="75" spans="1:8">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="87"/>
       <c r="B75" s="7"/>
       <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="87"/>
       <c r="B76" s="7"/>
       <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-    </row>
-    <row r="77" spans="1:8">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="87"/>
       <c r="B77" s="7"/>
       <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-    </row>
-    <row r="78" spans="1:8">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="87"/>
       <c r="B78" s="7"/>
       <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-    </row>
-    <row r="79" spans="1:8">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="87"/>
       <c r="B79" s="7"/>
       <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-    </row>
-    <row r="80" spans="1:8">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="87"/>
       <c r="B80" s="7"/>
       <c r="C80" s="85"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-    </row>
-    <row r="81" spans="1:8">
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="87"/>
       <c r="B81" s="7"/>
       <c r="C81" s="85"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-    </row>
-    <row r="82" spans="1:8">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="87"/>
       <c r="B82" s="7"/>
       <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-    </row>
-    <row r="83" spans="1:8">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="87"/>
       <c r="B83" s="7"/>
       <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-    </row>
-    <row r="84" spans="1:8">
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="87"/>
       <c r="B84" s="7"/>
       <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-    </row>
-    <row r="85" spans="1:8">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="87"/>
       <c r="B85" s="7"/>
       <c r="C85" s="85"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-    </row>
-    <row r="86" spans="1:8">
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="87"/>
       <c r="B86" s="7"/>
       <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-    </row>
-    <row r="87" spans="1:8">
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="87"/>
       <c r="B87" s="7"/>
       <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="57"/>
-    </row>
-    <row r="88" spans="1:8">
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="87"/>
       <c r="B88" s="7"/>
       <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-    </row>
-    <row r="89" spans="1:8">
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="87"/>
       <c r="B89" s="7"/>
       <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-    </row>
-    <row r="90" spans="1:8">
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="87"/>
       <c r="B90" s="7"/>
       <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-    </row>
-    <row r="91" spans="1:8">
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="87"/>
       <c r="B91" s="7"/>
       <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
-    </row>
-    <row r="92" spans="1:8">
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="87"/>
       <c r="B92" s="7"/>
       <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="78"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="57"/>
-    </row>
-    <row r="93" spans="1:8">
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="87"/>
       <c r="B93" s="7"/>
       <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="57"/>
-    </row>
-    <row r="94" spans="1:8">
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="87"/>
       <c r="B94" s="7"/>
       <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="57"/>
-    </row>
-    <row r="95" spans="1:8">
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="87"/>
       <c r="B95" s="7"/>
       <c r="C95" s="85"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-    </row>
-    <row r="96" spans="1:8">
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="87"/>
       <c r="B96" s="7"/>
       <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="57"/>
-    </row>
-    <row r="97" spans="1:8">
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="87"/>
       <c r="B97" s="7"/>
       <c r="C97" s="85"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="57"/>
-    </row>
-    <row r="106" spans="1:8">
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="72"/>
       <c r="B106" s="71" t="s">
         <v>110</v>
       </c>
       <c r="C106" s="72"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="74">
+      <c r="E106" s="98">
         <f>SUM(E107:E114)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:5">
       <c r="A107" s="87"/>
       <c r="B107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:5">
       <c r="A108" s="87"/>
       <c r="B108" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:5">
       <c r="A109" s="87"/>
       <c r="B109" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:5">
       <c r="A110" s="87"/>
       <c r="B110" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:5">
       <c r="A111" s="87"/>
       <c r="B111" t="s">
         <v>111</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="98">
         <v>111</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="98">
         <f>D111*C111</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:5">
       <c r="A112" s="87"/>
       <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="98">
         <v>850</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="98">
         <f>D112*C112</f>
         <v>0</v>
       </c>
@@ -7052,10 +6760,10 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="98">
         <v>100</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="98">
         <f>D113*C113</f>
         <v>0</v>
       </c>
@@ -7070,16 +6778,16 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="E115" s="57">
+      <c r="E115" s="98">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="D117" s="64" t="s">
+      <c r="D117" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="98">
         <f>SUM(E107:E116)</f>
         <v>0</v>
       </c>
@@ -7101,8 +6809,8 @@
   </sheetPr>
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -7139,7 +6847,7 @@
       </c>
       <c r="E2" s="98">
         <f>SUM(E5:E46)</f>
-        <v>-51473.56</v>
+        <v>-51710.3</v>
       </c>
       <c r="F2" s="98">
         <f>SUM(F5:F46)</f>
@@ -7147,11 +6855,11 @@
       </c>
       <c r="G2" s="98">
         <f>SUM(G5:G46)</f>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7280,19 +6988,21 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="332">
+      <c r="A11" s="306">
         <v>45385</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="98">
+      <c r="D11" s="292"/>
+      <c r="E11" s="292">
         <v>-150</v>
       </c>
-      <c r="G11" s="98">
+      <c r="F11" s="292"/>
+      <c r="G11" s="292">
         <v>-197.34</v>
       </c>
       <c r="H11" s="292">
@@ -7304,28 +7014,43 @@
       <c r="A12" s="3">
         <v>45385</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="302" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="98">
+      <c r="C12" s="2"/>
+      <c r="D12" s="292"/>
+      <c r="E12" s="292">
         <f>E94</f>
-        <v>-6551.44</v>
-      </c>
-      <c r="G12" s="98">
+        <v>-6501.46</v>
+      </c>
+      <c r="F12" s="292"/>
+      <c r="G12" s="292">
         <f>E12</f>
-        <v>-6551.44</v>
+        <v>-6501.46</v>
       </c>
       <c r="H12" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-20720.78</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="289">
+        <v>45386</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="98">
+        <f>E62</f>
+        <v>-6693.55</v>
+      </c>
+      <c r="G13" s="98">
+        <f>E13</f>
+        <v>-6693.55</v>
+      </c>
       <c r="H13" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7333,7 +7058,7 @@
       <c r="B14" s="86"/>
       <c r="H14" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7341,7 +7066,7 @@
       <c r="B15" s="86"/>
       <c r="H15" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7349,29 +7074,19 @@
       <c r="B16" s="86"/>
       <c r="H16" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="289">
-        <v>45386</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="98">
-        <f>E62</f>
-        <v>-6693.55</v>
-      </c>
       <c r="H17" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="H18" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7388,7 +7103,7 @@
       <c r="F19" s="57"/>
       <c r="H19" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7404,7 +7119,7 @@
       </c>
       <c r="H20" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7420,7 +7135,7 @@
       <c r="D21" s="316"/>
       <c r="H21" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7428,7 +7143,7 @@
       <c r="B22" s="35"/>
       <c r="H22" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7440,13 +7155,13 @@
       </c>
       <c r="H23" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="H24" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7461,7 +7176,7 @@
       </c>
       <c r="H25" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7476,37 +7191,40 @@
       </c>
       <c r="H26" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8">
+      <c r="A27" s="289">
+        <v>45397</v>
+      </c>
       <c r="B27" s="86" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="98">
         <f>E57*-1</f>
-        <v>0</v>
+        <v>-286.72000000000003</v>
       </c>
       <c r="H27" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="H28" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="H29" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="87">
-        <v>45173</v>
+        <v>45389</v>
       </c>
       <c r="B30" s="83" t="s">
         <v>155</v>
@@ -7517,11 +7235,13 @@
       </c>
       <c r="H30" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="87"/>
+      <c r="A31" s="87">
+        <v>45389</v>
+      </c>
       <c r="B31" s="83" t="s">
         <v>155</v>
       </c>
@@ -7531,13 +7251,13 @@
       </c>
       <c r="H31" s="292">
         <f t="shared" si="0"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="H32" s="98">
         <f t="shared" ref="H32:H35" si="1">H31+F32+G32</f>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7546,7 +7266,7 @@
       </c>
       <c r="H33" s="98">
         <f t="shared" si="1"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7558,7 +7278,7 @@
       </c>
       <c r="H34" s="98">
         <f t="shared" si="1"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7570,7 +7290,7 @@
       </c>
       <c r="H35" s="98">
         <f t="shared" si="1"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7582,7 +7302,7 @@
       </c>
       <c r="H36" s="98">
         <f t="shared" ref="H36:H44" si="2">H35+F36+G36</f>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7594,7 +7314,7 @@
       </c>
       <c r="H37" s="98">
         <f t="shared" si="2"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7619,7 +7339,7 @@
       <c r="A41" s="87"/>
       <c r="H41" s="98">
         <f>H37+F41+G41</f>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7632,20 +7352,20 @@
       </c>
       <c r="H42" s="98">
         <f t="shared" si="2"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="87"/>
       <c r="H43" s="98">
         <f t="shared" si="2"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="H44" s="98">
         <f t="shared" si="2"/>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
@@ -7682,11 +7402,11 @@
       <c r="C51" s="72"/>
       <c r="D51" s="98">
         <f>SUM(D52:D57)</f>
-        <v>0</v>
+        <v>4514.12</v>
       </c>
       <c r="E51" s="98">
         <f>SUM(E52:E57)</f>
-        <v>0</v>
+        <v>286.72000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7695,32 +7415,54 @@
         <v>102</v>
       </c>
       <c r="C52" s="2"/>
+      <c r="D52" s="98">
+        <v>874.44</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
         <v>103</v>
       </c>
+      <c r="D53" s="98">
+        <v>1078.92</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
         <v>104</v>
       </c>
+      <c r="D54" s="98">
+        <v>173.45</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
         <v>105</v>
       </c>
+      <c r="D55" s="98">
+        <v>1774</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
         <v>106</v>
       </c>
+      <c r="D56" s="98">
+        <v>326.58999999999997</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="85"/>
+      <c r="D57" s="98">
+        <v>286.72000000000003</v>
+      </c>
+      <c r="E57" s="98">
+        <f>D57</f>
+        <v>286.72000000000003</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="C58" s="85"/>
@@ -8114,7 +7856,7 @@
       <c r="C94" s="72"/>
       <c r="E94" s="98">
         <f>SUM(E95:E102)</f>
-        <v>-6551.44</v>
+        <v>-6501.46</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8174,6 +7916,9 @@
       </c>
       <c r="D99" s="98" t="s">
         <v>162</v>
+      </c>
+      <c r="E99" s="98">
+        <v>49.98</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -8583,7 +8328,7 @@
       </c>
       <c r="E143" s="4">
         <f>H2</f>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8603,7 +8348,7 @@
   </sheetPr>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -19613,11 +19358,11 @@
       </c>
       <c r="C6" s="26">
         <f>'04_24'!E2</f>
-        <v>-51473.56</v>
+        <v>-51710.3</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
-        <v>137202.60999999999</v>
+        <v>136965.87</v>
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
@@ -19625,11 +19370,11 @@
       </c>
       <c r="F6" s="26">
         <f>'04_24'!G2</f>
-        <v>-20770.759999999998</v>
+        <v>-27414.329999999998</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-38004.159999999974</v>
+        <v>-44647.729999999981</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -19660,7 +19405,7 @@
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
-        <v>119014.24999999999</v>
+        <v>118777.51</v>
       </c>
       <c r="E7" s="26">
         <f>'05_24'!F2</f>
@@ -19672,7 +19417,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-38004.159999999974</v>
+        <v>-44647.729999999981</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -19703,7 +19448,7 @@
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
-        <v>95459.389999999985</v>
+        <v>95222.65</v>
       </c>
       <c r="E8" s="26">
         <f>'06_24'!F2</f>
@@ -19715,7 +19460,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-38004.159999999974</v>
+        <v>-44647.729999999981</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -19749,7 +19494,7 @@
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
-        <v>77754.339999999982</v>
+        <v>77517.599999999991</v>
       </c>
       <c r="E9" s="26">
         <f>'07_24'!F2</f>
@@ -19761,7 +19506,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-39810.019999999975</v>
+        <v>-46453.589999999982</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -19798,7 +19543,7 @@
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
-        <v>207600.94999999998</v>
+        <v>207364.21</v>
       </c>
       <c r="E10" s="26">
         <f>'08_24'!F2</f>
@@ -19810,7 +19555,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-39810.019999999975</v>
+        <v>-46453.589999999982</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -19844,7 +19589,7 @@
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>338047.36</v>
+        <v>337810.62</v>
       </c>
       <c r="E11" s="26">
         <f>'09_24'!F2</f>
@@ -19856,7 +19601,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-39810.019999999975</v>
+        <v>-46453.589999999982</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -19893,7 +19638,7 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>345005.19999999995</v>
+        <v>344768.45999999996</v>
       </c>
       <c r="E12" s="26">
         <f>'10_24'!F2</f>
@@ -19905,7 +19650,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-39810.019999999975</v>
+        <v>-46453.589999999982</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -19942,7 +19687,7 @@
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>581963.03999999992</v>
+        <v>581726.29999999993</v>
       </c>
       <c r="E13" s="26">
         <f>'11_24'!F2</f>
@@ -19954,7 +19699,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-39810.019999999975</v>
+        <v>-46453.589999999982</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -19991,7 +19736,7 @@
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
-        <v>567717.22</v>
+        <v>567480.48</v>
       </c>
       <c r="E14" s="26">
         <f>'12_24'!F2</f>
@@ -20003,7 +19748,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-39810.019999999975</v>
+        <v>-46453.589999999982</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -20036,11 +19781,11 @@
       </c>
       <c r="C15" s="27">
         <f>SUM(C3:C14)</f>
-        <v>-741347.38</v>
+        <v>-741584.12</v>
       </c>
       <c r="D15" s="27">
         <f>B15+C15</f>
-        <v>567717.22000000009</v>
+        <v>567480.4800000001</v>
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
@@ -20048,11 +19793,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
-        <v>-274932.73</v>
+        <v>-281576.3</v>
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-39810.01999999996</v>
+        <v>-46453.589999999967</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -20083,7 +19828,7 @@
       </c>
       <c r="C16" s="49">
         <f>C15/A16</f>
-        <v>-61778.948333333334</v>
+        <v>-61798.676666666666</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
@@ -20092,11 +19837,11 @@
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
-        <v>-22911.060833333333</v>
+        <v>-23464.691666666666</v>
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-3317.5016666666634</v>
+        <v>-3871.1324999999974</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aanext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA26B9-3874-4466-AF2C-62CAA834A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C2BB8-55F4-4419-B01B-8B93BDA9F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="4" r:id="rId1"/>
@@ -5638,7 +5638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -5864,7 +5864,7 @@
   </sheetPr>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -6809,8 +6809,8 @@
   </sheetPr>
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="F2" s="98">
         <f>SUM(F5:F46)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G2" s="98">
         <f>SUM(G5:G46)</f>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="H2" s="98">
         <f>F2+G2</f>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7037,14 +7037,17 @@
       <c r="A13" s="289">
         <v>45386</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="98">
+      <c r="C13" s="2"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="292">
         <f>E62</f>
         <v>-6693.55</v>
       </c>
-      <c r="G13" s="98">
+      <c r="F13" s="292"/>
+      <c r="G13" s="292">
         <f>E13</f>
         <v>-6693.55</v>
       </c>
@@ -7054,11 +7057,22 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3"/>
-      <c r="B14" s="86"/>
+      <c r="A14" s="289">
+        <v>45355</v>
+      </c>
+      <c r="B14" s="324" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="324"/>
+      <c r="D14" s="321">
+        <v>15000</v>
+      </c>
+      <c r="F14" s="292">
+        <v>15000</v>
+      </c>
       <c r="H14" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7066,7 +7080,7 @@
       <c r="B15" s="86"/>
       <c r="H15" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7074,36 +7088,26 @@
       <c r="B16" s="86"/>
       <c r="H16" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="H17" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="H18" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="289">
-        <v>45382</v>
-      </c>
-      <c r="B19" s="328" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="328"/>
-      <c r="D19" s="329">
-        <v>15000</v>
-      </c>
       <c r="F19" s="57"/>
       <c r="H19" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7119,7 +7123,7 @@
       </c>
       <c r="H20" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7135,7 +7139,7 @@
       <c r="D21" s="316"/>
       <c r="H21" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7143,7 +7147,7 @@
       <c r="B22" s="35"/>
       <c r="H22" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7155,13 +7159,13 @@
       </c>
       <c r="H23" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="H24" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7176,7 +7180,7 @@
       </c>
       <c r="H25" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7191,7 +7195,7 @@
       </c>
       <c r="H26" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7207,19 +7211,19 @@
       </c>
       <c r="H27" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="H28" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="H29" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7235,7 +7239,7 @@
       </c>
       <c r="H30" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7251,13 +7255,13 @@
       </c>
       <c r="H31" s="292">
         <f t="shared" si="0"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="H32" s="98">
         <f t="shared" ref="H32:H35" si="1">H31+F32+G32</f>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7266,7 +7270,7 @@
       </c>
       <c r="H33" s="98">
         <f t="shared" si="1"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7278,7 +7282,7 @@
       </c>
       <c r="H34" s="98">
         <f t="shared" si="1"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7290,7 +7294,7 @@
       </c>
       <c r="H35" s="98">
         <f t="shared" si="1"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7302,7 +7306,7 @@
       </c>
       <c r="H36" s="98">
         <f t="shared" ref="H36:H44" si="2">H35+F36+G36</f>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7314,7 +7318,7 @@
       </c>
       <c r="H37" s="98">
         <f t="shared" si="2"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7339,7 +7343,7 @@
       <c r="A41" s="87"/>
       <c r="H41" s="98">
         <f>H37+F41+G41</f>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7352,20 +7356,20 @@
       </c>
       <c r="H42" s="98">
         <f t="shared" si="2"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="87"/>
       <c r="H43" s="98">
         <f t="shared" si="2"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="H44" s="98">
         <f t="shared" si="2"/>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
@@ -8328,7 +8332,7 @@
       </c>
       <c r="E143" s="4">
         <f>H2</f>
-        <v>-27414.329999999998</v>
+        <v>-12414.329999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19117,7 +19121,7 @@
   </sheetPr>
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -19366,7 +19370,7 @@
       </c>
       <c r="E6" s="26">
         <f>'04_24'!F2</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F6" s="26">
         <f>'04_24'!G2</f>
@@ -19374,7 +19378,7 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>-44647.729999999981</v>
+        <v>-29647.729999999978</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="35" t="s">
@@ -19417,7 +19421,7 @@
       </c>
       <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>-44647.729999999981</v>
+        <v>-29647.729999999978</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="35" t="s">
@@ -19460,7 +19464,7 @@
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>-44647.729999999981</v>
+        <v>-29647.729999999978</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -19506,7 +19510,7 @@
       </c>
       <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>-46453.589999999982</v>
+        <v>-31453.589999999978</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29" t="s">
@@ -19555,7 +19559,7 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>-46453.589999999982</v>
+        <v>-31453.589999999978</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -19601,7 +19605,7 @@
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>-46453.589999999982</v>
+        <v>-31453.589999999978</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29" t="s">
@@ -19650,7 +19654,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>-46453.589999999982</v>
+        <v>-31453.589999999978</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -19699,7 +19703,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>-46453.589999999982</v>
+        <v>-31453.589999999978</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29" t="s">
@@ -19748,7 +19752,7 @@
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-46453.589999999982</v>
+        <v>-31453.589999999978</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="38" t="s">
@@ -19789,7 +19793,7 @@
       </c>
       <c r="E15" s="27">
         <f>SUM(E3:E14)</f>
-        <v>235122.71000000002</v>
+        <v>250122.71000000002</v>
       </c>
       <c r="F15" s="27">
         <f>SUM(F3:F14)</f>
@@ -19797,7 +19801,7 @@
       </c>
       <c r="G15" s="27">
         <f>E15+F15</f>
-        <v>-46453.589999999967</v>
+        <v>-31453.589999999967</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
@@ -19833,7 +19837,7 @@
       <c r="D16" s="49"/>
       <c r="E16" s="49">
         <f>E15/A16</f>
-        <v>19593.55916666667</v>
+        <v>20843.55916666667</v>
       </c>
       <c r="F16" s="49">
         <f>F15/A16</f>
@@ -19841,7 +19845,7 @@
       </c>
       <c r="G16" s="49">
         <f>G15/A16</f>
-        <v>-3871.1324999999974</v>
+        <v>-2621.1324999999974</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C8C77D-4C72-4C90-A878-C4AC88C55C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20347E4C-2718-4811-831A-95D07E243CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="690" windowWidth="3855" windowHeight="7935" tabRatio="878" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -3881,7 +3881,7 @@
     <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="183" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4197,6 +4197,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
@@ -4780,7 +4787,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5233,11 +5240,12 @@
     <xf numFmtId="4" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="17" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6853,7 +6861,7 @@
   </sheetPr>
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -7222,7 +7230,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="320">
+      <c r="A20" s="318">
         <v>45397</v>
       </c>
       <c r="B20" s="80" t="s">
@@ -7287,7 +7295,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="320">
+      <c r="A23" s="318">
         <v>45401</v>
       </c>
       <c r="B23" t="s">
@@ -7306,7 +7314,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="320"/>
+      <c r="A24" s="318"/>
       <c r="C24" s="108"/>
       <c r="D24" s="92"/>
       <c r="E24" s="92"/>
@@ -7318,7 +7326,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="320"/>
+      <c r="A25" s="318"/>
       <c r="H25" s="92">
         <f t="shared" si="0"/>
         <v>-31484.22</v>
@@ -8474,7 +8482,7 @@
   </sheetPr>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -9037,6 +9045,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="122"/>
+      <c r="E29" s="321"/>
       <c r="F29" s="54"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92">
@@ -17546,7 +17555,7 @@
   </sheetPr>
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
@@ -19285,10 +19294,10 @@
       <c r="K1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="318" t="s">
+      <c r="L1" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="318"/>
+      <c r="M1" s="319"/>
       <c r="N1" t="s">
         <v>20</v>
       </c>
@@ -20003,11 +20012,11 @@
       <c r="K17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="319">
+      <c r="L17" s="320">
         <f>L15+M15</f>
         <v>1401.288086</v>
       </c>
-      <c r="M17" s="319"/>
+      <c r="M17" s="320"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="55" t="s">
@@ -20488,7 +20497,7 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -22113,7 +22122,7 @@
   </sheetPr>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -23721,7 +23730,9 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -28160,7 +28171,7 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -29606,7 +29617,7 @@
   </sheetPr>
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -31165,7 +31176,7 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -32600,7 +32611,7 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -34262,7 +34273,9 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
@@ -39087,7 +39100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -40253,7 +40266,7 @@
   </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -41229,7 +41242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -42682,7 +42695,7 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -43435,7 +43448,7 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -44372,7 +44385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -45265,7 +45278,7 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -46051,7 +46064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -47520,7 +47533,7 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20347E4C-2718-4811-831A-95D07E243CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E79552-FEA9-4B34-89F6-4A4E29CFC334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="690" windowWidth="3855" windowHeight="7935" tabRatio="878" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="1195">
   <si>
     <t>hacı</t>
   </si>
@@ -3853,6 +3853,18 @@
   </si>
   <si>
     <t>panter testere 1/9</t>
+  </si>
+  <si>
+    <t>işbank</t>
+  </si>
+  <si>
+    <t>snyE senet  5/5   7000 ödenmedi kiracı değişti</t>
+  </si>
+  <si>
+    <t>snyE Kira Bedeli</t>
+  </si>
+  <si>
+    <t>işbank umut ortak hesabe KİRA BEDELİ</t>
   </si>
 </sst>
 </file>
@@ -5241,11 +5253,11 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5918,7 +5930,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -5963,11 +5975,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5989,15 +6001,24 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="318">
+        <v>45404</v>
+      </c>
       <c r="B5" s="32" t="s">
         <v>96</v>
       </c>
+      <c r="C5" t="s">
+        <v>1191</v>
+      </c>
       <c r="E5" s="77">
         <v>-152</v>
       </c>
+      <c r="G5" s="77">
+        <v>-166.9</v>
+      </c>
       <c r="H5" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6009,7 +6030,7 @@
       </c>
       <c r="H6" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6022,7 +6043,7 @@
       </c>
       <c r="H7" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6035,7 +6056,7 @@
       </c>
       <c r="H8" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6048,12 +6069,12 @@
       <c r="D9" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="92">
         <v>-103.5</v>
       </c>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6061,7 +6082,7 @@
       <c r="C10" s="80"/>
       <c r="H10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6076,7 +6097,7 @@
       </c>
       <c r="H11" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6091,7 +6112,7 @@
       </c>
       <c r="H12" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6106,7 +6127,7 @@
       </c>
       <c r="H13" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6114,7 +6135,7 @@
       <c r="C14" s="80"/>
       <c r="H14" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6127,7 +6148,7 @@
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6140,7 +6161,7 @@
       </c>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6156,7 +6177,7 @@
       </c>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6172,7 +6193,7 @@
       </c>
       <c r="H18" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6186,7 +6207,7 @@
       </c>
       <c r="H19" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6199,25 +6220,25 @@
       </c>
       <c r="H20" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6226,7 +6247,7 @@
       </c>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6238,7 +6259,7 @@
       </c>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6250,7 +6271,7 @@
       </c>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6262,13 +6283,13 @@
       </c>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6280,7 +6301,7 @@
       </c>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6290,7 +6311,7 @@
       </c>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6303,20 +6324,20 @@
       </c>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="89"/>
       <c r="H32" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="H33" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
@@ -6832,7 +6853,7 @@
       </c>
       <c r="E115" s="77">
         <f>H2</f>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -6841,12 +6862,12 @@
       </c>
       <c r="E117" s="77">
         <f>SUM(E107:E116)</f>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6859,10 +6880,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6894,24 +6915,24 @@
         <v>95</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D5:D38)</f>
+        <f>SUM(D5:D44)</f>
         <v>48500</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E5:E38)</f>
+        <f>SUM(E5:E44)</f>
         <v>-51710.3</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F5:F38)</f>
-        <v>18000</v>
+        <f>SUM(F5:F44)</f>
+        <v>222000</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G5:G38)</f>
-        <v>-49484.22</v>
+        <f>SUM(G5:G44)</f>
+        <v>-50324.22</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-31484.22</v>
+        <v>171675.78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6933,7 +6954,7 @@
       <c r="F5" s="92"/>
       <c r="G5" s="92"/>
       <c r="H5" s="92">
-        <f t="shared" ref="H5:H38" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H44" si="0">H4+F5+G5</f>
         <v>0</v>
       </c>
     </row>
@@ -7072,7 +7093,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="92"/>
       <c r="E12" s="92">
-        <f>E90</f>
+        <f>E96</f>
         <v>-6501.46</v>
       </c>
       <c r="F12" s="92"/>
@@ -7095,7 +7116,7 @@
       <c r="C13" s="22"/>
       <c r="D13" s="92"/>
       <c r="E13" s="92">
-        <f>E58</f>
+        <f>E64</f>
         <v>-6693.55</v>
       </c>
       <c r="F13" s="92"/>
@@ -7216,7 +7237,7 @@
       <c r="C19" s="108"/>
       <c r="D19" s="92"/>
       <c r="E19" s="92">
-        <f>E53*-1</f>
+        <f>E59*-1</f>
         <v>-286.72000000000003</v>
       </c>
       <c r="F19" s="92"/>
@@ -7314,582 +7335,625 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="318"/>
-      <c r="C24" s="108"/>
+      <c r="A24" s="318">
+        <v>45404</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>91</v>
+      </c>
       <c r="D24" s="92"/>
       <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
+      <c r="F24" s="92">
+        <v>1000</v>
+      </c>
       <c r="G24" s="92"/>
       <c r="H24" s="92">
         <f t="shared" si="0"/>
-        <v>-31484.22</v>
+        <v>-30484.22</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="318"/>
+      <c r="B25" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C25" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92">
+        <v>50000</v>
+      </c>
+      <c r="G25" s="92"/>
       <c r="H25" s="92">
         <f t="shared" si="0"/>
-        <v>-31484.22</v>
+        <v>19515.78</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="80" t="s">
+      <c r="A26" s="318"/>
+      <c r="B26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C26" s="108" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92">
+        <v>33000</v>
+      </c>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92">
+        <f t="shared" si="0"/>
+        <v>52515.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="318"/>
+      <c r="B27" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C27" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92">
+        <v>120000</v>
+      </c>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92">
+        <f t="shared" si="0"/>
+        <v>172515.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="318"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92">
+        <f t="shared" si="0"/>
+        <v>172515.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="318"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92">
+        <f t="shared" si="0"/>
+        <v>172515.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="318"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92">
+        <f t="shared" si="0"/>
+        <v>172515.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="318"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92">
+        <f t="shared" si="0"/>
+        <v>172515.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="318"/>
+      <c r="H32" s="92">
+        <f t="shared" si="0"/>
+        <v>172515.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="318">
+        <v>45414</v>
+      </c>
+      <c r="B33" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="E26" s="77">
+      <c r="C33" s="80"/>
+      <c r="E33" s="77">
         <v>-400</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="H26" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="80" t="s">
+      <c r="F33" s="54"/>
+      <c r="G33" s="77">
+        <v>-330</v>
+      </c>
+      <c r="H33" s="92">
+        <f t="shared" si="0"/>
+        <v>172185.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="318">
+        <v>45414</v>
+      </c>
+      <c r="B34" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="E27" s="77">
+      <c r="C34" s="80"/>
+      <c r="E34" s="77">
         <v>-500</v>
       </c>
-      <c r="H27" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="H28" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
+      <c r="G34" s="77">
+        <v>-510</v>
+      </c>
+      <c r="H34" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="H35" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
+      <c r="H36" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="77">
+      <c r="E37" s="77">
         <v>-5000</v>
       </c>
-      <c r="H30" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
+      <c r="H37" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="77">
+      <c r="E38" s="77">
         <v>-5000</v>
       </c>
-      <c r="H31" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" t="s">
+      <c r="H38" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="77">
+      <c r="E39" s="77">
         <v>-5000</v>
       </c>
-      <c r="H32" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" t="s">
+      <c r="H39" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D40" s="77">
         <v>10000</v>
       </c>
-      <c r="H33" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="89"/>
-      <c r="B34" t="s">
+      <c r="H40" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="89"/>
+      <c r="B41" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="77">
+      <c r="D41" s="77">
         <v>15000</v>
       </c>
-      <c r="H34" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="89"/>
-      <c r="H35" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="H36" s="92">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="96">
+      <c r="H41" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="H42" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="96">
         <v>45351</v>
       </c>
-      <c r="B37" s="104" t="s">
+      <c r="B43" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="105">
+      <c r="C43" s="104"/>
+      <c r="D43" s="105">
         <v>8500</v>
       </c>
-      <c r="H37" s="77">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="96">
+      <c r="H43" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="96">
         <v>45322</v>
       </c>
-      <c r="B38" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="107">
+      <c r="B44" s="106" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C44" s="107">
         <v>7000</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="H38" s="77">
-        <f t="shared" si="0"/>
-        <v>-31484.22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="96"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="96"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="96"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="96"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
+      <c r="D44" s="107"/>
+      <c r="H44" s="92">
+        <f t="shared" si="0"/>
+        <v>171675.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="96"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="96"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="96"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="96"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="70" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-    </row>
-    <row r="46" spans="1:8" s="22" customFormat="1">
-      <c r="A46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="93">
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+    </row>
+    <row r="52" spans="1:8" s="22" customFormat="1">
+      <c r="A52" s="89"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="93">
         <v>44929</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B53" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="77">
-        <f>SUM(D48:D53)</f>
+      <c r="C53" s="70"/>
+      <c r="D53" s="77">
+        <f>SUM(D54:D59)</f>
         <v>4514.12</v>
       </c>
-      <c r="E47" s="77">
-        <f>SUM(E48:E53)</f>
+      <c r="E53" s="77">
+        <f>SUM(E54:E59)</f>
         <v>4437.22</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="89"/>
-      <c r="B48" s="84" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="89"/>
+      <c r="B54" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="77">
+      <c r="C54" s="22"/>
+      <c r="D54" s="77">
         <v>874.44</v>
       </c>
-      <c r="E48" s="77">
+      <c r="E54" s="77">
         <v>800</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="B49" t="s">
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="77">
+      <c r="D55" s="77">
         <v>1078.92</v>
       </c>
-      <c r="E49" s="77">
+      <c r="E55" s="77">
         <v>1079</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="B50" t="s">
+    <row r="56" spans="1:8">
+      <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D56" s="77">
         <v>173.45</v>
       </c>
-      <c r="E50" s="77">
+      <c r="E56" s="77">
         <v>172.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="B51" t="s">
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
         <v>134</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C57" t="s">
         <v>1187</v>
       </c>
-      <c r="D51" s="77">
+      <c r="D57" s="77">
         <v>1774</v>
       </c>
-      <c r="E51" s="77">
+      <c r="E57" s="77">
         <v>1774</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="B52" t="s">
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="77">
+      <c r="D58" s="77">
         <v>326.58999999999997</v>
       </c>
-      <c r="E52" s="77">
+      <c r="E58" s="77">
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="B53" t="s">
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="84"/>
-      <c r="D53" s="77">
+      <c r="C59" s="84"/>
+      <c r="D59" s="77">
         <v>286.72000000000003</v>
       </c>
-      <c r="E53" s="77">
-        <f>D53</f>
+      <c r="E59" s="77">
+        <f>D59</f>
         <v>286.72000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="C54" s="84"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="62"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="95"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="70"/>
-      <c r="B58" s="69" t="s">
+    <row r="60" spans="1:8">
+      <c r="C60" s="84"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="62"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="95"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="70"/>
+      <c r="B64" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="E58" s="77">
-        <f>SUM(E59:E84)</f>
+      <c r="C64" s="70"/>
+      <c r="E64" s="77">
+        <f>SUM(E65:E90)</f>
         <v>-6693.55</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="89">
+    <row r="66" spans="1:5">
+      <c r="A66" s="89">
         <v>45187</v>
       </c>
-      <c r="B60" s="84" t="s">
+      <c r="B66" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="84">
+      <c r="C66" s="84">
         <v>7648.33</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D66" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="77">
+      <c r="E66" s="77">
         <v>-849.81</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="96">
-        <v>45348</v>
-      </c>
-      <c r="B61" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61">
-        <v>1406</v>
-      </c>
-      <c r="D61" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="E61" s="77">
-        <v>-234.33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="96">
-        <v>45358</v>
-      </c>
-      <c r="B62" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62">
-        <v>2273</v>
-      </c>
-      <c r="D62" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="E62" s="77">
-        <v>-378.87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="96">
-        <v>45371</v>
-      </c>
-      <c r="B63" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="E63" s="77">
-        <v>101.77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="96">
-        <v>45373</v>
-      </c>
-      <c r="B64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64">
-        <v>10176.39</v>
-      </c>
-      <c r="D64" s="77" t="s">
-        <v>229</v>
-      </c>
-      <c r="E64" s="77">
-        <v>-1130.71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="96">
-        <v>45375</v>
-      </c>
-      <c r="B65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65">
-        <v>5999</v>
-      </c>
-      <c r="D65" s="77" t="s">
-        <v>229</v>
-      </c>
-      <c r="E65" s="77">
-        <v>-666.56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="96"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="96">
+        <v>45348</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67">
+        <v>1406</v>
+      </c>
+      <c r="D67" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="77">
+        <v>-234.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="96">
+        <v>45358</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68">
+        <v>2273</v>
+      </c>
+      <c r="D68" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="77">
+        <v>-378.87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="96">
+        <v>45371</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="77">
+        <v>101.77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="96">
+        <v>45373</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70">
+        <v>10176.39</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="77">
+        <v>-1130.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="96">
+        <v>45375</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71">
+        <v>5999</v>
+      </c>
+      <c r="D71" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="77">
+        <v>-666.56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="96"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="96">
         <v>45347</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B73" t="s">
         <v>230</v>
       </c>
-      <c r="E67" s="77">
+      <c r="E73" s="77">
         <v>-343</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="89">
-        <v>45348</v>
-      </c>
-      <c r="B68" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" s="84"/>
-      <c r="E68" s="77">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="89">
-        <v>45351</v>
-      </c>
-      <c r="B69" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="83">
-        <f>E69</f>
-        <v>-86.95</v>
-      </c>
-      <c r="E69" s="77">
-        <v>-86.95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="89">
-        <v>45353</v>
-      </c>
-      <c r="B70" s="97" t="s">
-        <v>233</v>
-      </c>
-      <c r="C70" s="84"/>
-      <c r="E70" s="77">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="89">
-        <v>45353</v>
-      </c>
-      <c r="B71" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="C71" s="84"/>
-      <c r="E71" s="77">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="89">
-        <v>45354</v>
-      </c>
-      <c r="B72" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="84"/>
-      <c r="E72" s="77">
-        <v>-330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="89">
-        <v>45355</v>
-      </c>
-      <c r="B73" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" s="83">
-        <f>E73</f>
-        <v>-200</v>
-      </c>
-      <c r="E73" s="77">
-        <v>-200</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="89">
-        <v>45355</v>
-      </c>
-      <c r="B74" s="97" t="s">
-        <v>237</v>
+        <v>45348</v>
+      </c>
+      <c r="B74" s="84" t="s">
+        <v>231</v>
       </c>
       <c r="C74" s="84"/>
       <c r="E74" s="77">
-        <v>-50</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="89">
-        <v>45356</v>
-      </c>
-      <c r="B75" s="97" t="s">
-        <v>236</v>
+        <v>45351</v>
+      </c>
+      <c r="B75" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="C75" s="83">
         <f>E75</f>
-        <v>-200</v>
+        <v>-86.95</v>
       </c>
       <c r="E75" s="77">
-        <v>-200</v>
+        <v>-86.95</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="89">
-        <v>45357</v>
+        <v>45353</v>
       </c>
       <c r="B76" s="97" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C76" s="84"/>
       <c r="E76" s="77">
-        <v>-160</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="89">
-        <v>45357</v>
+        <v>45353</v>
       </c>
       <c r="B77" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="84">
-        <v>6341.66</v>
+        <v>234</v>
+      </c>
+      <c r="C77" s="84"/>
+      <c r="E77" s="77">
+        <v>-600</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="89">
-        <v>45361</v>
+        <v>45354</v>
       </c>
       <c r="B78" s="97" t="s">
-        <v>239</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C78" s="84"/>
       <c r="E78" s="77">
-        <v>-294.14</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="89">
-        <v>45358</v>
+        <v>45355</v>
       </c>
       <c r="B79" s="97" t="s">
         <v>236</v>
@@ -7903,198 +7967,234 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="89"/>
-      <c r="B80" s="97"/>
+      <c r="A80" s="89">
+        <v>45355</v>
+      </c>
+      <c r="B80" s="97" t="s">
+        <v>237</v>
+      </c>
       <c r="C80" s="84"/>
       <c r="E80" s="77">
-        <v>-3.05</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="89">
-        <v>45376</v>
+        <v>45356</v>
       </c>
       <c r="B81" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C81" s="84"/>
+        <v>236</v>
+      </c>
+      <c r="C81" s="83">
+        <f>E81</f>
+        <v>-200</v>
+      </c>
       <c r="E81" s="77">
-        <v>-874.19</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="89"/>
-      <c r="B82" s="97"/>
+      <c r="A82" s="89">
+        <v>45357</v>
+      </c>
+      <c r="B82" s="97" t="s">
+        <v>238</v>
+      </c>
       <c r="C82" s="84"/>
       <c r="E82" s="77">
-        <v>-43.71</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="89">
-        <v>45374</v>
+        <v>45357</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" s="84"/>
-      <c r="E83" s="77">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15">
+        <v>3</v>
+      </c>
+      <c r="C83" s="84">
+        <v>6341.66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="89">
-        <v>45374</v>
+        <v>45361</v>
       </c>
       <c r="B84" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="D84" s="110" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="89"/>
-      <c r="B85" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C85">
-        <v>686.95</v>
-      </c>
-      <c r="D85" s="111"/>
-    </row>
-    <row r="86" spans="1:5" ht="15">
+        <v>239</v>
+      </c>
+      <c r="E84" s="77">
+        <v>-294.14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="89">
+        <v>45358</v>
+      </c>
+      <c r="B85" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="83">
+        <f>E85</f>
+        <v>-200</v>
+      </c>
+      <c r="E85" s="77">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="89"/>
       <c r="B86" s="97"/>
-      <c r="D86" s="111"/>
-    </row>
-    <row r="87" spans="1:5" ht="15">
-      <c r="A87" s="89"/>
-      <c r="B87" s="97"/>
-      <c r="D87" s="111"/>
-    </row>
-    <row r="88" spans="1:5" ht="15">
+      <c r="C86" s="84"/>
+      <c r="E86" s="77">
+        <v>-3.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="89">
+        <v>45376</v>
+      </c>
+      <c r="B87" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="84"/>
+      <c r="E87" s="77">
+        <v>-874.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="89"/>
       <c r="B88" s="97"/>
-      <c r="D88" s="111"/>
+      <c r="C88" s="84"/>
+      <c r="E88" s="77">
+        <v>-43.71</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="89"/>
-      <c r="B89" s="84"/>
+      <c r="A89" s="89">
+        <v>45374</v>
+      </c>
+      <c r="B89" s="97" t="s">
+        <v>241</v>
+      </c>
       <c r="C89" s="84"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="70"/>
-      <c r="B90" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="70"/>
-      <c r="E90" s="77">
-        <f>SUM(E91:E98)</f>
-        <v>-6501.46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E89" s="77">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="89">
+        <v>45374</v>
+      </c>
+      <c r="B90" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="110" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15">
       <c r="A91" s="89"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="88">
-        <v>45214</v>
-      </c>
-      <c r="B92" t="s">
-        <v>244</v>
-      </c>
-      <c r="D92" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="E92" s="77">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="88">
-        <v>45285</v>
-      </c>
-      <c r="B93" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="84"/>
-      <c r="D93" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="E93" s="77">
-        <v>-3551.66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B91" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91">
+        <v>686.95</v>
+      </c>
+      <c r="D91" s="111"/>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="89"/>
+      <c r="B92" s="97"/>
+      <c r="D92" s="111"/>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="89"/>
+      <c r="B93" s="97"/>
+      <c r="D93" s="111"/>
+    </row>
+    <row r="94" spans="1:5" ht="15">
       <c r="A94" s="89"/>
-      <c r="B94" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C94" s="84"/>
-      <c r="D94" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="E94" s="77">
-        <v>-649.78</v>
-      </c>
+      <c r="B94" s="97"/>
+      <c r="D94" s="111"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="89"/>
-      <c r="B95" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" s="84">
-        <v>49.98</v>
-      </c>
-      <c r="D95" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="E95" s="77">
-        <v>49.98</v>
-      </c>
+      <c r="B95" s="84"/>
+      <c r="C95" s="84"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="89"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="84"/>
+      <c r="A96" s="70"/>
+      <c r="B96" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="70"/>
+      <c r="E96" s="77">
+        <f>SUM(E97:E104)</f>
+        <v>-6501.46</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="89">
-        <v>45374</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>249</v>
-      </c>
+      <c r="A97" s="89"/>
+      <c r="B97" s="84"/>
       <c r="C97" s="84"/>
-      <c r="E97" s="77">
-        <v>-1750</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15">
-      <c r="A98" s="89"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="84"/>
-      <c r="D98" s="110" t="s">
-        <v>242</v>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="88">
+        <v>45214</v>
+      </c>
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="E98" s="77">
+        <v>-600</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="89"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="88">
+        <v>45285</v>
+      </c>
+      <c r="B99" s="84" t="s">
+        <v>186</v>
+      </c>
       <c r="C99" s="84"/>
+      <c r="D99" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99" s="77">
+        <v>-3551.66</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="89"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="C100" s="84"/>
+      <c r="D100" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E100" s="77">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="89"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="84"/>
+      <c r="B101" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="84">
+        <v>49.98</v>
+      </c>
+      <c r="D101" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E101" s="77">
+        <v>49.98</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="89"/>
@@ -8102,14 +8202,24 @@
       <c r="C102" s="84"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="89"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="89">
+        <v>45374</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="C103" s="84"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="E103" s="77">
+        <v>-1750</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15">
       <c r="A104" s="89"/>
       <c r="B104" s="3"/>
       <c r="C104" s="84"/>
+      <c r="D104" s="110" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="89"/>
@@ -8187,132 +8297,76 @@
       <c r="C119" s="84"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="68" t="s">
+      <c r="A120" s="89"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="84"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="89"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="84"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="89"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="84"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="89"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="84"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="89"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="84"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="89"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="84"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="B120" s="69" t="s">
+      <c r="B126" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C120" s="70">
+      <c r="C126" s="70">
         <v>2024</v>
       </c>
-      <c r="D120" s="71"/>
-      <c r="E120" s="72">
-        <f>SUM(E121:E135)</f>
+      <c r="D126" s="71"/>
+      <c r="E126" s="72">
+        <f>SUM(E127:E141)</f>
         <v>774287.73659999995</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="112">
+    <row r="127" spans="1:5">
+      <c r="A127" s="112">
         <v>45383</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B127" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="113"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="113">
+      <c r="C127" s="113"/>
+      <c r="D127" s="113"/>
+      <c r="E127" s="113">
         <v>64000</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="112">
-        <f t="shared" ref="A122:A135" si="1">A121</f>
+    <row r="128" spans="1:5">
+      <c r="A128" s="112">
+        <f t="shared" ref="A128:A141" si="1">A127</f>
         <v>45383</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B128" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C122" s="113"/>
-      <c r="D122" s="113"/>
-      <c r="E122" s="113">
+      <c r="C128" s="113"/>
+      <c r="D128" s="113"/>
+      <c r="E128" s="113">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="73">
-        <f t="shared" si="1"/>
-        <v>45383</v>
-      </c>
-      <c r="B123" t="s">
-        <v>75</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="62">
-        <v>6036.94</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="73">
-        <f t="shared" si="1"/>
-        <v>45383</v>
-      </c>
-      <c r="B124" t="s">
-        <v>76</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="73">
-        <f t="shared" si="1"/>
-        <v>45383</v>
-      </c>
-      <c r="B125" t="s">
-        <v>252</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="73">
-        <f t="shared" si="1"/>
-        <v>45383</v>
-      </c>
-      <c r="B126" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126" s="114"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="73">
-        <f t="shared" si="1"/>
-        <v>45383</v>
-      </c>
-      <c r="B127" t="s">
-        <v>78</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="73">
-        <f t="shared" si="1"/>
-        <v>45383</v>
-      </c>
-      <c r="B128" t="s">
-        <v>253</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="62">
-        <v>110122</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -8321,12 +8375,12 @@
         <v>45383</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="62">
-        <v>450</v>
+        <v>6036.94</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -8335,17 +8389,12 @@
         <v>45383</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
-      </c>
-      <c r="C130" s="2">
-        <v>2308.9699999999998</v>
-      </c>
-      <c r="D130" s="2">
-        <v>161</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
       <c r="E130" s="62">
-        <f>D130*C130</f>
-        <v>371744.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -8354,17 +8403,12 @@
         <v>45383</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
-      </c>
-      <c r="C131" s="75">
-        <v>31.879300000000001</v>
-      </c>
-      <c r="D131" s="2">
-        <v>850</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
       <c r="E131" s="62">
-        <f>D131*C131</f>
-        <v>27097.404999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -8373,18 +8417,12 @@
         <v>45383</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
-      </c>
-      <c r="C132" s="75">
-        <f>C131</f>
-        <v>31.879300000000001</v>
-      </c>
-      <c r="D132" s="2">
-        <v>250</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C132" s="114"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="62">
-        <f>D132*C132</f>
-        <v>7969.8249999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8393,17 +8431,12 @@
         <v>45383</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
-      </c>
-      <c r="C133" s="75">
-        <v>34.394500000000001</v>
-      </c>
-      <c r="D133" s="2">
-        <v>58.8</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
       <c r="E133" s="62">
-        <f>D133*C133</f>
-        <v>2022.3966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -8412,12 +8445,14 @@
         <v>45383</v>
       </c>
       <c r="B134" t="s">
-        <v>90</v>
-      </c>
-      <c r="C134" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="62">
-        <v>30000</v>
+        <v>110122</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -8426,43 +8461,148 @@
         <v>45383</v>
       </c>
       <c r="B135" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="62">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="73">
+        <f t="shared" si="1"/>
+        <v>45383</v>
+      </c>
+      <c r="B136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2308.9699999999998</v>
+      </c>
+      <c r="D136" s="2">
+        <v>161</v>
+      </c>
+      <c r="E136" s="62">
+        <f>D136*C136</f>
+        <v>371744.17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="73">
+        <f t="shared" si="1"/>
+        <v>45383</v>
+      </c>
+      <c r="B137" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" s="75">
+        <v>31.879300000000001</v>
+      </c>
+      <c r="D137" s="2">
+        <v>850</v>
+      </c>
+      <c r="E137" s="62">
+        <f>D137*C137</f>
+        <v>27097.404999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="73">
+        <f t="shared" si="1"/>
+        <v>45383</v>
+      </c>
+      <c r="B138" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" s="75">
+        <f>C137</f>
+        <v>31.879300000000001</v>
+      </c>
+      <c r="D138" s="2">
+        <v>250</v>
+      </c>
+      <c r="E138" s="62">
+        <f>D138*C138</f>
+        <v>7969.8249999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="73">
+        <f t="shared" si="1"/>
+        <v>45383</v>
+      </c>
+      <c r="B139" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="75">
+        <v>34.394500000000001</v>
+      </c>
+      <c r="D139" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="E139" s="62">
+        <f>D139*C139</f>
+        <v>2022.3966</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="73">
+        <f t="shared" si="1"/>
+        <v>45383</v>
+      </c>
+      <c r="B140" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="62">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="73">
+        <f t="shared" si="1"/>
+        <v>45383</v>
+      </c>
+      <c r="B141" t="s">
+        <v>91</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="62">
         <v>4000</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="E136" s="115"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="C137" s="114"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="114"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="C138" s="114"/>
-      <c r="D138" s="61" t="s">
+    <row r="142" spans="1:5">
+      <c r="E142" s="115"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="C143" s="114"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="114"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="C144" s="114"/>
+      <c r="D144" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="E138" s="8">
-        <f>SUM(E121:E135)</f>
+      <c r="E144" s="8">
+        <f>SUM(E127:E141)</f>
         <v>774287.73659999995</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="C139" s="116" t="str">
-        <f>A120</f>
+    <row r="145" spans="3:5">
+      <c r="C145" s="116" t="str">
+        <f>A126</f>
         <v>NİSANa</v>
       </c>
-      <c r="D139" s="117" t="s">
+      <c r="D145" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="E139" s="118">
+      <c r="E145" s="118">
         <f>H2</f>
-        <v>-31484.22</v>
+        <v>171675.78</v>
       </c>
     </row>
   </sheetData>
@@ -9045,7 +9185,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="122"/>
-      <c r="E29" s="321"/>
+      <c r="E29" s="319"/>
       <c r="F29" s="54"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92">
@@ -19254,8 +19394,8 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -19294,10 +19434,10 @@
       <c r="K1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="319" t="s">
+      <c r="L1" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="319"/>
+      <c r="M1" s="320"/>
       <c r="N1" t="s">
         <v>20</v>
       </c>
@@ -19503,15 +19643,15 @@
       </c>
       <c r="E6" s="23">
         <f>'04_24'!F2</f>
-        <v>18000</v>
+        <v>222000</v>
       </c>
       <c r="F6" s="23">
         <f>'04_24'!G2</f>
-        <v>-49484.22</v>
+        <v>-50324.22</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="1"/>
-        <v>-48717.619999999981</v>
+        <v>154442.38</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="32" t="s">
@@ -19524,7 +19664,7 @@
         <v>34.222709999999999</v>
       </c>
       <c r="N6">
-        <f>'04_24'!E120/1000</f>
+        <f>'04_24'!E126/1000</f>
         <v>774.2877365999999</v>
       </c>
     </row>
@@ -19550,11 +19690,11 @@
       </c>
       <c r="F7" s="23">
         <f>'05_24'!G2</f>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
       <c r="G7" s="24">
         <f t="shared" si="1"/>
-        <v>-48717.619999999981</v>
+        <v>154275.48000000001</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="32" t="s">
@@ -19597,20 +19737,20 @@
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>-48717.619999999981</v>
+        <v>154275.48000000001</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="22">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="31"/>
       <c r="M8" s="29">
         <f>J8/4</f>
-        <v>100</v>
+        <v>56.25</v>
       </c>
       <c r="N8">
         <f>'06_24'!E111/1000</f>
@@ -19643,22 +19783,22 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>-50523.479999999981</v>
+        <v>152469.62000000002</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="22">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="K9" s="30">
         <f>J9*$K$2</f>
-        <v>40.015280000000004</v>
+        <v>48.018336000000005</v>
       </c>
       <c r="L9" s="31">
         <f>J9-K9</f>
-        <v>129.98471999999998</v>
+        <v>155.98166399999999</v>
       </c>
       <c r="M9" s="34"/>
       <c r="N9">
@@ -19692,7 +19832,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>-50523.479999999981</v>
+        <v>152469.62000000002</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -19738,22 +19878,22 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>-50523.479999999981</v>
+        <v>152469.62000000002</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="22">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K11" s="30">
         <f>J11*$K$2</f>
-        <v>40.015280000000004</v>
+        <v>11.7692</v>
       </c>
       <c r="L11" s="31">
         <f>J11-K11</f>
-        <v>129.98471999999998</v>
+        <v>38.230800000000002</v>
       </c>
       <c r="M11" s="29"/>
       <c r="N11">
@@ -19787,7 +19927,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>-50523.479999999981</v>
+        <v>152469.62000000002</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -19836,7 +19976,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>-50523.479999999981</v>
+        <v>152469.62000000002</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -19885,7 +20025,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>-50523.479999999981</v>
+        <v>152469.62000000002</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -19926,33 +20066,33 @@
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
-        <v>253122.71000000002</v>
+        <v>457122.71</v>
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-303646.18999999994</v>
+        <v>-304653.08999999997</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>-50523.479999999923</v>
+        <v>152469.62000000005</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
       <c r="J15" s="40">
         <f>SUM(J3:J14)</f>
-        <v>2306</v>
+        <v>2045</v>
       </c>
       <c r="K15" s="41">
         <f>SUM(K4:K14)</f>
-        <v>290.93462399999999</v>
+        <v>270.69159999999999</v>
       </c>
       <c r="L15" s="42">
         <f>SUM(L4:L14)</f>
-        <v>945.0653759999999</v>
+        <v>879.30839999999989</v>
       </c>
       <c r="M15" s="43">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>456.22271000000001</v>
+        <v>412.47271000000001</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -19970,33 +20110,33 @@
       <c r="D16" s="46"/>
       <c r="E16" s="46">
         <f>E15/A16</f>
-        <v>21093.55916666667</v>
+        <v>38093.559166666666</v>
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-25303.849166666663</v>
+        <v>-25387.757499999996</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>-4210.2899999999936</v>
+        <v>12705.801666666672</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
       <c r="J16" s="49">
         <f>J15/12</f>
-        <v>192.16666666666666</v>
+        <v>170.41666666666666</v>
       </c>
       <c r="K16" s="50">
         <f>K15/12</f>
-        <v>24.244551999999999</v>
+        <v>22.557633333333332</v>
       </c>
       <c r="L16" s="51">
         <f>L15/12</f>
-        <v>78.755447999999987</v>
+        <v>73.275699999999986</v>
       </c>
       <c r="M16" s="52">
         <f>M15/12</f>
-        <v>38.01855916666667</v>
+        <v>34.372725833333334</v>
       </c>
       <c r="N16" s="53">
         <f>AVERAGE(N2:N15)</f>
@@ -20012,18 +20152,18 @@
       <c r="K17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="320">
+      <c r="L17" s="321">
         <f>L15+M15</f>
-        <v>1401.288086</v>
-      </c>
-      <c r="M17" s="320"/>
+        <v>1291.7811099999999</v>
+      </c>
+      <c r="M17" s="321"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="55" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="2">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F33+'05_24'!F21+'06_24'!F22+'04_24'!F15</f>
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F40+'05_24'!F21+'06_24'!F22+'04_24'!F15</f>
         <v>34222.71</v>
       </c>
       <c r="J18" s="26"/>
@@ -20033,7 +20173,7 @@
       <c r="L18" s="56"/>
       <c r="M18" s="57">
         <f>L17/12</f>
-        <v>116.77400716666666</v>
+        <v>107.64842583333332</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -20506,7 +20646,7 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" customWidth="1"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E79552-FEA9-4B34-89F6-4A4E29CFC334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53178A1C-5CE9-4A02-BB40-7561517F9722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="1196">
   <si>
     <t>hacı</t>
   </si>
@@ -3861,10 +3861,13 @@
     <t>snyE senet  5/5   7000 ödenmedi kiracı değişti</t>
   </si>
   <si>
-    <t>snyE Kira Bedeli</t>
-  </si>
-  <si>
     <t>işbank umut ortak hesabe KİRA BEDELİ</t>
+  </si>
+  <si>
+    <t>snyE Kira Bedeli İADE Cihan ÇAM</t>
+  </si>
+  <si>
+    <t>snyE Kira Bedeli Süleyman Akan</t>
   </si>
 </sst>
 </file>
@@ -6882,8 +6885,8 @@
   </sheetPr>
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6928,11 +6931,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G5:G44)</f>
-        <v>-50324.22</v>
+        <v>-74324.22</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7339,7 +7342,7 @@
         <v>45404</v>
       </c>
       <c r="B24" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C24" s="108" t="s">
         <v>91</v>
@@ -7358,7 +7361,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="318"/>
       <c r="B25" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C25" s="108" t="s">
         <v>91</v>
@@ -7377,10 +7380,10 @@
     <row r="26" spans="1:8">
       <c r="A26" s="318"/>
       <c r="B26" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C26" s="108" t="s">
         <v>1193</v>
-      </c>
-      <c r="C26" s="108" t="s">
-        <v>1194</v>
       </c>
       <c r="D26" s="92"/>
       <c r="E26" s="92"/>
@@ -7396,7 +7399,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="318"/>
       <c r="B27" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C27" s="108" t="s">
         <v>91</v>
@@ -7414,14 +7417,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="318"/>
+      <c r="B28" t="s">
+        <v>1194</v>
+      </c>
       <c r="C28" s="108"/>
       <c r="D28" s="92"/>
       <c r="E28" s="92"/>
       <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="G28" s="92">
+        <v>-24000</v>
+      </c>
       <c r="H28" s="92">
         <f t="shared" si="0"/>
-        <v>172515.78</v>
+        <v>148515.78</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7433,7 +7441,7 @@
       <c r="G29" s="92"/>
       <c r="H29" s="92">
         <f t="shared" si="0"/>
-        <v>172515.78</v>
+        <v>148515.78</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7445,7 +7453,7 @@
       <c r="G30" s="92"/>
       <c r="H30" s="92">
         <f t="shared" si="0"/>
-        <v>172515.78</v>
+        <v>148515.78</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7457,14 +7465,14 @@
       <c r="G31" s="92"/>
       <c r="H31" s="92">
         <f t="shared" si="0"/>
-        <v>172515.78</v>
+        <v>148515.78</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="318"/>
       <c r="H32" s="92">
         <f t="shared" si="0"/>
-        <v>172515.78</v>
+        <v>148515.78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7484,7 +7492,7 @@
       </c>
       <c r="H33" s="92">
         <f t="shared" si="0"/>
-        <v>172185.78</v>
+        <v>148185.78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7503,13 +7511,13 @@
       </c>
       <c r="H34" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="H35" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7518,7 +7526,7 @@
       </c>
       <c r="H36" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7530,7 +7538,7 @@
       </c>
       <c r="H37" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7542,7 +7550,7 @@
       </c>
       <c r="H38" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7554,7 +7562,7 @@
       </c>
       <c r="H39" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7566,7 +7574,7 @@
       </c>
       <c r="H40" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7579,13 +7587,13 @@
       </c>
       <c r="H41" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="H42" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7601,7 +7609,7 @@
       </c>
       <c r="H43" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7617,7 +7625,7 @@
       <c r="D44" s="107"/>
       <c r="H44" s="92">
         <f t="shared" si="0"/>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -8602,7 +8610,7 @@
       </c>
       <c r="E145" s="118">
         <f>H2</f>
-        <v>171675.78</v>
+        <v>147675.78</v>
       </c>
     </row>
   </sheetData>
@@ -19647,11 +19655,11 @@
       </c>
       <c r="F6" s="23">
         <f>'04_24'!G2</f>
-        <v>-50324.22</v>
+        <v>-74324.22</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="1"/>
-        <v>154442.38</v>
+        <v>130442.38000000002</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="32" t="s">
@@ -19694,7 +19702,7 @@
       </c>
       <c r="G7" s="24">
         <f t="shared" si="1"/>
-        <v>154275.48000000001</v>
+        <v>130275.48000000003</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="32" t="s">
@@ -19737,7 +19745,7 @@
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>154275.48000000001</v>
+        <v>130275.48000000003</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -19783,7 +19791,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>152469.62000000002</v>
+        <v>128469.62000000002</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -19832,7 +19840,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>152469.62000000002</v>
+        <v>128469.62000000002</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -19878,7 +19886,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>152469.62000000002</v>
+        <v>128469.62000000002</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -19927,7 +19935,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>152469.62000000002</v>
+        <v>128469.62000000002</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -19976,7 +19984,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>152469.62000000002</v>
+        <v>128469.62000000002</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -20025,7 +20033,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>152469.62000000002</v>
+        <v>128469.62000000002</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -20070,11 +20078,11 @@
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-304653.08999999997</v>
+        <v>-328653.08999999997</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>152469.62000000005</v>
+        <v>128469.62000000005</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -20114,11 +20122,11 @@
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-25387.757499999996</v>
+        <v>-27387.757499999996</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>12705.801666666672</v>
+        <v>10705.801666666672</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>

--- a/04-24-Gnlkx.xlsx
+++ b/04-24-Gnlkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53178A1C-5CE9-4A02-BB40-7561517F9722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB416CA-288A-40AC-8318-9C182046219F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -5932,7 +5932,7 @@
   </sheetPr>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6885,8 +6885,8 @@
   </sheetPr>
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A91" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -8142,12 +8142,12 @@
         <v>-6501.46</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="89"/>
       <c r="B97" s="84"/>
       <c r="C97" s="84"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="88">
         <v>45214</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="88">
         <v>45285</v>
       </c>
@@ -8175,8 +8175,11 @@
       <c r="E99" s="77">
         <v>-3551.66</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="89"/>
       <c r="B100" s="3" t="s">
         <v>247</v>
@@ -8188,8 +8191,11 @@
       <c r="E100" s="77">
         <v>-649.78</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="89"/>
       <c r="B101" s="3" t="s">
         <v>178</v>
@@ -8203,13 +8209,16 @@
       <c r="E101" s="77">
         <v>49.98</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="89"/>
       <c r="B102" s="3"/>
       <c r="C102" s="84"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="89">
         <v>45374</v>
       </c>
@@ -8221,7 +8230,7 @@
         <v>-1750</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15">
+    <row r="104" spans="1:6" ht="15">
       <c r="A104" s="89"/>
       <c r="B104" s="3"/>
       <c r="C104" s="84"/>
@@ -8229,42 +8238,42 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="89"/>
       <c r="B105" s="3"/>
       <c r="C105" s="84"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="89"/>
       <c r="B106" s="3"/>
       <c r="C106" s="84"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="89"/>
       <c r="B107" s="3"/>
       <c r="C107" s="84"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="89"/>
       <c r="B108" s="3"/>
       <c r="C108" s="84"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="89"/>
       <c r="B109" s="3"/>
       <c r="C109" s="84"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="89"/>
       <c r="B110" s="3"/>
       <c r="C110" s="84"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="89"/>
       <c r="B111" s="3"/>
       <c r="C111" s="84"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="89"/>
       <c r="B112" s="3"/>
       <c r="C112" s="84"/>
